--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -48,21 +48,6 @@
       <b val="1"/>
       <color theme="1"/>
       <sz val="10"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <charset val="238"/>
-      <family val="2"/>
-      <color indexed="81"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <charset val="238"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color indexed="81"/>
-      <sz val="9"/>
     </font>
   </fonts>
   <fills count="3">
@@ -288,11 +273,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC5C5"/>
+          <bgColor theme="9" tint="0.5999633777886288"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
         </patternFill>
       </fill>
     </dxf>
@@ -310,23 +302,76 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.5999633777886288"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -613,10 +658,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K252"/>
+  <dimension ref="A1:K251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="C138" workbookViewId="0">
+      <selection activeCell="I162" sqref="I162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -6275,11 +6320,11 @@
       </c>
       <c r="I120" s="7" t="inlineStr">
         <is>
-          <t>Kenayathulla, H.B. 2013. "Selection Bias and Private Returns to Education in Malaysia." International Journal of Educational Development 33 (4):380-93.</t>
+          <t>Kenayathulla, Husaina Banu. "Higher levels of education for higher private returns: New evidence from Malaysia." International Journal of Educational Development 33, no. 4 (2013): 380-393.</t>
         </is>
       </c>
       <c r="J120" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K120" s="7" t="b">
         <v>1</v>
@@ -6326,7 +6371,7 @@
         </is>
       </c>
       <c r="J121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K121" s="7" t="b">
         <v>1</v>
@@ -6369,11 +6414,11 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Khan, S.R. and M. Irfan. 1985. "Family Background and Other Determinants of Earnings, and Rates of Returns to Education in Pakistan." Pakistan Society of Development Economists, Second Annual General Meeting, May 12-14, 1985. Pakistan Inst. of Development Economics.</t>
+          <t>Khan, Shahrukh Rafi, Mohammad Irfan, and Suleiman I. Cohen. "Rates of Returns to Education and the Determinants of Earnings in Pakistan [with Comments]." The Pakistan Development Review 24, no. 3/4 (1985): 671-683.</t>
         </is>
       </c>
       <c r="J122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K122" s="7" t="b">
         <v>1</v>
@@ -6420,7 +6465,7 @@
         </is>
       </c>
       <c r="J123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K123" s="7" t="b">
         <v>1</v>
@@ -6467,7 +6512,7 @@
         </is>
       </c>
       <c r="J124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124" s="7" t="b">
         <v>1</v>
@@ -6608,7 +6653,7 @@
         </is>
       </c>
       <c r="J127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K127" s="7" t="b">
         <v>1</v>
@@ -6655,7 +6700,7 @@
         </is>
       </c>
       <c r="J128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K128" s="7" t="b">
         <v>1</v>
@@ -6702,7 +6747,7 @@
         </is>
       </c>
       <c r="J129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K129" s="7" t="b">
         <v>1</v>
@@ -6749,7 +6794,7 @@
         </is>
       </c>
       <c r="J130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K130" s="7" t="b">
         <v>1</v>
@@ -6796,7 +6841,7 @@
         </is>
       </c>
       <c r="J131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K131" s="7" t="b">
         <v>1</v>
@@ -6843,7 +6888,7 @@
         </is>
       </c>
       <c r="J132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K132" s="7" t="b">
         <v>1</v>
@@ -6855,7 +6900,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Laguna and Porta (2004)</t>
+          <t>Laguna and Porta (2013)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6864,7 +6909,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2004</v>
+        <v>2013</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -6881,16 +6926,16 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Laguna and Porta (2004)</t>
+          <t>Laguna and Porta (2013)</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Laguna, J.R. and E. Porta. 2004. "Análisis de la Rentabilidad de la Educación en Nicaragua." Gobierno de Nicaragua, Ministerio de Educacion, Managua, Nicaragua.</t>
+          <t>Laguna, José Ramón, and Emilio Porta. "Análisis de la Rentabilidad de la Educación en Nicaragua." Documento de Trabajo. Managua: FUNIDES (2013).</t>
         </is>
       </c>
       <c r="J133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K133" s="7" t="b">
         <v>1</v>
@@ -6940,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="K134" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -7031,7 +7076,7 @@
         </is>
       </c>
       <c r="J136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K136" s="7" t="b">
         <v>1</v>
@@ -7078,7 +7123,7 @@
         </is>
       </c>
       <c r="J137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K137" s="7" t="b">
         <v>1</v>
@@ -7125,7 +7170,7 @@
         </is>
       </c>
       <c r="J138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K138" s="7" t="b">
         <v>1</v>
@@ -7219,7 +7264,7 @@
         </is>
       </c>
       <c r="J140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K140" s="7" t="b">
         <v>1</v>
@@ -7360,7 +7405,7 @@
         </is>
       </c>
       <c r="J143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K143" s="7" t="b">
         <v>1</v>
@@ -7407,7 +7452,7 @@
         </is>
       </c>
       <c r="J144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K144" s="7" t="b">
         <v>1</v>
@@ -7454,7 +7499,7 @@
         </is>
       </c>
       <c r="J145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K145" s="7" t="b">
         <v>1</v>
@@ -7501,7 +7546,7 @@
         </is>
       </c>
       <c r="J146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K146" s="7" t="b">
         <v>1</v>
@@ -7548,7 +7593,7 @@
         </is>
       </c>
       <c r="J147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K147" s="7" t="b">
         <v>1</v>
@@ -7645,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="K149" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -7689,7 +7734,7 @@
         </is>
       </c>
       <c r="J150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K150" s="7" t="b">
         <v>1</v>
@@ -7783,7 +7828,7 @@
         </is>
       </c>
       <c r="J152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K152" s="7" t="b">
         <v>1</v>
@@ -7830,7 +7875,7 @@
         </is>
       </c>
       <c r="J153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K153" s="7" t="b">
         <v>1</v>
@@ -7880,7 +7925,7 @@
         <v>0</v>
       </c>
       <c r="K154" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -8018,7 +8063,7 @@
         </is>
       </c>
       <c r="J157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K157" s="7" t="b">
         <v>1</v>
@@ -8065,7 +8110,7 @@
         </is>
       </c>
       <c r="J158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K158" s="7" t="b">
         <v>1</v>
@@ -8112,7 +8157,7 @@
         </is>
       </c>
       <c r="J159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K159" s="7" t="b">
         <v>1</v>
@@ -8159,7 +8204,7 @@
         </is>
       </c>
       <c r="J160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K160" s="7" t="b">
         <v>1</v>
@@ -8206,7 +8251,7 @@
         </is>
       </c>
       <c r="J161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K161" s="7" t="b">
         <v>1</v>
@@ -8253,7 +8298,7 @@
         </is>
       </c>
       <c r="J162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K162" s="7" t="b">
         <v>1</v>
@@ -8300,7 +8345,7 @@
         </is>
       </c>
       <c r="J163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K163" s="7" t="b">
         <v>1</v>
@@ -8347,7 +8392,7 @@
         </is>
       </c>
       <c r="J164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K164" s="7" t="b">
         <v>1</v>
@@ -8355,11 +8400,11 @@
     </row>
     <row r="165">
       <c r="A165" s="3" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Newell and Reilly (1997)</t>
+          <t>Newell and Reilly (1999)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8368,7 +8413,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -8385,16 +8430,16 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Newell and Reilly (1997)</t>
+          <t>Newell and Reilly (1999)</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Newell, A. and B. Reilly. 1999. "Rates of return to educational qualifications in the transitional economies." Education economics 7(1): 67-84.</t>
+          <t>Newell, A. and Reilly, B., 1999. Rates of return to educational qualifications in the transitional economies. Education economics, 7(1), pp.67-84.</t>
         </is>
       </c>
       <c r="J165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K165" s="7" t="b">
         <v>1</v>
@@ -8402,29 +8447,29 @@
     </row>
     <row r="166">
       <c r="A166" s="3" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Newell and Reilly (1999)</t>
+          <t>Nguyen (2002)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Newell and Reilly</t>
+          <t>Nguyen</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Education economics</t>
+          <t>World bank, research paper</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Education economics</t>
+          <t>World Bank Policy Research Working Paper</t>
         </is>
       </c>
       <c r="G166" t="b">
@@ -8432,16 +8477,16 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Newell and Reilly (1999)</t>
+          <t>Nguyen (2002)</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Newell, A. and Reilly, B., 1999. Rates of return to educational qualifications in the transitional economies. Education economics, 7(1), pp.67-84.</t>
+          <t>Nguyen, N.N. 2002. "Trends in the Education Sector 1993-1998." World Bank Policy Research Working Paper 2891.</t>
         </is>
       </c>
       <c r="J166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K166" s="7" t="b">
         <v>1</v>
@@ -8449,29 +8494,29 @@
     </row>
     <row r="167">
       <c r="A167" s="3" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Nguyen (2002)</t>
+          <t>Nonneman and Cortens (1997)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Nguyen</t>
+          <t>Nonneman and Cortens</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>World bank, research paper</t>
+          <t>Applied Economics Letters</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>World Bank Policy Research Working Paper</t>
+          <t>Applied Economics Letters</t>
         </is>
       </c>
       <c r="G167" t="b">
@@ -8479,16 +8524,16 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Nguyen (2002)</t>
+          <t>Nonneman and Cortens (1997)</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Nguyen, N.N. 2002. "Trends in the Education Sector 1993-1998." World Bank Policy Research Working Paper 2891.</t>
+          <t>Nonneman, W. and I. Cortens. 1997. "A Note on the Rate of Return to Investment in Education in Belgium." Applied Economics Letters 4: 167-171.</t>
         </is>
       </c>
       <c r="J167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K167" s="7" t="b">
         <v>1</v>
@@ -8496,29 +8541,29 @@
     </row>
     <row r="168">
       <c r="A168" s="3" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Nonneman and Cortens (1997)</t>
+          <t>Nour (2011)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Nonneman and Cortens</t>
+          <t>Nour</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1997</v>
+        <v>2011</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Applied Economics Letters</t>
+          <t>UNUMERIT Working Papers</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Applied Economics Letters</t>
+          <t>UNUMERIT Working Papers</t>
         </is>
       </c>
       <c r="G168" t="b">
@@ -8526,12 +8571,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Nonneman and Cortens (1997)</t>
+          <t>Nour (2011)</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Nonneman, W. and I. Cortens. 1997. "A Note on the Rate of Return to Investment in Education in Belgium." Applied Economics Letters 4: 167-171.</t>
+          <t>Nour, S. 2011. "Estimating the Rate of Return to Education in Sudan. UNU-MERIT Working Papers.</t>
         </is>
       </c>
       <c r="J168" t="b">
@@ -8543,29 +8588,29 @@
     </row>
     <row r="169">
       <c r="A169" s="3" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Nour (2011)</t>
+          <t>OECD (2006)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Nour</t>
+          <t>OECD</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>UNUMERIT Working Papers</t>
+          <t>Economic Surveys Iceland Paris OECD</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>UNUMERIT Working Papers</t>
+          <t>Economic Surveys Iceland Paris OECD</t>
         </is>
       </c>
       <c r="G169" t="b">
@@ -8573,12 +8618,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Nour (2011)</t>
+          <t>OECD (2006)</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Nour, S. 2011. "Estimating the Rate of Return to Education in Sudan. UNU-MERIT Working Papers.</t>
+          <t>OECD.  2006.  OECD Economic Surveys Iceland. Paris: OECD.</t>
         </is>
       </c>
       <c r="J169" t="b">
@@ -8590,11 +8635,11 @@
     </row>
     <row r="170">
       <c r="A170" s="3" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>OECD (2006)</t>
+          <t>OECD (2013)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8603,16 +8648,16 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Economic Surveys Iceland Paris OECD</t>
+          <t>Education at a Glance OECD Indicators Paris OECD</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Economic Surveys Iceland Paris OECD</t>
+          <t>Education at a Glance OECD Indicators Paris OECD</t>
         </is>
       </c>
       <c r="G170" t="b">
@@ -8620,12 +8665,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>OECD (2006)</t>
+          <t>OECD (2013)</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>OECD.  2006.  OECD Economic Surveys Iceland. Paris: OECD.</t>
+          <t>OECD. 2013. Education at a Glance: OECD Indicators 2013. Paris: OECD.</t>
         </is>
       </c>
       <c r="J170" t="b">
@@ -8637,11 +8682,11 @@
     </row>
     <row r="171">
       <c r="A171" s="3" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>OECD (2013)</t>
+          <t>OECD (2015)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8650,7 +8695,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -8667,12 +8712,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>OECD (2013)</t>
+          <t>OECD (2015)</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>OECD. 2013. Education at a Glance: OECD Indicators 2013. Paris: OECD.</t>
+          <t>OECD. 2015. Education at a Glance 2015: OECD Indicators. Paris: OECD.</t>
         </is>
       </c>
       <c r="J171" t="b">
@@ -8684,29 +8729,29 @@
     </row>
     <row r="172">
       <c r="A172" s="3" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>OECD (2015)</t>
+          <t>Oyelere (2010)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>OECD</t>
+          <t>Oyelere</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Education at a Glance OECD Indicators Paris OECD</t>
+          <t>Journal of Development Economics</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Education at a Glance OECD Indicators Paris OECD</t>
+          <t>Journal of Development Economics</t>
         </is>
       </c>
       <c r="G172" t="b">
@@ -8714,16 +8759,16 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>OECD (2015)</t>
+          <t>Oyelere (2010)</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>OECD. 2015. Education at a Glance 2015: OECD Indicators. Paris: OECD.</t>
+          <t>Oyelere, R.U. 2010. "Africa's Education Enigma? The Nigerian Story." Journal of Development Economics 91(1): 128-39.</t>
         </is>
       </c>
       <c r="J172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K172" s="7" t="b">
         <v>1</v>
@@ -8731,11 +8776,11 @@
     </row>
     <row r="173">
       <c r="A173" s="3" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Oyelere (2010)</t>
+          <t>Oyelere (2011)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8744,16 +8789,16 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Journal of Development Economics</t>
+          <t>Journal of African Economies</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Journal of Development Economics</t>
+          <t>Journal of African Economies</t>
         </is>
       </c>
       <c r="G173" t="b">
@@ -8761,16 +8806,16 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Oyelere (2010)</t>
+          <t>Oyelere (2011)</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Oyelere, R.U. 2010. "Africa's Education Enigma? The Nigerian Story." Journal of Development Economics 91(1): 128-39.</t>
+          <t>Oyelere, R. 2011. "Have Returns to Education Changed in Nigeria? Uncovering the Role of Democratic Reforms." Journal of African Economies 20(5): 737-780.</t>
         </is>
       </c>
       <c r="J173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K173" s="7" t="b">
         <v>1</v>
@@ -8778,29 +8823,29 @@
     </row>
     <row r="174">
       <c r="A174" s="3" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Oyelere (2011)</t>
+          <t>Pastore and Verashchagina (2006)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Oyelere</t>
+          <t>Pastore and Verashchagina</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Journal of African Economies</t>
+          <t>Economics of Education Review</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Journal of African Economies</t>
+          <t>Economics of Education Review</t>
         </is>
       </c>
       <c r="G174" t="b">
@@ -8808,16 +8853,16 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Oyelere (2011)</t>
+          <t>Pastore and Verashchagina (2006)</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Oyelere, R. 2011. "Have Returns to Education Changed in Nigeria? Uncovering the Role of Democratic Reforms." Journal of African Economies 20(5): 737-780.</t>
+          <t>Pastore, F. and A. Verashchagina. 2006. "Private Returns to Human Capital Over Transition: A Case Study of Belarus." Economics of Education Review 25(1): 91-107.</t>
         </is>
       </c>
       <c r="J174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K174" s="7" t="b">
         <v>1</v>
@@ -8825,29 +8870,29 @@
     </row>
     <row r="175">
       <c r="A175" s="3" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Pastore and Verashchagina (2006)</t>
+          <t>Patrinos (1995)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Pastore and Verashchagina</t>
+          <t>Patrinos</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Economics of Education Review</t>
+          <t>World Bank mimeo</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Economics of Education Review</t>
+          <t>World Bank mimeo</t>
         </is>
       </c>
       <c r="G175" t="b">
@@ -8855,16 +8900,16 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Pastore and Verashchagina (2006)</t>
+          <t>Patrinos (1995)</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Pastore, F. and A. Verashchagina. 2006. "Private Returns to Human Capital Over Transition: A Case Study of Belarus." Economics of Education Review 25(1): 91-107.</t>
+          <t>Patrinos, H.A. 1995. "Education and Earnings Differentials." World Bank (mimeo).</t>
         </is>
       </c>
       <c r="J175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K175" s="7" t="b">
         <v>1</v>
@@ -8872,29 +8917,29 @@
     </row>
     <row r="176">
       <c r="A176" s="3" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Patrinos (1995)</t>
+          <t>Patrinos and Sakellariou (2004)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Patrinos</t>
+          <t>Patrinos and Sakellariou</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>1995</v>
+        <v>2004</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>World Bank mimeo</t>
+          <t>World Bank Processed</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>World Bank mimeo</t>
+          <t>World Bank Processed</t>
         </is>
       </c>
       <c r="G176" t="b">
@@ -8902,12 +8947,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Patrinos (1995)</t>
+          <t>Patrinos and Sakellariou (2004)</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Patrinos, H.A. 1995. "Education and Earnings Differentials." World Bank (mimeo).</t>
+          <t>Patrinos, H.A. and C. Sakellariou. 2004. "Economic Volatility and Returns to Education in Venezuela: 1992-2002."  World Bank (Processed).</t>
         </is>
       </c>
       <c r="J176" t="b">
@@ -8919,29 +8964,29 @@
     </row>
     <row r="177">
       <c r="A177" s="3" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Patrinos and Sakellariou (2004)</t>
+          <t>Patrinos, Ridao and Sakellariou (2009)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Patrinos and Sakellariou</t>
+          <t>Patrinos, Ridao and Sakellariou</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>World Bank Processed</t>
+          <t>Empirical Economics</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>World Bank Processed</t>
+          <t>Empirical Economics</t>
         </is>
       </c>
       <c r="G177" t="b">
@@ -8949,16 +8994,16 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Patrinos and Sakellariou (2004)</t>
+          <t>Patrinos, Ridao and Sakellariou (2009)</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Patrinos, H.A. and C. Sakellariou. 2004. "Economic Volatility and Returns to Education in Venezuela: 1992-2002."  World Bank (Processed).</t>
+          <t>Patrinos, H., C. Ridao-Cano and C. Sakellariou. 2009. "A Note on Schooling and Wage Inequality in the Public and Private sector." Empirical Economics 37(2): 383-392.</t>
         </is>
       </c>
       <c r="J177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K177" s="7" t="b">
         <v>1</v>
@@ -8966,46 +9011,46 @@
     </row>
     <row r="178">
       <c r="A178" s="3" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Patrinos, Ridao and Sakellariou (2009)</t>
+          <t>Patrinos, Velez and Psacharopoulos (1994)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Patrinos, Ridao and Sakellariou</t>
+          <t>Patrinos, Velez and Psacharopoulos</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>2009</v>
+        <v>1994</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Empirical Economics</t>
+          <t>Journal of Developing Areas</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Empirical Economics</t>
+          <t>Journal of Developing Areas</t>
         </is>
       </c>
       <c r="G178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Patrinos, Ridao and Sakellariou (2009)</t>
+          <t>Patrinos, Velez and Psacharopoulos (1994)</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Patrinos, H., C. Ridao-Cano and C. Sakellariou. 2009. "A Note on Schooling and Wage Inequality in the Public and Private sector." Empirical Economics 37(2): 383-392.</t>
+          <t>Patrinos, H.A., E. Velez, and G. Psacharopoulos. 1994. "Language, Education and Earnings in Asuncion, Paraguay."  Journal of Developing Areas 29: 57-68.</t>
         </is>
       </c>
       <c r="J178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K178" s="7" t="b">
         <v>1</v>
@@ -9013,46 +9058,46 @@
     </row>
     <row r="179">
       <c r="A179" s="3" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Patrinos, Velez and Psacharopoulos (1994)</t>
+          <t>Peet, Fink and Fawzi (2015)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Patrinos, Velez and Psacharopoulos</t>
+          <t>Peet, Fink and Fawzi</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1994</v>
+        <v>2015</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Journal of Developing Areas</t>
+          <t>Economics of Education Review</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Journal of Developing Areas</t>
+          <t>Economics of Education Review</t>
         </is>
       </c>
       <c r="G179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Patrinos, Velez and Psacharopoulos (1994)</t>
+          <t>Peet, Fink and Fawzi (2015)</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Patrinos, H.A., E. Velez, and G. Psacharopoulos. 1994. "Language, Education and Earnings in Asuncion, Paraguay."  Journal of Developing Areas 29: 57-68.</t>
+          <t>Peet, E., G. Fink, and W. Fawzi. 2015. "Returns to Education in Developing Countries: Evidence from Living Standards and Measurement Study Surveys." Economics of Education Review 49: 69-90.</t>
         </is>
       </c>
       <c r="J179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K179" s="7" t="b">
         <v>1</v>
@@ -9060,29 +9105,29 @@
     </row>
     <row r="180">
       <c r="A180" s="3" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Peet, Fink and Fawzi (2015)</t>
+          <t>Pischke and Wachter (2005)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Peet, Fink and Fawzi</t>
+          <t>Pischke and Wachter</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Economics of Education Review</t>
+          <t>Unspecified</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Economics of Education Review</t>
+          <t>Unspecified</t>
         </is>
       </c>
       <c r="G180" t="b">
@@ -9090,12 +9135,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Peet, Fink and Fawzi (2015)</t>
+          <t>Pischke and Wachter (2005)</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Peet, E., G. Fink, and W. Fawzi. 2015. "Returns to Education in Developing Countries: Evidence from Living Standards and Measurement Study Surveys." Economics of Education Review 49: 69-90.</t>
+          <t>Pischke, J.S. and T. von Wachter. 2005. "Zero Returns to Compulsory Schooling in Germany: Evidence and Interpretation."</t>
         </is>
       </c>
       <c r="J180" t="b">
@@ -9107,29 +9152,29 @@
     </row>
     <row r="181">
       <c r="A181" s="3" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Pischke and Wachter (2005)</t>
+          <t>Polachek (2008)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Pischke and Wachter</t>
+          <t>Polachek</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Unspecified</t>
+          <t>Foundations and Trends in Microeconomics</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Unspecified</t>
+          <t>Foundations and Trends in Microeconomics</t>
         </is>
       </c>
       <c r="G181" t="b">
@@ -9137,16 +9182,16 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Pischke and Wachter (2005)</t>
+          <t>Polachek (2008)</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Pischke, J.S. and T. von Wachter. 2005. "Zero Returns to Compulsory Schooling in Germany: Evidence and Interpretation."</t>
+          <t>Polachek, S.W. 2008. "Earnings Over the Life Cycle: The Mincer Earnings Function and Its Applications." Foundations and Trends in Microeconomics 4(3): 165-272.</t>
         </is>
       </c>
       <c r="J181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K181" s="7" t="b">
         <v>1</v>
@@ -9154,29 +9199,29 @@
     </row>
     <row r="182">
       <c r="A182" s="3" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Polachek (2008)</t>
+          <t>Popov (2013)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Polachek</t>
+          <t>Popov</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Foundations and Trends in Microeconomics</t>
+          <t>Megatrend Revija</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Foundations and Trends in Microeconomics</t>
+          <t>Megatrend Revija</t>
         </is>
       </c>
       <c r="G182" t="b">
@@ -9184,16 +9229,16 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Polachek (2008)</t>
+          <t>Popov (2013)</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Polachek, S.W. 2008. "Earnings Over the Life Cycle: The Mincer Earnings Function and Its Applications." Foundations and Trends in Microeconomics 4(3): 165-272.</t>
+          <t>Popov, D. 2013. "Economics of Education in Serbia: Between Human Capital and Signaling and Screening Theories." Megatrend Revija 11(1): 241-258.</t>
         </is>
       </c>
       <c r="J182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K182" s="7" t="b">
         <v>1</v>
@@ -9201,29 +9246,29 @@
     </row>
     <row r="183">
       <c r="A183" s="3" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Popov (2013)</t>
+          <t>Psacharopoulos (1981)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Popov</t>
+          <t>Psacharopoulos</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>2013</v>
+        <v>1981</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Megatrend Revija</t>
+          <t>Comparative Education</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Megatrend Revija</t>
+          <t>Comparative Education</t>
         </is>
       </c>
       <c r="G183" t="b">
@@ -9231,16 +9276,16 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Popov (2013)</t>
+          <t>Psacharopoulos (1981)</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Popov, D. 2013. "Economics of Education in Serbia: Between Human Capital and Signaling and Screening Theories." Megatrend Revija 11(1): 241-258.</t>
+          <t>Psacharopoulos, G. 1981. "Returns to Education: An Updated International Comparison." Comparative Education 17(3): 321-341.</t>
         </is>
       </c>
       <c r="J183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K183" s="7" t="b">
         <v>1</v>
@@ -9248,11 +9293,11 @@
     </row>
     <row r="184">
       <c r="A184" s="3" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Psacharopoulos (1981)</t>
+          <t>Psacharopoulos (1982)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9261,16 +9306,16 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Comparative Education</t>
+          <t>European Economic Review</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Comparative Education</t>
+          <t>European Economic Review</t>
         </is>
       </c>
       <c r="G184" t="b">
@@ -9278,12 +9323,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Psacharopoulos (1981)</t>
+          <t>Psacharopoulos (1982)</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Psacharopoulos, G. 1981. "Returns to Education: An Updated International Comparison." Comparative Education 17(3): 321-341.</t>
+          <t>Psacharopoulos, G. 1982. "Earnings and education in Greece, 1960–1977." European Economic Review 17(3): 333-347.</t>
         </is>
       </c>
       <c r="J184" t="b">
@@ -9295,11 +9340,11 @@
     </row>
     <row r="185">
       <c r="A185" s="3" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Psacharopoulos (1982)</t>
+          <t>Psacharopoulos (1985)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9308,16 +9353,16 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>1982</v>
+        <v>1985</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>European Economic Review</t>
+          <t>Journal of Human Resources</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>European Economic Review</t>
+          <t>Journal of Human Resources</t>
         </is>
       </c>
       <c r="G185" t="b">
@@ -9325,16 +9370,16 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Psacharopoulos (1982)</t>
+          <t>Psacharopoulos (1985)</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Psacharopoulos, G. 1982. "Earnings and education in Greece, 1960–1977." European Economic Review 17(3): 333-347.</t>
+          <t>Psacharopoulos, G. 1985. "Returns to Education: A Further International Update and Implications." Journal of Human Resources 20(4): 583-604.</t>
         </is>
       </c>
       <c r="J185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K185" s="7" t="b">
         <v>1</v>
@@ -9342,11 +9387,11 @@
     </row>
     <row r="186">
       <c r="A186" s="3" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Psacharopoulos (1985)</t>
+          <t>Psacharopoulos (1989)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9355,16 +9400,16 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Journal of Human Resources</t>
+          <t>Economics of Education Review</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Journal of Human Resources</t>
+          <t>Economics of Education Review</t>
         </is>
       </c>
       <c r="G186" t="b">
@@ -9372,12 +9417,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Psacharopoulos (1985)</t>
+          <t>Psacharopoulos (1989)</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Psacharopoulos, G. 1985. "Returns to Education: A Further International Update and Implications." Journal of Human Resources 20(4): 583-604.</t>
+          <t>Psacharopoulos, G. 1989. "Time trends of the returns to education: Cross-national evidence." Economics of Education Review 8(3): 225-231.</t>
         </is>
       </c>
       <c r="J186" t="b">
@@ -9389,11 +9434,11 @@
     </row>
     <row r="187">
       <c r="A187" s="3" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Psacharopoulos (1989)</t>
+          <t>Psacharopoulos (1994)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9402,16 +9447,16 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>1989</v>
+        <v>1994</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Economics of Education Review</t>
+          <t>World Development</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Economics of Education Review</t>
+          <t>World Development</t>
         </is>
       </c>
       <c r="G187" t="b">
@@ -9419,16 +9464,16 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Psacharopoulos (1989)</t>
+          <t>Psacharopoulos (1994)</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Psacharopoulos, G. 1989. "Time trends of the returns to education: Cross-national evidence." Economics of Education Review 8(3): 225-231.</t>
+          <t>Psacharopoulos, G. 1994. "Returns to Investment in Education: A Global Update." World Development 22(9): 1325-43.</t>
         </is>
       </c>
       <c r="J187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K187" s="7" t="b">
         <v>1</v>
@@ -9436,29 +9481,29 @@
     </row>
     <row r="188">
       <c r="A188" s="3" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Psacharopoulos (1994)</t>
+          <t>Psacharopoulos and Alam (1991)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Psacharopoulos</t>
+          <t>Psacharopoulos and Alam</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>World Development</t>
+          <t>Economics of Education Review</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>World Development</t>
+          <t>Economics of Education Review</t>
         </is>
       </c>
       <c r="G188" t="b">
@@ -9466,12 +9511,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Psacharopoulos (1994)</t>
+          <t>Psacharopoulos and Alam (1991)</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Psacharopoulos, G. 1994. "Returns to Investment in Education: A Global Update." World Development 22(9): 1325-43.</t>
+          <t>Psacharopoulos, G. and A. Alam. 1991. "Earnings and education in Venezuela: an update from the 1987 Household Survey." Economics of Education Review 10(1): 29-36.</t>
         </is>
       </c>
       <c r="J188" t="b">
@@ -9483,29 +9528,29 @@
     </row>
     <row r="189">
       <c r="A189" s="3" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Alam (1991)</t>
+          <t>Psacharopoulos and Layard (1979)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Alam</t>
+          <t>Psacharopoulos and Layard</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1991</v>
+        <v>1979</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Economics of Education Review</t>
+          <t>Review of Economic Studies</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Economics of Education Review</t>
+          <t>Review of Economic Studies</t>
         </is>
       </c>
       <c r="G189" t="b">
@@ -9513,16 +9558,16 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Alam (1991)</t>
+          <t>Psacharopoulos and Layard (1979)</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Psacharopoulos, G. and A. Alam. 1991. "Earnings and education in Venezuela: an update from the 1987 Household Survey." Economics of Education Review 10(1): 29-36.</t>
+          <t>Psacharopoulos, G. and R. Layard.  1979. "Human Capital and Earnings: British Evidence and a Critique." Review of Economic Studies 46: 485-503.</t>
         </is>
       </c>
       <c r="J189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K189" s="7" t="b">
         <v>1</v>
@@ -9530,29 +9575,29 @@
     </row>
     <row r="190">
       <c r="A190" s="3" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Layard (1979)</t>
+          <t>Psacharopoulos and Mattson (1998)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Layard</t>
+          <t>Psacharopoulos and Mattson</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1979</v>
+        <v>1998</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Review of Economic Studies</t>
+          <t>Journal of Educational Development and Administration</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Review of Economic Studies</t>
+          <t>Journal of Educational Development and Administration</t>
         </is>
       </c>
       <c r="G190" t="b">
@@ -9560,16 +9605,16 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Layard (1979)</t>
+          <t>Psacharopoulos and Mattson (1998)</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Psacharopoulos, G. and R. Layard.  1979. "Human Capital and Earnings: British Evidence and a Critique." Review of Economic Studies 46: 485-503.</t>
+          <t>Psacharopoulos, G. and R. Mattson. 1998. "Estimating the Returns to Education: A Sensitivity Analysis of Methods and Sample Size." Journal of Educational Development and Administration 12(3): 271-287.</t>
         </is>
       </c>
       <c r="J190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K190" s="7" t="b">
         <v>1</v>
@@ -9577,29 +9622,29 @@
     </row>
     <row r="191">
       <c r="A191" s="3" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Mattson (1998)</t>
+          <t>Psacharopoulos and Patrinos (2004)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Mattson</t>
+          <t>Psacharopoulos and Patrinos</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>1998</v>
+        <v>2004</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Journal of Educational Development and Administration</t>
+          <t>Education Economics</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Journal of Educational Development and Administration</t>
+          <t>Education Economics</t>
         </is>
       </c>
       <c r="G191" t="b">
@@ -9607,16 +9652,16 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Mattson (1998)</t>
+          <t>Psacharopoulos and Patrinos (2004)</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Psacharopoulos, G. and R. Mattson. 1998. "Estimating the Returns to Education: A Sensitivity Analysis of Methods and Sample Size." Journal of Educational Development and Administration 12(3): 271-287.</t>
+          <t>Psacharopoulos, G. and H.A. Patrinos. 2004. "Returns to Investment in Education: A Further Update." Education Economics 12(2): 111-134.</t>
         </is>
       </c>
       <c r="J191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K191" s="7" t="b">
         <v>1</v>
@@ -9624,29 +9669,29 @@
     </row>
     <row r="192">
       <c r="A192" s="3" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Patrinos (2004)</t>
+          <t>Psacharopoulos and Steier (1988)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Patrinos</t>
+          <t>Psacharopoulos and Steier</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>2004</v>
+        <v>1988</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Education Economics</t>
+          <t>Economics of Education Review</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Education Economics</t>
+          <t>Economics of Education Review</t>
         </is>
       </c>
       <c r="G192" t="b">
@@ -9654,12 +9699,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Patrinos (2004)</t>
+          <t>Psacharopoulos and Steier (1988)</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Psacharopoulos, G. and H.A. Patrinos. 2004. "Returns to Investment in Education: A Further Update." Education Economics 12(2): 111-134.</t>
+          <t>Psacharopoulos, G. and F. Steier. 1988. "Education and the labor market in Venezuela, 1975–1984." Economics of Education Review 7(3): 321-332.</t>
         </is>
       </c>
       <c r="J192" t="b">
@@ -9671,29 +9716,29 @@
     </row>
     <row r="193">
       <c r="A193" s="3" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Steier (1988)</t>
+          <t>Psacharopoulos and Velez (1992)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Steier</t>
+          <t>Psacharopoulos and Velez</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Economics of Education Review</t>
+          <t>Bulletin of Latin American Research</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Economics of Education Review</t>
+          <t>Bulletin of Latin American Research</t>
         </is>
       </c>
       <c r="G193" t="b">
@@ -9701,16 +9746,16 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Steier (1988)</t>
+          <t>Psacharopoulos and Velez (1992)</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Psacharopoulos, G. and F. Steier. 1988. "Education and the labor market in Venezuela, 1975–1984." Economics of Education Review 7(3): 321-332.</t>
+          <t>Psacharopoulos, G., A.M. Arriagada and E. Velez. 1992. "Earnings and education among self-employed males in Colombia." Bulletin of Latin American Research 11(1): 69-89.</t>
         </is>
       </c>
       <c r="J193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K193" s="7" t="b">
         <v>1</v>
@@ -9718,29 +9763,29 @@
     </row>
     <row r="194">
       <c r="A194" s="3" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Velez (1992)</t>
+          <t>Psacharopoulos et. al. (1996)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Velez</t>
+          <t>Psacharopoulos et. al.</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Bulletin of Latin American Research</t>
+          <t>Education Economics</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Bulletin of Latin American Research</t>
+          <t>Education Economics</t>
         </is>
       </c>
       <c r="G194" t="b">
@@ -9748,12 +9793,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Velez (1992)</t>
+          <t>Psacharopoulos et. al. (1996)</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Psacharopoulos, G., A.M. Arriagada and E. Velez. 1992. "Earnings and education among self-employed males in Colombia." Bulletin of Latin American Research 11(1): 69-89.</t>
+          <t>Psacharopoulos, G., E. Velez, A. Panagides and H. Yang. 1996. "The Returns to Education During Boom and Recession: Mexico 1984, 1989, and 1992." Education Economics 4(3): 219-230.</t>
         </is>
       </c>
       <c r="J194" t="b">
@@ -9765,29 +9810,29 @@
     </row>
     <row r="195">
       <c r="A195" s="3" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Psacharopoulos et. al. (1996)</t>
+          <t>Psacharopoulos, Ariera and Mattson (1997)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Psacharopoulos et. al.</t>
+          <t>Psacharopoulos, Ariera and Mattson</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Education Economics</t>
+          <t>Economics of Education Review</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Education Economics</t>
+          <t>Economics of Education Review</t>
         </is>
       </c>
       <c r="G195" t="b">
@@ -9795,16 +9840,16 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Psacharopoulos et. al. (1996)</t>
+          <t>Psacharopoulos, Ariera and Mattson (1997)</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Psacharopoulos, G., E. Velez, A. Panagides and H. Yang. 1996. "The Returns to Education During Boom and Recession: Mexico 1984, 1989, and 1992." Education Economics 4(3): 219-230.</t>
+          <t xml:space="preserve">Psacharopoulos, G., C. Ariera, and R. Mattson. 1997. "Private Education in a Poor Country: The Case of Bolivia." Economics of Education Review 16(4): 377-386. </t>
         </is>
       </c>
       <c r="J195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K195" s="7" t="b">
         <v>1</v>
@@ -9812,29 +9857,29 @@
     </row>
     <row r="196">
       <c r="A196" s="3" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Psacharopoulos, Ariera and Mattson (1997)</t>
+          <t>Psacharopoulos, Arriagada and Velez (1992)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Psacharopoulos, Ariera and Mattson</t>
+          <t>Psacharopoulos, Arriagada and Velez</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Economics of Education Review</t>
+          <t>Economic Development and Cultural Change</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Economics of Education Review</t>
+          <t>Economic Development and Cultural Change</t>
         </is>
       </c>
       <c r="G196" t="b">
@@ -9842,16 +9887,16 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Psacharopoulos, Ariera and Mattson (1997)</t>
+          <t>Psacharopoulos, Arriagada and Velez (1992)</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t xml:space="preserve">Psacharopoulos, G., C. Ariera, and R. Mattson. 1997. "Private Education in a Poor Country: The Case of Bolivia." Economics of Education Review 16(4): 377-386. </t>
+          <t>Psacharopoulos, G. and E. Velez. 1992. "Schooling, ability, and earnings in Colombia, 1988." Economic Development and Cultural Change 40(3): 629-643.</t>
         </is>
       </c>
       <c r="J196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K196" s="7" t="b">
         <v>1</v>
@@ -9859,29 +9904,29 @@
     </row>
     <row r="197">
       <c r="A197" s="3" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Psacharopoulos, Arriagada and Velez (1992)</t>
+          <t>Reilly and Bellony (2009)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Psacharopoulos, Arriagada and Velez</t>
+          <t>Reilly and Bellony</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>1992</v>
+        <v>2009</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Economic Development and Cultural Change</t>
+          <t>Journal of Developing Areas</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Economic Development and Cultural Change</t>
+          <t>Journal of Developing Areas</t>
         </is>
       </c>
       <c r="G197" t="b">
@@ -9889,12 +9934,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Psacharopoulos, Arriagada and Velez (1992)</t>
+          <t>Reilly and Bellony (2009)</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Psacharopoulos, G. and E. Velez. 1992. "Schooling, ability, and earnings in Colombia, 1988." Economic Development and Cultural Change 40(3): 629-643.</t>
+          <t>Reilly, B. and A. Bellony. 2009. "The Determinants of Labor Market Earnings in a Small Caribbean Island: The Case of Dominica."  Journal of Developing Areas 43(1): 65-85.</t>
         </is>
       </c>
       <c r="J197" t="b">
@@ -9906,29 +9951,29 @@
     </row>
     <row r="198">
       <c r="A198" s="3" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Reilly and Bellony (2009)</t>
+          <t>Riveros (1990)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Reilly and Bellony</t>
+          <t>Riveros</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>2009</v>
+        <v>1990</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Journal of Developing Areas</t>
+          <t>Economics of Education Review</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Journal of Developing Areas</t>
+          <t>Economics of Education Review</t>
         </is>
       </c>
       <c r="G198" t="b">
@@ -9936,16 +9981,16 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Reilly and Bellony (2009)</t>
+          <t>Riveros (1990)</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Reilly, B. and A. Bellony. 2009. "The Determinants of Labor Market Earnings in a Small Caribbean Island: The Case of Dominica."  Journal of Developing Areas 43(1): 65-85.</t>
+          <t>Riveros, L.A.  1990. "The Economic Return to Schooling in Chile. An Analysis of Its Long-Term Fluctuations." Economics of Education Review 9(2): 111-121.</t>
         </is>
       </c>
       <c r="J198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K198" s="7" t="b">
         <v>1</v>
@@ -9953,29 +9998,29 @@
     </row>
     <row r="199">
       <c r="A199" s="3" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Riveros (1990)</t>
+          <t>Rizk (2016)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Riveros</t>
+          <t>Rizk</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>1990</v>
+        <v>2016</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Economics of Education Review</t>
+          <t>Economic Research Forum Working Paper</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Economics of Education Review</t>
+          <t>Economic Research Forum Working Paper</t>
         </is>
       </c>
       <c r="G199" t="b">
@@ -9983,12 +10028,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Riveros (1990)</t>
+          <t>Rizk (2016)</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Riveros, L.A.  1990. "The Economic Return to Schooling in Chile. An Analysis of Its Long-Term Fluctuations." Economics of Education Review 9(2): 111-121.</t>
+          <t>Rizk, R. 2016. "Returns to Education: An Updated Comparison of Arab Countries." Economic Research Forum Working Paper No. 986.</t>
         </is>
       </c>
       <c r="J199" t="b">
@@ -10000,29 +10045,29 @@
     </row>
     <row r="200">
       <c r="A200" s="3" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Rizk (2016)</t>
+          <t>Rouse (1999)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Rizk</t>
+          <t>Rouse</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>2016</v>
+        <v>1999</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Economic Research Forum Working Paper</t>
+          <t>Economics of Education Review</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Economic Research Forum Working Paper</t>
+          <t>Economics of Education Review</t>
         </is>
       </c>
       <c r="G200" t="b">
@@ -10030,12 +10075,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Rizk (2016)</t>
+          <t>Rouse (1999)</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Rizk, R. 2016. "Returns to Education: An Updated Comparison of Arab Countries." Economic Research Forum Working Paper No. 986.</t>
+          <t>Rouse, C.E. 1999. "Further Estimates of the Economic Return to Schooling from a New Sample of Twins." Economics of Education Review 18(2): 149-157.</t>
         </is>
       </c>
       <c r="J200" t="b">
@@ -10047,16 +10092,16 @@
     </row>
     <row r="201">
       <c r="A201" s="3" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Rouse (1999)</t>
+          <t>Rummery, Vella and Verbeek (1999)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Rouse</t>
+          <t>Rummery, Vella and Verbeek</t>
         </is>
       </c>
       <c r="D201" t="n">
@@ -10064,25 +10109,25 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Economics of Education Review</t>
+          <t>Labour Economics</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Economics of Education Review</t>
+          <t>Labour Economics</t>
         </is>
       </c>
       <c r="G201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Rouse (1999)</t>
+          <t>Rummery, Vella and Verbeek (1999)</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Rouse, C.E. 1999. "Further Estimates of the Economic Return to Schooling from a New Sample of Twins." Economics of Education Review 18(2): 149-157.</t>
+          <t>Rummery, S., F. Vella and M. Verbeek. 1999. "Estimating the Returns to Education for Australian Youth Via Rank-Order Instrumental Variables." Labour Economics 6: 491-507.</t>
         </is>
       </c>
       <c r="J201" t="b">
@@ -10094,46 +10139,46 @@
     </row>
     <row r="202">
       <c r="A202" s="3" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Rummery, Vella and Verbeek (1999)</t>
+          <t>Rutkowski (1997)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Rummery, Vella and Verbeek</t>
+          <t>Rutkowski</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Labour Economics</t>
+          <t>Economic Policy and Transitional Economies</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Labour Economics</t>
+          <t>Economic Policy and Transitional Economies</t>
         </is>
       </c>
       <c r="G202" t="b">
+        <v>1</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Rutkowski (1997)</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>Rutkowski, J. 1997. "Low Wage Employment in Transitional Economies of Central and Eastern Europe." Economic Policy and Transitional Economies 7(1): 105–130.</t>
+        </is>
+      </c>
+      <c r="J202" t="b">
         <v>0</v>
-      </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>Rummery, Vella and Verbeek (1999)</t>
-        </is>
-      </c>
-      <c r="I202" t="inlineStr">
-        <is>
-          <t>Rummery, S., F. Vella and M. Verbeek. 1999. "Estimating the Returns to Education for Australian Youth Via Rank-Order Instrumental Variables." Labour Economics 6: 491-507.</t>
-        </is>
-      </c>
-      <c r="J202" t="b">
-        <v>1</v>
       </c>
       <c r="K202" s="7" t="b">
         <v>1</v>
@@ -10141,11 +10186,11 @@
     </row>
     <row r="203">
       <c r="A203" s="3" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Rutkowski (1997)</t>
+          <t>Rutkowski (2001)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10154,16 +10199,16 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Economic Policy and Transitional Economies</t>
+          <t>World bank, discussion paper</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Economic Policy and Transitional Economies</t>
+          <t>World Bank Social Protection Discussion Paper</t>
         </is>
       </c>
       <c r="G203" t="b">
@@ -10171,12 +10216,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Rutkowski (1997)</t>
+          <t>Rutkowski (2001)</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Rutkowski, J. 1997. "Low Wage Employment in Transitional Economies of Central and Eastern Europe." Economic Policy and Transitional Economies 7(1): 105–130.</t>
+          <t>Rutkowski, J. 2001. "Earnings Inequality in Transition Economies of Central Europe Trends and Patterns During the 1990s." World Bank Social Protection Discussion Paper Series No. 0117.</t>
         </is>
       </c>
       <c r="J203" t="b">
@@ -10188,29 +10233,29 @@
     </row>
     <row r="204">
       <c r="A204" s="3" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Rutkowski (2001)</t>
+          <t>Ryoo (1988)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Rutkowski</t>
+          <t>Ryoo</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>2001</v>
+        <v>1988</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>World bank, discussion paper</t>
+          <t>University, discussion paper</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>World Bank Social Protection Discussion Paper</t>
+          <t>Doctoral dissertation Stanford University</t>
         </is>
       </c>
       <c r="G204" t="b">
@@ -10218,12 +10263,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Rutkowski (2001)</t>
+          <t>Ryoo (1988)</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Rutkowski, J. 2001. "Earnings Inequality in Transition Economies of Central Europe Trends and Patterns During the 1990s." World Bank Social Protection Discussion Paper Series No. 0117.</t>
+          <t>Ryoo, J.K. 1988. "Changes in rates of return to education over time: the case study of Korea" (Doctoral dissertation, Stanford University).</t>
         </is>
       </c>
       <c r="J204" t="b">
@@ -10235,29 +10280,29 @@
     </row>
     <row r="205">
       <c r="A205" s="3" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Ryoo (1988)</t>
+          <t>Sakellariou (2003)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Ryoo</t>
+          <t>Sakellariou</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>1988</v>
+        <v>2003</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>University, discussion paper</t>
+          <t>Education Economics</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Doctoral dissertation Stanford University</t>
+          <t>Education Economics</t>
         </is>
       </c>
       <c r="G205" t="b">
@@ -10265,12 +10310,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Ryoo (1988)</t>
+          <t>Sakellariou (2003)</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Ryoo, J.K. 1988. "Changes in rates of return to education over time: the case study of Korea" (Doctoral dissertation, Stanford University).</t>
+          <t>Sakellariou, C. 2003. "Rates of Return to Investments in Formal and Technical/Vocational Education in Singapore." Education Economics 11(1): 73-87.</t>
         </is>
       </c>
       <c r="J205" t="b">
@@ -10282,11 +10327,11 @@
     </row>
     <row r="206">
       <c r="A206" s="3" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Sakellariou (2003)</t>
+          <t>Sakellariou (2006)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10295,16 +10340,16 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Education Economics</t>
+          <t>Applied Economics</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Education Economics</t>
+          <t>Applied Economics</t>
         </is>
       </c>
       <c r="G206" t="b">
@@ -10312,12 +10357,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Sakellariou (2003)</t>
+          <t>Sakellariou (2006)</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Sakellariou, C. 2003. "Rates of Return to Investments in Formal and Technical/Vocational Education in Singapore." Education Economics 11(1): 73-87.</t>
+          <t>Sakellariou, C. 2006. "Education Policy Reform, Local Average Treatment Effect and Returns to Schooling from Instrumental Variables in the Philippines." Applied Economics 38(4): 473-481.</t>
         </is>
       </c>
       <c r="J206" t="b">
@@ -10329,29 +10374,29 @@
     </row>
     <row r="207">
       <c r="A207" s="3" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Sakellariou (2006)</t>
+          <t>Salehi, Tunali, Assaad (2009)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Sakellariou</t>
+          <t>Salehi, Tunali, Assaad</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Applied Economics</t>
+          <t>Middle East Development Journal</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Applied Economics</t>
+          <t>Middle East Development Journal</t>
         </is>
       </c>
       <c r="G207" t="b">
@@ -10359,16 +10404,16 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Sakellariou (2006)</t>
+          <t>Salehi, Tunali, Assaad (2009)</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Sakellariou, C. 2006. "Education Policy Reform, Local Average Treatment Effect and Returns to Schooling from Instrumental Variables in the Philippines." Applied Economics 38(4): 473-481.</t>
+          <t>Salehi-Isfahani, D., I. Tunali and R. Assaad. 2009. "A Comparative Study of Returns to Education of Urban Men in Egypt, Iran, And Turkey." Middle East Development Journal 1(2): 145-187.</t>
         </is>
       </c>
       <c r="J207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K207" s="7" t="b">
         <v>1</v>
@@ -10376,29 +10421,29 @@
     </row>
     <row r="208">
       <c r="A208" s="3" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Salehi, Tunali, Assaad (2009)</t>
+          <t>Salisbury (2016)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Salehi, Tunali, Assaad</t>
+          <t>Salisbury</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Middle East Development Journal</t>
+          <t>International Journal of Educational Development</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Middle East Development Journal</t>
+          <t>International Journal of Educational Development</t>
         </is>
       </c>
       <c r="G208" t="b">
@@ -10406,16 +10451,16 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Salehi, Tunali, Assaad (2009)</t>
+          <t>Salisbury (2016)</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>Salehi-Isfahani, D., I. Tunali and R. Assaad. 2009. "A Comparative Study of Returns to Education of Urban Men in Egypt, Iran, And Turkey." Middle East Development Journal 1(2): 145-187.</t>
+          <t>Salisbury, T. 2016. "Education and Inequality in South Africa: Returns to Schooling in the Post-Apartheid Era." International Journal of Educational Development 46: 43-52.</t>
         </is>
       </c>
       <c r="J208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K208" s="7" t="b">
         <v>1</v>
@@ -10423,29 +10468,29 @@
     </row>
     <row r="209">
       <c r="A209" s="3" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Salisbury (2016)</t>
+          <t>Sanchez and Nunez (2003)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Salisbury</t>
+          <t>Sanchez and Nunez</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>2016</v>
+        <v>2003</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>International Journal of Educational Development</t>
+          <t>A Dynamic Analysis of Human Capital Female Work</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>International Journal of Educational Development</t>
+          <t>A Dynamic Analysis of Human Capital Female Work</t>
         </is>
       </c>
       <c r="G209" t="b">
@@ -10453,12 +10498,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Salisbury (2016)</t>
+          <t>Sanchez and Nunez (2003)</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Salisbury, T. 2016. "Education and Inequality in South Africa: Returns to Schooling in the Post-Apartheid Era." International Journal of Educational Development 46: 43-52.</t>
+          <t>Sanchez Torres, F. and J. Nunez Mendez.  2003. "A Dynamic Analysis of Human Capital, Female Work</t>
         </is>
       </c>
       <c r="J209" t="b">
@@ -10470,29 +10515,29 @@
     </row>
     <row r="210">
       <c r="A210" s="3" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Sanchez and Nunez (2003)</t>
+          <t>Santos (2014)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Sanchez and Nunez</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>2003</v>
+        <v>2014</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>A Dynamic Analysis of Human Capital Female Work</t>
+          <t>University</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>A Dynamic Analysis of Human Capital Female Work</t>
+          <t>Institute of Development Studies University of Sussex</t>
         </is>
       </c>
       <c r="G210" t="b">
@@ -10500,12 +10545,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Sanchez and Nunez (2003)</t>
+          <t>Santos (2014)</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Sanchez Torres, F. and J. Nunez Mendez.  2003. "A Dynamic Analysis of Human Capital, Female Work</t>
+          <t>Santos, R.G. 2014. "Post-Conflict Returns to Education." Institute of Development Studies, University of Sussex.</t>
         </is>
       </c>
       <c r="J210" t="b">
@@ -10517,29 +10562,29 @@
     </row>
     <row r="211">
       <c r="A211" s="3" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Santos (2014)</t>
+          <t>Schady (2003)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Schady</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>University</t>
+          <t>Oxford Bulletin of Economics and Statistics</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Institute of Development Studies University of Sussex</t>
+          <t>Oxford Bulletin of Economics and Statistics</t>
         </is>
       </c>
       <c r="G211" t="b">
@@ -10547,16 +10592,16 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Santos (2014)</t>
+          <t>Schady (2003)</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Santos, R.G. 2014. "Post-Conflict Returns to Education." Institute of Development Studies, University of Sussex.</t>
+          <t>Schady, N.R. 2003. "Convexity and sheepskin effects in the human capital earnings function: recent evidence for Filipino men." Oxford Bulletin of Economics and Statistics 65(2): 171-196.</t>
         </is>
       </c>
       <c r="J211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K211" s="7" t="b">
         <v>1</v>
@@ -10564,29 +10609,29 @@
     </row>
     <row r="212">
       <c r="A212" s="3" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Schady (2003)</t>
+          <t>Schultz (2004)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Schady</t>
+          <t>Schultz</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Oxford Bulletin of Economics and Statistics</t>
+          <t>Journal of African Economies</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Oxford Bulletin of Economics and Statistics</t>
+          <t>Journal of African Economies</t>
         </is>
       </c>
       <c r="G212" t="b">
@@ -10594,12 +10639,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Schady (2003)</t>
+          <t>Schultz (2004)</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>Schady, N.R. 2003. "Convexity and sheepskin effects in the human capital earnings function: recent evidence for Filipino men." Oxford Bulletin of Economics and Statistics 65(2): 171-196.</t>
+          <t>Schultz, T.P. 2004. "Evidence of Returns to Schooling in Africa from Household Surveys: Monitoring and Restructuring the Market for Education." Journal of African Economies 13: 95-148.</t>
         </is>
       </c>
       <c r="J212" t="b">
@@ -10611,29 +10656,29 @@
     </row>
     <row r="213">
       <c r="A213" s="3" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Schultz (2004)</t>
+          <t>Shahin and Dibeh (2000)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Schultz</t>
+          <t>Shahin and Dibeh</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Journal of African Economies</t>
+          <t>Greenwood Publishing Group</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Journal of African Economies</t>
+          <t>Greenwood Publishing Group</t>
         </is>
       </c>
       <c r="G213" t="b">
@@ -10641,16 +10686,16 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Schultz (2004)</t>
+          <t>Shahin and Dibeh (2000)</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Schultz, T.P. 2004. "Evidence of Returns to Schooling in Africa from Household Surveys: Monitoring and Restructuring the Market for Education." Journal of African Economies 13: 95-148.</t>
+          <t>Shahin, W.N. and G. Dibeh (eds.). 2000. Earnings Inequality, Unemployment, and Poverty in the Middle East and North Africa. Greenwood Publishing Group.</t>
         </is>
       </c>
       <c r="J213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K213" s="7" t="b">
         <v>1</v>
@@ -10658,29 +10703,29 @@
     </row>
     <row r="214">
       <c r="A214" s="3" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Shahin and Dibeh (2000)</t>
+          <t>Silles (2007)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Shahin and Dibeh</t>
+          <t>Silles</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Greenwood Publishing Group</t>
+          <t>Journal of Applied Economics</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Greenwood Publishing Group</t>
+          <t>Journal of Applied Economics</t>
         </is>
       </c>
       <c r="G214" t="b">
@@ -10688,12 +10733,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Shahin and Dibeh (2000)</t>
+          <t>Silles (2007)</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>Shahin, W.N. and G. Dibeh (eds.). 2000. Earnings Inequality, Unemployment, and Poverty in the Middle East and North Africa. Greenwood Publishing Group.</t>
+          <t>Silles, M.A. 2007. "The Returns to Education for the United Kingdom." Journal of Applied Economics 10(1): 391-413.</t>
         </is>
       </c>
       <c r="J214" t="b">
@@ -10705,29 +10750,29 @@
     </row>
     <row r="215">
       <c r="A215" s="3" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Silles (2007)</t>
+          <t>Siphambe (2000)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Silles</t>
+          <t>Siphambe</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Journal of Applied Economics</t>
+          <t>South African Journal of Economics</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Journal of Applied Economics</t>
+          <t>South African Journal of Economics</t>
         </is>
       </c>
       <c r="G215" t="b">
@@ -10735,16 +10780,16 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Silles (2007)</t>
+          <t>Siphambe (2000)</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>Silles, M.A. 2007. "The Returns to Education for the United Kingdom." Journal of Applied Economics 10(1): 391-413.</t>
+          <t>Siphambe, H. 2008. "Rates of Return to Education in Botswana: Results from the 2002/2003 Household Income and Expenditure Survey Data Set." South African Journal of Economics 76(4): 641-651.</t>
         </is>
       </c>
       <c r="J215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K215" s="7" t="b">
         <v>1</v>
@@ -10752,11 +10797,11 @@
     </row>
     <row r="216">
       <c r="A216" s="3" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Siphambe (2000)</t>
+          <t>Siphambe (2008)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10765,16 +10810,16 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>South African Journal of Economics</t>
+          <t>Economics of Education Review</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>South African Journal of Economics</t>
+          <t>Economics of Education Review</t>
         </is>
       </c>
       <c r="G216" t="b">
@@ -10782,16 +10827,16 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Siphambe (2000)</t>
+          <t>Siphambe (2008)</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>Siphambe, H. 2008. "Rates of Return to Education in Botswana: Results from the 2002/2003 Household Income and Expenditure Survey Data Set." South African Journal of Economics 76(4): 641-651.</t>
+          <t>Siphambe, H.K. 2000. "Rates of return to education in Botswana." Economics of Education Review 19(3): 291-300.</t>
         </is>
       </c>
       <c r="J216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K216" s="7" t="b">
         <v>1</v>
@@ -10799,29 +10844,29 @@
     </row>
     <row r="217">
       <c r="A217" s="3" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Siphambe (2008)</t>
+          <t>Sohn (2013)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Siphambe</t>
+          <t>Sohn</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Economics of Education Review</t>
+          <t>The Developing Economies</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Economics of Education Review</t>
+          <t>The Developing Economies</t>
         </is>
       </c>
       <c r="G217" t="b">
@@ -10829,16 +10874,16 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Siphambe (2008)</t>
+          <t>Sohn (2013)</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>Siphambe, H.K. 2000. "Rates of return to education in Botswana." Economics of Education Review 19(3): 291-300.</t>
+          <t xml:space="preserve">Sohn, K. 2013. "Monetary and Nonmonetary Returns to Education in Indonesia." The Developing Economies 51: 34-59. </t>
         </is>
       </c>
       <c r="J217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K217" s="7" t="b">
         <v>1</v>
@@ -10846,16 +10891,16 @@
     </row>
     <row r="218">
       <c r="A218" s="3" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Sohn (2013)</t>
+          <t>Sosic (2013)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Sohn</t>
+          <t>Sosic</t>
         </is>
       </c>
       <c r="D218" t="n">
@@ -10863,12 +10908,12 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>The Developing Economies</t>
+          <t>Croatian National Bank</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>The Developing Economies</t>
+          <t>Croatian National Bank</t>
         </is>
       </c>
       <c r="G218" t="b">
@@ -10876,16 +10921,16 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Sohn (2013)</t>
+          <t>Sosic (2013)</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sohn, K. 2013. "Monetary and Nonmonetary Returns to Education in Indonesia." The Developing Economies 51: 34-59. </t>
+          <t>Šošić, V. 2013. "Does It Pay to Invest in Education in Croatia? Return to Human Capital Investment as A Factor in Human Resource Competitiveness." The Competitiveness of Croatia’s Human Resources, Croatian National Bank, Zagreb.</t>
         </is>
       </c>
       <c r="J218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K218" s="7" t="b">
         <v>1</v>
@@ -10893,29 +10938,29 @@
     </row>
     <row r="219">
       <c r="A219" s="3" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Sosic (2013)</t>
+          <t>Squalli, Vellinga and Wilson (2008)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Sosic</t>
+          <t>Squalli, Vellinga and Wilson</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Croatian National Bank</t>
+          <t>IHuman Capital Problems of the Middle East and North Africa</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Croatian National Bank</t>
+          <t>IHuman Capital Problems of the Middle East and North Africa</t>
         </is>
       </c>
       <c r="G219" t="b">
@@ -10923,12 +10968,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Sosic (2013)</t>
+          <t>Squalli, Vellinga and Wilson (2008)</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Šošić, V. 2013. "Does It Pay to Invest in Education in Croatia? Return to Human Capital Investment as A Factor in Human Resource Competitiveness." The Competitiveness of Croatia’s Human Resources, Croatian National Bank, Zagreb.</t>
+          <t>Squalli, J., K. Wilson and N. Vellinga. 2008. "An Estimate of the Private Returns to Education in the United Arab Emirates." In Human Capital Problems of the Middle East and North Africa, Jeffrey Nugent and Hassan Aly (eds.).</t>
         </is>
       </c>
       <c r="J219" t="b">
@@ -10940,29 +10985,29 @@
     </row>
     <row r="220">
       <c r="A220" s="3" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Squalli, Vellinga and Wilson (2008)</t>
+          <t>Stager (1989)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Squalli, Vellinga and Wilson</t>
+          <t>Stager</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>2008</v>
+        <v>1989</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>IHuman Capital Problems of the Middle East and North Africa</t>
+          <t>University</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>IHuman Capital Problems of the Middle East and North Africa</t>
+          <t>Communications Division, Council of Ontario Universities, Toronto, Canada.</t>
         </is>
       </c>
       <c r="G220" t="b">
@@ -10970,12 +11015,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Squalli, Vellinga and Wilson (2008)</t>
+          <t>Stager (1989)</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>Squalli, J., K. Wilson and N. Vellinga. 2008. "An Estimate of the Private Returns to Education in the United Arab Emirates." In Human Capital Problems of the Middle East and North Africa, Jeffrey Nugent and Hassan Aly (eds.).</t>
+          <t>Stager, D.A. 1989. Focus on Fees. Alternative Policies for University Tuition Fees. Communications Division, Council of Ontario Universities, Toronto, Canada.</t>
         </is>
       </c>
       <c r="J220" t="b">
@@ -10987,16 +11032,16 @@
     </row>
     <row r="221">
       <c r="A221" s="3" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Stager (1989)</t>
+          <t>Tan and Paqueo (1989)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Stager</t>
+          <t>Tan and Paqueo</t>
         </is>
       </c>
       <c r="D221" t="n">
@@ -11004,12 +11049,12 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>University</t>
+          <t>International Journal of Educational Development</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Communications Division, Council of Ontario Universities, Toronto, Canada.</t>
+          <t>International Journal of Educational Development</t>
         </is>
       </c>
       <c r="G221" t="b">
@@ -11017,12 +11062,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Stager (1989)</t>
+          <t>Tan and Paqueo (1989)</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Stager, D.A. 1989. Focus on Fees. Alternative Policies for University Tuition Fees. Communications Division, Council of Ontario Universities, Toronto, Canada.</t>
+          <t>Tan, J.P. and V.B. Paqueo. 1989. "The economic returns to education in the Philippines." International Journal of Educational Development 9(3): 243-250.</t>
         </is>
       </c>
       <c r="J221" t="b">
@@ -11034,29 +11079,29 @@
     </row>
     <row r="222">
       <c r="A222" s="3" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Tan and Paqueo (1989)</t>
+          <t>Tangtipongkul (2015)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Tan and Paqueo</t>
+          <t>Tangtipongkul</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1989</v>
+        <v>2015</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>International Journal of Educational Development</t>
+          <t>Asian Development Review</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>International Journal of Educational Development</t>
+          <t>Asian Development Review</t>
         </is>
       </c>
       <c r="G222" t="b">
@@ -11064,12 +11109,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Tan and Paqueo (1989)</t>
+          <t>Tangtipongkul (2015)</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>Tan, J.P. and V.B. Paqueo. 1989. "The economic returns to education in the Philippines." International Journal of Educational Development 9(3): 243-250.</t>
+          <t>Tangtipongkul, K. 2015. "Rates of Return to Schooling in Thailand." Asian Development Review 32(2): 38-64.</t>
         </is>
       </c>
       <c r="J222" t="b">
@@ -11081,29 +11126,29 @@
     </row>
     <row r="223">
       <c r="A223" s="3" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Tangtipongkul (2015)</t>
+          <t>Tansel (2008)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Tangtipongkul</t>
+          <t>Tansel</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Asian Development Review</t>
+          <t>Conference</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Asian Development Review</t>
+          <t>ESPE 2008 Conference, June 18-21, 2008, in London, United Kingdom</t>
         </is>
       </c>
       <c r="G223" t="b">
@@ -11111,16 +11156,16 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Tangtipongkul (2015)</t>
+          <t>Tansel (2008)</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Tangtipongkul, K. 2015. "Rates of Return to Schooling in Thailand." Asian Development Review 32(2): 38-64.</t>
+          <t>Tansel, A. 2008. "Changing Returns to Education for Men and Women in a Developing Country: Turkey, 1994, 2002-2005." Paper presented at the ESPE 2008 Conference, June 18-21, 2008, in London, United Kingdom and at the ECOMOD 2008 Conference, July 2-4, 2008, in Berlin, Germany.</t>
         </is>
       </c>
       <c r="J223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K223" s="7" t="b">
         <v>1</v>
@@ -11128,11 +11173,11 @@
     </row>
     <row r="224">
       <c r="A224" s="3" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Tansel (2008)</t>
+          <t>Tansel (2015)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11141,16 +11186,16 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Conference</t>
+          <t>Mimeo</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>ESPE 2008 Conference, June 18-21, 2008, in London, United Kingdom</t>
+          <t>Mimeo</t>
         </is>
       </c>
       <c r="G224" t="b">
@@ -11158,12 +11203,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Tansel (2008)</t>
+          <t>Tansel (2015)</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Tansel, A. 2008. "Changing Returns to Education for Men and Women in a Developing Country: Turkey, 1994, 2002-2005." Paper presented at the ESPE 2008 Conference, June 18-21, 2008, in London, United Kingdom and at the ECOMOD 2008 Conference, July 2-4, 2008, in Berlin, Germany.</t>
+          <t>Tansel, A. 2015. "Declining Returns to Education for Men and Women in a Developing Country: Turkey, 1994 and 2005." Mimeo.</t>
         </is>
       </c>
       <c r="J224" t="b">
@@ -11175,29 +11220,29 @@
     </row>
     <row r="225">
       <c r="A225" s="3" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Tansel (2015)</t>
+          <t>Tansel and Bodur (2012)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Tansel</t>
+          <t>Tansel and Bodur</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Mimeo</t>
+          <t>Review of Development Economics</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Mimeo</t>
+          <t>Review of Development Economics</t>
         </is>
       </c>
       <c r="G225" t="b">
@@ -11205,12 +11250,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Tansel (2015)</t>
+          <t>Tansel and Bodur (2012)</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Tansel, A. 2015. "Declining Returns to Education for Men and Women in a Developing Country: Turkey, 1994 and 2005." Mimeo.</t>
+          <t>Tansel, A. and F.B. Bodur. 2012."Wage Inequality and Returns to Education in Turkey: A Quantile Regression Analysis." Review of Development Economics 16(1): 107-121.</t>
         </is>
       </c>
       <c r="J225" t="b">
@@ -11222,29 +11267,29 @@
     </row>
     <row r="226">
       <c r="A226" s="3" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Tansel and Bodur (2012)</t>
+          <t>Tansel and Daoud (2014)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Tansel and Bodur</t>
+          <t>Tansel and Daoud</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Review of Development Economics</t>
+          <t>Perspectives on Global Development and Technology</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Review of Development Economics</t>
+          <t>Perspectives on Global Development and Technology</t>
         </is>
       </c>
       <c r="G226" t="b">
@@ -11252,12 +11297,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Tansel and Bodur (2012)</t>
+          <t>Tansel and Daoud (2014)</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Tansel, A. and F.B. Bodur. 2012."Wage Inequality and Returns to Education in Turkey: A Quantile Regression Analysis." Review of Development Economics 16(1): 107-121.</t>
+          <t>Tansel, A. and Y. Daoud. 2014."Comparative Essay for Returns to Education in Palestine and Turkey." Perspectives on Global Development and Technology 13: 347-378.</t>
         </is>
       </c>
       <c r="J226" t="b">
@@ -11269,29 +11314,29 @@
     </row>
     <row r="227">
       <c r="A227" s="3" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Tansel and Daoud (2014)</t>
+          <t>Taposh and Lin (2009)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Tansel and Daoud</t>
+          <t>Taposh and Lin</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Perspectives on Global Development and Technology</t>
+          <t>University, working paper</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Perspectives on Global Development and Technology</t>
+          <t>Universidad de Bogota Jorge Tadeo Lozano Working Paper</t>
         </is>
       </c>
       <c r="G227" t="b">
@@ -11299,16 +11344,16 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Tansel and Daoud (2014)</t>
+          <t>Taposh and Lin (2009)</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Tansel, A. and Y. Daoud. 2014."Comparative Essay for Returns to Education in Palestine and Turkey." Perspectives on Global Development and Technology 13: 347-378.</t>
+          <t>Taposh, D. and Z. Lin. 2009. "Returns to Education: Estimates from Two Countries."</t>
         </is>
       </c>
       <c r="J227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K227" s="7" t="b">
         <v>1</v>
@@ -11316,20 +11361,20 @@
     </row>
     <row r="228">
       <c r="A228" s="3" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Taposh and Lin (2009)</t>
+          <t>Tenjo et al. (2015)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Taposh and Lin</t>
+          <t>Tenjo et al.</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -11346,16 +11391,16 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Taposh and Lin (2009)</t>
+          <t>Tenjo et al. (2015)</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Taposh, D. and Z. Lin. 2009. "Returns to Education: Estimates from Two Countries."</t>
+          <t>Tenjo Galarza, J., O. Álvarez Vos., A. Gaviria and M.C. Jiménez. 2015. "Evolution of Returns to Education in Colombia (1976-2014)." Universidad de Bogota Jorge Tadeo Lozano Working Paper N. 2015-9.</t>
         </is>
       </c>
       <c r="J228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K228" s="7" t="b">
         <v>1</v>
@@ -11363,29 +11408,29 @@
     </row>
     <row r="229">
       <c r="A229" s="3" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Tenjo et al. (2015)</t>
+          <t>Trivelli (2006)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Tenjo et al.</t>
+          <t>Trivelli</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>University, working paper</t>
+          <t>Labour Economics</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Universidad de Bogota Jorge Tadeo Lozano Working Paper</t>
+          <t>Labour Economics</t>
         </is>
       </c>
       <c r="G229" t="b">
@@ -11393,16 +11438,16 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Tenjo et al. (2015)</t>
+          <t>Trivelli (2006)</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>Tenjo Galarza, J., O. Álvarez Vos., A. Gaviria and M.C. Jiménez. 2015. "Evolution of Returns to Education in Colombia (1976-2014)." Universidad de Bogota Jorge Tadeo Lozano Working Paper N. 2015-9.</t>
+          <t>Trivelli, C. 2006. "Peru." In G. Hall and H.A. Patrinos, eds., Indigenous Peoples, Poverty and Human</t>
         </is>
       </c>
       <c r="J229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K229" s="7" t="b">
         <v>1</v>
@@ -11410,29 +11455,29 @@
     </row>
     <row r="230">
       <c r="A230" s="3" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Trivelli (2006)</t>
+          <t>Trostel, Walker and Woolley (2002)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Trivelli</t>
+          <t>Trostel, Walker and Woolley</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Labour Economics</t>
+          <t>Economic Development and Cultural Change</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Labour Economics</t>
+          <t>Economic Development and Cultural Change</t>
         </is>
       </c>
       <c r="G230" t="b">
@@ -11440,16 +11485,16 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Trivelli (2006)</t>
+          <t>Trostel, Walker and Woolley (2002)</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>Trivelli, C. 2006. "Peru." In G. Hall and H.A. Patrinos, eds., Indigenous Peoples, Poverty and Human</t>
+          <t>Trostel, P., I. Walker and P. Woolley. 2002. "Estimates of the Economic Return to Schooling for 28 Countries." Labour Economics 9: 1-16.</t>
         </is>
       </c>
       <c r="J230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K230" s="7" t="b">
         <v>1</v>
@@ -11457,20 +11502,20 @@
     </row>
     <row r="231">
       <c r="A231" s="3" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Trostel, Walker and Woolley (2002)</t>
+          <t>van der Gaag and Vijverberg (1989)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Trostel, Walker and Woolley</t>
+          <t>van der Gaag and Vijverberg</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>2002</v>
+        <v>1989</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -11487,16 +11532,16 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Trostel, Walker and Woolley (2002)</t>
+          <t>van der Gaag and Vijverberg (1989)</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>Trostel, P., I. Walker and P. Woolley. 2002. "Estimates of the Economic Return to Schooling for 28 Countries." Labour Economics 9: 1-16.</t>
+          <t>Van der Gaag, J. and W. Vijverberg. 1989. "Wage determinants in Cote d'Ivoire: Experience, credentials, and human capital." Economic Development and Cultural Change 37(2): 371-381.</t>
         </is>
       </c>
       <c r="J231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K231" s="7" t="b">
         <v>1</v>
@@ -11504,29 +11549,29 @@
     </row>
     <row r="232">
       <c r="A232" s="3" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>van der Gaag and Vijverberg (1989)</t>
+          <t>Van Leeuwen (2007)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>van der Gaag and Vijverberg</t>
+          <t>Van Leeuwen</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>1989</v>
+        <v>2007</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Economic Development and Cultural Change</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Economic Development and Cultural Change</t>
+          <t>Box Press shop</t>
         </is>
       </c>
       <c r="G232" t="b">
@@ -11534,12 +11579,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>van der Gaag and Vijverberg (1989)</t>
+          <t>Van Leeuwen (2007)</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Van der Gaag, J. and W. Vijverberg. 1989. "Wage determinants in Cote d'Ivoire: Experience, credentials, and human capital." Economic Development and Cultural Change 37(2): 371-381.</t>
+          <t>Van Leeuwen, B., 2007. Human capital and economic growth in India, Indonesia, and Japan: a quantitative analysis, 1890-2000. Box Press shop.</t>
         </is>
       </c>
       <c r="J232" t="b">
@@ -11551,29 +11596,29 @@
     </row>
     <row r="233">
       <c r="A233" s="3" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Van Leeuwen (2007)</t>
+          <t>Vecernik (2001)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Van Leeuwen</t>
+          <t>Vecernik</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Institute, working paper</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Box Press shop</t>
+          <t>Davidson Institute Working Paper</t>
         </is>
       </c>
       <c r="G233" t="b">
@@ -11581,16 +11626,16 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Van Leeuwen (2007)</t>
+          <t>Vecernik (2001)</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>Van Leeuwen, B., 2007. Human capital and economic growth in India, Indonesia, and Japan: a quantitative analysis, 1890-2000. Box Press shop.</t>
+          <t>Vecernik, J. 2001. "Earnings Disparities in the Czech Republic: Evidence of the Past Decade and Cross National Comparison." Davidson Institute Working Paper No. 373.</t>
         </is>
       </c>
       <c r="J233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K233" s="7" t="b">
         <v>1</v>
@@ -11598,29 +11643,29 @@
     </row>
     <row r="234">
       <c r="A234" s="3" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Vecernik (2001)</t>
+          <t>Vieira (1999)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Vecernik</t>
+          <t>Vieira</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Institute, working paper</t>
+          <t>Labour Economics</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Davidson Institute Working Paper</t>
+          <t>Labour Economics</t>
         </is>
       </c>
       <c r="G234" t="b">
@@ -11628,12 +11673,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Vecernik (2001)</t>
+          <t>Vieira (1999)</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Vecernik, J. 2001. "Earnings Disparities in the Czech Republic: Evidence of the Past Decade and Cross National Comparison." Davidson Institute Working Paper No. 373.</t>
+          <t>Vieira, J.A. 1999. "Returns to education in Portugal." Labour Economics 6(4): 535-541.</t>
         </is>
       </c>
       <c r="J234" t="b">
@@ -11645,29 +11690,29 @@
     </row>
     <row r="235">
       <c r="A235" s="3" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Vieira (1999)</t>
+          <t>Vila and Mora (1998)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Vieira</t>
+          <t>Vila and Mora</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Labour Economics</t>
+          <t>Economics of Education Review</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Labour Economics</t>
+          <t>Economics of Education Review</t>
         </is>
       </c>
       <c r="G235" t="b">
@@ -11675,16 +11720,16 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Vieira (1999)</t>
+          <t>Vila and Mora (1998)</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Vieira, J.A. 1999. "Returns to education in Portugal." Labour Economics 6(4): 535-541.</t>
+          <t>Vila, L.E. and J.G. Mora. 1998. "Changing Returns to Education in Spain during the 1980s." Economics of Education Review 17(2): 173-178.</t>
         </is>
       </c>
       <c r="J235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K235" s="7" t="b">
         <v>1</v>
@@ -11692,29 +11737,29 @@
     </row>
     <row r="236">
       <c r="A236" s="3" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Vila and Mora (1998)</t>
+          <t>Vilerts, Krasnopjorovs, Brekis (2015)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Vila and Mora</t>
+          <t>Vilerts, Krasnopjorovs, Brekis</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>1998</v>
+        <v>2015</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Economics of Education Review</t>
+          <t>Bank, working paper</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Economics of Education Review</t>
+          <t>Latvijas Banka Working Paper March</t>
         </is>
       </c>
       <c r="G236" t="b">
@@ -11722,12 +11767,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Vila and Mora (1998)</t>
+          <t>Vilerts, Krasnopjorovs, Brekis (2015)</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Vila, L.E. and J.G. Mora. 1998. "Changing Returns to Education in Spain during the 1980s." Economics of Education Review 17(2): 173-178.</t>
+          <t>Vilerts, K., O. Krasnopjorovs, and E. Brekis. 2015. "Does Education Affect Wages During and After Economic Crisis? Evidence from Latvia 2006-2012." Latvijas Banka, Working Paper March 2015.</t>
         </is>
       </c>
       <c r="J236" t="b">
@@ -11739,29 +11784,29 @@
     </row>
     <row r="237">
       <c r="A237" s="3" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Vilerts, Krasnopjorovs, Brekis (2015)</t>
+          <t>Vujcic and Sosic (2009)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Vilerts, Krasnopjorovs, Brekis</t>
+          <t>Vujcic and Sosic</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Bank, working paper</t>
+          <t>Transition Studies Review</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Latvijas Banka Working Paper March</t>
+          <t>Transition Studies Review</t>
         </is>
       </c>
       <c r="G237" t="b">
@@ -11769,12 +11814,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Vilerts, Krasnopjorovs, Brekis (2015)</t>
+          <t>Vujcic and Sosic (2009)</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Vilerts, K., O. Krasnopjorovs, and E. Brekis. 2015. "Does Education Affect Wages During and After Economic Crisis? Evidence from Latvia 2006-2012." Latvijas Banka, Working Paper March 2015.</t>
+          <t>Vujcic, B. and V. Sosic. 2009. "Return to Education and the Changing Role of Credentials in the Croatian Labor Market." Transition Studies Review 16(1):189-205.</t>
         </is>
       </c>
       <c r="J237" t="b">
@@ -11786,29 +11831,29 @@
     </row>
     <row r="238">
       <c r="A238" s="3" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Vujcic and Sosic (2009)</t>
+          <t>Wahba (2000)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Vujcic and Sosic</t>
+          <t>Wahba</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Transition Studies Review</t>
+          <t>University, discussion paper</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Transition Studies Review</t>
+          <t>University of Southampton Discussion Papers in Economics and Econometrics</t>
         </is>
       </c>
       <c r="G238" t="b">
@@ -11816,16 +11861,16 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Vujcic and Sosic (2009)</t>
+          <t>Wahba (2000)</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Vujcic, B. and V. Sosic. 2009. "Return to Education and the Changing Role of Credentials in the Croatian Labor Market." Transition Studies Review 16(1):189-205.</t>
+          <t>Wahba, J. 2000. "Returns to Education and Regional Earnings Differentials in Egypt." University of Southampton Discussion Papers in Economics and Econometrics, 33062.</t>
         </is>
       </c>
       <c r="J238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K238" s="7" t="b">
         <v>1</v>
@@ -11833,29 +11878,29 @@
     </row>
     <row r="239">
       <c r="A239" s="3" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Wahba (2000)</t>
+          <t>Wambugu (2002)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Wahba</t>
+          <t>Wambugu</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>University, discussion paper</t>
+          <t>University, working paper</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>University of Southampton Discussion Papers in Economics and Econometrics</t>
+          <t>Göteborg University Working Papers in Economics</t>
         </is>
       </c>
       <c r="G239" t="b">
@@ -11863,12 +11908,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Wahba (2000)</t>
+          <t>Wambugu (2002)</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>Wahba, J. 2000. "Returns to Education and Regional Earnings Differentials in Egypt." University of Southampton Discussion Papers in Economics and Econometrics, 33062.</t>
+          <t>Wambugu, A.  2002. "Real Wages and Returns to Human Capital in Kenya Manufacturing Firms." Göteborg University Working Papers in Economics No. 75.</t>
         </is>
       </c>
       <c r="J239" t="b">
@@ -11880,29 +11925,29 @@
     </row>
     <row r="240">
       <c r="A240" s="3" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Wambugu (2002)</t>
+          <t>Warunsiri and McNown (2010)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Wambugu</t>
+          <t>Warunsiri and McNown</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>University, working paper</t>
+          <t>World Development</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Göteborg University Working Papers in Economics</t>
+          <t>World Development</t>
         </is>
       </c>
       <c r="G240" t="b">
@@ -11910,12 +11955,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Wambugu (2002)</t>
+          <t>Warunsiri and McNown (2010)</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>Wambugu, A.  2002. "Real Wages and Returns to Human Capital in Kenya Manufacturing Firms." Göteborg University Working Papers in Economics No. 75.</t>
+          <t>Warunsiri, S. and R. McNown. 2010. "The Returns to Education in Thailand: A Pseudo-Panel Approach." World Development 38(11): 1616-1625.</t>
         </is>
       </c>
       <c r="J240" t="b">
@@ -11927,29 +11972,29 @@
     </row>
     <row r="241">
       <c r="A241" s="3" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Warunsiri and McNown (2010)</t>
+          <t>Weber and Wolter (1999)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Warunsiri and McNown</t>
+          <t>Weber and Wolter</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>World Development</t>
+          <t>Institute, research paper</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>World Development</t>
+          <t>Helsinki: ETLA, The Research Institute</t>
         </is>
       </c>
       <c r="G241" t="b">
@@ -11957,16 +12002,16 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Warunsiri and McNown (2010)</t>
+          <t>Weber and Wolter (1999)</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>Warunsiri, S. and R. McNown. 2010. "The Returns to Education in Thailand: A Pseudo-Panel Approach." World Development 38(11): 1616-1625.</t>
+          <t>Weber, B. and S. Wolter. 1999. "Wages and Human Capital: Evidence from Switzerland," In R. Asplund, and P.T. Pereira, eds., Returns to Human Capital in Europe. Helsinki: ETLA, The Research Institute</t>
         </is>
       </c>
       <c r="J241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K241" s="7" t="b">
         <v>1</v>
@@ -11974,29 +12019,29 @@
     </row>
     <row r="242">
       <c r="A242" s="3" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Weber and Wolter (1999)</t>
+          <t>World Bank (1996a)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Weber and Wolter</t>
+          <t>World Bank (1996a)</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Institute, research paper</t>
-        </is>
-      </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Helsinki: ETLA, The Research Institute</t>
+          <t>World Bank</t>
+        </is>
+      </c>
+      <c r="F242" s="26" t="inlineStr">
+        <is>
+          <t>World Bank</t>
         </is>
       </c>
       <c r="G242" t="b">
@@ -12004,12 +12049,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Weber and Wolter (1999)</t>
+          <t>World Bank (1996a)</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>Weber, B. and S. Wolter. 1999. "Wages and Human Capital: Evidence from Switzerland," In R. Asplund, and P.T. Pereira, eds., Returns to Human Capital in Europe. Helsinki: ETLA, The Research Institute</t>
+          <t>World Bank. 1996a. Republic of Ghana: Basic Education Sector Improvement Program (Report No. 15570-GH). Washington, D.C.: World Bank.</t>
         </is>
       </c>
       <c r="J242" t="b">
@@ -12021,16 +12066,16 @@
     </row>
     <row r="243">
       <c r="A243" s="3" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>World Bank (1996a)</t>
+          <t>World Bank (1996b)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>World Bank (1996a)</t>
+          <t>World Bank (1996b)</t>
         </is>
       </c>
       <c r="D243" t="n">
@@ -12051,12 +12096,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>World Bank (1996a)</t>
+          <t>World Bank (1996b)</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>World Bank. 1996a. Republic of Ghana: Basic Education Sector Improvement Program (Report No. 15570-GH). Washington, D.C.: World Bank.</t>
+          <t>World Bank. 1996b. Bolivia: Poverty, Equity, and Income.  (Report No. 15272-BO). Washington, D.C.: World Bank.</t>
         </is>
       </c>
       <c r="J243" t="b">
@@ -12068,20 +12113,20 @@
     </row>
     <row r="244">
       <c r="A244" s="3" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>World Bank (1996b)</t>
+          <t>World Bank (2005)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>World Bank (1996b)</t>
+          <t>World Bank</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>1996</v>
+        <v>2005</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -12098,12 +12143,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>World Bank (1996b)</t>
+          <t>World Bank (2005)</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>World Bank. 1996b. Bolivia: Poverty, Equity, and Income.  (Report No. 15272-BO). Washington, D.C.: World Bank.</t>
+          <t>World Bank. 2005. Towards a New Agenda for Growth (Report No. 31863-LAC) Organization of Eastern Caribbean States. Washington, DC: World Bank.</t>
         </is>
       </c>
       <c r="J244" t="b">
@@ -12115,11 +12160,11 @@
     </row>
     <row r="245">
       <c r="A245" s="3" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>World Bank (2005)</t>
+          <t>World Bank (2011)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12128,7 +12173,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -12145,12 +12190,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>World Bank (2005)</t>
+          <t>World Bank (2011)</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>World Bank. 2005. Towards a New Agenda for Growth (Report No. 31863-LAC) Organization of Eastern Caribbean States. Washington, DC: World Bank.</t>
+          <t>World Bank. 2011. More and Better Jobs in South Asia.  Washington, DC: World Bank.</t>
         </is>
       </c>
       <c r="J245" t="b">
@@ -12162,29 +12207,29 @@
     </row>
     <row r="246">
       <c r="A246" s="3" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>World Bank (2011)</t>
+          <t>Xiu and Gunderson (2013)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>World Bank</t>
+          <t>Xiu and Gunderson</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>World Bank</t>
-        </is>
-      </c>
-      <c r="F246" s="26" t="inlineStr">
-        <is>
-          <t>World Bank</t>
+          <t>Labour27</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Labour27</t>
         </is>
       </c>
       <c r="G246" t="b">
@@ -12192,12 +12237,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>World Bank (2011)</t>
+          <t>Xiu and Gunderson (2013)</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>World Bank. 2011. More and Better Jobs in South Asia.  Washington, DC: World Bank.</t>
+          <t>Xiu, L., and M. Gunderson. 2013. "Credential Effects and the Returns to Education in China. Labour	27(2): 225-248.</t>
         </is>
       </c>
       <c r="J246" t="b">
@@ -12209,29 +12254,29 @@
     </row>
     <row r="247">
       <c r="A247" s="3" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Xiu and Gunderson (2013)</t>
+          <t>Yang (2005)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Xiu and Gunderson</t>
+          <t>Yang</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Labour27</t>
+          <t>Journal of Comparative Economics</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Labour27</t>
+          <t>Journal of Comparative Economics</t>
         </is>
       </c>
       <c r="G247" t="b">
@@ -12239,16 +12284,16 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Xiu and Gunderson (2013)</t>
+          <t>Yang (2005)</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>Xiu, L., and M. Gunderson. 2013. "Credential Effects and the Returns to Education in China. Labour	27(2): 225-248.</t>
+          <t>Yang, D.T. 2005. "Determinants of schooling returns during transition: Evidence from Chinese cities." Journal of Comparative Economics 33(2): 244-264.</t>
         </is>
       </c>
       <c r="J247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K247" s="7" t="b">
         <v>1</v>
@@ -12256,29 +12301,29 @@
     </row>
     <row r="248">
       <c r="A248" s="3" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Yang (2005)</t>
+          <t>Yemtsov, Cnobloch, Mete (2006)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Yang</t>
+          <t>Yemtsov, Cnobloch, Mete</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Journal of Comparative Economics</t>
+          <t>World Bank mimeo</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Journal of Comparative Economics</t>
+          <t>World Bank mimeo</t>
         </is>
       </c>
       <c r="G248" t="b">
@@ -12286,16 +12331,16 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Yang (2005)</t>
+          <t>Yemtsov, Cnobloch, Mete (2006)</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>Yang, D.T. 2005. "Determinants of schooling returns during transition: Evidence from Chinese cities." Journal of Comparative Economics 33(2): 244-264.</t>
+          <t>Yemtsov, R.G., S.R. Cnobloch, and C. Mete. 2006. "Evolution of the Predictors of Earnings During Transition." World Bank (mimeo).</t>
         </is>
       </c>
       <c r="J248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K248" s="7" t="b">
         <v>1</v>
@@ -12303,29 +12348,29 @@
     </row>
     <row r="249">
       <c r="A249" s="3" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Yemtsov, Cnobloch, Mete (2006)</t>
+          <t>Yeung (1999)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Yemtsov, Cnobloch, Mete</t>
+          <t>Yeung</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>World Bank mimeo</t>
+          <t>The Journal of Experimental Education</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>World Bank mimeo</t>
+          <t>The Journal of Experimental Education</t>
         </is>
       </c>
       <c r="G249" t="b">
@@ -12333,12 +12378,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Yemtsov, Cnobloch, Mete (2006)</t>
+          <t>Yeung (1999)</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>Yemtsov, R.G., S.R. Cnobloch, and C. Mete. 2006. "Evolution of the Predictors of Earnings During Transition." World Bank (mimeo).</t>
+          <t>Yeung, A.S., 1999. Cognitive load and learner expertise: Split-attention and redundancy effects in reading comprehension tasks with vocabulary definitions. The Journal of Experimental Education, 67(3), pp.197-217.</t>
         </is>
       </c>
       <c r="J249" t="b">
@@ -12350,29 +12395,29 @@
     </row>
     <row r="250">
       <c r="A250" s="3" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Yeung (1999)</t>
+          <t>Zhang et al (2005)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Yeung</t>
+          <t>Zhang et al</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>1999</v>
+        <v>2005</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>The Journal of Experimental Education</t>
+          <t>Journal of Comparative Economics</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>The Journal of Experimental Education</t>
+          <t>Journal of Comparative Economics</t>
         </is>
       </c>
       <c r="G250" t="b">
@@ -12380,16 +12425,16 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Yeung (1999)</t>
+          <t>Zhang et al (2005)</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>Yeung, A.S., 1999. Cognitive load and learner expertise: Split-attention and redundancy effects in reading comprehension tasks with vocabulary definitions. The Journal of Experimental Education, 67(3), pp.197-217.</t>
+          <t>Zhang, J., Y. Zhao, A. Park and X. Song. 2005. "Economic returns to schooling in urban China, 1988 to 2001." Journal of Comparative Economics 33(4): 730-752.</t>
         </is>
       </c>
       <c r="J250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K250" s="7" t="b">
         <v>1</v>
@@ -12397,29 +12442,29 @@
     </row>
     <row r="251">
       <c r="A251" s="3" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Zhang et al (2005)</t>
+          <t>Zhao and Zhou (2002)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Zhang et al</t>
+          <t>Zhao and Zhou</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Journal of Comparative Economics</t>
+          <t>Research in Social Stratification and Mobility</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Journal of Comparative Economics</t>
+          <t>Research in Social Stratification and Mobility</t>
         </is>
       </c>
       <c r="G251" t="b">
@@ -12427,75 +12472,28 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Zhang et al (2005)</t>
+          <t>Zhao and Zhou (2002)</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>Zhang, J., Y. Zhao, A. Park and X. Song. 2005. "Economic returns to schooling in urban China, 1988 to 2001." Journal of Comparative Economics 33(4): 730-752.</t>
+          <t>Zhao, W. and X. Zhou. 2002. "Institutional transformation and returns to education in urban China: An empirical assessment." Research in Social Stratification and Mobility 19: 339-375.</t>
         </is>
       </c>
       <c r="J251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K251" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="3" t="n">
-        <v>251</v>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>Zhao and Zhou (2002)</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>Zhao and Zhou</t>
-        </is>
-      </c>
-      <c r="D252" t="n">
-        <v>2002</v>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>Research in Social Stratification and Mobility</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>Research in Social Stratification and Mobility</t>
-        </is>
-      </c>
-      <c r="G252" t="b">
-        <v>1</v>
-      </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>Zhao and Zhou (2002)</t>
-        </is>
-      </c>
-      <c r="I252" t="inlineStr">
-        <is>
-          <t>Zhao, W. and X. Zhou. 2002. "Institutional transformation and returns to education in urban China: An empirical assessment." Research in Social Stratification and Mobility 19: 339-375.</t>
-        </is>
-      </c>
-      <c r="J252" t="b">
-        <v>0</v>
-      </c>
-      <c r="K252" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:K252">
-    <cfRule type="expression" priority="9" dxfId="1">
+  <conditionalFormatting sqref="A1:K251">
+    <cfRule type="expression" priority="1" dxfId="3">
+      <formula>$K1=FALSE</formula>
+    </cfRule>
+    <cfRule type="expression" priority="9" dxfId="2">
       <formula>$J1=FALSE</formula>
-    </cfRule>
-    <cfRule type="expression" priority="1" dxfId="0">
-      <formula>$K1=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12513,7 +12511,7 @@
   <dimension ref="A1:M293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -12612,7 +12610,7 @@
         <v>1120</v>
       </c>
       <c r="M3" s="9" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4">
@@ -12650,7 +12648,7 @@
         </is>
       </c>
       <c r="J4" s="7">
-        <f>ISNUMBER(MATCH(I4,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I4,$F$4:$F$247, 0))</f>
         <v/>
       </c>
       <c r="L4" s="3" t="n"/>
@@ -12691,7 +12689,7 @@
         </is>
       </c>
       <c r="J5" s="7">
-        <f>ISNUMBER(MATCH(I5,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I5,$F$4:$F$247, 0))</f>
         <v/>
       </c>
       <c r="L5" s="12" t="inlineStr">
@@ -12740,14 +12738,14 @@
         </is>
       </c>
       <c r="J6" s="7">
-        <f>ISNUMBER(MATCH(I6,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I6,$F$4:$F$247, 0))</f>
         <v/>
       </c>
       <c r="L6" s="10" t="n">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M6" s="11" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7">
@@ -12785,7 +12783,7 @@
         </is>
       </c>
       <c r="J7" s="7">
-        <f>ISNUMBER(MATCH(I7,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I7,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -12824,7 +12822,7 @@
         </is>
       </c>
       <c r="J8" s="7">
-        <f>ISNUMBER(MATCH(I8,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I8,$F$4:$F$247, 0))</f>
         <v/>
       </c>
       <c r="L8" s="19" t="inlineStr">
@@ -12873,7 +12871,7 @@
         </is>
       </c>
       <c r="J9" s="7">
-        <f>ISNUMBER(MATCH(I9,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I9,$F$4:$F$247, 0))</f>
         <v/>
       </c>
       <c r="L9" s="10">
@@ -12920,7 +12918,7 @@
         </is>
       </c>
       <c r="J10" s="7">
-        <f>ISNUMBER(MATCH(I10,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I10,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -12959,7 +12957,7 @@
         </is>
       </c>
       <c r="J11" s="7">
-        <f>ISNUMBER(MATCH(I11,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I11,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -12998,7 +12996,7 @@
         </is>
       </c>
       <c r="J12" s="7">
-        <f>ISNUMBER(MATCH(I12,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I12,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -13037,7 +13035,7 @@
         </is>
       </c>
       <c r="J13" s="7">
-        <f>ISNUMBER(MATCH(I13,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I13,$F$4:$F$247, 0))</f>
         <v/>
       </c>
       <c r="L13" s="2" t="n"/>
@@ -13077,7 +13075,7 @@
         </is>
       </c>
       <c r="J14" s="7">
-        <f>ISNUMBER(MATCH(I14,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I14,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -13116,7 +13114,7 @@
         </is>
       </c>
       <c r="J15" s="7">
-        <f>ISNUMBER(MATCH(I15,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I15,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -13155,7 +13153,7 @@
         </is>
       </c>
       <c r="J16" s="7">
-        <f>ISNUMBER(MATCH(I16,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I16,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -13194,7 +13192,7 @@
         </is>
       </c>
       <c r="J17" s="7">
-        <f>ISNUMBER(MATCH(I17,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I17,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -13228,7 +13226,7 @@
         </is>
       </c>
       <c r="J18" s="7">
-        <f>ISNUMBER(MATCH(I18,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I18,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -13267,7 +13265,7 @@
         </is>
       </c>
       <c r="J19" s="7">
-        <f>ISNUMBER(MATCH(I19,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I19,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -13306,7 +13304,7 @@
         </is>
       </c>
       <c r="J20" s="7">
-        <f>ISNUMBER(MATCH(I20,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I20,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -13340,7 +13338,7 @@
         </is>
       </c>
       <c r="J21" s="7">
-        <f>ISNUMBER(MATCH(I21,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I21,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -13379,7 +13377,7 @@
         </is>
       </c>
       <c r="J22" s="7">
-        <f>ISNUMBER(MATCH(I22,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I22,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -13418,7 +13416,7 @@
         </is>
       </c>
       <c r="J23" s="7">
-        <f>ISNUMBER(MATCH(I23,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I23,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -13452,7 +13450,7 @@
         </is>
       </c>
       <c r="J24" s="7">
-        <f>ISNUMBER(MATCH(I24,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I24,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -13491,7 +13489,7 @@
         </is>
       </c>
       <c r="J25" s="7">
-        <f>ISNUMBER(MATCH(I25,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I25,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -13530,7 +13528,7 @@
         </is>
       </c>
       <c r="J26" s="7">
-        <f>ISNUMBER(MATCH(I26,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I26,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -13564,7 +13562,7 @@
         </is>
       </c>
       <c r="J27" s="7">
-        <f>ISNUMBER(MATCH(I27,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I27,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -13603,7 +13601,7 @@
         </is>
       </c>
       <c r="J28" s="7">
-        <f>ISNUMBER(MATCH(I28,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I28,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -13642,7 +13640,7 @@
         </is>
       </c>
       <c r="J29" s="7">
-        <f>ISNUMBER(MATCH(I29,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I29,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -13676,7 +13674,7 @@
         </is>
       </c>
       <c r="J30" s="7">
-        <f>ISNUMBER(MATCH(I30,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I30,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -13715,7 +13713,7 @@
         </is>
       </c>
       <c r="J31" s="7">
-        <f>ISNUMBER(MATCH(I31,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I31,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -13754,7 +13752,7 @@
         </is>
       </c>
       <c r="J32" s="7">
-        <f>ISNUMBER(MATCH(I32,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I32,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -13788,7 +13786,7 @@
         </is>
       </c>
       <c r="J33" s="7">
-        <f>ISNUMBER(MATCH(I33,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I33,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -13827,7 +13825,7 @@
         </is>
       </c>
       <c r="J34" s="7">
-        <f>ISNUMBER(MATCH(I34,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I34,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -13866,7 +13864,7 @@
         </is>
       </c>
       <c r="J35" s="7">
-        <f>ISNUMBER(MATCH(I35,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I35,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -13900,7 +13898,7 @@
         </is>
       </c>
       <c r="J36" s="7">
-        <f>ISNUMBER(MATCH(I36,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I36,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -13939,7 +13937,7 @@
         </is>
       </c>
       <c r="J37" s="7">
-        <f>ISNUMBER(MATCH(I37,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I37,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -13978,7 +13976,7 @@
         </is>
       </c>
       <c r="J38" s="7">
-        <f>ISNUMBER(MATCH(I38,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I38,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -14012,7 +14010,7 @@
         </is>
       </c>
       <c r="J39" s="7">
-        <f>ISNUMBER(MATCH(I39,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I39,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -14051,7 +14049,7 @@
         </is>
       </c>
       <c r="J40" s="7">
-        <f>ISNUMBER(MATCH(I40,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I40,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -14090,7 +14088,7 @@
         </is>
       </c>
       <c r="J41" s="7">
-        <f>ISNUMBER(MATCH(I41,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I41,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -14124,7 +14122,7 @@
         </is>
       </c>
       <c r="J42" s="7">
-        <f>ISNUMBER(MATCH(I42,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I42,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -14163,7 +14161,7 @@
         </is>
       </c>
       <c r="J43" s="7">
-        <f>ISNUMBER(MATCH(I43,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I43,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -14202,7 +14200,7 @@
         </is>
       </c>
       <c r="J44" s="7">
-        <f>ISNUMBER(MATCH(I44,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I44,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -14236,7 +14234,7 @@
         </is>
       </c>
       <c r="J45" s="7">
-        <f>ISNUMBER(MATCH(I45,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I45,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -14275,7 +14273,7 @@
         </is>
       </c>
       <c r="J46" s="7">
-        <f>ISNUMBER(MATCH(I46,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I46,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -14314,7 +14312,7 @@
         </is>
       </c>
       <c r="J47" s="7">
-        <f>ISNUMBER(MATCH(I47,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I47,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -14348,7 +14346,7 @@
         </is>
       </c>
       <c r="J48" s="7">
-        <f>ISNUMBER(MATCH(I48,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I48,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -14387,7 +14385,7 @@
         </is>
       </c>
       <c r="J49" s="7">
-        <f>ISNUMBER(MATCH(I49,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I49,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -14426,7 +14424,7 @@
         </is>
       </c>
       <c r="J50" s="7">
-        <f>ISNUMBER(MATCH(I50,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I50,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -14460,7 +14458,7 @@
         </is>
       </c>
       <c r="J51" s="7">
-        <f>ISNUMBER(MATCH(I51,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I51,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -14499,7 +14497,7 @@
         </is>
       </c>
       <c r="J52" s="7">
-        <f>ISNUMBER(MATCH(I52,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I52,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -14538,7 +14536,7 @@
         </is>
       </c>
       <c r="J53" s="7">
-        <f>ISNUMBER(MATCH(I53,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I53,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -14572,7 +14570,7 @@
         </is>
       </c>
       <c r="J54" s="7">
-        <f>ISNUMBER(MATCH(I54,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I54,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -14611,7 +14609,7 @@
         </is>
       </c>
       <c r="J55" s="7">
-        <f>ISNUMBER(MATCH(I55,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I55,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -14650,7 +14648,7 @@
         </is>
       </c>
       <c r="J56" s="7">
-        <f>ISNUMBER(MATCH(I56,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I56,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -14684,7 +14682,7 @@
         </is>
       </c>
       <c r="J57" s="7">
-        <f>ISNUMBER(MATCH(I57,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I57,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -14723,7 +14721,7 @@
         </is>
       </c>
       <c r="J58" s="7">
-        <f>ISNUMBER(MATCH(I58,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I58,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -14762,7 +14760,7 @@
         </is>
       </c>
       <c r="J59" s="7">
-        <f>ISNUMBER(MATCH(I59,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I59,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -14796,7 +14794,7 @@
         </is>
       </c>
       <c r="J60" s="7">
-        <f>ISNUMBER(MATCH(I60,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I60,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -14835,7 +14833,7 @@
         </is>
       </c>
       <c r="J61" s="7">
-        <f>ISNUMBER(MATCH(I61,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I61,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -14874,7 +14872,7 @@
         </is>
       </c>
       <c r="J62" s="7">
-        <f>ISNUMBER(MATCH(I62,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I62,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -14908,7 +14906,7 @@
         </is>
       </c>
       <c r="J63" s="7">
-        <f>ISNUMBER(MATCH(I63,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I63,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -14947,7 +14945,7 @@
         </is>
       </c>
       <c r="J64" s="7">
-        <f>ISNUMBER(MATCH(I64,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I64,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -14986,7 +14984,7 @@
         </is>
       </c>
       <c r="J65" s="7">
-        <f>ISNUMBER(MATCH(I65,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I65,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -15020,7 +15018,7 @@
         </is>
       </c>
       <c r="J66" s="7">
-        <f>ISNUMBER(MATCH(I66,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I66,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -15059,7 +15057,7 @@
         </is>
       </c>
       <c r="J67" s="7">
-        <f>ISNUMBER(MATCH(I67,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I67,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -15098,7 +15096,7 @@
         </is>
       </c>
       <c r="J68" s="7">
-        <f>ISNUMBER(MATCH(I68,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I68,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -15132,7 +15130,7 @@
         </is>
       </c>
       <c r="J69" s="7">
-        <f>ISNUMBER(MATCH(I69,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I69,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -15171,7 +15169,7 @@
         </is>
       </c>
       <c r="J70" s="7">
-        <f>ISNUMBER(MATCH(I70,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I70,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -15210,7 +15208,7 @@
         </is>
       </c>
       <c r="J71" s="7">
-        <f>ISNUMBER(MATCH(I71,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I71,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -15244,7 +15242,7 @@
         </is>
       </c>
       <c r="J72" s="7">
-        <f>ISNUMBER(MATCH(I72,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I72,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -15283,7 +15281,7 @@
         </is>
       </c>
       <c r="J73" s="7">
-        <f>ISNUMBER(MATCH(I73,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I73,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -15322,7 +15320,7 @@
         </is>
       </c>
       <c r="J74" s="7">
-        <f>ISNUMBER(MATCH(I74,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I74,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -15356,7 +15354,7 @@
         </is>
       </c>
       <c r="J75" s="7">
-        <f>ISNUMBER(MATCH(I75,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I75,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -15395,7 +15393,7 @@
         </is>
       </c>
       <c r="J76" s="7">
-        <f>ISNUMBER(MATCH(I76,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I76,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -15434,7 +15432,7 @@
         </is>
       </c>
       <c r="J77" s="7">
-        <f>ISNUMBER(MATCH(I77,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I77,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -15468,7 +15466,7 @@
         </is>
       </c>
       <c r="J78" s="7">
-        <f>ISNUMBER(MATCH(I78,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I78,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -15507,7 +15505,7 @@
         </is>
       </c>
       <c r="J79" s="7">
-        <f>ISNUMBER(MATCH(I79,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I79,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -15546,7 +15544,7 @@
         </is>
       </c>
       <c r="J80" s="7">
-        <f>ISNUMBER(MATCH(I80,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I80,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -15580,7 +15578,7 @@
         </is>
       </c>
       <c r="J81" s="7">
-        <f>ISNUMBER(MATCH(I81,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I81,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -15619,7 +15617,7 @@
         </is>
       </c>
       <c r="J82" s="7">
-        <f>ISNUMBER(MATCH(I82,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I82,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -15658,7 +15656,7 @@
         </is>
       </c>
       <c r="J83" s="7">
-        <f>ISNUMBER(MATCH(I83,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I83,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -15692,7 +15690,7 @@
         </is>
       </c>
       <c r="J84" s="7">
-        <f>ISNUMBER(MATCH(I84,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I84,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -15731,7 +15729,7 @@
         </is>
       </c>
       <c r="J85" s="7">
-        <f>ISNUMBER(MATCH(I85,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I85,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -15770,7 +15768,7 @@
         </is>
       </c>
       <c r="J86" s="7">
-        <f>ISNUMBER(MATCH(I86,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I86,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -15804,7 +15802,7 @@
         </is>
       </c>
       <c r="J87" s="7">
-        <f>ISNUMBER(MATCH(I87,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I87,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -15843,7 +15841,7 @@
         </is>
       </c>
       <c r="J88" s="7">
-        <f>ISNUMBER(MATCH(I88,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I88,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -15882,7 +15880,7 @@
         </is>
       </c>
       <c r="J89" s="7">
-        <f>ISNUMBER(MATCH(I89,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I89,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -15916,7 +15914,7 @@
         </is>
       </c>
       <c r="J90" s="7">
-        <f>ISNUMBER(MATCH(I90,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I90,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -15955,7 +15953,7 @@
         </is>
       </c>
       <c r="J91" s="7">
-        <f>ISNUMBER(MATCH(I91,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I91,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -15994,7 +15992,7 @@
         </is>
       </c>
       <c r="J92" s="7">
-        <f>ISNUMBER(MATCH(I92,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I92,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -16028,7 +16026,7 @@
         </is>
       </c>
       <c r="J93" s="7">
-        <f>ISNUMBER(MATCH(I93,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I93,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -16067,7 +16065,7 @@
         </is>
       </c>
       <c r="J94" s="7">
-        <f>ISNUMBER(MATCH(I94,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I94,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -16106,7 +16104,7 @@
         </is>
       </c>
       <c r="J95" s="7">
-        <f>ISNUMBER(MATCH(I95,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I95,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -16140,7 +16138,7 @@
         </is>
       </c>
       <c r="J96" s="7">
-        <f>ISNUMBER(MATCH(I96,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I96,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -16179,7 +16177,7 @@
         </is>
       </c>
       <c r="J97" s="7">
-        <f>ISNUMBER(MATCH(I97,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I97,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -16218,7 +16216,7 @@
         </is>
       </c>
       <c r="J98" s="7">
-        <f>ISNUMBER(MATCH(I98,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I98,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -16252,7 +16250,7 @@
         </is>
       </c>
       <c r="J99" s="7">
-        <f>ISNUMBER(MATCH(I99,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I99,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -16291,7 +16289,7 @@
         </is>
       </c>
       <c r="J100" s="7">
-        <f>ISNUMBER(MATCH(I100,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I100,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -16330,7 +16328,7 @@
         </is>
       </c>
       <c r="J101" s="7">
-        <f>ISNUMBER(MATCH(I101,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I101,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -16364,7 +16362,7 @@
         </is>
       </c>
       <c r="J102" s="7">
-        <f>ISNUMBER(MATCH(I102,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I102,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -16403,7 +16401,7 @@
         </is>
       </c>
       <c r="J103" s="7">
-        <f>ISNUMBER(MATCH(I103,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I103,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -16442,7 +16440,7 @@
         </is>
       </c>
       <c r="J104" s="7">
-        <f>ISNUMBER(MATCH(I104,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I104,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -16476,7 +16474,7 @@
         </is>
       </c>
       <c r="J105" s="7">
-        <f>ISNUMBER(MATCH(I105,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I105,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -16515,7 +16513,7 @@
         </is>
       </c>
       <c r="J106" s="7">
-        <f>ISNUMBER(MATCH(I106,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I106,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -16554,7 +16552,7 @@
         </is>
       </c>
       <c r="J107" s="7">
-        <f>ISNUMBER(MATCH(I107,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I107,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -16588,7 +16586,7 @@
         </is>
       </c>
       <c r="J108" s="7">
-        <f>ISNUMBER(MATCH(I108,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I108,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -16627,7 +16625,7 @@
         </is>
       </c>
       <c r="J109" s="7">
-        <f>ISNUMBER(MATCH(I109,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I109,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -16666,7 +16664,7 @@
         </is>
       </c>
       <c r="J110" s="7">
-        <f>ISNUMBER(MATCH(I110,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I110,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -16700,7 +16698,7 @@
         </is>
       </c>
       <c r="J111" s="7">
-        <f>ISNUMBER(MATCH(I111,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I111,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -16739,7 +16737,7 @@
         </is>
       </c>
       <c r="J112" s="7">
-        <f>ISNUMBER(MATCH(I112,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I112,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -16778,7 +16776,7 @@
         </is>
       </c>
       <c r="J113" s="7">
-        <f>ISNUMBER(MATCH(I113,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I113,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -16812,7 +16810,7 @@
         </is>
       </c>
       <c r="J114" s="7">
-        <f>ISNUMBER(MATCH(I114,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I114,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -16851,7 +16849,7 @@
         </is>
       </c>
       <c r="J115" s="7">
-        <f>ISNUMBER(MATCH(I115,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I115,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -16890,7 +16888,7 @@
         </is>
       </c>
       <c r="J116" s="7">
-        <f>ISNUMBER(MATCH(I116,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I116,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -16924,7 +16922,7 @@
         </is>
       </c>
       <c r="J117" s="7">
-        <f>ISNUMBER(MATCH(I117,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I117,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -16963,7 +16961,7 @@
         </is>
       </c>
       <c r="J118" s="7">
-        <f>ISNUMBER(MATCH(I118,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I118,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -17002,7 +17000,7 @@
         </is>
       </c>
       <c r="J119" s="7">
-        <f>ISNUMBER(MATCH(I119,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I119,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -17036,7 +17034,7 @@
         </is>
       </c>
       <c r="J120" s="7">
-        <f>ISNUMBER(MATCH(I120,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I120,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -17075,7 +17073,7 @@
         </is>
       </c>
       <c r="J121" s="7">
-        <f>ISNUMBER(MATCH(I121,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I121,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -17114,7 +17112,7 @@
         </is>
       </c>
       <c r="J122" s="7">
-        <f>ISNUMBER(MATCH(I122,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I122,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -17148,7 +17146,7 @@
         </is>
       </c>
       <c r="J123" s="7">
-        <f>ISNUMBER(MATCH(I123,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I123,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -17187,7 +17185,7 @@
         </is>
       </c>
       <c r="J124" s="7">
-        <f>ISNUMBER(MATCH(I124,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I124,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -17226,7 +17224,7 @@
         </is>
       </c>
       <c r="J125" s="7">
-        <f>ISNUMBER(MATCH(I125,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I125,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -17260,7 +17258,7 @@
         </is>
       </c>
       <c r="J126" s="7">
-        <f>ISNUMBER(MATCH(I126,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I126,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -17299,7 +17297,7 @@
         </is>
       </c>
       <c r="J127" s="7">
-        <f>ISNUMBER(MATCH(I127,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I127,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -17338,7 +17336,7 @@
         </is>
       </c>
       <c r="J128" s="7">
-        <f>ISNUMBER(MATCH(I128,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I128,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -17372,7 +17370,7 @@
         </is>
       </c>
       <c r="J129" s="7">
-        <f>ISNUMBER(MATCH(I129,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I129,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -17411,7 +17409,7 @@
         </is>
       </c>
       <c r="J130" s="7">
-        <f>ISNUMBER(MATCH(I130,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I130,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -17450,7 +17448,7 @@
         </is>
       </c>
       <c r="J131" s="7">
-        <f>ISNUMBER(MATCH(I131,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I131,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -17484,7 +17482,7 @@
         </is>
       </c>
       <c r="J132" s="7">
-        <f>ISNUMBER(MATCH(I132,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I132,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -17523,7 +17521,7 @@
         </is>
       </c>
       <c r="J133" s="7">
-        <f>ISNUMBER(MATCH(I133,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I133,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -17562,7 +17560,7 @@
         </is>
       </c>
       <c r="J134" s="7">
-        <f>ISNUMBER(MATCH(I134,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I134,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -17596,7 +17594,7 @@
         </is>
       </c>
       <c r="J135" s="7">
-        <f>ISNUMBER(MATCH(I135,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I135,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -17635,7 +17633,7 @@
         </is>
       </c>
       <c r="J136" s="7">
-        <f>ISNUMBER(MATCH(I136,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I136,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -17674,7 +17672,7 @@
         </is>
       </c>
       <c r="J137" s="7">
-        <f>ISNUMBER(MATCH(I137,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I137,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -17708,7 +17706,7 @@
         </is>
       </c>
       <c r="J138" s="7">
-        <f>ISNUMBER(MATCH(I138,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I138,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -17747,7 +17745,7 @@
         </is>
       </c>
       <c r="J139" s="7">
-        <f>ISNUMBER(MATCH(I139,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I139,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -17786,7 +17784,7 @@
         </is>
       </c>
       <c r="J140" s="7">
-        <f>ISNUMBER(MATCH(I140,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I140,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -17820,7 +17818,7 @@
         </is>
       </c>
       <c r="J141" s="7">
-        <f>ISNUMBER(MATCH(I141,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I141,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -17859,7 +17857,7 @@
         </is>
       </c>
       <c r="J142" s="7">
-        <f>ISNUMBER(MATCH(I142,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I142,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -17898,7 +17896,7 @@
         </is>
       </c>
       <c r="J143" s="7">
-        <f>ISNUMBER(MATCH(I143,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I143,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -17932,7 +17930,7 @@
         </is>
       </c>
       <c r="J144" s="7">
-        <f>ISNUMBER(MATCH(I144,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I144,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -17971,7 +17969,7 @@
         </is>
       </c>
       <c r="J145" s="7">
-        <f>ISNUMBER(MATCH(I145,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I145,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -18010,7 +18008,7 @@
         </is>
       </c>
       <c r="J146" s="7">
-        <f>ISNUMBER(MATCH(I146,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I146,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -18044,7 +18042,7 @@
         </is>
       </c>
       <c r="J147" s="7">
-        <f>ISNUMBER(MATCH(I147,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I147,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -18083,7 +18081,7 @@
         </is>
       </c>
       <c r="J148" s="7">
-        <f>ISNUMBER(MATCH(I148,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I148,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -18122,7 +18120,7 @@
         </is>
       </c>
       <c r="J149" s="7">
-        <f>ISNUMBER(MATCH(I149,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I149,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -18156,7 +18154,7 @@
         </is>
       </c>
       <c r="J150" s="7">
-        <f>ISNUMBER(MATCH(I150,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I150,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -18195,7 +18193,7 @@
         </is>
       </c>
       <c r="J151" s="7">
-        <f>ISNUMBER(MATCH(I151,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I151,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -18234,7 +18232,7 @@
         </is>
       </c>
       <c r="J152" s="7">
-        <f>ISNUMBER(MATCH(I152,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I152,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -18268,7 +18266,7 @@
         </is>
       </c>
       <c r="J153" s="7">
-        <f>ISNUMBER(MATCH(I153,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I153,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -18307,7 +18305,7 @@
         </is>
       </c>
       <c r="J154" s="7">
-        <f>ISNUMBER(MATCH(I154,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I154,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -18346,7 +18344,7 @@
         </is>
       </c>
       <c r="J155" s="7">
-        <f>ISNUMBER(MATCH(I155,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I155,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -18380,7 +18378,7 @@
         </is>
       </c>
       <c r="J156" s="7">
-        <f>ISNUMBER(MATCH(I156,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I156,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -18419,7 +18417,7 @@
         </is>
       </c>
       <c r="J157" s="7">
-        <f>ISNUMBER(MATCH(I157,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I157,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -18458,7 +18456,7 @@
         </is>
       </c>
       <c r="J158" s="7">
-        <f>ISNUMBER(MATCH(I158,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I158,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -18492,7 +18490,7 @@
         </is>
       </c>
       <c r="J159" s="7">
-        <f>ISNUMBER(MATCH(I159,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I159,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -18531,7 +18529,7 @@
         </is>
       </c>
       <c r="J160" s="7">
-        <f>ISNUMBER(MATCH(I160,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I160,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -18570,7 +18568,7 @@
         </is>
       </c>
       <c r="J161" s="7">
-        <f>ISNUMBER(MATCH(I161,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I161,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -18604,7 +18602,7 @@
         </is>
       </c>
       <c r="J162" s="7">
-        <f>ISNUMBER(MATCH(I162,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I162,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -18626,7 +18624,7 @@
       </c>
       <c r="F163" s="7" t="inlineStr">
         <is>
-          <t>Newell and Reilly (1997)</t>
+          <t>Newell and Reilly (1999)</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -18643,7 +18641,7 @@
         </is>
       </c>
       <c r="J163" s="7">
-        <f>ISNUMBER(MATCH(I163,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I163,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -18665,7 +18663,7 @@
       </c>
       <c r="F164" s="7" t="inlineStr">
         <is>
-          <t>Newell and Reilly (1999)</t>
+          <t>Nguyen (2002)</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -18682,7 +18680,7 @@
         </is>
       </c>
       <c r="J164" s="7">
-        <f>ISNUMBER(MATCH(I164,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I164,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -18704,7 +18702,7 @@
       </c>
       <c r="F165" s="7" t="inlineStr">
         <is>
-          <t>Nguyen (2002)</t>
+          <t>Nonneman and Cortens (1997)</t>
         </is>
       </c>
       <c r="H165" s="3" t="n">
@@ -18716,7 +18714,7 @@
         </is>
       </c>
       <c r="J165" s="7">
-        <f>ISNUMBER(MATCH(I165,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I165,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -18738,7 +18736,7 @@
       </c>
       <c r="F166" s="7" t="inlineStr">
         <is>
-          <t>Nonneman and Cortens (1997)</t>
+          <t>Nour (2011)</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -18755,7 +18753,7 @@
         </is>
       </c>
       <c r="J166" s="7">
-        <f>ISNUMBER(MATCH(I166,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I166,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -18777,7 +18775,7 @@
       </c>
       <c r="F167" s="7" t="inlineStr">
         <is>
-          <t>Nour (2011)</t>
+          <t>OECD (2006)</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -18790,11 +18788,11 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Newell and Reilly (1997)</t>
+          <t>Newell and Reilly (1999)</t>
         </is>
       </c>
       <c r="J167" s="7">
-        <f>ISNUMBER(MATCH(I167,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I167,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -18816,7 +18814,7 @@
       </c>
       <c r="F168" s="7" t="inlineStr">
         <is>
-          <t>OECD (2006)</t>
+          <t>OECD (2013)</t>
         </is>
       </c>
       <c r="H168" s="3" t="n">
@@ -18824,11 +18822,11 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Newell and Reilly (1999)</t>
+          <t>Nguyen (2002)</t>
         </is>
       </c>
       <c r="J168" s="7">
-        <f>ISNUMBER(MATCH(I168,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I168,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -18850,7 +18848,7 @@
       </c>
       <c r="F169" s="7" t="inlineStr">
         <is>
-          <t>OECD (2013)</t>
+          <t>OECD (2015)</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -18863,11 +18861,11 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Nguyen (2002)</t>
+          <t>Nonneman and Cortens (1997)</t>
         </is>
       </c>
       <c r="J169" s="7">
-        <f>ISNUMBER(MATCH(I169,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I169,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -18889,7 +18887,7 @@
       </c>
       <c r="F170" s="7" t="inlineStr">
         <is>
-          <t>OECD (2015)</t>
+          <t>Oyelere (2010)</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -18902,11 +18900,11 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Nonneman and Cortens (1997)</t>
+          <t>Nour (2011)</t>
         </is>
       </c>
       <c r="J170" s="7">
-        <f>ISNUMBER(MATCH(I170,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I170,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -18928,7 +18926,7 @@
       </c>
       <c r="F171" s="7" t="inlineStr">
         <is>
-          <t>Oyelere (2010)</t>
+          <t>Oyelere (2011)</t>
         </is>
       </c>
       <c r="H171" s="3" t="n">
@@ -18936,11 +18934,11 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Nour (2011)</t>
+          <t>OECD (2006)</t>
         </is>
       </c>
       <c r="J171" s="7">
-        <f>ISNUMBER(MATCH(I171,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I171,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -18950,7 +18948,7 @@
       </c>
       <c r="B172" s="1" t="inlineStr">
         <is>
-          <t>Newell and Reilly (1997)</t>
+          <t>Newell and Reilly (1999)</t>
         </is>
       </c>
       <c r="C172">
@@ -18962,7 +18960,7 @@
       </c>
       <c r="F172" s="7" t="inlineStr">
         <is>
-          <t>Oyelere (2011)</t>
+          <t>Pastore and Verashchagina (2006)</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -18975,11 +18973,11 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>OECD (2006)</t>
+          <t>OECD (2013)</t>
         </is>
       </c>
       <c r="J172" s="7">
-        <f>ISNUMBER(MATCH(I172,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I172,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -18989,7 +18987,7 @@
       </c>
       <c r="B173" s="1" t="inlineStr">
         <is>
-          <t>Newell and Reilly (1999)</t>
+          <t>Nguyen (2002)</t>
         </is>
       </c>
       <c r="C173">
@@ -19001,7 +18999,7 @@
       </c>
       <c r="F173" s="7" t="inlineStr">
         <is>
-          <t>Pastore and Verashchagina (2006)</t>
+          <t>Patrinos (1995)</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -19014,11 +19012,11 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>OECD (2013)</t>
+          <t>OECD (2015)</t>
         </is>
       </c>
       <c r="J173" s="7">
-        <f>ISNUMBER(MATCH(I173,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I173,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -19028,7 +19026,7 @@
       </c>
       <c r="B174" s="1" t="inlineStr">
         <is>
-          <t>Nguyen (2002)</t>
+          <t>Nonneman and Cortens (1997)</t>
         </is>
       </c>
       <c r="C174">
@@ -19040,7 +19038,7 @@
       </c>
       <c r="F174" s="7" t="inlineStr">
         <is>
-          <t>Patrinos (1995)</t>
+          <t>Patrinos and Sakellariou (2004)</t>
         </is>
       </c>
       <c r="H174" s="3" t="n">
@@ -19048,11 +19046,11 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>OECD (2015)</t>
+          <t>Oyelere (2010)</t>
         </is>
       </c>
       <c r="J174" s="7">
-        <f>ISNUMBER(MATCH(I174,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I174,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -19062,7 +19060,7 @@
       </c>
       <c r="B175" s="1" t="inlineStr">
         <is>
-          <t>Nonneman and Cortens (1997)</t>
+          <t>Nour (2011)</t>
         </is>
       </c>
       <c r="C175">
@@ -19074,7 +19072,7 @@
       </c>
       <c r="F175" s="7" t="inlineStr">
         <is>
-          <t>Patrinos and Sakellariou (2004)</t>
+          <t>Patrinos, Ridao and Sakellariou (2009)</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -19087,11 +19085,11 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Oyelere (2010)</t>
+          <t>Oyelere (2011)</t>
         </is>
       </c>
       <c r="J175" s="7">
-        <f>ISNUMBER(MATCH(I175,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I175,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -19101,7 +19099,7 @@
       </c>
       <c r="B176" s="1" t="inlineStr">
         <is>
-          <t>Nour (2011)</t>
+          <t>OECD (2006)</t>
         </is>
       </c>
       <c r="C176">
@@ -19113,7 +19111,7 @@
       </c>
       <c r="F176" s="7" t="inlineStr">
         <is>
-          <t>Patrinos, Ridao and Sakellariou (2009)</t>
+          <t>Peet, Fink and Fawzi (2015)</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -19126,11 +19124,11 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Oyelere (2011)</t>
+          <t>Pastore and Verashchagina (2006)</t>
         </is>
       </c>
       <c r="J176" s="7">
-        <f>ISNUMBER(MATCH(I176,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I176,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -19140,7 +19138,7 @@
       </c>
       <c r="B177" s="1" t="inlineStr">
         <is>
-          <t>OECD (2006)</t>
+          <t>OECD (2013)</t>
         </is>
       </c>
       <c r="C177">
@@ -19152,7 +19150,7 @@
       </c>
       <c r="F177" s="7" t="inlineStr">
         <is>
-          <t>Peet, Fink and Fawzi (2015)</t>
+          <t>Pischke and Wachter (2005)</t>
         </is>
       </c>
       <c r="H177" s="3" t="n">
@@ -19160,11 +19158,11 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Pastore and Verashchagina (2006)</t>
+          <t>Patrinos (1995)</t>
         </is>
       </c>
       <c r="J177" s="7">
-        <f>ISNUMBER(MATCH(I177,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I177,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -19174,7 +19172,7 @@
       </c>
       <c r="B178" s="1" t="inlineStr">
         <is>
-          <t>OECD (2013)</t>
+          <t>OECD (2015)</t>
         </is>
       </c>
       <c r="C178">
@@ -19186,7 +19184,7 @@
       </c>
       <c r="F178" s="7" t="inlineStr">
         <is>
-          <t>Pischke and Wachter (2005)</t>
+          <t>Polachek (2008)</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -19199,11 +19197,11 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Patrinos (1995)</t>
+          <t>Patrinos and Sakellariou (2004)</t>
         </is>
       </c>
       <c r="J178" s="7">
-        <f>ISNUMBER(MATCH(I178,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I178,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -19213,7 +19211,7 @@
       </c>
       <c r="B179" s="1" t="inlineStr">
         <is>
-          <t>OECD (2015)</t>
+          <t>Oyelere (2010)</t>
         </is>
       </c>
       <c r="C179">
@@ -19225,7 +19223,7 @@
       </c>
       <c r="F179" s="7" t="inlineStr">
         <is>
-          <t>Polachek (2008)</t>
+          <t>Popov (2013)</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -19238,11 +19236,11 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Patrinos and Sakellariou (2004)</t>
+          <t>Patrinos, Ridao and Sakellariou (2009)</t>
         </is>
       </c>
       <c r="J179" s="7">
-        <f>ISNUMBER(MATCH(I179,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I179,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -19252,7 +19250,7 @@
       </c>
       <c r="B180" s="1" t="inlineStr">
         <is>
-          <t>Oyelere (2010)</t>
+          <t>Oyelere (2011)</t>
         </is>
       </c>
       <c r="C180">
@@ -19264,7 +19262,7 @@
       </c>
       <c r="F180" s="7" t="inlineStr">
         <is>
-          <t>Popov (2013)</t>
+          <t>Psacharopoulos (1981)</t>
         </is>
       </c>
       <c r="H180" s="3" t="n">
@@ -19272,11 +19270,11 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Patrinos, Ridao and Sakellariou (2009)</t>
+          <t>Patrinos, Velez and Psacharopoulos (1994)</t>
         </is>
       </c>
       <c r="J180" s="7">
-        <f>ISNUMBER(MATCH(I180,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I180,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -19286,7 +19284,7 @@
       </c>
       <c r="B181" s="1" t="inlineStr">
         <is>
-          <t>Oyelere (2011)</t>
+          <t>Pastore and Verashchagina (2006)</t>
         </is>
       </c>
       <c r="C181">
@@ -19298,7 +19296,7 @@
       </c>
       <c r="F181" s="7" t="inlineStr">
         <is>
-          <t>Psacharopoulos (1981)</t>
+          <t>Psacharopoulos (1982)</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -19311,11 +19309,11 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Patrinos, Velez and Psacharopoulos (1994)</t>
+          <t>Peet, Fink and Fawzi (2015)</t>
         </is>
       </c>
       <c r="J181" s="7">
-        <f>ISNUMBER(MATCH(I181,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I181,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -19325,7 +19323,7 @@
       </c>
       <c r="B182" s="1" t="inlineStr">
         <is>
-          <t>Pastore and Verashchagina (2006)</t>
+          <t>Patrinos (1995)</t>
         </is>
       </c>
       <c r="C182">
@@ -19337,7 +19335,7 @@
       </c>
       <c r="F182" s="7" t="inlineStr">
         <is>
-          <t>Psacharopoulos (1982)</t>
+          <t>Psacharopoulos (1985)</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -19350,11 +19348,11 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Peet, Fink and Fawzi (2015)</t>
+          <t>Pischke and Wachter (2005)</t>
         </is>
       </c>
       <c r="J182" s="7">
-        <f>ISNUMBER(MATCH(I182,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I182,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -19364,7 +19362,7 @@
       </c>
       <c r="B183" s="1" t="inlineStr">
         <is>
-          <t>Patrinos (1995)</t>
+          <t>Patrinos and Sakellariou (2004)</t>
         </is>
       </c>
       <c r="C183">
@@ -19376,7 +19374,7 @@
       </c>
       <c r="F183" s="7" t="inlineStr">
         <is>
-          <t>Psacharopoulos (1985)</t>
+          <t>Psacharopoulos (1989)</t>
         </is>
       </c>
       <c r="H183" s="3" t="n">
@@ -19384,11 +19382,11 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Pischke and Wachter (2005)</t>
+          <t>Polachek (2008)</t>
         </is>
       </c>
       <c r="J183" s="7">
-        <f>ISNUMBER(MATCH(I183,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I183,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -19398,7 +19396,7 @@
       </c>
       <c r="B184" s="1" t="inlineStr">
         <is>
-          <t>Patrinos and Sakellariou (2004)</t>
+          <t>Patrinos, Ridao and Sakellariou (2009)</t>
         </is>
       </c>
       <c r="C184">
@@ -19410,7 +19408,7 @@
       </c>
       <c r="F184" s="7" t="inlineStr">
         <is>
-          <t>Psacharopoulos (1989)</t>
+          <t>Psacharopoulos (1994)</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -19423,11 +19421,11 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Polachek (2008)</t>
+          <t>Popov (2013)</t>
         </is>
       </c>
       <c r="J184" s="7">
-        <f>ISNUMBER(MATCH(I184,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I184,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -19437,7 +19435,7 @@
       </c>
       <c r="B185" s="1" t="inlineStr">
         <is>
-          <t>Patrinos, Ridao and Sakellariou (2009)</t>
+          <t>Peet, Fink and Fawzi (2015)</t>
         </is>
       </c>
       <c r="C185">
@@ -19449,7 +19447,7 @@
       </c>
       <c r="F185" s="7" t="inlineStr">
         <is>
-          <t>Psacharopoulos (1994)</t>
+          <t>Psacharopoulos and Alam (1991)</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -19462,11 +19460,11 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Popov (2013)</t>
+          <t>Psacharopoulos (1981)</t>
         </is>
       </c>
       <c r="J185" s="7">
-        <f>ISNUMBER(MATCH(I185,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I185,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -19476,7 +19474,7 @@
       </c>
       <c r="B186" s="1" t="inlineStr">
         <is>
-          <t>Peet, Fink and Fawzi (2015)</t>
+          <t>Pischke and Wachter (2005)</t>
         </is>
       </c>
       <c r="C186">
@@ -19488,7 +19486,7 @@
       </c>
       <c r="F186" s="7" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Alam (1991)</t>
+          <t>Psacharopoulos and Layard (1979)</t>
         </is>
       </c>
       <c r="H186" s="3" t="n">
@@ -19496,11 +19494,11 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Psacharopoulos (1981)</t>
+          <t>Psacharopoulos (1982)</t>
         </is>
       </c>
       <c r="J186" s="7">
-        <f>ISNUMBER(MATCH(I186,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I186,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -19510,7 +19508,7 @@
       </c>
       <c r="B187" s="1" t="inlineStr">
         <is>
-          <t>Pischke and Wachter (2005)</t>
+          <t>Polachek (2008)</t>
         </is>
       </c>
       <c r="C187">
@@ -19522,7 +19520,7 @@
       </c>
       <c r="F187" s="7" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Layard (1979)</t>
+          <t>Psacharopoulos and Mattson (1998)</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -19535,11 +19533,11 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Psacharopoulos (1982)</t>
+          <t>Psacharopoulos (1985)</t>
         </is>
       </c>
       <c r="J187" s="7">
-        <f>ISNUMBER(MATCH(I187,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I187,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -19549,7 +19547,7 @@
       </c>
       <c r="B188" s="1" t="inlineStr">
         <is>
-          <t>Polachek (2008)</t>
+          <t>Popov (2013)</t>
         </is>
       </c>
       <c r="C188">
@@ -19561,7 +19559,7 @@
       </c>
       <c r="F188" s="7" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Mattson (1998)</t>
+          <t>Psacharopoulos and Patrinos (2004)</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -19574,11 +19572,11 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Psacharopoulos (1985)</t>
+          <t>Psacharopoulos (1989)</t>
         </is>
       </c>
       <c r="J188" s="7">
-        <f>ISNUMBER(MATCH(I188,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I188,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -19588,7 +19586,7 @@
       </c>
       <c r="B189" s="1" t="inlineStr">
         <is>
-          <t>Popov (2013)</t>
+          <t>Psacharopoulos (1981)</t>
         </is>
       </c>
       <c r="C189">
@@ -19600,7 +19598,7 @@
       </c>
       <c r="F189" s="7" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Patrinos (2004)</t>
+          <t>Psacharopoulos and Steier (1988)</t>
         </is>
       </c>
       <c r="H189" s="3" t="n">
@@ -19608,11 +19606,11 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Psacharopoulos (1989)</t>
+          <t>Psacharopoulos (1994)</t>
         </is>
       </c>
       <c r="J189" s="7">
-        <f>ISNUMBER(MATCH(I189,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I189,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -19622,7 +19620,7 @@
       </c>
       <c r="B190" s="1" t="inlineStr">
         <is>
-          <t>Psacharopoulos (1981)</t>
+          <t>Psacharopoulos (1982)</t>
         </is>
       </c>
       <c r="C190">
@@ -19634,7 +19632,7 @@
       </c>
       <c r="F190" s="7" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Steier (1988)</t>
+          <t>Psacharopoulos and Velez (1992)</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -19647,11 +19645,11 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Psacharopoulos (1994)</t>
+          <t>Psacharopoulos and Alam (1991)</t>
         </is>
       </c>
       <c r="J190" s="7">
-        <f>ISNUMBER(MATCH(I190,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I190,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -19661,7 +19659,7 @@
       </c>
       <c r="B191" s="1" t="inlineStr">
         <is>
-          <t>Psacharopoulos (1982)</t>
+          <t>Psacharopoulos (1985)</t>
         </is>
       </c>
       <c r="C191">
@@ -19673,7 +19671,7 @@
       </c>
       <c r="F191" s="7" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Velez (1992)</t>
+          <t>Psacharopoulos et. al. (1996)</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -19686,11 +19684,11 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Alam (1991)</t>
+          <t>Psacharopoulos and Layard (1979)</t>
         </is>
       </c>
       <c r="J191" s="7">
-        <f>ISNUMBER(MATCH(I191,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I191,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -19700,7 +19698,7 @@
       </c>
       <c r="B192" s="1" t="inlineStr">
         <is>
-          <t>Psacharopoulos (1985)</t>
+          <t>Psacharopoulos (1985); Psacharopoulos (1994)</t>
         </is>
       </c>
       <c r="C192">
@@ -19712,7 +19710,7 @@
       </c>
       <c r="F192" s="7" t="inlineStr">
         <is>
-          <t>Psacharopoulos et. al. (1996)</t>
+          <t>Psacharopoulos, Ariera and Mattson (1997)</t>
         </is>
       </c>
       <c r="H192" s="3" t="n">
@@ -19720,11 +19718,11 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Layard (1979)</t>
+          <t>Psacharopoulos and Mattson (1998)</t>
         </is>
       </c>
       <c r="J192" s="7">
-        <f>ISNUMBER(MATCH(I192,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I192,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -19734,7 +19732,7 @@
       </c>
       <c r="B193" s="1" t="inlineStr">
         <is>
-          <t>Psacharopoulos (1985); Psacharopoulos (1994)</t>
+          <t>Psacharopoulos (1989)</t>
         </is>
       </c>
       <c r="C193">
@@ -19746,7 +19744,7 @@
       </c>
       <c r="F193" s="7" t="inlineStr">
         <is>
-          <t>Psacharopoulos, Ariera and Mattson (1997)</t>
+          <t>Psacharopoulos, Arriagada and Velez (1992)</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -19759,11 +19757,11 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Mattson (1998)</t>
+          <t>Psacharopoulos and Patrinos (2004)</t>
         </is>
       </c>
       <c r="J193" s="7">
-        <f>ISNUMBER(MATCH(I193,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I193,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -19773,7 +19771,7 @@
       </c>
       <c r="B194" s="1" t="inlineStr">
         <is>
-          <t>Psacharopoulos (1989)</t>
+          <t>Psacharopoulos (1994)</t>
         </is>
       </c>
       <c r="C194">
@@ -19785,7 +19783,7 @@
       </c>
       <c r="F194" s="7" t="inlineStr">
         <is>
-          <t>Psacharopoulos, Arriagada and Velez (1992)</t>
+          <t>Reilly and Bellony (2009)</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -19798,11 +19796,11 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Patrinos (2004)</t>
+          <t>Psacharopoulos and Steier (1988)</t>
         </is>
       </c>
       <c r="J194" s="7">
-        <f>ISNUMBER(MATCH(I194,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I194,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -19812,7 +19810,7 @@
       </c>
       <c r="B195" s="1" t="inlineStr">
         <is>
-          <t>Psacharopoulos (1994)</t>
+          <t>Psacharopoulos (1994); Bevc (1989)</t>
         </is>
       </c>
       <c r="C195">
@@ -19824,7 +19822,7 @@
       </c>
       <c r="F195" s="7" t="inlineStr">
         <is>
-          <t>Reilly and Bellony (2009)</t>
+          <t>Riveros (1990)</t>
         </is>
       </c>
       <c r="H195" s="3" t="n">
@@ -19832,11 +19830,11 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Steier (1988)</t>
+          <t>Psacharopoulos and Velez (1992)</t>
         </is>
       </c>
       <c r="J195" s="7">
-        <f>ISNUMBER(MATCH(I195,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I195,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -19846,7 +19844,7 @@
       </c>
       <c r="B196" s="1" t="inlineStr">
         <is>
-          <t>Psacharopoulos (1994); Bevc (1989)</t>
+          <t>Psacharopoulos (1994); Funkhouser (1996)</t>
         </is>
       </c>
       <c r="C196">
@@ -19858,7 +19856,7 @@
       </c>
       <c r="F196" s="7" t="inlineStr">
         <is>
-          <t>Riveros (1990)</t>
+          <t>Rizk (2016)</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -19871,11 +19869,11 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Velez (1992)</t>
+          <t>Psacharopoulos et. al. (1996)</t>
         </is>
       </c>
       <c r="J196" s="7">
-        <f>ISNUMBER(MATCH(I196,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I196,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -19885,7 +19883,7 @@
       </c>
       <c r="B197" s="1" t="inlineStr">
         <is>
-          <t>Psacharopoulos (1994); Funkhouser (1996)</t>
+          <t>Psacharopoulos (1994); Patrinos and Sakellariou (2004)</t>
         </is>
       </c>
       <c r="C197">
@@ -19897,7 +19895,7 @@
       </c>
       <c r="F197" s="7" t="inlineStr">
         <is>
-          <t>Rizk (2016)</t>
+          <t>Rouse (1999)</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -19910,11 +19908,11 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Psacharopoulos et. al. (1996)</t>
+          <t>Psacharopoulos, Ariera and Mattson (1997)</t>
         </is>
       </c>
       <c r="J197" s="7">
-        <f>ISNUMBER(MATCH(I197,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I197,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -19924,7 +19922,7 @@
       </c>
       <c r="B198" s="1" t="inlineStr">
         <is>
-          <t>Psacharopoulos (1994); Patrinos and Sakellariou (2004)</t>
+          <t>Psacharopoulos (1994); Patrinos, Velez and Psacharopoulos (1994)</t>
         </is>
       </c>
       <c r="C198">
@@ -19936,7 +19934,7 @@
       </c>
       <c r="F198" s="7" t="inlineStr">
         <is>
-          <t>Rouse (1999)</t>
+          <t>Rutkowski (1997)</t>
         </is>
       </c>
       <c r="H198" s="3" t="n">
@@ -19944,11 +19942,11 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Psacharopoulos, Ariera and Mattson (1997)</t>
+          <t>Psacharopoulos, Arriagada and Velez (1992)</t>
         </is>
       </c>
       <c r="J198" s="7">
-        <f>ISNUMBER(MATCH(I198,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I198,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -19958,7 +19956,7 @@
       </c>
       <c r="B199" s="1" t="inlineStr">
         <is>
-          <t>Psacharopoulos (1994); Patrinos, Velez and Psacharopoulos (1994)</t>
+          <t>Psacharopoulos and Alam (1991)</t>
         </is>
       </c>
       <c r="C199">
@@ -19970,7 +19968,7 @@
       </c>
       <c r="F199" s="7" t="inlineStr">
         <is>
-          <t>Rutkowski (1997)</t>
+          <t>Rutkowski (2001)</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -19983,11 +19981,11 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Psacharopoulos, Arriagada and Velez (1992)</t>
+          <t>Reilly and Bellony (2009)</t>
         </is>
       </c>
       <c r="J199" s="7">
-        <f>ISNUMBER(MATCH(I199,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I199,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -19997,7 +19995,7 @@
       </c>
       <c r="B200" s="1" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Alam (1991)</t>
+          <t>Psacharopoulos and Layard (1979)</t>
         </is>
       </c>
       <c r="C200">
@@ -20009,7 +20007,7 @@
       </c>
       <c r="F200" s="7" t="inlineStr">
         <is>
-          <t>Rutkowski (2001)</t>
+          <t>Ryoo (1988)</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -20022,11 +20020,11 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Reilly and Bellony (2009)</t>
+          <t>Riveros (1990)</t>
         </is>
       </c>
       <c r="J200" s="7">
-        <f>ISNUMBER(MATCH(I200,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I200,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -20036,7 +20034,7 @@
       </c>
       <c r="B201" s="1" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Layard (1979)</t>
+          <t>Psacharopoulos and Mattson (1998)</t>
         </is>
       </c>
       <c r="C201">
@@ -20048,7 +20046,7 @@
       </c>
       <c r="F201" s="7" t="inlineStr">
         <is>
-          <t>Ryoo (1988)</t>
+          <t>Sakellariou (2003)</t>
         </is>
       </c>
       <c r="H201" s="3" t="n">
@@ -20056,11 +20054,11 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Riveros (1990)</t>
+          <t>Rizk (2016)</t>
         </is>
       </c>
       <c r="J201" s="7">
-        <f>ISNUMBER(MATCH(I201,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I201,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -20070,7 +20068,7 @@
       </c>
       <c r="B202" s="1" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Mattson (1998)</t>
+          <t>Psacharopoulos and Patrinos (2004)</t>
         </is>
       </c>
       <c r="C202">
@@ -20082,7 +20080,7 @@
       </c>
       <c r="F202" s="7" t="inlineStr">
         <is>
-          <t>Sakellariou (2003)</t>
+          <t>Sakellariou (2006)</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -20095,11 +20093,11 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Rizk (2016)</t>
+          <t>Rouse (1999)</t>
         </is>
       </c>
       <c r="J202" s="7">
-        <f>ISNUMBER(MATCH(I202,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I202,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -20109,7 +20107,7 @@
       </c>
       <c r="B203" s="1" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Patrinos (2004)</t>
+          <t>Psacharopoulos and Patrinos (2004); Banerjee and Duflo (2005)</t>
         </is>
       </c>
       <c r="C203">
@@ -20121,7 +20119,7 @@
       </c>
       <c r="F203" s="7" t="inlineStr">
         <is>
-          <t>Sakellariou (2006)</t>
+          <t>Salehi, Tunali, Assaad (2009)</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -20134,11 +20132,11 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Rouse (1999)</t>
+          <t>Rummery, Vella and Verbeek (1999)</t>
         </is>
       </c>
       <c r="J203" s="7">
-        <f>ISNUMBER(MATCH(I203,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I203,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -20148,7 +20146,7 @@
       </c>
       <c r="B204" s="1" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Patrinos (2004); Banerjee and Duflo (2005)</t>
+          <t>Psacharopoulos and Patrinos (2004); Glewwe (1996)</t>
         </is>
       </c>
       <c r="C204">
@@ -20160,7 +20158,7 @@
       </c>
       <c r="F204" s="7" t="inlineStr">
         <is>
-          <t>Salehi, Tunali, Assaad (2009)</t>
+          <t>Salisbury (2016)</t>
         </is>
       </c>
       <c r="H204" s="3" t="n">
@@ -20168,11 +20166,11 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Rummery, Vella and Verbeek (1999)</t>
+          <t>Rutkowski (1997)</t>
         </is>
       </c>
       <c r="J204" s="7">
-        <f>ISNUMBER(MATCH(I204,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I204,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -20182,7 +20180,7 @@
       </c>
       <c r="B205" s="1" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Patrinos (2004); Glewwe (1996)</t>
+          <t>Psacharopoulos and Steier (1988)</t>
         </is>
       </c>
       <c r="C205">
@@ -20194,7 +20192,7 @@
       </c>
       <c r="F205" s="7" t="inlineStr">
         <is>
-          <t>Salisbury (2016)</t>
+          <t>Sanchez and Nunez (2003)</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -20207,11 +20205,11 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Rutkowski (1997)</t>
+          <t>Rutkowski (2001)</t>
         </is>
       </c>
       <c r="J205" s="7">
-        <f>ISNUMBER(MATCH(I205,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I205,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -20221,7 +20219,7 @@
       </c>
       <c r="B206" s="1" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Steier (1988)</t>
+          <t>Psacharopoulos and Velez (1992)</t>
         </is>
       </c>
       <c r="C206">
@@ -20233,7 +20231,7 @@
       </c>
       <c r="F206" s="7" t="inlineStr">
         <is>
-          <t>Sanchez and Nunez (2003)</t>
+          <t>Santos (2014)</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -20246,11 +20244,11 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Rutkowski (2001)</t>
+          <t>Ryoo (1988)</t>
         </is>
       </c>
       <c r="J206" s="7">
-        <f>ISNUMBER(MATCH(I206,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I206,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -20260,7 +20258,7 @@
       </c>
       <c r="B207" s="1" t="inlineStr">
         <is>
-          <t>Psacharopoulos and Velez (1992)</t>
+          <t>Psacharopoulos et. al. (1996)</t>
         </is>
       </c>
       <c r="C207">
@@ -20272,7 +20270,7 @@
       </c>
       <c r="F207" s="7" t="inlineStr">
         <is>
-          <t>Santos (2014)</t>
+          <t>Schady (2003)</t>
         </is>
       </c>
       <c r="H207" s="3" t="n">
@@ -20280,11 +20278,11 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Ryoo (1988)</t>
+          <t>Sakellariou (2003)</t>
         </is>
       </c>
       <c r="J207" s="7">
-        <f>ISNUMBER(MATCH(I207,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I207,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -20294,7 +20292,7 @@
       </c>
       <c r="B208" s="1" t="inlineStr">
         <is>
-          <t>Psacharopoulos et. al. (1996)</t>
+          <t>Psacharopoulos, Ariera and Mattson (1997)</t>
         </is>
       </c>
       <c r="C208">
@@ -20306,7 +20304,7 @@
       </c>
       <c r="F208" s="7" t="inlineStr">
         <is>
-          <t>Schady (2003)</t>
+          <t>Schultz (2004)</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -20319,11 +20317,11 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>Sakellariou (2003)</t>
+          <t>Sakellariou (2006)</t>
         </is>
       </c>
       <c r="J208" s="7">
-        <f>ISNUMBER(MATCH(I208,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I208,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -20333,7 +20331,7 @@
       </c>
       <c r="B209" s="1" t="inlineStr">
         <is>
-          <t>Psacharopoulos, Ariera and Mattson (1997)</t>
+          <t>Psacharopoulos, Arriagada and Velez (1992)</t>
         </is>
       </c>
       <c r="C209">
@@ -20345,7 +20343,7 @@
       </c>
       <c r="F209" s="7" t="inlineStr">
         <is>
-          <t>Schultz (2004)</t>
+          <t>Shahin and Dibeh (2000)</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -20358,11 +20356,11 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Sakellariou (2006)</t>
+          <t>Salehi, Tunali, Assaad (2009)</t>
         </is>
       </c>
       <c r="J209" s="7">
-        <f>ISNUMBER(MATCH(I209,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I209,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -20372,7 +20370,7 @@
       </c>
       <c r="B210" s="1" t="inlineStr">
         <is>
-          <t>Psacharopoulos, Arriagada and Velez (1992)</t>
+          <t>Reilly and Bellony (2009)</t>
         </is>
       </c>
       <c r="C210">
@@ -20384,7 +20382,7 @@
       </c>
       <c r="F210" s="7" t="inlineStr">
         <is>
-          <t>Shahin and Dibeh (2000)</t>
+          <t>Silles (2007)</t>
         </is>
       </c>
       <c r="H210" s="3" t="n">
@@ -20392,11 +20390,11 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Salehi, Tunali, Assaad (2009)</t>
+          <t>Salisbury (2016)</t>
         </is>
       </c>
       <c r="J210" s="7">
-        <f>ISNUMBER(MATCH(I210,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I210,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -20406,7 +20404,7 @@
       </c>
       <c r="B211" s="1" t="inlineStr">
         <is>
-          <t>Reilly and Bellony (2009)</t>
+          <t>Riveros (1990)</t>
         </is>
       </c>
       <c r="C211">
@@ -20418,7 +20416,7 @@
       </c>
       <c r="F211" s="7" t="inlineStr">
         <is>
-          <t>Silles (2007)</t>
+          <t>Siphambe (2000)</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -20431,11 +20429,11 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Salisbury (2016)</t>
+          <t>Sanchez and Nunez (2003)</t>
         </is>
       </c>
       <c r="J211" s="7">
-        <f>ISNUMBER(MATCH(I211,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I211,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -20445,7 +20443,7 @@
       </c>
       <c r="B212" s="1" t="inlineStr">
         <is>
-          <t>Riveros (1990)</t>
+          <t>Rizk (2016)</t>
         </is>
       </c>
       <c r="C212">
@@ -20457,7 +20455,7 @@
       </c>
       <c r="F212" s="7" t="inlineStr">
         <is>
-          <t>Siphambe (2000)</t>
+          <t>Siphambe (2008)</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -20470,11 +20468,11 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>Sanchez and Nunez (2003)</t>
+          <t>Santos (2014)</t>
         </is>
       </c>
       <c r="J212" s="7">
-        <f>ISNUMBER(MATCH(I212,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I212,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -20484,7 +20482,7 @@
       </c>
       <c r="B213" s="1" t="inlineStr">
         <is>
-          <t>Rizk (2016)</t>
+          <t>Rouse (1999)</t>
         </is>
       </c>
       <c r="C213">
@@ -20496,7 +20494,7 @@
       </c>
       <c r="F213" s="7" t="inlineStr">
         <is>
-          <t>Siphambe (2008)</t>
+          <t>Sohn (2013)</t>
         </is>
       </c>
       <c r="H213" s="3" t="n">
@@ -20504,11 +20502,11 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Santos (2014)</t>
+          <t>Schady (2003)</t>
         </is>
       </c>
       <c r="J213" s="7">
-        <f>ISNUMBER(MATCH(I213,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I213,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -20518,7 +20516,7 @@
       </c>
       <c r="B214" s="1" t="inlineStr">
         <is>
-          <t>Rouse (1999)</t>
+          <t>Rutkowski (1997)</t>
         </is>
       </c>
       <c r="C214">
@@ -20530,7 +20528,7 @@
       </c>
       <c r="F214" s="7" t="inlineStr">
         <is>
-          <t>Sohn (2013)</t>
+          <t>Sosic (2013)</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -20543,11 +20541,11 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>Schady (2003)</t>
+          <t>Schultz (2004)</t>
         </is>
       </c>
       <c r="J214" s="7">
-        <f>ISNUMBER(MATCH(I214,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I214,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -20557,7 +20555,7 @@
       </c>
       <c r="B215" s="1" t="inlineStr">
         <is>
-          <t>Rutkowski (1997)</t>
+          <t>Rutkowski (2001)</t>
         </is>
       </c>
       <c r="C215">
@@ -20569,7 +20567,7 @@
       </c>
       <c r="F215" s="7" t="inlineStr">
         <is>
-          <t>Sosic (2013)</t>
+          <t>Squalli, Vellinga and Wilson (2008)</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -20582,11 +20580,11 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>Schultz (2004)</t>
+          <t>Shahin and Dibeh (2000)</t>
         </is>
       </c>
       <c r="J215" s="7">
-        <f>ISNUMBER(MATCH(I215,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I215,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -20596,7 +20594,7 @@
       </c>
       <c r="B216" s="1" t="inlineStr">
         <is>
-          <t>Rutkowski (2001)</t>
+          <t>Ryoo (1988)</t>
         </is>
       </c>
       <c r="C216">
@@ -20608,7 +20606,7 @@
       </c>
       <c r="F216" s="7" t="inlineStr">
         <is>
-          <t>Squalli, Vellinga and Wilson (2008)</t>
+          <t>Stager (1989)</t>
         </is>
       </c>
       <c r="H216" s="3" t="n">
@@ -20616,11 +20614,11 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>Shahin and Dibeh (2000)</t>
+          <t>Silles (2007)</t>
         </is>
       </c>
       <c r="J216" s="7">
-        <f>ISNUMBER(MATCH(I216,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I216,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -20630,7 +20628,7 @@
       </c>
       <c r="B217" s="1" t="inlineStr">
         <is>
-          <t>Ryoo (1988)</t>
+          <t>Sakellariou (2003)</t>
         </is>
       </c>
       <c r="C217">
@@ -20642,7 +20640,7 @@
       </c>
       <c r="F217" s="7" t="inlineStr">
         <is>
-          <t>Stager (1989)</t>
+          <t>Tan and Paqueo (1989)</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -20655,11 +20653,11 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>Silles (2007)</t>
+          <t>Siphambe (2000)</t>
         </is>
       </c>
       <c r="J217" s="7">
-        <f>ISNUMBER(MATCH(I217,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I217,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -20669,7 +20667,7 @@
       </c>
       <c r="B218" s="1" t="inlineStr">
         <is>
-          <t>Sakellariou (2003)</t>
+          <t>Sakellariou (2006)</t>
         </is>
       </c>
       <c r="C218">
@@ -20681,7 +20679,7 @@
       </c>
       <c r="F218" s="7" t="inlineStr">
         <is>
-          <t>Tan and Paqueo (1989)</t>
+          <t>Tangtipongkul (2015)</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -20694,11 +20692,11 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>Siphambe (2000)</t>
+          <t>Siphambe (2008)</t>
         </is>
       </c>
       <c r="J218" s="7">
-        <f>ISNUMBER(MATCH(I218,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I218,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -20708,7 +20706,7 @@
       </c>
       <c r="B219" s="1" t="inlineStr">
         <is>
-          <t>Sakellariou (2006)</t>
+          <t>Salehi, Tunali, Assaad (2009)</t>
         </is>
       </c>
       <c r="C219">
@@ -20720,7 +20718,7 @@
       </c>
       <c r="F219" s="7" t="inlineStr">
         <is>
-          <t>Tangtipongkul (2015)</t>
+          <t>Tansel (2008)</t>
         </is>
       </c>
       <c r="H219" s="3" t="n">
@@ -20728,11 +20726,11 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Siphambe (2008)</t>
+          <t>Sohn (2013)</t>
         </is>
       </c>
       <c r="J219" s="7">
-        <f>ISNUMBER(MATCH(I219,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I219,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -20742,7 +20740,7 @@
       </c>
       <c r="B220" s="1" t="inlineStr">
         <is>
-          <t>Salehi, Tunali, Assaad (2009)</t>
+          <t>Salisbury (2016)</t>
         </is>
       </c>
       <c r="C220">
@@ -20754,7 +20752,7 @@
       </c>
       <c r="F220" s="7" t="inlineStr">
         <is>
-          <t>Tansel (2008)</t>
+          <t>Tansel (2015)</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -20767,11 +20765,11 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>Sohn (2013)</t>
+          <t>Sosic (2013)</t>
         </is>
       </c>
       <c r="J220" s="7">
-        <f>ISNUMBER(MATCH(I220,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I220,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -20781,7 +20779,7 @@
       </c>
       <c r="B221" s="1" t="inlineStr">
         <is>
-          <t>Salisbury (2016)</t>
+          <t>Sanchez and Nunez (2003)</t>
         </is>
       </c>
       <c r="C221">
@@ -20793,7 +20791,7 @@
       </c>
       <c r="F221" s="7" t="inlineStr">
         <is>
-          <t>Tansel (2015)</t>
+          <t>Tansel and Bodur (2012)</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -20806,11 +20804,11 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Sosic (2013)</t>
+          <t>Squalli, Vellinga and Wilson (2008)</t>
         </is>
       </c>
       <c r="J221" s="7">
-        <f>ISNUMBER(MATCH(I221,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I221,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -20820,7 +20818,7 @@
       </c>
       <c r="B222" s="1" t="inlineStr">
         <is>
-          <t>Sanchez and Nunez (2003)</t>
+          <t>Santos (2014)</t>
         </is>
       </c>
       <c r="C222">
@@ -20832,7 +20830,7 @@
       </c>
       <c r="F222" s="7" t="inlineStr">
         <is>
-          <t>Tansel and Bodur (2012)</t>
+          <t>Tansel and Daoud (2014)</t>
         </is>
       </c>
       <c r="H222" s="3" t="n">
@@ -20840,11 +20838,11 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>Squalli, Vellinga and Wilson (2008)</t>
+          <t>Stager (1989)</t>
         </is>
       </c>
       <c r="J222" s="7">
-        <f>ISNUMBER(MATCH(I222,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I222,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -20854,7 +20852,7 @@
       </c>
       <c r="B223" s="1" t="inlineStr">
         <is>
-          <t>Santos (2014)</t>
+          <t>Schady (2003)</t>
         </is>
       </c>
       <c r="C223">
@@ -20866,7 +20864,7 @@
       </c>
       <c r="F223" s="7" t="inlineStr">
         <is>
-          <t>Tansel and Daoud (2014)</t>
+          <t>Taposh and Lin (2009)</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -20879,11 +20877,11 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Stager (1989)</t>
+          <t>Tan and Paqueo (1989)</t>
         </is>
       </c>
       <c r="J223" s="7">
-        <f>ISNUMBER(MATCH(I223,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I223,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -20893,7 +20891,7 @@
       </c>
       <c r="B224" s="1" t="inlineStr">
         <is>
-          <t>Schady (2003)</t>
+          <t>Schultz (2004)</t>
         </is>
       </c>
       <c r="C224">
@@ -20905,7 +20903,7 @@
       </c>
       <c r="F224" s="7" t="inlineStr">
         <is>
-          <t>Taposh and Lin (2009)</t>
+          <t>Tenjo et al. (2015)</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -20918,11 +20916,11 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Tan and Paqueo (1989)</t>
+          <t>Tangtipongkul (2015)</t>
         </is>
       </c>
       <c r="J224" s="7">
-        <f>ISNUMBER(MATCH(I224,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I224,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -20932,7 +20930,7 @@
       </c>
       <c r="B225" s="1" t="inlineStr">
         <is>
-          <t>Schultz (2004)</t>
+          <t>Shahin and Dibeh (2000)</t>
         </is>
       </c>
       <c r="C225">
@@ -20944,7 +20942,7 @@
       </c>
       <c r="F225" s="7" t="inlineStr">
         <is>
-          <t>Tenjo et al. (2015)</t>
+          <t>Trivelli (2006)</t>
         </is>
       </c>
       <c r="H225" s="3" t="n">
@@ -20952,11 +20950,11 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Tangtipongkul (2015)</t>
+          <t>Tansel (2008)</t>
         </is>
       </c>
       <c r="J225" s="7">
-        <f>ISNUMBER(MATCH(I225,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I225,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -20966,7 +20964,7 @@
       </c>
       <c r="B226" s="1" t="inlineStr">
         <is>
-          <t>Shahin and Dibeh (2000)</t>
+          <t>Silles (2007)</t>
         </is>
       </c>
       <c r="C226">
@@ -20978,7 +20976,7 @@
       </c>
       <c r="F226" s="7" t="inlineStr">
         <is>
-          <t>Trivelli (2006)</t>
+          <t>Trostel, Walker and Woolley (2002)</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -20991,11 +20989,11 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Tansel (2008)</t>
+          <t>Tansel (2015)</t>
         </is>
       </c>
       <c r="J226" s="7">
-        <f>ISNUMBER(MATCH(I226,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I226,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -21005,7 +21003,7 @@
       </c>
       <c r="B227" s="1" t="inlineStr">
         <is>
-          <t>Silles (2007)</t>
+          <t>Silles (2007); Banerjee and Duflo (2005)</t>
         </is>
       </c>
       <c r="C227">
@@ -21017,7 +21015,7 @@
       </c>
       <c r="F227" s="7" t="inlineStr">
         <is>
-          <t>Trostel, Walker and Woolley (2002)</t>
+          <t>van der Gaag and Vijverberg (1989)</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -21030,11 +21028,11 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Tansel (2015)</t>
+          <t>Tansel and Bodur (2012)</t>
         </is>
       </c>
       <c r="J227" s="7">
-        <f>ISNUMBER(MATCH(I227,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I227,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -21044,7 +21042,7 @@
       </c>
       <c r="B228" s="1" t="inlineStr">
         <is>
-          <t>Silles (2007); Banerjee and Duflo (2005)</t>
+          <t>Silles (2007); Martins and Pereira (2004)</t>
         </is>
       </c>
       <c r="C228">
@@ -21056,7 +21054,7 @@
       </c>
       <c r="F228" s="7" t="inlineStr">
         <is>
-          <t>van der Gaag and Vijverberg (1989)</t>
+          <t>Van Leeuwen (2007)</t>
         </is>
       </c>
       <c r="H228" s="3" t="n">
@@ -21064,11 +21062,11 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Tansel and Bodur (2012)</t>
+          <t>Tansel and Daoud (2014)</t>
         </is>
       </c>
       <c r="J228" s="7">
-        <f>ISNUMBER(MATCH(I228,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I228,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -21078,7 +21076,7 @@
       </c>
       <c r="B229" s="1" t="inlineStr">
         <is>
-          <t>Silles (2007); Martins and Pereira (2004)</t>
+          <t>Siphambe (2000)</t>
         </is>
       </c>
       <c r="C229">
@@ -21090,7 +21088,7 @@
       </c>
       <c r="F229" s="7" t="inlineStr">
         <is>
-          <t>Van Leeuwen (2007)</t>
+          <t>Vecernik (2001)</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -21103,11 +21101,11 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>Tansel and Daoud (2014)</t>
+          <t>Taposh and Lin (2009)</t>
         </is>
       </c>
       <c r="J229" s="7">
-        <f>ISNUMBER(MATCH(I229,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I229,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -21117,7 +21115,7 @@
       </c>
       <c r="B230" s="1" t="inlineStr">
         <is>
-          <t>Siphambe (2000)</t>
+          <t>Siphambe (2008)</t>
         </is>
       </c>
       <c r="C230">
@@ -21129,7 +21127,7 @@
       </c>
       <c r="F230" s="7" t="inlineStr">
         <is>
-          <t>Vecernik (2001)</t>
+          <t>Vieira (1999)</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -21142,11 +21140,11 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>Taposh and Lin (2009)</t>
+          <t>Tenjo et al. (2015)</t>
         </is>
       </c>
       <c r="J230" s="7">
-        <f>ISNUMBER(MATCH(I230,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I230,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -21156,7 +21154,7 @@
       </c>
       <c r="B231" s="1" t="inlineStr">
         <is>
-          <t>Siphambe (2008)</t>
+          <t>Sohn (2013)</t>
         </is>
       </c>
       <c r="C231">
@@ -21168,7 +21166,7 @@
       </c>
       <c r="F231" s="7" t="inlineStr">
         <is>
-          <t>Vieira (1999)</t>
+          <t>Vila and Mora (1998)</t>
         </is>
       </c>
       <c r="H231" s="3" t="n">
@@ -21176,11 +21174,11 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>Tenjo et al. (2015)</t>
+          <t>Trivelli (2006)</t>
         </is>
       </c>
       <c r="J231" s="7">
-        <f>ISNUMBER(MATCH(I231,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I231,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -21190,7 +21188,7 @@
       </c>
       <c r="B232" s="1" t="inlineStr">
         <is>
-          <t>Sohn (2013)</t>
+          <t>Sosic (2013)</t>
         </is>
       </c>
       <c r="C232">
@@ -21202,7 +21200,7 @@
       </c>
       <c r="F232" s="7" t="inlineStr">
         <is>
-          <t>Vila and Mora (1998)</t>
+          <t>Vilerts, Krasnopjorovs, Brekis (2015)</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -21215,11 +21213,11 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Trivelli (2006)</t>
+          <t>Trostel, Walker and Woolley (2002)</t>
         </is>
       </c>
       <c r="J232" s="7">
-        <f>ISNUMBER(MATCH(I232,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I232,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -21229,7 +21227,7 @@
       </c>
       <c r="B233" s="1" t="inlineStr">
         <is>
-          <t>Sosic (2013)</t>
+          <t>Squalli, Vellinga and Wilson (2008)</t>
         </is>
       </c>
       <c r="C233">
@@ -21241,7 +21239,7 @@
       </c>
       <c r="F233" s="7" t="inlineStr">
         <is>
-          <t>Vilerts, Krasnopjorovs, Brekis (2015)</t>
+          <t>Vujcic and Sosic (2009)</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -21254,11 +21252,11 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>Trostel, Walker and Woolley (2002)</t>
+          <t>van der Gaag and Vijverberg (1989)</t>
         </is>
       </c>
       <c r="J233" s="7">
-        <f>ISNUMBER(MATCH(I233,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I233,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -21268,7 +21266,7 @@
       </c>
       <c r="B234" s="1" t="inlineStr">
         <is>
-          <t>Squalli, Vellinga and Wilson (2008)</t>
+          <t>Stager (1989)</t>
         </is>
       </c>
       <c r="C234">
@@ -21280,7 +21278,7 @@
       </c>
       <c r="F234" s="7" t="inlineStr">
         <is>
-          <t>Vujcic and Sosic (2009)</t>
+          <t>Wahba (2000)</t>
         </is>
       </c>
       <c r="H234" s="3" t="n">
@@ -21288,11 +21286,11 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>van der Gaag and Vijverberg (1989)</t>
+          <t>Van Leeuwen (2007)</t>
         </is>
       </c>
       <c r="J234" s="7">
-        <f>ISNUMBER(MATCH(I234,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I234,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -21302,7 +21300,7 @@
       </c>
       <c r="B235" s="1" t="inlineStr">
         <is>
-          <t>Stager (1989)</t>
+          <t>Tan and Paqueo (1989)</t>
         </is>
       </c>
       <c r="C235">
@@ -21314,7 +21312,7 @@
       </c>
       <c r="F235" s="7" t="inlineStr">
         <is>
-          <t>Wahba (2000)</t>
+          <t>Wambugu (2002)</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -21327,11 +21325,11 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Van Leeuwen (2007)</t>
+          <t>Vecernik (2001)</t>
         </is>
       </c>
       <c r="J235" s="7">
-        <f>ISNUMBER(MATCH(I235,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I235,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -21341,7 +21339,7 @@
       </c>
       <c r="B236" s="1" t="inlineStr">
         <is>
-          <t>Tan and Paqueo (1989)</t>
+          <t>Tangtipongkul (2015)</t>
         </is>
       </c>
       <c r="C236">
@@ -21353,7 +21351,7 @@
       </c>
       <c r="F236" s="7" t="inlineStr">
         <is>
-          <t>Wambugu (2002)</t>
+          <t>Warunsiri and McNown (2010)</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -21366,11 +21364,11 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Vecernik (2001)</t>
+          <t>Vieira (1999)</t>
         </is>
       </c>
       <c r="J236" s="7">
-        <f>ISNUMBER(MATCH(I236,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I236,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -21380,7 +21378,7 @@
       </c>
       <c r="B237" s="1" t="inlineStr">
         <is>
-          <t>Tangtipongkul (2015)</t>
+          <t>Tansel (2008)</t>
         </is>
       </c>
       <c r="C237">
@@ -21392,7 +21390,7 @@
       </c>
       <c r="F237" s="7" t="inlineStr">
         <is>
-          <t>Warunsiri and McNown (2010)</t>
+          <t>Weber and Wolter (1999)</t>
         </is>
       </c>
       <c r="H237" s="3" t="n">
@@ -21400,11 +21398,11 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Vieira (1999)</t>
+          <t>Vila and Mora (1998)</t>
         </is>
       </c>
       <c r="J237" s="7">
-        <f>ISNUMBER(MATCH(I237,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I237,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -21414,7 +21412,7 @@
       </c>
       <c r="B238" s="1" t="inlineStr">
         <is>
-          <t>Tansel (2008)</t>
+          <t>Tansel (2015)</t>
         </is>
       </c>
       <c r="C238">
@@ -21426,7 +21424,7 @@
       </c>
       <c r="F238" s="7" t="inlineStr">
         <is>
-          <t>Weber and Wolter (1999)</t>
+          <t>World Bank (1996a)</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -21439,11 +21437,11 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Vila and Mora (1998)</t>
+          <t>Vilerts, Krasnopjorovs, Brekis (2015)</t>
         </is>
       </c>
       <c r="J238" s="7">
-        <f>ISNUMBER(MATCH(I238,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I238,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -21453,7 +21451,7 @@
       </c>
       <c r="B239" s="1" t="inlineStr">
         <is>
-          <t>Tansel (2015)</t>
+          <t>Tansel and Bodur (2012)</t>
         </is>
       </c>
       <c r="C239">
@@ -21465,7 +21463,7 @@
       </c>
       <c r="F239" s="7" t="inlineStr">
         <is>
-          <t>World Bank (1996a)</t>
+          <t>World Bank (1996b)</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -21478,11 +21476,11 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>Vilerts, Krasnopjorovs, Brekis (2015)</t>
+          <t>Vujcic and Sosic (2009)</t>
         </is>
       </c>
       <c r="J239" s="7">
-        <f>ISNUMBER(MATCH(I239,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I239,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -21492,7 +21490,7 @@
       </c>
       <c r="B240" s="1" t="inlineStr">
         <is>
-          <t>Tansel and Bodur (2012)</t>
+          <t>Tansel and Daoud (2014)</t>
         </is>
       </c>
       <c r="C240">
@@ -21504,7 +21502,7 @@
       </c>
       <c r="F240" s="7" t="inlineStr">
         <is>
-          <t>World Bank (1996b)</t>
+          <t>World Bank (2005)</t>
         </is>
       </c>
       <c r="H240" s="3" t="n">
@@ -21512,11 +21510,11 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>Vujcic and Sosic (2009)</t>
+          <t>Wahba (2000)</t>
         </is>
       </c>
       <c r="J240" s="7">
-        <f>ISNUMBER(MATCH(I240,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I240,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -21526,7 +21524,7 @@
       </c>
       <c r="B241" s="1" t="inlineStr">
         <is>
-          <t>Tansel and Daoud (2014)</t>
+          <t>Taposh and Lin (2009)</t>
         </is>
       </c>
       <c r="C241">
@@ -21538,7 +21536,7 @@
       </c>
       <c r="F241" s="7" t="inlineStr">
         <is>
-          <t>World Bank (2005)</t>
+          <t>World Bank (2011)</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -21551,11 +21549,11 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>Wahba (2000)</t>
+          <t>Wambugu (2002)</t>
         </is>
       </c>
       <c r="J241" s="7">
-        <f>ISNUMBER(MATCH(I241,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I241,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -21565,7 +21563,7 @@
       </c>
       <c r="B242" s="1" t="inlineStr">
         <is>
-          <t>Taposh and Lin (2009)</t>
+          <t>Tenjo et al. (2015)</t>
         </is>
       </c>
       <c r="C242">
@@ -21577,7 +21575,7 @@
       </c>
       <c r="F242" s="7" t="inlineStr">
         <is>
-          <t>World Bank (2011)</t>
+          <t>Xiu and Gunderson (2013)</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -21590,11 +21588,11 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>Wambugu (2002)</t>
+          <t>Warunsiri and McNown (2010)</t>
         </is>
       </c>
       <c r="J242" s="7">
-        <f>ISNUMBER(MATCH(I242,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I242,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -21604,7 +21602,7 @@
       </c>
       <c r="B243" s="1" t="inlineStr">
         <is>
-          <t>Tenjo et al. (2015)</t>
+          <t>Trivelli (2006)</t>
         </is>
       </c>
       <c r="C243">
@@ -21616,7 +21614,7 @@
       </c>
       <c r="F243" s="7" t="inlineStr">
         <is>
-          <t>Xiu and Gunderson (2013)</t>
+          <t>Yang (2005)</t>
         </is>
       </c>
       <c r="H243" s="3" t="n">
@@ -21624,11 +21622,11 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>Warunsiri and McNown (2010)</t>
+          <t>Weber and Wolter (1999)</t>
         </is>
       </c>
       <c r="J243" s="7">
-        <f>ISNUMBER(MATCH(I243,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I243,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -21638,7 +21636,7 @@
       </c>
       <c r="B244" s="1" t="inlineStr">
         <is>
-          <t>Trivelli (2006)</t>
+          <t>Trostel, Walker and Woolley (2002)</t>
         </is>
       </c>
       <c r="C244">
@@ -21650,7 +21648,7 @@
       </c>
       <c r="F244" s="7" t="inlineStr">
         <is>
-          <t>Yang (2005)</t>
+          <t>Yemtsov, Cnobloch, Mete (2006)</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -21663,11 +21661,11 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>Weber and Wolter (1999)</t>
+          <t>World Bank (1996a)</t>
         </is>
       </c>
       <c r="J244" s="7">
-        <f>ISNUMBER(MATCH(I244,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I244,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -21677,7 +21675,7 @@
       </c>
       <c r="B245" s="1" t="inlineStr">
         <is>
-          <t>Trostel, Walker and Woolley (2002)</t>
+          <t>Trostel, Walker and Woolley (2002); Rummery, Vella and Verbeek (1999)</t>
         </is>
       </c>
       <c r="C245">
@@ -21689,7 +21687,7 @@
       </c>
       <c r="F245" s="7" t="inlineStr">
         <is>
-          <t>Yemtsov, Cnobloch, Mete (2006)</t>
+          <t>Yeung (1999)</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -21702,11 +21700,11 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>World Bank (1996a)</t>
+          <t>World Bank (1996b)</t>
         </is>
       </c>
       <c r="J245" s="7">
-        <f>ISNUMBER(MATCH(I245,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I245,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -21716,7 +21714,7 @@
       </c>
       <c r="B246" s="1" t="inlineStr">
         <is>
-          <t>Trostel, Walker and Woolley (2002); Rummery, Vella and Verbeek (1999)</t>
+          <t>van der Gaag and Vijverberg (1989)</t>
         </is>
       </c>
       <c r="C246">
@@ -21728,7 +21726,7 @@
       </c>
       <c r="F246" s="7" t="inlineStr">
         <is>
-          <t>Yeung (1999)</t>
+          <t>Zhang et al (2005)</t>
         </is>
       </c>
       <c r="H246" s="3" t="n">
@@ -21736,11 +21734,11 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>World Bank (1996b)</t>
+          <t>World Bank (2005)</t>
         </is>
       </c>
       <c r="J246" s="7">
-        <f>ISNUMBER(MATCH(I246,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I246,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -21750,7 +21748,7 @@
       </c>
       <c r="B247" s="1" t="inlineStr">
         <is>
-          <t>van der Gaag and Vijverberg (1989)</t>
+          <t>Van Leeuwen (2007)</t>
         </is>
       </c>
       <c r="C247">
@@ -21762,7 +21760,7 @@
       </c>
       <c r="F247" s="7" t="inlineStr">
         <is>
-          <t>Zhang et al (2005)</t>
+          <t>Zhao and Zhou (2002)</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -21775,11 +21773,11 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>World Bank (2005)</t>
+          <t>World Bank (2011)</t>
         </is>
       </c>
       <c r="J247" s="7">
-        <f>ISNUMBER(MATCH(I247,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I247,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -21789,21 +21787,13 @@
       </c>
       <c r="B248" s="1" t="inlineStr">
         <is>
-          <t>Van Leeuwen (2007)</t>
+          <t>Vecernik (2001)</t>
         </is>
       </c>
       <c r="C248">
         <f>IF(ISERROR(SEARCH(";", B248) &gt;0), FALSE, TRUE)</f>
         <v/>
       </c>
-      <c r="E248" s="3" t="n">
-        <v>245</v>
-      </c>
-      <c r="F248" s="7" t="inlineStr">
-        <is>
-          <t>Zhao and Zhou (2002)</t>
-        </is>
-      </c>
       <c r="G248" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -21814,11 +21804,11 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>World Bank (2011)</t>
+          <t>Xiu and Gunderson (2013)</t>
         </is>
       </c>
       <c r="J248" s="7">
-        <f>ISNUMBER(MATCH(I248,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I248,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -21828,7 +21818,7 @@
       </c>
       <c r="B249" s="1" t="inlineStr">
         <is>
-          <t>Vecernik (2001)</t>
+          <t>Vieira (1999)</t>
         </is>
       </c>
       <c r="C249">
@@ -21840,11 +21830,11 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>Xiu and Gunderson (2013)</t>
+          <t>Yang (2005)</t>
         </is>
       </c>
       <c r="J249" s="7">
-        <f>ISNUMBER(MATCH(I249,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I249,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -21854,7 +21844,7 @@
       </c>
       <c r="B250" s="1" t="inlineStr">
         <is>
-          <t>Vieira (1999)</t>
+          <t>Vila and Mora (1998)</t>
         </is>
       </c>
       <c r="C250">
@@ -21871,11 +21861,11 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>Yang (2005)</t>
+          <t>Yemtsov, Cnobloch, Mete (2006)</t>
         </is>
       </c>
       <c r="J250" s="7">
-        <f>ISNUMBER(MATCH(I250,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I250,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -21885,7 +21875,7 @@
       </c>
       <c r="B251" s="1" t="inlineStr">
         <is>
-          <t>Vila and Mora (1998)</t>
+          <t>Vilerts, Krasnopjorovs, Brekis (2015)</t>
         </is>
       </c>
       <c r="C251">
@@ -21902,11 +21892,11 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>Yemtsov, Cnobloch, Mete (2006)</t>
+          <t>Yeung (1999)</t>
         </is>
       </c>
       <c r="J251" s="7">
-        <f>ISNUMBER(MATCH(I251,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I251,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -21916,7 +21906,7 @@
       </c>
       <c r="B252" s="1" t="inlineStr">
         <is>
-          <t>Vilerts, Krasnopjorovs, Brekis (2015)</t>
+          <t>Vujcic and Sosic (2009)</t>
         </is>
       </c>
       <c r="C252">
@@ -21928,11 +21918,11 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>Yeung (1999)</t>
+          <t>Zhang et al (2005)</t>
         </is>
       </c>
       <c r="J252" s="7">
-        <f>ISNUMBER(MATCH(I252,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I252,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -21942,7 +21932,7 @@
       </c>
       <c r="B253" s="1" t="inlineStr">
         <is>
-          <t>Vujcic and Sosic (2009)</t>
+          <t>Vujcic and Sosic (2009); Sosic (2013)</t>
         </is>
       </c>
       <c r="C253">
@@ -21959,11 +21949,11 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>Zhang et al (2005)</t>
+          <t>Zhao and Zhou (2002)</t>
         </is>
       </c>
       <c r="J253" s="7">
-        <f>ISNUMBER(MATCH(I253,$F$4:$F$248, 0))</f>
+        <f>ISNUMBER(MATCH(I253,$F$4:$F$247, 0))</f>
         <v/>
       </c>
     </row>
@@ -21973,7 +21963,7 @@
       </c>
       <c r="B254" s="1" t="inlineStr">
         <is>
-          <t>Vujcic and Sosic (2009); Sosic (2013)</t>
+          <t>Wahba (2000)</t>
         </is>
       </c>
       <c r="C254">
@@ -21984,18 +21974,6 @@
         <is>
           <t xml:space="preserve"> </t>
         </is>
-      </c>
-      <c r="H254" s="3" t="n">
-        <v>251</v>
-      </c>
-      <c r="I254" t="inlineStr">
-        <is>
-          <t>Zhao and Zhou (2002)</t>
-        </is>
-      </c>
-      <c r="J254" s="7">
-        <f>ISNUMBER(MATCH(I254,$F$4:$F$248, 0))</f>
-        <v/>
       </c>
     </row>
     <row r="255">
@@ -22004,7 +21982,7 @@
       </c>
       <c r="B255" s="1" t="inlineStr">
         <is>
-          <t>Wahba (2000)</t>
+          <t>Wambugu (2002)</t>
         </is>
       </c>
       <c r="C255">
@@ -22018,7 +21996,7 @@
       </c>
       <c r="B256" s="1" t="inlineStr">
         <is>
-          <t>Wambugu (2002)</t>
+          <t>Warunsiri and McNown (2010)</t>
         </is>
       </c>
       <c r="C256">
@@ -22037,7 +22015,7 @@
       </c>
       <c r="B257" s="1" t="inlineStr">
         <is>
-          <t>Warunsiri and McNown (2010)</t>
+          <t>Weber and Wolter (1999)</t>
         </is>
       </c>
       <c r="C257">
@@ -22056,7 +22034,7 @@
       </c>
       <c r="B258" s="1" t="inlineStr">
         <is>
-          <t>Weber and Wolter (1999)</t>
+          <t>Weber and Wolter (1999); Martins and Pereira (2004)</t>
         </is>
       </c>
       <c r="C258">
@@ -22070,7 +22048,7 @@
       </c>
       <c r="B259" s="1" t="inlineStr">
         <is>
-          <t>Weber and Wolter (1999); Martins and Pereira (2004)</t>
+          <t>World Bank (1996a)</t>
         </is>
       </c>
       <c r="C259">
@@ -22089,7 +22067,7 @@
       </c>
       <c r="B260" s="1" t="inlineStr">
         <is>
-          <t>World Bank (1996a)</t>
+          <t>World Bank (1996b)</t>
         </is>
       </c>
       <c r="C260">
@@ -22108,7 +22086,7 @@
       </c>
       <c r="B261" s="1" t="inlineStr">
         <is>
-          <t>World Bank (1996b)</t>
+          <t>World Bank (2005)</t>
         </is>
       </c>
       <c r="C261">
@@ -22122,7 +22100,7 @@
       </c>
       <c r="B262" s="1" t="inlineStr">
         <is>
-          <t>World Bank (2005)</t>
+          <t>World Bank (2011)</t>
         </is>
       </c>
       <c r="C262">
@@ -22141,7 +22119,7 @@
       </c>
       <c r="B263" s="1" t="inlineStr">
         <is>
-          <t>World Bank (2011)</t>
+          <t>World Bank (2011); Agrawal (2011)</t>
         </is>
       </c>
       <c r="C263">
@@ -22160,7 +22138,7 @@
       </c>
       <c r="B264" s="1" t="inlineStr">
         <is>
-          <t>World Bank (2011); Agrawal (2011)</t>
+          <t>Xiu and Gunderson (2013)</t>
         </is>
       </c>
       <c r="C264">
@@ -22174,7 +22152,7 @@
       </c>
       <c r="B265" s="1" t="inlineStr">
         <is>
-          <t>Xiu and Gunderson (2013)</t>
+          <t>Yang (2005)</t>
         </is>
       </c>
       <c r="C265">
@@ -22193,7 +22171,7 @@
       </c>
       <c r="B266" s="1" t="inlineStr">
         <is>
-          <t>Yang (2005)</t>
+          <t>Yemtsov, Cnobloch, Mete (2006)</t>
         </is>
       </c>
       <c r="C266">
@@ -22212,7 +22190,7 @@
       </c>
       <c r="B267" s="1" t="inlineStr">
         <is>
-          <t>Yemtsov, Cnobloch, Mete (2006)</t>
+          <t>Yeung (1999)</t>
         </is>
       </c>
       <c r="C267">
@@ -22226,7 +22204,7 @@
       </c>
       <c r="B268" s="1" t="inlineStr">
         <is>
-          <t>Yeung (1999)</t>
+          <t>Zhang et al (2005)</t>
         </is>
       </c>
       <c r="C268">
@@ -22245,7 +22223,7 @@
       </c>
       <c r="B269" s="1" t="inlineStr">
         <is>
-          <t>Zhang et al (2005)</t>
+          <t>Zhao and Zhou (2002)</t>
         </is>
       </c>
       <c r="C269">
@@ -22273,18 +22251,6 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="n">
-        <v>268</v>
-      </c>
-      <c r="B271" s="1" t="inlineStr">
-        <is>
-          <t>Zhao and Zhou (2002)</t>
-        </is>
-      </c>
-      <c r="C271">
-        <f>IF(ISERROR(SEARCH(";", B271) &gt;0), FALSE, TRUE)</f>
-        <v/>
-      </c>
       <c r="G271" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -22397,14 +22363,14 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J259:J1048576 J257 J1:J254">
-    <cfRule type="containsText" priority="4" operator="containsText" dxfId="4" text="FALSE">
+  <conditionalFormatting sqref="J259:J1048576 J257 J1:J253">
+    <cfRule type="containsText" priority="10" operator="containsText" dxfId="1" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="5" operator="containsText" dxfId="3" text="TRUE">
+    <cfRule type="containsText" priority="11" operator="containsText" dxfId="0" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",J1)))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10DC382-99C1-4C60-8224-76BBF51AA13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC933B1-3296-44DE-A2C0-A1C3AFCFDFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P&amp;P studies" sheetId="1" r:id="rId1"/>
-    <sheet name="P&amp;P source" sheetId="2" r:id="rId2"/>
+    <sheet name="P&amp;P overview" sheetId="2" r:id="rId2"/>
     <sheet name="Primary studies" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="959">
   <si>
     <t>Number</t>
   </si>
@@ -2366,6 +2366,9 @@
     <t>Salisbury, T. 2016. "Education and Inequality in South Africa: Returns to Schooling in the Post-Apartheid Era." International Journal of Educational Development 46: 43-52.</t>
   </si>
   <si>
+    <t>Science dir</t>
+  </si>
+  <si>
     <t>Sanchez and Nunez (2003)</t>
   </si>
   <si>
@@ -2375,6 +2378,9 @@
     <t>A Dynamic Analysis of Human Capital Female Work</t>
   </si>
   <si>
+    <t>Torres, Fabio Sánchez, and Jairo Núñez Méndez. "A dynamic analysis of human capital, female work-force participation, returns to education and changes in household structure in urban Colombia, 1976-1998."</t>
+  </si>
+  <si>
     <t>Santos (2014)</t>
   </si>
   <si>
@@ -2480,7 +2486,7 @@
     <t>IHuman Capital Problems of the Middle East and North Africa</t>
   </si>
   <si>
-    <t>Squalli, J., K. Wilson and N. Vellinga. 2008. "An Estimate of the Private Returns to Education in the United Arab Emirates." In Human Capital Problems of the Middle East and North Africa, Jeffrey Nugent and Hassan Aly (eds.).</t>
+    <t>Squalli, Jay. "Expected Returns to Education and Experience in the United Arab Emirates." Review of Middle East Economics and Finance 8, no. 2 (2012): 1-17.</t>
   </si>
   <si>
     <t>Stager (1989)</t>
@@ -2588,6 +2594,9 @@
     <t>Trivelli, C. 2006. "Peru." In G. Hall and H.A. Patrinos, eds., Indigenous Peoples, Poverty and Human</t>
   </si>
   <si>
+    <t>Maybe accessible</t>
+  </si>
+  <si>
     <t>Trostel, Walker and Woolley (2002)</t>
   </si>
   <si>
@@ -2714,7 +2723,7 @@
     <t>Helsinki: ETLA, The Research Institute</t>
   </si>
   <si>
-    <t>Weber, B. and S. Wolter. 1999. "Wages and Human Capital: Evidence from Switzerland," In R. Asplund, and P.T. Pereira, eds., Returns to Human Capital in Europe. Helsinki: ETLA, The Research Institute</t>
+    <t>Weber, Bernhard A., and Stefan C. Wolter. "Wages and human capital: evidence from Switzerland." Returns to human capital in Europe (1999).</t>
   </si>
   <si>
     <t>World Bank (1996a)</t>
@@ -2918,10 +2927,16 @@
     <t>World Bank (2011); Agrawal (2011)</t>
   </si>
   <si>
-    <t>Science dir</t>
-  </si>
-  <si>
-    <t>Torres, Fabio Sánchez, and Jairo Núñez Méndez. "A dynamic analysis of human capital, female work-force participation, returns to education and changes in household structure in urban Colombia, 1976-1998."</t>
+    <t>Downloadable studies</t>
+  </si>
+  <si>
+    <t>Undownloadable studies</t>
+  </si>
+  <si>
+    <t>All studies downloaded</t>
+  </si>
+  <si>
+    <t>Studies downloaded</t>
   </si>
 </sst>
 </file>
@@ -3183,7 +3198,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3212,8 +3241,20 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF6969"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3490,8 +3531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K231" sqref="K231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9419,7 +9460,7 @@
         <v>643</v>
       </c>
       <c r="J169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K169" s="7" t="b">
         <v>1</v>
@@ -10574,7 +10615,7 @@
         <v>748</v>
       </c>
       <c r="J202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K202" s="7" t="b">
         <v>1</v>
@@ -10609,7 +10650,7 @@
         <v>752</v>
       </c>
       <c r="J203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K203" s="7" t="b">
         <v>1</v>
@@ -10644,7 +10685,7 @@
         <v>755</v>
       </c>
       <c r="J204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K204" s="7" t="b">
         <v>1</v>
@@ -10679,7 +10720,7 @@
         <v>758</v>
       </c>
       <c r="J205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K205" s="7" t="b">
         <v>1</v>
@@ -10714,7 +10755,7 @@
         <v>760</v>
       </c>
       <c r="J206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K206" s="7" t="b">
         <v>1</v>
@@ -10784,13 +10825,13 @@
         <v>767</v>
       </c>
       <c r="J208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K208" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L208" t="s">
-        <v>952</v>
+        <v>768</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
@@ -10798,31 +10839,31 @@
         <v>209</v>
       </c>
       <c r="B209" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C209" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D209">
         <v>2003</v>
       </c>
       <c r="E209" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F209" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="I209" t="s">
-        <v>953</v>
+        <v>772</v>
       </c>
       <c r="J209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K209" s="7" t="b">
         <v>1</v>
@@ -10833,10 +10874,10 @@
         <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C210" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="D210">
         <v>2014</v>
@@ -10845,19 +10886,19 @@
         <v>73</v>
       </c>
       <c r="F210" t="s">
+        <v>775</v>
+      </c>
+      <c r="G210" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" t="s">
         <v>773</v>
       </c>
-      <c r="G210" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" t="s">
-        <v>771</v>
-      </c>
       <c r="I210" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="J210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K210" s="7" t="b">
         <v>1</v>
@@ -10868,28 +10909,28 @@
         <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C211" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="D211">
         <v>2003</v>
       </c>
       <c r="E211" t="s">
+        <v>779</v>
+      </c>
+      <c r="F211" t="s">
+        <v>779</v>
+      </c>
+      <c r="G211" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" t="s">
         <v>777</v>
       </c>
-      <c r="F211" t="s">
-        <v>777</v>
-      </c>
-      <c r="G211" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" t="s">
-        <v>775</v>
-      </c>
       <c r="I211" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="J211" t="b">
         <v>1</v>
@@ -10903,10 +10944,10 @@
         <v>212</v>
       </c>
       <c r="B212" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C212" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D212">
         <v>2004</v>
@@ -10921,10 +10962,10 @@
         <v>1</v>
       </c>
       <c r="H212" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="I212" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="J212" t="b">
         <v>1</v>
@@ -10938,31 +10979,31 @@
         <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C213" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D213">
         <v>2000</v>
       </c>
       <c r="E213" t="s">
+        <v>786</v>
+      </c>
+      <c r="F213" t="s">
+        <v>786</v>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" t="s">
         <v>784</v>
       </c>
-      <c r="F213" t="s">
-        <v>784</v>
-      </c>
-      <c r="G213" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" t="s">
-        <v>782</v>
-      </c>
       <c r="I213" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="J213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K213" s="7" t="b">
         <v>1</v>
@@ -10973,31 +11014,31 @@
         <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="C214" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="D214">
         <v>2007</v>
       </c>
       <c r="E214" t="s">
+        <v>790</v>
+      </c>
+      <c r="F214" t="s">
+        <v>790</v>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="s">
         <v>788</v>
       </c>
-      <c r="F214" t="s">
-        <v>788</v>
-      </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="s">
-        <v>786</v>
-      </c>
       <c r="I214" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="J214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K214" s="7" t="b">
         <v>1</v>
@@ -11008,10 +11049,10 @@
         <v>215</v>
       </c>
       <c r="B215" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C215" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="D215">
         <v>2000</v>
@@ -11026,10 +11067,10 @@
         <v>1</v>
       </c>
       <c r="H215" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="I215" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="J215" t="b">
         <v>1</v>
@@ -11043,10 +11084,10 @@
         <v>216</v>
       </c>
       <c r="B216" t="s">
+        <v>795</v>
+      </c>
+      <c r="C216" t="s">
         <v>793</v>
-      </c>
-      <c r="C216" t="s">
-        <v>791</v>
       </c>
       <c r="D216">
         <v>2008</v>
@@ -11061,13 +11102,13 @@
         <v>1</v>
       </c>
       <c r="H216" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I216" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="J216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K216" s="7" t="b">
         <v>1</v>
@@ -11078,28 +11119,28 @@
         <v>217</v>
       </c>
       <c r="B217" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C217" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="D217">
         <v>2013</v>
       </c>
       <c r="E217" t="s">
+        <v>799</v>
+      </c>
+      <c r="F217" t="s">
+        <v>799</v>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="s">
         <v>797</v>
       </c>
-      <c r="F217" t="s">
-        <v>797</v>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="s">
-        <v>795</v>
-      </c>
       <c r="I217" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="J217" t="b">
         <v>1</v>
@@ -11113,31 +11154,31 @@
         <v>218</v>
       </c>
       <c r="B218" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C218" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="D218">
         <v>2013</v>
       </c>
       <c r="E218" t="s">
+        <v>803</v>
+      </c>
+      <c r="F218" t="s">
+        <v>803</v>
+      </c>
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="s">
         <v>801</v>
       </c>
-      <c r="F218" t="s">
-        <v>801</v>
-      </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="s">
-        <v>799</v>
-      </c>
       <c r="I218" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="J218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K218" s="7" t="b">
         <v>1</v>
@@ -11148,31 +11189,31 @@
         <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="C219" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="D219">
         <v>2008</v>
       </c>
       <c r="E219" t="s">
+        <v>807</v>
+      </c>
+      <c r="F219" t="s">
+        <v>807</v>
+      </c>
+      <c r="G219" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" t="s">
         <v>805</v>
       </c>
-      <c r="F219" t="s">
-        <v>805</v>
-      </c>
-      <c r="G219" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" t="s">
-        <v>803</v>
-      </c>
       <c r="I219" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="J219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K219" s="7" t="b">
         <v>1</v>
@@ -11183,10 +11224,10 @@
         <v>220</v>
       </c>
       <c r="B220" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C220" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="D220">
         <v>1989</v>
@@ -11195,19 +11236,19 @@
         <v>73</v>
       </c>
       <c r="F220" t="s">
+        <v>811</v>
+      </c>
+      <c r="G220" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" t="s">
         <v>809</v>
       </c>
-      <c r="G220" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" t="s">
-        <v>807</v>
-      </c>
       <c r="I220" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="J220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K220" s="7" t="b">
         <v>1</v>
@@ -11218,10 +11259,10 @@
         <v>221</v>
       </c>
       <c r="B221" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C221" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D221">
         <v>1989</v>
@@ -11236,13 +11277,13 @@
         <v>1</v>
       </c>
       <c r="H221" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="I221" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="J221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K221" s="7" t="b">
         <v>1</v>
@@ -11253,31 +11294,31 @@
         <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="C222" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="D222">
         <v>2015</v>
       </c>
       <c r="E222" t="s">
+        <v>818</v>
+      </c>
+      <c r="F222" t="s">
+        <v>818</v>
+      </c>
+      <c r="G222" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" t="s">
         <v>816</v>
       </c>
-      <c r="F222" t="s">
-        <v>816</v>
-      </c>
-      <c r="G222" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" t="s">
-        <v>814</v>
-      </c>
       <c r="I222" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="J222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K222" s="7" t="b">
         <v>1</v>
@@ -11288,10 +11329,10 @@
         <v>223</v>
       </c>
       <c r="B223" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="C223" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="D223">
         <v>2008</v>
@@ -11300,16 +11341,16 @@
         <v>55</v>
       </c>
       <c r="F223" t="s">
+        <v>822</v>
+      </c>
+      <c r="G223" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" t="s">
         <v>820</v>
       </c>
-      <c r="G223" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" t="s">
-        <v>818</v>
-      </c>
       <c r="I223" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="J223" t="b">
         <v>1</v>
@@ -11323,10 +11364,10 @@
         <v>224</v>
       </c>
       <c r="B224" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="C224" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="D224">
         <v>2015</v>
@@ -11341,10 +11382,10 @@
         <v>1</v>
       </c>
       <c r="H224" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="I224" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="J224" t="b">
         <v>1</v>
@@ -11353,33 +11394,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
         <v>225</v>
       </c>
       <c r="B225" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="C225" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="D225">
         <v>2012</v>
       </c>
       <c r="E225" t="s">
+        <v>828</v>
+      </c>
+      <c r="F225" t="s">
+        <v>828</v>
+      </c>
+      <c r="G225" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" t="s">
         <v>826</v>
       </c>
-      <c r="F225" t="s">
-        <v>826</v>
-      </c>
-      <c r="G225" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" t="s">
-        <v>824</v>
-      </c>
       <c r="I225" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="J225" t="b">
         <v>1</v>
@@ -11388,33 +11429,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>226</v>
       </c>
       <c r="B226" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C226" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="D226">
         <v>2014</v>
       </c>
       <c r="E226" t="s">
+        <v>832</v>
+      </c>
+      <c r="F226" t="s">
+        <v>832</v>
+      </c>
+      <c r="G226" t="b">
+        <v>1</v>
+      </c>
+      <c r="H226" t="s">
         <v>830</v>
       </c>
-      <c r="F226" t="s">
-        <v>830</v>
-      </c>
-      <c r="G226" t="b">
-        <v>1</v>
-      </c>
-      <c r="H226" t="s">
-        <v>828</v>
-      </c>
       <c r="I226" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="J226" t="b">
         <v>1</v>
@@ -11423,15 +11464,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
         <v>227</v>
       </c>
       <c r="B227" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C227" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="D227">
         <v>2009</v>
@@ -11440,33 +11481,33 @@
         <v>50</v>
       </c>
       <c r="F227" t="s">
+        <v>836</v>
+      </c>
+      <c r="G227" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" t="s">
         <v>834</v>
       </c>
-      <c r="G227" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" t="s">
-        <v>832</v>
-      </c>
       <c r="I227" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="J227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K227" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>228</v>
       </c>
       <c r="B228" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="C228" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="D228">
         <v>2015</v>
@@ -11475,16 +11516,16 @@
         <v>50</v>
       </c>
       <c r="F228" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="I228" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="J228" t="b">
         <v>1</v>
@@ -11493,15 +11534,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
         <v>229</v>
       </c>
       <c r="B229" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="C229" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="D229">
         <v>2006</v>
@@ -11516,27 +11557,30 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="I229" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="J229" t="b">
         <v>0</v>
       </c>
       <c r="K229" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L229" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>230</v>
       </c>
       <c r="B230" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="C230" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="D230">
         <v>2002</v>
@@ -11551,10 +11595,10 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="I230" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="J230" t="b">
         <v>1</v>
@@ -11563,15 +11607,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
         <v>231</v>
       </c>
       <c r="B231" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="C231" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="D231">
         <v>1989</v>
@@ -11586,27 +11630,27 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="I231" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="J231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K231" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>232</v>
       </c>
       <c r="B232" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="C232" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="D232">
         <v>2007</v>
@@ -11615,33 +11659,33 @@
         <v>399</v>
       </c>
       <c r="F232" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="I232" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="J232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K232" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
         <v>233</v>
       </c>
       <c r="B233" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="C233" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="D233">
         <v>2001</v>
@@ -11650,16 +11694,16 @@
         <v>323</v>
       </c>
       <c r="F233" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="I233" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="J233" t="b">
         <v>1</v>
@@ -11668,15 +11712,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>234</v>
       </c>
       <c r="B234" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="C234" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="D234">
         <v>1999</v>
@@ -11691,10 +11735,10 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="I234" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="J234" t="b">
         <v>1</v>
@@ -11703,15 +11747,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>235</v>
       </c>
       <c r="B235" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="C235" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="D235">
         <v>1998</v>
@@ -11726,27 +11770,27 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="I235" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="J235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K235" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>236</v>
       </c>
       <c r="B236" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="C236" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="D236">
         <v>2015</v>
@@ -11755,68 +11799,68 @@
         <v>277</v>
       </c>
       <c r="F236" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="I236" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="J236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K236" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
         <v>237</v>
       </c>
       <c r="B237" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="C237" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="D237">
         <v>2009</v>
       </c>
       <c r="E237" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="F237" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="I237" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="J237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K237" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>238</v>
       </c>
       <c r="B238" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="C238" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="D238">
         <v>2000</v>
@@ -11825,16 +11869,16 @@
         <v>380</v>
       </c>
       <c r="F238" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="I238" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="J238" t="b">
         <v>1</v>
@@ -11843,15 +11887,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>239</v>
       </c>
       <c r="B239" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="C239" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="D239">
         <v>2002</v>
@@ -11860,16 +11904,16 @@
         <v>50</v>
       </c>
       <c r="F239" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="I239" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="J239" t="b">
         <v>1</v>
@@ -11878,15 +11922,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>240</v>
       </c>
       <c r="B240" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="C240" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="D240">
         <v>2010</v>
@@ -11901,10 +11945,10 @@
         <v>1</v>
       </c>
       <c r="H240" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="I240" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="J240" t="b">
         <v>1</v>
@@ -11918,10 +11962,10 @@
         <v>241</v>
       </c>
       <c r="B241" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="C241" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="D241">
         <v>1999</v>
@@ -11930,19 +11974,19 @@
         <v>364</v>
       </c>
       <c r="F241" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="I241" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="J241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K241" s="7" t="b">
         <v>1</v>
@@ -11953,10 +11997,10 @@
         <v>242</v>
       </c>
       <c r="B242" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="C242" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="D242">
         <v>1996</v>
@@ -11971,13 +12015,13 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="I242" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="J242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K242" s="7" t="b">
         <v>1</v>
@@ -11988,10 +12032,10 @@
         <v>243</v>
       </c>
       <c r="B243" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="C243" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="D243">
         <v>1996</v>
@@ -12006,13 +12050,13 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="I243" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="J243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K243" s="7" t="b">
         <v>1</v>
@@ -12023,7 +12067,7 @@
         <v>244</v>
       </c>
       <c r="B244" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="C244" t="s">
         <v>515</v>
@@ -12041,13 +12085,13 @@
         <v>1</v>
       </c>
       <c r="H244" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="I244" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="J244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K244" s="7" t="b">
         <v>1</v>
@@ -12058,7 +12102,7 @@
         <v>245</v>
       </c>
       <c r="B245" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="C245" t="s">
         <v>515</v>
@@ -12076,13 +12120,13 @@
         <v>1</v>
       </c>
       <c r="H245" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="I245" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="J245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K245" s="7" t="b">
         <v>1</v>
@@ -12093,31 +12137,31 @@
         <v>246</v>
       </c>
       <c r="B246" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="C246" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="D246">
         <v>2013</v>
       </c>
       <c r="E246" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="F246" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="I246" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="J246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K246" s="7" t="b">
         <v>1</v>
@@ -12128,10 +12172,10 @@
         <v>247</v>
       </c>
       <c r="B247" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="C247" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="D247">
         <v>2005</v>
@@ -12146,10 +12190,10 @@
         <v>1</v>
       </c>
       <c r="H247" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="I247" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="J247" t="b">
         <v>1</v>
@@ -12163,10 +12207,10 @@
         <v>248</v>
       </c>
       <c r="B248" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="C248" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="D248">
         <v>2006</v>
@@ -12181,16 +12225,16 @@
         <v>1</v>
       </c>
       <c r="H248" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="I248" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="J248" t="b">
         <v>0</v>
       </c>
       <c r="K248" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.3">
@@ -12198,31 +12242,31 @@
         <v>249</v>
       </c>
       <c r="B249" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="C249" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="D249">
         <v>1999</v>
       </c>
       <c r="E249" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="F249" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="I249" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="J249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K249" s="7" t="b">
         <v>1</v>
@@ -12233,10 +12277,10 @@
         <v>250</v>
       </c>
       <c r="B250" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="C250" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="D250">
         <v>2005</v>
@@ -12251,10 +12295,10 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="I250" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="J250" t="b">
         <v>1</v>
@@ -12268,31 +12312,31 @@
         <v>251</v>
       </c>
       <c r="B251" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="C251" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="D251">
         <v>2002</v>
       </c>
       <c r="E251" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="F251" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="I251" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="J251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K251" s="7" t="b">
         <v>1</v>
@@ -12300,16 +12344,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:K251">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$K1=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>$J1=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12317,8 +12361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M293"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12340,49 +12384,49 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="18"/>
       <c r="E1" s="17" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="F1" s="18"/>
       <c r="H1" s="16" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="I1" s="16"/>
       <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L2" s="12" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>6</v>
@@ -12412,7 +12456,7 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -12445,7 +12489,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H5" s="3">
         <v>2</v>
@@ -12458,10 +12502,10 @@
         <v>1</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -12482,7 +12526,7 @@
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H6" s="3">
         <v>3</v>
@@ -12519,7 +12563,7 @@
         <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H7" s="3">
         <v>4</v>
@@ -12550,7 +12594,7 @@
         <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H8" s="3">
         <v>5</v>
@@ -12563,10 +12607,10 @@
         <v>1</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -12587,7 +12631,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H9" s="3">
         <v>6</v>
@@ -12626,7 +12670,7 @@
         <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H10" s="3">
         <v>7</v>
@@ -12657,7 +12701,7 @@
         <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H11" s="3">
         <v>8</v>
@@ -12688,7 +12732,7 @@
         <v>48</v>
       </c>
       <c r="G12" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H12" s="3">
         <v>9</v>
@@ -12719,7 +12763,7 @@
         <v>53</v>
       </c>
       <c r="G13" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H13" s="3">
         <v>10</v>
@@ -12731,7 +12775,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L13" s="2"/>
+      <c r="L13" s="19" t="s">
+        <v>955</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>956</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -12751,7 +12800,7 @@
         <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H14" s="3">
         <v>11</v>
@@ -12762,6 +12811,14 @@
       <c r="J14" s="7" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
+      </c>
+      <c r="L14" s="10">
+        <f>COUNTIF('P&amp;P studies'!$K$2:$K$251, TRUE)</f>
+        <v>229</v>
+      </c>
+      <c r="M14" s="11">
+        <f>COUNTIF('P&amp;P studies'!$K$2:$K$251, FALSE)</f>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -12782,7 +12839,7 @@
         <v>62</v>
       </c>
       <c r="G15" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H15" s="3">
         <v>12</v>
@@ -12800,7 +12857,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="C16" t="b">
         <f t="shared" si="0"/>
@@ -12813,7 +12870,7 @@
         <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H16" s="3">
         <v>13</v>
@@ -12825,8 +12882,14 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L16" s="19" t="s">
+        <v>958</v>
+      </c>
+      <c r="M16" s="20" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>14</v>
       </c>
@@ -12844,7 +12907,7 @@
         <v>71</v>
       </c>
       <c r="G17" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H17" s="3">
         <v>14</v>
@@ -12856,8 +12919,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L17" s="10">
+        <f>COUNTIF('P&amp;P studies'!$J$2:$J$251, TRUE)</f>
+        <v>228</v>
+      </c>
+      <c r="M17" s="11" t="b">
+        <f>L14=L17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>15</v>
       </c>
@@ -12885,7 +12956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>16</v>
       </c>
@@ -12903,7 +12974,7 @@
         <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H19" s="3">
         <v>16</v>
@@ -12916,7 +12987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>17</v>
       </c>
@@ -12934,7 +13005,7 @@
         <v>83</v>
       </c>
       <c r="G20" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H20" s="3">
         <v>17</v>
@@ -12947,7 +13018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>18</v>
       </c>
@@ -12975,7 +13046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>19</v>
       </c>
@@ -12993,7 +13064,7 @@
         <v>91</v>
       </c>
       <c r="G22" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H22" s="3">
         <v>19</v>
@@ -13006,7 +13077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>20</v>
       </c>
@@ -13024,7 +13095,7 @@
         <v>95</v>
       </c>
       <c r="G23" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H23" s="3">
         <v>20</v>
@@ -13037,7 +13108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>21</v>
       </c>
@@ -13065,7 +13136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>22</v>
       </c>
@@ -13083,7 +13154,7 @@
         <v>103</v>
       </c>
       <c r="G25" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H25" s="3">
         <v>22</v>
@@ -13096,7 +13167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>23</v>
       </c>
@@ -13114,7 +13185,7 @@
         <v>107</v>
       </c>
       <c r="G26" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H26" s="3">
         <v>23</v>
@@ -13127,7 +13198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>24</v>
       </c>
@@ -13155,7 +13226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>25</v>
       </c>
@@ -13173,7 +13244,7 @@
         <v>114</v>
       </c>
       <c r="G28" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H28" s="3">
         <v>25</v>
@@ -13186,7 +13257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>26</v>
       </c>
@@ -13204,7 +13275,7 @@
         <v>119</v>
       </c>
       <c r="G29" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H29" s="3">
         <v>26</v>
@@ -13217,7 +13288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>27</v>
       </c>
@@ -13245,7 +13316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>28</v>
       </c>
@@ -13263,7 +13334,7 @@
         <v>129</v>
       </c>
       <c r="G31" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H31" s="3">
         <v>28</v>
@@ -13276,7 +13347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>29</v>
       </c>
@@ -13294,7 +13365,7 @@
         <v>133</v>
       </c>
       <c r="G32" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H32" s="3">
         <v>29</v>
@@ -13353,7 +13424,7 @@
         <v>141</v>
       </c>
       <c r="G34" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H34" s="3">
         <v>31</v>
@@ -13384,7 +13455,7 @@
         <v>144</v>
       </c>
       <c r="G35" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H35" s="3">
         <v>32</v>
@@ -13443,7 +13514,7 @@
         <v>151</v>
       </c>
       <c r="G37" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H37" s="3">
         <v>34</v>
@@ -13474,7 +13545,7 @@
         <v>155</v>
       </c>
       <c r="G38" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H38" s="3">
         <v>35</v>
@@ -13533,7 +13604,7 @@
         <v>162</v>
       </c>
       <c r="G40" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H40" s="3">
         <v>37</v>
@@ -13564,7 +13635,7 @@
         <v>166</v>
       </c>
       <c r="G41" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H41" s="3">
         <v>38</v>
@@ -13623,7 +13694,7 @@
         <v>179</v>
       </c>
       <c r="G43" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H43" s="3">
         <v>40</v>
@@ -13641,7 +13712,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="C44" t="b">
         <f t="shared" si="0"/>
@@ -13654,7 +13725,7 @@
         <v>183</v>
       </c>
       <c r="G44" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H44" s="3">
         <v>41</v>
@@ -13713,7 +13784,7 @@
         <v>190</v>
       </c>
       <c r="G46" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H46" s="3">
         <v>43</v>
@@ -13744,7 +13815,7 @@
         <v>193</v>
       </c>
       <c r="G47" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H47" s="3">
         <v>44</v>
@@ -13803,7 +13874,7 @@
         <v>200</v>
       </c>
       <c r="G49" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H49" s="3">
         <v>46</v>
@@ -13834,7 +13905,7 @@
         <v>204</v>
       </c>
       <c r="G50" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H50" s="3">
         <v>47</v>
@@ -13893,7 +13964,7 @@
         <v>212</v>
       </c>
       <c r="G52" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H52" s="3">
         <v>49</v>
@@ -13924,7 +13995,7 @@
         <v>216</v>
       </c>
       <c r="G53" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H53" s="3">
         <v>50</v>
@@ -13983,7 +14054,7 @@
         <v>223</v>
       </c>
       <c r="G55" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H55" s="3">
         <v>52</v>
@@ -14014,7 +14085,7 @@
         <v>227</v>
       </c>
       <c r="G56" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H56" s="3">
         <v>53</v>
@@ -14073,7 +14144,7 @@
         <v>234</v>
       </c>
       <c r="G58" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H58" s="3">
         <v>55</v>
@@ -14104,7 +14175,7 @@
         <v>238</v>
       </c>
       <c r="G59" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H59" s="3">
         <v>56</v>
@@ -14163,7 +14234,7 @@
         <v>244</v>
       </c>
       <c r="G61" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H61" s="3">
         <v>58</v>
@@ -14194,7 +14265,7 @@
         <v>247</v>
       </c>
       <c r="G62" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H62" s="3">
         <v>59</v>
@@ -14222,7 +14293,7 @@
         <v>60</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="H63" s="3">
         <v>60</v>
@@ -14253,7 +14324,7 @@
         <v>256</v>
       </c>
       <c r="G64" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H64" s="3">
         <v>61</v>
@@ -14271,7 +14342,7 @@
         <v>62</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="C65" t="b">
         <f t="shared" si="0"/>
@@ -14281,10 +14352,10 @@
         <v>62</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="G65" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H65" s="3">
         <v>62</v>
@@ -14318,7 +14389,7 @@
         <v>63</v>
       </c>
       <c r="I66" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="J66" s="7" t="b">
         <f t="shared" si="1"/>
@@ -14330,7 +14401,7 @@
         <v>64</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="C67" t="b">
         <f t="shared" si="0"/>
@@ -14343,7 +14414,7 @@
         <v>267</v>
       </c>
       <c r="G67" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H67" s="3">
         <v>64</v>
@@ -14361,7 +14432,7 @@
         <v>65</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="C68" t="b">
         <f t="shared" ref="C68:C131" si="2">IF(ISERROR(SEARCH(";", B68) &gt;0), FALSE, TRUE)</f>
@@ -14374,13 +14445,13 @@
         <v>269</v>
       </c>
       <c r="G68" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H68" s="3">
         <v>65</v>
       </c>
       <c r="I68" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="J68" s="7" t="b">
         <f t="shared" ref="J68:J131" si="3">ISNUMBER(MATCH(I68,$F$4:$F$247, 0))</f>
@@ -14392,7 +14463,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="C69" t="b">
         <f t="shared" si="2"/>
@@ -14420,7 +14491,7 @@
         <v>67</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="C70" t="b">
         <f t="shared" si="2"/>
@@ -14433,7 +14504,7 @@
         <v>275</v>
       </c>
       <c r="G70" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H70" s="3">
         <v>67</v>
@@ -14464,7 +14535,7 @@
         <v>280</v>
       </c>
       <c r="G71" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H71" s="3">
         <v>68</v>
@@ -14482,7 +14553,7 @@
         <v>69</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="C72" t="b">
         <f t="shared" si="2"/>
@@ -14510,7 +14581,7 @@
         <v>70</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="C73" t="b">
         <f t="shared" si="2"/>
@@ -14523,7 +14594,7 @@
         <v>286</v>
       </c>
       <c r="G73" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H73" s="3">
         <v>70</v>
@@ -14554,7 +14625,7 @@
         <v>290</v>
       </c>
       <c r="G74" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H74" s="3">
         <v>71</v>
@@ -14613,7 +14684,7 @@
         <v>296</v>
       </c>
       <c r="G76" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H76" s="3">
         <v>73</v>
@@ -14644,7 +14715,7 @@
         <v>301</v>
       </c>
       <c r="G77" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H77" s="3">
         <v>74</v>
@@ -14703,7 +14774,7 @@
         <v>309</v>
       </c>
       <c r="G79" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H79" s="3">
         <v>76</v>
@@ -14734,7 +14805,7 @@
         <v>316</v>
       </c>
       <c r="G80" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H80" s="3">
         <v>77</v>
@@ -14793,7 +14864,7 @@
         <v>326</v>
       </c>
       <c r="G82" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H82" s="3">
         <v>79</v>
@@ -14824,7 +14895,7 @@
         <v>329</v>
       </c>
       <c r="G83" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H83" s="3">
         <v>80</v>
@@ -14883,7 +14954,7 @@
         <v>337</v>
       </c>
       <c r="G85" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H85" s="3">
         <v>82</v>
@@ -14914,7 +14985,7 @@
         <v>340</v>
       </c>
       <c r="G86" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H86" s="3">
         <v>83</v>
@@ -14973,7 +15044,7 @@
         <v>348</v>
       </c>
       <c r="G88" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H88" s="3">
         <v>85</v>
@@ -15004,7 +15075,7 @@
         <v>352</v>
       </c>
       <c r="G89" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H89" s="3">
         <v>86</v>
@@ -15063,7 +15134,7 @@
         <v>358</v>
       </c>
       <c r="G91" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H91" s="3">
         <v>88</v>
@@ -15094,7 +15165,7 @@
         <v>362</v>
       </c>
       <c r="G92" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H92" s="3">
         <v>89</v>
@@ -15153,7 +15224,7 @@
         <v>371</v>
       </c>
       <c r="G94" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H94" s="3">
         <v>91</v>
@@ -15184,7 +15255,7 @@
         <v>375</v>
       </c>
       <c r="G95" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H95" s="3">
         <v>92</v>
@@ -15243,7 +15314,7 @@
         <v>383</v>
       </c>
       <c r="G97" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H97" s="3">
         <v>94</v>
@@ -15274,7 +15345,7 @@
         <v>387</v>
       </c>
       <c r="G98" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H98" s="3">
         <v>95</v>
@@ -15292,7 +15363,7 @@
         <v>96</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="C99" t="b">
         <f t="shared" si="2"/>
@@ -15320,7 +15391,7 @@
         <v>97</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="C100" t="b">
         <f t="shared" si="2"/>
@@ -15333,7 +15404,7 @@
         <v>394</v>
       </c>
       <c r="G100" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H100" s="3">
         <v>97</v>
@@ -15364,7 +15435,7 @@
         <v>397</v>
       </c>
       <c r="G101" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H101" s="3">
         <v>98</v>
@@ -15423,7 +15494,7 @@
         <v>406</v>
       </c>
       <c r="G103" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H103" s="3">
         <v>100</v>
@@ -15454,7 +15525,7 @@
         <v>409</v>
       </c>
       <c r="G104" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H104" s="3">
         <v>101</v>
@@ -15513,7 +15584,7 @@
         <v>416</v>
       </c>
       <c r="G106" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H106" s="3">
         <v>103</v>
@@ -15544,7 +15615,7 @@
         <v>420</v>
       </c>
       <c r="G107" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H107" s="3">
         <v>104</v>
@@ -15603,7 +15674,7 @@
         <v>429</v>
       </c>
       <c r="G109" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H109" s="3">
         <v>106</v>
@@ -15634,7 +15705,7 @@
         <v>433</v>
       </c>
       <c r="G110" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H110" s="3">
         <v>107</v>
@@ -15693,7 +15764,7 @@
         <v>440</v>
       </c>
       <c r="G112" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H112" s="3">
         <v>109</v>
@@ -15724,7 +15795,7 @@
         <v>443</v>
       </c>
       <c r="G113" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H113" s="3">
         <v>110</v>
@@ -15783,7 +15854,7 @@
         <v>451</v>
       </c>
       <c r="G115" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H115" s="3">
         <v>112</v>
@@ -15814,7 +15885,7 @@
         <v>455</v>
       </c>
       <c r="G116" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H116" s="3">
         <v>113</v>
@@ -15873,7 +15944,7 @@
         <v>461</v>
       </c>
       <c r="G118" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H118" s="3">
         <v>115</v>
@@ -15904,7 +15975,7 @@
         <v>464</v>
       </c>
       <c r="G119" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H119" s="3">
         <v>116</v>
@@ -15963,7 +16034,7 @@
         <v>472</v>
       </c>
       <c r="G121" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H121" s="3">
         <v>118</v>
@@ -15994,7 +16065,7 @@
         <v>476</v>
       </c>
       <c r="G122" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H122" s="3">
         <v>119</v>
@@ -16053,7 +16124,7 @@
         <v>482</v>
       </c>
       <c r="G124" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H124" s="3">
         <v>121</v>
@@ -16084,7 +16155,7 @@
         <v>486</v>
       </c>
       <c r="G125" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H125" s="3">
         <v>122</v>
@@ -16143,7 +16214,7 @@
         <v>494</v>
       </c>
       <c r="G127" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H127" s="3">
         <v>124</v>
@@ -16174,7 +16245,7 @@
         <v>498</v>
       </c>
       <c r="G128" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H128" s="3">
         <v>125</v>
@@ -16233,7 +16304,7 @@
         <v>505</v>
       </c>
       <c r="G130" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H130" s="3">
         <v>127</v>
@@ -16261,10 +16332,10 @@
         <v>128</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="G131" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H131" s="3">
         <v>128</v>
@@ -16323,7 +16394,7 @@
         <v>517</v>
       </c>
       <c r="G133" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H133" s="3">
         <v>130</v>
@@ -16354,7 +16425,7 @@
         <v>521</v>
       </c>
       <c r="G134" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H134" s="3">
         <v>131</v>
@@ -16388,7 +16459,7 @@
         <v>132</v>
       </c>
       <c r="I135" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="J135" s="7" t="b">
         <f t="shared" si="5"/>
@@ -16413,7 +16484,7 @@
         <v>528</v>
       </c>
       <c r="G136" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H136" s="3">
         <v>133</v>
@@ -16444,7 +16515,7 @@
         <v>532</v>
       </c>
       <c r="G137" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H137" s="3">
         <v>134</v>
@@ -16503,7 +16574,7 @@
         <v>539</v>
       </c>
       <c r="G139" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H139" s="3">
         <v>136</v>
@@ -16521,7 +16592,7 @@
         <v>137</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="C140" t="b">
         <f t="shared" si="4"/>
@@ -16534,7 +16605,7 @@
         <v>542</v>
       </c>
       <c r="G140" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H140" s="3">
         <v>137</v>
@@ -16593,7 +16664,7 @@
         <v>550</v>
       </c>
       <c r="G142" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H142" s="3">
         <v>139</v>
@@ -16624,7 +16695,7 @@
         <v>554</v>
       </c>
       <c r="G143" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H143" s="3">
         <v>140</v>
@@ -16683,7 +16754,7 @@
         <v>562</v>
       </c>
       <c r="G145" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H145" s="3">
         <v>142</v>
@@ -16714,7 +16785,7 @@
         <v>566</v>
       </c>
       <c r="G146" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H146" s="3">
         <v>143</v>
@@ -16773,7 +16844,7 @@
         <v>573</v>
       </c>
       <c r="G148" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H148" s="3">
         <v>145</v>
@@ -16804,7 +16875,7 @@
         <v>576</v>
       </c>
       <c r="G149" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H149" s="3">
         <v>146</v>
@@ -16863,7 +16934,7 @@
         <v>582</v>
       </c>
       <c r="G151" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H151" s="3">
         <v>148</v>
@@ -16894,7 +16965,7 @@
         <v>586</v>
       </c>
       <c r="G152" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H152" s="3">
         <v>149</v>
@@ -16953,7 +17024,7 @@
         <v>593</v>
       </c>
       <c r="G154" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H154" s="3">
         <v>151</v>
@@ -16984,7 +17055,7 @@
         <v>596</v>
       </c>
       <c r="G155" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H155" s="3">
         <v>152</v>
@@ -17043,7 +17114,7 @@
         <v>602</v>
       </c>
       <c r="G157" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H157" s="3">
         <v>154</v>
@@ -17074,7 +17145,7 @@
         <v>606</v>
       </c>
       <c r="G158" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H158" s="3">
         <v>155</v>
@@ -17133,7 +17204,7 @@
         <v>614</v>
       </c>
       <c r="G160" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H160" s="3">
         <v>157</v>
@@ -17164,7 +17235,7 @@
         <v>618</v>
       </c>
       <c r="G161" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H161" s="3">
         <v>158</v>
@@ -17223,7 +17294,7 @@
         <v>626</v>
       </c>
       <c r="G163" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H163" s="3">
         <v>160</v>
@@ -17254,7 +17325,7 @@
         <v>630</v>
       </c>
       <c r="G164" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H164" s="3">
         <v>161</v>
@@ -17313,7 +17384,7 @@
         <v>636</v>
       </c>
       <c r="G166" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H166" s="3">
         <v>163</v>
@@ -17344,7 +17415,7 @@
         <v>640</v>
       </c>
       <c r="G167" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H167" s="3">
         <v>164</v>
@@ -17403,7 +17474,7 @@
         <v>647</v>
       </c>
       <c r="G169" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H169" s="3">
         <v>166</v>
@@ -17434,7 +17505,7 @@
         <v>649</v>
       </c>
       <c r="G170" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H170" s="3">
         <v>167</v>
@@ -17493,7 +17564,7 @@
         <v>654</v>
       </c>
       <c r="G172" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H172" s="3">
         <v>169</v>
@@ -17524,7 +17595,7 @@
         <v>657</v>
       </c>
       <c r="G173" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H173" s="3">
         <v>170</v>
@@ -17583,7 +17654,7 @@
         <v>664</v>
       </c>
       <c r="G175" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H175" s="3">
         <v>172</v>
@@ -17614,7 +17685,7 @@
         <v>672</v>
       </c>
       <c r="G176" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H176" s="3">
         <v>173</v>
@@ -17673,7 +17744,7 @@
         <v>678</v>
       </c>
       <c r="G178" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H178" s="3">
         <v>175</v>
@@ -17704,7 +17775,7 @@
         <v>682</v>
       </c>
       <c r="G179" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H179" s="3">
         <v>176</v>
@@ -17763,7 +17834,7 @@
         <v>690</v>
       </c>
       <c r="G181" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H181" s="3">
         <v>178</v>
@@ -17794,7 +17865,7 @@
         <v>692</v>
       </c>
       <c r="G182" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H182" s="3">
         <v>179</v>
@@ -17853,7 +17924,7 @@
         <v>697</v>
       </c>
       <c r="G184" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H184" s="3">
         <v>181</v>
@@ -17884,7 +17955,7 @@
         <v>699</v>
       </c>
       <c r="G185" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H185" s="3">
         <v>182</v>
@@ -17943,7 +18014,7 @@
         <v>706</v>
       </c>
       <c r="G187" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H187" s="3">
         <v>184</v>
@@ -17974,7 +18045,7 @@
         <v>710</v>
       </c>
       <c r="G188" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H188" s="3">
         <v>185</v>
@@ -18033,7 +18104,7 @@
         <v>716</v>
       </c>
       <c r="G190" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H190" s="3">
         <v>187</v>
@@ -18064,7 +18135,7 @@
         <v>720</v>
       </c>
       <c r="G191" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H191" s="3">
         <v>188</v>
@@ -18082,7 +18153,7 @@
         <v>189</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="C192" t="b">
         <f t="shared" si="4"/>
@@ -18123,7 +18194,7 @@
         <v>726</v>
       </c>
       <c r="G193" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H193" s="3">
         <v>190</v>
@@ -18154,7 +18225,7 @@
         <v>729</v>
       </c>
       <c r="G194" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H194" s="3">
         <v>191</v>
@@ -18172,7 +18243,7 @@
         <v>192</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="C195" t="b">
         <f t="shared" si="4"/>
@@ -18200,7 +18271,7 @@
         <v>193</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="C196" t="b">
         <f t="shared" ref="C196:C259" si="6">IF(ISERROR(SEARCH(";", B196) &gt;0), FALSE, TRUE)</f>
@@ -18213,7 +18284,7 @@
         <v>735</v>
       </c>
       <c r="G196" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H196" s="3">
         <v>193</v>
@@ -18231,7 +18302,7 @@
         <v>194</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="C197" t="b">
         <f t="shared" si="6"/>
@@ -18244,7 +18315,7 @@
         <v>739</v>
       </c>
       <c r="G197" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H197" s="3">
         <v>194</v>
@@ -18262,7 +18333,7 @@
         <v>195</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="C198" t="b">
         <f t="shared" si="6"/>
@@ -18303,7 +18374,7 @@
         <v>749</v>
       </c>
       <c r="G199" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H199" s="3">
         <v>196</v>
@@ -18334,7 +18405,7 @@
         <v>753</v>
       </c>
       <c r="G200" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H200" s="3">
         <v>197</v>
@@ -18393,7 +18464,7 @@
         <v>759</v>
       </c>
       <c r="G202" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H202" s="3">
         <v>199</v>
@@ -18411,7 +18482,7 @@
         <v>200</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="C203" t="b">
         <f t="shared" si="6"/>
@@ -18424,7 +18495,7 @@
         <v>761</v>
       </c>
       <c r="G203" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H203" s="3">
         <v>200</v>
@@ -18442,7 +18513,7 @@
         <v>201</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="C204" t="b">
         <f t="shared" si="6"/>
@@ -18480,10 +18551,10 @@
         <v>202</v>
       </c>
       <c r="F205" s="7" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G205" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H205" s="3">
         <v>202</v>
@@ -18511,10 +18582,10 @@
         <v>203</v>
       </c>
       <c r="F206" s="7" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="G206" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H206" s="3">
         <v>203</v>
@@ -18542,7 +18613,7 @@
         <v>204</v>
       </c>
       <c r="F207" s="7" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="H207" s="3">
         <v>204</v>
@@ -18570,10 +18641,10 @@
         <v>205</v>
       </c>
       <c r="F208" s="7" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="G208" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H208" s="3">
         <v>205</v>
@@ -18601,10 +18672,10 @@
         <v>206</v>
       </c>
       <c r="F209" s="7" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="G209" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H209" s="3">
         <v>206</v>
@@ -18632,7 +18703,7 @@
         <v>207</v>
       </c>
       <c r="F210" s="7" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="H210" s="3">
         <v>207</v>
@@ -18660,16 +18731,16 @@
         <v>208</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="G211" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H211" s="3">
         <v>208</v>
       </c>
       <c r="I211" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="J211" s="7" t="b">
         <f t="shared" si="7"/>
@@ -18691,16 +18762,16 @@
         <v>209</v>
       </c>
       <c r="F212" s="7" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="G212" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H212" s="3">
         <v>209</v>
       </c>
       <c r="I212" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="J212" s="7" t="b">
         <f t="shared" si="7"/>
@@ -18722,13 +18793,13 @@
         <v>210</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="H213" s="3">
         <v>210</v>
       </c>
       <c r="I213" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="J213" s="7" t="b">
         <f t="shared" si="7"/>
@@ -18750,16 +18821,16 @@
         <v>211</v>
       </c>
       <c r="F214" s="7" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="G214" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H214" s="3">
         <v>211</v>
       </c>
       <c r="I214" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="J214" s="7" t="b">
         <f t="shared" si="7"/>
@@ -18781,16 +18852,16 @@
         <v>212</v>
       </c>
       <c r="F215" s="7" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="G215" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H215" s="3">
         <v>212</v>
       </c>
       <c r="I215" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="J215" s="7" t="b">
         <f t="shared" si="7"/>
@@ -18812,13 +18883,13 @@
         <v>213</v>
       </c>
       <c r="F216" s="7" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H216" s="3">
         <v>213</v>
       </c>
       <c r="I216" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="J216" s="7" t="b">
         <f t="shared" si="7"/>
@@ -18840,16 +18911,16 @@
         <v>214</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="G217" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H217" s="3">
         <v>214</v>
       </c>
       <c r="I217" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="J217" s="7" t="b">
         <f t="shared" si="7"/>
@@ -18871,16 +18942,16 @@
         <v>215</v>
       </c>
       <c r="F218" s="7" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="G218" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H218" s="3">
         <v>215</v>
       </c>
       <c r="I218" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="J218" s="7" t="b">
         <f t="shared" si="7"/>
@@ -18902,13 +18973,13 @@
         <v>216</v>
       </c>
       <c r="F219" s="7" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="H219" s="3">
         <v>216</v>
       </c>
       <c r="I219" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="J219" s="7" t="b">
         <f t="shared" si="7"/>
@@ -18930,16 +19001,16 @@
         <v>217</v>
       </c>
       <c r="F220" s="7" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="G220" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H220" s="3">
         <v>217</v>
       </c>
       <c r="I220" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="J220" s="7" t="b">
         <f t="shared" si="7"/>
@@ -18951,7 +19022,7 @@
         <v>218</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C221" t="b">
         <f t="shared" si="6"/>
@@ -18961,16 +19032,16 @@
         <v>218</v>
       </c>
       <c r="F221" s="7" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="G221" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H221" s="3">
         <v>218</v>
       </c>
       <c r="I221" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="J221" s="7" t="b">
         <f t="shared" si="7"/>
@@ -18982,7 +19053,7 @@
         <v>219</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C222" t="b">
         <f t="shared" si="6"/>
@@ -18992,13 +19063,13 @@
         <v>219</v>
       </c>
       <c r="F222" s="7" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="H222" s="3">
         <v>219</v>
       </c>
       <c r="I222" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="J222" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19010,7 +19081,7 @@
         <v>220</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C223" t="b">
         <f t="shared" si="6"/>
@@ -19020,16 +19091,16 @@
         <v>220</v>
       </c>
       <c r="F223" s="7" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="G223" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H223" s="3">
         <v>220</v>
       </c>
       <c r="I223" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="J223" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19041,7 +19112,7 @@
         <v>221</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C224" t="b">
         <f t="shared" si="6"/>
@@ -19051,16 +19122,16 @@
         <v>221</v>
       </c>
       <c r="F224" s="7" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="G224" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H224" s="3">
         <v>221</v>
       </c>
       <c r="I224" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="J224" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19072,7 +19143,7 @@
         <v>222</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C225" t="b">
         <f t="shared" si="6"/>
@@ -19082,13 +19153,13 @@
         <v>222</v>
       </c>
       <c r="F225" s="7" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="H225" s="3">
         <v>222</v>
       </c>
       <c r="I225" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="J225" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19100,7 +19171,7 @@
         <v>223</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="C226" t="b">
         <f t="shared" si="6"/>
@@ -19110,16 +19181,16 @@
         <v>223</v>
       </c>
       <c r="F226" s="7" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="G226" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H226" s="3">
         <v>223</v>
       </c>
       <c r="I226" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="J226" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19131,7 +19202,7 @@
         <v>224</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="C227" t="b">
         <f t="shared" si="6"/>
@@ -19141,16 +19212,16 @@
         <v>224</v>
       </c>
       <c r="F227" s="7" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="G227" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H227" s="3">
         <v>224</v>
       </c>
       <c r="I227" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="J227" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19162,7 +19233,7 @@
         <v>225</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="C228" t="b">
         <f t="shared" si="6"/>
@@ -19172,13 +19243,13 @@
         <v>225</v>
       </c>
       <c r="F228" s="7" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="H228" s="3">
         <v>225</v>
       </c>
       <c r="I228" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="J228" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19190,7 +19261,7 @@
         <v>226</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C229" t="b">
         <f t="shared" si="6"/>
@@ -19200,16 +19271,16 @@
         <v>226</v>
       </c>
       <c r="F229" s="7" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="G229" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H229" s="3">
         <v>226</v>
       </c>
       <c r="I229" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="J229" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19221,7 +19292,7 @@
         <v>227</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C230" t="b">
         <f t="shared" si="6"/>
@@ -19231,16 +19302,16 @@
         <v>227</v>
       </c>
       <c r="F230" s="7" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="G230" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H230" s="3">
         <v>227</v>
       </c>
       <c r="I230" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="J230" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19252,7 +19323,7 @@
         <v>228</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C231" t="b">
         <f t="shared" si="6"/>
@@ -19262,13 +19333,13 @@
         <v>228</v>
       </c>
       <c r="F231" s="7" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="H231" s="3">
         <v>228</v>
       </c>
       <c r="I231" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="J231" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19280,7 +19351,7 @@
         <v>229</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C232" t="b">
         <f t="shared" si="6"/>
@@ -19290,16 +19361,16 @@
         <v>229</v>
       </c>
       <c r="F232" s="7" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="G232" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H232" s="3">
         <v>229</v>
       </c>
       <c r="I232" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="J232" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19311,7 +19382,7 @@
         <v>230</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="C233" t="b">
         <f t="shared" si="6"/>
@@ -19321,16 +19392,16 @@
         <v>230</v>
       </c>
       <c r="F233" s="7" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="G233" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H233" s="3">
         <v>230</v>
       </c>
       <c r="I233" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="J233" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19342,7 +19413,7 @@
         <v>231</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C234" t="b">
         <f t="shared" si="6"/>
@@ -19352,13 +19423,13 @@
         <v>231</v>
       </c>
       <c r="F234" s="7" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="H234" s="3">
         <v>231</v>
       </c>
       <c r="I234" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="J234" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19370,7 +19441,7 @@
         <v>232</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C235" t="b">
         <f t="shared" si="6"/>
@@ -19380,16 +19451,16 @@
         <v>232</v>
       </c>
       <c r="F235" s="7" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="G235" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H235" s="3">
         <v>232</v>
       </c>
       <c r="I235" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="J235" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19401,7 +19472,7 @@
         <v>233</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="C236" t="b">
         <f t="shared" si="6"/>
@@ -19411,16 +19482,16 @@
         <v>233</v>
       </c>
       <c r="F236" s="7" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="G236" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H236" s="3">
         <v>233</v>
       </c>
       <c r="I236" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="J236" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19432,7 +19503,7 @@
         <v>234</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="C237" t="b">
         <f t="shared" si="6"/>
@@ -19442,13 +19513,13 @@
         <v>234</v>
       </c>
       <c r="F237" s="7" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="H237" s="3">
         <v>234</v>
       </c>
       <c r="I237" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="J237" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19460,7 +19531,7 @@
         <v>235</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="C238" t="b">
         <f t="shared" si="6"/>
@@ -19470,16 +19541,16 @@
         <v>235</v>
       </c>
       <c r="F238" s="7" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="G238" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H238" s="3">
         <v>235</v>
       </c>
       <c r="I238" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="J238" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19491,7 +19562,7 @@
         <v>236</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="C239" t="b">
         <f t="shared" si="6"/>
@@ -19501,16 +19572,16 @@
         <v>236</v>
       </c>
       <c r="F239" s="7" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="G239" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H239" s="3">
         <v>236</v>
       </c>
       <c r="I239" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="J239" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19522,7 +19593,7 @@
         <v>237</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C240" t="b">
         <f t="shared" si="6"/>
@@ -19532,13 +19603,13 @@
         <v>237</v>
       </c>
       <c r="F240" s="7" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="H240" s="3">
         <v>237</v>
       </c>
       <c r="I240" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="J240" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19550,7 +19621,7 @@
         <v>238</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C241" t="b">
         <f t="shared" si="6"/>
@@ -19560,16 +19631,16 @@
         <v>238</v>
       </c>
       <c r="F241" s="7" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="G241" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H241" s="3">
         <v>238</v>
       </c>
       <c r="I241" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="J241" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19581,7 +19652,7 @@
         <v>239</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="C242" t="b">
         <f t="shared" si="6"/>
@@ -19591,16 +19662,16 @@
         <v>239</v>
       </c>
       <c r="F242" s="7" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="G242" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H242" s="3">
         <v>239</v>
       </c>
       <c r="I242" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="J242" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19612,7 +19683,7 @@
         <v>240</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="C243" t="b">
         <f t="shared" si="6"/>
@@ -19622,13 +19693,13 @@
         <v>240</v>
       </c>
       <c r="F243" s="7" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="H243" s="3">
         <v>240</v>
       </c>
       <c r="I243" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="J243" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19640,7 +19711,7 @@
         <v>241</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="C244" t="b">
         <f t="shared" si="6"/>
@@ -19650,16 +19721,16 @@
         <v>241</v>
       </c>
       <c r="F244" s="7" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="G244" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H244" s="3">
         <v>241</v>
       </c>
       <c r="I244" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="J244" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19671,7 +19742,7 @@
         <v>242</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="C245" t="b">
         <f t="shared" si="6"/>
@@ -19681,16 +19752,16 @@
         <v>242</v>
       </c>
       <c r="F245" s="7" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="G245" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H245" s="3">
         <v>242</v>
       </c>
       <c r="I245" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="J245" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19702,7 +19773,7 @@
         <v>243</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="C246" t="b">
         <f t="shared" si="6"/>
@@ -19712,13 +19783,13 @@
         <v>243</v>
       </c>
       <c r="F246" s="7" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="H246" s="3">
         <v>243</v>
       </c>
       <c r="I246" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="J246" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19730,7 +19801,7 @@
         <v>244</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="C247" t="b">
         <f t="shared" si="6"/>
@@ -19740,16 +19811,16 @@
         <v>244</v>
       </c>
       <c r="F247" s="7" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="G247" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H247" s="3">
         <v>244</v>
       </c>
       <c r="I247" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="J247" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19761,20 +19832,20 @@
         <v>245</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="C248" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G248" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H248" s="3">
         <v>245</v>
       </c>
       <c r="I248" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="J248" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19786,7 +19857,7 @@
         <v>246</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="C249" t="b">
         <f t="shared" si="6"/>
@@ -19796,7 +19867,7 @@
         <v>246</v>
       </c>
       <c r="I249" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="J249" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19808,20 +19879,20 @@
         <v>247</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="C250" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G250" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H250" s="3">
         <v>247</v>
       </c>
       <c r="I250" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="J250" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19833,20 +19904,20 @@
         <v>248</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="C251" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G251" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H251" s="3">
         <v>248</v>
       </c>
       <c r="I251" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="J251" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19858,7 +19929,7 @@
         <v>249</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="C252" t="b">
         <f t="shared" si="6"/>
@@ -19868,7 +19939,7 @@
         <v>249</v>
       </c>
       <c r="I252" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="J252" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19880,20 +19951,20 @@
         <v>250</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="C253" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G253" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H253" s="3">
         <v>250</v>
       </c>
       <c r="I253" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="J253" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19905,14 +19976,14 @@
         <v>251</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="C254" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G254" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
@@ -19920,7 +19991,7 @@
         <v>252</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="C255" t="b">
         <f t="shared" si="6"/>
@@ -19932,14 +20003,14 @@
         <v>253</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="C256" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G256" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
@@ -19947,14 +20018,14 @@
         <v>254</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="C257" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G257" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
@@ -19962,7 +20033,7 @@
         <v>255</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="C258" t="b">
         <f t="shared" si="6"/>
@@ -19974,14 +20045,14 @@
         <v>256</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="C259" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G259" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
@@ -19989,14 +20060,14 @@
         <v>257</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="C260" t="b">
         <f t="shared" ref="C260:C323" si="8">IF(ISERROR(SEARCH(";", B260) &gt;0), FALSE, TRUE)</f>
         <v>0</v>
       </c>
       <c r="G260" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
@@ -20004,7 +20075,7 @@
         <v>258</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="C261" t="b">
         <f t="shared" si="8"/>
@@ -20016,14 +20087,14 @@
         <v>259</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="C262" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G262" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
@@ -20031,14 +20102,14 @@
         <v>260</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="C263" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G263" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
@@ -20046,7 +20117,7 @@
         <v>261</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="C264" t="b">
         <f t="shared" si="8"/>
@@ -20058,14 +20129,14 @@
         <v>262</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="C265" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G265" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
@@ -20073,14 +20144,14 @@
         <v>263</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="C266" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G266" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
@@ -20088,7 +20159,7 @@
         <v>264</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="C267" t="b">
         <f t="shared" si="8"/>
@@ -20100,14 +20171,14 @@
         <v>265</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="C268" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G268" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.3">
@@ -20115,14 +20186,14 @@
         <v>266</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="C269" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G269" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.3">
@@ -20130,7 +20201,7 @@
         <v>267</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="C270" t="b">
         <f t="shared" si="8"/>
@@ -20139,93 +20210,93 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G271" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G272" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="274" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G274" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="275" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G275" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="277" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G277" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="278" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G278" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="280" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G280" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="281" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G281" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="283" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G283" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="284" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G284" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="286" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G286" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="287" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G287" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="289" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G289" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="290" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G290" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="292" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G292" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="293" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G293" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J259:J1048576 J257 J1:J253">
-    <cfRule type="containsText" dxfId="1" priority="10" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="11" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="2" priority="13" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",J1)))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -20234,6 +20305,14 @@
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FALSE">
+      <formula>NOT(ISERROR(SEARCH("FALSE",M17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",M17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC933B1-3296-44DE-A2C0-A1C3AFCFDFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1692DC4A-FAA6-45B3-BB65-A87520C0B721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="962">
   <si>
     <t>Number</t>
   </si>
@@ -2594,9 +2594,6 @@
     <t>Trivelli, C. 2006. "Peru." In G. Hall and H.A. Patrinos, eds., Indigenous Peoples, Poverty and Human</t>
   </si>
   <si>
-    <t>Maybe accessible</t>
-  </si>
-  <si>
     <t>Trostel, Walker and Woolley (2002)</t>
   </si>
   <si>
@@ -2937,6 +2934,18 @@
   </si>
   <si>
     <t>Studies downloaded</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Untraceable</t>
+  </si>
+  <si>
+    <t>Full text inaccessible</t>
+  </si>
+  <si>
+    <t>Inaccessible</t>
   </si>
 </sst>
 </file>
@@ -3198,7 +3207,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC0E399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3238,13 +3261,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC5C5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3532,7 +3548,7 @@
   <dimension ref="A1:L251"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K231" sqref="K231"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3551,7 +3567,7 @@
     <col min="12" max="12" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -3585,8 +3601,11 @@
       <c r="K1" s="25" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="17" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3621,7 +3640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3656,7 +3675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3691,7 +3710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3726,7 +3745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3761,7 +3780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3796,7 +3815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3831,7 +3850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3866,7 +3885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3901,7 +3920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3936,7 +3955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3970,8 +3989,11 @@
       <c r="K12" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -4006,7 +4028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -4041,7 +4063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -4076,7 +4098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -4111,7 +4133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -4146,7 +4168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -4181,7 +4203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -4216,7 +4238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -4251,7 +4273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -4286,7 +4308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -4321,7 +4343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -4356,7 +4378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -4391,7 +4413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -4426,7 +4448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -4461,7 +4483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -4496,7 +4518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -4531,7 +4553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -4565,8 +4587,11 @@
       <c r="K29" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L29" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -4601,7 +4626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -4635,8 +4660,11 @@
       <c r="K31" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L31" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -5231,7 +5259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -5266,7 +5294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -5301,7 +5329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -5336,7 +5364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -5370,8 +5398,11 @@
       <c r="K52" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L52" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -5406,7 +5437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -5441,7 +5472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -5475,8 +5506,11 @@
       <c r="K55" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L55" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -5511,7 +5545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -5546,7 +5580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -5581,7 +5615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -5616,7 +5650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -5651,7 +5685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -5686,7 +5720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -5720,8 +5754,11 @@
       <c r="K62" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L62" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -5756,7 +5793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -5791,7 +5828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -5826,7 +5863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -5861,7 +5898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -5896,7 +5933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -5931,7 +5968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -5966,7 +6003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -6001,7 +6038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -6036,7 +6073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -6070,8 +6107,11 @@
       <c r="K72" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L72" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -6106,7 +6146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -6141,7 +6181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -6176,7 +6216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -6211,7 +6251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -6246,7 +6286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -6281,7 +6321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -6315,8 +6355,11 @@
       <c r="K79" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L79" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -6351,7 +6394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -6386,7 +6429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -6421,7 +6464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -6456,7 +6499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -6491,7 +6534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -6525,8 +6568,11 @@
       <c r="K85" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L85" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -6561,7 +6607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -6596,7 +6642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -6631,7 +6677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -6665,8 +6711,11 @@
       <c r="K89" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L89" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -6701,7 +6750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -6736,7 +6785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -6771,7 +6820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -6806,7 +6855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -6840,8 +6889,11 @@
       <c r="K94" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L94" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -6876,7 +6928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -6911,7 +6963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -6946,7 +6998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -6981,7 +7033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -7015,8 +7067,11 @@
       <c r="K99" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L99" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -7051,7 +7106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -7086,7 +7141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -7121,7 +7176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -7155,8 +7210,11 @@
       <c r="K103" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L103" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -7191,7 +7249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -7226,7 +7284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -7261,7 +7319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -7296,7 +7354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -7331,7 +7389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -7366,7 +7424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -7401,7 +7459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -7435,8 +7493,11 @@
       <c r="K111" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L111" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -7471,7 +7532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -7506,7 +7567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -7541,7 +7602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -7575,8 +7636,11 @@
       <c r="K115" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L115" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -7611,7 +7675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -7646,7 +7710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -7681,7 +7745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -7716,7 +7780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -7751,7 +7815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -7786,7 +7850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -7821,7 +7885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -7856,7 +7920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -7891,7 +7955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -7926,7 +7990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -7961,7 +8025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -7996,7 +8060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -8031,7 +8095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -8066,7 +8130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -8101,7 +8165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -8136,7 +8200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -8171,7 +8235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -8206,7 +8270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -8240,8 +8304,11 @@
       <c r="K134" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L134" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -8276,7 +8343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -8311,7 +8378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -8346,7 +8413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -8381,7 +8448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -8416,7 +8483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -8451,7 +8518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -8486,7 +8553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -8521,7 +8588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -8556,7 +8623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -8591,7 +8658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -8626,7 +8693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -8661,7 +8728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -8696,7 +8763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -8731,7 +8798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -8765,8 +8832,11 @@
       <c r="K149" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L149" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -8801,7 +8871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -8836,7 +8906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -8871,7 +8941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -8906,7 +8976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -8940,8 +9010,11 @@
       <c r="K154" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L154" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -8976,7 +9049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -9011,7 +9084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -9046,7 +9119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -9081,7 +9154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -9116,7 +9189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -9151,7 +9224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -9186,7 +9259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -9221,7 +9294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -9256,7 +9329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -9291,7 +9364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>165</v>
       </c>
@@ -9326,7 +9399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>166</v>
       </c>
@@ -9361,7 +9434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>167</v>
       </c>
@@ -9396,7 +9469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>168</v>
       </c>
@@ -9431,7 +9504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>169</v>
       </c>
@@ -9466,7 +9539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>170</v>
       </c>
@@ -9501,7 +9574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>171</v>
       </c>
@@ -9536,7 +9609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>172</v>
       </c>
@@ -9571,7 +9644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>173</v>
       </c>
@@ -9606,7 +9679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>174</v>
       </c>
@@ -9641,7 +9714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>175</v>
       </c>
@@ -9675,8 +9748,11 @@
       <c r="K175" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L175" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>176</v>
       </c>
@@ -9711,7 +9787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>177</v>
       </c>
@@ -9746,7 +9822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>178</v>
       </c>
@@ -9781,7 +9857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>179</v>
       </c>
@@ -9816,7 +9892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>180</v>
       </c>
@@ -9851,7 +9927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>181</v>
       </c>
@@ -9886,7 +9962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>182</v>
       </c>
@@ -9921,7 +9997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>183</v>
       </c>
@@ -9956,7 +10032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>184</v>
       </c>
@@ -9991,7 +10067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>185</v>
       </c>
@@ -10026,7 +10102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>186</v>
       </c>
@@ -10061,7 +10137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>187</v>
       </c>
@@ -10096,7 +10172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>188</v>
       </c>
@@ -10131,7 +10207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>189</v>
       </c>
@@ -10166,7 +10242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>190</v>
       </c>
@@ -10198,10 +10274,13 @@
         <v>0</v>
       </c>
       <c r="K190" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L190" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>191</v>
       </c>
@@ -10236,7 +10315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>192</v>
       </c>
@@ -11569,7 +11648,7 @@
         <v>0</v>
       </c>
       <c r="L229" t="s">
-        <v>844</v>
+        <v>961</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.3">
@@ -11577,10 +11656,10 @@
         <v>230</v>
       </c>
       <c r="B230" t="s">
+        <v>844</v>
+      </c>
+      <c r="C230" t="s">
         <v>845</v>
-      </c>
-      <c r="C230" t="s">
-        <v>846</v>
       </c>
       <c r="D230">
         <v>2002</v>
@@ -11595,10 +11674,10 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I230" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J230" t="b">
         <v>1</v>
@@ -11612,10 +11691,10 @@
         <v>231</v>
       </c>
       <c r="B231" t="s">
+        <v>847</v>
+      </c>
+      <c r="C231" t="s">
         <v>848</v>
-      </c>
-      <c r="C231" t="s">
-        <v>849</v>
       </c>
       <c r="D231">
         <v>1989</v>
@@ -11630,10 +11709,10 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="I231" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="J231" t="b">
         <v>1</v>
@@ -11647,10 +11726,10 @@
         <v>232</v>
       </c>
       <c r="B232" t="s">
+        <v>850</v>
+      </c>
+      <c r="C232" t="s">
         <v>851</v>
-      </c>
-      <c r="C232" t="s">
-        <v>852</v>
       </c>
       <c r="D232">
         <v>2007</v>
@@ -11659,16 +11738,16 @@
         <v>399</v>
       </c>
       <c r="F232" t="s">
+        <v>852</v>
+      </c>
+      <c r="G232" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" t="s">
+        <v>850</v>
+      </c>
+      <c r="I232" t="s">
         <v>853</v>
-      </c>
-      <c r="G232" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232" t="s">
-        <v>851</v>
-      </c>
-      <c r="I232" t="s">
-        <v>854</v>
       </c>
       <c r="J232" t="b">
         <v>1</v>
@@ -11682,10 +11761,10 @@
         <v>233</v>
       </c>
       <c r="B233" t="s">
+        <v>854</v>
+      </c>
+      <c r="C233" t="s">
         <v>855</v>
-      </c>
-      <c r="C233" t="s">
-        <v>856</v>
       </c>
       <c r="D233">
         <v>2001</v>
@@ -11694,16 +11773,16 @@
         <v>323</v>
       </c>
       <c r="F233" t="s">
+        <v>856</v>
+      </c>
+      <c r="G233" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" t="s">
+        <v>854</v>
+      </c>
+      <c r="I233" t="s">
         <v>857</v>
-      </c>
-      <c r="G233" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" t="s">
-        <v>855</v>
-      </c>
-      <c r="I233" t="s">
-        <v>858</v>
       </c>
       <c r="J233" t="b">
         <v>1</v>
@@ -11717,10 +11796,10 @@
         <v>234</v>
       </c>
       <c r="B234" t="s">
+        <v>858</v>
+      </c>
+      <c r="C234" t="s">
         <v>859</v>
-      </c>
-      <c r="C234" t="s">
-        <v>860</v>
       </c>
       <c r="D234">
         <v>1999</v>
@@ -11735,10 +11814,10 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="I234" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="J234" t="b">
         <v>1</v>
@@ -11752,10 +11831,10 @@
         <v>235</v>
       </c>
       <c r="B235" t="s">
+        <v>861</v>
+      </c>
+      <c r="C235" t="s">
         <v>862</v>
-      </c>
-      <c r="C235" t="s">
-        <v>863</v>
       </c>
       <c r="D235">
         <v>1998</v>
@@ -11770,10 +11849,10 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="I235" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="J235" t="b">
         <v>1</v>
@@ -11787,10 +11866,10 @@
         <v>236</v>
       </c>
       <c r="B236" t="s">
+        <v>864</v>
+      </c>
+      <c r="C236" t="s">
         <v>865</v>
-      </c>
-      <c r="C236" t="s">
-        <v>866</v>
       </c>
       <c r="D236">
         <v>2015</v>
@@ -11799,16 +11878,16 @@
         <v>277</v>
       </c>
       <c r="F236" t="s">
+        <v>866</v>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="s">
+        <v>864</v>
+      </c>
+      <c r="I236" t="s">
         <v>867</v>
-      </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="s">
-        <v>865</v>
-      </c>
-      <c r="I236" t="s">
-        <v>868</v>
       </c>
       <c r="J236" t="b">
         <v>1</v>
@@ -11822,28 +11901,28 @@
         <v>237</v>
       </c>
       <c r="B237" t="s">
+        <v>868</v>
+      </c>
+      <c r="C237" t="s">
         <v>869</v>
-      </c>
-      <c r="C237" t="s">
-        <v>870</v>
       </c>
       <c r="D237">
         <v>2009</v>
       </c>
       <c r="E237" t="s">
+        <v>870</v>
+      </c>
+      <c r="F237" t="s">
+        <v>870</v>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="s">
+        <v>868</v>
+      </c>
+      <c r="I237" t="s">
         <v>871</v>
-      </c>
-      <c r="F237" t="s">
-        <v>871</v>
-      </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="s">
-        <v>869</v>
-      </c>
-      <c r="I237" t="s">
-        <v>872</v>
       </c>
       <c r="J237" t="b">
         <v>1</v>
@@ -11857,10 +11936,10 @@
         <v>238</v>
       </c>
       <c r="B238" t="s">
+        <v>872</v>
+      </c>
+      <c r="C238" t="s">
         <v>873</v>
-      </c>
-      <c r="C238" t="s">
-        <v>874</v>
       </c>
       <c r="D238">
         <v>2000</v>
@@ -11869,16 +11948,16 @@
         <v>380</v>
       </c>
       <c r="F238" t="s">
+        <v>874</v>
+      </c>
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="s">
+        <v>872</v>
+      </c>
+      <c r="I238" t="s">
         <v>875</v>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="s">
-        <v>873</v>
-      </c>
-      <c r="I238" t="s">
-        <v>876</v>
       </c>
       <c r="J238" t="b">
         <v>1</v>
@@ -11892,10 +11971,10 @@
         <v>239</v>
       </c>
       <c r="B239" t="s">
+        <v>876</v>
+      </c>
+      <c r="C239" t="s">
         <v>877</v>
-      </c>
-      <c r="C239" t="s">
-        <v>878</v>
       </c>
       <c r="D239">
         <v>2002</v>
@@ -11904,16 +11983,16 @@
         <v>50</v>
       </c>
       <c r="F239" t="s">
+        <v>878</v>
+      </c>
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="s">
+        <v>876</v>
+      </c>
+      <c r="I239" t="s">
         <v>879</v>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="s">
-        <v>877</v>
-      </c>
-      <c r="I239" t="s">
-        <v>880</v>
       </c>
       <c r="J239" t="b">
         <v>1</v>
@@ -11927,10 +12006,10 @@
         <v>240</v>
       </c>
       <c r="B240" t="s">
+        <v>880</v>
+      </c>
+      <c r="C240" t="s">
         <v>881</v>
-      </c>
-      <c r="C240" t="s">
-        <v>882</v>
       </c>
       <c r="D240">
         <v>2010</v>
@@ -11945,10 +12024,10 @@
         <v>1</v>
       </c>
       <c r="H240" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I240" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="J240" t="b">
         <v>1</v>
@@ -11957,15 +12036,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
         <v>241</v>
       </c>
       <c r="B241" t="s">
+        <v>883</v>
+      </c>
+      <c r="C241" t="s">
         <v>884</v>
-      </c>
-      <c r="C241" t="s">
-        <v>885</v>
       </c>
       <c r="D241">
         <v>1999</v>
@@ -11974,17 +12053,17 @@
         <v>364</v>
       </c>
       <c r="F241" t="s">
+        <v>885</v>
+      </c>
+      <c r="G241" t="b">
+        <v>1</v>
+      </c>
+      <c r="H241" t="s">
+        <v>883</v>
+      </c>
+      <c r="I241" t="s">
         <v>886</v>
       </c>
-      <c r="G241" t="b">
-        <v>1</v>
-      </c>
-      <c r="H241" t="s">
-        <v>884</v>
-      </c>
-      <c r="I241" t="s">
-        <v>887</v>
-      </c>
       <c r="J241" t="b">
         <v>1</v>
       </c>
@@ -11992,15 +12071,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
         <v>242</v>
       </c>
       <c r="B242" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C242" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D242">
         <v>1996</v>
@@ -12015,11 +12094,11 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
+        <v>887</v>
+      </c>
+      <c r="I242" t="s">
         <v>888</v>
       </c>
-      <c r="I242" t="s">
-        <v>889</v>
-      </c>
       <c r="J242" t="b">
         <v>1</v>
       </c>
@@ -12027,15 +12106,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
         <v>243</v>
       </c>
       <c r="B243" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C243" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D243">
         <v>1996</v>
@@ -12050,11 +12129,11 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
+        <v>889</v>
+      </c>
+      <c r="I243" t="s">
         <v>890</v>
       </c>
-      <c r="I243" t="s">
-        <v>891</v>
-      </c>
       <c r="J243" t="b">
         <v>1</v>
       </c>
@@ -12062,12 +12141,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>244</v>
       </c>
       <c r="B244" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C244" t="s">
         <v>515</v>
@@ -12085,11 +12164,11 @@
         <v>1</v>
       </c>
       <c r="H244" t="s">
+        <v>891</v>
+      </c>
+      <c r="I244" t="s">
         <v>892</v>
       </c>
-      <c r="I244" t="s">
-        <v>893</v>
-      </c>
       <c r="J244" t="b">
         <v>1</v>
       </c>
@@ -12097,12 +12176,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
         <v>245</v>
       </c>
       <c r="B245" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C245" t="s">
         <v>515</v>
@@ -12120,11 +12199,11 @@
         <v>1</v>
       </c>
       <c r="H245" t="s">
+        <v>893</v>
+      </c>
+      <c r="I245" t="s">
         <v>894</v>
       </c>
-      <c r="I245" t="s">
-        <v>895</v>
-      </c>
       <c r="J245" t="b">
         <v>1</v>
       </c>
@@ -12132,34 +12211,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
         <v>246</v>
       </c>
       <c r="B246" t="s">
+        <v>895</v>
+      </c>
+      <c r="C246" t="s">
         <v>896</v>
-      </c>
-      <c r="C246" t="s">
-        <v>897</v>
       </c>
       <c r="D246">
         <v>2013</v>
       </c>
       <c r="E246" t="s">
+        <v>897</v>
+      </c>
+      <c r="F246" t="s">
+        <v>897</v>
+      </c>
+      <c r="G246" t="b">
+        <v>1</v>
+      </c>
+      <c r="H246" t="s">
+        <v>895</v>
+      </c>
+      <c r="I246" t="s">
         <v>898</v>
       </c>
-      <c r="F246" t="s">
-        <v>898</v>
-      </c>
-      <c r="G246" t="b">
-        <v>1</v>
-      </c>
-      <c r="H246" t="s">
-        <v>896</v>
-      </c>
-      <c r="I246" t="s">
-        <v>899</v>
-      </c>
       <c r="J246" t="b">
         <v>1</v>
       </c>
@@ -12167,15 +12246,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
         <v>247</v>
       </c>
       <c r="B247" t="s">
+        <v>899</v>
+      </c>
+      <c r="C247" t="s">
         <v>900</v>
-      </c>
-      <c r="C247" t="s">
-        <v>901</v>
       </c>
       <c r="D247">
         <v>2005</v>
@@ -12190,10 +12269,10 @@
         <v>1</v>
       </c>
       <c r="H247" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="I247" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="J247" t="b">
         <v>1</v>
@@ -12202,15 +12281,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
         <v>248</v>
       </c>
       <c r="B248" t="s">
+        <v>902</v>
+      </c>
+      <c r="C248" t="s">
         <v>903</v>
-      </c>
-      <c r="C248" t="s">
-        <v>904</v>
       </c>
       <c r="D248">
         <v>2006</v>
@@ -12225,10 +12304,10 @@
         <v>1</v>
       </c>
       <c r="H248" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I248" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="J248" t="b">
         <v>0</v>
@@ -12236,35 +12315,38 @@
       <c r="K248" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L248" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
         <v>249</v>
       </c>
       <c r="B249" t="s">
+        <v>905</v>
+      </c>
+      <c r="C249" t="s">
         <v>906</v>
-      </c>
-      <c r="C249" t="s">
-        <v>907</v>
       </c>
       <c r="D249">
         <v>1999</v>
       </c>
       <c r="E249" t="s">
+        <v>907</v>
+      </c>
+      <c r="F249" t="s">
+        <v>907</v>
+      </c>
+      <c r="G249" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" t="s">
+        <v>905</v>
+      </c>
+      <c r="I249" t="s">
         <v>908</v>
       </c>
-      <c r="F249" t="s">
-        <v>908</v>
-      </c>
-      <c r="G249" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" t="s">
-        <v>906</v>
-      </c>
-      <c r="I249" t="s">
-        <v>909</v>
-      </c>
       <c r="J249" t="b">
         <v>1</v>
       </c>
@@ -12272,15 +12354,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>250</v>
       </c>
       <c r="B250" t="s">
+        <v>909</v>
+      </c>
+      <c r="C250" t="s">
         <v>910</v>
-      </c>
-      <c r="C250" t="s">
-        <v>911</v>
       </c>
       <c r="D250">
         <v>2005</v>
@@ -12295,10 +12377,10 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="I250" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J250" t="b">
         <v>1</v>
@@ -12307,34 +12389,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
         <v>251</v>
       </c>
       <c r="B251" t="s">
+        <v>912</v>
+      </c>
+      <c r="C251" t="s">
         <v>913</v>
-      </c>
-      <c r="C251" t="s">
-        <v>914</v>
       </c>
       <c r="D251">
         <v>2002</v>
       </c>
       <c r="E251" t="s">
+        <v>914</v>
+      </c>
+      <c r="F251" t="s">
+        <v>914</v>
+      </c>
+      <c r="G251" t="b">
+        <v>1</v>
+      </c>
+      <c r="H251" t="s">
+        <v>912</v>
+      </c>
+      <c r="I251" t="s">
         <v>915</v>
       </c>
-      <c r="F251" t="s">
-        <v>915</v>
-      </c>
-      <c r="G251" t="b">
-        <v>1</v>
-      </c>
-      <c r="H251" t="s">
-        <v>913</v>
-      </c>
-      <c r="I251" t="s">
-        <v>916</v>
-      </c>
       <c r="J251" t="b">
         <v>1</v>
       </c>
@@ -12343,11 +12425,11 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:K251">
-    <cfRule type="expression" dxfId="5" priority="1">
+  <conditionalFormatting sqref="A1:K251 L1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>$K1=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>$J1=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12361,8 +12443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M293"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="M259" sqref="M259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12384,49 +12466,49 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="18"/>
       <c r="E1" s="17" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F1" s="18"/>
       <c r="H1" s="16" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="I1" s="16"/>
       <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L2" s="12" t="s">
+        <v>919</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>920</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>924</v>
-      </c>
       <c r="E3" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>922</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>923</v>
-      </c>
       <c r="H3" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>922</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>923</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>6</v>
@@ -12456,7 +12538,7 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -12489,7 +12571,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H5" s="3">
         <v>2</v>
@@ -12502,10 +12584,10 @@
         <v>1</v>
       </c>
       <c r="L5" s="12" t="s">
+        <v>925</v>
+      </c>
+      <c r="M5" s="13" t="s">
         <v>926</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -12526,7 +12608,7 @@
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H6" s="3">
         <v>3</v>
@@ -12563,7 +12645,7 @@
         <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H7" s="3">
         <v>4</v>
@@ -12594,7 +12676,7 @@
         <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H8" s="3">
         <v>5</v>
@@ -12607,10 +12689,10 @@
         <v>1</v>
       </c>
       <c r="L8" s="19" t="s">
+        <v>927</v>
+      </c>
+      <c r="M8" s="20" t="s">
         <v>928</v>
-      </c>
-      <c r="M8" s="20" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -12631,7 +12713,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H9" s="3">
         <v>6</v>
@@ -12670,7 +12752,7 @@
         <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H10" s="3">
         <v>7</v>
@@ -12701,7 +12783,7 @@
         <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H11" s="3">
         <v>8</v>
@@ -12732,7 +12814,7 @@
         <v>48</v>
       </c>
       <c r="G12" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H12" s="3">
         <v>9</v>
@@ -12763,7 +12845,7 @@
         <v>53</v>
       </c>
       <c r="G13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H13" s="3">
         <v>10</v>
@@ -12776,10 +12858,10 @@
         <v>1</v>
       </c>
       <c r="L13" s="19" t="s">
+        <v>954</v>
+      </c>
+      <c r="M13" s="20" t="s">
         <v>955</v>
-      </c>
-      <c r="M13" s="20" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -12800,7 +12882,7 @@
         <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H14" s="3">
         <v>11</v>
@@ -12814,11 +12896,11 @@
       </c>
       <c r="L14" s="10">
         <f>COUNTIF('P&amp;P studies'!$K$2:$K$251, TRUE)</f>
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M14" s="11">
         <f>COUNTIF('P&amp;P studies'!$K$2:$K$251, FALSE)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -12839,7 +12921,7 @@
         <v>62</v>
       </c>
       <c r="G15" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H15" s="3">
         <v>12</v>
@@ -12857,7 +12939,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C16" t="b">
         <f t="shared" si="0"/>
@@ -12870,7 +12952,7 @@
         <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H16" s="3">
         <v>13</v>
@@ -12883,10 +12965,10 @@
         <v>1</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -12907,7 +12989,7 @@
         <v>71</v>
       </c>
       <c r="G17" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H17" s="3">
         <v>14</v>
@@ -12925,7 +13007,7 @@
       </c>
       <c r="M17" s="11" t="b">
         <f>L14=L17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -12974,7 +13056,7 @@
         <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H19" s="3">
         <v>16</v>
@@ -13005,7 +13087,7 @@
         <v>83</v>
       </c>
       <c r="G20" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H20" s="3">
         <v>17</v>
@@ -13064,7 +13146,7 @@
         <v>91</v>
       </c>
       <c r="G22" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H22" s="3">
         <v>19</v>
@@ -13095,7 +13177,7 @@
         <v>95</v>
       </c>
       <c r="G23" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H23" s="3">
         <v>20</v>
@@ -13154,7 +13236,7 @@
         <v>103</v>
       </c>
       <c r="G25" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H25" s="3">
         <v>22</v>
@@ -13185,7 +13267,7 @@
         <v>107</v>
       </c>
       <c r="G26" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H26" s="3">
         <v>23</v>
@@ -13244,7 +13326,7 @@
         <v>114</v>
       </c>
       <c r="G28" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H28" s="3">
         <v>25</v>
@@ -13275,7 +13357,7 @@
         <v>119</v>
       </c>
       <c r="G29" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H29" s="3">
         <v>26</v>
@@ -13334,7 +13416,7 @@
         <v>129</v>
       </c>
       <c r="G31" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H31" s="3">
         <v>28</v>
@@ -13365,7 +13447,7 @@
         <v>133</v>
       </c>
       <c r="G32" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H32" s="3">
         <v>29</v>
@@ -13424,7 +13506,7 @@
         <v>141</v>
       </c>
       <c r="G34" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H34" s="3">
         <v>31</v>
@@ -13455,7 +13537,7 @@
         <v>144</v>
       </c>
       <c r="G35" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H35" s="3">
         <v>32</v>
@@ -13514,7 +13596,7 @@
         <v>151</v>
       </c>
       <c r="G37" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H37" s="3">
         <v>34</v>
@@ -13545,7 +13627,7 @@
         <v>155</v>
       </c>
       <c r="G38" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H38" s="3">
         <v>35</v>
@@ -13604,7 +13686,7 @@
         <v>162</v>
       </c>
       <c r="G40" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H40" s="3">
         <v>37</v>
@@ -13635,7 +13717,7 @@
         <v>166</v>
       </c>
       <c r="G41" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H41" s="3">
         <v>38</v>
@@ -13694,7 +13776,7 @@
         <v>179</v>
       </c>
       <c r="G43" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H43" s="3">
         <v>40</v>
@@ -13712,7 +13794,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C44" t="b">
         <f t="shared" si="0"/>
@@ -13725,7 +13807,7 @@
         <v>183</v>
       </c>
       <c r="G44" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H44" s="3">
         <v>41</v>
@@ -13784,7 +13866,7 @@
         <v>190</v>
       </c>
       <c r="G46" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H46" s="3">
         <v>43</v>
@@ -13815,7 +13897,7 @@
         <v>193</v>
       </c>
       <c r="G47" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H47" s="3">
         <v>44</v>
@@ -13874,7 +13956,7 @@
         <v>200</v>
       </c>
       <c r="G49" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H49" s="3">
         <v>46</v>
@@ -13905,7 +13987,7 @@
         <v>204</v>
       </c>
       <c r="G50" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H50" s="3">
         <v>47</v>
@@ -13964,7 +14046,7 @@
         <v>212</v>
       </c>
       <c r="G52" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H52" s="3">
         <v>49</v>
@@ -13995,7 +14077,7 @@
         <v>216</v>
       </c>
       <c r="G53" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H53" s="3">
         <v>50</v>
@@ -14054,7 +14136,7 @@
         <v>223</v>
       </c>
       <c r="G55" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H55" s="3">
         <v>52</v>
@@ -14085,7 +14167,7 @@
         <v>227</v>
       </c>
       <c r="G56" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H56" s="3">
         <v>53</v>
@@ -14144,7 +14226,7 @@
         <v>234</v>
       </c>
       <c r="G58" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H58" s="3">
         <v>55</v>
@@ -14175,7 +14257,7 @@
         <v>238</v>
       </c>
       <c r="G59" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H59" s="3">
         <v>56</v>
@@ -14234,7 +14316,7 @@
         <v>244</v>
       </c>
       <c r="G61" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H61" s="3">
         <v>58</v>
@@ -14265,7 +14347,7 @@
         <v>247</v>
       </c>
       <c r="G62" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H62" s="3">
         <v>59</v>
@@ -14293,7 +14375,7 @@
         <v>60</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H63" s="3">
         <v>60</v>
@@ -14324,7 +14406,7 @@
         <v>256</v>
       </c>
       <c r="G64" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H64" s="3">
         <v>61</v>
@@ -14342,7 +14424,7 @@
         <v>62</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C65" t="b">
         <f t="shared" si="0"/>
@@ -14352,10 +14434,10 @@
         <v>62</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G65" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H65" s="3">
         <v>62</v>
@@ -14389,7 +14471,7 @@
         <v>63</v>
       </c>
       <c r="I66" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="J66" s="7" t="b">
         <f t="shared" si="1"/>
@@ -14401,7 +14483,7 @@
         <v>64</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C67" t="b">
         <f t="shared" si="0"/>
@@ -14414,7 +14496,7 @@
         <v>267</v>
       </c>
       <c r="G67" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H67" s="3">
         <v>64</v>
@@ -14432,7 +14514,7 @@
         <v>65</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C68" t="b">
         <f t="shared" ref="C68:C131" si="2">IF(ISERROR(SEARCH(";", B68) &gt;0), FALSE, TRUE)</f>
@@ -14445,13 +14527,13 @@
         <v>269</v>
       </c>
       <c r="G68" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H68" s="3">
         <v>65</v>
       </c>
       <c r="I68" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="J68" s="7" t="b">
         <f t="shared" ref="J68:J131" si="3">ISNUMBER(MATCH(I68,$F$4:$F$247, 0))</f>
@@ -14463,7 +14545,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C69" t="b">
         <f t="shared" si="2"/>
@@ -14491,7 +14573,7 @@
         <v>67</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C70" t="b">
         <f t="shared" si="2"/>
@@ -14504,7 +14586,7 @@
         <v>275</v>
       </c>
       <c r="G70" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H70" s="3">
         <v>67</v>
@@ -14535,7 +14617,7 @@
         <v>280</v>
       </c>
       <c r="G71" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H71" s="3">
         <v>68</v>
@@ -14553,7 +14635,7 @@
         <v>69</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C72" t="b">
         <f t="shared" si="2"/>
@@ -14581,7 +14663,7 @@
         <v>70</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C73" t="b">
         <f t="shared" si="2"/>
@@ -14594,7 +14676,7 @@
         <v>286</v>
       </c>
       <c r="G73" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H73" s="3">
         <v>70</v>
@@ -14625,7 +14707,7 @@
         <v>290</v>
       </c>
       <c r="G74" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H74" s="3">
         <v>71</v>
@@ -14684,7 +14766,7 @@
         <v>296</v>
       </c>
       <c r="G76" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H76" s="3">
         <v>73</v>
@@ -14715,7 +14797,7 @@
         <v>301</v>
       </c>
       <c r="G77" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H77" s="3">
         <v>74</v>
@@ -14774,7 +14856,7 @@
         <v>309</v>
       </c>
       <c r="G79" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H79" s="3">
         <v>76</v>
@@ -14805,7 +14887,7 @@
         <v>316</v>
       </c>
       <c r="G80" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H80" s="3">
         <v>77</v>
@@ -14864,7 +14946,7 @@
         <v>326</v>
       </c>
       <c r="G82" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H82" s="3">
         <v>79</v>
@@ -14895,7 +14977,7 @@
         <v>329</v>
       </c>
       <c r="G83" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H83" s="3">
         <v>80</v>
@@ -14954,7 +15036,7 @@
         <v>337</v>
       </c>
       <c r="G85" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H85" s="3">
         <v>82</v>
@@ -14985,7 +15067,7 @@
         <v>340</v>
       </c>
       <c r="G86" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H86" s="3">
         <v>83</v>
@@ -15044,7 +15126,7 @@
         <v>348</v>
       </c>
       <c r="G88" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H88" s="3">
         <v>85</v>
@@ -15075,7 +15157,7 @@
         <v>352</v>
       </c>
       <c r="G89" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H89" s="3">
         <v>86</v>
@@ -15134,7 +15216,7 @@
         <v>358</v>
       </c>
       <c r="G91" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H91" s="3">
         <v>88</v>
@@ -15165,7 +15247,7 @@
         <v>362</v>
       </c>
       <c r="G92" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H92" s="3">
         <v>89</v>
@@ -15224,7 +15306,7 @@
         <v>371</v>
       </c>
       <c r="G94" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H94" s="3">
         <v>91</v>
@@ -15255,7 +15337,7 @@
         <v>375</v>
       </c>
       <c r="G95" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H95" s="3">
         <v>92</v>
@@ -15314,7 +15396,7 @@
         <v>383</v>
       </c>
       <c r="G97" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H97" s="3">
         <v>94</v>
@@ -15345,7 +15427,7 @@
         <v>387</v>
       </c>
       <c r="G98" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H98" s="3">
         <v>95</v>
@@ -15363,7 +15445,7 @@
         <v>96</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C99" t="b">
         <f t="shared" si="2"/>
@@ -15391,7 +15473,7 @@
         <v>97</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C100" t="b">
         <f t="shared" si="2"/>
@@ -15404,7 +15486,7 @@
         <v>394</v>
       </c>
       <c r="G100" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H100" s="3">
         <v>97</v>
@@ -15435,7 +15517,7 @@
         <v>397</v>
       </c>
       <c r="G101" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H101" s="3">
         <v>98</v>
@@ -15494,7 +15576,7 @@
         <v>406</v>
       </c>
       <c r="G103" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H103" s="3">
         <v>100</v>
@@ -15525,7 +15607,7 @@
         <v>409</v>
       </c>
       <c r="G104" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H104" s="3">
         <v>101</v>
@@ -15584,7 +15666,7 @@
         <v>416</v>
       </c>
       <c r="G106" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H106" s="3">
         <v>103</v>
@@ -15615,7 +15697,7 @@
         <v>420</v>
       </c>
       <c r="G107" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H107" s="3">
         <v>104</v>
@@ -15674,7 +15756,7 @@
         <v>429</v>
       </c>
       <c r="G109" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H109" s="3">
         <v>106</v>
@@ -15705,7 +15787,7 @@
         <v>433</v>
       </c>
       <c r="G110" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H110" s="3">
         <v>107</v>
@@ -15764,7 +15846,7 @@
         <v>440</v>
       </c>
       <c r="G112" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H112" s="3">
         <v>109</v>
@@ -15795,7 +15877,7 @@
         <v>443</v>
       </c>
       <c r="G113" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H113" s="3">
         <v>110</v>
@@ -15854,7 +15936,7 @@
         <v>451</v>
       </c>
       <c r="G115" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H115" s="3">
         <v>112</v>
@@ -15885,7 +15967,7 @@
         <v>455</v>
       </c>
       <c r="G116" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H116" s="3">
         <v>113</v>
@@ -15944,7 +16026,7 @@
         <v>461</v>
       </c>
       <c r="G118" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H118" s="3">
         <v>115</v>
@@ -15975,7 +16057,7 @@
         <v>464</v>
       </c>
       <c r="G119" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H119" s="3">
         <v>116</v>
@@ -16034,7 +16116,7 @@
         <v>472</v>
       </c>
       <c r="G121" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H121" s="3">
         <v>118</v>
@@ -16065,7 +16147,7 @@
         <v>476</v>
       </c>
       <c r="G122" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H122" s="3">
         <v>119</v>
@@ -16124,7 +16206,7 @@
         <v>482</v>
       </c>
       <c r="G124" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H124" s="3">
         <v>121</v>
@@ -16155,7 +16237,7 @@
         <v>486</v>
       </c>
       <c r="G125" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H125" s="3">
         <v>122</v>
@@ -16214,7 +16296,7 @@
         <v>494</v>
       </c>
       <c r="G127" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H127" s="3">
         <v>124</v>
@@ -16245,7 +16327,7 @@
         <v>498</v>
       </c>
       <c r="G128" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H128" s="3">
         <v>125</v>
@@ -16304,7 +16386,7 @@
         <v>505</v>
       </c>
       <c r="G130" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H130" s="3">
         <v>127</v>
@@ -16332,10 +16414,10 @@
         <v>128</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="G131" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H131" s="3">
         <v>128</v>
@@ -16394,7 +16476,7 @@
         <v>517</v>
       </c>
       <c r="G133" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H133" s="3">
         <v>130</v>
@@ -16425,7 +16507,7 @@
         <v>521</v>
       </c>
       <c r="G134" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H134" s="3">
         <v>131</v>
@@ -16459,7 +16541,7 @@
         <v>132</v>
       </c>
       <c r="I135" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J135" s="7" t="b">
         <f t="shared" si="5"/>
@@ -16484,7 +16566,7 @@
         <v>528</v>
       </c>
       <c r="G136" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H136" s="3">
         <v>133</v>
@@ -16515,7 +16597,7 @@
         <v>532</v>
       </c>
       <c r="G137" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H137" s="3">
         <v>134</v>
@@ -16574,7 +16656,7 @@
         <v>539</v>
       </c>
       <c r="G139" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H139" s="3">
         <v>136</v>
@@ -16592,7 +16674,7 @@
         <v>137</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C140" t="b">
         <f t="shared" si="4"/>
@@ -16605,7 +16687,7 @@
         <v>542</v>
       </c>
       <c r="G140" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H140" s="3">
         <v>137</v>
@@ -16664,7 +16746,7 @@
         <v>550</v>
       </c>
       <c r="G142" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H142" s="3">
         <v>139</v>
@@ -16695,7 +16777,7 @@
         <v>554</v>
       </c>
       <c r="G143" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H143" s="3">
         <v>140</v>
@@ -16754,7 +16836,7 @@
         <v>562</v>
       </c>
       <c r="G145" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H145" s="3">
         <v>142</v>
@@ -16785,7 +16867,7 @@
         <v>566</v>
       </c>
       <c r="G146" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H146" s="3">
         <v>143</v>
@@ -16844,7 +16926,7 @@
         <v>573</v>
       </c>
       <c r="G148" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H148" s="3">
         <v>145</v>
@@ -16875,7 +16957,7 @@
         <v>576</v>
       </c>
       <c r="G149" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H149" s="3">
         <v>146</v>
@@ -16934,7 +17016,7 @@
         <v>582</v>
       </c>
       <c r="G151" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H151" s="3">
         <v>148</v>
@@ -16965,7 +17047,7 @@
         <v>586</v>
       </c>
       <c r="G152" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H152" s="3">
         <v>149</v>
@@ -17024,7 +17106,7 @@
         <v>593</v>
       </c>
       <c r="G154" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H154" s="3">
         <v>151</v>
@@ -17055,7 +17137,7 @@
         <v>596</v>
       </c>
       <c r="G155" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H155" s="3">
         <v>152</v>
@@ -17114,7 +17196,7 @@
         <v>602</v>
       </c>
       <c r="G157" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H157" s="3">
         <v>154</v>
@@ -17145,7 +17227,7 @@
         <v>606</v>
       </c>
       <c r="G158" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H158" s="3">
         <v>155</v>
@@ -17204,7 +17286,7 @@
         <v>614</v>
       </c>
       <c r="G160" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H160" s="3">
         <v>157</v>
@@ -17235,7 +17317,7 @@
         <v>618</v>
       </c>
       <c r="G161" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H161" s="3">
         <v>158</v>
@@ -17294,7 +17376,7 @@
         <v>626</v>
       </c>
       <c r="G163" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H163" s="3">
         <v>160</v>
@@ -17325,7 +17407,7 @@
         <v>630</v>
       </c>
       <c r="G164" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H164" s="3">
         <v>161</v>
@@ -17384,7 +17466,7 @@
         <v>636</v>
       </c>
       <c r="G166" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H166" s="3">
         <v>163</v>
@@ -17415,7 +17497,7 @@
         <v>640</v>
       </c>
       <c r="G167" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H167" s="3">
         <v>164</v>
@@ -17474,7 +17556,7 @@
         <v>647</v>
       </c>
       <c r="G169" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H169" s="3">
         <v>166</v>
@@ -17505,7 +17587,7 @@
         <v>649</v>
       </c>
       <c r="G170" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H170" s="3">
         <v>167</v>
@@ -17564,7 +17646,7 @@
         <v>654</v>
       </c>
       <c r="G172" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H172" s="3">
         <v>169</v>
@@ -17595,7 +17677,7 @@
         <v>657</v>
       </c>
       <c r="G173" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H173" s="3">
         <v>170</v>
@@ -17654,7 +17736,7 @@
         <v>664</v>
       </c>
       <c r="G175" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H175" s="3">
         <v>172</v>
@@ -17685,7 +17767,7 @@
         <v>672</v>
       </c>
       <c r="G176" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H176" s="3">
         <v>173</v>
@@ -17744,7 +17826,7 @@
         <v>678</v>
       </c>
       <c r="G178" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H178" s="3">
         <v>175</v>
@@ -17775,7 +17857,7 @@
         <v>682</v>
       </c>
       <c r="G179" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H179" s="3">
         <v>176</v>
@@ -17834,7 +17916,7 @@
         <v>690</v>
       </c>
       <c r="G181" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H181" s="3">
         <v>178</v>
@@ -17865,7 +17947,7 @@
         <v>692</v>
       </c>
       <c r="G182" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H182" s="3">
         <v>179</v>
@@ -17924,7 +18006,7 @@
         <v>697</v>
       </c>
       <c r="G184" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H184" s="3">
         <v>181</v>
@@ -17955,7 +18037,7 @@
         <v>699</v>
       </c>
       <c r="G185" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H185" s="3">
         <v>182</v>
@@ -18014,7 +18096,7 @@
         <v>706</v>
       </c>
       <c r="G187" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H187" s="3">
         <v>184</v>
@@ -18045,7 +18127,7 @@
         <v>710</v>
       </c>
       <c r="G188" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H188" s="3">
         <v>185</v>
@@ -18104,7 +18186,7 @@
         <v>716</v>
       </c>
       <c r="G190" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H190" s="3">
         <v>187</v>
@@ -18135,7 +18217,7 @@
         <v>720</v>
       </c>
       <c r="G191" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H191" s="3">
         <v>188</v>
@@ -18153,7 +18235,7 @@
         <v>189</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C192" t="b">
         <f t="shared" si="4"/>
@@ -18194,7 +18276,7 @@
         <v>726</v>
       </c>
       <c r="G193" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H193" s="3">
         <v>190</v>
@@ -18225,7 +18307,7 @@
         <v>729</v>
       </c>
       <c r="G194" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H194" s="3">
         <v>191</v>
@@ -18243,7 +18325,7 @@
         <v>192</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C195" t="b">
         <f t="shared" si="4"/>
@@ -18271,7 +18353,7 @@
         <v>193</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C196" t="b">
         <f t="shared" ref="C196:C259" si="6">IF(ISERROR(SEARCH(";", B196) &gt;0), FALSE, TRUE)</f>
@@ -18284,7 +18366,7 @@
         <v>735</v>
       </c>
       <c r="G196" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H196" s="3">
         <v>193</v>
@@ -18293,7 +18375,7 @@
         <v>720</v>
       </c>
       <c r="J196" s="7" t="b">
-        <f t="shared" ref="J196:J259" si="7">ISNUMBER(MATCH(I196,$F$4:$F$247, 0))</f>
+        <f t="shared" ref="J196:J253" si="7">ISNUMBER(MATCH(I196,$F$4:$F$247, 0))</f>
         <v>1</v>
       </c>
     </row>
@@ -18302,7 +18384,7 @@
         <v>194</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C197" t="b">
         <f t="shared" si="6"/>
@@ -18315,7 +18397,7 @@
         <v>739</v>
       </c>
       <c r="G197" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H197" s="3">
         <v>194</v>
@@ -18333,7 +18415,7 @@
         <v>195</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C198" t="b">
         <f t="shared" si="6"/>
@@ -18374,7 +18456,7 @@
         <v>749</v>
       </c>
       <c r="G199" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H199" s="3">
         <v>196</v>
@@ -18405,7 +18487,7 @@
         <v>753</v>
       </c>
       <c r="G200" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H200" s="3">
         <v>197</v>
@@ -18464,7 +18546,7 @@
         <v>759</v>
       </c>
       <c r="G202" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H202" s="3">
         <v>199</v>
@@ -18482,7 +18564,7 @@
         <v>200</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C203" t="b">
         <f t="shared" si="6"/>
@@ -18495,7 +18577,7 @@
         <v>761</v>
       </c>
       <c r="G203" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H203" s="3">
         <v>200</v>
@@ -18513,7 +18595,7 @@
         <v>201</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C204" t="b">
         <f t="shared" si="6"/>
@@ -18554,7 +18636,7 @@
         <v>769</v>
       </c>
       <c r="G205" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H205" s="3">
         <v>202</v>
@@ -18585,7 +18667,7 @@
         <v>773</v>
       </c>
       <c r="G206" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H206" s="3">
         <v>203</v>
@@ -18644,7 +18726,7 @@
         <v>781</v>
       </c>
       <c r="G208" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H208" s="3">
         <v>205</v>
@@ -18675,7 +18757,7 @@
         <v>784</v>
       </c>
       <c r="G209" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H209" s="3">
         <v>206</v>
@@ -18734,7 +18816,7 @@
         <v>792</v>
       </c>
       <c r="G211" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H211" s="3">
         <v>208</v>
@@ -18765,7 +18847,7 @@
         <v>795</v>
       </c>
       <c r="G212" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H212" s="3">
         <v>209</v>
@@ -18824,7 +18906,7 @@
         <v>801</v>
       </c>
       <c r="G214" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H214" s="3">
         <v>211</v>
@@ -18855,7 +18937,7 @@
         <v>805</v>
       </c>
       <c r="G215" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H215" s="3">
         <v>212</v>
@@ -18914,7 +18996,7 @@
         <v>813</v>
       </c>
       <c r="G217" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H217" s="3">
         <v>214</v>
@@ -18945,7 +19027,7 @@
         <v>816</v>
       </c>
       <c r="G218" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H218" s="3">
         <v>215</v>
@@ -19004,7 +19086,7 @@
         <v>824</v>
       </c>
       <c r="G220" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H220" s="3">
         <v>217</v>
@@ -19035,7 +19117,7 @@
         <v>826</v>
       </c>
       <c r="G221" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H221" s="3">
         <v>218</v>
@@ -19094,7 +19176,7 @@
         <v>834</v>
       </c>
       <c r="G223" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H223" s="3">
         <v>220</v>
@@ -19125,7 +19207,7 @@
         <v>838</v>
       </c>
       <c r="G224" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H224" s="3">
         <v>221</v>
@@ -19181,10 +19263,10 @@
         <v>223</v>
       </c>
       <c r="F226" s="7" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G226" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H226" s="3">
         <v>223</v>
@@ -19202,7 +19284,7 @@
         <v>224</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C227" t="b">
         <f t="shared" si="6"/>
@@ -19212,10 +19294,10 @@
         <v>224</v>
       </c>
       <c r="F227" s="7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G227" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H227" s="3">
         <v>224</v>
@@ -19233,7 +19315,7 @@
         <v>225</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C228" t="b">
         <f t="shared" si="6"/>
@@ -19243,7 +19325,7 @@
         <v>225</v>
       </c>
       <c r="F228" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H228" s="3">
         <v>225</v>
@@ -19271,10 +19353,10 @@
         <v>226</v>
       </c>
       <c r="F229" s="7" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G229" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H229" s="3">
         <v>226</v>
@@ -19302,10 +19384,10 @@
         <v>227</v>
       </c>
       <c r="F230" s="7" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G230" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H230" s="3">
         <v>227</v>
@@ -19333,7 +19415,7 @@
         <v>228</v>
       </c>
       <c r="F231" s="7" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H231" s="3">
         <v>228</v>
@@ -19361,16 +19443,16 @@
         <v>229</v>
       </c>
       <c r="F232" s="7" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G232" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H232" s="3">
         <v>229</v>
       </c>
       <c r="I232" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J232" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19392,16 +19474,16 @@
         <v>230</v>
       </c>
       <c r="F233" s="7" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G233" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H233" s="3">
         <v>230</v>
       </c>
       <c r="I233" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J233" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19423,13 +19505,13 @@
         <v>231</v>
       </c>
       <c r="F234" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H234" s="3">
         <v>231</v>
       </c>
       <c r="I234" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J234" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19451,16 +19533,16 @@
         <v>232</v>
       </c>
       <c r="F235" s="7" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G235" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H235" s="3">
         <v>232</v>
       </c>
       <c r="I235" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J235" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19482,16 +19564,16 @@
         <v>233</v>
       </c>
       <c r="F236" s="7" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G236" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H236" s="3">
         <v>233</v>
       </c>
       <c r="I236" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J236" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19513,13 +19595,13 @@
         <v>234</v>
       </c>
       <c r="F237" s="7" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H237" s="3">
         <v>234</v>
       </c>
       <c r="I237" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J237" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19541,16 +19623,16 @@
         <v>235</v>
       </c>
       <c r="F238" s="7" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G238" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H238" s="3">
         <v>235</v>
       </c>
       <c r="I238" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="J238" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19572,16 +19654,16 @@
         <v>236</v>
       </c>
       <c r="F239" s="7" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G239" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H239" s="3">
         <v>236</v>
       </c>
       <c r="I239" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="J239" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19603,13 +19685,13 @@
         <v>237</v>
       </c>
       <c r="F240" s="7" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H240" s="3">
         <v>237</v>
       </c>
       <c r="I240" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J240" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19631,16 +19713,16 @@
         <v>238</v>
       </c>
       <c r="F241" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G241" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H241" s="3">
         <v>238</v>
       </c>
       <c r="I241" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J241" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19662,16 +19744,16 @@
         <v>239</v>
       </c>
       <c r="F242" s="7" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G242" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H242" s="3">
         <v>239</v>
       </c>
       <c r="I242" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="J242" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19693,13 +19775,13 @@
         <v>240</v>
       </c>
       <c r="F243" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H243" s="3">
         <v>240</v>
       </c>
       <c r="I243" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J243" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19711,7 +19793,7 @@
         <v>241</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C244" t="b">
         <f t="shared" si="6"/>
@@ -19721,16 +19803,16 @@
         <v>241</v>
       </c>
       <c r="F244" s="7" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G244" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H244" s="3">
         <v>241</v>
       </c>
       <c r="I244" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="J244" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19742,7 +19824,7 @@
         <v>242</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C245" t="b">
         <f t="shared" si="6"/>
@@ -19752,16 +19834,16 @@
         <v>242</v>
       </c>
       <c r="F245" s="7" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="G245" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H245" s="3">
         <v>242</v>
       </c>
       <c r="I245" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J245" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19773,7 +19855,7 @@
         <v>243</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C246" t="b">
         <f t="shared" si="6"/>
@@ -19783,13 +19865,13 @@
         <v>243</v>
       </c>
       <c r="F246" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H246" s="3">
         <v>243</v>
       </c>
       <c r="I246" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="J246" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19801,7 +19883,7 @@
         <v>244</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C247" t="b">
         <f t="shared" si="6"/>
@@ -19811,16 +19893,16 @@
         <v>244</v>
       </c>
       <c r="F247" s="7" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G247" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H247" s="3">
         <v>244</v>
       </c>
       <c r="I247" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="J247" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19832,20 +19914,20 @@
         <v>245</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C248" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G248" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H248" s="3">
         <v>245</v>
       </c>
       <c r="I248" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J248" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19857,7 +19939,7 @@
         <v>246</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C249" t="b">
         <f t="shared" si="6"/>
@@ -19867,7 +19949,7 @@
         <v>246</v>
       </c>
       <c r="I249" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J249" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19879,20 +19961,20 @@
         <v>247</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C250" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G250" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H250" s="3">
         <v>247</v>
       </c>
       <c r="I250" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J250" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19904,20 +19986,20 @@
         <v>248</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C251" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G251" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H251" s="3">
         <v>248</v>
       </c>
       <c r="I251" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J251" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19929,7 +20011,7 @@
         <v>249</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C252" t="b">
         <f t="shared" si="6"/>
@@ -19939,7 +20021,7 @@
         <v>249</v>
       </c>
       <c r="I252" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="J252" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19951,20 +20033,20 @@
         <v>250</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C253" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G253" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H253" s="3">
         <v>250</v>
       </c>
       <c r="I253" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="J253" s="7" t="b">
         <f t="shared" si="7"/>
@@ -19976,14 +20058,14 @@
         <v>251</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C254" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G254" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
@@ -19991,7 +20073,7 @@
         <v>252</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C255" t="b">
         <f t="shared" si="6"/>
@@ -20003,14 +20085,14 @@
         <v>253</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C256" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G256" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
@@ -20018,14 +20100,14 @@
         <v>254</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C257" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G257" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
@@ -20033,7 +20115,7 @@
         <v>255</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C258" t="b">
         <f t="shared" si="6"/>
@@ -20045,14 +20127,14 @@
         <v>256</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C259" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G259" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
@@ -20060,14 +20142,14 @@
         <v>257</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C260" t="b">
-        <f t="shared" ref="C260:C323" si="8">IF(ISERROR(SEARCH(";", B260) &gt;0), FALSE, TRUE)</f>
+        <f t="shared" ref="C260:C270" si="8">IF(ISERROR(SEARCH(";", B260) &gt;0), FALSE, TRUE)</f>
         <v>0</v>
       </c>
       <c r="G260" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
@@ -20075,7 +20157,7 @@
         <v>258</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C261" t="b">
         <f t="shared" si="8"/>
@@ -20087,14 +20169,14 @@
         <v>259</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C262" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G262" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
@@ -20102,14 +20184,14 @@
         <v>260</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C263" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G263" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
@@ -20117,7 +20199,7 @@
         <v>261</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C264" t="b">
         <f t="shared" si="8"/>
@@ -20129,14 +20211,14 @@
         <v>262</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C265" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G265" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
@@ -20144,14 +20226,14 @@
         <v>263</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C266" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G266" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
@@ -20159,7 +20241,7 @@
         <v>264</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C267" t="b">
         <f t="shared" si="8"/>
@@ -20171,14 +20253,14 @@
         <v>265</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C268" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G268" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.3">
@@ -20186,14 +20268,14 @@
         <v>266</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C269" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G269" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.3">
@@ -20201,7 +20283,7 @@
         <v>267</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C270" t="b">
         <f t="shared" si="8"/>
@@ -20210,90 +20292,90 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G271" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G272" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="274" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G274" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="275" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G275" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="277" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G277" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="278" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G278" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="280" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G280" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="281" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G281" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="283" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G283" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="284" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G284" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="286" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G286" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="287" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G287" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="289" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G289" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="290" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G290" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="292" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G292" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="293" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G293" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J259:J1048576 J257 J1:J253">
-    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="5" priority="12" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="13" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="4" priority="13" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",J1)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -20308,10 +20390,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",M17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",M17)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EB116D-A16D-40B1-9EA8-34F2641A1F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7FA6C8-39A8-4E6D-BCC1-47AA0E9830C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4396" uniqueCount="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4567" uniqueCount="1215">
   <si>
     <t>Number</t>
   </si>
@@ -4171,6 +4171,3489 @@
         <charset val="238"/>
       </rPr>
       <t> 7, no. 1 (2007).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Salehi-Isfahani, Djavad, Insan Tunali, and Ragui Assaad. "A comparative study of returns to education of urban men in Egypt, Iran, and Turkey." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Middle East Development Journal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 1, no. 2 (2009): 145-187.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Warunsiri, Sasiwimon, and Robert McNown. "The returns to education in Thailand: A pseudo-panel approach." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>World Development</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 38, no. 11 (2010): 1616-1625.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mendiratta, Priti, and Yamini Gupt. "Private returns to education in India by gender and location: A Pseudo-Panel Approach." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Arthaniti-Journal of Economic Theory and Practice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 12, no. 1-2 (2013): 48-69.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Botchorishvili, Vladimer. "Private returns to education in Georgia." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Economics Education and Research Consortium, National University, Kyir-Mohyla Academy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> (2007).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Riddell, W. Craig. "The social benefits of education: new evidence on an old question." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Taking Public Universities Seriously</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> (2005): 138-163.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Wolfe, Barbara L., and Robert H. Haveman. "Social and nonmarket benefits from education in an advanced economy." In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Conference series-federal reserve bank of Boston</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>, vol. 47, pp. 97-131. Federal Reserve Bank of Boston; 1998, 2002.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Lobo, Bento J., and Lisa A. Burke-Smalley. "An empirical investigation of the financial value of a college degree." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Education Economics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 26, no. 1 (2018): 78-92.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Gebel, Michael, and Guido Heineck. "Returns to education in the life course." In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Research handbook on the sociology of education</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>. Edward Elgar Publishing, 2019.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Aromolaran, Adebayo B. "Estimates of Mincerian returns to schooling in Nigeria." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Oxford Development Studies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 34, no. 2 (2006): 265-292.</t>
+    </r>
+  </si>
+  <si>
+    <t>Jamal, Haroon. "Private returns to education in Pakistan: a statistical investigation." (2015).</t>
+  </si>
+  <si>
+    <r>
+      <t>D'Amato, Marcello, and Dilip Mookherjee. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Educational signaling, credit constraints and inequality dynamics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>. Boston Univ., Department of Economics, Inst. for Economic Development, 2012.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fleisher, Belton M., Yifan Hu, Haizheng Li, and Seonghoon Kim. "Economic transition, higher education and worker productivity in China." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Journal of Development Economics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 94, no. 1 (2011): 86-94.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Girma, Sourafel, and Abbi Kedir. "Heterogeneity in returns to schooling: Econometric evidence from Ethiopia." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>The Journal of Development Studies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 41, no. 8 (2005): 1405-1416.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sabates, Ricardo, Yiran Vicky Zhao, Rafael Mitchell, and Sonia Ilie. "Understanding the external social benefits of education in Ethiopia: A contextual analysis using Young Lives." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Journal of Education Finance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 47, no. 1 (2021): 45-70.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bils, Mark, and Peter J. Klenow. "Does schooling cause growth?." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>American economic review</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 90, no. 5 (2000): 1160-1183.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Chanis, Stefanos, Konstantinos Eleftheriou, Stamatina Hadjidema, and Vasileios Katavelis. "Tell me who your co-worker is and I will tell you how much you earn: human capital spillovers in the Greek health sector." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Journal of Education and Work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 34, no. 2 (2021): 128-142.</t>
+    </r>
+  </si>
+  <si>
+    <t>Krueger, Alan B., and Mikael Lindahl. "Education for Growth in Sweden and the World." (1999).</t>
+  </si>
+  <si>
+    <r>
+      <t>Barouni, Mahdi, and Stijn Broecke. "The returns to education in Africa: some new estimates." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>The Journal of Development Studies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 50, no. 12 (2014): 1593-1613.</t>
+    </r>
+  </si>
+  <si>
+    <t>IRRELEVANT DATA</t>
+  </si>
+  <si>
+    <r>
+      <t>De Brauw, Alan, and Scott Rozelle. "Reconciling the returns to education in off‐farm wage employment in rural China." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Review of Development Economics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 12, no. 1 (2008): 57-71.</t>
+    </r>
+  </si>
+  <si>
+    <t>Number by relevancy</t>
+  </si>
+  <si>
+    <r>
+      <t>Gibson, John, and Osaiasi Koliniusi Fatai. "Subsidies, selectivity and the returns to education in urban Papua New Guinea." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Economics of Education Review</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 25, no. 2 (2006): 133-146.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Krueger, Alan B., and Mikael Lindahl. "Education for growth: Why and for whom?." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Journal of economic literature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 39, no. 4 (2001): 1101-1136.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Gabe, Todd M. "Knowledge and earnings." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Journal of Regional Science</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 49, no. 3 (2009): 439-457.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Paweenawat, Sasiwimon Warunsiri, and Jessica Vechbanyongratana. "Private returns to STEM education in Thailand." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Science</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 100 (2015): 150-000.</t>
+    </r>
+  </si>
+  <si>
+    <t>RIDDELL, W. CRAIG. "New Evidence on an Old Question."</t>
+  </si>
+  <si>
+    <r>
+      <t>Vasudeva Dutta, Puja. "Returns to education: New evidence for India, 1983–1999." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Education Economics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 14, no. 4 (2006): 431-451.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Gerochi, Hope A. "Returns to education in the Philippine." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Philippine Review of Economics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 39, no. 2 (2010): 37-72.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hawley, Joshua D. "Changing returns to education in times of prosperity and crisis, Thailand 1985–1998." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Economics of Education Review</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 23, no. 3 (2004): 273-286.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Boarini, Romina, and Hubert Strauss. "What is the private return to tertiary education? New evidence from 21 OECD countries." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>OECD Journal: Economic Studies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 2010 (2010).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sohn, Kitae. "Monetary and Nonmonetary Returns to Education in I ndonesia." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>The Developing Economies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 51, no. 1 (2013): 34-59.</t>
+    </r>
+  </si>
+  <si>
+    <t>Harmon, Colm, Hessel Oosterbeek, and Ian Walker. "The returns to education: A review of evidence, issues and deficiencies in the literature." (2002).</t>
+  </si>
+  <si>
+    <t>Lillo, Adelaida. "THE PRIVATE RETURNS TO TOURIST HUMAN CAPITAL: ENDOGENEITY OF SCHOOLING AND RETURNS HETEROGENEITY."</t>
+  </si>
+  <si>
+    <r>
+      <t>Sauler, Mariel Monica, and Maria Francesca Tomaliwan. "Returns to Education in the Philippines." In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>DLSU Research Congress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>. 2017.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Borooah, Vani K., and John Mangan. "Education, occupational class, and unemployment in the regions of the United Kingdom." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Education Economics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 16, no. 4 (2008): 351-370.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tansel, Aysit. "Private returns to investment in education in MENA countries." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>The Routledge Handbook on the Middle East Economy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> (2021): 75-91.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cegolon, Andrea. "The private rate of return to education analysis." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Nuova Secondary Ricerca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 4 (2014).</t>
+    </r>
+  </si>
+  <si>
+    <t>AGYEMAN, ADELAIDE. "Estimating the Effect of Education on Earnings in Ghana: Models for Twins." PhD diss., University of Cape Coast, 2012.</t>
+  </si>
+  <si>
+    <r>
+      <t>Zhong, Hai. "Returns to higher education in China: What is the role of college quality?." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>China Economic Review</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 22, no. 2 (2011): 260-275.</t>
+    </r>
+  </si>
+  <si>
+    <t>Lang, Kevin. "participants at seminars at MIT and the NBER for helpful comments and criticisms. This paper is part of NBER's research program in Labor Studies. Any opinions expressed are." (1992).</t>
+  </si>
+  <si>
+    <r>
+      <t>LEWIN, KEITH M. "and used to guide action." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>The Elgar Companion to Development Studies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> (2006): 151.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bakis, Ozan, Nurhan Davutyan, Haluk Levent, and Sezgin Polat. "Social returns to higher education in Turkey: a quantile regression approach." In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Shock Vulnerability and Therapy, Economic Research Forum 16th Annual Conference</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>. 2009.</t>
+    </r>
+  </si>
+  <si>
+    <t>Barouni, Mahdi, and Stijn Broecke. "Graduate employment and the returns to higher education in Africa." (2012).</t>
+  </si>
+  <si>
+    <r>
+      <t>Krafft, Caroline. "Is school the best route to skills? Returns to vocational school and vocational skills in Egypt." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>The Journal of Development Studies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 54, no. 7 (2018): 1100-1120.</t>
+    </r>
+  </si>
+  <si>
+    <t>FABUNMI, AB. "DEMOGRAPHIC FACTORS AS DETERMINANTS OF PRIVATE RETURNS TO INVESTMENT IN EDUCATION AMONG NIGERIAN WORKERS." PhD diss., 2012.</t>
+  </si>
+  <si>
+    <r>
+      <t>Walker, Ian, and Yu Zhu. "The college wage premium and the expansion of higher education in the UK." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>The Scandinavian Journal of Economics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 110, no. 4 (2008): 695-709.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>McMahon, Walter W. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Higher learning, greater good: The private and social benefits of higher education</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>. JHU Press, 2009.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Desalegn, Yonatan. "Returns to education in Ethiopia." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Economic Growth and Development in Ethiopia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> (2018): 199-226.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Wambugu, Anthony. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Essays on earnings and human capital in Kenya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>. No. 124. 2003.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tatlah, Ijaz Ahmad, Farah Naz, and Muhammad Zafar Iqbal. "Role of human capital and education in economic growth." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>International journal of academic research</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 3, no. 2 (2011).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Acemoglu, Daron, and Joshua Angrist. "How large are human-capital externalities? Evidence from compulsory schooling laws." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>NBER macroeconomics annual</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 15 (2000): 9-59.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Aryal, Gaurab, Manudeep Bhuller, and Fabian Lange. "Signaling and employer learning with instruments." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>American Economic Review</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 112, no. 5 (2022): 1669-1702.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Jones, Patricia. "Are educated workers really more productive?." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Journal of development economics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 64, no. 1 (2001): 57-79.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Baffour, Priscilla Twumasi. "Education and earnings inequality in Ghana." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Modern Economy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 7, no. 04 (2016): 456.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bakis, Ozan, Nurhan Davutyan, Haluk Levent, and Sezgin Polat. "Quantile estimates for social returns to education in Turkey: 2006–2009." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Middle East Development Journal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 5, no. 3 (2013): 1350017-1.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Campaniello, Nadia, Rowena Gray, and Giovanni Mastrobuoni. "Returns to education in criminal organizations: Did going to college help Michael Corleone?." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Economics of Education Review</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 54 (2016): 242-258.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Joseph, Cornel. "Education and Labour Market Earnings in Low Income Countries: Empirical Evidence for Tanzania." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Tanzania Journal for Population studies and Development</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 26, no. 2 (2020).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dumauli, Magdalena Triasih. "Estimate of the private return on education in Indonesia: Evidence from sibling data." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>International Journal of Educational Development</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 42 (2015): 14-24.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Griliches, Zvi. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>The changing economics of education</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>. Palgrave Macmillan UK, 1976.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fersterer, Josef, Jörn‐Steffen Pischke, and Rudolf Winter‐Ebmer. "Returns to apprenticeship training in Austria: Evidence from failed firms." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>The Scandinavian Journal of Economics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 110, no. 4 (2008): 733-753.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sinning, Mathias. "Gender differences in costs and returns to higher education." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>AND GENDER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> (2017): 227.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tobias, Justin L. "Are Returns to Schooling Concentrated Among the Most Able? A Semiparametric Analysis of the Ability–earnings Relationships 1." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Oxford Bulletin of Economics and Statistics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 65, no. 1 (2003): 1-29.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Purnastuti, Losina. "Instrumenting Education and Returns to Schooling in Indonesia." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Jurnal Economia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 9, no. 2 (2013): 166-174.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fasih, Tazeen, Geeta Gandhi Kingdon, Harry A. Patrinos, Chris Sakellariou, and Måns Söderbom. "Heterogeneous returns to education in the labor market." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>World Bank Policy Research Working Paper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 6170 (2012).</t>
+    </r>
+  </si>
+  <si>
+    <t>Campaniello, Nadia, Rowena Gray, and Giovanni Mastrobuoni. "Returns to Education and Experience in Criminal Organizations: Evidence from the Italian-American Mafia." (2015).</t>
+  </si>
+  <si>
+    <r>
+      <t>Arkes, Jeremy. "Using unemployment rates as instruments to estimate returns to schooling." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Southern Economic Journal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 76, no. 3 (2010): 711-722.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Guo, Lijia, Jiashun Huang, and You Zhang. "Education development in China: Education return, quality, and equity." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Sustainability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 11, no. 13 (2019): 3750.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fischer, Benjamin, and Dominik Hügle. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>The private and fiscal returns to higher education: a simulation approach for a young German cohort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>. No. 2020/21. Discussion Paper, 2020.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Glewwe, Paul. "The relevance of standard estimates of rates of return to schooling for education policy: A critical assessment." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Journal of Development economics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 51, no. 2 (1996): 267-290.</t>
+    </r>
+  </si>
+  <si>
+    <t>Wang, Xiaojun, Belton M. Fleisher, Haizheng Li, and Li Shi. "Access to higher education and inequality: The Chinese experiment." (2007).</t>
+  </si>
+  <si>
+    <r>
+      <t>Björklund, Anders, and Christian Kjellström. "Estimating the return to investments in education: how useful is the standard Mincer equation?." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Economics of Education Review</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 21, no. 3 (2002): 195-210.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Walker, Ian. "Heterogeneity in the returns to higher education." In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>The Economics of Education</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>, pp. 75-90. Academic Press, 2020.</t>
+    </r>
+  </si>
+  <si>
+    <t>Blundell, Richard, Lorraine Dearden, and Barbara Sianesi. "Estimating the returns to education: Models, methods and results." (2001).</t>
+  </si>
+  <si>
+    <r>
+      <t>Ayyash, Mohsen, Tareq Sadeq, and Siok Kun Sek. "Returns to schooling in Palestine: a Bayesian approach." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>International Journal of Education Economics and Development</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 11, no. 1 (2020): 37-57.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sinning, Mathias. "Tax, Social Policy and Gender."</t>
+  </si>
+  <si>
+    <r>
+      <t>McMahon, Walter W. "Conceptual framework for the analysis of the social benefits of lifelong learnings." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Education economics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 6, no. 3 (1998): 309-346.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Strauss, Hubert, and Christine De la Maisonneuve. "The wage premium on tertiary education: New estimates for 21 OECD countries." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>OECD Journal: Economic Studies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 2009 (2009): 183-210.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Livanos, Ilias, and Konstantinos Pouliakas. "Wage returns to university disciplines in Greece: are Greek higher education degrees Trojan Horses?." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Education Economics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 19, no. 4 (2011): 411-445.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ruiz, Antonio Caparrós, Lucía Navarro Gómez, and Mario Rueda Narváez. "Endogenous wage determinants and returns to education in Spain." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>International Journal of Manpower</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> (2010).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Oliver, Josep, Xavier Ramos, and José Luis Raymond. "Not All University Degrees Yield the Same Return: Private and Social Returns to Higher Education for Males in Spain." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Departament d'Economia Aplicada</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> (1999).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mazrekaj, Deni, Kristof De Witte, and Sarah Vansteenkiste. "Labour market consequences of a high school diploma." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Applied Economics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 51, no. 21 (2019): 2313-2325.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Li, Haizheng, and Aselia Urmanbetova. "14 The effect of education and wage determination in China’s rural industry." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Private Enterprises and China’s Economic Development</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> (2007): 235.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sakellariou, Christos, and Zheng Fang. "Returns to schooling for urban and migrant workers in." (2015).</t>
+  </si>
+  <si>
+    <r>
+      <t>Behrman, Jere R., Nancy Birdsall, and Miguel Székely. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Intergenerational mobility in Latin America: deeper markets and better schools make a difference</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>. Vol. 3. Carnegie Endowment for International Peace, Global Policy Program, 1999.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hällsten, Martin. "Is it ever too late to study? The economic returns on late tertiary degrees in Sweden." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Economics of Education Review</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 31, no. 1 (2012): 179-194.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GRILICHES, Z. "4 The Changing Economics of." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Resource Allocation and Economic Policy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> (1976): 35.</t>
+    </r>
+  </si>
+  <si>
+    <t>Simeon, Nadia, Nadine Isidore, and Tommy Descartes. "Returns to Schooling in Saint Lucia using a Mincerian Earning Framework." (2020).</t>
+  </si>
+  <si>
+    <t>Frazer, Garth. "Firm Productivity, Worker Ability, and Returns to Education."</t>
+  </si>
+  <si>
+    <r>
+      <t>Doan, Tinh, Lyndall Strazdins, and Liana Leach. "Cost of poor health to the labour market returns to education in Australia: another pathway for socio-economic inequality." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>The European Journal of Health Economics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 21 (2020): 635-648.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Stenberg, Anders, and Olle Westerlund. "Flexibility at a cost–should governments stimulate tertiary education for adults?." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>The Journal of the Economics of Ageing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 7 (2016): 69-86.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>van Winden, Pieter, and Anne Reitsma. "Human Capital and Productivity: A Labour Market Perspective." In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Fostering Productivity: Patterns, Determinants and Policy Implications</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>, vol. 263, pp. 115-139. Emerald Group Publishing Limited, 2004.</t>
+    </r>
+  </si>
+  <si>
+    <t>Bergman, Emil, and Carl-Gustav Schöön. "Returns to schooling and potential signalling effects: Estimates based on ISSP data on Sweden." (2018).</t>
+  </si>
+  <si>
+    <t>Schöön, Carl-Gustav, and Emil Bergman. "Returns to schooling and potential signalling effects: Estimates based on ISSP data on Sweden." (2018).</t>
+  </si>
+  <si>
+    <r>
+      <t>Brown, Sarah, and John G. Sessions. "Signalling and screening." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>International handbook on the economics of education</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 9 (2004): 58-100.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>De Brauw, Alan, and Scott Rozelle. "12 Returns to education in rural China." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Education and reform in China</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> (2007): 207.</t>
+    </r>
+  </si>
+  <si>
+    <t>Boarini, Romina, and Hubert Strauss. "The private internal rates of return to tertiary education: new estimates for 21 OECD countries." (2007).</t>
+  </si>
+  <si>
+    <r>
+      <t>Davies, Jim. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Empirical evidence on human capital externalities</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>. Department of Finance, 2003.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ramos Morilla, Xavier, José Luis Raymond Bara, and Josep Oliver i Alonso. "Not all university degrees yield the same return: private and social returns to higher education for males in Spain." (1999).</t>
+  </si>
+  <si>
+    <r>
+      <t>Devoto, Florencia, Esther Duflo, Pascaline Dupas, William Parienté, and Vincent Pons. "Happiness on tap: Piped water adoption in urban Morocco." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>American Economic Journal: Economic Policy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 4, no. 4 (2012): 68-99.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>McMahon, Walter W. "Nonmonetary Private Returns of Higher Education." In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>The International Encyclopedia of Higher Education Systems and Institutions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>, pp. 2103-2108. Dordrecht: Springer Netherlands, 2020.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Psacharopoulos, George, and Harry Anthony Patrinos. "Human capital and rates of return." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>International handbook on the economics of education</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> (2004): 1-57.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Guifu, C. H. E. N., and Shigeyuki Hamori. "Economic returns to schooling in urban China: OLS and the instrumental variables approach." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>China Economic Review</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 20, no. 2 (2009): 143-152.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Teixeira, Pedro Nuno. "Gary Becker’s early work on human capital–collaborations and distinctiveness." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>IZA Journal of Labor Economics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 3 (2014): 1-20.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mishra, Vinod, and Russell Smyth. "Returns to Education in China’s Urban Labour Market: Evidence from Matched Employer-Employee Data for Shanghai." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Urban China in the New Era: Market Reforms, Current State, and the Road Forward</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> (2014): 169-183.</t>
+    </r>
+  </si>
+  <si>
+    <t>Krishnan, Pramila, Stefan Dercon, and T. Selassie. "The urban labour market during structural adjustment: Ethiopia 1990-1997." (1998).</t>
+  </si>
+  <si>
+    <t>Grootes, Pieter Brian. "The labour market drop-out rate: a new approach to estimating the returns to Government investment in higher education: the case for marine science in South Africa." PhD diss., Rhodes University, 2004.</t>
+  </si>
+  <si>
+    <r>
+      <t>Van Praag, Mirjam, Arjen van Witteloostuijn, and Justin van der Sluis. "The higher returns to formal education for entrepreneurs versus employees." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Small Business Economics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 40 (2013): 375-396.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Morgan, Stephen L., and William R. Morgan. "Education and earnings in Nigeria, 1974-1992." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Research in Social Stratification and Mobility</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 16 (1998): 3-26.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sousa, Sandra, Miguel Portela, and Carla Sá. "Characterization of returns to education in Portugal: 1986–2009." In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>4th Linked Employer-Employee data (LEED) Workshop, Instituto Superior Técnico, Lisbon, Portugal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>. 2015.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Kolstad, Ivar, and Arne Wiig. "Education and entrepreneurial success." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Small Business Economics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 44 (2015): 783-796.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Boothby, Daniel, and Geoff Rowe. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Rate of Return to Education: A Distributional Analysis Using the LifePaths Model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>. Human Resources Development Canada. Service Canada, Ottawa, ON K1A 0J9, Canada, 2002.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Britton, Jack, Lorraine Dearden, Neil Shephard, and Anna Vignoles. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>How English domiciled graduate earnings vary with gender, institution attended, subject and socio-economic background</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>. No. W16/06. IFS working papers, 2016.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Blanden, Jo, Mirko Draca, and Steven McIntosh. "The Economic and Social Returns to FE Colleges." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>A report for the Department for Education and Skills</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> (2005).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fang, Hai, Karen N. Eggleston, John A. Rizzo, Scott Rozelle, and Richard J. Zeckhauser. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>The returns to education in China: Evidence from the 1986 compulsory education law</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>. No. w18189. National Bureau of Economic Research, 2012.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sanroman, Graciela. "Returns to schooling in Uruguay." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Documento de Trabajo/FCS-DE; 14/06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> (2006).</t>
+    </r>
+  </si>
+  <si>
+    <t>Strauss, Hubert, and Christine de La Maisonneuve. "The wage premium on tertiary education: New estimates for 21 OECD countries." (2007).</t>
+  </si>
+  <si>
+    <t>Gronau, Reuben. "Zvi Griliches' contribution to the theory of human capital." (2003).</t>
+  </si>
+  <si>
+    <r>
+      <t>Wincenciak, Leszek, Gabriela Grotkowska, and Tomasz Gajderowicz. "Returns to education in Central and Eastern European transition economies: The role of macroeconomic context." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Research in Comparative and International Education</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 17, no. 4 (2022): 655-676.</t>
+    </r>
+  </si>
+  <si>
+    <t>Lundborg, Petter. "The Health Returns to Education-What Can We Learn from Twins?." (2008).</t>
+  </si>
+  <si>
+    <r>
+      <t>Changqing, Xu. "Returns to education and annual income gaps updated in Israel: a quantile regression approach." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>International Journal of Sustainable Economy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 5, no. 1 (2013): 76-103.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Riddell, William Craig. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>The impact of education on economic and social outcomes: An overview of recent advances in economics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>. Canadian Policy Research Networks, 2006.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mastromarco, Camilla, Vito Peragine, and Laura Serlenga. "Return to Education and Income Inequality in Europe and the US." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Amsterdam: Amsterdam Institute for Advanced Labor Studies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> (2011).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Asplund, Rita. "Earnings and human capital: evidence for Finland." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Returns to Human Capital in Europe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> (1999).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>VOGTENHUBER, STEFAN. "The Benefits of VET." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>National VET Research Report Austria. Vienna: Refer Net Austria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> (2009).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cohn, Elchanan, and John T. Addison. "The economic returns to lifelong learning in OECD countries." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Education economics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 6, no. 3 (1998): 253-307.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Campos, M., and Hugo Reis. "Revisiting the returns to schooling in the Portuguese economy." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Banco de Portugal Economic Studies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 3, no. 2 (2017): 1-28.</t>
+    </r>
+  </si>
+  <si>
+    <t>Hermannsson, Kristinn. "Economic impact of education: Evidence and relevance." (2016): 873-893.</t>
+  </si>
+  <si>
+    <r>
+      <t>Miller, Paul W., Charles Mulvey, and Nick Martin. "A test of the sorting model of education in Australia." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Economics of Education Review</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 23, no. 5 (2004): 473-482.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Nakamuro, Makiko, and Tomohiko Inui. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>The returns to college quality in Japan: Does your college choice affect your earnings?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>. Vol. 306. ESRI Discussion Paper Series, 2013.</t>
+    </r>
+  </si>
+  <si>
+    <t>Purnastuti, Losina. "Returns to Education and Human Capital Externalities: Empirical Evidence from Indonesia." PhD diss., Curtin University, 2011.</t>
+  </si>
+  <si>
+    <t>Sanmukhiya, Chintamanee. "Social returns to education in the Republic of Mauritius." PhD diss., Institute of Education, University of London, 2007.</t>
+  </si>
+  <si>
+    <r>
+      <t>Mishra, Vinod, and Russell Smyth. "Returns to schooling in urban China: New evidence using heteroskedasticity restrictions to obtain identification without exclusion restrictions." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Department of Economics, Monash University, Discussion Paper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 33 (2012): 12.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Krafft, Caroline, Zea Branson, and Taylor Flak. "What’s the value of a degree? Evidence from Egypt, Jordan and Tunisia." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Compare: A Journal of Comparative and International Education</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> (2019).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Corliss, Michael, Phil Lewis, and Anne Daly. "The rate of return to higher education over the business cycle." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Australian Journal of Labour Economics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 16, no. 2 (2013): 219-236.</t>
+    </r>
+  </si>
+  <si>
+    <t>Patrinos, Harry Anthony, George Psacharopoulos, and Aysit Tansel. "Private and Social Returns to Investment in Education." (2020).</t>
+  </si>
+  <si>
+    <t>Casado-Díaz, José M., and Adelaida Lillo-Bañuls. "How profitable is to study in Spain? An empirical insight using a new source of information." (2005).</t>
+  </si>
+  <si>
+    <r>
+      <t>Peters, Austen, Alfred M. Dockery, and Sherry Bawa. "Course non-completion and multiple qualifications: re-estimating the returns to education in Australia." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Australian Journal of Labour Economics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 25, no. 1 (2022): 55-80.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tien, Nguyen Dung. "An analysis of labour market returns to education in Vietnam: evidence from the national labour force survey 2012." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>International Training Centre of the International Labour Organization Working Paper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 3 (2014): 1-31.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Singhari, Smrutirekha, and S. Madheswaran. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>The changing Rates of Return to Education in India: Evidence from NSS data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>. Bangalore: Institute for Social and Economic Change, 2016.</t>
+    </r>
+  </si>
+  <si>
+    <t>Natalie, Leschenko. "RETURNS TO EDUCATION CASE OF UKRAINE." PhD diss., National University, 2001.</t>
+  </si>
+  <si>
+    <r>
+      <t>Sakellariou, Chris, and Zheng Fang. "Returns to schooling for urban and migrant workers in China: a detailed investigation." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Applied Economics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 48, no. 8 (2016): 684-700.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Choi, Daeheon, Chune Young Chung, and Ha Truong. "Return on education in two major Vietnamese cities." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Sustainability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 11, no. 18 (2019): 4903.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sloane, Peter, Nigel O’Leary, Philip Murphy, and David Blackaby. "Welsh Assembly Government." (2003).</t>
+  </si>
+  <si>
+    <r>
+      <t>Simkovic, Michael, and Frank McIntyre. "The economic value of a law degree." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>The Journal of Legal Studies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 43, no. 2 (2014): 249-289.</t>
+    </r>
+  </si>
+  <si>
+    <t>Bhuller, Manudeep Singh. "Educational Wage Returns in Norway: A Sector Selection Model with Endogenous Schooling." Master's thesis, 2008.</t>
+  </si>
+  <si>
+    <r>
+      <t>Griliches, Zvi. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>R&amp;D, education, and productivity: A retrospective</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>. Harvard University Press, 2000.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Kuepie, Mathias, Christophe J. Nordman, and François Roubaud. "Education and labour market outcomes in Sub-Saharan West Africa." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Paris: DIAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> (2006).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fleischhauer, Kai-Joseph. "A review of human capital theory: Microeconomics." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>University of St. Gallen, Department of Economics Discussion Paper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 2007-01 (2007).</t>
+    </r>
+  </si>
+  <si>
+    <t>Wößmann, Ludger. "Returns to education in Europe." (2003): 348-376.</t>
+  </si>
+  <si>
+    <t>Xie, Yaping. "Returns to Educational Investment in Canada." (2004).</t>
+  </si>
+  <si>
+    <t>Schoellman, Todd. "The Causes and Consequences of Cross-Country Differences in Schooling Attainment." (2008).</t>
+  </si>
+  <si>
+    <r>
+      <t>Aakvik, Arild, Kjell G. Salvanes, and Kjell Vaage. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Measuring the effect of a school reform on educational attainment and earnings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>. mimeo, Norwegian School of Economics and Business Administration, Bergen, 2001.</t>
+    </r>
+  </si>
+  <si>
+    <t>Giles, John, Albert Park, and Meiyan Wang. "The Great Proletarian Cultural Revolution, Disruptions to Schooling, and the Returns to Schooling in Urban China." (2008).</t>
+  </si>
+  <si>
+    <r>
+      <t>Plug, Erik, and Wim Vijverberg. "Does family income matter for schooling outcomes? Using adoptees as a natural experiment." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>The Economic Journal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 115, no. 506 (2005): 879-906.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fossen, Frank M., and Tobias JM Büttner. "The returns to education for opportunity entrepreneurs, necessity entrepreneurs, and paid employees." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Economics of Education Review</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 37 (2013): 66-84.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Vatta, Kamal, Takahiro Sato, and Garima Taneja. "Indian labour markets and returns to education." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Millennial Asia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 7, no. 2 (2016): 107-130.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Akhmedjonov, Alisher. "Do higher levels of education raise earnings in post-reform Russia?." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Eastern European Economics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 49, no. 4 (2011): 47-60.</t>
+    </r>
+  </si>
+  <si>
+    <t>Halyna, Herasym. "Private investment in human capital: effect on earnings in Ukraine." (2004).</t>
+  </si>
+  <si>
+    <t>Aakviky, Arild, Kjell G. Salvanesz, and Kjell Vaagex. "Measuring the E¤ ect of a School Reform on Educational Attainment and Earnings." (2001).</t>
+  </si>
+  <si>
+    <r>
+      <t>KARATAŞ, Hacı Mevlüt. "The returns to formal schooling in Turkey using pseudo-panel data." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Giresun Üniversitesi İktisadi ve İdari Bilimler Dergisi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 4, no. 2 (2018): 13-33.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hanushek, Eric A., and Ludger Wößmann. "The role of education quality for economic growth." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>World Bank policy research working paper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 4122 (2007).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hanushek, Eric A., and Javier A. Luque. "Efficiency and equity in schools around the world." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Economics of education Review</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 22, no. 5 (2003): 481-502.</t>
+    </r>
+  </si>
+  <si>
+    <t>CONTINGENT, EXTENDING INCOME, and TRAINING SECTOR. "HECS FOR TAFE: THE CASE FOR." (2007).</t>
+  </si>
+  <si>
+    <r>
+      <t>Fasih, Tazeen. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Linking education policy to labor market outcomes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>. World Bank Publications, 2008.</t>
+    </r>
+  </si>
+  <si>
+    <t>Birdsall, Nancy, Jere Behrman, and Miguel Székely. "Intergenerational schooling mobility and macro conditions and schooling policies in Latin America." (1998).</t>
+  </si>
+  <si>
+    <r>
+      <t>Abbas, Qaisar, and James Foreman-Peck. "The Mincer human capital model in Pakistan: Implications for education policy." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>South Asia Economic Journal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 9, no. 2 (2008): 435-462.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fiaschi, Davide, and Cecilia Gabbriellini. "Wage functions and rates of return to education in Italy." In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Fifth Meeting of the Society for the Study of Economic Inequality (ECINEQ) Bari (Italy)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>. 2013.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Kabbani, Nader, and Siba Salloum. "Implications of financing higher education for access and equity: The case of Syria." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Prospects</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 41, no. 1 (2011): 97-113.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Jurajda, Štěpán. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Czech Returns to Schooling: Does the Short Supply of College Education Bite?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>. CERGE-EI, 2003.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ozougwu, Ben. "Learning and earning in Nigeria: who works for less?." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>International Journal of Education Economics and Development</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 11, no. 3 (2020): 244-259.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Schoellman, Todd. "Measuring and accounting for cross-country differences in education quality." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Available at SSRN 1329968</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> (2009).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Foltz, Jeremy D., and Ousman Gajigo. "Assessing the Returns to Education in the Gambia." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Journal of African Economies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> 21, no. 4 (2012): 580-608.</t>
     </r>
   </si>
 </sst>
@@ -4505,7 +7988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4540,7 +8023,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4904,8 +8386,8 @@
   <dimension ref="A1:O601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H50" sqref="H50"/>
+      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G234" sqref="G234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4921,46 +8403,46 @@
     <col min="10" max="10" width="6.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="34" t="s">
+    <row r="1" spans="1:15" s="35" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="34" t="s">
         <v>974</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="34" t="s">
         <v>970</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="34" t="s">
         <v>976</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="36" t="s">
         <v>963</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="36" t="s">
         <v>991</v>
       </c>
-      <c r="O1" s="38">
+      <c r="O1" s="37">
         <f>COUNTIFS(H2:H601, "YES", F2:F601, "&lt;&gt;")</f>
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -4987,9 +8469,6 @@
       </c>
       <c r="I2" t="s">
         <v>962</v>
-      </c>
-      <c r="L2" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -5008,9 +8487,6 @@
       <c r="I3" t="s">
         <v>962</v>
       </c>
-      <c r="L3" t="s">
-        <v>964</v>
-      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -5028,9 +8504,6 @@
       <c r="I4" t="s">
         <v>962</v>
       </c>
-      <c r="L4" t="s">
-        <v>966</v>
-      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -5049,7 +8522,7 @@
         <v>962</v>
       </c>
       <c r="L5" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -5059,17 +8532,17 @@
       <c r="F6" s="27" t="s">
         <v>981</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" t="s">
         <v>971</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" t="s">
         <v>971</v>
       </c>
       <c r="I6" t="s">
         <v>962</v>
       </c>
       <c r="L6" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -5088,6 +8561,9 @@
       <c r="I7" t="s">
         <v>962</v>
       </c>
+      <c r="L7" t="s">
+        <v>966</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -5105,6 +8581,9 @@
       <c r="I8" t="s">
         <v>962</v>
       </c>
+      <c r="L8" t="s">
+        <v>967</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -5122,6 +8601,9 @@
       <c r="I9" t="s">
         <v>962</v>
       </c>
+      <c r="L9" t="s">
+        <v>968</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -5399,7 +8881,7 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="F26" s="28" t="s">
         <v>1005</v>
       </c>
       <c r="G26" t="s">
@@ -5650,23 +9132,23 @@
         <v>962</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="30">
+    <row r="41" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="29">
         <v>40</v>
       </c>
-      <c r="F41" s="31" t="s">
+      <c r="F41" s="30" t="s">
         <v>1016</v>
       </c>
-      <c r="G41" s="30" t="s">
+      <c r="G41" s="29" t="s">
         <v>980</v>
       </c>
       <c r="H41" t="s">
         <v>980</v>
       </c>
-      <c r="I41" s="30" t="s">
-        <v>962</v>
-      </c>
-      <c r="J41" s="30" t="s">
+      <c r="I41" s="29" t="s">
+        <v>962</v>
+      </c>
+      <c r="J41" s="29" t="s">
         <v>1015</v>
       </c>
     </row>
@@ -5899,10 +9381,10 @@
         <v>1036</v>
       </c>
       <c r="G55" t="s">
-        <v>971</v>
+        <v>984</v>
       </c>
       <c r="H55" t="s">
-        <v>971</v>
+        <v>984</v>
       </c>
       <c r="I55" t="s">
         <v>962</v>
@@ -6014,11 +9496,14 @@
       <c r="A62">
         <v>61</v>
       </c>
+      <c r="F62" s="27" t="s">
+        <v>1043</v>
+      </c>
       <c r="G62" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="H62" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="I62" t="s">
         <v>962</v>
@@ -6028,11 +9513,14 @@
       <c r="A63">
         <v>62</v>
       </c>
+      <c r="F63" s="27" t="s">
+        <v>1044</v>
+      </c>
       <c r="G63" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="H63" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="I63" t="s">
         <v>962</v>
@@ -6042,11 +9530,14 @@
       <c r="A64">
         <v>63</v>
       </c>
+      <c r="F64" s="27" t="s">
+        <v>1045</v>
+      </c>
       <c r="G64" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="H64" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="I64" t="s">
         <v>962</v>
@@ -6056,11 +9547,14 @@
       <c r="A65">
         <v>64</v>
       </c>
+      <c r="F65" s="27" t="s">
+        <v>1046</v>
+      </c>
       <c r="G65" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="H65" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="I65" t="s">
         <v>962</v>
@@ -6070,6 +9564,9 @@
       <c r="A66">
         <v>65</v>
       </c>
+      <c r="F66" s="27" t="s">
+        <v>1047</v>
+      </c>
       <c r="G66" t="s">
         <v>979</v>
       </c>
@@ -6084,6 +9581,9 @@
       <c r="A67">
         <v>66</v>
       </c>
+      <c r="F67" s="27" t="s">
+        <v>1048</v>
+      </c>
       <c r="G67" t="s">
         <v>979</v>
       </c>
@@ -6098,6 +9598,9 @@
       <c r="A68">
         <v>67</v>
       </c>
+      <c r="F68" s="27" t="s">
+        <v>1049</v>
+      </c>
       <c r="G68" t="s">
         <v>979</v>
       </c>
@@ -6112,6 +9615,9 @@
       <c r="A69">
         <v>68</v>
       </c>
+      <c r="F69" s="27" t="s">
+        <v>1050</v>
+      </c>
       <c r="G69" t="s">
         <v>979</v>
       </c>
@@ -6126,11 +9632,14 @@
       <c r="A70">
         <v>69</v>
       </c>
+      <c r="F70" s="27" t="s">
+        <v>1051</v>
+      </c>
       <c r="G70" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="H70" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="I70" t="s">
         <v>962</v>
@@ -6140,11 +9649,14 @@
       <c r="A71">
         <v>70</v>
       </c>
+      <c r="F71" s="27" t="s">
+        <v>1052</v>
+      </c>
       <c r="G71" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="H71" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="I71" t="s">
         <v>962</v>
@@ -6154,8 +9666,11 @@
       <c r="A72">
         <v>71</v>
       </c>
+      <c r="F72" s="27" t="s">
+        <v>1053</v>
+      </c>
       <c r="G72" t="s">
-        <v>979</v>
+        <v>995</v>
       </c>
       <c r="H72" t="s">
         <v>979</v>
@@ -6168,6 +9683,9 @@
       <c r="A73">
         <v>72</v>
       </c>
+      <c r="F73" s="27" t="s">
+        <v>1054</v>
+      </c>
       <c r="G73" t="s">
         <v>979</v>
       </c>
@@ -6182,11 +9700,14 @@
       <c r="A74">
         <v>73</v>
       </c>
+      <c r="F74" s="27" t="s">
+        <v>1055</v>
+      </c>
       <c r="G74" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="H74" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="I74" t="s">
         <v>962</v>
@@ -6196,8 +9717,11 @@
       <c r="A75">
         <v>74</v>
       </c>
+      <c r="F75" s="27" t="s">
+        <v>1056</v>
+      </c>
       <c r="G75" t="s">
-        <v>979</v>
+        <v>1002</v>
       </c>
       <c r="H75" t="s">
         <v>979</v>
@@ -6210,8 +9734,11 @@
       <c r="A76">
         <v>75</v>
       </c>
+      <c r="F76" s="27" t="s">
+        <v>1057</v>
+      </c>
       <c r="G76" t="s">
-        <v>979</v>
+        <v>1002</v>
       </c>
       <c r="H76" t="s">
         <v>979</v>
@@ -6224,11 +9751,14 @@
       <c r="A77">
         <v>76</v>
       </c>
+      <c r="F77" s="27" t="s">
+        <v>1058</v>
+      </c>
       <c r="G77" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="H77" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="I77" t="s">
         <v>962</v>
@@ -6238,8 +9768,11 @@
       <c r="A78">
         <v>77</v>
       </c>
+      <c r="F78" s="27" t="s">
+        <v>1059</v>
+      </c>
       <c r="G78" t="s">
-        <v>979</v>
+        <v>1061</v>
       </c>
       <c r="H78" t="s">
         <v>979</v>
@@ -6252,8 +9785,11 @@
       <c r="A79">
         <v>78</v>
       </c>
+      <c r="F79" s="27" t="s">
+        <v>1060</v>
+      </c>
       <c r="G79" t="s">
-        <v>979</v>
+        <v>1002</v>
       </c>
       <c r="H79" t="s">
         <v>979</v>
@@ -6266,11 +9802,14 @@
       <c r="A80">
         <v>79</v>
       </c>
+      <c r="F80" s="27" t="s">
+        <v>1062</v>
+      </c>
       <c r="G80" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="H80" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="I80" t="s">
         <v>962</v>
@@ -6280,11 +9819,14 @@
       <c r="A81">
         <v>80</v>
       </c>
+      <c r="F81" s="27" t="s">
+        <v>1064</v>
+      </c>
       <c r="G81" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="H81" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="I81" t="s">
         <v>962</v>
@@ -6294,6 +9836,9 @@
       <c r="A82">
         <v>81</v>
       </c>
+      <c r="F82" s="27" t="s">
+        <v>1065</v>
+      </c>
       <c r="G82" t="s">
         <v>979</v>
       </c>
@@ -6308,6 +9853,9 @@
       <c r="A83">
         <v>82</v>
       </c>
+      <c r="F83" s="27" t="s">
+        <v>1066</v>
+      </c>
       <c r="G83" t="s">
         <v>979</v>
       </c>
@@ -6322,6 +9870,9 @@
       <c r="A84">
         <v>83</v>
       </c>
+      <c r="F84" s="27" t="s">
+        <v>1067</v>
+      </c>
       <c r="G84" t="s">
         <v>979</v>
       </c>
@@ -6336,6 +9887,9 @@
       <c r="A85">
         <v>84</v>
       </c>
+      <c r="F85" s="27" t="s">
+        <v>1068</v>
+      </c>
       <c r="G85" t="s">
         <v>979</v>
       </c>
@@ -6350,6 +9904,9 @@
       <c r="A86">
         <v>85</v>
       </c>
+      <c r="F86" s="27" t="s">
+        <v>1069</v>
+      </c>
       <c r="G86" t="s">
         <v>979</v>
       </c>
@@ -6364,6 +9921,9 @@
       <c r="A87">
         <v>86</v>
       </c>
+      <c r="F87" s="27" t="s">
+        <v>1064</v>
+      </c>
       <c r="G87" t="s">
         <v>979</v>
       </c>
@@ -6378,6 +9938,9 @@
       <c r="A88">
         <v>87</v>
       </c>
+      <c r="F88" s="27" t="s">
+        <v>1070</v>
+      </c>
       <c r="G88" t="s">
         <v>979</v>
       </c>
@@ -6392,6 +9955,9 @@
       <c r="A89">
         <v>88</v>
       </c>
+      <c r="F89" s="27" t="s">
+        <v>1071</v>
+      </c>
       <c r="G89" t="s">
         <v>979</v>
       </c>
@@ -6406,6 +9972,9 @@
       <c r="A90">
         <v>89</v>
       </c>
+      <c r="F90" s="27" t="s">
+        <v>1072</v>
+      </c>
       <c r="G90" t="s">
         <v>979</v>
       </c>
@@ -6420,6 +9989,9 @@
       <c r="A91">
         <v>90</v>
       </c>
+      <c r="F91" s="27" t="s">
+        <v>1073</v>
+      </c>
       <c r="G91" t="s">
         <v>979</v>
       </c>
@@ -6434,6 +10006,9 @@
       <c r="A92">
         <v>91</v>
       </c>
+      <c r="F92" s="27" t="s">
+        <v>1074</v>
+      </c>
       <c r="G92" t="s">
         <v>979</v>
       </c>
@@ -6448,6 +10023,9 @@
       <c r="A93">
         <v>92</v>
       </c>
+      <c r="F93" s="27" t="s">
+        <v>1075</v>
+      </c>
       <c r="G93" t="s">
         <v>979</v>
       </c>
@@ -6462,6 +10040,9 @@
       <c r="A94">
         <v>93</v>
       </c>
+      <c r="F94" s="27" t="s">
+        <v>1076</v>
+      </c>
       <c r="G94" t="s">
         <v>979</v>
       </c>
@@ -6476,6 +10057,9 @@
       <c r="A95">
         <v>94</v>
       </c>
+      <c r="F95" s="27" t="s">
+        <v>1077</v>
+      </c>
       <c r="G95" t="s">
         <v>979</v>
       </c>
@@ -6490,6 +10074,9 @@
       <c r="A96">
         <v>95</v>
       </c>
+      <c r="F96" s="27" t="s">
+        <v>1078</v>
+      </c>
       <c r="G96" t="s">
         <v>979</v>
       </c>
@@ -6504,6 +10091,9 @@
       <c r="A97">
         <v>96</v>
       </c>
+      <c r="F97" s="27" t="s">
+        <v>1079</v>
+      </c>
       <c r="G97" t="s">
         <v>979</v>
       </c>
@@ -6518,6 +10108,9 @@
       <c r="A98">
         <v>97</v>
       </c>
+      <c r="F98" s="27" t="s">
+        <v>1080</v>
+      </c>
       <c r="G98" t="s">
         <v>979</v>
       </c>
@@ -6532,6 +10125,9 @@
       <c r="A99">
         <v>98</v>
       </c>
+      <c r="F99" s="27" t="s">
+        <v>1081</v>
+      </c>
       <c r="G99" t="s">
         <v>979</v>
       </c>
@@ -6546,6 +10142,9 @@
       <c r="A100">
         <v>99</v>
       </c>
+      <c r="F100" s="27" t="s">
+        <v>1082</v>
+      </c>
       <c r="G100" t="s">
         <v>979</v>
       </c>
@@ -6560,6 +10159,9 @@
       <c r="A101">
         <v>100</v>
       </c>
+      <c r="F101" s="27" t="s">
+        <v>1083</v>
+      </c>
       <c r="G101" t="s">
         <v>979</v>
       </c>
@@ -6574,6 +10176,9 @@
       <c r="A102">
         <v>101</v>
       </c>
+      <c r="F102" s="27" t="s">
+        <v>1084</v>
+      </c>
       <c r="G102" t="s">
         <v>979</v>
       </c>
@@ -6588,6 +10193,9 @@
       <c r="A103">
         <v>102</v>
       </c>
+      <c r="F103" s="27" t="s">
+        <v>1085</v>
+      </c>
       <c r="G103" t="s">
         <v>979</v>
       </c>
@@ -6602,6 +10210,9 @@
       <c r="A104">
         <v>103</v>
       </c>
+      <c r="F104" s="27" t="s">
+        <v>1086</v>
+      </c>
       <c r="G104" t="s">
         <v>979</v>
       </c>
@@ -6616,6 +10227,9 @@
       <c r="A105">
         <v>104</v>
       </c>
+      <c r="F105" s="27" t="s">
+        <v>1087</v>
+      </c>
       <c r="G105" t="s">
         <v>979</v>
       </c>
@@ -6630,6 +10244,9 @@
       <c r="A106">
         <v>105</v>
       </c>
+      <c r="F106" s="27" t="s">
+        <v>1088</v>
+      </c>
       <c r="G106" t="s">
         <v>979</v>
       </c>
@@ -6644,6 +10261,9 @@
       <c r="A107">
         <v>106</v>
       </c>
+      <c r="F107" s="27" t="s">
+        <v>1089</v>
+      </c>
       <c r="G107" t="s">
         <v>979</v>
       </c>
@@ -6658,6 +10278,9 @@
       <c r="A108">
         <v>107</v>
       </c>
+      <c r="F108" s="27" t="s">
+        <v>1090</v>
+      </c>
       <c r="G108" t="s">
         <v>979</v>
       </c>
@@ -6672,6 +10295,9 @@
       <c r="A109">
         <v>108</v>
       </c>
+      <c r="F109" s="27" t="s">
+        <v>1091</v>
+      </c>
       <c r="G109" t="s">
         <v>979</v>
       </c>
@@ -6686,6 +10312,9 @@
       <c r="A110">
         <v>109</v>
       </c>
+      <c r="F110" s="27" t="s">
+        <v>1092</v>
+      </c>
       <c r="G110" t="s">
         <v>979</v>
       </c>
@@ -6700,6 +10329,9 @@
       <c r="A111">
         <v>110</v>
       </c>
+      <c r="F111" s="27" t="s">
+        <v>1093</v>
+      </c>
       <c r="G111" t="s">
         <v>979</v>
       </c>
@@ -6714,6 +10346,9 @@
       <c r="A112">
         <v>111</v>
       </c>
+      <c r="F112" s="27" t="s">
+        <v>1094</v>
+      </c>
       <c r="G112" t="s">
         <v>979</v>
       </c>
@@ -6728,6 +10363,9 @@
       <c r="A113">
         <v>112</v>
       </c>
+      <c r="F113" s="27" t="s">
+        <v>1095</v>
+      </c>
       <c r="G113" t="s">
         <v>979</v>
       </c>
@@ -6742,6 +10380,9 @@
       <c r="A114">
         <v>113</v>
       </c>
+      <c r="F114" s="27" t="s">
+        <v>1096</v>
+      </c>
       <c r="G114" t="s">
         <v>979</v>
       </c>
@@ -6756,6 +10397,9 @@
       <c r="A115">
         <v>114</v>
       </c>
+      <c r="F115" s="27" t="s">
+        <v>1097</v>
+      </c>
       <c r="G115" t="s">
         <v>979</v>
       </c>
@@ -6770,6 +10414,9 @@
       <c r="A116">
         <v>115</v>
       </c>
+      <c r="F116" s="27" t="s">
+        <v>1098</v>
+      </c>
       <c r="G116" t="s">
         <v>979</v>
       </c>
@@ -6784,6 +10431,9 @@
       <c r="A117">
         <v>116</v>
       </c>
+      <c r="F117" s="27" t="s">
+        <v>1099</v>
+      </c>
       <c r="G117" t="s">
         <v>979</v>
       </c>
@@ -6798,6 +10448,9 @@
       <c r="A118">
         <v>117</v>
       </c>
+      <c r="F118" s="27" t="s">
+        <v>1100</v>
+      </c>
       <c r="G118" t="s">
         <v>979</v>
       </c>
@@ -6812,6 +10465,9 @@
       <c r="A119">
         <v>118</v>
       </c>
+      <c r="F119" s="27" t="s">
+        <v>1101</v>
+      </c>
       <c r="G119" t="s">
         <v>979</v>
       </c>
@@ -6826,6 +10482,9 @@
       <c r="A120">
         <v>119</v>
       </c>
+      <c r="F120" s="27" t="s">
+        <v>1102</v>
+      </c>
       <c r="G120" t="s">
         <v>979</v>
       </c>
@@ -6840,6 +10499,9 @@
       <c r="A121">
         <v>120</v>
       </c>
+      <c r="F121" s="27" t="s">
+        <v>1103</v>
+      </c>
       <c r="G121" t="s">
         <v>979</v>
       </c>
@@ -6854,6 +10516,9 @@
       <c r="A122">
         <v>121</v>
       </c>
+      <c r="F122" s="27" t="s">
+        <v>1104</v>
+      </c>
       <c r="G122" t="s">
         <v>979</v>
       </c>
@@ -6868,6 +10533,9 @@
       <c r="A123">
         <v>122</v>
       </c>
+      <c r="F123" s="27" t="s">
+        <v>1105</v>
+      </c>
       <c r="G123" t="s">
         <v>979</v>
       </c>
@@ -6882,6 +10550,9 @@
       <c r="A124">
         <v>123</v>
       </c>
+      <c r="F124" s="27" t="s">
+        <v>1106</v>
+      </c>
       <c r="G124" t="s">
         <v>979</v>
       </c>
@@ -6896,6 +10567,9 @@
       <c r="A125">
         <v>124</v>
       </c>
+      <c r="F125" s="27" t="s">
+        <v>1107</v>
+      </c>
       <c r="G125" t="s">
         <v>979</v>
       </c>
@@ -6910,6 +10584,9 @@
       <c r="A126">
         <v>125</v>
       </c>
+      <c r="F126" s="27" t="s">
+        <v>1108</v>
+      </c>
       <c r="G126" t="s">
         <v>979</v>
       </c>
@@ -6924,6 +10601,9 @@
       <c r="A127">
         <v>126</v>
       </c>
+      <c r="F127" s="27" t="s">
+        <v>1109</v>
+      </c>
       <c r="G127" t="s">
         <v>979</v>
       </c>
@@ -6938,6 +10618,9 @@
       <c r="A128">
         <v>127</v>
       </c>
+      <c r="F128" s="27" t="s">
+        <v>1110</v>
+      </c>
       <c r="G128" t="s">
         <v>979</v>
       </c>
@@ -6952,6 +10635,9 @@
       <c r="A129">
         <v>128</v>
       </c>
+      <c r="F129" s="27" t="s">
+        <v>1111</v>
+      </c>
       <c r="G129" t="s">
         <v>979</v>
       </c>
@@ -6966,6 +10652,9 @@
       <c r="A130">
         <v>129</v>
       </c>
+      <c r="F130" s="27" t="s">
+        <v>1112</v>
+      </c>
       <c r="G130" t="s">
         <v>979</v>
       </c>
@@ -6980,6 +10669,9 @@
       <c r="A131">
         <v>130</v>
       </c>
+      <c r="F131" s="27" t="s">
+        <v>1113</v>
+      </c>
       <c r="G131" t="s">
         <v>979</v>
       </c>
@@ -6994,6 +10686,9 @@
       <c r="A132">
         <v>131</v>
       </c>
+      <c r="F132" s="27" t="s">
+        <v>1114</v>
+      </c>
       <c r="G132" t="s">
         <v>979</v>
       </c>
@@ -7008,6 +10703,9 @@
       <c r="A133">
         <v>132</v>
       </c>
+      <c r="F133" s="27" t="s">
+        <v>1115</v>
+      </c>
       <c r="G133" t="s">
         <v>979</v>
       </c>
@@ -7022,6 +10720,9 @@
       <c r="A134">
         <v>133</v>
       </c>
+      <c r="F134" s="27" t="s">
+        <v>1116</v>
+      </c>
       <c r="G134" t="s">
         <v>979</v>
       </c>
@@ -7036,6 +10737,9 @@
       <c r="A135">
         <v>134</v>
       </c>
+      <c r="F135" s="27" t="s">
+        <v>1117</v>
+      </c>
       <c r="G135" t="s">
         <v>979</v>
       </c>
@@ -7050,6 +10754,9 @@
       <c r="A136">
         <v>135</v>
       </c>
+      <c r="F136" s="27" t="s">
+        <v>1118</v>
+      </c>
       <c r="G136" t="s">
         <v>979</v>
       </c>
@@ -7064,6 +10771,9 @@
       <c r="A137">
         <v>136</v>
       </c>
+      <c r="F137" s="27" t="s">
+        <v>1119</v>
+      </c>
       <c r="G137" t="s">
         <v>979</v>
       </c>
@@ -7078,6 +10788,9 @@
       <c r="A138">
         <v>137</v>
       </c>
+      <c r="F138" s="27" t="s">
+        <v>1120</v>
+      </c>
       <c r="G138" t="s">
         <v>979</v>
       </c>
@@ -7092,6 +10805,9 @@
       <c r="A139">
         <v>138</v>
       </c>
+      <c r="F139" s="27" t="s">
+        <v>1121</v>
+      </c>
       <c r="G139" t="s">
         <v>979</v>
       </c>
@@ -7106,6 +10822,9 @@
       <c r="A140">
         <v>139</v>
       </c>
+      <c r="F140" s="27" t="s">
+        <v>1122</v>
+      </c>
       <c r="G140" t="s">
         <v>979</v>
       </c>
@@ -7120,6 +10839,9 @@
       <c r="A141">
         <v>140</v>
       </c>
+      <c r="F141" s="27" t="s">
+        <v>1123</v>
+      </c>
       <c r="G141" t="s">
         <v>979</v>
       </c>
@@ -7134,6 +10856,9 @@
       <c r="A142">
         <v>141</v>
       </c>
+      <c r="F142" s="27" t="s">
+        <v>1124</v>
+      </c>
       <c r="G142" t="s">
         <v>979</v>
       </c>
@@ -7148,6 +10873,9 @@
       <c r="A143">
         <v>142</v>
       </c>
+      <c r="F143" s="27" t="s">
+        <v>1125</v>
+      </c>
       <c r="G143" t="s">
         <v>979</v>
       </c>
@@ -7162,6 +10890,9 @@
       <c r="A144">
         <v>143</v>
       </c>
+      <c r="F144" s="27" t="s">
+        <v>1126</v>
+      </c>
       <c r="G144" t="s">
         <v>979</v>
       </c>
@@ -7176,6 +10907,9 @@
       <c r="A145">
         <v>144</v>
       </c>
+      <c r="F145" s="27" t="s">
+        <v>1127</v>
+      </c>
       <c r="G145" t="s">
         <v>979</v>
       </c>
@@ -7190,6 +10924,9 @@
       <c r="A146">
         <v>145</v>
       </c>
+      <c r="F146" s="27" t="s">
+        <v>1128</v>
+      </c>
       <c r="G146" t="s">
         <v>979</v>
       </c>
@@ -7204,6 +10941,9 @@
       <c r="A147">
         <v>146</v>
       </c>
+      <c r="F147" s="27" t="s">
+        <v>1129</v>
+      </c>
       <c r="G147" t="s">
         <v>979</v>
       </c>
@@ -7218,6 +10958,9 @@
       <c r="A148">
         <v>147</v>
       </c>
+      <c r="F148" s="27" t="s">
+        <v>1130</v>
+      </c>
       <c r="G148" t="s">
         <v>979</v>
       </c>
@@ -7232,6 +10975,9 @@
       <c r="A149">
         <v>148</v>
       </c>
+      <c r="F149" s="27" t="s">
+        <v>1131</v>
+      </c>
       <c r="G149" t="s">
         <v>979</v>
       </c>
@@ -7246,6 +10992,9 @@
       <c r="A150">
         <v>149</v>
       </c>
+      <c r="F150" s="27" t="s">
+        <v>1132</v>
+      </c>
       <c r="G150" t="s">
         <v>979</v>
       </c>
@@ -7260,6 +11009,9 @@
       <c r="A151">
         <v>150</v>
       </c>
+      <c r="F151" s="27" t="s">
+        <v>1133</v>
+      </c>
       <c r="G151" t="s">
         <v>979</v>
       </c>
@@ -7274,6 +11026,9 @@
       <c r="A152">
         <v>151</v>
       </c>
+      <c r="F152" s="27" t="s">
+        <v>1134</v>
+      </c>
       <c r="G152" t="s">
         <v>979</v>
       </c>
@@ -7288,6 +11043,9 @@
       <c r="A153">
         <v>152</v>
       </c>
+      <c r="F153" s="27" t="s">
+        <v>1135</v>
+      </c>
       <c r="G153" t="s">
         <v>979</v>
       </c>
@@ -7302,6 +11060,9 @@
       <c r="A154">
         <v>153</v>
       </c>
+      <c r="F154" s="27" t="s">
+        <v>1136</v>
+      </c>
       <c r="G154" t="s">
         <v>979</v>
       </c>
@@ -7316,6 +11077,9 @@
       <c r="A155">
         <v>154</v>
       </c>
+      <c r="F155" s="27" t="s">
+        <v>1137</v>
+      </c>
       <c r="G155" t="s">
         <v>979</v>
       </c>
@@ -7330,6 +11094,9 @@
       <c r="A156">
         <v>155</v>
       </c>
+      <c r="F156" s="27" t="s">
+        <v>1138</v>
+      </c>
       <c r="G156" t="s">
         <v>979</v>
       </c>
@@ -7344,6 +11111,9 @@
       <c r="A157">
         <v>156</v>
       </c>
+      <c r="F157" s="27" t="s">
+        <v>1139</v>
+      </c>
       <c r="G157" t="s">
         <v>979</v>
       </c>
@@ -7358,6 +11128,9 @@
       <c r="A158">
         <v>157</v>
       </c>
+      <c r="F158" s="27" t="s">
+        <v>1140</v>
+      </c>
       <c r="G158" t="s">
         <v>979</v>
       </c>
@@ -7372,6 +11145,9 @@
       <c r="A159">
         <v>158</v>
       </c>
+      <c r="F159" s="27" t="s">
+        <v>1141</v>
+      </c>
       <c r="G159" t="s">
         <v>979</v>
       </c>
@@ -7386,6 +11162,9 @@
       <c r="A160">
         <v>159</v>
       </c>
+      <c r="F160" s="27" t="s">
+        <v>1142</v>
+      </c>
       <c r="G160" t="s">
         <v>979</v>
       </c>
@@ -7400,6 +11179,9 @@
       <c r="A161">
         <v>160</v>
       </c>
+      <c r="F161" s="27" t="s">
+        <v>1143</v>
+      </c>
       <c r="G161" t="s">
         <v>979</v>
       </c>
@@ -7414,6 +11196,9 @@
       <c r="A162">
         <v>161</v>
       </c>
+      <c r="F162" s="27" t="s">
+        <v>1144</v>
+      </c>
       <c r="G162" t="s">
         <v>979</v>
       </c>
@@ -7428,6 +11213,9 @@
       <c r="A163">
         <v>162</v>
       </c>
+      <c r="F163" s="27" t="s">
+        <v>1145</v>
+      </c>
       <c r="G163" t="s">
         <v>979</v>
       </c>
@@ -7442,6 +11230,9 @@
       <c r="A164">
         <v>163</v>
       </c>
+      <c r="F164" s="27" t="s">
+        <v>1146</v>
+      </c>
       <c r="G164" t="s">
         <v>979</v>
       </c>
@@ -7456,6 +11247,9 @@
       <c r="A165">
         <v>164</v>
       </c>
+      <c r="F165" s="27" t="s">
+        <v>1147</v>
+      </c>
       <c r="G165" t="s">
         <v>979</v>
       </c>
@@ -7470,6 +11264,9 @@
       <c r="A166">
         <v>165</v>
       </c>
+      <c r="F166" s="27" t="s">
+        <v>1148</v>
+      </c>
       <c r="G166" t="s">
         <v>979</v>
       </c>
@@ -7484,6 +11281,9 @@
       <c r="A167">
         <v>166</v>
       </c>
+      <c r="F167" s="27" t="s">
+        <v>1149</v>
+      </c>
       <c r="G167" t="s">
         <v>979</v>
       </c>
@@ -7498,6 +11298,9 @@
       <c r="A168">
         <v>167</v>
       </c>
+      <c r="F168" s="27" t="s">
+        <v>1150</v>
+      </c>
       <c r="G168" t="s">
         <v>979</v>
       </c>
@@ -7512,6 +11315,9 @@
       <c r="A169">
         <v>168</v>
       </c>
+      <c r="F169" s="27" t="s">
+        <v>1151</v>
+      </c>
       <c r="G169" t="s">
         <v>979</v>
       </c>
@@ -7526,6 +11332,9 @@
       <c r="A170">
         <v>169</v>
       </c>
+      <c r="F170" s="27" t="s">
+        <v>1152</v>
+      </c>
       <c r="G170" t="s">
         <v>979</v>
       </c>
@@ -7540,6 +11349,9 @@
       <c r="A171">
         <v>170</v>
       </c>
+      <c r="F171" s="27" t="s">
+        <v>1153</v>
+      </c>
       <c r="G171" t="s">
         <v>979</v>
       </c>
@@ -7554,6 +11366,9 @@
       <c r="A172">
         <v>171</v>
       </c>
+      <c r="F172" s="27" t="s">
+        <v>1154</v>
+      </c>
       <c r="G172" t="s">
         <v>979</v>
       </c>
@@ -7568,6 +11383,9 @@
       <c r="A173">
         <v>172</v>
       </c>
+      <c r="F173" s="27" t="s">
+        <v>1155</v>
+      </c>
       <c r="G173" t="s">
         <v>979</v>
       </c>
@@ -7582,6 +11400,9 @@
       <c r="A174">
         <v>173</v>
       </c>
+      <c r="F174" s="27" t="s">
+        <v>1156</v>
+      </c>
       <c r="G174" t="s">
         <v>979</v>
       </c>
@@ -7596,6 +11417,9 @@
       <c r="A175">
         <v>174</v>
       </c>
+      <c r="F175" s="27" t="s">
+        <v>1157</v>
+      </c>
       <c r="G175" t="s">
         <v>979</v>
       </c>
@@ -7610,6 +11434,9 @@
       <c r="A176">
         <v>175</v>
       </c>
+      <c r="F176" s="27" t="s">
+        <v>1158</v>
+      </c>
       <c r="G176" t="s">
         <v>979</v>
       </c>
@@ -7624,6 +11451,9 @@
       <c r="A177">
         <v>176</v>
       </c>
+      <c r="F177" s="27" t="s">
+        <v>1159</v>
+      </c>
       <c r="G177" t="s">
         <v>979</v>
       </c>
@@ -7638,6 +11468,9 @@
       <c r="A178">
         <v>177</v>
       </c>
+      <c r="F178" s="27" t="s">
+        <v>1160</v>
+      </c>
       <c r="G178" t="s">
         <v>979</v>
       </c>
@@ -7652,6 +11485,9 @@
       <c r="A179">
         <v>178</v>
       </c>
+      <c r="F179" s="27" t="s">
+        <v>1161</v>
+      </c>
       <c r="G179" t="s">
         <v>979</v>
       </c>
@@ -7666,6 +11502,9 @@
       <c r="A180">
         <v>179</v>
       </c>
+      <c r="F180" s="27" t="s">
+        <v>1162</v>
+      </c>
       <c r="G180" t="s">
         <v>979</v>
       </c>
@@ -7680,6 +11519,9 @@
       <c r="A181">
         <v>180</v>
       </c>
+      <c r="F181" s="27" t="s">
+        <v>1163</v>
+      </c>
       <c r="G181" t="s">
         <v>979</v>
       </c>
@@ -7694,6 +11536,9 @@
       <c r="A182">
         <v>181</v>
       </c>
+      <c r="F182" s="27" t="s">
+        <v>1164</v>
+      </c>
       <c r="G182" t="s">
         <v>979</v>
       </c>
@@ -7708,6 +11553,9 @@
       <c r="A183">
         <v>182</v>
       </c>
+      <c r="F183" s="27" t="s">
+        <v>1165</v>
+      </c>
       <c r="G183" t="s">
         <v>979</v>
       </c>
@@ -7722,6 +11570,9 @@
       <c r="A184">
         <v>183</v>
       </c>
+      <c r="F184" s="27" t="s">
+        <v>1166</v>
+      </c>
       <c r="G184" t="s">
         <v>979</v>
       </c>
@@ -7736,6 +11587,9 @@
       <c r="A185">
         <v>184</v>
       </c>
+      <c r="F185" s="27" t="s">
+        <v>1167</v>
+      </c>
       <c r="G185" t="s">
         <v>979</v>
       </c>
@@ -7750,6 +11604,9 @@
       <c r="A186">
         <v>185</v>
       </c>
+      <c r="F186" s="27" t="s">
+        <v>1168</v>
+      </c>
       <c r="G186" t="s">
         <v>979</v>
       </c>
@@ -7764,6 +11621,9 @@
       <c r="A187">
         <v>186</v>
       </c>
+      <c r="F187" s="27" t="s">
+        <v>1169</v>
+      </c>
       <c r="G187" t="s">
         <v>979</v>
       </c>
@@ -7778,6 +11638,9 @@
       <c r="A188">
         <v>187</v>
       </c>
+      <c r="F188" s="27" t="s">
+        <v>1170</v>
+      </c>
       <c r="G188" t="s">
         <v>979</v>
       </c>
@@ -7792,6 +11655,9 @@
       <c r="A189">
         <v>188</v>
       </c>
+      <c r="F189" s="27" t="s">
+        <v>1171</v>
+      </c>
       <c r="G189" t="s">
         <v>979</v>
       </c>
@@ -7806,6 +11672,9 @@
       <c r="A190">
         <v>189</v>
       </c>
+      <c r="F190" s="27" t="s">
+        <v>1172</v>
+      </c>
       <c r="G190" t="s">
         <v>979</v>
       </c>
@@ -7820,6 +11689,9 @@
       <c r="A191">
         <v>190</v>
       </c>
+      <c r="F191" s="27" t="s">
+        <v>1173</v>
+      </c>
       <c r="G191" t="s">
         <v>979</v>
       </c>
@@ -7834,6 +11706,9 @@
       <c r="A192">
         <v>191</v>
       </c>
+      <c r="F192" s="27" t="s">
+        <v>1174</v>
+      </c>
       <c r="G192" t="s">
         <v>979</v>
       </c>
@@ -7848,6 +11723,9 @@
       <c r="A193">
         <v>192</v>
       </c>
+      <c r="F193" s="27" t="s">
+        <v>1175</v>
+      </c>
       <c r="G193" t="s">
         <v>979</v>
       </c>
@@ -7862,6 +11740,9 @@
       <c r="A194">
         <v>193</v>
       </c>
+      <c r="F194" s="27" t="s">
+        <v>1176</v>
+      </c>
       <c r="G194" t="s">
         <v>979</v>
       </c>
@@ -7876,6 +11757,9 @@
       <c r="A195">
         <v>194</v>
       </c>
+      <c r="F195" s="27" t="s">
+        <v>1177</v>
+      </c>
       <c r="G195" t="s">
         <v>979</v>
       </c>
@@ -7890,6 +11774,9 @@
       <c r="A196">
         <v>195</v>
       </c>
+      <c r="F196" s="27" t="s">
+        <v>1178</v>
+      </c>
       <c r="G196" t="s">
         <v>979</v>
       </c>
@@ -7904,6 +11791,9 @@
       <c r="A197">
         <v>196</v>
       </c>
+      <c r="F197" s="27" t="s">
+        <v>1179</v>
+      </c>
       <c r="G197" t="s">
         <v>979</v>
       </c>
@@ -7918,6 +11808,9 @@
       <c r="A198">
         <v>197</v>
       </c>
+      <c r="F198" s="27" t="s">
+        <v>1180</v>
+      </c>
       <c r="G198" t="s">
         <v>979</v>
       </c>
@@ -7932,6 +11825,9 @@
       <c r="A199">
         <v>198</v>
       </c>
+      <c r="F199" s="27" t="s">
+        <v>1181</v>
+      </c>
       <c r="G199" t="s">
         <v>979</v>
       </c>
@@ -7946,6 +11842,9 @@
       <c r="A200">
         <v>199</v>
       </c>
+      <c r="F200" s="27" t="s">
+        <v>1182</v>
+      </c>
       <c r="G200" t="s">
         <v>979</v>
       </c>
@@ -7960,6 +11859,9 @@
       <c r="A201">
         <v>200</v>
       </c>
+      <c r="F201" s="27" t="s">
+        <v>1183</v>
+      </c>
       <c r="G201" t="s">
         <v>979</v>
       </c>
@@ -7974,6 +11876,9 @@
       <c r="A202">
         <v>201</v>
       </c>
+      <c r="F202" s="27" t="s">
+        <v>1184</v>
+      </c>
       <c r="G202" t="s">
         <v>979</v>
       </c>
@@ -7988,6 +11893,9 @@
       <c r="A203">
         <v>202</v>
       </c>
+      <c r="F203" s="27" t="s">
+        <v>1185</v>
+      </c>
       <c r="G203" t="s">
         <v>979</v>
       </c>
@@ -8002,6 +11910,9 @@
       <c r="A204">
         <v>203</v>
       </c>
+      <c r="F204" s="27" t="s">
+        <v>1186</v>
+      </c>
       <c r="G204" t="s">
         <v>979</v>
       </c>
@@ -8016,6 +11927,9 @@
       <c r="A205">
         <v>204</v>
       </c>
+      <c r="F205" s="27" t="s">
+        <v>1187</v>
+      </c>
       <c r="G205" t="s">
         <v>979</v>
       </c>
@@ -8030,6 +11944,9 @@
       <c r="A206">
         <v>205</v>
       </c>
+      <c r="F206" s="27" t="s">
+        <v>1188</v>
+      </c>
       <c r="G206" t="s">
         <v>979</v>
       </c>
@@ -8044,6 +11961,9 @@
       <c r="A207">
         <v>206</v>
       </c>
+      <c r="F207" s="27" t="s">
+        <v>1189</v>
+      </c>
       <c r="G207" t="s">
         <v>979</v>
       </c>
@@ -8058,6 +11978,9 @@
       <c r="A208">
         <v>207</v>
       </c>
+      <c r="F208" s="27" t="s">
+        <v>1190</v>
+      </c>
       <c r="G208" t="s">
         <v>979</v>
       </c>
@@ -8072,6 +11995,9 @@
       <c r="A209">
         <v>208</v>
       </c>
+      <c r="F209" s="27" t="s">
+        <v>1191</v>
+      </c>
       <c r="G209" t="s">
         <v>979</v>
       </c>
@@ -8086,6 +12012,9 @@
       <c r="A210">
         <v>209</v>
       </c>
+      <c r="F210" s="27" t="s">
+        <v>1192</v>
+      </c>
       <c r="G210" t="s">
         <v>979</v>
       </c>
@@ -8100,6 +12029,9 @@
       <c r="A211">
         <v>210</v>
       </c>
+      <c r="F211" s="27" t="s">
+        <v>1193</v>
+      </c>
       <c r="G211" t="s">
         <v>979</v>
       </c>
@@ -8114,6 +12046,9 @@
       <c r="A212">
         <v>211</v>
       </c>
+      <c r="F212" s="27" t="s">
+        <v>1194</v>
+      </c>
       <c r="G212" t="s">
         <v>979</v>
       </c>
@@ -8128,6 +12063,9 @@
       <c r="A213">
         <v>212</v>
       </c>
+      <c r="F213" s="27" t="s">
+        <v>1195</v>
+      </c>
       <c r="G213" t="s">
         <v>979</v>
       </c>
@@ -8142,6 +12080,9 @@
       <c r="A214">
         <v>213</v>
       </c>
+      <c r="F214" s="27" t="s">
+        <v>1196</v>
+      </c>
       <c r="G214" t="s">
         <v>979</v>
       </c>
@@ -8156,6 +12097,9 @@
       <c r="A215">
         <v>214</v>
       </c>
+      <c r="F215" s="27" t="s">
+        <v>1197</v>
+      </c>
       <c r="G215" t="s">
         <v>979</v>
       </c>
@@ -8170,6 +12114,9 @@
       <c r="A216">
         <v>215</v>
       </c>
+      <c r="F216" s="27" t="s">
+        <v>1198</v>
+      </c>
       <c r="G216" t="s">
         <v>979</v>
       </c>
@@ -8184,6 +12131,9 @@
       <c r="A217">
         <v>216</v>
       </c>
+      <c r="F217" s="27" t="s">
+        <v>1199</v>
+      </c>
       <c r="G217" t="s">
         <v>979</v>
       </c>
@@ -8198,6 +12148,9 @@
       <c r="A218">
         <v>217</v>
       </c>
+      <c r="F218" s="27" t="s">
+        <v>1200</v>
+      </c>
       <c r="G218" t="s">
         <v>979</v>
       </c>
@@ -8212,6 +12165,9 @@
       <c r="A219">
         <v>218</v>
       </c>
+      <c r="F219" s="27" t="s">
+        <v>1201</v>
+      </c>
       <c r="G219" t="s">
         <v>979</v>
       </c>
@@ -8226,6 +12182,9 @@
       <c r="A220">
         <v>219</v>
       </c>
+      <c r="F220" s="27" t="s">
+        <v>1202</v>
+      </c>
       <c r="G220" t="s">
         <v>979</v>
       </c>
@@ -8240,6 +12199,9 @@
       <c r="A221">
         <v>220</v>
       </c>
+      <c r="F221" s="27" t="s">
+        <v>1203</v>
+      </c>
       <c r="G221" t="s">
         <v>979</v>
       </c>
@@ -8254,6 +12216,9 @@
       <c r="A222">
         <v>221</v>
       </c>
+      <c r="F222" s="27" t="s">
+        <v>1204</v>
+      </c>
       <c r="G222" t="s">
         <v>979</v>
       </c>
@@ -8268,6 +12233,9 @@
       <c r="A223">
         <v>222</v>
       </c>
+      <c r="F223" s="27" t="s">
+        <v>1205</v>
+      </c>
       <c r="G223" t="s">
         <v>979</v>
       </c>
@@ -8282,6 +12250,9 @@
       <c r="A224">
         <v>223</v>
       </c>
+      <c r="F224" s="27" t="s">
+        <v>1206</v>
+      </c>
       <c r="G224" t="s">
         <v>979</v>
       </c>
@@ -8296,6 +12267,9 @@
       <c r="A225">
         <v>224</v>
       </c>
+      <c r="F225" s="27" t="s">
+        <v>1207</v>
+      </c>
       <c r="G225" t="s">
         <v>979</v>
       </c>
@@ -8310,6 +12284,9 @@
       <c r="A226">
         <v>225</v>
       </c>
+      <c r="F226" s="27" t="s">
+        <v>1208</v>
+      </c>
       <c r="G226" t="s">
         <v>979</v>
       </c>
@@ -8324,6 +12301,9 @@
       <c r="A227">
         <v>226</v>
       </c>
+      <c r="F227" s="27" t="s">
+        <v>1209</v>
+      </c>
       <c r="G227" t="s">
         <v>979</v>
       </c>
@@ -8338,6 +12318,9 @@
       <c r="A228">
         <v>227</v>
       </c>
+      <c r="F228" s="27" t="s">
+        <v>1210</v>
+      </c>
       <c r="G228" t="s">
         <v>979</v>
       </c>
@@ -8352,6 +12335,9 @@
       <c r="A229">
         <v>228</v>
       </c>
+      <c r="F229" s="27" t="s">
+        <v>1211</v>
+      </c>
       <c r="G229" t="s">
         <v>979</v>
       </c>
@@ -8366,6 +12352,9 @@
       <c r="A230">
         <v>229</v>
       </c>
+      <c r="F230" s="27" t="s">
+        <v>1212</v>
+      </c>
       <c r="G230" t="s">
         <v>979</v>
       </c>
@@ -8380,6 +12369,9 @@
       <c r="A231">
         <v>230</v>
       </c>
+      <c r="F231" s="27" t="s">
+        <v>1213</v>
+      </c>
       <c r="G231" t="s">
         <v>979</v>
       </c>
@@ -8394,6 +12386,9 @@
       <c r="A232">
         <v>231</v>
       </c>
+      <c r="F232" s="27" t="s">
+        <v>1214</v>
+      </c>
       <c r="G232" t="s">
         <v>979</v>
       </c>
@@ -8408,6 +12403,7 @@
       <c r="A233">
         <v>232</v>
       </c>
+      <c r="F233" s="27"/>
       <c r="G233" t="s">
         <v>979</v>
       </c>
@@ -13583,7 +17579,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745362C2-E045-4915-A894-E241B006629F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88B19E3-01A6-4529-AE5C-3FB3D1BAD786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -189,7 +189,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14191" uniqueCount="5037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14191" uniqueCount="5046">
   <si>
     <t>Number</t>
   </si>
@@ -15322,6 +15322,33 @@
   </si>
   <si>
     <t>Riddell (2005)</t>
+  </si>
+  <si>
+    <t>Lillo-Bañuls &amp; Casado-Díaz (2010)</t>
+  </si>
+  <si>
+    <t>Wolfe &amp; Haveman (2002)</t>
+  </si>
+  <si>
+    <t>Bils &amp; Klenow (2000)</t>
+  </si>
+  <si>
+    <t>Arias &amp; McMahon (2001)</t>
+  </si>
+  <si>
+    <t>Mendiratta &amp; Gupt (2013)</t>
+  </si>
+  <si>
+    <t>De Brauw &amp; Rozelle (2007)</t>
+  </si>
+  <si>
+    <t>De Brauw &amp; Rozelle (2012)</t>
+  </si>
+  <si>
+    <t>Warunsiri &amp; McNown (2010)</t>
+  </si>
+  <si>
+    <t>van der Hoeven (2013)</t>
   </si>
 </sst>
 </file>
@@ -15646,63 +15673,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFAACAC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBA8CDC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6161"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <fill>
         <patternFill>
@@ -15763,6 +15734,41 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFBA8CDC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6161"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -16107,7 +16113,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D4E9F8-720A-49C1-8678-F81C22E3A380}">
   <dimension ref="A1:W575"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -16647,7 +16655,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4882</v>
+        <v>5040</v>
       </c>
       <c r="C12" t="s">
         <v>4747</v>
@@ -16708,7 +16716,7 @@
       <c r="G13">
         <v>295</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="32" t="s">
         <v>1087</v>
       </c>
       <c r="I13" t="s">
@@ -16779,7 +16787,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>4884</v>
+        <v>5037</v>
       </c>
       <c r="C15" t="s">
         <v>4749</v>
@@ -18319,7 +18327,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>3990</v>
+        <v>5045</v>
       </c>
       <c r="C50" t="s">
         <v>3991</v>
@@ -18935,7 +18943,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>4899</v>
+        <v>5044</v>
       </c>
       <c r="C64" t="s">
         <v>4763</v>
@@ -19067,7 +19075,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>4900</v>
+        <v>5038</v>
       </c>
       <c r="C67" t="s">
         <v>4764</v>
@@ -19155,7 +19163,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>4531</v>
+        <v>5041</v>
       </c>
       <c r="C69" t="s">
         <v>4765</v>
@@ -19419,7 +19427,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>4903</v>
+        <v>5039</v>
       </c>
       <c r="C75" t="s">
         <v>4768</v>
@@ -22667,7 +22675,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>4100</v>
+        <v>5042</v>
       </c>
       <c r="C154" t="s">
         <v>4008</v>
@@ -28032,7 +28040,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>4239</v>
+        <v>5043</v>
       </c>
       <c r="C285" t="s">
         <v>4008</v>
@@ -39909,23 +39917,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="R5">
-    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsBlanks" dxfId="22" priority="10">
+    <cfRule type="containsBlanks" dxfId="19" priority="10">
       <formula>LEN(TRIM(F1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="notEqual">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39943,10 +39951,11 @@
   <hyperlinks>
     <hyperlink ref="I160" r:id="rId1" location="page=11" xr:uid="{326005DB-1117-49A2-A7CC-17E70B92D8E0}"/>
     <hyperlink ref="I9" r:id="rId2" xr:uid="{F2C21F12-D85B-40BA-8CE3-AFFE36F6C7EE}"/>
+    <hyperlink ref="H13" r:id="rId3" display="https://books.google.com/books?hl=en&amp;lr=&amp;id=xHdLezAGFFMC&amp;oi=fnd&amp;pg=PP13&amp;dq=(%22ability+bias%22+OR+%22intelligence+bias%22)+AND+(%22private+returns%22)+AND+(%22income%22+OR+%22earnings%22)+AND+(%22schooling%22+OR+%22education%22)&amp;ots=AMWBbfJpWa&amp;sig=HzNyY_GdLkNjo-PvjNkJ8XDbCMo" xr:uid="{2C3AEDA8-76A3-44C3-91BC-EED4714074A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -63766,34 +63775,34 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="R5">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="notEqual">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsBlanks" dxfId="5" priority="6">
+    <cfRule type="containsBlanks" dxfId="11" priority="6">
       <formula>LEN(TRIM(F1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="notEqual">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:M601">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="PRIMARY STUDY">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="PRIMARY STUDY">
       <formula>NOT(ISERROR(SEARCH("PRIMARY STUDY",L2)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="1" priority="2" operator="notContains" text="YES">
+    <cfRule type="notContainsText" dxfId="7" priority="2" operator="notContains" text="YES">
       <formula>ISERROR(SEARCH("YES",L2))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -72689,10 +72698,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:K251 L1">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$K1=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="9">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>$J1=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -80635,10 +80644,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J259:J1048576 J257 J1:J253">
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="2" priority="13" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",J1)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -80653,10 +80662,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",M17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",M17)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C655246-57CD-4405-A927-3476CD9A18FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9232F9E-62E6-494A-B791-4B7CA3B4EA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Query literature" sheetId="5" r:id="rId1"/>
@@ -251,6 +251,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="Q11" authorId="0" shapeId="0" xr:uid="{2DDC2096-3D26-4B97-A072-E1C776C6ED6D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Petr Čala:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+Collected as a part of the other data set</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -470,7 +496,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9785" uniqueCount="5160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9797" uniqueCount="5160">
   <si>
     <t>Number</t>
   </si>
@@ -16279,7 +16305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -16325,25 +16351,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="31">
     <dxf>
       <fill>
         <patternFill>
@@ -16876,9 +16890,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D4E9F8-720A-49C1-8678-F81C22E3A380}">
   <dimension ref="A1:Z575"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11:L11"/>
+      <selection pane="bottomLeft" activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16950,7 +16964,7 @@
       <c r="P1" s="25" t="s">
         <v>5150</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="5" t="s">
         <v>5158</v>
       </c>
       <c r="R1" s="28" t="s">
@@ -16958,7 +16972,7 @@
       </c>
       <c r="S1" s="29">
         <f>COUNTIFS($N:$N, "YES", $F:$F, "&lt;&gt;") + Twins!S1</f>
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="U1" s="28" t="s">
         <v>5049</v>
@@ -17138,8 +17152,8 @@
         <v>5156</v>
       </c>
       <c r="V4">
-        <f>COUNTIFS($N:$N, "YES", $M:$M, "&lt;&gt;PRIMARY STUDY")</f>
-        <v>96</v>
+        <f>COUNTIFS($N:$N, "YES", $M:$M, "&lt;&gt;PRIMARY STUDY", $Q:$Q, "&lt;&gt;Twins")</f>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -17203,7 +17217,7 @@
       </c>
       <c r="V5" s="38">
         <f>COUNTIFS($O:$O, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
@@ -17471,40 +17485,40 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="40">
+      <c r="A11" s="39">
         <v>10</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="39" t="s">
         <v>3939</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="39" t="s">
         <v>3940</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="39">
         <v>2005</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="39" t="s">
         <v>1073</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="39" t="s">
         <v>970</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="39" t="s">
         <v>1075</v>
       </c>
-      <c r="H11" s="40">
-        <v>1</v>
-      </c>
-      <c r="I11" s="40" t="s">
+      <c r="H11" s="39">
+        <v>1</v>
+      </c>
+      <c r="I11" s="39" t="s">
         <v>1074</v>
       </c>
-      <c r="J11" s="40" t="s">
+      <c r="J11" s="39" t="s">
         <v>1076</v>
       </c>
-      <c r="K11" s="40" t="s">
+      <c r="K11" s="39" t="s">
         <v>1076</v>
       </c>
-      <c r="L11" s="40" t="s">
+      <c r="L11" s="39" t="s">
         <v>3939</v>
       </c>
       <c r="M11" t="s">
@@ -17564,12 +17578,17 @@
         <v>5023</v>
       </c>
       <c r="M12" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="N12" t="s">
-        <v>963</v>
-      </c>
-      <c r="P12" s="7"/>
+        <v>966</v>
+      </c>
+      <c r="O12" t="s">
+        <v>966</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>5039</v>
+      </c>
       <c r="R12">
         <v>1</v>
       </c>
@@ -17615,12 +17634,17 @@
         <v>3941</v>
       </c>
       <c r="M13" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="N13" t="s">
-        <v>963</v>
-      </c>
-      <c r="P13" s="7"/>
+        <v>966</v>
+      </c>
+      <c r="O13" t="s">
+        <v>966</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>5039</v>
+      </c>
       <c r="R13">
         <v>2</v>
       </c>
@@ -17666,12 +17690,17 @@
         <v>4870</v>
       </c>
       <c r="M14" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="N14" t="s">
-        <v>963</v>
-      </c>
-      <c r="P14" s="7"/>
+        <v>966</v>
+      </c>
+      <c r="O14" t="s">
+        <v>966</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>5039</v>
+      </c>
       <c r="R14">
         <v>3</v>
       </c>
@@ -17722,7 +17751,12 @@
       <c r="N15" t="s">
         <v>963</v>
       </c>
-      <c r="P15" s="7"/>
+      <c r="O15" t="s">
+        <v>963</v>
+      </c>
+      <c r="P15" s="7">
+        <v>3</v>
+      </c>
       <c r="R15">
         <v>4</v>
       </c>
@@ -17773,7 +17807,12 @@
       <c r="N16" t="s">
         <v>963</v>
       </c>
-      <c r="P16" s="7"/>
+      <c r="O16" t="s">
+        <v>963</v>
+      </c>
+      <c r="P16" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17">
@@ -17818,7 +17857,12 @@
       <c r="N17" t="s">
         <v>963</v>
       </c>
-      <c r="P17" s="7"/>
+      <c r="O17" t="s">
+        <v>963</v>
+      </c>
+      <c r="P17" s="7">
+        <v>4</v>
+      </c>
       <c r="R17" s="2" t="s">
         <v>5043</v>
       </c>
@@ -17861,12 +17905,17 @@
         <v>3946</v>
       </c>
       <c r="M18" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="N18" t="s">
-        <v>963</v>
-      </c>
-      <c r="P18" s="7"/>
+        <v>966</v>
+      </c>
+      <c r="O18" t="s">
+        <v>966</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>5039</v>
+      </c>
       <c r="R18" t="s">
         <v>5042</v>
       </c>
@@ -18232,7 +18281,12 @@
       <c r="N25" t="s">
         <v>963</v>
       </c>
-      <c r="P25" s="7"/>
+      <c r="O25" t="s">
+        <v>963</v>
+      </c>
+      <c r="P25" s="7">
+        <v>3</v>
+      </c>
       <c r="S25" t="s">
         <v>904</v>
       </c>
@@ -44574,57 +44628,57 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="S6">
-    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="30" priority="23">
+    <cfRule type="containsBlanks" dxfId="29" priority="23">
       <formula>LEN(TRIM(S6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsBlanks" dxfId="29" priority="20">
+    <cfRule type="containsBlanks" dxfId="28" priority="20">
       <formula>LEN(TRIM(F1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8">
-    <cfRule type="cellIs" dxfId="28" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="18" operator="notEqual">
+    <cfRule type="cellIs" dxfId="26" priority="18" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:O601">
-    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="PRIMARY STUDY">
+    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="PRIMARY STUDY">
       <formula>NOT(ISERROR(SEARCH("PRIMARY STUDY",M2)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="25" priority="12" operator="notContains" text="YES">
+    <cfRule type="notContainsText" dxfId="24" priority="12" operator="notContains" text="YES">
       <formula>ISERROR(SEARCH("YES",M2))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="13" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="23" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R10 R16:R1048576 S11:S15">
-    <cfRule type="duplicateValues" dxfId="22" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q131 Q136 Q139 Q146 Q151 Q161 Q163 Q177 Q187 P2:P601 Q189:Q190">
-    <cfRule type="containsBlanks" dxfId="21" priority="22">
+  <conditionalFormatting sqref="Q131 Q136 Q139 Q146 Q151 Q161 Q163 Q177 Q187 Q189:Q190 P2:P601">
+    <cfRule type="containsBlanks" dxfId="20" priority="22">
       <formula>LEN(TRIM(P2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1">
-    <cfRule type="duplicateValues" dxfId="20" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q177 Q187 P2:P601 Q189:Q190">
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="between">
+  <conditionalFormatting sqref="Q177 Q187 Q189:Q190 P2:P601">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",P2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44643,8 +44697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749DD0D2-2E6A-40E6-8DF0-CDB0B0705093}">
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44701,7 +44755,7 @@
       <c r="P1" s="25" t="s">
         <v>5036</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="5" t="s">
         <v>5158</v>
       </c>
       <c r="R1" s="28" t="s">
@@ -45504,44 +45558,44 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="containsBlanks" dxfId="17" priority="10">
+    <cfRule type="containsBlanks" dxfId="16" priority="10">
       <formula>LEN(TRIM(F1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:O16">
-    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="PRIMARY STUDY">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="PRIMARY STUDY">
       <formula>NOT(ISERROR(SEARCH("PRIMARY STUDY",M2)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="15" priority="8" operator="notContains" text="YES">
+    <cfRule type="notContainsText" dxfId="14" priority="8" operator="notContains" text="YES">
       <formula>ISERROR(SEARCH("YES",M2))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B2">
-    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R2">
-    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsBlanks" dxfId="11" priority="11">
+    <cfRule type="containsBlanks" dxfId="10" priority="11">
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4 P1:P1048576 Q1">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",P1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -54435,10 +54489,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:K251 L1">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$K1=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="9">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>$J1=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -62382,10 +62436,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J259:J1048576 J257 J1:J253">
-    <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="2" priority="13" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",J1)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -62400,10 +62454,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",M17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",M17)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9232F9E-62E6-494A-B791-4B7CA3B4EA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CA18E3-6EF9-49BB-8CC9-1180CB127E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,7 +496,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9797" uniqueCount="5160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9801" uniqueCount="5160">
   <si>
     <t>Number</t>
   </si>
@@ -16892,7 +16892,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O24" sqref="O24"/>
+      <selection pane="bottomLeft" activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16972,7 +16972,7 @@
       </c>
       <c r="S1" s="29">
         <f>COUNTIFS($N:$N, "YES", $F:$F, "&lt;&gt;") + Twins!S1</f>
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U1" s="28" t="s">
         <v>5049</v>
@@ -17153,7 +17153,7 @@
       </c>
       <c r="V4">
         <f>COUNTIFS($N:$N, "YES", $M:$M, "&lt;&gt;PRIMARY STUDY", $Q:$Q, "&lt;&gt;Twins")</f>
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -17217,7 +17217,7 @@
       </c>
       <c r="V5" s="38">
         <f>COUNTIFS($O:$O, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
@@ -18387,7 +18387,12 @@
       <c r="N27" t="s">
         <v>963</v>
       </c>
-      <c r="P27" s="7"/>
+      <c r="O27" t="s">
+        <v>963</v>
+      </c>
+      <c r="P27" s="7">
+        <v>3</v>
+      </c>
       <c r="S27" t="s">
         <v>904</v>
       </c>
@@ -18430,12 +18435,17 @@
         <v>4872</v>
       </c>
       <c r="M28" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="N28" t="s">
-        <v>963</v>
-      </c>
-      <c r="P28" s="7"/>
+        <v>966</v>
+      </c>
+      <c r="O28" t="s">
+        <v>966</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>5039</v>
+      </c>
       <c r="S28" t="s">
         <v>904</v>
       </c>
@@ -18589,7 +18599,12 @@
       <c r="N31" t="s">
         <v>963</v>
       </c>
-      <c r="P31" s="7"/>
+      <c r="O31" t="s">
+        <v>963</v>
+      </c>
+      <c r="P31" s="7">
+        <v>4</v>
+      </c>
       <c r="S31" t="s">
         <v>904</v>
       </c>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CA18E3-6EF9-49BB-8CC9-1180CB127E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68DC402-555B-4919-8F3C-76566701B959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,7 +496,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9801" uniqueCount="5160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9828" uniqueCount="5161">
   <si>
     <t>Number</t>
   </si>
@@ -15976,6 +15976,9 @@
   </si>
   <si>
     <t>from main query</t>
+  </si>
+  <si>
+    <t>lwol</t>
   </si>
 </sst>
 </file>
@@ -16891,8 +16894,8 @@
   <dimension ref="A1:Z575"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O31" sqref="O31"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16972,14 +16975,14 @@
       </c>
       <c r="S1" s="29">
         <f>COUNTIFS($N:$N, "YES", $F:$F, "&lt;&gt;") + Twins!S1</f>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U1" s="28" t="s">
         <v>5049</v>
       </c>
       <c r="V1" s="29">
         <f>COUNTIF($M$2:$M$575, "&lt;&gt; ") +Twins!V1</f>
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="W1" s="31"/>
       <c r="X1" s="31"/>
@@ -17153,7 +17156,7 @@
       </c>
       <c r="V4">
         <f>COUNTIFS($N:$N, "YES", $M:$M, "&lt;&gt;PRIMARY STUDY", $Q:$Q, "&lt;&gt;Twins")</f>
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -17217,7 +17220,7 @@
       </c>
       <c r="V5" s="38">
         <f>COUNTIFS($O:$O, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
@@ -18700,12 +18703,17 @@
         <v>3963</v>
       </c>
       <c r="M33" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="N33" t="s">
-        <v>963</v>
-      </c>
-      <c r="P33" s="7"/>
+        <v>966</v>
+      </c>
+      <c r="O33" t="s">
+        <v>966</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>5039</v>
+      </c>
       <c r="S33" t="s">
         <v>904</v>
       </c>
@@ -18753,7 +18761,12 @@
       <c r="N34" t="s">
         <v>963</v>
       </c>
-      <c r="P34" s="7"/>
+      <c r="O34" t="s">
+        <v>963</v>
+      </c>
+      <c r="P34" s="7">
+        <v>2</v>
+      </c>
       <c r="S34" t="s">
         <v>904</v>
       </c>
@@ -18796,12 +18809,17 @@
         <v>4875</v>
       </c>
       <c r="M35" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="N35" t="s">
-        <v>963</v>
-      </c>
-      <c r="P35" s="7"/>
+        <v>966</v>
+      </c>
+      <c r="O35" t="s">
+        <v>966</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>5039</v>
+      </c>
       <c r="S35" t="s">
         <v>904</v>
       </c>
@@ -18849,7 +18867,12 @@
       <c r="N36" t="s">
         <v>963</v>
       </c>
-      <c r="P36" s="7"/>
+      <c r="O36" t="s">
+        <v>963</v>
+      </c>
+      <c r="P36" s="7">
+        <v>2</v>
+      </c>
       <c r="S36" t="s">
         <v>904</v>
       </c>
@@ -18897,46 +18920,51 @@
       <c r="N37" t="s">
         <v>963</v>
       </c>
-      <c r="P37" s="7"/>
+      <c r="O37" t="s">
+        <v>963</v>
+      </c>
+      <c r="P37" s="7">
+        <v>2</v>
+      </c>
       <c r="S37" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="A38" s="39">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="39" t="s">
         <v>3969</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="39" t="s">
         <v>3970</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="39">
         <v>2003</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="39" t="s">
         <v>1212</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="39" t="s">
         <v>4605</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="39" t="s">
         <v>1214</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="39">
         <v>265</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="39" t="s">
         <v>1213</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="39" t="s">
         <v>1215</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" s="39" t="s">
         <v>1216</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L38" s="39" t="s">
         <v>3969</v>
       </c>
       <c r="M38" t="s">
@@ -18945,7 +18973,15 @@
       <c r="N38" t="s">
         <v>963</v>
       </c>
-      <c r="P38" s="7"/>
+      <c r="O38" t="s">
+        <v>966</v>
+      </c>
+      <c r="P38" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>5157</v>
+      </c>
       <c r="S38" t="s">
         <v>904</v>
       </c>
@@ -18955,7 +18991,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>3971</v>
+        <v>5160</v>
       </c>
       <c r="C39" t="s">
         <v>3972</v>
@@ -18993,7 +19029,12 @@
       <c r="N39" t="s">
         <v>963</v>
       </c>
-      <c r="P39" s="7"/>
+      <c r="O39" t="s">
+        <v>963</v>
+      </c>
+      <c r="P39" s="7">
+        <v>3</v>
+      </c>
       <c r="S39" t="s">
         <v>904</v>
       </c>
@@ -19041,7 +19082,12 @@
       <c r="N40" t="s">
         <v>963</v>
       </c>
-      <c r="P40" s="7"/>
+      <c r="O40" t="s">
+        <v>963</v>
+      </c>
+      <c r="P40" s="7">
+        <v>4</v>
+      </c>
       <c r="S40" t="s">
         <v>904</v>
       </c>
@@ -19089,7 +19135,12 @@
       <c r="N41" t="s">
         <v>963</v>
       </c>
-      <c r="P41" s="7"/>
+      <c r="O41" t="s">
+        <v>963</v>
+      </c>
+      <c r="P41" s="7">
+        <v>2</v>
+      </c>
       <c r="S41" t="s">
         <v>904</v>
       </c>
@@ -19137,7 +19188,12 @@
       <c r="N42" s="27" t="s">
         <v>967</v>
       </c>
-      <c r="P42" s="33"/>
+      <c r="O42" s="27" t="s">
+        <v>966</v>
+      </c>
+      <c r="P42" s="33" t="s">
+        <v>5039</v>
+      </c>
       <c r="S42" s="27" t="s">
         <v>904</v>
       </c>
@@ -44710,10 +44766,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749DD0D2-2E6A-40E6-8DF0-CDB0B0705093}">
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44778,14 +44834,14 @@
       </c>
       <c r="S1" s="29">
         <f>COUNTIFS($N:$N, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U1" s="28" t="s">
         <v>5049</v>
       </c>
       <c r="V1" s="29">
         <f>COUNTIF($M$2:$M$573, "YES")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="W1" s="31"/>
       <c r="X1" s="31"/>
@@ -45061,7 +45117,7 @@
       </c>
       <c r="S6">
         <f>COUNTIFS($N:$N, "YES", $M:$M, "&lt;&gt;PRIMARY STUDY")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X6" t="s">
         <v>5089</v>
@@ -45568,6 +45624,59 @@
         <v>1</v>
       </c>
       <c r="Q16" t="s">
+        <v>5159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3969</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3970</v>
+      </c>
+      <c r="D17">
+        <v>2003</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4605</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H17">
+        <v>265</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1215</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1216</v>
+      </c>
+      <c r="L17" t="s">
+        <v>3969</v>
+      </c>
+      <c r="M17" t="s">
+        <v>963</v>
+      </c>
+      <c r="N17" t="s">
+        <v>963</v>
+      </c>
+      <c r="O17" t="s">
+        <v>966</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
         <v>5159</v>
       </c>
     </row>
@@ -45577,7 +45686,7 @@
       <formula>LEN(TRIM(F1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:O16">
+  <conditionalFormatting sqref="M2:O17">
     <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="PRIMARY STUDY">
       <formula>NOT(ISERROR(SEARCH("PRIMARY STUDY",M2)))</formula>
     </cfRule>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68DC402-555B-4919-8F3C-76566701B959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE73BFD-82F2-422B-A231-F7CB8F1A2235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,7 +496,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9828" uniqueCount="5161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9830" uniqueCount="5161">
   <si>
     <t>Number</t>
   </si>
@@ -16894,8 +16894,8 @@
   <dimension ref="A1:Z575"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O43" sqref="O43"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17220,7 +17220,7 @@
       </c>
       <c r="V5" s="38">
         <f>COUNTIFS($O:$O, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
@@ -19241,7 +19241,12 @@
       <c r="N43" t="s">
         <v>963</v>
       </c>
-      <c r="P43" s="7"/>
+      <c r="O43" t="s">
+        <v>963</v>
+      </c>
+      <c r="P43" s="7">
+        <v>3</v>
+      </c>
       <c r="S43" t="s">
         <v>904</v>
       </c>
@@ -19289,7 +19294,12 @@
       <c r="N44" t="s">
         <v>963</v>
       </c>
-      <c r="P44" s="7"/>
+      <c r="O44" t="s">
+        <v>963</v>
+      </c>
+      <c r="P44" s="7">
+        <v>2</v>
+      </c>
       <c r="S44" t="s">
         <v>904</v>
       </c>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE73BFD-82F2-422B-A231-F7CB8F1A2235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D980C5F3-80BC-4FD5-BF01-815CE521860C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,7 +496,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9830" uniqueCount="5161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9840" uniqueCount="5161">
   <si>
     <t>Number</t>
   </si>
@@ -16895,7 +16895,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O52" sqref="O52"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16975,7 +16975,7 @@
       </c>
       <c r="S1" s="29">
         <f>COUNTIFS($N:$N, "YES", $F:$F, "&lt;&gt;") + Twins!S1</f>
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U1" s="28" t="s">
         <v>5049</v>
@@ -17156,7 +17156,7 @@
       </c>
       <c r="V4">
         <f>COUNTIFS($N:$N, "YES", $M:$M, "&lt;&gt;PRIMARY STUDY", $Q:$Q, "&lt;&gt;Twins")</f>
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -17220,7 +17220,7 @@
       </c>
       <c r="V5" s="38">
         <f>COUNTIFS($O:$O, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
@@ -19342,12 +19342,17 @@
         <v>3982</v>
       </c>
       <c r="M45" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="N45" t="s">
-        <v>963</v>
-      </c>
-      <c r="P45" s="7"/>
+        <v>966</v>
+      </c>
+      <c r="O45" t="s">
+        <v>966</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>5039</v>
+      </c>
       <c r="S45" t="s">
         <v>904</v>
       </c>
@@ -19395,7 +19400,12 @@
       <c r="N46" t="s">
         <v>963</v>
       </c>
-      <c r="P46" s="7"/>
+      <c r="O46" t="s">
+        <v>963</v>
+      </c>
+      <c r="P46" s="7">
+        <v>2</v>
+      </c>
       <c r="S46" t="s">
         <v>904</v>
       </c>
@@ -19443,6 +19453,9 @@
       <c r="N47" t="s">
         <v>964</v>
       </c>
+      <c r="O47" t="s">
+        <v>966</v>
+      </c>
       <c r="P47" s="7" t="s">
         <v>5039</v>
       </c>
@@ -19488,12 +19501,17 @@
         <v>4877</v>
       </c>
       <c r="M48" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="N48" t="s">
-        <v>963</v>
-      </c>
-      <c r="P48" s="7"/>
+        <v>966</v>
+      </c>
+      <c r="O48" t="s">
+        <v>966</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>5039</v>
+      </c>
       <c r="S48" t="s">
         <v>904</v>
       </c>
@@ -19541,7 +19559,12 @@
       <c r="N49" t="s">
         <v>963</v>
       </c>
-      <c r="P49" s="7"/>
+      <c r="O49" t="s">
+        <v>963</v>
+      </c>
+      <c r="P49" s="7">
+        <v>2</v>
+      </c>
       <c r="S49" t="s">
         <v>904</v>
       </c>
@@ -19637,6 +19660,9 @@
       <c r="N51" t="s">
         <v>966</v>
       </c>
+      <c r="O51" t="s">
+        <v>966</v>
+      </c>
       <c r="P51" s="7" t="s">
         <v>5039</v>
       </c>
@@ -19687,6 +19713,9 @@
       <c r="N52" t="s">
         <v>966</v>
       </c>
+      <c r="O52" t="s">
+        <v>966</v>
+      </c>
       <c r="P52" s="7" t="s">
         <v>5039</v>
       </c>
@@ -19783,6 +19812,9 @@
         <v>966</v>
       </c>
       <c r="N54" t="s">
+        <v>966</v>
+      </c>
+      <c r="O54" t="s">
         <v>966</v>
       </c>
       <c r="P54" s="7" t="s">

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D980C5F3-80BC-4FD5-BF01-815CE521860C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51B92ED-61E0-4AEA-9166-15174B6B0872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,7 +496,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9840" uniqueCount="5161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9859" uniqueCount="5162">
   <si>
     <t>Number</t>
   </si>
@@ -15979,6 +15979,9 @@
   </si>
   <si>
     <t>lwol</t>
+  </si>
+  <si>
+    <t>ch4, well written theory</t>
   </si>
 </sst>
 </file>
@@ -16364,6 +16367,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAACAC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBA8CDC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -16547,27 +16571,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFAACAC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBA8CDC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -16894,8 +16897,8 @@
   <dimension ref="A1:Z575"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q58" sqref="Q58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17220,7 +17223,7 @@
       </c>
       <c r="V5" s="38">
         <f>COUNTIFS($O:$O, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
@@ -19612,7 +19615,12 @@
       <c r="N50" t="s">
         <v>963</v>
       </c>
-      <c r="P50" s="7"/>
+      <c r="O50" t="s">
+        <v>963</v>
+      </c>
+      <c r="P50" s="7">
+        <v>2</v>
+      </c>
       <c r="S50" t="s">
         <v>904</v>
       </c>
@@ -19766,7 +19774,12 @@
       <c r="N53" t="s">
         <v>963</v>
       </c>
-      <c r="P53" s="7"/>
+      <c r="O53" t="s">
+        <v>963</v>
+      </c>
+      <c r="P53" s="7">
+        <v>4</v>
+      </c>
       <c r="S53" t="s">
         <v>904</v>
       </c>
@@ -19867,7 +19880,12 @@
       <c r="N55" t="s">
         <v>963</v>
       </c>
-      <c r="P55" s="7"/>
+      <c r="O55" t="s">
+        <v>963</v>
+      </c>
+      <c r="P55" s="7">
+        <v>2</v>
+      </c>
       <c r="S55" t="s">
         <v>904</v>
       </c>
@@ -19915,6 +19933,9 @@
       <c r="N56" t="s">
         <v>966</v>
       </c>
+      <c r="O56" t="s">
+        <v>966</v>
+      </c>
       <c r="P56" s="7" t="s">
         <v>5039</v>
       </c>
@@ -19965,7 +19986,15 @@
       <c r="N57" t="s">
         <v>963</v>
       </c>
-      <c r="P57" s="7"/>
+      <c r="O57" t="s">
+        <v>963</v>
+      </c>
+      <c r="P57" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>5161</v>
+      </c>
       <c r="S57" t="s">
         <v>904</v>
       </c>
@@ -20013,6 +20042,9 @@
       <c r="N58" t="s">
         <v>966</v>
       </c>
+      <c r="O58" t="s">
+        <v>966</v>
+      </c>
       <c r="P58" s="7" t="s">
         <v>5039</v>
       </c>
@@ -20111,6 +20143,9 @@
       <c r="N60" t="s">
         <v>966</v>
       </c>
+      <c r="O60" t="s">
+        <v>966</v>
+      </c>
       <c r="P60" s="7" t="s">
         <v>5039</v>
       </c>
@@ -20161,6 +20196,9 @@
       <c r="N61" t="s">
         <v>966</v>
       </c>
+      <c r="O61" t="s">
+        <v>966</v>
+      </c>
       <c r="P61" s="7" t="s">
         <v>5039</v>
       </c>
@@ -20451,6 +20489,9 @@
       <c r="N67" t="s">
         <v>966</v>
       </c>
+      <c r="O67" t="s">
+        <v>966</v>
+      </c>
       <c r="P67" s="7" t="s">
         <v>5039</v>
       </c>
@@ -20597,6 +20638,9 @@
       <c r="N70" t="s">
         <v>966</v>
       </c>
+      <c r="O70" t="s">
+        <v>966</v>
+      </c>
       <c r="P70" s="7" t="s">
         <v>5039</v>
       </c>
@@ -20743,6 +20787,9 @@
       <c r="N73" t="s">
         <v>966</v>
       </c>
+      <c r="O73" t="s">
+        <v>966</v>
+      </c>
       <c r="P73" s="7" t="s">
         <v>5039</v>
       </c>
@@ -20793,6 +20840,9 @@
       <c r="N74" t="s">
         <v>966</v>
       </c>
+      <c r="O74" t="s">
+        <v>966</v>
+      </c>
       <c r="P74" s="7" t="s">
         <v>5039</v>
       </c>
@@ -20843,6 +20893,9 @@
       <c r="N75" t="s">
         <v>966</v>
       </c>
+      <c r="O75" t="s">
+        <v>966</v>
+      </c>
       <c r="P75" s="7" t="s">
         <v>5039</v>
       </c>
@@ -20893,6 +20946,9 @@
       <c r="N76" t="s">
         <v>966</v>
       </c>
+      <c r="O76" t="s">
+        <v>966</v>
+      </c>
       <c r="P76" s="7" t="s">
         <v>5039</v>
       </c>
@@ -20991,6 +21047,9 @@
       <c r="N78" t="s">
         <v>966</v>
       </c>
+      <c r="O78" t="s">
+        <v>966</v>
+      </c>
       <c r="P78" s="7" t="s">
         <v>5039</v>
       </c>
@@ -21233,6 +21292,9 @@
       <c r="N83" t="s">
         <v>966</v>
       </c>
+      <c r="O83" t="s">
+        <v>966</v>
+      </c>
       <c r="P83" s="7" t="s">
         <v>5039</v>
       </c>
@@ -21379,6 +21441,9 @@
       <c r="N86" t="s">
         <v>966</v>
       </c>
+      <c r="O86" t="s">
+        <v>966</v>
+      </c>
       <c r="P86" s="7" t="s">
         <v>5039</v>
       </c>
@@ -21475,6 +21540,9 @@
         <v>974</v>
       </c>
       <c r="N88" t="s">
+        <v>966</v>
+      </c>
+      <c r="O88" t="s">
         <v>966</v>
       </c>
       <c r="P88" s="7" t="s">
@@ -44762,36 +44830,36 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:O601">
-    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="PRIMARY STUDY">
+    <cfRule type="containsText" dxfId="2" priority="11" operator="containsText" text="PRIMARY STUDY">
       <formula>NOT(ISERROR(SEARCH("PRIMARY STUDY",M2)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="24" priority="12" operator="notContains" text="YES">
+    <cfRule type="notContainsText" dxfId="1" priority="12" operator="notContains" text="YES">
       <formula>ISERROR(SEARCH("YES",M2))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="0" priority="13" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R10 R16:R1048576 S11:S15">
-    <cfRule type="duplicateValues" dxfId="21" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q131 Q136 Q139 Q146 Q151 Q161 Q163 Q177 Q187 Q189:Q190 P2:P601">
-    <cfRule type="containsBlanks" dxfId="20" priority="22">
+    <cfRule type="containsBlanks" dxfId="23" priority="22">
       <formula>LEN(TRIM(P2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1">
-    <cfRule type="duplicateValues" dxfId="19" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q177 Q187 Q189:Q190 P2:P601">
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",P2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45724,44 +45792,44 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="containsBlanks" dxfId="16" priority="10">
+    <cfRule type="containsBlanks" dxfId="19" priority="10">
       <formula>LEN(TRIM(F1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:O17">
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="PRIMARY STUDY">
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="PRIMARY STUDY">
       <formula>NOT(ISERROR(SEARCH("PRIMARY STUDY",M2)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="14" priority="8" operator="notContains" text="YES">
+    <cfRule type="notContainsText" dxfId="17" priority="8" operator="notContains" text="YES">
       <formula>ISERROR(SEARCH("YES",M2))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B2">
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R2">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsBlanks" dxfId="10" priority="11">
+    <cfRule type="containsBlanks" dxfId="13" priority="11">
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4 P1:P1048576 Q1">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",P1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -54655,10 +54723,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:K251 L1">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>$K1=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>$J1=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -62602,10 +62670,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J259:J1048576 J257 J1:J253">
-    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="13" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",J1)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -62620,10 +62688,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",M17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",M17)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51B92ED-61E0-4AEA-9166-15174B6B0872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49419921-D5A9-4A8E-A991-66B10EE2F6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Query literature" sheetId="5" r:id="rId1"/>
@@ -496,7 +496,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9859" uniqueCount="5162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9861" uniqueCount="5162">
   <si>
     <t>Number</t>
   </si>
@@ -16367,27 +16367,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFAACAC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBA8CDC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -16571,6 +16550,27 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAACAC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBA8CDC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -16896,9 +16896,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D4E9F8-720A-49C1-8678-F81C22E3A380}">
   <dimension ref="A1:Z575"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q58" sqref="Q58"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q62" sqref="Q62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17223,7 +17223,7 @@
       </c>
       <c r="V5" s="38">
         <f>COUNTIFS($O:$O, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
@@ -20095,7 +20095,12 @@
       <c r="N59" t="s">
         <v>963</v>
       </c>
-      <c r="P59" s="7"/>
+      <c r="O59" t="s">
+        <v>963</v>
+      </c>
+      <c r="P59" s="7">
+        <v>3</v>
+      </c>
       <c r="S59" t="s">
         <v>904</v>
       </c>
@@ -20249,7 +20254,12 @@
       <c r="N62" t="s">
         <v>963</v>
       </c>
-      <c r="P62" s="7"/>
+      <c r="O62" t="s">
+        <v>963</v>
+      </c>
+      <c r="P62" s="7">
+        <v>2</v>
+      </c>
       <c r="S62" t="s">
         <v>904</v>
       </c>
@@ -44830,36 +44840,36 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:O601">
-    <cfRule type="containsText" dxfId="2" priority="11" operator="containsText" text="PRIMARY STUDY">
+    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="PRIMARY STUDY">
       <formula>NOT(ISERROR(SEARCH("PRIMARY STUDY",M2)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="1" priority="12" operator="notContains" text="YES">
+    <cfRule type="notContainsText" dxfId="24" priority="12" operator="notContains" text="YES">
       <formula>ISERROR(SEARCH("YES",M2))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="13" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="25" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R10 R16:R1048576 S11:S15">
-    <cfRule type="duplicateValues" dxfId="24" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q131 Q136 Q139 Q146 Q151 Q161 Q163 Q177 Q187 Q189:Q190 P2:P601">
-    <cfRule type="containsBlanks" dxfId="23" priority="22">
+    <cfRule type="containsBlanks" dxfId="20" priority="22">
       <formula>LEN(TRIM(P2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1">
-    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q177 Q187 Q189:Q190 P2:P601">
-    <cfRule type="cellIs" dxfId="21" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",P2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45792,44 +45802,44 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="containsBlanks" dxfId="19" priority="10">
+    <cfRule type="containsBlanks" dxfId="16" priority="10">
       <formula>LEN(TRIM(F1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:O17">
-    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="PRIMARY STUDY">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="PRIMARY STUDY">
       <formula>NOT(ISERROR(SEARCH("PRIMARY STUDY",M2)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="17" priority="8" operator="notContains" text="YES">
+    <cfRule type="notContainsText" dxfId="14" priority="8" operator="notContains" text="YES">
       <formula>ISERROR(SEARCH("YES",M2))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B2">
-    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R2">
-    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsBlanks" dxfId="13" priority="11">
+    <cfRule type="containsBlanks" dxfId="10" priority="11">
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1">
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4 P1:P1048576 Q1">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",P1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -54723,10 +54733,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:K251 L1">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$K1=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>$J1=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -62670,10 +62680,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J259:J1048576 J257 J1:J253">
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="2" priority="13" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",J1)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -62688,10 +62698,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",M17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",M17)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49419921-D5A9-4A8E-A991-66B10EE2F6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0301D9A9-E6B2-4A6B-8ABD-5136C56F015F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,7 +496,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9861" uniqueCount="5162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9863" uniqueCount="5162">
   <si>
     <t>Number</t>
   </si>
@@ -16896,9 +16896,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D4E9F8-720A-49C1-8678-F81C22E3A380}">
   <dimension ref="A1:Z575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q62" sqref="Q62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P64" sqref="P64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17223,7 +17223,7 @@
       </c>
       <c r="V5" s="38">
         <f>COUNTIFS($O:$O, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
@@ -20307,7 +20307,12 @@
       <c r="N63" t="s">
         <v>963</v>
       </c>
-      <c r="P63" s="7"/>
+      <c r="O63" t="s">
+        <v>963</v>
+      </c>
+      <c r="P63" s="7">
+        <v>1</v>
+      </c>
       <c r="S63" t="s">
         <v>904</v>
       </c>
@@ -20355,7 +20360,12 @@
       <c r="N64" t="s">
         <v>963</v>
       </c>
-      <c r="P64" s="7"/>
+      <c r="O64" t="s">
+        <v>963</v>
+      </c>
+      <c r="P64" s="7">
+        <v>2</v>
+      </c>
       <c r="S64" t="s">
         <v>904</v>
       </c>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0301D9A9-E6B2-4A6B-8ABD-5136C56F015F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B085F57-7D6A-4F96-A5A5-16A7F682A8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,7 +496,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9863" uniqueCount="5162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9865" uniqueCount="5162">
   <si>
     <t>Number</t>
   </si>
@@ -16898,7 +16898,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P64" sqref="P64"/>
+      <selection pane="bottomLeft" activeCell="L68" sqref="L68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17223,7 +17223,7 @@
       </c>
       <c r="V5" s="38">
         <f>COUNTIFS($O:$O, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
@@ -20413,7 +20413,12 @@
       <c r="N65" t="s">
         <v>963</v>
       </c>
-      <c r="P65" s="7"/>
+      <c r="O65" t="s">
+        <v>963</v>
+      </c>
+      <c r="P65" s="7">
+        <v>3</v>
+      </c>
       <c r="S65" t="s">
         <v>904</v>
       </c>
@@ -20461,7 +20466,12 @@
       <c r="N66" t="s">
         <v>963</v>
       </c>
-      <c r="P66" s="7"/>
+      <c r="O66" t="s">
+        <v>963</v>
+      </c>
+      <c r="P66" s="7">
+        <v>3</v>
+      </c>
       <c r="S66" t="s">
         <v>904</v>
       </c>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B085F57-7D6A-4F96-A5A5-16A7F682A8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779B930E-9976-4A3B-BF69-DAEDCC567775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,7 +496,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9865" uniqueCount="5162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9868" uniqueCount="5162">
   <si>
     <t>Number</t>
   </si>
@@ -16897,8 +16897,8 @@
   <dimension ref="A1:Z575"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L68" sqref="L68"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16978,7 +16978,7 @@
       </c>
       <c r="S1" s="29">
         <f>COUNTIFS($N:$N, "YES", $F:$F, "&lt;&gt;") + Twins!S1</f>
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U1" s="28" t="s">
         <v>5049</v>
@@ -17159,7 +17159,7 @@
       </c>
       <c r="V4">
         <f>COUNTIFS($N:$N, "YES", $M:$M, "&lt;&gt;PRIMARY STUDY", $Q:$Q, "&lt;&gt;Twins")</f>
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -17223,7 +17223,7 @@
       </c>
       <c r="V5" s="38">
         <f>COUNTIFS($O:$O, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
@@ -20572,7 +20572,12 @@
       <c r="N68" t="s">
         <v>963</v>
       </c>
-      <c r="P68" s="7"/>
+      <c r="O68" t="s">
+        <v>963</v>
+      </c>
+      <c r="P68" s="7">
+        <v>3</v>
+      </c>
       <c r="S68" t="s">
         <v>904</v>
       </c>
@@ -20615,12 +20620,17 @@
         <v>5024</v>
       </c>
       <c r="M69" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="N69" t="s">
-        <v>963</v>
-      </c>
-      <c r="P69" s="7"/>
+        <v>966</v>
+      </c>
+      <c r="O69" t="s">
+        <v>966</v>
+      </c>
+      <c r="P69" s="7" t="s">
+        <v>5039</v>
+      </c>
       <c r="S69" t="s">
         <v>904</v>
       </c>
@@ -44909,7 +44919,7 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779B930E-9976-4A3B-BF69-DAEDCC567775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6D82E2-FDEC-4D1A-8496-B52F21630CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Query literature" sheetId="5" r:id="rId1"/>
@@ -496,7 +496,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9868" uniqueCount="5162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9871" uniqueCount="5162">
   <si>
     <t>Number</t>
   </si>
@@ -16896,9 +16896,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D4E9F8-720A-49C1-8678-F81C22E3A380}">
   <dimension ref="A1:Z575"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I71" sqref="I71"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K75" sqref="K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16978,7 +16978,7 @@
       </c>
       <c r="S1" s="29">
         <f>COUNTIFS($N:$N, "YES", $F:$F, "&lt;&gt;") + Twins!S1</f>
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U1" s="28" t="s">
         <v>5049</v>
@@ -17159,7 +17159,7 @@
       </c>
       <c r="V4">
         <f>COUNTIFS($N:$N, "YES", $M:$M, "&lt;&gt;PRIMARY STUDY", $Q:$Q, "&lt;&gt;Twins")</f>
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -17223,7 +17223,7 @@
       </c>
       <c r="V5" s="38">
         <f>COUNTIFS($O:$O, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
@@ -20726,12 +20726,17 @@
         <v>3993</v>
       </c>
       <c r="M71" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="N71" t="s">
-        <v>963</v>
-      </c>
-      <c r="P71" s="7"/>
+        <v>966</v>
+      </c>
+      <c r="O71" t="s">
+        <v>966</v>
+      </c>
+      <c r="P71" s="7" t="s">
+        <v>5039</v>
+      </c>
       <c r="S71" t="s">
         <v>904</v>
       </c>
@@ -21039,7 +21044,12 @@
       <c r="N77" t="s">
         <v>963</v>
       </c>
-      <c r="P77" s="7"/>
+      <c r="O77" t="s">
+        <v>963</v>
+      </c>
+      <c r="P77" s="7">
+        <v>2</v>
+      </c>
       <c r="S77" t="s">
         <v>904</v>
       </c>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B589A1-B15E-4CEC-870E-51F2AC9B1D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8B30F4-904F-4693-B372-64D9387B0364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,7 +496,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9878" uniqueCount="5162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9880" uniqueCount="5162">
   <si>
     <t>Number</t>
   </si>
@@ -16897,8 +16897,8 @@
   <dimension ref="A1:Z575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17223,7 +17223,7 @@
       </c>
       <c r="V5" s="38">
         <f>COUNTIFS($O:$O, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -21420,7 +21420,12 @@
       <c r="N84" t="s">
         <v>963</v>
       </c>
-      <c r="P84" s="7"/>
+      <c r="O84" t="s">
+        <v>963</v>
+      </c>
+      <c r="P84" s="7">
+        <v>4</v>
+      </c>
       <c r="S84" t="s">
         <v>904</v>
       </c>
@@ -21468,7 +21473,12 @@
       <c r="N85" t="s">
         <v>963</v>
       </c>
-      <c r="P85" s="7"/>
+      <c r="O85" t="s">
+        <v>963</v>
+      </c>
+      <c r="P85" s="7">
+        <v>4</v>
+      </c>
       <c r="S85" t="s">
         <v>904</v>
       </c>
@@ -44954,7 +44964,7 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8B30F4-904F-4693-B372-64D9387B0364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F765249-6F93-4263-9B91-8626F1831D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,7 +496,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9880" uniqueCount="5162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9881" uniqueCount="5162">
   <si>
     <t>Number</t>
   </si>
@@ -16894,11 +16894,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D4E9F8-720A-49C1-8678-F81C22E3A380}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z575"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L54" sqref="L54"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A522" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H566" sqref="H566"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17223,7 +17224,7 @@
       </c>
       <c r="V5" s="38">
         <f>COUNTIFS($O:$O, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -21579,7 +21580,12 @@
       <c r="N87" t="s">
         <v>963</v>
       </c>
-      <c r="P87" s="7"/>
+      <c r="O87" t="s">
+        <v>963</v>
+      </c>
+      <c r="P87" s="7">
+        <v>4</v>
+      </c>
       <c r="S87" t="s">
         <v>904</v>
       </c>
@@ -44961,6 +44967,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749DD0D2-2E6A-40E6-8DF0-CDB0B0705093}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -45926,6 +45933,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -54823,6 +54831,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -62786,6 +62795,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14055D3-74A7-4E7E-966A-23FB6840174B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D549F8F-7421-498B-B0E2-D7739C7BECC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,7 +496,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9891" uniqueCount="5162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9896" uniqueCount="5162">
   <si>
     <t>Number</t>
   </si>
@@ -16898,8 +16898,8 @@
   <dimension ref="A1:Z575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B97" sqref="B97"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I105" sqref="I105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17224,7 +17224,7 @@
       </c>
       <c r="V5" s="38">
         <f>COUNTIFS($O:$O, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -22166,6 +22166,9 @@
       <c r="N98" t="s">
         <v>966</v>
       </c>
+      <c r="O98" t="s">
+        <v>966</v>
+      </c>
       <c r="P98" s="7" t="s">
         <v>5037</v>
       </c>
@@ -22216,6 +22219,9 @@
       <c r="N99" t="s">
         <v>966</v>
       </c>
+      <c r="O99" t="s">
+        <v>966</v>
+      </c>
       <c r="P99" s="7" t="s">
         <v>5037</v>
       </c>
@@ -22266,6 +22272,9 @@
       <c r="N100" t="s">
         <v>966</v>
       </c>
+      <c r="O100" t="s">
+        <v>966</v>
+      </c>
       <c r="P100" s="7" t="s">
         <v>5037</v>
       </c>
@@ -22316,6 +22325,9 @@
       <c r="N101" t="s">
         <v>966</v>
       </c>
+      <c r="O101" t="s">
+        <v>966</v>
+      </c>
       <c r="P101" s="7" t="s">
         <v>5037</v>
       </c>
@@ -22366,7 +22378,12 @@
       <c r="N102" t="s">
         <v>963</v>
       </c>
-      <c r="P102" s="7"/>
+      <c r="O102" t="s">
+        <v>963</v>
+      </c>
+      <c r="P102" s="7">
+        <v>3</v>
+      </c>
       <c r="S102" t="s">
         <v>904</v>
       </c>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D549F8F-7421-498B-B0E2-D7739C7BECC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0197798D-578C-4A4D-A3F7-A18B2F22CEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,7 +496,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9896" uniqueCount="5162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9901" uniqueCount="5162">
   <si>
     <t>Number</t>
   </si>
@@ -16899,7 +16899,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I105" sqref="I105"/>
+      <selection pane="bottomLeft" activeCell="O92" sqref="O92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16979,7 +16979,7 @@
       </c>
       <c r="S1" s="29">
         <f>COUNTIFS($N:$N, "YES", $F:$F, "&lt;&gt;") + Twins!S1</f>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U1" s="28" t="s">
         <v>5047</v>
@@ -17160,7 +17160,7 @@
       </c>
       <c r="V4">
         <f>COUNTIFS($N:$N, "YES", $M:$M, "&lt;&gt;PRIMARY STUDY", $Q:$Q, "&lt;&gt;Twins")</f>
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="V5" s="38">
         <f>COUNTIFS($O:$O, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -22426,12 +22426,17 @@
         <v>4035</v>
       </c>
       <c r="M103" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="N103" t="s">
-        <v>963</v>
-      </c>
-      <c r="P103" s="7"/>
+        <v>966</v>
+      </c>
+      <c r="O103" t="s">
+        <v>966</v>
+      </c>
+      <c r="P103" s="7" t="s">
+        <v>5037</v>
+      </c>
       <c r="S103" t="s">
         <v>904</v>
       </c>
@@ -22479,7 +22484,12 @@
       <c r="N104" t="s">
         <v>963</v>
       </c>
-      <c r="P104" s="7"/>
+      <c r="O104" t="s">
+        <v>963</v>
+      </c>
+      <c r="P104" s="7">
+        <v>4</v>
+      </c>
       <c r="S104" t="s">
         <v>904</v>
       </c>
@@ -22527,6 +22537,9 @@
       <c r="N105" t="s">
         <v>966</v>
       </c>
+      <c r="O105" t="s">
+        <v>966</v>
+      </c>
       <c r="P105" s="7" t="s">
         <v>5037</v>
       </c>
@@ -22576,6 +22589,9 @@
       </c>
       <c r="N106" t="s">
         <v>964</v>
+      </c>
+      <c r="O106" t="s">
+        <v>966</v>
       </c>
       <c r="P106" s="7" t="s">
         <v>5037</v>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0197798D-578C-4A4D-A3F7-A18B2F22CEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5EB82C-3D37-40DA-AD50-9E6D56F6C7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,7 +496,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9901" uniqueCount="5162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9906" uniqueCount="5163">
   <si>
     <t>Number</t>
   </si>
@@ -15982,6 +15982,9 @@
   </si>
   <si>
     <t>Lillo (2006)</t>
+  </si>
+  <si>
+    <t>in-depth</t>
   </si>
 </sst>
 </file>
@@ -16898,8 +16901,8 @@
   <dimension ref="A1:Z575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O92" sqref="O92"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O107" sqref="O107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17224,7 +17227,7 @@
       </c>
       <c r="V5" s="38">
         <f>COUNTIFS($O:$O, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -22643,7 +22646,12 @@
       <c r="N107" t="s">
         <v>963</v>
       </c>
-      <c r="P107" s="7"/>
+      <c r="O107" t="s">
+        <v>963</v>
+      </c>
+      <c r="P107" s="7">
+        <v>2</v>
+      </c>
       <c r="S107" t="s">
         <v>904</v>
       </c>
@@ -22691,6 +22699,9 @@
       <c r="N108" t="s">
         <v>966</v>
       </c>
+      <c r="O108" t="s">
+        <v>966</v>
+      </c>
       <c r="P108" s="7" t="s">
         <v>5037</v>
       </c>
@@ -22741,6 +22752,9 @@
       <c r="N109" t="s">
         <v>966</v>
       </c>
+      <c r="O109" t="s">
+        <v>966</v>
+      </c>
       <c r="P109" s="7" t="s">
         <v>5037</v>
       </c>
@@ -22791,7 +22805,15 @@
       <c r="N110" t="s">
         <v>963</v>
       </c>
-      <c r="P110" s="7"/>
+      <c r="O110" t="s">
+        <v>963</v>
+      </c>
+      <c r="P110" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>5162</v>
+      </c>
       <c r="S110" t="s">
         <v>904</v>
       </c>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5EB82C-3D37-40DA-AD50-9E6D56F6C7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C744F9C-D9C3-49AC-B5C7-53099D29E8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,7 +496,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9906" uniqueCount="5163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9908" uniqueCount="5163">
   <si>
     <t>Number</t>
   </si>
@@ -16902,7 +16902,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O107" sqref="O107"/>
+      <selection pane="bottomLeft" activeCell="O113" sqref="O113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22650,7 +22650,7 @@
         <v>963</v>
       </c>
       <c r="P107" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S107" t="s">
         <v>904</v>
@@ -22861,6 +22861,9 @@
       <c r="N111" t="s">
         <v>966</v>
       </c>
+      <c r="O111" t="s">
+        <v>966</v>
+      </c>
       <c r="P111" s="7" t="s">
         <v>5037</v>
       </c>
@@ -22909,6 +22912,9 @@
         <v>974</v>
       </c>
       <c r="N112" t="s">
+        <v>966</v>
+      </c>
+      <c r="O112" t="s">
         <v>966</v>
       </c>
       <c r="P112" s="7" t="s">

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C744F9C-D9C3-49AC-B5C7-53099D29E8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B02FE18-F340-482B-9B6B-ED473BFEF459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,7 +496,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9908" uniqueCount="5163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9909" uniqueCount="5163">
   <si>
     <t>Number</t>
   </si>
@@ -16902,7 +16902,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O113" sqref="O113"/>
+      <selection pane="bottomLeft" activeCell="N113" sqref="N113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17227,7 +17227,7 @@
       </c>
       <c r="V5" s="38">
         <f>COUNTIFS($O:$O, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -22967,7 +22967,12 @@
       <c r="N113" t="s">
         <v>963</v>
       </c>
-      <c r="P113" s="7"/>
+      <c r="O113" t="s">
+        <v>963</v>
+      </c>
+      <c r="P113" s="7">
+        <v>3</v>
+      </c>
       <c r="S113" t="s">
         <v>904</v>
       </c>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B02FE18-F340-482B-9B6B-ED473BFEF459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12962AA-26F3-4CBB-81D7-66ECBE5F00B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16902,7 +16902,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N113" sqref="N113"/>
+      <selection pane="bottomLeft" activeCell="N110" sqref="N110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12962AA-26F3-4CBB-81D7-66ECBE5F00B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9414EC0-F6EA-4B03-9594-099A9B45DF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,7 +496,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9909" uniqueCount="5163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9913" uniqueCount="5163">
   <si>
     <t>Number</t>
   </si>
@@ -16901,8 +16901,8 @@
   <dimension ref="A1:Z575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N110" sqref="N110"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17227,7 +17227,7 @@
       </c>
       <c r="V5" s="38">
         <f>COUNTIFS($O:$O, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -23020,7 +23020,12 @@
       <c r="N114" t="s">
         <v>963</v>
       </c>
-      <c r="P114" s="7"/>
+      <c r="O114" t="s">
+        <v>963</v>
+      </c>
+      <c r="P114" s="7">
+        <v>3</v>
+      </c>
       <c r="S114" t="s">
         <v>904</v>
       </c>
@@ -23068,7 +23073,12 @@
       <c r="N115" t="s">
         <v>963</v>
       </c>
-      <c r="P115" s="7"/>
+      <c r="O115" t="s">
+        <v>963</v>
+      </c>
+      <c r="P115" s="7">
+        <v>2</v>
+      </c>
       <c r="S115" t="s">
         <v>904</v>
       </c>
@@ -23116,8 +23126,11 @@
       <c r="N116" t="s">
         <v>963</v>
       </c>
+      <c r="O116" t="s">
+        <v>963</v>
+      </c>
       <c r="P116" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S116" t="s">
         <v>904</v>
@@ -23165,6 +23178,9 @@
       </c>
       <c r="N117" t="s">
         <v>966</v>
+      </c>
+      <c r="O117" t="s">
+        <v>5037</v>
       </c>
       <c r="P117" s="7" t="s">
         <v>5037</v>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9414EC0-F6EA-4B03-9594-099A9B45DF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCC270B-E994-4C12-8CAF-F0603A473C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,7 +496,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9913" uniqueCount="5163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9923" uniqueCount="5165">
   <si>
     <t>Number</t>
   </si>
@@ -15985,6 +15985,12 @@
   </si>
   <si>
     <t>in-depth</t>
+  </si>
+  <si>
+    <t>ch8</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -16901,8 +16907,8 @@
   <dimension ref="A1:Z575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B116" sqref="B116"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K117" sqref="K117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17227,7 +17233,7 @@
       </c>
       <c r="V5" s="38">
         <f>COUNTIFS($O:$O, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -23180,7 +23186,7 @@
         <v>966</v>
       </c>
       <c r="O117" t="s">
-        <v>5037</v>
+        <v>966</v>
       </c>
       <c r="P117" s="7" t="s">
         <v>5037</v>
@@ -23232,8 +23238,11 @@
       <c r="N118" t="s">
         <v>963</v>
       </c>
+      <c r="O118" t="s">
+        <v>963</v>
+      </c>
       <c r="P118" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S118" t="s">
         <v>904</v>
@@ -23277,13 +23286,19 @@
         <v>4055</v>
       </c>
       <c r="M119" t="s">
-        <v>963</v>
+        <v>5164</v>
       </c>
       <c r="N119" t="s">
         <v>963</v>
       </c>
+      <c r="O119" t="s">
+        <v>963</v>
+      </c>
       <c r="P119" s="7">
         <v>4</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>5163</v>
       </c>
       <c r="S119" t="s">
         <v>904</v>
@@ -23332,6 +23347,9 @@
       <c r="N120" t="s">
         <v>966</v>
       </c>
+      <c r="O120" t="s">
+        <v>966</v>
+      </c>
       <c r="P120" s="7" t="s">
         <v>5037</v>
       </c>
@@ -23385,8 +23403,11 @@
       <c r="N121" t="s">
         <v>963</v>
       </c>
+      <c r="O121" t="s">
+        <v>963</v>
+      </c>
       <c r="P121" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S121" t="s">
         <v>904</v>
@@ -23435,6 +23456,9 @@
       <c r="N122" t="s">
         <v>966</v>
       </c>
+      <c r="O122" t="s">
+        <v>966</v>
+      </c>
       <c r="P122" s="7">
         <v>4</v>
       </c>
@@ -23485,6 +23509,9 @@
       <c r="N123" t="s">
         <v>966</v>
       </c>
+      <c r="O123" t="s">
+        <v>966</v>
+      </c>
       <c r="P123" s="7" t="s">
         <v>5037</v>
       </c>
@@ -23535,6 +23562,9 @@
       <c r="N124" t="s">
         <v>963</v>
       </c>
+      <c r="O124" t="s">
+        <v>963</v>
+      </c>
       <c r="P124" s="7">
         <v>2</v>
       </c>
@@ -23585,6 +23615,9 @@
       <c r="N125" t="s">
         <v>972</v>
       </c>
+      <c r="O125" t="s">
+        <v>966</v>
+      </c>
       <c r="P125" s="7" t="s">
         <v>5037</v>
       </c>
@@ -23633,6 +23666,9 @@
         <v>974</v>
       </c>
       <c r="N126" t="s">
+        <v>966</v>
+      </c>
+      <c r="O126" t="s">
         <v>966</v>
       </c>
       <c r="P126" s="7">

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCC270B-E994-4C12-8CAF-F0603A473C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63138BE2-13B7-4E9C-8069-8593DDA20B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,7 +496,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9923" uniqueCount="5165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9924" uniqueCount="5165">
   <si>
     <t>Number</t>
   </si>
@@ -16907,8 +16907,8 @@
   <dimension ref="A1:Z575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K117" sqref="K117"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O128" sqref="O128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23720,6 +23720,9 @@
       </c>
       <c r="N127" t="s">
         <v>963</v>
+      </c>
+      <c r="O127" t="s">
+        <v>966</v>
       </c>
       <c r="P127" s="7">
         <v>1</v>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63138BE2-13B7-4E9C-8069-8593DDA20B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED85B85-9EDA-4CCD-A590-9D63A16086AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,7 +496,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9924" uniqueCount="5165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9927" uniqueCount="5164">
   <si>
     <t>Number</t>
   </si>
@@ -15640,9 +15640,6 @@
   </si>
   <si>
     <t>IDENTIFIED</t>
-  </si>
-  <si>
-    <t>Not sure if years of schooling are used properly, otherwise good theory</t>
   </si>
   <si>
     <t>Too granular focus of dep var</t>
@@ -16907,8 +16904,8 @@
   <dimension ref="A1:Z575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O128" sqref="O128"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P132" sqref="P132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16975,13 +16972,13 @@
         <v>962</v>
       </c>
       <c r="O1" s="24" t="s">
-        <v>5150</v>
+        <v>5149</v>
       </c>
       <c r="P1" s="25" t="s">
-        <v>5148</v>
+        <v>5147</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>5156</v>
+        <v>5155</v>
       </c>
       <c r="R1" s="28" t="s">
         <v>5046</v>
@@ -17165,7 +17162,7 @@
         <v>574</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>5154</v>
+        <v>5153</v>
       </c>
       <c r="V4">
         <f>COUNTIFS($N:$N, "YES", $M:$M, "&lt;&gt;PRIMARY STUDY", $Q:$Q, "&lt;&gt;Twins")</f>
@@ -17229,11 +17226,11 @@
         <v>574</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>5151</v>
+        <v>5150</v>
       </c>
       <c r="V5" s="38">
         <f>COUNTIFS($O:$O, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -17550,10 +17547,10 @@
         <v>1</v>
       </c>
       <c r="Q11" t="s">
-        <v>5155</v>
+        <v>5154</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>5149</v>
+        <v>5148</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -17609,7 +17606,7 @@
         <v>1</v>
       </c>
       <c r="S12" t="s">
-        <v>5152</v>
+        <v>5151</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -17665,7 +17662,7 @@
         <v>2</v>
       </c>
       <c r="S13" t="s">
-        <v>5153</v>
+        <v>5152</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -18993,7 +18990,7 @@
         <v>1</v>
       </c>
       <c r="Q38" t="s">
-        <v>5155</v>
+        <v>5154</v>
       </c>
       <c r="S38" t="s">
         <v>904</v>
@@ -19004,7 +19001,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>5158</v>
+        <v>5157</v>
       </c>
       <c r="C39" t="s">
         <v>3972</v>
@@ -20003,7 +20000,7 @@
         <v>2</v>
       </c>
       <c r="Q57" t="s">
-        <v>5159</v>
+        <v>5158</v>
       </c>
       <c r="S57" t="s">
         <v>904</v>
@@ -21755,7 +21752,7 @@
         <v>1</v>
       </c>
       <c r="Q90" t="s">
-        <v>5160</v>
+        <v>5159</v>
       </c>
       <c r="S90" t="s">
         <v>904</v>
@@ -21766,7 +21763,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>5161</v>
+        <v>5160</v>
       </c>
       <c r="C91" t="s">
         <v>4019</v>
@@ -21796,7 +21793,7 @@
         <v>1491</v>
       </c>
       <c r="L91" t="s">
-        <v>5161</v>
+        <v>5160</v>
       </c>
       <c r="M91" t="s">
         <v>963</v>
@@ -22818,7 +22815,7 @@
         <v>1</v>
       </c>
       <c r="Q110" t="s">
-        <v>5162</v>
+        <v>5161</v>
       </c>
       <c r="S110" t="s">
         <v>904</v>
@@ -23286,7 +23283,7 @@
         <v>4055</v>
       </c>
       <c r="M119" t="s">
-        <v>5164</v>
+        <v>5163</v>
       </c>
       <c r="N119" t="s">
         <v>963</v>
@@ -23298,7 +23295,7 @@
         <v>4</v>
       </c>
       <c r="Q119" t="s">
-        <v>5163</v>
+        <v>5162</v>
       </c>
       <c r="S119" t="s">
         <v>904</v>
@@ -23774,6 +23771,9 @@
       <c r="N128" t="s">
         <v>966</v>
       </c>
+      <c r="O128" t="s">
+        <v>966</v>
+      </c>
       <c r="P128" s="7" t="s">
         <v>5037</v>
       </c>
@@ -23824,6 +23824,9 @@
       <c r="N129" t="s">
         <v>966</v>
       </c>
+      <c r="O129" t="s">
+        <v>966</v>
+      </c>
       <c r="P129" s="7" t="s">
         <v>5037</v>
       </c>
@@ -23874,6 +23877,9 @@
       <c r="N130" t="s">
         <v>966</v>
       </c>
+      <c r="O130" t="s">
+        <v>966</v>
+      </c>
       <c r="P130" s="7" t="s">
         <v>5037</v>
       </c>
@@ -23924,11 +23930,11 @@
       <c r="N131" t="s">
         <v>963</v>
       </c>
+      <c r="O131" t="s">
+        <v>963</v>
+      </c>
       <c r="P131" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q131" t="s">
-        <v>5048</v>
+        <v>2</v>
       </c>
       <c r="S131" t="s">
         <v>904</v>
@@ -24178,7 +24184,7 @@
         <v>2</v>
       </c>
       <c r="Q136" t="s">
-        <v>5049</v>
+        <v>5048</v>
       </c>
       <c r="S136" t="s">
         <v>904</v>
@@ -24331,7 +24337,7 @@
         <v>1</v>
       </c>
       <c r="Q139" t="s">
-        <v>5050</v>
+        <v>5049</v>
       </c>
       <c r="S139" t="s">
         <v>904</v>
@@ -24419,7 +24425,7 @@
         <v>2027</v>
       </c>
       <c r="K141" t="s">
-        <v>5051</v>
+        <v>5050</v>
       </c>
       <c r="L141" t="s">
         <v>4900</v>
@@ -24681,7 +24687,7 @@
         <v>1</v>
       </c>
       <c r="Q146" t="s">
-        <v>5052</v>
+        <v>5051</v>
       </c>
       <c r="S146" t="s">
         <v>904</v>
@@ -24931,7 +24937,7 @@
         <v>3</v>
       </c>
       <c r="Q151" t="s">
-        <v>5053</v>
+        <v>5052</v>
       </c>
       <c r="S151" t="s">
         <v>904</v>
@@ -25434,7 +25440,7 @@
         <v>2</v>
       </c>
       <c r="Q161" t="s">
-        <v>5054</v>
+        <v>5053</v>
       </c>
       <c r="S161" t="s">
         <v>904</v>
@@ -25537,7 +25543,7 @@
         <v>2</v>
       </c>
       <c r="Q163" t="s">
-        <v>5055</v>
+        <v>5054</v>
       </c>
       <c r="S163" t="s">
         <v>904</v>
@@ -26249,7 +26255,7 @@
         <v>5037</v>
       </c>
       <c r="Q177" t="s">
-        <v>5056</v>
+        <v>5055</v>
       </c>
       <c r="S177" t="s">
         <v>904</v>
@@ -26752,7 +26758,7 @@
         <v>1</v>
       </c>
       <c r="Q187" t="s">
-        <v>5057</v>
+        <v>5056</v>
       </c>
       <c r="S187" t="s">
         <v>904</v>
@@ -26855,7 +26861,7 @@
         <v>1</v>
       </c>
       <c r="Q189" t="s">
-        <v>5079</v>
+        <v>5078</v>
       </c>
       <c r="S189" t="s">
         <v>904</v>
@@ -26908,7 +26914,7 @@
         <v>5037</v>
       </c>
       <c r="Q190" t="s">
-        <v>5080</v>
+        <v>5079</v>
       </c>
       <c r="S190" t="s">
         <v>904</v>
@@ -29255,7 +29261,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>5081</v>
+        <v>5080</v>
       </c>
       <c r="C240" t="s">
         <v>4792</v>
@@ -45099,7 +45105,7 @@
   <conditionalFormatting sqref="R1:R10 R16:R1048576 S11:S15">
     <cfRule type="duplicateValues" dxfId="21" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q131 Q136 Q139 Q146 Q151 Q161 Q163 Q177 Q187 Q189:Q190 P2:P601">
+  <conditionalFormatting sqref="Q136 Q139 Q146 Q151 Q161 Q163 Q177 Q187 Q189:Q190 P2:P601">
     <cfRule type="containsBlanks" dxfId="20" priority="22">
       <formula>LEN(TRIM(P2))=0</formula>
     </cfRule>
@@ -45185,13 +45191,13 @@
         <v>962</v>
       </c>
       <c r="O1" s="24" t="s">
-        <v>5150</v>
+        <v>5149</v>
       </c>
       <c r="P1" s="25" t="s">
         <v>5034</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>5156</v>
+        <v>5155</v>
       </c>
       <c r="R1" s="28" t="s">
         <v>5046</v>
@@ -45217,19 +45223,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5063</v>
+        <v>5062</v>
       </c>
       <c r="C2" t="s">
-        <v>5062</v>
+        <v>5061</v>
       </c>
       <c r="D2">
         <v>1998</v>
       </c>
       <c r="E2" t="s">
-        <v>5070</v>
+        <v>5069</v>
       </c>
       <c r="F2" t="s">
-        <v>5061</v>
+        <v>5060</v>
       </c>
       <c r="G2" t="s">
         <v>5038</v>
@@ -45238,16 +45244,16 @@
         <v>908</v>
       </c>
       <c r="I2" t="s">
-        <v>5065</v>
+        <v>5064</v>
       </c>
       <c r="J2" t="s">
-        <v>5064</v>
+        <v>5063</v>
       </c>
       <c r="K2" t="s">
-        <v>5064</v>
+        <v>5063</v>
       </c>
       <c r="L2" t="s">
-        <v>5063</v>
+        <v>5062</v>
       </c>
       <c r="M2" t="s">
         <v>963</v>
@@ -45265,7 +45271,7 @@
         <v>904</v>
       </c>
       <c r="X2" t="s">
-        <v>5058</v>
+        <v>5057</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -45273,19 +45279,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5072</v>
+        <v>5071</v>
       </c>
       <c r="C3" t="s">
-        <v>5071</v>
+        <v>5070</v>
       </c>
       <c r="D3">
         <v>1994</v>
       </c>
       <c r="E3" t="s">
-        <v>5069</v>
+        <v>5068</v>
       </c>
       <c r="F3" t="s">
-        <v>5066</v>
+        <v>5065</v>
       </c>
       <c r="G3" t="s">
         <v>5038</v>
@@ -45294,16 +45300,16 @@
         <v>1812</v>
       </c>
       <c r="I3" t="s">
+        <v>5066</v>
+      </c>
+      <c r="J3" t="s">
         <v>5067</v>
       </c>
-      <c r="J3" t="s">
-        <v>5068</v>
-      </c>
       <c r="K3" t="s">
-        <v>5068</v>
+        <v>5067</v>
       </c>
       <c r="L3" t="s">
-        <v>5072</v>
+        <v>5071</v>
       </c>
       <c r="M3" t="s">
         <v>963</v>
@@ -45318,7 +45324,7 @@
         <v>1</v>
       </c>
       <c r="X3" t="s">
-        <v>5059</v>
+        <v>5058</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -45335,10 +45341,10 @@
         <v>1999</v>
       </c>
       <c r="E4" t="s">
-        <v>5077</v>
+        <v>5076</v>
       </c>
       <c r="F4" t="s">
-        <v>5073</v>
+        <v>5072</v>
       </c>
       <c r="G4" t="s">
         <v>5038</v>
@@ -45347,13 +45353,13 @@
         <v>188</v>
       </c>
       <c r="I4" t="s">
+        <v>5073</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5075</v>
+      </c>
+      <c r="K4" t="s">
         <v>5074</v>
-      </c>
-      <c r="J4" t="s">
-        <v>5076</v>
-      </c>
-      <c r="K4" t="s">
-        <v>5075</v>
       </c>
       <c r="L4" t="s">
         <v>727</v>
@@ -45371,10 +45377,10 @@
         <v>1</v>
       </c>
       <c r="Q4" t="s">
-        <v>5078</v>
+        <v>5077</v>
       </c>
       <c r="X4" t="s">
-        <v>5060</v>
+        <v>5059</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -45382,19 +45388,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5082</v>
+        <v>5081</v>
       </c>
       <c r="C5" t="s">
-        <v>5090</v>
+        <v>5089</v>
       </c>
       <c r="D5">
         <v>2003</v>
       </c>
       <c r="E5" t="s">
+        <v>5093</v>
+      </c>
+      <c r="F5" t="s">
         <v>5094</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5095</v>
       </c>
       <c r="G5" t="s">
         <v>5038</v>
@@ -45403,16 +45409,16 @@
         <v>158</v>
       </c>
       <c r="I5" t="s">
+        <v>5087</v>
+      </c>
+      <c r="J5" t="s">
         <v>5088</v>
       </c>
-      <c r="J5" t="s">
-        <v>5089</v>
-      </c>
       <c r="K5" t="s">
-        <v>5089</v>
+        <v>5088</v>
       </c>
       <c r="L5" t="s">
-        <v>5082</v>
+        <v>5081</v>
       </c>
       <c r="M5" t="s">
         <v>963</v>
@@ -45432,19 +45438,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5083</v>
+        <v>5082</v>
       </c>
       <c r="C6" t="s">
-        <v>5091</v>
+        <v>5090</v>
       </c>
       <c r="D6">
         <v>2012</v>
       </c>
       <c r="E6" t="s">
-        <v>5097</v>
+        <v>5096</v>
       </c>
       <c r="F6" t="s">
-        <v>5096</v>
+        <v>5095</v>
       </c>
       <c r="G6" t="s">
         <v>5038</v>
@@ -45453,16 +45459,16 @@
         <v>176</v>
       </c>
       <c r="I6" t="s">
+        <v>5097</v>
+      </c>
+      <c r="J6" t="s">
         <v>5098</v>
       </c>
-      <c r="J6" t="s">
-        <v>5099</v>
-      </c>
       <c r="K6" t="s">
-        <v>5099</v>
+        <v>5098</v>
       </c>
       <c r="L6" t="s">
-        <v>5083</v>
+        <v>5082</v>
       </c>
       <c r="M6" t="s">
         <v>963</v>
@@ -45477,14 +45483,14 @@
         <v>1</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>5154</v>
+        <v>5153</v>
       </c>
       <c r="S6">
         <f>COUNTIFS($N:$N, "YES", $M:$M, "&lt;&gt;PRIMARY STUDY")</f>
         <v>16</v>
       </c>
       <c r="X6" t="s">
-        <v>5087</v>
+        <v>5086</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -45492,7 +45498,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5084</v>
+        <v>5083</v>
       </c>
       <c r="C7" t="s">
         <v>4134</v>
@@ -45501,10 +45507,10 @@
         <v>1995</v>
       </c>
       <c r="E7" t="s">
+        <v>5099</v>
+      </c>
+      <c r="F7" t="s">
         <v>5100</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5101</v>
       </c>
       <c r="G7" t="s">
         <v>5038</v>
@@ -45513,16 +45519,16 @@
         <v>372</v>
       </c>
       <c r="I7" t="s">
+        <v>5101</v>
+      </c>
+      <c r="J7" t="s">
         <v>5102</v>
       </c>
-      <c r="J7" t="s">
-        <v>5103</v>
-      </c>
       <c r="K7" t="s">
-        <v>5103</v>
+        <v>5102</v>
       </c>
       <c r="L7" t="s">
-        <v>5084</v>
+        <v>5083</v>
       </c>
       <c r="M7" t="s">
         <v>963</v>
@@ -45537,7 +45543,7 @@
         <v>1</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>5151</v>
+        <v>5150</v>
       </c>
       <c r="S7">
         <f>COUNTIFS($O:$O, "YES", $F:$F, "&lt;&gt;")</f>
@@ -45549,19 +45555,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5104</v>
+        <v>5103</v>
       </c>
       <c r="C8" t="s">
-        <v>5092</v>
+        <v>5091</v>
       </c>
       <c r="D8">
         <v>1976</v>
       </c>
       <c r="E8" t="s">
+        <v>5104</v>
+      </c>
+      <c r="F8" t="s">
         <v>5105</v>
-      </c>
-      <c r="F8" t="s">
-        <v>5106</v>
       </c>
       <c r="G8" t="s">
         <v>5038</v>
@@ -45570,16 +45576,16 @@
         <v>382</v>
       </c>
       <c r="I8" t="s">
+        <v>5106</v>
+      </c>
+      <c r="J8" t="s">
         <v>5107</v>
       </c>
-      <c r="J8" t="s">
-        <v>5108</v>
-      </c>
       <c r="K8" t="s">
-        <v>5108</v>
+        <v>5107</v>
       </c>
       <c r="L8" t="s">
-        <v>5104</v>
+        <v>5103</v>
       </c>
       <c r="M8" t="s">
         <v>963</v>
@@ -45599,7 +45605,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5085</v>
+        <v>5084</v>
       </c>
       <c r="C9" t="s">
         <v>4081</v>
@@ -45608,10 +45614,10 @@
         <v>1994</v>
       </c>
       <c r="E9" t="s">
-        <v>5112</v>
+        <v>5111</v>
       </c>
       <c r="F9" t="s">
-        <v>5111</v>
+        <v>5110</v>
       </c>
       <c r="G9" t="s">
         <v>5038</v>
@@ -45620,13 +45626,13 @@
         <v>616</v>
       </c>
       <c r="I9" t="s">
+        <v>5108</v>
+      </c>
+      <c r="J9" t="s">
         <v>5109</v>
       </c>
-      <c r="J9" t="s">
-        <v>5110</v>
-      </c>
       <c r="L9" t="s">
-        <v>5085</v>
+        <v>5084</v>
       </c>
       <c r="M9" t="s">
         <v>963</v>
@@ -45646,19 +45652,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5086</v>
+        <v>5085</v>
       </c>
       <c r="C10" t="s">
-        <v>5093</v>
+        <v>5092</v>
       </c>
       <c r="D10">
         <v>1999</v>
       </c>
       <c r="E10" t="s">
+        <v>5114</v>
+      </c>
+      <c r="F10" t="s">
         <v>5115</v>
-      </c>
-      <c r="F10" t="s">
-        <v>5116</v>
       </c>
       <c r="G10" t="s">
         <v>5038</v>
@@ -45667,16 +45673,16 @@
         <v>196</v>
       </c>
       <c r="I10" t="s">
+        <v>5112</v>
+      </c>
+      <c r="J10" t="s">
         <v>5113</v>
       </c>
-      <c r="J10" t="s">
-        <v>5114</v>
-      </c>
       <c r="K10" t="s">
-        <v>5114</v>
+        <v>5113</v>
       </c>
       <c r="L10" t="s">
-        <v>5086</v>
+        <v>5085</v>
       </c>
       <c r="M10" t="s">
         <v>963</v>
@@ -45696,19 +45702,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>5119</v>
+      </c>
+      <c r="C11" t="s">
         <v>5120</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5121</v>
       </c>
       <c r="D11">
         <v>1996</v>
       </c>
       <c r="E11" t="s">
-        <v>5122</v>
+        <v>5121</v>
       </c>
       <c r="F11" t="s">
-        <v>5117</v>
+        <v>5116</v>
       </c>
       <c r="G11" t="s">
         <v>5038</v>
@@ -45717,13 +45723,13 @@
         <v>218</v>
       </c>
       <c r="I11" t="s">
+        <v>5117</v>
+      </c>
+      <c r="J11" t="s">
         <v>5118</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>5119</v>
-      </c>
-      <c r="L11" t="s">
-        <v>5120</v>
       </c>
       <c r="M11" t="s">
         <v>963</v>
@@ -45743,19 +45749,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5128</v>
+        <v>5127</v>
       </c>
       <c r="C12" t="s">
-        <v>5127</v>
+        <v>5126</v>
       </c>
       <c r="D12">
         <v>2002</v>
       </c>
       <c r="E12" t="s">
-        <v>5126</v>
+        <v>5125</v>
       </c>
       <c r="F12" t="s">
-        <v>5123</v>
+        <v>5122</v>
       </c>
       <c r="G12" t="s">
         <v>5038</v>
@@ -45764,16 +45770,16 @@
         <v>320</v>
       </c>
       <c r="I12" t="s">
+        <v>5123</v>
+      </c>
+      <c r="J12" t="s">
         <v>5124</v>
       </c>
-      <c r="J12" t="s">
-        <v>5125</v>
-      </c>
       <c r="K12" t="s">
-        <v>5125</v>
+        <v>5124</v>
       </c>
       <c r="L12" t="s">
-        <v>5128</v>
+        <v>5127</v>
       </c>
       <c r="M12" t="s">
         <v>963</v>
@@ -45793,19 +45799,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>5132</v>
+      </c>
+      <c r="C13" t="s">
         <v>5133</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5134</v>
       </c>
       <c r="D13">
         <v>2018</v>
       </c>
       <c r="E13" t="s">
-        <v>5135</v>
+        <v>5134</v>
       </c>
       <c r="F13" t="s">
-        <v>5129</v>
+        <v>5128</v>
       </c>
       <c r="G13" t="s">
         <v>5038</v>
@@ -45814,16 +45820,16 @@
         <v>181</v>
       </c>
       <c r="I13" t="s">
+        <v>5129</v>
+      </c>
+      <c r="J13" t="s">
         <v>5130</v>
       </c>
-      <c r="J13" t="s">
-        <v>5131</v>
-      </c>
       <c r="K13" t="s">
-        <v>5131</v>
+        <v>5130</v>
       </c>
       <c r="L13" t="s">
-        <v>5133</v>
+        <v>5132</v>
       </c>
       <c r="M13" t="s">
         <v>963</v>
@@ -45835,7 +45841,7 @@
         <v>966</v>
       </c>
       <c r="P13" t="s">
-        <v>5132</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -45843,19 +45849,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>5138</v>
+      </c>
+      <c r="C14" t="s">
         <v>5139</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5140</v>
       </c>
       <c r="D14">
         <v>2012</v>
       </c>
       <c r="E14" t="s">
-        <v>5141</v>
+        <v>5140</v>
       </c>
       <c r="F14" t="s">
-        <v>5136</v>
+        <v>5135</v>
       </c>
       <c r="G14" t="s">
         <v>5038</v>
@@ -45864,16 +45870,16 @@
         <v>18</v>
       </c>
       <c r="I14" t="s">
+        <v>5136</v>
+      </c>
+      <c r="J14" t="s">
         <v>5137</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
+        <v>5137</v>
+      </c>
+      <c r="L14" t="s">
         <v>5138</v>
-      </c>
-      <c r="K14" t="s">
-        <v>5138</v>
-      </c>
-      <c r="L14" t="s">
-        <v>5139</v>
       </c>
       <c r="M14" t="s">
         <v>963</v>
@@ -45893,19 +45899,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>5146</v>
+        <v>5145</v>
       </c>
       <c r="C15" t="s">
-        <v>5143</v>
+        <v>5142</v>
       </c>
       <c r="D15">
         <v>2020</v>
       </c>
       <c r="E15" t="s">
-        <v>5147</v>
+        <v>5146</v>
       </c>
       <c r="F15" t="s">
-        <v>5144</v>
+        <v>5143</v>
       </c>
       <c r="G15" t="s">
         <v>5038</v>
@@ -45914,16 +45920,16 @@
         <v>11</v>
       </c>
       <c r="I15" t="s">
+        <v>5144</v>
+      </c>
+      <c r="J15" t="s">
+        <v>5141</v>
+      </c>
+      <c r="K15" t="s">
+        <v>5141</v>
+      </c>
+      <c r="L15" t="s">
         <v>5145</v>
-      </c>
-      <c r="J15" t="s">
-        <v>5142</v>
-      </c>
-      <c r="K15" t="s">
-        <v>5142</v>
-      </c>
-      <c r="L15" t="s">
-        <v>5146</v>
       </c>
       <c r="M15" t="s">
         <v>963</v>
@@ -45988,7 +45994,7 @@
         <v>1</v>
       </c>
       <c r="Q16" t="s">
-        <v>5157</v>
+        <v>5156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -46041,7 +46047,7 @@
         <v>1</v>
       </c>
       <c r="Q17" t="s">
-        <v>5157</v>
+        <v>5156</v>
       </c>
     </row>
   </sheetData>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9A6F50-93F2-4D65-A24E-08364C221C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7706826-902A-4225-A0BC-6BEA8CF3FED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Query literature" sheetId="5" r:id="rId1"/>
@@ -642,7 +642,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16527" uniqueCount="5162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16530" uniqueCount="5162">
   <si>
     <t>Number</t>
   </si>
@@ -16513,66 +16513,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFAACAC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFAACAC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFAACAC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBA8CDC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6161"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -16663,6 +16603,66 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAACAC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBA8CDC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6161"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAACAC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAACAC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -17104,8 +17104,8 @@
   <dimension ref="A1:Z575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O135" sqref="O135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17430,7 +17430,7 @@
       </c>
       <c r="V5" s="38">
         <f>COUNTIFS($O:$O, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -24183,8 +24183,11 @@
       <c r="N132" t="s">
         <v>963</v>
       </c>
+      <c r="O132" t="s">
+        <v>963</v>
+      </c>
       <c r="P132" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S132" t="s">
         <v>904</v>
@@ -24230,6 +24233,9 @@
       <c r="N133" t="s">
         <v>966</v>
       </c>
+      <c r="O133" t="s">
+        <v>966</v>
+      </c>
       <c r="P133" s="7" t="s">
         <v>5037</v>
       </c>
@@ -24278,6 +24284,9 @@
         <v>972</v>
       </c>
       <c r="N134" t="s">
+        <v>966</v>
+      </c>
+      <c r="O134" t="s">
         <v>966</v>
       </c>
       <c r="P134" s="7" t="s">
@@ -71681,35 +71690,35 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsBlanks" dxfId="7" priority="7">
+    <cfRule type="containsBlanks" dxfId="24" priority="7">
       <formula>LEN(TRIM(F1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:O601">
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="PRIMARY STUDY">
+    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="PRIMARY STUDY">
       <formula>NOT(ISERROR(SEARCH("PRIMARY STUDY",M2)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="5" priority="5" operator="notContains" text="YES">
+    <cfRule type="notContainsText" dxfId="22" priority="5" operator="notContains" text="YES">
       <formula>ISERROR(SEARCH("YES",M2))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="21" priority="6" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B38 B40:B1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P601">
-    <cfRule type="containsBlanks" dxfId="2" priority="8">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(P2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P601">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",P2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -72642,44 +72651,44 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="containsBlanks" dxfId="24" priority="10">
+    <cfRule type="containsBlanks" dxfId="16" priority="10">
       <formula>LEN(TRIM(F1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:O17">
-    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="PRIMARY STUDY">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="PRIMARY STUDY">
       <formula>NOT(ISERROR(SEARCH("PRIMARY STUDY",M2)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="22" priority="8" operator="notContains" text="YES">
+    <cfRule type="notContainsText" dxfId="14" priority="8" operator="notContains" text="YES">
       <formula>ISERROR(SEARCH("YES",M2))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="9" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B2">
-    <cfRule type="duplicateValues" dxfId="20" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R2">
-    <cfRule type="duplicateValues" dxfId="19" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsBlanks" dxfId="18" priority="11">
+    <cfRule type="containsBlanks" dxfId="10" priority="11">
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1">
-    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4 P1:P1048576 Q1">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",P1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -81574,10 +81583,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:K251 L1">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$K1=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="9">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>$J1=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -89522,10 +89531,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J259:J1048576 J257 J1:J253">
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="2" priority="13" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",J1)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -89540,10 +89549,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",M17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",M17)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA4E1AE-578C-4257-BE62-395B5056A356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB6BE4C-1AFB-469B-9B68-46F84C7A2576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,7 +499,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9355" uniqueCount="5160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9359" uniqueCount="5159">
   <si>
     <t>Number</t>
   </si>
@@ -15640,9 +15640,6 @@
   </si>
   <si>
     <t>Too granular focus of dep var</t>
-  </si>
-  <si>
-    <t>Must use</t>
   </si>
   <si>
     <t>https://www.tandfonline.com/doi/pdf/10.1080/00036846.2015.1085642?download=true</t>
@@ -16894,9 +16891,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y575"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N139" sqref="N139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16959,20 +16956,20 @@
         <v>962</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>5147</v>
+        <v>5146</v>
       </c>
       <c r="O1" s="25" t="s">
-        <v>5145</v>
+        <v>5144</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>5153</v>
+        <v>5152</v>
       </c>
       <c r="Q1" s="28" t="s">
         <v>5044</v>
       </c>
       <c r="R1" s="29">
         <f>COUNTIFS($M:$M, "YES", $F:$F, "&lt;&gt;") + Twins!S1</f>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T1" s="28" t="s">
         <v>5045</v>
@@ -17140,11 +17137,11 @@
         <v>574</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>5151</v>
+        <v>5150</v>
       </c>
       <c r="U4">
         <f>COUNTIFS($M:$M, "YES", $L:$L, "&lt;&gt;PRIMARY STUDY", $P:$P, "&lt;&gt;Twins")</f>
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -17201,11 +17198,11 @@
         <v>574</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>5148</v>
+        <v>5147</v>
       </c>
       <c r="U5" s="38">
         <f>COUNTIFS($N:$N, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -17504,10 +17501,10 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>5152</v>
+        <v>5151</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>5146</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -17560,7 +17557,7 @@
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>5149</v>
+        <v>5148</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -17613,7 +17610,7 @@
         <v>2</v>
       </c>
       <c r="R13" t="s">
-        <v>5150</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -18866,7 +18863,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>5152</v>
+        <v>5151</v>
       </c>
       <c r="R38" t="s">
         <v>904</v>
@@ -19819,7 +19816,7 @@
         <v>2</v>
       </c>
       <c r="P57" t="s">
-        <v>5155</v>
+        <v>5154</v>
       </c>
       <c r="R57" t="s">
         <v>904</v>
@@ -21472,7 +21469,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>5156</v>
+        <v>5155</v>
       </c>
       <c r="R90" t="s">
         <v>904</v>
@@ -21483,7 +21480,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>5157</v>
+        <v>5156</v>
       </c>
       <c r="C91" t="s">
         <v>4019</v>
@@ -22475,7 +22472,7 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>5158</v>
+        <v>5157</v>
       </c>
       <c r="R110" t="s">
         <v>904</v>
@@ -22928,7 +22925,7 @@
         <v>4</v>
       </c>
       <c r="P119" t="s">
-        <v>5159</v>
+        <v>5158</v>
       </c>
       <c r="R119" t="s">
         <v>904</v>
@@ -23719,10 +23716,13 @@
         <v>1716</v>
       </c>
       <c r="L135" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="M135" t="s">
-        <v>963</v>
+        <v>966</v>
+      </c>
+      <c r="N135" t="s">
+        <v>966</v>
       </c>
       <c r="O135" s="7">
         <v>3</v>
@@ -23771,6 +23771,9 @@
       <c r="M136" t="s">
         <v>966</v>
       </c>
+      <c r="N136" t="s">
+        <v>966</v>
+      </c>
       <c r="O136" s="7">
         <v>2</v>
       </c>
@@ -23816,10 +23819,13 @@
         <v>1728</v>
       </c>
       <c r="L137" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="M137" t="s">
-        <v>963</v>
+        <v>966</v>
+      </c>
+      <c r="N137" t="s">
+        <v>966</v>
       </c>
       <c r="O137" s="7">
         <v>1</v>
@@ -23868,6 +23874,9 @@
       <c r="M138" t="s">
         <v>966</v>
       </c>
+      <c r="N138" t="s">
+        <v>966</v>
+      </c>
       <c r="O138" s="7" t="s">
         <v>5035</v>
       </c>
@@ -23915,11 +23924,11 @@
       <c r="M139" t="s">
         <v>963</v>
       </c>
+      <c r="N139" t="s">
+        <v>963</v>
+      </c>
       <c r="O139" s="7">
-        <v>1</v>
-      </c>
-      <c r="P139" t="s">
-        <v>5047</v>
+        <v>2</v>
       </c>
       <c r="R139" t="s">
         <v>904</v>
@@ -24004,7 +24013,7 @@
         <v>2027</v>
       </c>
       <c r="K141" t="s">
-        <v>5048</v>
+        <v>5047</v>
       </c>
       <c r="L141" t="s">
         <v>963</v>
@@ -24248,7 +24257,7 @@
         <v>1</v>
       </c>
       <c r="P146" t="s">
-        <v>5049</v>
+        <v>5048</v>
       </c>
       <c r="R146" t="s">
         <v>904</v>
@@ -24483,7 +24492,7 @@
         <v>3</v>
       </c>
       <c r="P151" t="s">
-        <v>5050</v>
+        <v>5049</v>
       </c>
       <c r="R151" t="s">
         <v>904</v>
@@ -24956,7 +24965,7 @@
         <v>2</v>
       </c>
       <c r="P161" t="s">
-        <v>5051</v>
+        <v>5050</v>
       </c>
       <c r="R161" t="s">
         <v>904</v>
@@ -25053,7 +25062,7 @@
         <v>2</v>
       </c>
       <c r="P163" t="s">
-        <v>5052</v>
+        <v>5051</v>
       </c>
       <c r="R163" t="s">
         <v>904</v>
@@ -25723,7 +25732,7 @@
         <v>5035</v>
       </c>
       <c r="P177" t="s">
-        <v>5053</v>
+        <v>5052</v>
       </c>
       <c r="R177" t="s">
         <v>904</v>
@@ -26196,7 +26205,7 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>5054</v>
+        <v>5053</v>
       </c>
       <c r="R187" t="s">
         <v>904</v>
@@ -26293,7 +26302,7 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>5076</v>
+        <v>5075</v>
       </c>
       <c r="R189" t="s">
         <v>904</v>
@@ -26343,7 +26352,7 @@
         <v>5035</v>
       </c>
       <c r="P190" t="s">
-        <v>5077</v>
+        <v>5076</v>
       </c>
       <c r="R190" t="s">
         <v>904</v>
@@ -28543,7 +28552,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>5078</v>
+        <v>5077</v>
       </c>
       <c r="C240" t="s">
         <v>4792</v>
@@ -43379,7 +43388,7 @@
   <conditionalFormatting sqref="Q1:Q10 Q16:Q1048576 R11:R15">
     <cfRule type="duplicateValues" dxfId="21" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P136 P139 P146 P151 P161 P163 P177 P187 P189:P190 O2:O601">
+  <conditionalFormatting sqref="P136 P146 P151 P161 P163 P177 P187 P189:P190 O2:O601">
     <cfRule type="containsBlanks" dxfId="20" priority="22">
       <formula>LEN(TRIM(O2))=0</formula>
     </cfRule>
@@ -43465,13 +43474,13 @@
         <v>962</v>
       </c>
       <c r="O1" s="24" t="s">
-        <v>5147</v>
+        <v>5146</v>
       </c>
       <c r="P1" s="25" t="s">
         <v>5032</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>5153</v>
+        <v>5152</v>
       </c>
       <c r="R1" s="28" t="s">
         <v>5044</v>
@@ -43497,19 +43506,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5060</v>
+        <v>5059</v>
       </c>
       <c r="C2" t="s">
-        <v>5059</v>
+        <v>5058</v>
       </c>
       <c r="D2">
         <v>1998</v>
       </c>
       <c r="E2" t="s">
-        <v>5067</v>
+        <v>5066</v>
       </c>
       <c r="F2" t="s">
-        <v>5058</v>
+        <v>5057</v>
       </c>
       <c r="G2" t="s">
         <v>5036</v>
@@ -43518,16 +43527,16 @@
         <v>908</v>
       </c>
       <c r="I2" t="s">
-        <v>5062</v>
+        <v>5061</v>
       </c>
       <c r="J2" t="s">
-        <v>5061</v>
+        <v>5060</v>
       </c>
       <c r="K2" t="s">
-        <v>5061</v>
+        <v>5060</v>
       </c>
       <c r="L2" t="s">
-        <v>5060</v>
+        <v>5059</v>
       </c>
       <c r="M2" t="s">
         <v>963</v>
@@ -43545,7 +43554,7 @@
         <v>904</v>
       </c>
       <c r="X2" t="s">
-        <v>5055</v>
+        <v>5054</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -43553,19 +43562,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5069</v>
+        <v>5068</v>
       </c>
       <c r="C3" t="s">
-        <v>5068</v>
+        <v>5067</v>
       </c>
       <c r="D3">
         <v>1994</v>
       </c>
       <c r="E3" t="s">
-        <v>5066</v>
+        <v>5065</v>
       </c>
       <c r="F3" t="s">
-        <v>5063</v>
+        <v>5062</v>
       </c>
       <c r="G3" t="s">
         <v>5036</v>
@@ -43574,16 +43583,16 @@
         <v>1812</v>
       </c>
       <c r="I3" t="s">
+        <v>5063</v>
+      </c>
+      <c r="J3" t="s">
         <v>5064</v>
       </c>
-      <c r="J3" t="s">
-        <v>5065</v>
-      </c>
       <c r="K3" t="s">
-        <v>5065</v>
+        <v>5064</v>
       </c>
       <c r="L3" t="s">
-        <v>5069</v>
+        <v>5068</v>
       </c>
       <c r="M3" t="s">
         <v>963</v>
@@ -43598,7 +43607,7 @@
         <v>1</v>
       </c>
       <c r="X3" t="s">
-        <v>5056</v>
+        <v>5055</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -43615,10 +43624,10 @@
         <v>1999</v>
       </c>
       <c r="E4" t="s">
-        <v>5074</v>
+        <v>5073</v>
       </c>
       <c r="F4" t="s">
-        <v>5070</v>
+        <v>5069</v>
       </c>
       <c r="G4" t="s">
         <v>5036</v>
@@ -43627,13 +43636,13 @@
         <v>188</v>
       </c>
       <c r="I4" t="s">
+        <v>5070</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5072</v>
+      </c>
+      <c r="K4" t="s">
         <v>5071</v>
-      </c>
-      <c r="J4" t="s">
-        <v>5073</v>
-      </c>
-      <c r="K4" t="s">
-        <v>5072</v>
       </c>
       <c r="L4" t="s">
         <v>727</v>
@@ -43651,10 +43660,10 @@
         <v>1</v>
       </c>
       <c r="Q4" t="s">
-        <v>5075</v>
+        <v>5074</v>
       </c>
       <c r="X4" t="s">
-        <v>5057</v>
+        <v>5056</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -43662,19 +43671,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5079</v>
+        <v>5078</v>
       </c>
       <c r="C5" t="s">
-        <v>5087</v>
+        <v>5086</v>
       </c>
       <c r="D5">
         <v>2003</v>
       </c>
       <c r="E5" t="s">
+        <v>5090</v>
+      </c>
+      <c r="F5" t="s">
         <v>5091</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5092</v>
       </c>
       <c r="G5" t="s">
         <v>5036</v>
@@ -43683,16 +43692,16 @@
         <v>158</v>
       </c>
       <c r="I5" t="s">
+        <v>5084</v>
+      </c>
+      <c r="J5" t="s">
         <v>5085</v>
       </c>
-      <c r="J5" t="s">
-        <v>5086</v>
-      </c>
       <c r="K5" t="s">
-        <v>5086</v>
+        <v>5085</v>
       </c>
       <c r="L5" t="s">
-        <v>5079</v>
+        <v>5078</v>
       </c>
       <c r="M5" t="s">
         <v>963</v>
@@ -43712,19 +43721,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5080</v>
+        <v>5079</v>
       </c>
       <c r="C6" t="s">
-        <v>5088</v>
+        <v>5087</v>
       </c>
       <c r="D6">
         <v>2012</v>
       </c>
       <c r="E6" t="s">
-        <v>5094</v>
+        <v>5093</v>
       </c>
       <c r="F6" t="s">
-        <v>5093</v>
+        <v>5092</v>
       </c>
       <c r="G6" t="s">
         <v>5036</v>
@@ -43733,16 +43742,16 @@
         <v>176</v>
       </c>
       <c r="I6" t="s">
+        <v>5094</v>
+      </c>
+      <c r="J6" t="s">
         <v>5095</v>
       </c>
-      <c r="J6" t="s">
-        <v>5096</v>
-      </c>
       <c r="K6" t="s">
-        <v>5096</v>
+        <v>5095</v>
       </c>
       <c r="L6" t="s">
-        <v>5080</v>
+        <v>5079</v>
       </c>
       <c r="M6" t="s">
         <v>963</v>
@@ -43757,14 +43766,14 @@
         <v>1</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>5151</v>
+        <v>5150</v>
       </c>
       <c r="S6">
         <f>COUNTIFS($N:$N, "YES", $M:$M, "&lt;&gt;PRIMARY STUDY")</f>
         <v>16</v>
       </c>
       <c r="X6" t="s">
-        <v>5084</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -43772,7 +43781,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5081</v>
+        <v>5080</v>
       </c>
       <c r="C7" t="s">
         <v>4134</v>
@@ -43781,10 +43790,10 @@
         <v>1995</v>
       </c>
       <c r="E7" t="s">
+        <v>5096</v>
+      </c>
+      <c r="F7" t="s">
         <v>5097</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5098</v>
       </c>
       <c r="G7" t="s">
         <v>5036</v>
@@ -43793,16 +43802,16 @@
         <v>372</v>
       </c>
       <c r="I7" t="s">
+        <v>5098</v>
+      </c>
+      <c r="J7" t="s">
         <v>5099</v>
       </c>
-      <c r="J7" t="s">
-        <v>5100</v>
-      </c>
       <c r="K7" t="s">
-        <v>5100</v>
+        <v>5099</v>
       </c>
       <c r="L7" t="s">
-        <v>5081</v>
+        <v>5080</v>
       </c>
       <c r="M7" t="s">
         <v>963</v>
@@ -43817,7 +43826,7 @@
         <v>1</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>5148</v>
+        <v>5147</v>
       </c>
       <c r="S7">
         <f>COUNTIFS($O:$O, "YES", $F:$F, "&lt;&gt;")</f>
@@ -43829,19 +43838,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5101</v>
+        <v>5100</v>
       </c>
       <c r="C8" t="s">
-        <v>5089</v>
+        <v>5088</v>
       </c>
       <c r="D8">
         <v>1976</v>
       </c>
       <c r="E8" t="s">
+        <v>5101</v>
+      </c>
+      <c r="F8" t="s">
         <v>5102</v>
-      </c>
-      <c r="F8" t="s">
-        <v>5103</v>
       </c>
       <c r="G8" t="s">
         <v>5036</v>
@@ -43850,16 +43859,16 @@
         <v>382</v>
       </c>
       <c r="I8" t="s">
+        <v>5103</v>
+      </c>
+      <c r="J8" t="s">
         <v>5104</v>
       </c>
-      <c r="J8" t="s">
-        <v>5105</v>
-      </c>
       <c r="K8" t="s">
-        <v>5105</v>
+        <v>5104</v>
       </c>
       <c r="L8" t="s">
-        <v>5101</v>
+        <v>5100</v>
       </c>
       <c r="M8" t="s">
         <v>963</v>
@@ -43879,7 +43888,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5082</v>
+        <v>5081</v>
       </c>
       <c r="C9" t="s">
         <v>4081</v>
@@ -43888,10 +43897,10 @@
         <v>1994</v>
       </c>
       <c r="E9" t="s">
-        <v>5109</v>
+        <v>5108</v>
       </c>
       <c r="F9" t="s">
-        <v>5108</v>
+        <v>5107</v>
       </c>
       <c r="G9" t="s">
         <v>5036</v>
@@ -43900,13 +43909,13 @@
         <v>616</v>
       </c>
       <c r="I9" t="s">
+        <v>5105</v>
+      </c>
+      <c r="J9" t="s">
         <v>5106</v>
       </c>
-      <c r="J9" t="s">
-        <v>5107</v>
-      </c>
       <c r="L9" t="s">
-        <v>5082</v>
+        <v>5081</v>
       </c>
       <c r="M9" t="s">
         <v>963</v>
@@ -43926,19 +43935,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5083</v>
+        <v>5082</v>
       </c>
       <c r="C10" t="s">
-        <v>5090</v>
+        <v>5089</v>
       </c>
       <c r="D10">
         <v>1999</v>
       </c>
       <c r="E10" t="s">
+        <v>5111</v>
+      </c>
+      <c r="F10" t="s">
         <v>5112</v>
-      </c>
-      <c r="F10" t="s">
-        <v>5113</v>
       </c>
       <c r="G10" t="s">
         <v>5036</v>
@@ -43947,16 +43956,16 @@
         <v>196</v>
       </c>
       <c r="I10" t="s">
+        <v>5109</v>
+      </c>
+      <c r="J10" t="s">
         <v>5110</v>
       </c>
-      <c r="J10" t="s">
-        <v>5111</v>
-      </c>
       <c r="K10" t="s">
-        <v>5111</v>
+        <v>5110</v>
       </c>
       <c r="L10" t="s">
-        <v>5083</v>
+        <v>5082</v>
       </c>
       <c r="M10" t="s">
         <v>963</v>
@@ -43976,19 +43985,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>5116</v>
+      </c>
+      <c r="C11" t="s">
         <v>5117</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5118</v>
       </c>
       <c r="D11">
         <v>1996</v>
       </c>
       <c r="E11" t="s">
-        <v>5119</v>
+        <v>5118</v>
       </c>
       <c r="F11" t="s">
-        <v>5114</v>
+        <v>5113</v>
       </c>
       <c r="G11" t="s">
         <v>5036</v>
@@ -43997,13 +44006,13 @@
         <v>218</v>
       </c>
       <c r="I11" t="s">
+        <v>5114</v>
+      </c>
+      <c r="J11" t="s">
         <v>5115</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>5116</v>
-      </c>
-      <c r="L11" t="s">
-        <v>5117</v>
       </c>
       <c r="M11" t="s">
         <v>963</v>
@@ -44023,19 +44032,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5125</v>
+        <v>5124</v>
       </c>
       <c r="C12" t="s">
-        <v>5124</v>
+        <v>5123</v>
       </c>
       <c r="D12">
         <v>2002</v>
       </c>
       <c r="E12" t="s">
-        <v>5123</v>
+        <v>5122</v>
       </c>
       <c r="F12" t="s">
-        <v>5120</v>
+        <v>5119</v>
       </c>
       <c r="G12" t="s">
         <v>5036</v>
@@ -44044,16 +44053,16 @@
         <v>320</v>
       </c>
       <c r="I12" t="s">
+        <v>5120</v>
+      </c>
+      <c r="J12" t="s">
         <v>5121</v>
       </c>
-      <c r="J12" t="s">
-        <v>5122</v>
-      </c>
       <c r="K12" t="s">
-        <v>5122</v>
+        <v>5121</v>
       </c>
       <c r="L12" t="s">
-        <v>5125</v>
+        <v>5124</v>
       </c>
       <c r="M12" t="s">
         <v>963</v>
@@ -44073,19 +44082,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>5129</v>
+      </c>
+      <c r="C13" t="s">
         <v>5130</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5131</v>
       </c>
       <c r="D13">
         <v>2018</v>
       </c>
       <c r="E13" t="s">
-        <v>5132</v>
+        <v>5131</v>
       </c>
       <c r="F13" t="s">
-        <v>5126</v>
+        <v>5125</v>
       </c>
       <c r="G13" t="s">
         <v>5036</v>
@@ -44094,16 +44103,16 @@
         <v>181</v>
       </c>
       <c r="I13" t="s">
+        <v>5126</v>
+      </c>
+      <c r="J13" t="s">
         <v>5127</v>
       </c>
-      <c r="J13" t="s">
-        <v>5128</v>
-      </c>
       <c r="K13" t="s">
-        <v>5128</v>
+        <v>5127</v>
       </c>
       <c r="L13" t="s">
-        <v>5130</v>
+        <v>5129</v>
       </c>
       <c r="M13" t="s">
         <v>963</v>
@@ -44115,7 +44124,7 @@
         <v>966</v>
       </c>
       <c r="P13" t="s">
-        <v>5129</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -44123,19 +44132,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>5135</v>
+      </c>
+      <c r="C14" t="s">
         <v>5136</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5137</v>
       </c>
       <c r="D14">
         <v>2012</v>
       </c>
       <c r="E14" t="s">
-        <v>5138</v>
+        <v>5137</v>
       </c>
       <c r="F14" t="s">
-        <v>5133</v>
+        <v>5132</v>
       </c>
       <c r="G14" t="s">
         <v>5036</v>
@@ -44144,16 +44153,16 @@
         <v>18</v>
       </c>
       <c r="I14" t="s">
+        <v>5133</v>
+      </c>
+      <c r="J14" t="s">
         <v>5134</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
+        <v>5134</v>
+      </c>
+      <c r="L14" t="s">
         <v>5135</v>
-      </c>
-      <c r="K14" t="s">
-        <v>5135</v>
-      </c>
-      <c r="L14" t="s">
-        <v>5136</v>
       </c>
       <c r="M14" t="s">
         <v>963</v>
@@ -44173,19 +44182,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>5143</v>
+        <v>5142</v>
       </c>
       <c r="C15" t="s">
-        <v>5140</v>
+        <v>5139</v>
       </c>
       <c r="D15">
         <v>2020</v>
       </c>
       <c r="E15" t="s">
-        <v>5144</v>
+        <v>5143</v>
       </c>
       <c r="F15" t="s">
-        <v>5141</v>
+        <v>5140</v>
       </c>
       <c r="G15" t="s">
         <v>5036</v>
@@ -44194,16 +44203,16 @@
         <v>11</v>
       </c>
       <c r="I15" t="s">
+        <v>5141</v>
+      </c>
+      <c r="J15" t="s">
+        <v>5138</v>
+      </c>
+      <c r="K15" t="s">
+        <v>5138</v>
+      </c>
+      <c r="L15" t="s">
         <v>5142</v>
-      </c>
-      <c r="J15" t="s">
-        <v>5139</v>
-      </c>
-      <c r="K15" t="s">
-        <v>5139</v>
-      </c>
-      <c r="L15" t="s">
-        <v>5143</v>
       </c>
       <c r="M15" t="s">
         <v>963</v>
@@ -44268,7 +44277,7 @@
         <v>1</v>
       </c>
       <c r="Q16" t="s">
-        <v>5154</v>
+        <v>5153</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -44321,7 +44330,7 @@
         <v>1</v>
       </c>
       <c r="Q17" t="s">
-        <v>5154</v>
+        <v>5153</v>
       </c>
     </row>
   </sheetData>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB6BE4C-1AFB-469B-9B68-46F84C7A2576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C55E8F-F30F-4BB0-9012-C319A6729A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,7 +499,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9359" uniqueCount="5159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9364" uniqueCount="5159">
   <si>
     <t>Number</t>
   </si>
@@ -16891,9 +16891,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N139" sqref="N139"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N142" sqref="N142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17202,7 +17202,7 @@
       </c>
       <c r="U5" s="38">
         <f>COUNTIFS($N:$N, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -23974,8 +23974,11 @@
       <c r="M140" t="s">
         <v>963</v>
       </c>
+      <c r="N140" t="s">
+        <v>963</v>
+      </c>
       <c r="O140" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R140" t="s">
         <v>904</v>
@@ -24021,6 +24024,9 @@
       <c r="M141" t="s">
         <v>963</v>
       </c>
+      <c r="N141" t="s">
+        <v>963</v>
+      </c>
       <c r="O141" s="7">
         <v>2</v>
       </c>
@@ -24068,6 +24074,9 @@
       <c r="M142" t="s">
         <v>966</v>
       </c>
+      <c r="N142" t="s">
+        <v>966</v>
+      </c>
       <c r="O142" s="7" t="s">
         <v>5035</v>
       </c>
@@ -24115,6 +24124,9 @@
       <c r="M143" t="s">
         <v>966</v>
       </c>
+      <c r="N143" t="s">
+        <v>966</v>
+      </c>
       <c r="O143" s="7" t="s">
         <v>5035</v>
       </c>
@@ -24160,6 +24172,9 @@
         <v>969</v>
       </c>
       <c r="M144" t="s">
+        <v>966</v>
+      </c>
+      <c r="N144" t="s">
         <v>966</v>
       </c>
       <c r="O144" s="7" t="s">
@@ -43422,7 +43437,7 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-23145" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="Query literature" sheetId="5" r:id="rId1"/>
@@ -498,7 +498,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9404" uniqueCount="5161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9432" uniqueCount="5160">
   <si>
     <t>Number</t>
   </si>
@@ -15639,9 +15639,6 @@
   </si>
   <si>
     <t>Can be disregarded, possibly</t>
-  </si>
-  <si>
-    <t>Deals with twins, read thoroughly to confirm categorization</t>
   </si>
   <si>
     <t>A list of studies that were identified as relevant</t>
@@ -16362,7 +16359,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="43">
     <dxf>
       <fill>
         <patternFill>
@@ -16402,6 +16399,98 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAACAC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAACAC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAACAC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAACAC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAACAC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBA8CDC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6161"/>
         </patternFill>
       </fill>
     </dxf>
@@ -16897,8 +16986,8 @@
   <dimension ref="A1:Y575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N187" sqref="N187"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16961,27 +17050,27 @@
         <v>962</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>5140</v>
+        <v>5139</v>
       </c>
       <c r="O1" s="25" t="s">
-        <v>5138</v>
+        <v>5137</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>5146</v>
+        <v>5145</v>
       </c>
       <c r="Q1" s="28" t="s">
         <v>5038</v>
       </c>
       <c r="R1" s="29">
         <f>COUNTIFS($M:$M, "YES", $F:$F, "&lt;&gt;") + Twins!S1</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="T1" s="28" t="s">
         <v>5039</v>
       </c>
       <c r="U1" s="29">
         <f>COUNTIF($L$2:$L$575, "&lt;&gt; ") +Twins!V1</f>
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="V1" s="31"/>
       <c r="W1" s="31"/>
@@ -17142,11 +17231,11 @@
         <v>574</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>5144</v>
+        <v>5143</v>
       </c>
       <c r="U4">
         <f>COUNTIFS($M:$M, "YES", $L:$L, "&lt;&gt;PRIMARY STUDY", $P:$P, "&lt;&gt;Twins")</f>
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -17203,11 +17292,11 @@
         <v>574</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>5141</v>
+        <v>5140</v>
       </c>
       <c r="U5" s="38">
         <f>COUNTIFS($N:$N, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -17506,10 +17595,10 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>5145</v>
+        <v>5144</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>5139</v>
+        <v>5138</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -17562,7 +17651,7 @@
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>5142</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -17615,7 +17704,7 @@
         <v>2</v>
       </c>
       <c r="R13" t="s">
-        <v>5143</v>
+        <v>5142</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -18868,7 +18957,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>5145</v>
+        <v>5144</v>
       </c>
       <c r="R38" t="s">
         <v>904</v>
@@ -19021,7 +19110,7 @@
         <v>2</v>
       </c>
       <c r="P41" t="s">
-        <v>5156</v>
+        <v>5155</v>
       </c>
       <c r="R41" t="s">
         <v>904</v>
@@ -19824,7 +19913,7 @@
         <v>2</v>
       </c>
       <c r="P57" t="s">
-        <v>5148</v>
+        <v>5147</v>
       </c>
       <c r="R57" t="s">
         <v>904</v>
@@ -21477,7 +21566,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>5149</v>
+        <v>5148</v>
       </c>
       <c r="R90" t="s">
         <v>904</v>
@@ -21488,7 +21577,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>5150</v>
+        <v>5149</v>
       </c>
       <c r="C91" t="s">
         <v>4015</v>
@@ -22480,7 +22569,7 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>5151</v>
+        <v>5150</v>
       </c>
       <c r="R110" t="s">
         <v>904</v>
@@ -22933,7 +23022,7 @@
         <v>4</v>
       </c>
       <c r="P119" t="s">
-        <v>5152</v>
+        <v>5151</v>
       </c>
       <c r="R119" t="s">
         <v>904</v>
@@ -23333,7 +23422,7 @@
         <v>963</v>
       </c>
       <c r="N127" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="O127" s="7">
         <v>1</v>
@@ -24227,7 +24316,7 @@
         <v>1765</v>
       </c>
       <c r="L145" t="s">
-        <v>5153</v>
+        <v>5152</v>
       </c>
       <c r="M145" t="s">
         <v>966</v>
@@ -24247,7 +24336,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>5154</v>
+        <v>5153</v>
       </c>
       <c r="C146" t="s">
         <v>4080</v>
@@ -24259,7 +24348,7 @@
         <v>1766</v>
       </c>
       <c r="F146" t="s">
-        <v>5155</v>
+        <v>5154</v>
       </c>
       <c r="G146" t="s">
         <v>1768</v>
@@ -24450,7 +24539,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>5157</v>
+        <v>5156</v>
       </c>
       <c r="C150" t="s">
         <v>4085</v>
@@ -24459,13 +24548,13 @@
         <v>2012</v>
       </c>
       <c r="E150" t="s">
+        <v>5157</v>
+      </c>
+      <c r="F150" t="s">
         <v>5158</v>
       </c>
-      <c r="F150" t="s">
+      <c r="G150" t="s">
         <v>5159</v>
-      </c>
-      <c r="G150" t="s">
-        <v>5160</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -26347,11 +26436,14 @@
       <c r="M187" t="s">
         <v>963</v>
       </c>
+      <c r="N187" t="s">
+        <v>966</v>
+      </c>
       <c r="O187" s="7">
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>5047</v>
+        <v>5144</v>
       </c>
       <c r="R187" t="s">
         <v>904</v>
@@ -26397,6 +26489,9 @@
       <c r="M188" t="s">
         <v>966</v>
       </c>
+      <c r="N188" t="s">
+        <v>966</v>
+      </c>
       <c r="O188" s="7" t="s">
         <v>5029</v>
       </c>
@@ -26444,11 +26539,14 @@
       <c r="M189" t="s">
         <v>969</v>
       </c>
+      <c r="N189" t="s">
+        <v>966</v>
+      </c>
       <c r="O189" s="7">
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>5069</v>
+        <v>5068</v>
       </c>
       <c r="R189" t="s">
         <v>904</v>
@@ -26494,11 +26592,14 @@
       <c r="M190" t="s">
         <v>966</v>
       </c>
+      <c r="N190" t="s">
+        <v>966</v>
+      </c>
       <c r="O190" s="7" t="s">
         <v>5029</v>
       </c>
       <c r="P190" t="s">
-        <v>5070</v>
+        <v>5069</v>
       </c>
       <c r="R190" t="s">
         <v>904</v>
@@ -26544,6 +26645,9 @@
       <c r="M191" t="s">
         <v>963</v>
       </c>
+      <c r="N191" t="s">
+        <v>963</v>
+      </c>
       <c r="O191" s="7">
         <v>2</v>
       </c>
@@ -26591,6 +26695,9 @@
       <c r="M192" t="s">
         <v>963</v>
       </c>
+      <c r="N192" t="s">
+        <v>963</v>
+      </c>
       <c r="O192" s="7">
         <v>3</v>
       </c>
@@ -26638,6 +26745,9 @@
       <c r="M193" t="s">
         <v>966</v>
       </c>
+      <c r="N193" t="s">
+        <v>966</v>
+      </c>
       <c r="O193" s="7" t="s">
         <v>5029</v>
       </c>
@@ -26685,6 +26795,9 @@
       <c r="M194" t="s">
         <v>966</v>
       </c>
+      <c r="N194" t="s">
+        <v>966</v>
+      </c>
       <c r="O194" s="7">
         <v>2</v>
       </c>
@@ -26732,6 +26845,9 @@
       <c r="M195" t="s">
         <v>963</v>
       </c>
+      <c r="N195" t="s">
+        <v>963</v>
+      </c>
       <c r="O195" s="7">
         <v>3</v>
       </c>
@@ -26779,6 +26895,9 @@
       <c r="M196" t="s">
         <v>963</v>
       </c>
+      <c r="N196" t="s">
+        <v>963</v>
+      </c>
       <c r="O196" s="7">
         <v>3</v>
       </c>
@@ -26826,6 +26945,9 @@
       <c r="M197" t="s">
         <v>966</v>
       </c>
+      <c r="N197" t="s">
+        <v>966</v>
+      </c>
       <c r="O197" s="7" t="s">
         <v>5029</v>
       </c>
@@ -26873,6 +26995,9 @@
       <c r="M198" t="s">
         <v>966</v>
       </c>
+      <c r="N198" t="s">
+        <v>966</v>
+      </c>
       <c r="O198" s="7" t="s">
         <v>5029</v>
       </c>
@@ -26920,6 +27045,9 @@
       <c r="M199" t="s">
         <v>966</v>
       </c>
+      <c r="N199" t="s">
+        <v>966</v>
+      </c>
       <c r="O199" s="7" t="s">
         <v>5029</v>
       </c>
@@ -26967,6 +27095,9 @@
       <c r="M200" t="s">
         <v>963</v>
       </c>
+      <c r="N200" t="s">
+        <v>963</v>
+      </c>
       <c r="O200" s="7">
         <v>2</v>
       </c>
@@ -27014,6 +27145,9 @@
       <c r="M201" s="36" t="s">
         <v>966</v>
       </c>
+      <c r="N201" s="36" t="s">
+        <v>966</v>
+      </c>
       <c r="O201" s="37" t="s">
         <v>5029</v>
       </c>
@@ -28698,7 +28832,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>5071</v>
+        <v>5070</v>
       </c>
       <c r="C240" t="s">
         <v>4786</v>
@@ -43497,57 +43631,57 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="R6">
-    <cfRule type="cellIs" dxfId="30" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="29" priority="23">
+    <cfRule type="containsBlanks" dxfId="41" priority="23">
       <formula>LEN(TRIM(R6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsBlanks" dxfId="28" priority="20">
+    <cfRule type="containsBlanks" dxfId="40" priority="20">
       <formula>LEN(TRIM(F1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8">
-    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="18" operator="notEqual">
+    <cfRule type="cellIs" dxfId="38" priority="18" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:N601">
-    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="PRIMARY STUDY">
+    <cfRule type="containsText" dxfId="37" priority="11" operator="containsText" text="PRIMARY STUDY">
       <formula>NOT(ISERROR(SEARCH("PRIMARY STUDY",L2)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="24" priority="12" operator="notContains" text="YES">
+    <cfRule type="notContainsText" dxfId="36" priority="12" operator="notContains" text="YES">
       <formula>ISERROR(SEARCH("YES",L2))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="35" priority="13" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B38 B40:B1048576">
-    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q10 Q16:Q1048576 R11:R15">
-    <cfRule type="duplicateValues" dxfId="21" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P136 P146 P151 P161 P163 P177 P187 P189:P190 O2:O601">
-    <cfRule type="containsBlanks" dxfId="20" priority="22">
+    <cfRule type="containsBlanks" dxfId="32" priority="22">
       <formula>LEN(TRIM(O2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="duplicateValues" dxfId="19" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P177 P187 P189:P190 O2:O601">
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="30" priority="8" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="29" priority="9" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43565,10 +43699,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43620,27 +43754,27 @@
         <v>962</v>
       </c>
       <c r="O1" s="24" t="s">
-        <v>5140</v>
+        <v>5139</v>
       </c>
       <c r="P1" s="25" t="s">
         <v>5026</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>5146</v>
+        <v>5145</v>
       </c>
       <c r="R1" s="28" t="s">
         <v>5038</v>
       </c>
       <c r="S1" s="29">
         <f>COUNTIFS($N:$N, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U1" s="28" t="s">
         <v>5039</v>
       </c>
       <c r="V1" s="29">
         <f>COUNTIF($M$2:$M$573, "YES")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W1" s="31"/>
       <c r="X1" s="31"/>
@@ -43652,19 +43786,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5053</v>
+        <v>5052</v>
       </c>
       <c r="C2" t="s">
-        <v>5052</v>
+        <v>5051</v>
       </c>
       <c r="D2">
         <v>1998</v>
       </c>
       <c r="E2" t="s">
-        <v>5060</v>
+        <v>5059</v>
       </c>
       <c r="F2" t="s">
-        <v>5051</v>
+        <v>5050</v>
       </c>
       <c r="G2" t="s">
         <v>5030</v>
@@ -43673,16 +43807,16 @@
         <v>908</v>
       </c>
       <c r="I2" t="s">
-        <v>5055</v>
+        <v>5054</v>
       </c>
       <c r="J2" t="s">
-        <v>5054</v>
+        <v>5053</v>
       </c>
       <c r="K2" t="s">
-        <v>5054</v>
+        <v>5053</v>
       </c>
       <c r="L2" t="s">
-        <v>5053</v>
+        <v>5052</v>
       </c>
       <c r="M2" t="s">
         <v>963</v>
@@ -43700,7 +43834,7 @@
         <v>904</v>
       </c>
       <c r="X2" t="s">
-        <v>5048</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -43708,19 +43842,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5062</v>
+        <v>5061</v>
       </c>
       <c r="C3" t="s">
-        <v>5061</v>
+        <v>5060</v>
       </c>
       <c r="D3">
         <v>1994</v>
       </c>
       <c r="E3" t="s">
-        <v>5059</v>
+        <v>5058</v>
       </c>
       <c r="F3" t="s">
-        <v>5056</v>
+        <v>5055</v>
       </c>
       <c r="G3" t="s">
         <v>5030</v>
@@ -43729,16 +43863,16 @@
         <v>1812</v>
       </c>
       <c r="I3" t="s">
+        <v>5056</v>
+      </c>
+      <c r="J3" t="s">
         <v>5057</v>
       </c>
-      <c r="J3" t="s">
-        <v>5058</v>
-      </c>
       <c r="K3" t="s">
-        <v>5058</v>
+        <v>5057</v>
       </c>
       <c r="L3" t="s">
-        <v>5062</v>
+        <v>5061</v>
       </c>
       <c r="M3" t="s">
         <v>963</v>
@@ -43753,7 +43887,7 @@
         <v>1</v>
       </c>
       <c r="X3" t="s">
-        <v>5049</v>
+        <v>5048</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -43770,10 +43904,10 @@
         <v>1999</v>
       </c>
       <c r="E4" t="s">
-        <v>5067</v>
+        <v>5066</v>
       </c>
       <c r="F4" t="s">
-        <v>5063</v>
+        <v>5062</v>
       </c>
       <c r="G4" t="s">
         <v>5030</v>
@@ -43782,13 +43916,13 @@
         <v>188</v>
       </c>
       <c r="I4" t="s">
+        <v>5063</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5065</v>
+      </c>
+      <c r="K4" t="s">
         <v>5064</v>
-      </c>
-      <c r="J4" t="s">
-        <v>5066</v>
-      </c>
-      <c r="K4" t="s">
-        <v>5065</v>
       </c>
       <c r="L4" t="s">
         <v>727</v>
@@ -43806,10 +43940,10 @@
         <v>1</v>
       </c>
       <c r="Q4" t="s">
-        <v>5068</v>
+        <v>5067</v>
       </c>
       <c r="X4" t="s">
-        <v>5050</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -43817,19 +43951,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5072</v>
+        <v>5071</v>
       </c>
       <c r="C5" t="s">
-        <v>5080</v>
+        <v>5079</v>
       </c>
       <c r="D5">
         <v>2003</v>
       </c>
       <c r="E5" t="s">
+        <v>5083</v>
+      </c>
+      <c r="F5" t="s">
         <v>5084</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5085</v>
       </c>
       <c r="G5" t="s">
         <v>5030</v>
@@ -43838,16 +43972,16 @@
         <v>158</v>
       </c>
       <c r="I5" t="s">
+        <v>5077</v>
+      </c>
+      <c r="J5" t="s">
         <v>5078</v>
       </c>
-      <c r="J5" t="s">
-        <v>5079</v>
-      </c>
       <c r="K5" t="s">
-        <v>5079</v>
+        <v>5078</v>
       </c>
       <c r="L5" t="s">
-        <v>5072</v>
+        <v>5071</v>
       </c>
       <c r="M5" t="s">
         <v>963</v>
@@ -43867,19 +44001,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5073</v>
+        <v>5072</v>
       </c>
       <c r="C6" t="s">
-        <v>5081</v>
+        <v>5080</v>
       </c>
       <c r="D6">
         <v>2012</v>
       </c>
       <c r="E6" t="s">
-        <v>5087</v>
+        <v>5086</v>
       </c>
       <c r="F6" t="s">
-        <v>5086</v>
+        <v>5085</v>
       </c>
       <c r="G6" t="s">
         <v>5030</v>
@@ -43888,16 +44022,16 @@
         <v>176</v>
       </c>
       <c r="I6" t="s">
+        <v>5087</v>
+      </c>
+      <c r="J6" t="s">
         <v>5088</v>
       </c>
-      <c r="J6" t="s">
-        <v>5089</v>
-      </c>
       <c r="K6" t="s">
-        <v>5089</v>
+        <v>5088</v>
       </c>
       <c r="L6" t="s">
-        <v>5073</v>
+        <v>5072</v>
       </c>
       <c r="M6" t="s">
         <v>963</v>
@@ -43912,14 +44046,14 @@
         <v>1</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>5144</v>
+        <v>5143</v>
       </c>
       <c r="S6">
         <f>COUNTIFS($N:$N, "YES", $M:$M, "&lt;&gt;PRIMARY STUDY")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X6" t="s">
-        <v>5077</v>
+        <v>5076</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -43927,7 +44061,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5074</v>
+        <v>5073</v>
       </c>
       <c r="C7" t="s">
         <v>4128</v>
@@ -43936,10 +44070,10 @@
         <v>1995</v>
       </c>
       <c r="E7" t="s">
+        <v>5089</v>
+      </c>
+      <c r="F7" t="s">
         <v>5090</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5091</v>
       </c>
       <c r="G7" t="s">
         <v>5030</v>
@@ -43948,16 +44082,16 @@
         <v>372</v>
       </c>
       <c r="I7" t="s">
+        <v>5091</v>
+      </c>
+      <c r="J7" t="s">
         <v>5092</v>
       </c>
-      <c r="J7" t="s">
-        <v>5093</v>
-      </c>
       <c r="K7" t="s">
-        <v>5093</v>
+        <v>5092</v>
       </c>
       <c r="L7" t="s">
-        <v>5074</v>
+        <v>5073</v>
       </c>
       <c r="M7" t="s">
         <v>963</v>
@@ -43972,7 +44106,7 @@
         <v>1</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>5141</v>
+        <v>5140</v>
       </c>
       <c r="S7">
         <f>COUNTIFS($O:$O, "YES", $F:$F, "&lt;&gt;")</f>
@@ -43984,19 +44118,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5094</v>
+        <v>5093</v>
       </c>
       <c r="C8" t="s">
-        <v>5082</v>
+        <v>5081</v>
       </c>
       <c r="D8">
         <v>1976</v>
       </c>
       <c r="E8" t="s">
+        <v>5094</v>
+      </c>
+      <c r="F8" t="s">
         <v>5095</v>
-      </c>
-      <c r="F8" t="s">
-        <v>5096</v>
       </c>
       <c r="G8" t="s">
         <v>5030</v>
@@ -44005,16 +44139,16 @@
         <v>382</v>
       </c>
       <c r="I8" t="s">
+        <v>5096</v>
+      </c>
+      <c r="J8" t="s">
         <v>5097</v>
       </c>
-      <c r="J8" t="s">
-        <v>5098</v>
-      </c>
       <c r="K8" t="s">
-        <v>5098</v>
+        <v>5097</v>
       </c>
       <c r="L8" t="s">
-        <v>5094</v>
+        <v>5093</v>
       </c>
       <c r="M8" t="s">
         <v>963</v>
@@ -44034,7 +44168,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5075</v>
+        <v>5074</v>
       </c>
       <c r="C9" t="s">
         <v>4077</v>
@@ -44043,10 +44177,10 @@
         <v>1994</v>
       </c>
       <c r="E9" t="s">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="F9" t="s">
-        <v>5101</v>
+        <v>5100</v>
       </c>
       <c r="G9" t="s">
         <v>5030</v>
@@ -44055,13 +44189,13 @@
         <v>616</v>
       </c>
       <c r="I9" t="s">
+        <v>5098</v>
+      </c>
+      <c r="J9" t="s">
         <v>5099</v>
       </c>
-      <c r="J9" t="s">
-        <v>5100</v>
-      </c>
       <c r="L9" t="s">
-        <v>5075</v>
+        <v>5074</v>
       </c>
       <c r="M9" t="s">
         <v>963</v>
@@ -44081,19 +44215,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5076</v>
+        <v>5075</v>
       </c>
       <c r="C10" t="s">
-        <v>5083</v>
+        <v>5082</v>
       </c>
       <c r="D10">
         <v>1999</v>
       </c>
       <c r="E10" t="s">
+        <v>5104</v>
+      </c>
+      <c r="F10" t="s">
         <v>5105</v>
-      </c>
-      <c r="F10" t="s">
-        <v>5106</v>
       </c>
       <c r="G10" t="s">
         <v>5030</v>
@@ -44102,16 +44236,16 @@
         <v>196</v>
       </c>
       <c r="I10" t="s">
+        <v>5102</v>
+      </c>
+      <c r="J10" t="s">
         <v>5103</v>
       </c>
-      <c r="J10" t="s">
-        <v>5104</v>
-      </c>
       <c r="K10" t="s">
-        <v>5104</v>
+        <v>5103</v>
       </c>
       <c r="L10" t="s">
-        <v>5076</v>
+        <v>5075</v>
       </c>
       <c r="M10" t="s">
         <v>963</v>
@@ -44131,19 +44265,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>5109</v>
+      </c>
+      <c r="C11" t="s">
         <v>5110</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5111</v>
       </c>
       <c r="D11">
         <v>1996</v>
       </c>
       <c r="E11" t="s">
-        <v>5112</v>
+        <v>5111</v>
       </c>
       <c r="F11" t="s">
-        <v>5107</v>
+        <v>5106</v>
       </c>
       <c r="G11" t="s">
         <v>5030</v>
@@ -44152,13 +44286,13 @@
         <v>218</v>
       </c>
       <c r="I11" t="s">
+        <v>5107</v>
+      </c>
+      <c r="J11" t="s">
         <v>5108</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>5109</v>
-      </c>
-      <c r="L11" t="s">
-        <v>5110</v>
       </c>
       <c r="M11" t="s">
         <v>963</v>
@@ -44178,19 +44312,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5118</v>
+        <v>5117</v>
       </c>
       <c r="C12" t="s">
-        <v>5117</v>
+        <v>5116</v>
       </c>
       <c r="D12">
         <v>2002</v>
       </c>
       <c r="E12" t="s">
-        <v>5116</v>
+        <v>5115</v>
       </c>
       <c r="F12" t="s">
-        <v>5113</v>
+        <v>5112</v>
       </c>
       <c r="G12" t="s">
         <v>5030</v>
@@ -44199,16 +44333,16 @@
         <v>320</v>
       </c>
       <c r="I12" t="s">
+        <v>5113</v>
+      </c>
+      <c r="J12" t="s">
         <v>5114</v>
       </c>
-      <c r="J12" t="s">
-        <v>5115</v>
-      </c>
       <c r="K12" t="s">
-        <v>5115</v>
+        <v>5114</v>
       </c>
       <c r="L12" t="s">
-        <v>5118</v>
+        <v>5117</v>
       </c>
       <c r="M12" t="s">
         <v>963</v>
@@ -44228,19 +44362,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>5122</v>
+      </c>
+      <c r="C13" t="s">
         <v>5123</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5124</v>
       </c>
       <c r="D13">
         <v>2018</v>
       </c>
       <c r="E13" t="s">
-        <v>5125</v>
+        <v>5124</v>
       </c>
       <c r="F13" t="s">
-        <v>5119</v>
+        <v>5118</v>
       </c>
       <c r="G13" t="s">
         <v>5030</v>
@@ -44249,16 +44383,16 @@
         <v>181</v>
       </c>
       <c r="I13" t="s">
+        <v>5119</v>
+      </c>
+      <c r="J13" t="s">
         <v>5120</v>
       </c>
-      <c r="J13" t="s">
-        <v>5121</v>
-      </c>
       <c r="K13" t="s">
-        <v>5121</v>
+        <v>5120</v>
       </c>
       <c r="L13" t="s">
-        <v>5123</v>
+        <v>5122</v>
       </c>
       <c r="M13" t="s">
         <v>963</v>
@@ -44270,7 +44404,7 @@
         <v>966</v>
       </c>
       <c r="P13" t="s">
-        <v>5122</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -44278,19 +44412,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>5128</v>
+      </c>
+      <c r="C14" t="s">
         <v>5129</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5130</v>
       </c>
       <c r="D14">
         <v>2012</v>
       </c>
       <c r="E14" t="s">
-        <v>5131</v>
+        <v>5130</v>
       </c>
       <c r="F14" t="s">
-        <v>5126</v>
+        <v>5125</v>
       </c>
       <c r="G14" t="s">
         <v>5030</v>
@@ -44299,16 +44433,16 @@
         <v>18</v>
       </c>
       <c r="I14" t="s">
+        <v>5126</v>
+      </c>
+      <c r="J14" t="s">
         <v>5127</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
+        <v>5127</v>
+      </c>
+      <c r="L14" t="s">
         <v>5128</v>
-      </c>
-      <c r="K14" t="s">
-        <v>5128</v>
-      </c>
-      <c r="L14" t="s">
-        <v>5129</v>
       </c>
       <c r="M14" t="s">
         <v>963</v>
@@ -44328,19 +44462,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>5136</v>
+        <v>5135</v>
       </c>
       <c r="C15" t="s">
-        <v>5133</v>
+        <v>5132</v>
       </c>
       <c r="D15">
         <v>2020</v>
       </c>
       <c r="E15" t="s">
-        <v>5137</v>
+        <v>5136</v>
       </c>
       <c r="F15" t="s">
-        <v>5134</v>
+        <v>5133</v>
       </c>
       <c r="G15" t="s">
         <v>5030</v>
@@ -44349,16 +44483,16 @@
         <v>11</v>
       </c>
       <c r="I15" t="s">
+        <v>5134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>5131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>5131</v>
+      </c>
+      <c r="L15" t="s">
         <v>5135</v>
-      </c>
-      <c r="J15" t="s">
-        <v>5132</v>
-      </c>
-      <c r="K15" t="s">
-        <v>5132</v>
-      </c>
-      <c r="L15" t="s">
-        <v>5136</v>
       </c>
       <c r="M15" t="s">
         <v>963</v>
@@ -44423,7 +44557,7 @@
         <v>1</v>
       </c>
       <c r="Q16" t="s">
-        <v>5147</v>
+        <v>5146</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -44476,51 +44610,154 @@
         <v>1</v>
       </c>
       <c r="Q17" t="s">
-        <v>5147</v>
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4127</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4128</v>
+      </c>
+      <c r="D18">
+        <v>2004</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1957</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1962</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1959</v>
+      </c>
+      <c r="H18">
+        <v>19</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1958</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1960</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1961</v>
+      </c>
+      <c r="L18" t="s">
+        <v>4127</v>
+      </c>
+      <c r="M18" t="s">
+        <v>963</v>
+      </c>
+      <c r="N18" t="s">
+        <v>963</v>
+      </c>
+      <c r="O18" t="s">
+        <v>966</v>
+      </c>
+      <c r="P18" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>5146</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="containsBlanks" dxfId="16" priority="10">
+    <cfRule type="containsBlanks" dxfId="28" priority="22">
       <formula>LEN(TRIM(F1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:O17">
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="PRIMARY STUDY">
+    <cfRule type="containsText" dxfId="27" priority="19" operator="containsText" text="PRIMARY STUDY">
       <formula>NOT(ISERROR(SEARCH("PRIMARY STUDY",M2)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="14" priority="8" operator="notContains" text="YES">
+    <cfRule type="notContainsText" dxfId="26" priority="20" operator="notContains" text="YES">
       <formula>ISERROR(SEARCH("YES",M2))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="25" priority="21" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B2">
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R2">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsBlanks" dxfId="10" priority="11">
+  <conditionalFormatting sqref="H1:H17 H19:H1048576">
+    <cfRule type="containsBlanks" dxfId="22" priority="23">
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4 P1:P1048576 Q1">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",P1)))</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="containsBlanks" dxfId="17" priority="11">
+      <formula>LEN(TRIM(F18))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:O18">
+    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="PRIMARY STUDY">
+      <formula>NOT(ISERROR(SEARCH("PRIMARY STUDY",M18)))</formula>
+    </cfRule>
+    <cfRule type="notContainsText" dxfId="15" priority="9" operator="notContains" text="YES">
+      <formula>ISERROR(SEARCH("YES",M18))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",M18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18">
+    <cfRule type="containsBlanks" dxfId="12" priority="12">
+      <formula>LEN(TRIM(O18))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="between">
+      <formula>1</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH("X",O18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P18">
+    <cfRule type="containsBlanks" dxfId="9" priority="4">
+      <formula>LEN(TRIM(P18))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P18">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="between">
+      <formula>1</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH("X",P18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18">
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -16986,8 +16986,8 @@
   <dimension ref="A1:Y575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcala\temp\master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C454236-CAA7-4624-A062-FF875F6DC4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Query literature" sheetId="5" r:id="rId1"/>
-    <sheet name="Twins" sheetId="7" r:id="rId2"/>
-    <sheet name="P&amp;P studies" sheetId="1" r:id="rId3"/>
-    <sheet name="P&amp;P overview" sheetId="2" r:id="rId4"/>
-    <sheet name="Primary studies" sheetId="3" r:id="rId5"/>
+    <sheet name="Snowballing" sheetId="11" r:id="rId2"/>
+    <sheet name="Twins" sheetId="7" r:id="rId3"/>
+    <sheet name="P&amp;P studies" sheetId="1" r:id="rId4"/>
+    <sheet name="P&amp;P overview" sheetId="2" r:id="rId5"/>
+    <sheet name="Primary studies" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Query literature'!$A$1:$Y$575</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Snowballing!$A$1:$AC$575</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,12 +42,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Petr Čala</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -70,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -96,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -123,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -149,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -175,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -201,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -227,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T4" authorId="0" shapeId="0">
+    <comment ref="T4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -253,7 +256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P11" authorId="0" shapeId="0">
+    <comment ref="P11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -284,12 +287,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Petr Čala</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{AF9AAD2B-1DAE-4AFF-8795-41070BDA5303}">
       <text>
         <r>
           <rPr>
@@ -315,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{CD062C54-5659-481F-BE24-852459D90489}">
       <text>
         <r>
           <rPr>
@@ -341,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{59C8AD7A-E480-4151-A614-B7660055D9A0}">
       <text>
         <r>
           <rPr>
@@ -368,7 +371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{F7068529-54B9-48DC-B4A2-F9131D1185FD}">
       <text>
         <r>
           <rPr>
@@ -394,7 +397,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{142D23B3-C19A-4A32-A578-4735D120524A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Petr Čala:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+Via legend</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{4256AAE2-AA64-4E19-AC6D-839929BA83F4}">
       <text>
         <r>
           <rPr>
@@ -420,7 +449,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R6" authorId="0" shapeId="0">
+    <comment ref="U6" authorId="0" shapeId="0" xr:uid="{B680C59F-6BD6-45E1-B89E-FBFC10B4AA42}">
       <text>
         <r>
           <rPr>
@@ -451,12 +480,179 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Petr Čala</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Petr Čala:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+Order in which the studies appeared after query search</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Petr Čala:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+Study identified as relevant for this thesis</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Petr Čala:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+Downloaded into "Diploma-Thesis/Studies list"
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Petr Čala:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+Collected as a part of the main data set</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Petr Čala:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+Number of downloaded studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Petr Čala:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+Number of studies to collect based just on the query alone. Do not collect primary studies.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Petr Čala</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -476,14 +672,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -498,7 +694,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9432" uniqueCount="5160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10116" uniqueCount="5364">
   <si>
     <t>Number</t>
   </si>
@@ -15978,12 +16174,624 @@
   </si>
   <si>
     <t>R Zhu - 2012 - voced.edu.au</t>
+  </si>
+  <si>
+    <t>Journal name</t>
+  </si>
+  <si>
+    <t>Published</t>
+  </si>
+  <si>
+    <t>Publication year</t>
+  </si>
+  <si>
+    <t>Impact factor</t>
+  </si>
+  <si>
+    <t>Pischke, J.S. and T. von Wachter. (2005). "Zero Returns to Compulsory Schooling in Germany: Evidence and Interpretation." The Review of Economics and Statistics, 87(3), pp. 467-476.</t>
+  </si>
+  <si>
+    <t>Psacharopoulos, G. (1982). "Earnings and education in Greece, 1960–1977." European Economic Review, 17(3), pp. 333-347.</t>
+  </si>
+  <si>
+    <t>Psacharopoulos, G. (1985). "Returns to Education: A Further International Update and Implications." Journal of Human Resources, 20(4), pp. 583-604.</t>
+  </si>
+  <si>
+    <t>Psacharopoulos, G. and R. Layard. (1979). "Human Capital and Earnings: British Evidence and a Critique." Review of Economic Studies, 46, pp. 485-503.</t>
+  </si>
+  <si>
+    <t>Aakvik et al. (2010)</t>
+  </si>
+  <si>
+    <t>﻿Measuring heterogeneity in the returns to education using an education reform.</t>
+  </si>
+  <si>
+    <t>﻿Aakvik, A., Salvanes, K. G., &amp; Vaage, K. (2010): "Measuring heterogeneity in the returns to education using an education reform." European Economic Review, 54(4), pp. 483–500.</t>
+  </si>
+  <si>
+    <t>Acemoglu et al. (2000)</t>
+  </si>
+  <si>
+    <t>Acemoglu et al.</t>
+  </si>
+  <si>
+    <t>How large are human capital externalities? Evidence from compulsory schooling laws.</t>
+  </si>
+  <si>
+    <t>Acemoglu, D. and Angrist, J. (2000): "How large are human capital externalities? Evidence from compulsory schooling laws." NBER Macroaeconomics Annual, pp. 9–59.</t>
+  </si>
+  <si>
+    <t>The economic returns to schooling in the West Bank and Gaza Strip.</t>
+  </si>
+  <si>
+    <t>Angrist, J. D. (1995): "The economic returns to schooling in the West Bank and Gaza Strip." American Economic Review, 85(5), pp.1065-1087.</t>
+  </si>
+  <si>
+    <t>Angrist et al. (1991)</t>
+  </si>
+  <si>
+    <t>Angrist et al.</t>
+  </si>
+  <si>
+    <t>Does compulsory school attendance affect schooling and earnings?</t>
+  </si>
+  <si>
+    <t>Angrist, J. D. and Krueger, A. B. (1991): "Does compulsory school attendance affect schooling and earnings?" The Quarterly Journal of Economics, 106(4), pp. 979–1014.</t>
+  </si>
+  <si>
+    <t>Banerjee et al. (2005)</t>
+  </si>
+  <si>
+    <t>Banerjee et al.</t>
+  </si>
+  <si>
+    <t>Growth Theory through the Lens of Development Economics.</t>
+  </si>
+  <si>
+    <t>Banerjee, A.V. and Duflo, E. (2005): "Growth Theory through the Lens of Development Economics." In Aghion, P. and Durlauf, S.N. (eds.) Handbook of Economic Growth, Volume 1A. Elsevier, pp. 473-552.</t>
+  </si>
+  <si>
+    <t>Belzil et al. (2002)</t>
+  </si>
+  <si>
+    <t>Belzil et al.</t>
+  </si>
+  <si>
+    <t>Unobserved Ability and the Return to Schooling.</t>
+  </si>
+  <si>
+    <t>Belzil, C. and Hansen, J. (2002): "Unobserved Ability and the Return to Schooling." Econometrica, 70(5), pp. 2075-2091.</t>
+  </si>
+  <si>
+    <t>Winners and losers in Russia's economic transition.</t>
+  </si>
+  <si>
+    <t>Brainerd, E. (1998): "Winners and losers in Russia's economic transition." American Economic Review, 88(5), pp. 1094-1116.</t>
+  </si>
+  <si>
+    <t>Breda (2014)</t>
+  </si>
+  <si>
+    <t>Breda</t>
+  </si>
+  <si>
+    <t>Firms' Rents, Workers' Bargaining Power and the Union Wage Premium.</t>
+  </si>
+  <si>
+    <t>Breda, T. (2014): "Firms' Rents, Workers' Bargaining Power and the Union Wage Premium." The Economic Journal, 125(589), pp. 1616-1652.</t>
+  </si>
+  <si>
+    <t>Canaan et al. (2018)</t>
+  </si>
+  <si>
+    <t>Canaan et al.</t>
+  </si>
+  <si>
+    <t>Returns to education quality for low skilled students: Evidence from a discontinuity.</t>
+  </si>
+  <si>
+    <t>Canaan, S. and Mouganie, P. (2018): "Returns to education quality for low skilled students: Evidence from a discontinuity." Journal of Labor Economics, 36, pp. 395–437.</t>
+  </si>
+  <si>
+    <t>Capatina (2014)</t>
+  </si>
+  <si>
+    <t>Capatina</t>
+  </si>
+  <si>
+    <t>Skills and the evolution of wage inequality.</t>
+  </si>
+  <si>
+    <t>Capatina, E. (2014): "Skills and the evolution of wage inequality." Labour Economics, 28(C), pp. 41-57.</t>
+  </si>
+  <si>
+    <t>Card (1995)</t>
+  </si>
+  <si>
+    <t>Using geographic variation in college proximity to estimate the return to schooling.</t>
+  </si>
+  <si>
+    <t>Card, D. (1995): "Using geographic variation in college proximity to estimate the return to schooling." In Christofides, L. N., Grant, E. K. and Swidinsky, R. (eds.) Aspects of labor market behaviour: Essays in honour of John Vanderkamp, Toronto: University of Toronto Press, pp. 201–222.</t>
+  </si>
+  <si>
+    <t>Card (2001)</t>
+  </si>
+  <si>
+    <t>Estimating the return to schooling: Progress on some persistent econometric problems.</t>
+  </si>
+  <si>
+    <t>Card, D. (2001): "Estimating the return to schooling: Progress on some persistent econometric problems." Econometrica, 69(5), pp. 1127–1160.</t>
+  </si>
+  <si>
+    <t>Carneiro et al. (2011)</t>
+  </si>
+  <si>
+    <t>Estimating marginal returns to education.</t>
+  </si>
+  <si>
+    <t>Carneiro, P., Heckman, J. J. and Vytlacil, E. (2011): "Estimating marginal returns to education." The American Economic Review, 101(6), pp. 2754–2781.</t>
+  </si>
+  <si>
+    <t>Cavaille et al. (2019)</t>
+  </si>
+  <si>
+    <t>Cavaille et al.</t>
+  </si>
+  <si>
+    <t>Education and anti-immigration attitudes: Evidence from compulsory schooling reforms across Western Europe.</t>
+  </si>
+  <si>
+    <t>Cavaille, C. and Marshall, J. (2019): "Education and anti-immigration attitudes: Evidence from compulsory schooling reforms across Western Europe." American Political Science Review, 113(3), pp. 1–18.</t>
+  </si>
+  <si>
+    <t>Markets for communist human capital: Returns to education and experience in the Czech Republic and Slovakia.</t>
+  </si>
+  <si>
+    <t>Chase, R.S. (1998): "Markets for communist human capital: Returns to education and experience in the Czech Republic and Slovakia." ILR Review, 51(3), pp. 401-423.</t>
+  </si>
+  <si>
+    <t>Devereux et al. (2010)</t>
+  </si>
+  <si>
+    <t>Devereux et al.</t>
+  </si>
+  <si>
+    <t>Forced to be rich? Returns to compulsory schooling in Britain.</t>
+  </si>
+  <si>
+    <t>Devereux, P. and Hart, R. (2010): "Forced to be rich? Returns to compulsory schooling in Britain." Economic Journal, 120(549), 1345–1364.</t>
+  </si>
+  <si>
+    <t>Dougherty et al. (1991)</t>
+  </si>
+  <si>
+    <t>Dougherty et al.</t>
+  </si>
+  <si>
+    <t>The specification of earnings functions: tests and implications.</t>
+  </si>
+  <si>
+    <t>Dougherty, C.R. and Jimenez, E. (1991): "The specification of earnings functions: tests and implications." Economics of Education Review, 10(2), pp. 85-98.</t>
+  </si>
+  <si>
+    <t>Schooling and labor market consequences of school construction in Indonesia: Evidence from an unusual policy experiment.</t>
+  </si>
+  <si>
+    <t>Duflo, E. (2001): "Schooling and labor market consequences of school construction in Indonesia: Evidence from an unusual policy experiment.", American Economic Review, 91(4), pp. 795–813.</t>
+  </si>
+  <si>
+    <t>Changes in returns to education in India, 1983–94: by gender, age-cohort and location.</t>
+  </si>
+  <si>
+    <t>Duraisamy, P. (2002): "Changes in returns to education in India, 1983–94: by gender, age-cohort and location." Economics of Education Review, 21(6), pp. 609-622.</t>
+  </si>
+  <si>
+    <t>Fortin (2008)</t>
+  </si>
+  <si>
+    <t>Fortin</t>
+  </si>
+  <si>
+    <t>The Gender Wage Gap among Young Adults in the United States: The Importance of Money versus People.</t>
+  </si>
+  <si>
+    <t>Fortin, N. (2008): "The Gender Wage Gap among Young Adults in the United States: The Importance of Money versus People." The Journal of Human Resources, 43(4), pp. 884-918.</t>
+  </si>
+  <si>
+    <t>Gill et al. (2000)</t>
+  </si>
+  <si>
+    <t>Gill et al.</t>
+  </si>
+  <si>
+    <t>Community College Enrollment, College Major, and the Gender Wage Gap.</t>
+  </si>
+  <si>
+    <t>Gill, A.M. and Leigh, D.E. (2000): "Community College Enrollment, College Major, and the Gender Wage Gap." ILR Review, 54(1), pp. 161-181.</t>
+  </si>
+  <si>
+    <t>Goodman (2019)</t>
+  </si>
+  <si>
+    <t>Goodman</t>
+  </si>
+  <si>
+    <t>The labor of division: Returns to compulsory high school math coursework.</t>
+  </si>
+  <si>
+    <t>Goodman, J. (2019): "The labor of division: Returns to compulsory high school math coursework." Journal of Labor Economics, 37(3), pp. 663–699.</t>
+  </si>
+  <si>
+    <t>Gorodnichenko (2005)</t>
+  </si>
+  <si>
+    <t>Gorodnichenko</t>
+  </si>
+  <si>
+    <t>Returns to Schooling in Russia and Ukraine: A Semiparametric Approach to Cross-Country Comparative Analysis.</t>
+  </si>
+  <si>
+    <t>Gorodnichenko, Y. and K.S. Peter (2005): "Returns to Schooling in Russia and Ukraine: A Semiparametric Approach to Cross-Country Comparative Analysis." Journal of Comparative Economics, 33(2), pp. 324-350.</t>
+  </si>
+  <si>
+    <t>Grogger et al. (1995)</t>
+  </si>
+  <si>
+    <t>Grogger et al.</t>
+  </si>
+  <si>
+    <t>Changes in College Skills and the Rise in the College Wage Premium.</t>
+  </si>
+  <si>
+    <t>Grogger, J. and Eide, E. (1995): "Changes in College Skills and the Rise in the College Wage Premium." The Journal of Human Resources, 30(2), pp. 280-310.</t>
+  </si>
+  <si>
+    <t>Harmon et al. (1995)</t>
+  </si>
+  <si>
+    <t>Estimates of the economic return to schooling for the United Kingdom.</t>
+  </si>
+  <si>
+    <t>Harmon, C. and Walker, I. (1995): "Estimates of the economic return to schooling for the United Kingdom." American Economic Review, 85(5), pp. 1278–1286.</t>
+  </si>
+  <si>
+    <t>Harmon et al. (1999)</t>
+  </si>
+  <si>
+    <t>The Marginal and Average Returns to Schooling in the UK.</t>
+  </si>
+  <si>
+    <t>Harmon, C. and Walker, I. (1999): "The Marginal and Average Returns to Schooling in the UK." European Economic Review, 43, pp. 879-887.</t>
+  </si>
+  <si>
+    <t>The Returns to Education: Microeconomics.</t>
+  </si>
+  <si>
+    <t>Harmon, C., H. Oosterbeek, and I. Walker (2003): "The Returns to Education: Microeconomics." Journal of Economic Surveys, 17(2), pp. 115-141.</t>
+  </si>
+  <si>
+    <t>Hausmann (2007)</t>
+  </si>
+  <si>
+    <t>Hausmann</t>
+  </si>
+  <si>
+    <t>Growth Diagnostic: Belize.</t>
+  </si>
+  <si>
+    <t>Hausmann, R. and B. Klinger. (2007): "Growth Diagnostic: Belize." Center for International Development, Harvard University.</t>
+  </si>
+  <si>
+    <t>Heckman et al. (2006)</t>
+  </si>
+  <si>
+    <t>Heckman et al.</t>
+  </si>
+  <si>
+    <t>Earnings functions, rates of return and treatment effects: The Mincer equation and beyond.</t>
+  </si>
+  <si>
+    <t>Heckman, J.J., Lochner, L.J. and Todd, P.E. (2006): "Earnings functions, rates of return and treatment effects: The Mincer equation and beyond." In E.A. Hanushek and F. Welch (eds.), Handbook of the Economics of Education (Volume 1), pp. 307-458. Amsterdam: Elsevier.</t>
+  </si>
+  <si>
+    <t>Hubbard (2011)</t>
+  </si>
+  <si>
+    <t>Hubbard</t>
+  </si>
+  <si>
+    <t>The Phantom Gender Difference in the College Wage Premium.</t>
+  </si>
+  <si>
+    <t>Hubbard, W.H.J. (2011): "The Phantom Gender Difference in the College Wage Premium." The Journal of Human Resources, 46(3), pp. 568-586.</t>
+  </si>
+  <si>
+    <t>Ichino (1999)</t>
+  </si>
+  <si>
+    <t>Ichino</t>
+  </si>
+  <si>
+    <t>Lower and Upper Bounds of Returns to Schooling: An Exercise in IV estimation with different instruments.</t>
+  </si>
+  <si>
+    <t>Ichino, A. and R. Winter-Ebmer (1999): "Lower and Upper Bounds of Returns to Schooling: An Exercise in IV estimation with different instruments." European Economic Review, 43, pp. 889-901.</t>
+  </si>
+  <si>
+    <t>Ichino et al. (2004)</t>
+  </si>
+  <si>
+    <t>Ichino et al.</t>
+  </si>
+  <si>
+    <t>The long-run educational cost of World War II.</t>
+  </si>
+  <si>
+    <t>Ichino, A. and Winter-Ebmer, R. (2004): "The long-run educational cost of World War II." Journal of Labor Economics, 22(1), pp. 57–87.</t>
+  </si>
+  <si>
+    <t>Estimates of the Return to Schooling in Sweden from a Large Sample of Twins.</t>
+  </si>
+  <si>
+    <t>Isacsson, G. (1999): "Estimates of the Return to Schooling in Sweden from a Large Sample of Twins." Labour Economics, 6, pp. 471-489.</t>
+  </si>
+  <si>
+    <t>Are Educated Workers Really More Productive?</t>
+  </si>
+  <si>
+    <t>Jones, P. (2001): "Are Educated Workers Really More Productive?" Journal of Development Economics, 64, pp. 67-79.</t>
+  </si>
+  <si>
+    <t>Kane et al. (1993)</t>
+  </si>
+  <si>
+    <t>Kane et al.</t>
+  </si>
+  <si>
+    <t>Labor market returns to two- and four-year colleges: Is a credit a credit and do degrees matter?</t>
+  </si>
+  <si>
+    <t>Kane, T. J. and Rouse, C. E. (1993): "Labor market returns to two- and four-year colleges: Is a credit a credit and do degrees matter?" NBER Working Papers 4268, National Bureau of Economic Research, Inc.</t>
+  </si>
+  <si>
+    <t>Why did wage inequality increase? Evidence from urban India 1983–99.</t>
+  </si>
+  <si>
+    <t>Kijima, Y. (2006): "Why did wage inequality increase? Evidence from urban India 1983–99." Journal of Development Economics, 81(1), pp. 97-117.</t>
+  </si>
+  <si>
+    <t>Does the Labour Market Explain Lower Female Schooling in India?</t>
+  </si>
+  <si>
+    <t>Kingdon, G.G. (1998): "Does the Labour Market Explain Lower Female Schooling in India?" Journal of Development Studies, 35(1), pp. 39-65.</t>
+  </si>
+  <si>
+    <t>Interpreting instrumental variables estimates of the returns to schooling.</t>
+  </si>
+  <si>
+    <t>Kling, J.R. (2001): "Interpreting instrumental variables estimates of the returns to schooling." Journal of Business and Economic Statistics, 19(3), pp. 358-364.</t>
+  </si>
+  <si>
+    <t>Estimating Returns to Education Using Different Natural Experiment Techniques.</t>
+  </si>
+  <si>
+    <t>Leigh, A. and Ryan C. (2008): "Estimating Returns to Education Using Different Natural Experiment Techniques." Economics of Education Review, 27, pp. 149-160.</t>
+  </si>
+  <si>
+    <t>Lemieux et al. (2001)</t>
+  </si>
+  <si>
+    <t>Lemieux et al.</t>
+  </si>
+  <si>
+    <t>Education, earnings, and the “Canadian G.I. Bill”.</t>
+  </si>
+  <si>
+    <t>Lemieux, T. and Card, D. (2001): "Education, earnings, and the “Canadian G.I. Bill”." The Canadian Journal of Economics, 34(2), pp. 313–344.</t>
+  </si>
+  <si>
+    <t>Light et al. (2004)</t>
+  </si>
+  <si>
+    <t>Light et al.</t>
+  </si>
+  <si>
+    <t>Who Receives the College Wage Premium Assessing the Labor Market Returns to Degrees and College Transfer Patterns.</t>
+  </si>
+  <si>
+    <t>Light, A. and Strayer, W. (2004): "Who Receives the College Wage Premium Assessing the Labor Market Returns to Degrees and College Transfer Patterns." The Journal of Human Resources, 39(3), pp. 746-773.</t>
+  </si>
+  <si>
+    <t>Miller, &amp; Nmartin(1995): (1995)</t>
+  </si>
+  <si>
+    <t>Miller, &amp; Nmartin(1995):</t>
+  </si>
+  <si>
+    <t>What do Twins Studies Reveal About the Economic Returns to Education?</t>
+  </si>
+  <si>
+    <t>Miller, P., C. Mulvey and N. Martin. (1995): "What do Twins Studies Reveal About the Economic Returns to Education?" A Comparison of Australian and U.S. Findings. American Economic Review, 85(3), pp. 586-99.</t>
+  </si>
+  <si>
+    <t>Moretti (2004)</t>
+  </si>
+  <si>
+    <t>Moretti</t>
+  </si>
+  <si>
+    <t>Estimating the social return to higher education: evidence from longitudinal and repeated cross-sectional data.</t>
+  </si>
+  <si>
+    <t>Moretti, E. (2004): "Estimating the social return to higher education: evidence from longitudinal and repeated cross-sectional data." Journal of Econometrics, 121, pp. 175–212.</t>
+  </si>
+  <si>
+    <t>Munich et al. (2005)</t>
+  </si>
+  <si>
+    <t>Munich et al.</t>
+  </si>
+  <si>
+    <t>Returns to Human Capital Under the Communist Wage Grid and During the Transition to A Market Economy.</t>
+  </si>
+  <si>
+    <t>Munich, D., J. Svejnar, and K. Terrell. (2005): "Returns to Human Capital Under the Communist Wage Grid and During the Transition to A Market Economy." Review of Economics and Statistics, 87(1), pp. 100–123.</t>
+  </si>
+  <si>
+    <t>Oreopoulos (2006)</t>
+  </si>
+  <si>
+    <t>Oreopoulos</t>
+  </si>
+  <si>
+    <t>Estimating average and local average treatment effects of education when compulsory schooling laws really matter.</t>
+  </si>
+  <si>
+    <t>Oreopoulos, P. (2006): "Estimating average and local average treatment effects of education when compulsory schooling laws really matter." American Economic Review, 96(1), 152-175.</t>
+  </si>
+  <si>
+    <t>Oreopoulos et al. (2006)</t>
+  </si>
+  <si>
+    <t>Oreopoulos et al.</t>
+  </si>
+  <si>
+    <t>The intergenerational effects of compulsory schooling.</t>
+  </si>
+  <si>
+    <t>Oreopoulos, P., Page, M.E., and Stevens, A.H. (2006): "The intergenerational effects of compulsory schooling." Journal of Labor Economics, 24(4), pp. 729-760.</t>
+  </si>
+  <si>
+    <t>Pischke (2005)</t>
+  </si>
+  <si>
+    <t>Pischke</t>
+  </si>
+  <si>
+    <t>Zero Returns to Compulsory Schooling in Germany: Evidence and Interpretation.</t>
+  </si>
+  <si>
+    <t>Earnings and education in Greece, 1960–1977.</t>
+  </si>
+  <si>
+    <t>Returns to Education: A Further International Update and Implications.</t>
+  </si>
+  <si>
+    <t>Psacharopoulos (1979)</t>
+  </si>
+  <si>
+    <t>Human Capital and Earnings: British Evidence and a Critique.</t>
+  </si>
+  <si>
+    <t>Staiger et al. (1997)</t>
+  </si>
+  <si>
+    <t>Staiger et al.</t>
+  </si>
+  <si>
+    <t>Instrumental variables regression with weak instruments.</t>
+  </si>
+  <si>
+    <t>Staiger, D. and Stock, J. H. (1997): "Instrumental variables regression with weak instruments." Econometrica, 65(3), pp. 557–586.</t>
+  </si>
+  <si>
+    <t>Stephens Jr et al. (2014)</t>
+  </si>
+  <si>
+    <t>Stephens Jr et al.</t>
+  </si>
+  <si>
+    <t>Compulsory education and the benefits of schooling.</t>
+  </si>
+  <si>
+    <t>Stephens Jr, M. and Yang, D. Y. (2014): "Compulsory education and the benefits of schooling." American Economic Review, 104(6), pp. 1777–1792.</t>
+  </si>
+  <si>
+    <t>Taber (2001)</t>
+  </si>
+  <si>
+    <t>Taber</t>
+  </si>
+  <si>
+    <t>The Rising College Premium in the Eighties: Return to College or Return to Unobserved Ability?</t>
+  </si>
+  <si>
+    <t>Taber, C.R. (2001): "The Rising College Premium in the Eighties: Return to College or Return to Unobserved Ability?" Review of Economic Studies, 68(3), pp. 665-691.</t>
+  </si>
+  <si>
+    <t>Troske (1999)</t>
+  </si>
+  <si>
+    <t>Troske</t>
+  </si>
+  <si>
+    <t>Evidence on the Employer Size-Wage Premium from Worker-Establishment Matched Data.</t>
+  </si>
+  <si>
+    <t>Troske, K.R. (1999): "Evidence on the Employer Size-Wage Premium from Worker-Establishment Matched Data." The Review of Economics and Statistics, 81(1), pp. 15-26.</t>
+  </si>
+  <si>
+    <t>Van Kippersluis et al. (2011)</t>
+  </si>
+  <si>
+    <t>Van Kippersluis et al.</t>
+  </si>
+  <si>
+    <t>Long-run returns to education: Does schooling lead to an extended old age?</t>
+  </si>
+  <si>
+    <t>Van Kippersluis, H., O'Donnell, O., &amp; Van Doorslaer, E. (2011): "Long-run returns to education: Does schooling lead to an extended old age?" Journal of Human Resources, 46(4), pp. 695–721.</t>
+  </si>
+  <si>
+    <t>TBA</t>
+  </si>
+  <si>
+    <t>NBER Macroaeconomics Annual</t>
+  </si>
+  <si>
+    <t>The Quarterly Journal of Economics</t>
+  </si>
+  <si>
+    <t>Econometrica</t>
+  </si>
+  <si>
+    <t>The Economic Journal</t>
+  </si>
+  <si>
+    <t>Journal of Labor Economics</t>
+  </si>
+  <si>
+    <t>University of Toronto Press</t>
+  </si>
+  <si>
+    <t>The American Economic Review</t>
+  </si>
+  <si>
+    <t>American Political Science Review</t>
+  </si>
+  <si>
+    <t>Economic Journal</t>
+  </si>
+  <si>
+    <t>The Journal of Human Resources</t>
+  </si>
+  <si>
+    <t>Handbook of the Economics of Education</t>
+  </si>
+  <si>
+    <t>The Canadian Journal of Economics</t>
+  </si>
+  <si>
+    <t>The Review of Economics and Statistics</t>
+  </si>
+  <si>
+    <t>Journal of Econometrics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -16307,7 +17115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -16354,12 +17162,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="49">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -16414,6 +17247,31 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAACAC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFAACAC"/>
@@ -16451,24 +17309,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFAACAC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -16484,27 +17324,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFBA8CDC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6161"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFAACAC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -16538,6 +17357,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6161"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6161"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <color theme="4" tint="-0.24994659260841701"/>
@@ -16556,6 +17389,27 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAACAC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAACAC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -16588,16 +17442,52 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFAACAC"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -16620,24 +17510,16 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFAACAC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -16665,35 +17547,18 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF6161"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -16981,13 +17846,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q16" sqref="Q16"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43630,65 +44495,65 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B38 B40:B1048576">
+    <cfRule type="duplicateValues" dxfId="48" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="containsBlanks" dxfId="47" priority="20">
+      <formula>LEN(TRIM(F1))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:N601">
+    <cfRule type="containsText" dxfId="46" priority="11" operator="containsText" text="PRIMARY STUDY">
+      <formula>NOT(ISERROR(SEARCH("PRIMARY STUDY",L2)))</formula>
+    </cfRule>
+    <cfRule type="notContainsText" dxfId="45" priority="12" operator="notContains" text="YES">
+      <formula>ISERROR(SEARCH("YES",L2))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="13" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",L2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O601 P136 P146 P151 P161 P163 P177 P187 P189:P190">
+    <cfRule type="containsBlanks" dxfId="43" priority="22">
+      <formula>LEN(TRIM(O2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O601 P177 P187 P189:P190">
+    <cfRule type="cellIs" dxfId="42" priority="8" operator="between">
+      <formula>1</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="9" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH("X",O2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q10 Q16:Q1048576 R11:R15">
+    <cfRule type="duplicateValues" dxfId="40" priority="7"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="R6">
-    <cfRule type="cellIs" dxfId="42" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="41" priority="23">
+    <cfRule type="containsBlanks" dxfId="38" priority="23">
       <formula>LEN(TRIM(R6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsBlanks" dxfId="40" priority="20">
-      <formula>LEN(TRIM(F1))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="R8">
-    <cfRule type="cellIs" dxfId="39" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="18" operator="notEqual">
+    <cfRule type="cellIs" dxfId="36" priority="18" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:N601">
-    <cfRule type="containsText" dxfId="37" priority="11" operator="containsText" text="PRIMARY STUDY">
-      <formula>NOT(ISERROR(SEARCH("PRIMARY STUDY",L2)))</formula>
-    </cfRule>
-    <cfRule type="notContainsText" dxfId="36" priority="12" operator="notContains" text="YES">
-      <formula>ISERROR(SEARCH("YES",L2))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="13" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",L2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B38 B40:B1048576">
-    <cfRule type="duplicateValues" dxfId="34" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q10 Q16:Q1048576 R11:R15">
-    <cfRule type="duplicateValues" dxfId="33" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P136 P146 P151 P161 P163 P177 P187 P189:P190 O2:O601">
-    <cfRule type="containsBlanks" dxfId="32" priority="22">
-      <formula>LEN(TRIM(O2))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="duplicateValues" dxfId="31" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P177 P187 P189:P190 O2:O601">
-    <cfRule type="cellIs" dxfId="30" priority="8" operator="between">
-      <formula>1</formula>
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="9" operator="containsText" text="X">
-      <formula>NOT(ISERROR(SEARCH("X",O2)))</formula>
-    </cfRule>
+    <cfRule type="duplicateValues" dxfId="35" priority="5"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="K160" r:id="rId1" location="page=11"/>
-    <hyperlink ref="K9" r:id="rId2"/>
-    <hyperlink ref="J13" r:id="rId3" display="https://books.google.com/books?hl=en&amp;lr=&amp;id=xHdLezAGFFMC&amp;oi=fnd&amp;pg=PP13&amp;dq=(%22ability+bias%22+OR+%22intelligence+bias%22)+AND+(%22private+returns%22)+AND+(%22income%22+OR+%22earnings%22)+AND+(%22schooling%22+OR+%22education%22)&amp;ots=AMWBbfJpWa&amp;sig=HzNyY_GdLkNjo-PvjNkJ8XDbCMo"/>
+    <hyperlink ref="K160" r:id="rId1" location="page=11" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J13" r:id="rId3" display="https://books.google.com/books?hl=en&amp;lr=&amp;id=xHdLezAGFFMC&amp;oi=fnd&amp;pg=PP13&amp;dq=(%22ability+bias%22+OR+%22intelligence+bias%22)+AND+(%22private+returns%22)+AND+(%22income%22+OR+%22earnings%22)+AND+(%22schooling%22+OR+%22education%22)&amp;ots=AMWBbfJpWa&amp;sig=HzNyY_GdLkNjo-PvjNkJ8XDbCMo" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId4"/>
@@ -43697,12 +44562,4545 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E591E98B-02D7-41E1-8C44-6E84A040E0B9}">
+  <dimension ref="A1:AC575"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S10" sqref="S10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="11" width="10.28515625" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>3901</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>3903</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>3907</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>5160</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>5161</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>5162</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>5163</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>3902</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>3906</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>3904</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>3905</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>965</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>962</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>5139</v>
+      </c>
+      <c r="S1" s="25" t="s">
+        <v>5137</v>
+      </c>
+      <c r="T1" s="31"/>
+      <c r="U1" s="28" t="s">
+        <v>5038</v>
+      </c>
+      <c r="V1" s="29">
+        <f>COUNTIFS($Q:$Q, "YES", $F:$F, "&lt;&gt;")</f>
+        <v>55</v>
+      </c>
+      <c r="X1" s="28" t="s">
+        <v>5039</v>
+      </c>
+      <c r="Y1" s="29">
+        <f>COUNTIF($P:$P, "YES")</f>
+        <v>0</v>
+      </c>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="30"/>
+    </row>
+    <row r="2" spans="1:29" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>5168</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>4157</v>
+      </c>
+      <c r="D2" s="34">
+        <v>2010</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>5169</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>5170</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="I2" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L2" s="34">
+        <v>289</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q2" s="34" t="s">
+        <v>963</v>
+      </c>
+      <c r="S2" s="9"/>
+      <c r="U2"/>
+      <c r="V2" t="s">
+        <v>904</v>
+      </c>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5171</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5172</v>
+      </c>
+      <c r="D3">
+        <v>2000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5173</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5174</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5350</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L3">
+        <v>1486</v>
+      </c>
+      <c r="M3" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N3" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O3" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q3" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S3" s="7"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4">
+        <v>1995</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5175</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5176</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K4" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L4">
+        <v>321</v>
+      </c>
+      <c r="M4" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N4" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O4" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q4" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S4" s="7"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5177</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5178</v>
+      </c>
+      <c r="D5">
+        <v>1991</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5179</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5180</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5351</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K5" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L5">
+        <v>3590</v>
+      </c>
+      <c r="M5" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N5" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O5" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q5" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S5" s="7"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5181</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5182</v>
+      </c>
+      <c r="D6">
+        <v>2005</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5183</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5184</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K6" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L6">
+        <v>1510</v>
+      </c>
+      <c r="M6" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N6" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O6" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q6" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S6" s="7"/>
+      <c r="U6" s="2" t="s">
+        <v>5143</v>
+      </c>
+      <c r="V6">
+        <f>COUNTIF($P:$P, "YES")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5185</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5186</v>
+      </c>
+      <c r="D7">
+        <v>2002</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5187</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5188</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5352</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K7" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L7">
+        <v>321</v>
+      </c>
+      <c r="M7" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N7" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O7" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q7" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S7" s="7"/>
+      <c r="U7" s="2" t="s">
+        <v>5140</v>
+      </c>
+      <c r="V7">
+        <f>COUNTIFS($R:$R, "YES", $F:$F, "&lt;&gt;")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8">
+        <v>1998</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5189</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5190</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K8" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L8">
+        <v>588</v>
+      </c>
+      <c r="M8" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N8" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O8" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q8" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S8" s="7"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5191</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5192</v>
+      </c>
+      <c r="D9">
+        <v>2014</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5193</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5194</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H9" t="s">
+        <v>5353</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K9" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L9">
+        <v>73</v>
+      </c>
+      <c r="M9" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N9" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O9" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q9" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S9" s="7"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5195</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5196</v>
+      </c>
+      <c r="D10">
+        <v>2018</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5197</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5198</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5354</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K10" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L10">
+        <v>74</v>
+      </c>
+      <c r="M10" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N10" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O10" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q10" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S10" s="7"/>
+    </row>
+    <row r="11" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
+        <v>10</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>5199</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>5200</v>
+      </c>
+      <c r="D11" s="40">
+        <v>2014</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>5201</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>5202</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="I11" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L11" s="40">
+        <v>17</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N11" s="40" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O11" s="40" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q11" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S11" s="41"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5203</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3928</v>
+      </c>
+      <c r="D12">
+        <v>1995</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5204</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5205</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H12" t="s">
+        <v>5355</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K12" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L12">
+        <v>1789</v>
+      </c>
+      <c r="M12" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N12" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O12" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q12" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S12" s="7"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5206</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3928</v>
+      </c>
+      <c r="D13">
+        <v>2001</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5207</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5208</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H13" t="s">
+        <v>5352</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K13" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L13">
+        <v>2928</v>
+      </c>
+      <c r="M13" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N13" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O13" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q13" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S13" s="7"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5209</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4356</v>
+      </c>
+      <c r="D14">
+        <v>2011</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5210</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5211</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H14" t="s">
+        <v>5356</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K14" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L14">
+        <v>783</v>
+      </c>
+      <c r="M14" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N14" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O14" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q14" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S14" s="7"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5212</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5213</v>
+      </c>
+      <c r="D15">
+        <v>2019</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5214</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5215</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H15" t="s">
+        <v>5357</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K15" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L15">
+        <v>141</v>
+      </c>
+      <c r="M15" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N15" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O15" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q15" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S15" s="7"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16">
+        <v>1998</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5216</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5217</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H16" t="s">
+        <v>167</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K16" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L16">
+        <v>284</v>
+      </c>
+      <c r="M16" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N16" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O16" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q16" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S16" s="7"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5218</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5219</v>
+      </c>
+      <c r="D17">
+        <v>2010</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5220</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5221</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H17" t="s">
+        <v>5358</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K17" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L17">
+        <v>252</v>
+      </c>
+      <c r="M17" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N17" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O17" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q17" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S17" s="7"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5222</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5223</v>
+      </c>
+      <c r="D18">
+        <v>1991</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5224</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5225</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K18" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L18">
+        <v>88</v>
+      </c>
+      <c r="M18" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N18" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O18" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q18" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S18" s="7"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D19">
+        <v>2001</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5226</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5227</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K19" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L19">
+        <v>2852</v>
+      </c>
+      <c r="M19" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N19" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O19" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q19" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S19" s="7"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" t="s">
+        <v>235</v>
+      </c>
+      <c r="D20">
+        <v>2002</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5228</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5229</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K20" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L20">
+        <v>386</v>
+      </c>
+      <c r="M20" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N20" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O20" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q20" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S20" s="7"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5230</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5231</v>
+      </c>
+      <c r="D21">
+        <v>2008</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5232</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5233</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H21" t="s">
+        <v>5359</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K21" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L21">
+        <v>494</v>
+      </c>
+      <c r="M21" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N21" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O21" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q21" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S21" s="7"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5234</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5235</v>
+      </c>
+      <c r="D22">
+        <v>2000</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5236</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5237</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H22" t="s">
+        <v>167</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K22" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L22">
+        <v>101</v>
+      </c>
+      <c r="M22" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N22" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O22" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q22" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S22" s="7"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5238</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5239</v>
+      </c>
+      <c r="D23">
+        <v>2019</v>
+      </c>
+      <c r="E23" t="s">
+        <v>5240</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5241</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H23" t="s">
+        <v>5354</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K23" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L23">
+        <v>92</v>
+      </c>
+      <c r="M23" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N23" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O23" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q23" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S23" s="7"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5242</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5243</v>
+      </c>
+      <c r="D24">
+        <v>2005</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5244</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5245</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K24" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L24">
+        <v>171</v>
+      </c>
+      <c r="M24" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N24" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O24" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q24" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S24" s="7"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5246</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5247</v>
+      </c>
+      <c r="D25">
+        <v>1995</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5248</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5249</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H25" t="s">
+        <v>5359</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K25" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L25">
+        <v>662</v>
+      </c>
+      <c r="M25" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N25" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O25" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q25" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S25" s="7"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5250</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3930</v>
+      </c>
+      <c r="D26">
+        <v>1995</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5251</v>
+      </c>
+      <c r="F26" t="s">
+        <v>5252</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K26" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L26">
+        <v>888</v>
+      </c>
+      <c r="M26" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N26" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O26" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q26" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S26" s="7"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5253</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3930</v>
+      </c>
+      <c r="D27">
+        <v>1999</v>
+      </c>
+      <c r="E27" t="s">
+        <v>5254</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5255</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H27" t="s">
+        <v>349</v>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K27" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L27">
+        <v>100</v>
+      </c>
+      <c r="M27" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N27" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O27" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q27" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S27" s="7"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3929</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3930</v>
+      </c>
+      <c r="D28">
+        <v>2003</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5256</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5257</v>
+      </c>
+      <c r="G28" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H28" t="s">
+        <v>5354</v>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K28" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L28">
+        <v>860</v>
+      </c>
+      <c r="M28" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N28" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O28" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q28" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S28" s="7"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5258</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5259</v>
+      </c>
+      <c r="D29">
+        <v>2007</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5260</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5261</v>
+      </c>
+      <c r="G29" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H29" t="s">
+        <v>353</v>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K29" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L29">
+        <v>27</v>
+      </c>
+      <c r="M29" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N29" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O29" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q29" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S29" s="7"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5262</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5263</v>
+      </c>
+      <c r="D30">
+        <v>2006</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5264</v>
+      </c>
+      <c r="F30" t="s">
+        <v>5265</v>
+      </c>
+      <c r="G30" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H30" t="s">
+        <v>5360</v>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K30" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L30">
+        <v>1427</v>
+      </c>
+      <c r="M30" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N30" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O30" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q30" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S30" s="7"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5266</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5267</v>
+      </c>
+      <c r="D31">
+        <v>2011</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5268</v>
+      </c>
+      <c r="F31" t="s">
+        <v>5269</v>
+      </c>
+      <c r="G31" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H31" t="s">
+        <v>5359</v>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K31" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L31">
+        <v>80</v>
+      </c>
+      <c r="M31" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N31" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O31" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q31" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S31" s="7"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5270</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5271</v>
+      </c>
+      <c r="D32">
+        <v>1999</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5272</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5273</v>
+      </c>
+      <c r="G32" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H32" t="s">
+        <v>349</v>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K32" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L32">
+        <v>182</v>
+      </c>
+      <c r="M32" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N32" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O32" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q32" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S32" s="7"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5274</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5275</v>
+      </c>
+      <c r="D33">
+        <v>2004</v>
+      </c>
+      <c r="E33" t="s">
+        <v>5276</v>
+      </c>
+      <c r="F33" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G33" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H33" t="s">
+        <v>5354</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K33" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L33">
+        <v>389</v>
+      </c>
+      <c r="M33" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N33" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O33" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q33" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S33" s="7"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>399</v>
+      </c>
+      <c r="C34" t="s">
+        <v>400</v>
+      </c>
+      <c r="D34">
+        <v>1999</v>
+      </c>
+      <c r="E34" t="s">
+        <v>5278</v>
+      </c>
+      <c r="F34" t="s">
+        <v>5279</v>
+      </c>
+      <c r="G34" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H34" t="s">
+        <v>253</v>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K34" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L34">
+        <v>177</v>
+      </c>
+      <c r="M34" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N34" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O34" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q34" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S34" s="7"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>429</v>
+      </c>
+      <c r="C35" t="s">
+        <v>430</v>
+      </c>
+      <c r="D35">
+        <v>2001</v>
+      </c>
+      <c r="E35" t="s">
+        <v>5280</v>
+      </c>
+      <c r="F35" t="s">
+        <v>5281</v>
+      </c>
+      <c r="G35" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H35" t="s">
+        <v>431</v>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K35" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L35">
+        <v>217</v>
+      </c>
+      <c r="M35" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N35" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O35" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q35" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S35" s="7"/>
+    </row>
+    <row r="36" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="40">
+        <v>35</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>5282</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>5283</v>
+      </c>
+      <c r="D36" s="40">
+        <v>1993</v>
+      </c>
+      <c r="E36" s="40" t="s">
+        <v>5284</v>
+      </c>
+      <c r="F36" s="40" t="s">
+        <v>5285</v>
+      </c>
+      <c r="G36" s="40" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H36" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="I36" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" s="40" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K36" s="40" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L36" s="40">
+        <v>1442</v>
+      </c>
+      <c r="M36" s="40" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N36" s="40" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O36" s="40" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q36" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S36" s="41"/>
+    </row>
+    <row r="37" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="40">
+        <v>36</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>469</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>470</v>
+      </c>
+      <c r="D37" s="40">
+        <v>2006</v>
+      </c>
+      <c r="E37" s="40" t="s">
+        <v>5286</v>
+      </c>
+      <c r="F37" s="40" t="s">
+        <v>5287</v>
+      </c>
+      <c r="G37" s="40" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H37" s="40" t="s">
+        <v>477</v>
+      </c>
+      <c r="I37" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" s="40" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K37" s="40" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L37" s="40">
+        <v>254</v>
+      </c>
+      <c r="M37" s="40" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N37" s="40" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O37" s="40" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q37" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S37" s="41"/>
+    </row>
+    <row r="38" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="40">
+        <v>37</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="D38" s="40">
+        <v>1998</v>
+      </c>
+      <c r="E38" s="40" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F38" s="40" t="s">
+        <v>5289</v>
+      </c>
+      <c r="G38" s="40" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H38" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" s="40" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K38" s="40" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L38" s="40">
+        <v>301</v>
+      </c>
+      <c r="M38" s="40" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N38" s="40" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O38" s="40" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q38" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S38" s="41"/>
+    </row>
+    <row r="39" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="40">
+        <v>38</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>475</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>476</v>
+      </c>
+      <c r="D39" s="40">
+        <v>2001</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>5290</v>
+      </c>
+      <c r="F39" s="40" t="s">
+        <v>5291</v>
+      </c>
+      <c r="G39" s="40" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H39" s="40" t="s">
+        <v>5361</v>
+      </c>
+      <c r="I39" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" s="40" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K39" s="40" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L39" s="40">
+        <v>293</v>
+      </c>
+      <c r="M39" s="40" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N39" s="40" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O39" s="40" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q39" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S39" s="41"/>
+    </row>
+    <row r="40" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>3923</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D40" s="40">
+        <v>2008</v>
+      </c>
+      <c r="E40" s="40" t="s">
+        <v>5292</v>
+      </c>
+      <c r="F40" s="40" t="s">
+        <v>5293</v>
+      </c>
+      <c r="G40" s="40" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H40" s="40" t="s">
+        <v>5359</v>
+      </c>
+      <c r="I40" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" s="40" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K40" s="40" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L40" s="40">
+        <v>153</v>
+      </c>
+      <c r="M40" s="40" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N40" s="40" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O40" s="40" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q40" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S40" s="41"/>
+    </row>
+    <row r="41" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="40">
+        <v>40</v>
+      </c>
+      <c r="B41" s="40" t="s">
+        <v>5294</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>5295</v>
+      </c>
+      <c r="D41" s="40">
+        <v>2001</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>5296</v>
+      </c>
+      <c r="F41" s="40" t="s">
+        <v>5297</v>
+      </c>
+      <c r="G41" s="40" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H41" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="I41" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" s="40" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K41" s="40" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L41" s="40">
+        <v>188</v>
+      </c>
+      <c r="M41" s="40" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N41" s="40" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O41" s="40" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q41" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S41" s="41"/>
+    </row>
+    <row r="42" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="40">
+        <v>41</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>5298</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>5299</v>
+      </c>
+      <c r="D42" s="40">
+        <v>2004</v>
+      </c>
+      <c r="E42" s="40" t="s">
+        <v>5300</v>
+      </c>
+      <c r="F42" s="40" t="s">
+        <v>5301</v>
+      </c>
+      <c r="G42" s="40" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H42" s="40" t="s">
+        <v>5354</v>
+      </c>
+      <c r="I42" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" s="40" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K42" s="40" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L42" s="40">
+        <v>93</v>
+      </c>
+      <c r="M42" s="40" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N42" s="40" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O42" s="40" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q42" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S42" s="41"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5302</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5303</v>
+      </c>
+      <c r="D43">
+        <v>1995</v>
+      </c>
+      <c r="E43" t="s">
+        <v>5304</v>
+      </c>
+      <c r="F43" t="s">
+        <v>5305</v>
+      </c>
+      <c r="G43" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H43" t="s">
+        <v>5362</v>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K43" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L43">
+        <v>372</v>
+      </c>
+      <c r="M43" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N43" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O43" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q43" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S43" s="7"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5306</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5307</v>
+      </c>
+      <c r="D44">
+        <v>2004</v>
+      </c>
+      <c r="E44" t="s">
+        <v>5308</v>
+      </c>
+      <c r="F44" t="s">
+        <v>5309</v>
+      </c>
+      <c r="G44" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H44" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K44" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L44">
+        <v>1830</v>
+      </c>
+      <c r="M44" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N44" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O44" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q44" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S44" s="7"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5310</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5311</v>
+      </c>
+      <c r="D45">
+        <v>2005</v>
+      </c>
+      <c r="E45" t="s">
+        <v>5312</v>
+      </c>
+      <c r="F45" t="s">
+        <v>5313</v>
+      </c>
+      <c r="G45" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H45" t="s">
+        <v>349</v>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K45" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L45">
+        <v>345</v>
+      </c>
+      <c r="M45" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N45" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O45" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q45" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S45" s="7"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5314</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5315</v>
+      </c>
+      <c r="D46">
+        <v>2006</v>
+      </c>
+      <c r="E46" t="s">
+        <v>5316</v>
+      </c>
+      <c r="F46" t="s">
+        <v>5317</v>
+      </c>
+      <c r="G46" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H46" t="s">
+        <v>5363</v>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K46" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L46">
+        <v>1005</v>
+      </c>
+      <c r="M46" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N46" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O46" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q46" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S46" s="7"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5318</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5319</v>
+      </c>
+      <c r="D47">
+        <v>2006</v>
+      </c>
+      <c r="E47" t="s">
+        <v>5320</v>
+      </c>
+      <c r="F47" t="s">
+        <v>5321</v>
+      </c>
+      <c r="G47" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H47" t="s">
+        <v>608</v>
+      </c>
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K47" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L47">
+        <v>596</v>
+      </c>
+      <c r="M47" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N47" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O47" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q47" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S47" s="7"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5322</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5323</v>
+      </c>
+      <c r="D48">
+        <v>2005</v>
+      </c>
+      <c r="E48" t="s">
+        <v>5324</v>
+      </c>
+      <c r="F48" t="s">
+        <v>5164</v>
+      </c>
+      <c r="G48" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H48" t="s">
+        <v>42</v>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K48" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L48">
+        <v>386</v>
+      </c>
+      <c r="M48" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N48" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O48" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q48" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S48" s="7"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>677</v>
+      </c>
+      <c r="C49" t="s">
+        <v>674</v>
+      </c>
+      <c r="D49">
+        <v>1982</v>
+      </c>
+      <c r="E49" t="s">
+        <v>5325</v>
+      </c>
+      <c r="F49" t="s">
+        <v>5165</v>
+      </c>
+      <c r="G49" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H49" t="s">
+        <v>5362</v>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K49" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L49">
+        <v>55</v>
+      </c>
+      <c r="M49" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N49" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O49" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q49" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S49" s="7"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>679</v>
+      </c>
+      <c r="C50" t="s">
+        <v>674</v>
+      </c>
+      <c r="D50">
+        <v>1985</v>
+      </c>
+      <c r="E50" t="s">
+        <v>5326</v>
+      </c>
+      <c r="F50" t="s">
+        <v>5166</v>
+      </c>
+      <c r="G50" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H50" t="s">
+        <v>349</v>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K50" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L50">
+        <v>2143</v>
+      </c>
+      <c r="M50" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N50" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O50" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q50" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S50" s="7"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5327</v>
+      </c>
+      <c r="C51" t="s">
+        <v>674</v>
+      </c>
+      <c r="D51">
+        <v>1979</v>
+      </c>
+      <c r="E51" t="s">
+        <v>5328</v>
+      </c>
+      <c r="F51" t="s">
+        <v>5167</v>
+      </c>
+      <c r="G51" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H51" t="s">
+        <v>680</v>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K51" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L51">
+        <v>251</v>
+      </c>
+      <c r="M51" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N51" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O51" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q51" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S51" s="7"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5329</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5330</v>
+      </c>
+      <c r="D52">
+        <v>1997</v>
+      </c>
+      <c r="E52" t="s">
+        <v>5331</v>
+      </c>
+      <c r="F52" t="s">
+        <v>5332</v>
+      </c>
+      <c r="G52" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H52" t="s">
+        <v>691</v>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K52" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L52">
+        <v>9699</v>
+      </c>
+      <c r="M52" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N52" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O52" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q52" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S52" s="7"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5333</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5334</v>
+      </c>
+      <c r="D53">
+        <v>2014</v>
+      </c>
+      <c r="E53" t="s">
+        <v>5335</v>
+      </c>
+      <c r="F53" t="s">
+        <v>5336</v>
+      </c>
+      <c r="G53" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H53" t="s">
+        <v>5352</v>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K53" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L53">
+        <v>264</v>
+      </c>
+      <c r="M53" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N53" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O53" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q53" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S53" s="7"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5337</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5338</v>
+      </c>
+      <c r="D54">
+        <v>2001</v>
+      </c>
+      <c r="E54" t="s">
+        <v>5339</v>
+      </c>
+      <c r="F54" t="s">
+        <v>5340</v>
+      </c>
+      <c r="G54" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H54" t="s">
+        <v>42</v>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K54" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L54">
+        <v>261</v>
+      </c>
+      <c r="M54" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N54" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O54" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q54" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S54" s="7"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5341</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5342</v>
+      </c>
+      <c r="D55">
+        <v>1999</v>
+      </c>
+      <c r="E55" t="s">
+        <v>5343</v>
+      </c>
+      <c r="F55" t="s">
+        <v>5344</v>
+      </c>
+      <c r="G55" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H55" t="s">
+        <v>691</v>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K55" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L55">
+        <v>423</v>
+      </c>
+      <c r="M55" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N55" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O55" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q55" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S55" s="7"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5345</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5346</v>
+      </c>
+      <c r="D56">
+        <v>2011</v>
+      </c>
+      <c r="E56" t="s">
+        <v>5347</v>
+      </c>
+      <c r="F56" t="s">
+        <v>5348</v>
+      </c>
+      <c r="G56" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H56" t="s">
+        <v>680</v>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>5349</v>
+      </c>
+      <c r="K56" t="s">
+        <v>5349</v>
+      </c>
+      <c r="L56">
+        <v>197</v>
+      </c>
+      <c r="M56" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N56" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O56" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q56" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S56" s="7"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S57" s="7"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S58" s="7"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S59" s="7"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S60" s="7"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S61" s="7"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S62" s="7"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S63" s="7"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S64" s="7"/>
+    </row>
+    <row r="65" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S65" s="7"/>
+    </row>
+    <row r="66" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S66" s="7"/>
+    </row>
+    <row r="67" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S67" s="7"/>
+    </row>
+    <row r="68" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S68" s="7"/>
+    </row>
+    <row r="69" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S69" s="7"/>
+    </row>
+    <row r="70" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S70" s="7"/>
+    </row>
+    <row r="71" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S71" s="7"/>
+    </row>
+    <row r="72" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S72" s="7"/>
+    </row>
+    <row r="73" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S73" s="7"/>
+    </row>
+    <row r="74" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S74" s="7"/>
+    </row>
+    <row r="75" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S75" s="7"/>
+    </row>
+    <row r="76" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S76" s="7"/>
+    </row>
+    <row r="77" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S77" s="7"/>
+    </row>
+    <row r="78" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S78" s="7"/>
+    </row>
+    <row r="79" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S79" s="7"/>
+    </row>
+    <row r="80" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S80" s="7"/>
+    </row>
+    <row r="81" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S81" s="7"/>
+    </row>
+    <row r="82" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S82" s="7"/>
+    </row>
+    <row r="83" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S83" s="7"/>
+    </row>
+    <row r="84" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S84" s="7"/>
+    </row>
+    <row r="85" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S85" s="7"/>
+    </row>
+    <row r="86" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S86" s="7"/>
+    </row>
+    <row r="87" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S87" s="7"/>
+    </row>
+    <row r="88" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S88" s="7"/>
+    </row>
+    <row r="89" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S89" s="7"/>
+    </row>
+    <row r="90" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S90" s="7"/>
+    </row>
+    <row r="91" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S91" s="7"/>
+    </row>
+    <row r="92" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S92" s="7"/>
+    </row>
+    <row r="93" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S93" s="7"/>
+    </row>
+    <row r="94" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S94" s="7"/>
+    </row>
+    <row r="95" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S95" s="7"/>
+    </row>
+    <row r="96" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S96" s="7"/>
+    </row>
+    <row r="97" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S97" s="7"/>
+    </row>
+    <row r="98" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S98" s="7"/>
+    </row>
+    <row r="99" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S99" s="7"/>
+    </row>
+    <row r="100" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S100" s="7"/>
+    </row>
+    <row r="101" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S101" s="7"/>
+    </row>
+    <row r="102" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S102" s="7"/>
+    </row>
+    <row r="103" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S103" s="7"/>
+    </row>
+    <row r="104" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S104" s="7"/>
+    </row>
+    <row r="105" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S105" s="7"/>
+    </row>
+    <row r="106" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S106" s="7"/>
+    </row>
+    <row r="107" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S107" s="7"/>
+    </row>
+    <row r="108" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S108" s="7"/>
+    </row>
+    <row r="109" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S109" s="7"/>
+    </row>
+    <row r="110" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S110" s="7"/>
+    </row>
+    <row r="111" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S111" s="7"/>
+    </row>
+    <row r="112" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S112" s="7"/>
+    </row>
+    <row r="113" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S113" s="7"/>
+    </row>
+    <row r="114" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S114" s="7"/>
+    </row>
+    <row r="115" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S115" s="7"/>
+    </row>
+    <row r="116" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S116" s="7"/>
+    </row>
+    <row r="117" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S117" s="7"/>
+    </row>
+    <row r="118" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S118" s="7"/>
+    </row>
+    <row r="119" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S119" s="7"/>
+    </row>
+    <row r="120" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S120" s="7"/>
+    </row>
+    <row r="121" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S121" s="7"/>
+    </row>
+    <row r="122" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S122" s="7"/>
+    </row>
+    <row r="123" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S123" s="7"/>
+    </row>
+    <row r="124" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S124" s="7"/>
+    </row>
+    <row r="125" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S125" s="7"/>
+    </row>
+    <row r="126" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S126" s="7"/>
+    </row>
+    <row r="127" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S127" s="7"/>
+    </row>
+    <row r="128" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S128" s="7"/>
+    </row>
+    <row r="129" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S129" s="7"/>
+    </row>
+    <row r="130" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S130" s="7"/>
+    </row>
+    <row r="131" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S131" s="7"/>
+    </row>
+    <row r="132" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S132" s="7"/>
+    </row>
+    <row r="133" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S133" s="7"/>
+    </row>
+    <row r="134" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S134" s="7"/>
+    </row>
+    <row r="135" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S135" s="7"/>
+    </row>
+    <row r="136" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S136" s="7"/>
+    </row>
+    <row r="137" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S137" s="7"/>
+    </row>
+    <row r="138" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S138" s="7"/>
+    </row>
+    <row r="139" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S139" s="7"/>
+    </row>
+    <row r="140" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S140" s="7"/>
+    </row>
+    <row r="141" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S141" s="7"/>
+    </row>
+    <row r="142" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S142" s="7"/>
+    </row>
+    <row r="143" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S143" s="7"/>
+    </row>
+    <row r="144" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S144" s="7"/>
+    </row>
+    <row r="145" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="S145" s="7"/>
+    </row>
+    <row r="146" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="S146" s="7"/>
+    </row>
+    <row r="147" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="S147" s="7"/>
+    </row>
+    <row r="148" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="S148" s="7"/>
+    </row>
+    <row r="149" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="S149" s="7"/>
+    </row>
+    <row r="150" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="S150" s="7"/>
+    </row>
+    <row r="151" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="S151" s="7"/>
+    </row>
+    <row r="152" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="S152" s="7"/>
+    </row>
+    <row r="153" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="S153" s="7"/>
+    </row>
+    <row r="154" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="S154" s="7"/>
+    </row>
+    <row r="155" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="S155" s="7"/>
+    </row>
+    <row r="156" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="S156" s="7"/>
+    </row>
+    <row r="157" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="S157" s="7"/>
+    </row>
+    <row r="158" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="S158" s="7"/>
+    </row>
+    <row r="159" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="S159" s="7"/>
+    </row>
+    <row r="160" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O160" s="32"/>
+      <c r="S160" s="7"/>
+    </row>
+    <row r="161" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S161" s="7"/>
+    </row>
+    <row r="162" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S162" s="7"/>
+    </row>
+    <row r="163" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S163" s="7"/>
+    </row>
+    <row r="164" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S164" s="7"/>
+    </row>
+    <row r="165" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S165" s="7"/>
+    </row>
+    <row r="166" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S166" s="7"/>
+    </row>
+    <row r="167" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S167" s="7"/>
+    </row>
+    <row r="168" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S168" s="7"/>
+    </row>
+    <row r="169" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S169" s="7"/>
+    </row>
+    <row r="170" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S170" s="7"/>
+    </row>
+    <row r="171" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S171" s="7"/>
+    </row>
+    <row r="172" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S172" s="7"/>
+    </row>
+    <row r="173" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S173" s="7"/>
+    </row>
+    <row r="174" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S174" s="7"/>
+    </row>
+    <row r="175" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S175" s="7"/>
+    </row>
+    <row r="176" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S176" s="7"/>
+    </row>
+    <row r="177" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S177" s="7"/>
+    </row>
+    <row r="178" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S178" s="7"/>
+    </row>
+    <row r="179" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S179" s="7"/>
+    </row>
+    <row r="180" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S180" s="7"/>
+    </row>
+    <row r="181" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S181" s="7"/>
+    </row>
+    <row r="182" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S182" s="7"/>
+    </row>
+    <row r="183" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S183" s="7"/>
+    </row>
+    <row r="184" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S184" s="7"/>
+    </row>
+    <row r="185" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S185" s="7"/>
+    </row>
+    <row r="186" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S186" s="7"/>
+    </row>
+    <row r="187" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S187" s="7"/>
+    </row>
+    <row r="188" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S188" s="7"/>
+    </row>
+    <row r="189" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S189" s="7"/>
+    </row>
+    <row r="190" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S190" s="7"/>
+    </row>
+    <row r="191" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S191" s="7"/>
+    </row>
+    <row r="192" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S192" s="7"/>
+    </row>
+    <row r="193" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S193" s="7"/>
+    </row>
+    <row r="194" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S194" s="7"/>
+    </row>
+    <row r="195" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S195" s="7"/>
+    </row>
+    <row r="196" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S196" s="7"/>
+    </row>
+    <row r="197" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S197" s="7"/>
+    </row>
+    <row r="198" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S198" s="7"/>
+    </row>
+    <row r="199" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S199" s="7"/>
+    </row>
+    <row r="200" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S200" s="7"/>
+    </row>
+    <row r="201" spans="19:19" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S201" s="37"/>
+    </row>
+    <row r="202" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S202" s="7"/>
+    </row>
+    <row r="203" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S203" s="7"/>
+    </row>
+    <row r="204" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S204" s="7"/>
+    </row>
+    <row r="205" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S205" s="7"/>
+    </row>
+    <row r="206" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S206" s="7"/>
+    </row>
+    <row r="207" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S207" s="7"/>
+    </row>
+    <row r="208" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S208" s="7"/>
+    </row>
+    <row r="209" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S209" s="7"/>
+    </row>
+    <row r="210" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S210" s="7"/>
+    </row>
+    <row r="211" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S211" s="7"/>
+    </row>
+    <row r="212" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S212" s="7"/>
+    </row>
+    <row r="213" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S213" s="7"/>
+    </row>
+    <row r="214" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S214" s="7"/>
+    </row>
+    <row r="215" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S215" s="7"/>
+    </row>
+    <row r="216" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S216" s="7"/>
+    </row>
+    <row r="217" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S217" s="7"/>
+    </row>
+    <row r="218" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S218" s="7"/>
+    </row>
+    <row r="219" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S219" s="7"/>
+    </row>
+    <row r="220" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S220" s="7"/>
+    </row>
+    <row r="221" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S221" s="7"/>
+    </row>
+    <row r="222" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S222" s="7"/>
+    </row>
+    <row r="223" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S223" s="7"/>
+    </row>
+    <row r="224" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S224" s="7"/>
+    </row>
+    <row r="225" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S225" s="7"/>
+    </row>
+    <row r="226" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S226" s="7"/>
+    </row>
+    <row r="227" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S227" s="7"/>
+    </row>
+    <row r="228" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S228" s="7"/>
+    </row>
+    <row r="229" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S229" s="7"/>
+    </row>
+    <row r="230" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S230" s="7"/>
+    </row>
+    <row r="231" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S231" s="7"/>
+    </row>
+    <row r="232" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S232" s="7"/>
+    </row>
+    <row r="233" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S233" s="7"/>
+    </row>
+    <row r="234" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S234" s="7"/>
+    </row>
+    <row r="235" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S235" s="7"/>
+    </row>
+    <row r="236" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S236" s="7"/>
+    </row>
+    <row r="237" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S237" s="7"/>
+    </row>
+    <row r="238" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S238" s="7"/>
+    </row>
+    <row r="239" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S239" s="7"/>
+    </row>
+    <row r="240" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S240" s="7"/>
+    </row>
+    <row r="241" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S241" s="7"/>
+    </row>
+    <row r="242" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S242" s="7"/>
+    </row>
+    <row r="243" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S243" s="7"/>
+    </row>
+    <row r="244" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S244" s="7"/>
+    </row>
+    <row r="245" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S245" s="7"/>
+    </row>
+    <row r="246" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S246" s="7"/>
+    </row>
+    <row r="247" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S247" s="7"/>
+    </row>
+    <row r="248" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S248" s="7"/>
+    </row>
+    <row r="249" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S249" s="7"/>
+    </row>
+    <row r="250" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S250" s="7"/>
+    </row>
+    <row r="251" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S251" s="7"/>
+    </row>
+    <row r="252" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S252" s="7"/>
+    </row>
+    <row r="253" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S253" s="7"/>
+    </row>
+    <row r="254" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S254" s="7"/>
+    </row>
+    <row r="255" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S255" s="7"/>
+    </row>
+    <row r="256" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S256" s="7"/>
+    </row>
+    <row r="257" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S257" s="7"/>
+    </row>
+    <row r="258" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S258" s="7"/>
+    </row>
+    <row r="259" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S259" s="7"/>
+    </row>
+    <row r="260" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S260" s="7"/>
+    </row>
+    <row r="261" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S261" s="7"/>
+    </row>
+    <row r="262" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S262" s="7"/>
+    </row>
+    <row r="263" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S263" s="7"/>
+    </row>
+    <row r="264" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S264" s="7"/>
+    </row>
+    <row r="265" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S265" s="7"/>
+    </row>
+    <row r="266" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S266" s="7"/>
+    </row>
+    <row r="267" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S267" s="7"/>
+    </row>
+    <row r="268" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S268" s="7"/>
+    </row>
+    <row r="269" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S269" s="7"/>
+    </row>
+    <row r="270" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S270" s="7"/>
+    </row>
+    <row r="271" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S271" s="7"/>
+    </row>
+    <row r="272" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S272" s="7"/>
+    </row>
+    <row r="273" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S273" s="7"/>
+    </row>
+    <row r="274" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S274" s="7"/>
+    </row>
+    <row r="275" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S275" s="7"/>
+    </row>
+    <row r="276" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S276" s="7"/>
+    </row>
+    <row r="277" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S277" s="7"/>
+    </row>
+    <row r="278" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S278" s="7"/>
+    </row>
+    <row r="279" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S279" s="7"/>
+    </row>
+    <row r="280" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S280" s="7"/>
+    </row>
+    <row r="281" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S281" s="7"/>
+    </row>
+    <row r="282" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S282" s="7"/>
+    </row>
+    <row r="283" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S283" s="7"/>
+    </row>
+    <row r="284" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S284" s="7"/>
+    </row>
+    <row r="285" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S285" s="7"/>
+    </row>
+    <row r="286" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S286" s="7"/>
+    </row>
+    <row r="287" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S287" s="7"/>
+    </row>
+    <row r="288" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S288" s="7"/>
+    </row>
+    <row r="289" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S289" s="7"/>
+    </row>
+    <row r="290" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S290" s="7"/>
+    </row>
+    <row r="291" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S291" s="7"/>
+    </row>
+    <row r="292" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S292" s="7"/>
+    </row>
+    <row r="293" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S293" s="7"/>
+    </row>
+    <row r="294" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S294" s="7"/>
+    </row>
+    <row r="295" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S295" s="7"/>
+    </row>
+    <row r="296" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S296" s="7"/>
+    </row>
+    <row r="297" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S297" s="7"/>
+    </row>
+    <row r="298" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S298" s="7"/>
+    </row>
+    <row r="299" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S299" s="7"/>
+    </row>
+    <row r="300" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S300" s="7"/>
+    </row>
+    <row r="301" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S301" s="7"/>
+    </row>
+    <row r="302" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S302" s="7"/>
+    </row>
+    <row r="303" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S303" s="7"/>
+    </row>
+    <row r="304" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S304" s="7"/>
+    </row>
+    <row r="305" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S305" s="7"/>
+    </row>
+    <row r="306" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S306" s="7"/>
+    </row>
+    <row r="307" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S307" s="7"/>
+    </row>
+    <row r="308" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S308" s="7"/>
+    </row>
+    <row r="309" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S309" s="7"/>
+    </row>
+    <row r="310" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S310" s="7"/>
+    </row>
+    <row r="311" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S311" s="7"/>
+    </row>
+    <row r="312" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S312" s="7"/>
+    </row>
+    <row r="313" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S313" s="7"/>
+    </row>
+    <row r="314" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S314" s="7"/>
+    </row>
+    <row r="315" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S315" s="7"/>
+    </row>
+    <row r="316" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S316" s="7"/>
+    </row>
+    <row r="317" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S317" s="7"/>
+    </row>
+    <row r="318" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S318" s="7"/>
+    </row>
+    <row r="319" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S319" s="7"/>
+    </row>
+    <row r="320" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S320" s="7"/>
+    </row>
+    <row r="321" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S321" s="7"/>
+    </row>
+    <row r="322" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S322" s="7"/>
+    </row>
+    <row r="323" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S323" s="7"/>
+    </row>
+    <row r="324" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S324" s="7"/>
+    </row>
+    <row r="325" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S325" s="7"/>
+    </row>
+    <row r="326" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S326" s="7"/>
+    </row>
+    <row r="327" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S327" s="7"/>
+    </row>
+    <row r="328" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S328" s="7"/>
+    </row>
+    <row r="329" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S329" s="7"/>
+    </row>
+    <row r="330" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S330" s="7"/>
+    </row>
+    <row r="331" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S331" s="7"/>
+    </row>
+    <row r="332" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S332" s="7"/>
+    </row>
+    <row r="333" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S333" s="7"/>
+    </row>
+    <row r="334" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S334" s="7"/>
+    </row>
+    <row r="335" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S335" s="7"/>
+    </row>
+    <row r="336" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S336" s="7"/>
+    </row>
+    <row r="337" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S337" s="7"/>
+    </row>
+    <row r="338" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S338" s="7"/>
+    </row>
+    <row r="339" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S339" s="7"/>
+    </row>
+    <row r="340" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S340" s="7"/>
+    </row>
+    <row r="341" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S341" s="7"/>
+    </row>
+    <row r="342" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S342" s="7"/>
+    </row>
+    <row r="343" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S343" s="7"/>
+    </row>
+    <row r="344" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S344" s="7"/>
+    </row>
+    <row r="345" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S345" s="7"/>
+    </row>
+    <row r="346" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S346" s="7"/>
+    </row>
+    <row r="347" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S347" s="7"/>
+    </row>
+    <row r="348" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S348" s="7"/>
+    </row>
+    <row r="349" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S349" s="7"/>
+    </row>
+    <row r="350" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S350" s="7"/>
+    </row>
+    <row r="351" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S351" s="7"/>
+    </row>
+    <row r="352" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S352" s="7"/>
+    </row>
+    <row r="353" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S353" s="7"/>
+    </row>
+    <row r="354" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S354" s="7"/>
+    </row>
+    <row r="355" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S355" s="7"/>
+    </row>
+    <row r="356" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S356" s="7"/>
+    </row>
+    <row r="357" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S357" s="7"/>
+    </row>
+    <row r="358" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S358" s="7"/>
+    </row>
+    <row r="359" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S359" s="7"/>
+    </row>
+    <row r="360" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S360" s="7"/>
+    </row>
+    <row r="361" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S361" s="7"/>
+    </row>
+    <row r="362" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S362" s="7"/>
+    </row>
+    <row r="363" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S363" s="7"/>
+    </row>
+    <row r="364" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S364" s="7"/>
+    </row>
+    <row r="365" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S365" s="7"/>
+    </row>
+    <row r="366" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S366" s="7"/>
+    </row>
+    <row r="367" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S367" s="7"/>
+    </row>
+    <row r="368" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S368" s="7"/>
+    </row>
+    <row r="369" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S369" s="7"/>
+    </row>
+    <row r="370" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S370" s="7"/>
+    </row>
+    <row r="371" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S371" s="7"/>
+    </row>
+    <row r="372" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S372" s="7"/>
+    </row>
+    <row r="373" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S373" s="7"/>
+    </row>
+    <row r="374" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S374" s="7"/>
+    </row>
+    <row r="375" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S375" s="7"/>
+    </row>
+    <row r="376" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S376" s="7"/>
+    </row>
+    <row r="377" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S377" s="7"/>
+    </row>
+    <row r="378" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S378" s="7"/>
+    </row>
+    <row r="379" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S379" s="7"/>
+    </row>
+    <row r="380" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S380" s="7"/>
+    </row>
+    <row r="381" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S381" s="7"/>
+    </row>
+    <row r="382" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S382" s="7"/>
+    </row>
+    <row r="383" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S383" s="7"/>
+    </row>
+    <row r="384" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S384" s="7"/>
+    </row>
+    <row r="385" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S385" s="7"/>
+    </row>
+    <row r="386" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S386" s="7"/>
+    </row>
+    <row r="387" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S387" s="7"/>
+    </row>
+    <row r="388" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S388" s="7"/>
+    </row>
+    <row r="389" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S389" s="7"/>
+    </row>
+    <row r="390" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S390" s="7"/>
+    </row>
+    <row r="391" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S391" s="7"/>
+    </row>
+    <row r="392" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S392" s="7"/>
+    </row>
+    <row r="393" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S393" s="7"/>
+    </row>
+    <row r="394" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S394" s="7"/>
+    </row>
+    <row r="395" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S395" s="7"/>
+    </row>
+    <row r="396" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S396" s="7"/>
+    </row>
+    <row r="397" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S397" s="7"/>
+    </row>
+    <row r="398" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S398" s="7"/>
+    </row>
+    <row r="399" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S399" s="7"/>
+    </row>
+    <row r="400" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S400" s="7"/>
+    </row>
+    <row r="401" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S401" s="7"/>
+    </row>
+    <row r="402" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S402" s="7"/>
+    </row>
+    <row r="403" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S403" s="7"/>
+    </row>
+    <row r="404" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S404" s="7"/>
+    </row>
+    <row r="405" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S405" s="7"/>
+    </row>
+    <row r="406" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S406" s="7"/>
+    </row>
+    <row r="407" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S407" s="7"/>
+    </row>
+    <row r="408" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S408" s="7"/>
+    </row>
+    <row r="409" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S409" s="7"/>
+    </row>
+    <row r="410" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S410" s="7"/>
+    </row>
+    <row r="411" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S411" s="7"/>
+    </row>
+    <row r="412" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S412" s="7"/>
+    </row>
+    <row r="413" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S413" s="7"/>
+    </row>
+    <row r="414" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S414" s="7"/>
+    </row>
+    <row r="415" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S415" s="7"/>
+    </row>
+    <row r="416" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S416" s="7"/>
+    </row>
+    <row r="417" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S417" s="7"/>
+    </row>
+    <row r="418" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S418" s="7"/>
+    </row>
+    <row r="419" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S419" s="7"/>
+    </row>
+    <row r="420" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S420" s="7"/>
+    </row>
+    <row r="421" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S421" s="7"/>
+    </row>
+    <row r="422" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S422" s="7"/>
+    </row>
+    <row r="423" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S423" s="7"/>
+    </row>
+    <row r="424" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S424" s="7"/>
+    </row>
+    <row r="425" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S425" s="7"/>
+    </row>
+    <row r="426" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S426" s="7"/>
+    </row>
+    <row r="427" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S427" s="7"/>
+    </row>
+    <row r="428" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S428" s="7"/>
+    </row>
+    <row r="429" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S429" s="7"/>
+    </row>
+    <row r="430" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S430" s="7"/>
+    </row>
+    <row r="431" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S431" s="7"/>
+    </row>
+    <row r="432" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S432" s="7"/>
+    </row>
+    <row r="433" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S433" s="7"/>
+    </row>
+    <row r="434" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S434" s="7"/>
+    </row>
+    <row r="435" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S435" s="7"/>
+    </row>
+    <row r="436" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S436" s="7"/>
+    </row>
+    <row r="437" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S437" s="7"/>
+    </row>
+    <row r="438" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S438" s="7"/>
+    </row>
+    <row r="439" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S439" s="7"/>
+    </row>
+    <row r="440" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S440" s="7"/>
+    </row>
+    <row r="441" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S441" s="7"/>
+    </row>
+    <row r="442" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S442" s="7"/>
+    </row>
+    <row r="443" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S443" s="7"/>
+    </row>
+    <row r="444" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S444" s="7"/>
+    </row>
+    <row r="445" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S445" s="7"/>
+    </row>
+    <row r="446" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S446" s="7"/>
+    </row>
+    <row r="447" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S447" s="7"/>
+    </row>
+    <row r="448" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S448" s="7"/>
+    </row>
+    <row r="449" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S449" s="7"/>
+    </row>
+    <row r="450" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S450" s="7"/>
+    </row>
+    <row r="451" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S451" s="7"/>
+    </row>
+    <row r="452" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S452" s="7"/>
+    </row>
+    <row r="453" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S453" s="7"/>
+    </row>
+    <row r="454" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S454" s="7"/>
+    </row>
+    <row r="455" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S455" s="7"/>
+    </row>
+    <row r="456" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S456" s="7"/>
+    </row>
+    <row r="457" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S457" s="7"/>
+    </row>
+    <row r="458" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S458" s="7"/>
+    </row>
+    <row r="459" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S459" s="7"/>
+    </row>
+    <row r="460" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S460" s="7"/>
+    </row>
+    <row r="461" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S461" s="7"/>
+    </row>
+    <row r="462" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S462" s="7"/>
+    </row>
+    <row r="463" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S463" s="7"/>
+    </row>
+    <row r="464" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S464" s="7"/>
+    </row>
+    <row r="465" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S465" s="7"/>
+    </row>
+    <row r="466" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S466" s="7"/>
+    </row>
+    <row r="467" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S467" s="7"/>
+    </row>
+    <row r="468" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S468" s="7"/>
+    </row>
+    <row r="469" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S469" s="7"/>
+    </row>
+    <row r="470" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S470" s="7"/>
+    </row>
+    <row r="471" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S471" s="7"/>
+    </row>
+    <row r="472" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S472" s="7"/>
+    </row>
+    <row r="473" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S473" s="7"/>
+    </row>
+    <row r="474" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S474" s="7"/>
+    </row>
+    <row r="475" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S475" s="7"/>
+    </row>
+    <row r="476" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S476" s="7"/>
+    </row>
+    <row r="477" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S477" s="7"/>
+    </row>
+    <row r="478" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S478" s="7"/>
+    </row>
+    <row r="479" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S479" s="7"/>
+    </row>
+    <row r="480" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S480" s="7"/>
+    </row>
+    <row r="481" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S481" s="7"/>
+    </row>
+    <row r="482" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S482" s="7"/>
+    </row>
+    <row r="483" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S483" s="7"/>
+    </row>
+    <row r="484" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S484" s="7"/>
+    </row>
+    <row r="485" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S485" s="7"/>
+    </row>
+    <row r="486" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S486" s="7"/>
+    </row>
+    <row r="487" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S487" s="7"/>
+    </row>
+    <row r="488" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S488" s="7"/>
+    </row>
+    <row r="489" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S489" s="7"/>
+    </row>
+    <row r="490" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S490" s="7"/>
+    </row>
+    <row r="491" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S491" s="7"/>
+    </row>
+    <row r="492" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S492" s="7"/>
+    </row>
+    <row r="493" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S493" s="7"/>
+    </row>
+    <row r="494" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S494" s="7"/>
+    </row>
+    <row r="495" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S495" s="7"/>
+    </row>
+    <row r="496" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S496" s="7"/>
+    </row>
+    <row r="497" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S497" s="7"/>
+    </row>
+    <row r="498" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S498" s="7"/>
+    </row>
+    <row r="499" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S499" s="7"/>
+    </row>
+    <row r="500" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S500" s="7"/>
+    </row>
+    <row r="501" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S501" s="7"/>
+    </row>
+    <row r="502" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S502" s="7"/>
+    </row>
+    <row r="503" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S503" s="7"/>
+    </row>
+    <row r="504" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S504" s="7"/>
+    </row>
+    <row r="505" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S505" s="7"/>
+    </row>
+    <row r="506" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S506" s="7"/>
+    </row>
+    <row r="507" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S507" s="7"/>
+    </row>
+    <row r="508" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S508" s="7"/>
+    </row>
+    <row r="509" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S509" s="7"/>
+    </row>
+    <row r="510" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S510" s="7"/>
+    </row>
+    <row r="511" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S511" s="7"/>
+    </row>
+    <row r="512" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S512" s="7"/>
+    </row>
+    <row r="513" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S513" s="7"/>
+    </row>
+    <row r="514" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S514" s="7"/>
+    </row>
+    <row r="515" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S515" s="7"/>
+    </row>
+    <row r="516" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S516" s="7"/>
+    </row>
+    <row r="517" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S517" s="7"/>
+    </row>
+    <row r="518" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S518" s="7"/>
+    </row>
+    <row r="519" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S519" s="7"/>
+    </row>
+    <row r="520" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S520" s="7"/>
+    </row>
+    <row r="521" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S521" s="7"/>
+    </row>
+    <row r="522" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S522" s="7"/>
+    </row>
+    <row r="523" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S523" s="7"/>
+    </row>
+    <row r="524" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S524" s="7"/>
+    </row>
+    <row r="525" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S525" s="7"/>
+    </row>
+    <row r="526" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S526" s="7"/>
+    </row>
+    <row r="527" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S527" s="7"/>
+    </row>
+    <row r="528" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S528" s="7"/>
+    </row>
+    <row r="529" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S529" s="7"/>
+    </row>
+    <row r="530" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S530" s="7"/>
+    </row>
+    <row r="531" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S531" s="7"/>
+    </row>
+    <row r="532" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S532" s="7"/>
+    </row>
+    <row r="533" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S533" s="7"/>
+    </row>
+    <row r="534" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S534" s="7"/>
+    </row>
+    <row r="535" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S535" s="7"/>
+    </row>
+    <row r="536" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S536" s="7"/>
+    </row>
+    <row r="537" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S537" s="7"/>
+    </row>
+    <row r="538" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S538" s="7"/>
+    </row>
+    <row r="539" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S539" s="7"/>
+    </row>
+    <row r="540" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S540" s="7"/>
+    </row>
+    <row r="541" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S541" s="7"/>
+    </row>
+    <row r="542" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S542" s="7"/>
+    </row>
+    <row r="543" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S543" s="7"/>
+    </row>
+    <row r="544" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S544" s="7"/>
+    </row>
+    <row r="545" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S545" s="7"/>
+    </row>
+    <row r="546" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S546" s="7"/>
+    </row>
+    <row r="547" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S547" s="7"/>
+    </row>
+    <row r="548" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S548" s="7"/>
+    </row>
+    <row r="549" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S549" s="7"/>
+    </row>
+    <row r="550" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S550" s="7"/>
+    </row>
+    <row r="551" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S551" s="7"/>
+    </row>
+    <row r="552" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S552" s="7"/>
+    </row>
+    <row r="553" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S553" s="7"/>
+    </row>
+    <row r="554" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S554" s="7"/>
+    </row>
+    <row r="555" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S555" s="7"/>
+    </row>
+    <row r="556" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S556" s="7"/>
+    </row>
+    <row r="557" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S557" s="7"/>
+    </row>
+    <row r="558" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S558" s="7"/>
+    </row>
+    <row r="559" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S559" s="7"/>
+    </row>
+    <row r="560" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S560" s="7"/>
+    </row>
+    <row r="561" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S561" s="7"/>
+    </row>
+    <row r="562" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S562" s="7"/>
+    </row>
+    <row r="563" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S563" s="7"/>
+    </row>
+    <row r="564" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S564" s="7"/>
+    </row>
+    <row r="565" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S565" s="7"/>
+    </row>
+    <row r="566" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S566" s="7"/>
+    </row>
+    <row r="567" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S567" s="7"/>
+    </row>
+    <row r="568" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S568" s="7"/>
+    </row>
+    <row r="569" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S569" s="7"/>
+    </row>
+    <row r="570" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S570" s="7"/>
+    </row>
+    <row r="571" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S571" s="7"/>
+    </row>
+    <row r="572" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S572" s="7"/>
+    </row>
+    <row r="573" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S573" s="7"/>
+    </row>
+    <row r="574" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S574" s="7"/>
+    </row>
+    <row r="575" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S575" s="7"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:B38 B40:B1048576">
+    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="containsBlanks" dxfId="33" priority="13">
+      <formula>LEN(TRIM(F1))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:R601">
+    <cfRule type="containsText" dxfId="32" priority="8" operator="containsText" text="PRIMARY STUDY">
+      <formula>NOT(ISERROR(SEARCH("PRIMARY STUDY",P2)))</formula>
+    </cfRule>
+    <cfRule type="notContainsText" dxfId="31" priority="9" operator="notContains" text="YES">
+      <formula>ISERROR(SEARCH("YES",P2))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="10" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",P2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S601">
+    <cfRule type="containsBlanks" dxfId="29" priority="15">
+      <formula>LEN(TRIM(S2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S601">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="between">
+      <formula>1</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="7" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH("X",S2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U2">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44667,97 +50065,81 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B2">
+    <cfRule type="duplicateValues" dxfId="26" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="duplicateValues" dxfId="25" priority="5"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="containsBlanks" dxfId="28" priority="22">
+    <cfRule type="containsBlanks" dxfId="24" priority="22">
       <formula>LEN(TRIM(F1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:O17">
-    <cfRule type="containsText" dxfId="27" priority="19" operator="containsText" text="PRIMARY STUDY">
-      <formula>NOT(ISERROR(SEARCH("PRIMARY STUDY",M2)))</formula>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="containsBlanks" dxfId="23" priority="11">
+      <formula>LEN(TRIM(F18))=0</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="26" priority="20" operator="notContains" text="YES">
-      <formula>ISERROR(SEARCH("YES",M2))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="21" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",M2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B2">
-    <cfRule type="duplicateValues" dxfId="24" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R2">
-    <cfRule type="duplicateValues" dxfId="23" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H17 H19:H1048576">
     <cfRule type="containsBlanks" dxfId="22" priority="23">
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1">
-    <cfRule type="duplicateValues" dxfId="21" priority="14"/>
+  <conditionalFormatting sqref="L2">
+    <cfRule type="duplicateValues" dxfId="21" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2">
-    <cfRule type="duplicateValues" dxfId="20" priority="13"/>
+  <conditionalFormatting sqref="L18">
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q4 P1:P1048576 Q1">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="between">
+  <conditionalFormatting sqref="M2:O18">
+    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="PRIMARY STUDY">
+      <formula>NOT(ISERROR(SEARCH("PRIMARY STUDY",M2)))</formula>
+    </cfRule>
+    <cfRule type="notContainsText" dxfId="18" priority="9" operator="notContains" text="YES">
+      <formula>ISERROR(SEARCH("YES",M2))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",M2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH("X",O18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:P18">
+    <cfRule type="containsBlanks" dxfId="14" priority="4">
+      <formula>LEN(TRIM(O18))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1048576">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="between">
+      <formula>1</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",P1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="containsBlanks" dxfId="17" priority="11">
-      <formula>LEN(TRIM(F18))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18:O18">
-    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="PRIMARY STUDY">
-      <formula>NOT(ISERROR(SEARCH("PRIMARY STUDY",M18)))</formula>
-    </cfRule>
-    <cfRule type="notContainsText" dxfId="15" priority="9" operator="notContains" text="YES">
-      <formula>ISERROR(SEARCH("YES",M18))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",M18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18">
-    <cfRule type="containsBlanks" dxfId="12" priority="12">
-      <formula>LEN(TRIM(O18))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="between">
+  <conditionalFormatting sqref="Q1 Q4">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="X">
-      <formula>NOT(ISERROR(SEARCH("X",O18)))</formula>
+    <cfRule type="containsText" dxfId="10" priority="18" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH("X",Q1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P18">
-    <cfRule type="containsBlanks" dxfId="9" priority="4">
-      <formula>LEN(TRIM(P18))=0</formula>
-    </cfRule>
+  <conditionalFormatting sqref="R1:R2">
+    <cfRule type="duplicateValues" dxfId="9" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P18">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="between">
-      <formula>1</formula>
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="X">
-      <formula>NOT(ISERROR(SEARCH("X",P18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L18">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+  <conditionalFormatting sqref="U1">
+    <cfRule type="duplicateValues" dxfId="8" priority="14"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -44765,8 +50147,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L251"/>
   <sheetViews>
@@ -53649,11 +59031,11 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:K251 L1">
-    <cfRule type="expression" dxfId="5" priority="1">
+  <conditionalFormatting sqref="L1 A1:K251">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>$K1=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>$J1=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -53663,8 +59045,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M293"/>
   <sheetViews>
@@ -61597,13 +66979,15 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J259:J1048576 J257 J1:J253">
-    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="FALSE">
+  <conditionalFormatting sqref="J1:J253 J257 J259:J1048576">
+    <cfRule type="containsText" dxfId="5" priority="12" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="13" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="4" priority="13" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",J1)))</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J259:J1048576 J257 J1:J253">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -61616,10 +67000,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",M17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",M17)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -61627,12 +67011,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C454236-CAA7-4624-A062-FF875F6DC4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2E02EF-29CA-4747-863E-88FD6C53DEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Query literature" sheetId="5" r:id="rId1"/>
@@ -292,7 +292,7 @@
     <author>Petr Čala</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{AF9AAD2B-1DAE-4AFF-8795-41070BDA5303}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -318,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{CD062C54-5659-481F-BE24-852459D90489}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -344,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{59C8AD7A-E480-4151-A614-B7660055D9A0}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -371,7 +371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{F7068529-54B9-48DC-B4A2-F9131D1185FD}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -397,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{142D23B3-C19A-4A32-A578-4735D120524A}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -423,7 +423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{4256AAE2-AA64-4E19-AC6D-839929BA83F4}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -449,7 +449,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U6" authorId="0" shapeId="0" xr:uid="{B680C59F-6BD6-45E1-B89E-FBFC10B4AA42}">
+    <comment ref="U6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -485,7 +485,7 @@
     <author>Petr Čala</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -511,7 +511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -537,7 +537,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -564,7 +564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -590,7 +590,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -616,7 +616,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="R6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -652,7 +652,7 @@
     <author>Petr Čala</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -694,7 +694,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10116" uniqueCount="5364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10275" uniqueCount="5374">
   <si>
     <t>Number</t>
   </si>
@@ -16602,12 +16602,6 @@
     <t>Light, A. and Strayer, W. (2004): "Who Receives the College Wage Premium Assessing the Labor Market Returns to Degrees and College Transfer Patterns." The Journal of Human Resources, 39(3), pp. 746-773.</t>
   </si>
   <si>
-    <t>Miller, &amp; Nmartin(1995): (1995)</t>
-  </si>
-  <si>
-    <t>Miller, &amp; Nmartin(1995):</t>
-  </si>
-  <si>
     <t>What do Twins Studies Reveal About the Economic Returns to Education?</t>
   </si>
   <si>
@@ -16786,13 +16780,49 @@
   </si>
   <si>
     <t>Journal of Econometrics</t>
+  </si>
+  <si>
+    <t>much theory</t>
+  </si>
+  <si>
+    <t>DISCONTINUITY</t>
+  </si>
+  <si>
+    <t>PART OF MAIN QUERY</t>
+  </si>
+  <si>
+    <t>IQ ONLY</t>
+  </si>
+  <si>
+    <t>Focuses purely on ability, no returns to schooling (except for meta data)</t>
+  </si>
+  <si>
+    <t>Effect of a reform on years of schooling / immigration</t>
+  </si>
+  <si>
+    <t>Math reform instead of years of schooling</t>
+  </si>
+  <si>
+    <t>wrong flag, collected later as a part of snowballing literature, also brilliant for literature, primary study also</t>
+  </si>
+  <si>
+    <t>cool theory on abiliity bias, so really 1, but no data for 1, only 3</t>
+  </si>
+  <si>
+    <t>TWINS</t>
+  </si>
+  <si>
+    <t>from snowballing query</t>
+  </si>
+  <si>
+    <t>REPLICATION OF CARD(1995)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -16857,6 +16887,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -17075,15 +17113,6 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -17110,12 +17139,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -17156,43 +17196,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="51">
     <dxf>
       <fill>
         <patternFill>
@@ -17350,6 +17366,17 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFAACAC"/>
@@ -17393,6 +17420,46 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAACAC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFAACAC"/>
@@ -17403,13 +17470,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFAACAC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -17850,9 +17910,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y575"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17928,14 +17988,14 @@
       </c>
       <c r="R1" s="29">
         <f>COUNTIFS($M:$M, "YES", $F:$F, "&lt;&gt;") + Twins!S1</f>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T1" s="28" t="s">
         <v>5039</v>
       </c>
       <c r="U1" s="29">
         <f>COUNTIF($L$2:$L$575, "&lt;&gt; ") +Twins!V1</f>
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="V1" s="31"/>
       <c r="W1" s="31"/>
@@ -18159,7 +18219,7 @@
       <c r="T5" s="2" t="s">
         <v>5140</v>
       </c>
-      <c r="U5" s="38">
+      <c r="U5" s="37">
         <f>COUNTIFS($N:$N, "YES", $F:$F, "&lt;&gt;")</f>
         <v>74</v>
       </c>
@@ -18264,6 +18324,12 @@
       <c r="O7" s="7" t="s">
         <v>5029</v>
       </c>
+      <c r="P7" t="s">
+        <v>5369</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>904</v>
+      </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -18414,37 +18480,37 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="39">
+      <c r="A11" s="38">
         <v>10</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="38" t="s">
         <v>3935</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="38" t="s">
         <v>3936</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="38">
         <v>2005</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="38" t="s">
         <v>1072</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="38" t="s">
         <v>970</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="38" t="s">
         <v>1074</v>
       </c>
-      <c r="H11" s="39">
-        <v>1</v>
-      </c>
-      <c r="I11" s="39" t="s">
+      <c r="H11" s="38">
+        <v>1</v>
+      </c>
+      <c r="I11" s="38" t="s">
         <v>1073</v>
       </c>
-      <c r="J11" s="39" t="s">
+      <c r="J11" s="38" t="s">
         <v>1075</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="K11" s="38" t="s">
         <v>1075</v>
       </c>
       <c r="L11" t="s">
@@ -19776,37 +19842,37 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="39">
+      <c r="A38" s="38">
         <v>37</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="38" t="s">
         <v>3965</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="38" t="s">
         <v>3966</v>
       </c>
-      <c r="D38" s="39">
+      <c r="D38" s="38">
         <v>2003</v>
       </c>
-      <c r="E38" s="39" t="s">
+      <c r="E38" s="38" t="s">
         <v>1211</v>
       </c>
-      <c r="F38" s="39" t="s">
+      <c r="F38" s="38" t="s">
         <v>4598</v>
       </c>
-      <c r="G38" s="39" t="s">
+      <c r="G38" s="38" t="s">
         <v>1213</v>
       </c>
-      <c r="H38" s="39">
+      <c r="H38" s="38">
         <v>265</v>
       </c>
-      <c r="I38" s="39" t="s">
+      <c r="I38" s="38" t="s">
         <v>1212</v>
       </c>
-      <c r="J38" s="39" t="s">
+      <c r="J38" s="38" t="s">
         <v>1214</v>
       </c>
-      <c r="K38" s="39" t="s">
+      <c r="K38" s="38" t="s">
         <v>1215</v>
       </c>
       <c r="L38" t="s">
@@ -27970,53 +28036,53 @@
         <v>904</v>
       </c>
     </row>
-    <row r="201" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="36">
+    <row r="201" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="35">
         <v>200</v>
       </c>
-      <c r="B201" s="36" t="s">
+      <c r="B201" s="35" t="s">
         <v>4141</v>
       </c>
-      <c r="C201" s="36" t="s">
+      <c r="C201" s="35" t="s">
         <v>4142</v>
       </c>
-      <c r="D201" s="36">
+      <c r="D201" s="35">
         <v>4903</v>
       </c>
-      <c r="E201" s="36" t="s">
+      <c r="E201" s="35" t="s">
         <v>2025</v>
       </c>
-      <c r="F201" s="36" t="s">
+      <c r="F201" s="35" t="s">
         <v>4621</v>
       </c>
-      <c r="G201" s="36" t="s">
+      <c r="G201" s="35" t="s">
         <v>2027</v>
       </c>
-      <c r="H201" s="36">
+      <c r="H201" s="35">
         <v>7</v>
       </c>
-      <c r="I201" s="36" t="s">
+      <c r="I201" s="35" t="s">
         <v>2026</v>
       </c>
-      <c r="J201" s="36" t="s">
+      <c r="J201" s="35" t="s">
         <v>2028</v>
       </c>
-      <c r="K201" s="36" t="s">
+      <c r="K201" s="35" t="s">
         <v>2028</v>
       </c>
-      <c r="L201" s="36" t="s">
+      <c r="L201" s="35" t="s">
         <v>974</v>
       </c>
-      <c r="M201" s="36" t="s">
+      <c r="M201" s="35" t="s">
         <v>966</v>
       </c>
-      <c r="N201" s="36" t="s">
+      <c r="N201" s="35" t="s">
         <v>966</v>
       </c>
-      <c r="O201" s="37" t="s">
-        <v>5029</v>
-      </c>
-      <c r="R201" s="36" t="s">
+      <c r="O201" s="36" t="s">
+        <v>5029</v>
+      </c>
+      <c r="R201" s="35" t="s">
         <v>904</v>
       </c>
     </row>
@@ -44496,59 +44562,59 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B38 B40:B1048576">
-    <cfRule type="duplicateValues" dxfId="48" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsBlanks" dxfId="47" priority="20">
+    <cfRule type="containsBlanks" dxfId="49" priority="20">
       <formula>LEN(TRIM(F1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:N601">
-    <cfRule type="containsText" dxfId="46" priority="11" operator="containsText" text="PRIMARY STUDY">
+    <cfRule type="containsText" dxfId="48" priority="11" operator="containsText" text="PRIMARY STUDY">
       <formula>NOT(ISERROR(SEARCH("PRIMARY STUDY",L2)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="45" priority="12" operator="notContains" text="YES">
+    <cfRule type="notContainsText" dxfId="47" priority="12" operator="notContains" text="YES">
       <formula>ISERROR(SEARCH("YES",L2))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="13" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="46" priority="13" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O601 P136 P146 P151 P161 P163 P177 P187 P189:P190">
-    <cfRule type="containsBlanks" dxfId="43" priority="22">
+    <cfRule type="containsBlanks" dxfId="45" priority="22">
       <formula>LEN(TRIM(O2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O601 P177 P187 P189:P190">
-    <cfRule type="cellIs" dxfId="42" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="44" priority="8" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="9" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q10 Q16:Q1048576 R11:R15">
-    <cfRule type="duplicateValues" dxfId="40" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6">
-    <cfRule type="cellIs" dxfId="39" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="38" priority="23">
+    <cfRule type="containsBlanks" dxfId="40" priority="23">
       <formula>LEN(TRIM(R6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8">
-    <cfRule type="cellIs" dxfId="37" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="18" operator="notEqual">
+    <cfRule type="cellIs" dxfId="38" priority="18" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="duplicateValues" dxfId="35" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="5"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="K160" r:id="rId1" location="page=11" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -44562,12 +44628,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E591E98B-02D7-41E1-8C44-6E84A040E0B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC575"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44644,20 +44710,22 @@
       <c r="S1" s="25" t="s">
         <v>5137</v>
       </c>
-      <c r="T1" s="31"/>
+      <c r="T1" s="39" t="s">
+        <v>5145</v>
+      </c>
       <c r="U1" s="28" t="s">
         <v>5038</v>
       </c>
       <c r="V1" s="29">
         <f>COUNTIFS($Q:$Q, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X1" s="28" t="s">
         <v>5039</v>
       </c>
       <c r="Y1" s="29">
         <f>COUNTIF($P:$P, "YES")</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="Z1" s="31"/>
       <c r="AA1" s="31"/>
@@ -44693,10 +44761,10 @@
         <v>1</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L2" s="34">
         <v>289</v>
@@ -44710,10 +44778,18 @@
       <c r="O2" s="34" t="s">
         <v>5029</v>
       </c>
+      <c r="P2" s="34" t="s">
+        <v>963</v>
+      </c>
       <c r="Q2" s="34" t="s">
         <v>963</v>
       </c>
-      <c r="S2" s="9"/>
+      <c r="R2" s="34" t="s">
+        <v>963</v>
+      </c>
+      <c r="S2" s="9">
+        <v>2</v>
+      </c>
       <c r="U2"/>
       <c r="V2" t="s">
         <v>904</v>
@@ -44745,16 +44821,16 @@
         <v>5029</v>
       </c>
       <c r="H3" t="s">
-        <v>5350</v>
+        <v>5348</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K3" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L3">
         <v>1486</v>
@@ -44768,10 +44844,18 @@
       <c r="O3" t="s">
         <v>5029</v>
       </c>
-      <c r="Q3" s="42" t="s">
+      <c r="P3" t="s">
+        <v>5364</v>
+      </c>
+      <c r="Q3" t="s">
         <v>963</v>
       </c>
-      <c r="S3" s="7"/>
+      <c r="R3" t="s">
+        <v>966</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>5029</v>
+      </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -44802,10 +44886,10 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K4" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L4">
         <v>321</v>
@@ -44819,10 +44903,18 @@
       <c r="O4" t="s">
         <v>5029</v>
       </c>
-      <c r="Q4" s="42" t="s">
+      <c r="P4" t="s">
         <v>963</v>
       </c>
-      <c r="S4" s="7"/>
+      <c r="Q4" t="s">
+        <v>963</v>
+      </c>
+      <c r="R4" t="s">
+        <v>963</v>
+      </c>
+      <c r="S4" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -44847,16 +44939,16 @@
         <v>5029</v>
       </c>
       <c r="H5" t="s">
-        <v>5351</v>
+        <v>5349</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K5" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L5">
         <v>3590</v>
@@ -44870,10 +44962,18 @@
       <c r="O5" t="s">
         <v>5029</v>
       </c>
-      <c r="Q5" s="42" t="s">
+      <c r="P5" t="s">
         <v>963</v>
       </c>
-      <c r="S5" s="7"/>
+      <c r="Q5" t="s">
+        <v>963</v>
+      </c>
+      <c r="R5" t="s">
+        <v>963</v>
+      </c>
+      <c r="S5" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -44904,10 +45004,10 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K6" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L6">
         <v>1510</v>
@@ -44921,16 +45021,27 @@
       <c r="O6" t="s">
         <v>5029</v>
       </c>
-      <c r="Q6" s="42" t="s">
-        <v>963</v>
-      </c>
-      <c r="S6" s="7"/>
+      <c r="P6" t="s">
+        <v>967</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>967</v>
+      </c>
+      <c r="R6" t="s">
+        <v>966</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>5029</v>
+      </c>
+      <c r="T6" t="s">
+        <v>5362</v>
+      </c>
       <c r="U6" s="2" t="s">
         <v>5143</v>
       </c>
       <c r="V6">
         <f>COUNTIF($P:$P, "YES")</f>
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -44956,16 +45067,16 @@
         <v>5029</v>
       </c>
       <c r="H7" t="s">
-        <v>5352</v>
+        <v>5350</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K7" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L7">
         <v>321</v>
@@ -44979,16 +45090,24 @@
       <c r="O7" t="s">
         <v>5029</v>
       </c>
-      <c r="Q7" s="42" t="s">
+      <c r="P7" t="s">
         <v>963</v>
       </c>
-      <c r="S7" s="7"/>
+      <c r="Q7" t="s">
+        <v>963</v>
+      </c>
+      <c r="R7" t="s">
+        <v>963</v>
+      </c>
+      <c r="S7" s="7">
+        <v>1</v>
+      </c>
       <c r="U7" s="2" t="s">
         <v>5140</v>
       </c>
       <c r="V7">
         <f>COUNTIFS($R:$R, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -45020,10 +45139,10 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K8" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L8">
         <v>588</v>
@@ -45037,10 +45156,18 @@
       <c r="O8" t="s">
         <v>5029</v>
       </c>
-      <c r="Q8" s="42" t="s">
+      <c r="P8" t="s">
         <v>963</v>
       </c>
-      <c r="S8" s="7"/>
+      <c r="Q8" t="s">
+        <v>963</v>
+      </c>
+      <c r="R8" t="s">
+        <v>963</v>
+      </c>
+      <c r="S8" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -45065,16 +45192,16 @@
         <v>5029</v>
       </c>
       <c r="H9" t="s">
-        <v>5353</v>
+        <v>5351</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K9" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L9">
         <v>73</v>
@@ -45088,10 +45215,18 @@
       <c r="O9" t="s">
         <v>5029</v>
       </c>
-      <c r="Q9" s="42" t="s">
+      <c r="P9" t="s">
         <v>963</v>
       </c>
-      <c r="S9" s="7"/>
+      <c r="Q9" t="s">
+        <v>963</v>
+      </c>
+      <c r="R9" t="s">
+        <v>963</v>
+      </c>
+      <c r="S9" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -45116,16 +45251,16 @@
         <v>5029</v>
       </c>
       <c r="H10" t="s">
-        <v>5354</v>
+        <v>5352</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K10" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L10">
         <v>74</v>
@@ -45139,61 +45274,77 @@
       <c r="O10" t="s">
         <v>5029</v>
       </c>
-      <c r="Q10" s="42" t="s">
+      <c r="P10" t="s">
+        <v>5363</v>
+      </c>
+      <c r="Q10" t="s">
         <v>963</v>
       </c>
-      <c r="S10" s="7"/>
-    </row>
-    <row r="11" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40">
+      <c r="R10" t="s">
+        <v>966</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>5029</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" t="s">
         <v>5199</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" t="s">
         <v>5200</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11">
         <v>2014</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" t="s">
         <v>5201</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" t="s">
         <v>5202</v>
       </c>
-      <c r="G11" s="40" t="s">
-        <v>5029</v>
-      </c>
-      <c r="H11" s="40" t="s">
+      <c r="G11" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H11" t="s">
         <v>253</v>
       </c>
-      <c r="I11" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" s="40" t="s">
-        <v>5349</v>
-      </c>
-      <c r="K11" s="40" t="s">
-        <v>5349</v>
-      </c>
-      <c r="L11" s="40">
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>5347</v>
+      </c>
+      <c r="K11" t="s">
+        <v>5347</v>
+      </c>
+      <c r="L11">
         <v>17</v>
       </c>
-      <c r="M11" s="40" t="s">
-        <v>5029</v>
-      </c>
-      <c r="N11" s="40" t="s">
-        <v>5029</v>
-      </c>
-      <c r="O11" s="40" t="s">
-        <v>5029</v>
-      </c>
-      <c r="Q11" s="42" t="s">
+      <c r="M11" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N11" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O11" t="s">
+        <v>5029</v>
+      </c>
+      <c r="P11" t="s">
         <v>963</v>
       </c>
-      <c r="S11" s="41"/>
+      <c r="Q11" t="s">
+        <v>963</v>
+      </c>
+      <c r="R11" t="s">
+        <v>963</v>
+      </c>
+      <c r="S11" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -45218,16 +45369,16 @@
         <v>5029</v>
       </c>
       <c r="H12" t="s">
-        <v>5355</v>
+        <v>5353</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K12" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L12">
         <v>1789</v>
@@ -45241,10 +45392,18 @@
       <c r="O12" t="s">
         <v>5029</v>
       </c>
-      <c r="Q12" s="42" t="s">
+      <c r="P12" t="s">
         <v>963</v>
       </c>
-      <c r="S12" s="7"/>
+      <c r="Q12" t="s">
+        <v>963</v>
+      </c>
+      <c r="R12" t="s">
+        <v>963</v>
+      </c>
+      <c r="S12" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -45269,16 +45428,16 @@
         <v>5029</v>
       </c>
       <c r="H13" t="s">
-        <v>5352</v>
+        <v>5350</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K13" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L13">
         <v>2928</v>
@@ -45292,10 +45451,21 @@
       <c r="O13" t="s">
         <v>5029</v>
       </c>
-      <c r="Q13" s="42" t="s">
+      <c r="P13" t="s">
+        <v>5365</v>
+      </c>
+      <c r="Q13" t="s">
         <v>963</v>
       </c>
-      <c r="S13" s="7"/>
+      <c r="R13" t="s">
+        <v>966</v>
+      </c>
+      <c r="S13" s="7">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s">
+        <v>5366</v>
+      </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -45320,16 +45490,16 @@
         <v>5029</v>
       </c>
       <c r="H14" t="s">
-        <v>5356</v>
+        <v>5354</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K14" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L14">
         <v>783</v>
@@ -45343,10 +45513,18 @@
       <c r="O14" t="s">
         <v>5029</v>
       </c>
-      <c r="Q14" s="42" t="s">
+      <c r="P14" t="s">
         <v>963</v>
       </c>
-      <c r="S14" s="7"/>
+      <c r="Q14" t="s">
+        <v>963</v>
+      </c>
+      <c r="R14" t="s">
+        <v>963</v>
+      </c>
+      <c r="S14" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -45371,16 +45549,16 @@
         <v>5029</v>
       </c>
       <c r="H15" t="s">
-        <v>5357</v>
+        <v>5355</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K15" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L15">
         <v>141</v>
@@ -45394,10 +45572,21 @@
       <c r="O15" t="s">
         <v>5029</v>
       </c>
-      <c r="Q15" s="42" t="s">
+      <c r="P15" t="s">
+        <v>966</v>
+      </c>
+      <c r="Q15" t="s">
         <v>963</v>
       </c>
-      <c r="S15" s="7"/>
+      <c r="R15" t="s">
+        <v>966</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>5029</v>
+      </c>
+      <c r="T15" t="s">
+        <v>5367</v>
+      </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -45428,10 +45617,10 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K16" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L16">
         <v>284</v>
@@ -45445,12 +45634,20 @@
       <c r="O16" t="s">
         <v>5029</v>
       </c>
-      <c r="Q16" s="42" t="s">
+      <c r="P16" t="s">
         <v>963</v>
       </c>
-      <c r="S16" s="7"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q16" t="s">
+        <v>963</v>
+      </c>
+      <c r="R16" t="s">
+        <v>963</v>
+      </c>
+      <c r="S16" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -45473,16 +45670,16 @@
         <v>5029</v>
       </c>
       <c r="H17" t="s">
-        <v>5358</v>
+        <v>5356</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K17" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L17">
         <v>252</v>
@@ -45496,12 +45693,20 @@
       <c r="O17" t="s">
         <v>5029</v>
       </c>
-      <c r="Q17" s="42" t="s">
+      <c r="P17" t="s">
         <v>963</v>
       </c>
-      <c r="S17" s="7"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q17" t="s">
+        <v>963</v>
+      </c>
+      <c r="R17" t="s">
+        <v>963</v>
+      </c>
+      <c r="S17" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -45530,10 +45735,10 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K18" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L18">
         <v>88</v>
@@ -45547,12 +45752,20 @@
       <c r="O18" t="s">
         <v>5029</v>
       </c>
-      <c r="Q18" s="42" t="s">
+      <c r="P18" t="s">
         <v>963</v>
       </c>
-      <c r="S18" s="7"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q18" t="s">
+        <v>963</v>
+      </c>
+      <c r="R18" t="s">
+        <v>963</v>
+      </c>
+      <c r="S18" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -45581,10 +45794,10 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K19" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L19">
         <v>2852</v>
@@ -45598,12 +45811,20 @@
       <c r="O19" t="s">
         <v>5029</v>
       </c>
-      <c r="Q19" s="42" t="s">
+      <c r="P19" t="s">
         <v>963</v>
       </c>
-      <c r="S19" s="7"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q19" t="s">
+        <v>963</v>
+      </c>
+      <c r="R19" t="s">
+        <v>963</v>
+      </c>
+      <c r="S19" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -45632,10 +45853,10 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K20" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L20">
         <v>386</v>
@@ -45649,12 +45870,20 @@
       <c r="O20" t="s">
         <v>5029</v>
       </c>
-      <c r="Q20" s="42" t="s">
+      <c r="P20" t="s">
         <v>963</v>
       </c>
-      <c r="S20" s="7"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q20" t="s">
+        <v>963</v>
+      </c>
+      <c r="R20" t="s">
+        <v>963</v>
+      </c>
+      <c r="S20" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -45677,16 +45906,16 @@
         <v>5029</v>
       </c>
       <c r="H21" t="s">
-        <v>5359</v>
+        <v>5357</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K21" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L21">
         <v>494</v>
@@ -45700,12 +45929,20 @@
       <c r="O21" t="s">
         <v>5029</v>
       </c>
-      <c r="Q21" s="42" t="s">
+      <c r="P21" t="s">
         <v>963</v>
       </c>
-      <c r="S21" s="7"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q21" t="s">
+        <v>963</v>
+      </c>
+      <c r="R21" t="s">
+        <v>963</v>
+      </c>
+      <c r="S21" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -45728,16 +45965,16 @@
         <v>5029</v>
       </c>
       <c r="H22" t="s">
-        <v>167</v>
+        <v>253</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K22" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L22">
         <v>101</v>
@@ -45751,12 +45988,20 @@
       <c r="O22" t="s">
         <v>5029</v>
       </c>
-      <c r="Q22" s="42" t="s">
+      <c r="P22" t="s">
         <v>963</v>
       </c>
-      <c r="S22" s="7"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q22" t="s">
+        <v>963</v>
+      </c>
+      <c r="R22" t="s">
+        <v>963</v>
+      </c>
+      <c r="S22" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -45779,16 +46024,16 @@
         <v>5029</v>
       </c>
       <c r="H23" t="s">
-        <v>5354</v>
+        <v>5352</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K23" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L23">
         <v>92</v>
@@ -45802,12 +46047,23 @@
       <c r="O23" t="s">
         <v>5029</v>
       </c>
-      <c r="Q23" s="42" t="s">
+      <c r="P23" t="s">
+        <v>966</v>
+      </c>
+      <c r="Q23" t="s">
         <v>963</v>
       </c>
-      <c r="S23" s="7"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R23" t="s">
+        <v>966</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>5029</v>
+      </c>
+      <c r="T23" t="s">
+        <v>5368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -45836,10 +46092,10 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K24" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L24">
         <v>171</v>
@@ -45853,12 +46109,20 @@
       <c r="O24" t="s">
         <v>5029</v>
       </c>
-      <c r="Q24" s="42" t="s">
+      <c r="P24" t="s">
         <v>963</v>
       </c>
-      <c r="S24" s="7"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q24" t="s">
+        <v>963</v>
+      </c>
+      <c r="R24" t="s">
+        <v>963</v>
+      </c>
+      <c r="S24" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -45881,16 +46145,16 @@
         <v>5029</v>
       </c>
       <c r="H25" t="s">
-        <v>5359</v>
+        <v>5357</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K25" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L25">
         <v>662</v>
@@ -45904,12 +46168,20 @@
       <c r="O25" t="s">
         <v>5029</v>
       </c>
-      <c r="Q25" s="42" t="s">
+      <c r="P25" t="s">
         <v>963</v>
       </c>
-      <c r="S25" s="7"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q25" t="s">
+        <v>963</v>
+      </c>
+      <c r="R25" t="s">
+        <v>963</v>
+      </c>
+      <c r="S25" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -45938,10 +46210,10 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K26" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L26">
         <v>888</v>
@@ -45955,12 +46227,20 @@
       <c r="O26" t="s">
         <v>5029</v>
       </c>
-      <c r="Q26" s="42" t="s">
+      <c r="P26" t="s">
         <v>963</v>
       </c>
-      <c r="S26" s="7"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q26" t="s">
+        <v>963</v>
+      </c>
+      <c r="R26" t="s">
+        <v>963</v>
+      </c>
+      <c r="S26" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -45989,10 +46269,10 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K27" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L27">
         <v>100</v>
@@ -46006,12 +46286,20 @@
       <c r="O27" t="s">
         <v>5029</v>
       </c>
-      <c r="Q27" s="42" t="s">
+      <c r="P27" t="s">
         <v>963</v>
       </c>
-      <c r="S27" s="7"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q27" t="s">
+        <v>963</v>
+      </c>
+      <c r="R27" t="s">
+        <v>963</v>
+      </c>
+      <c r="S27" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -46034,16 +46322,16 @@
         <v>5029</v>
       </c>
       <c r="H28" t="s">
-        <v>5354</v>
+        <v>5352</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K28" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L28">
         <v>860</v>
@@ -46057,12 +46345,20 @@
       <c r="O28" t="s">
         <v>5029</v>
       </c>
-      <c r="Q28" s="42" t="s">
+      <c r="P28" t="s">
         <v>963</v>
       </c>
-      <c r="S28" s="7"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q28" t="s">
+        <v>963</v>
+      </c>
+      <c r="R28" t="s">
+        <v>963</v>
+      </c>
+      <c r="S28" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -46091,10 +46387,10 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K29" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L29">
         <v>27</v>
@@ -46108,12 +46404,20 @@
       <c r="O29" t="s">
         <v>5029</v>
       </c>
-      <c r="Q29" s="42" t="s">
+      <c r="P29" t="s">
+        <v>966</v>
+      </c>
+      <c r="Q29" t="s">
         <v>963</v>
       </c>
-      <c r="S29" s="7"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R29" t="s">
+        <v>966</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>5029</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -46136,16 +46440,16 @@
         <v>5029</v>
       </c>
       <c r="H30" t="s">
-        <v>5360</v>
+        <v>5358</v>
       </c>
       <c r="I30" t="b">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K30" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L30">
         <v>1427</v>
@@ -46159,12 +46463,23 @@
       <c r="O30" t="s">
         <v>5029</v>
       </c>
-      <c r="Q30" s="42" t="s">
+      <c r="P30" t="s">
         <v>963</v>
       </c>
-      <c r="S30" s="7"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q30" t="s">
+        <v>963</v>
+      </c>
+      <c r="R30" t="s">
+        <v>963</v>
+      </c>
+      <c r="S30" s="7">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s">
+        <v>5370</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -46187,16 +46502,16 @@
         <v>5029</v>
       </c>
       <c r="H31" t="s">
-        <v>5359</v>
+        <v>5357</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K31" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L31">
         <v>80</v>
@@ -46210,12 +46525,20 @@
       <c r="O31" t="s">
         <v>5029</v>
       </c>
-      <c r="Q31" s="42" t="s">
+      <c r="P31" t="s">
         <v>963</v>
       </c>
-      <c r="S31" s="7"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q31" t="s">
+        <v>963</v>
+      </c>
+      <c r="R31" t="s">
+        <v>963</v>
+      </c>
+      <c r="S31" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -46244,10 +46567,10 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K32" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L32">
         <v>182</v>
@@ -46261,10 +46584,18 @@
       <c r="O32" t="s">
         <v>5029</v>
       </c>
-      <c r="Q32" s="42" t="s">
+      <c r="P32" t="s">
         <v>963</v>
       </c>
-      <c r="S32" s="7"/>
+      <c r="Q32" t="s">
+        <v>963</v>
+      </c>
+      <c r="R32" t="s">
+        <v>963</v>
+      </c>
+      <c r="S32" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -46289,16 +46620,16 @@
         <v>5029</v>
       </c>
       <c r="H33" t="s">
-        <v>5354</v>
+        <v>5352</v>
       </c>
       <c r="I33" t="b">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K33" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L33">
         <v>389</v>
@@ -46312,10 +46643,18 @@
       <c r="O33" t="s">
         <v>5029</v>
       </c>
-      <c r="Q33" s="42" t="s">
+      <c r="P33" t="s">
         <v>963</v>
       </c>
-      <c r="S33" s="7"/>
+      <c r="Q33" t="s">
+        <v>963</v>
+      </c>
+      <c r="R33" t="s">
+        <v>963</v>
+      </c>
+      <c r="S33" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -46346,10 +46685,10 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K34" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L34">
         <v>177</v>
@@ -46363,10 +46702,18 @@
       <c r="O34" t="s">
         <v>5029</v>
       </c>
-      <c r="Q34" s="42" t="s">
+      <c r="P34" t="s">
+        <v>5371</v>
+      </c>
+      <c r="Q34" t="s">
         <v>963</v>
       </c>
-      <c r="S34" s="7"/>
+      <c r="R34" t="s">
+        <v>966</v>
+      </c>
+      <c r="S34" s="7" t="s">
+        <v>5029</v>
+      </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -46397,10 +46744,10 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K35" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L35">
         <v>217</v>
@@ -46414,401 +46761,465 @@
       <c r="O35" t="s">
         <v>5029</v>
       </c>
-      <c r="Q35" s="42" t="s">
+      <c r="P35" t="s">
         <v>963</v>
       </c>
-      <c r="S35" s="7"/>
-    </row>
-    <row r="36" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="40">
+      <c r="Q35" t="s">
+        <v>963</v>
+      </c>
+      <c r="R35" t="s">
+        <v>963</v>
+      </c>
+      <c r="S35" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="40" t="s">
+      <c r="B36" t="s">
         <v>5282</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C36" t="s">
         <v>5283</v>
       </c>
-      <c r="D36" s="40">
+      <c r="D36">
         <v>1993</v>
       </c>
-      <c r="E36" s="40" t="s">
+      <c r="E36" t="s">
         <v>5284</v>
       </c>
-      <c r="F36" s="40" t="s">
+      <c r="F36" t="s">
         <v>5285</v>
       </c>
-      <c r="G36" s="40" t="s">
-        <v>5029</v>
-      </c>
-      <c r="H36" s="40" t="s">
+      <c r="G36" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H36" t="s">
         <v>99</v>
       </c>
-      <c r="I36" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" s="40" t="s">
-        <v>5349</v>
-      </c>
-      <c r="K36" s="40" t="s">
-        <v>5349</v>
-      </c>
-      <c r="L36" s="40">
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>5347</v>
+      </c>
+      <c r="K36" t="s">
+        <v>5347</v>
+      </c>
+      <c r="L36">
         <v>1442</v>
       </c>
-      <c r="M36" s="40" t="s">
-        <v>5029</v>
-      </c>
-      <c r="N36" s="40" t="s">
-        <v>5029</v>
-      </c>
-      <c r="O36" s="40" t="s">
-        <v>5029</v>
-      </c>
-      <c r="Q36" s="42" t="s">
+      <c r="M36" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N36" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O36" t="s">
+        <v>5029</v>
+      </c>
+      <c r="P36" t="s">
         <v>963</v>
       </c>
-      <c r="S36" s="41"/>
-    </row>
-    <row r="37" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40">
+      <c r="Q36" t="s">
+        <v>963</v>
+      </c>
+      <c r="R36" t="s">
+        <v>963</v>
+      </c>
+      <c r="S36" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="40" t="s">
+      <c r="B37" t="s">
         <v>469</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" t="s">
         <v>470</v>
       </c>
-      <c r="D37" s="40">
+      <c r="D37">
         <v>2006</v>
       </c>
-      <c r="E37" s="40" t="s">
+      <c r="E37" t="s">
         <v>5286</v>
       </c>
-      <c r="F37" s="40" t="s">
+      <c r="F37" t="s">
         <v>5287</v>
       </c>
-      <c r="G37" s="40" t="s">
-        <v>5029</v>
-      </c>
-      <c r="H37" s="40" t="s">
+      <c r="G37" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H37" t="s">
         <v>477</v>
       </c>
-      <c r="I37" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J37" s="40" t="s">
-        <v>5349</v>
-      </c>
-      <c r="K37" s="40" t="s">
-        <v>5349</v>
-      </c>
-      <c r="L37" s="40">
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>5347</v>
+      </c>
+      <c r="K37" t="s">
+        <v>5347</v>
+      </c>
+      <c r="L37">
         <v>254</v>
       </c>
-      <c r="M37" s="40" t="s">
-        <v>5029</v>
-      </c>
-      <c r="N37" s="40" t="s">
-        <v>5029</v>
-      </c>
-      <c r="O37" s="40" t="s">
-        <v>5029</v>
-      </c>
-      <c r="Q37" s="42" t="s">
+      <c r="M37" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N37" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O37" t="s">
+        <v>5029</v>
+      </c>
+      <c r="P37" t="s">
         <v>963</v>
       </c>
-      <c r="S37" s="41"/>
-    </row>
-    <row r="38" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="40">
+      <c r="Q37" t="s">
+        <v>963</v>
+      </c>
+      <c r="R37" t="s">
+        <v>963</v>
+      </c>
+      <c r="S37" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B38" t="s">
         <v>472</v>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="C38" t="s">
         <v>473</v>
       </c>
-      <c r="D38" s="40">
+      <c r="D38">
         <v>1998</v>
       </c>
-      <c r="E38" s="40" t="s">
+      <c r="E38" t="s">
         <v>5288</v>
       </c>
-      <c r="F38" s="40" t="s">
+      <c r="F38" t="s">
         <v>5289</v>
       </c>
-      <c r="G38" s="40" t="s">
-        <v>5029</v>
-      </c>
-      <c r="H38" s="40" t="s">
+      <c r="G38" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H38" t="s">
         <v>19</v>
       </c>
-      <c r="I38" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" s="40" t="s">
-        <v>5349</v>
-      </c>
-      <c r="K38" s="40" t="s">
-        <v>5349</v>
-      </c>
-      <c r="L38" s="40">
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>5347</v>
+      </c>
+      <c r="K38" t="s">
+        <v>5347</v>
+      </c>
+      <c r="L38">
         <v>301</v>
       </c>
-      <c r="M38" s="40" t="s">
-        <v>5029</v>
-      </c>
-      <c r="N38" s="40" t="s">
-        <v>5029</v>
-      </c>
-      <c r="O38" s="40" t="s">
-        <v>5029</v>
-      </c>
-      <c r="Q38" s="42" t="s">
+      <c r="M38" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N38" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O38" t="s">
+        <v>5029</v>
+      </c>
+      <c r="P38" t="s">
         <v>963</v>
       </c>
-      <c r="S38" s="41"/>
-    </row>
-    <row r="39" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="40">
+      <c r="Q38" t="s">
+        <v>963</v>
+      </c>
+      <c r="R38" t="s">
+        <v>963</v>
+      </c>
+      <c r="S38" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="40" t="s">
+      <c r="B39" t="s">
         <v>475</v>
       </c>
-      <c r="C39" s="40" t="s">
+      <c r="C39" t="s">
         <v>476</v>
       </c>
-      <c r="D39" s="40">
+      <c r="D39">
         <v>2001</v>
       </c>
-      <c r="E39" s="40" t="s">
+      <c r="E39" t="s">
         <v>5290</v>
       </c>
-      <c r="F39" s="40" t="s">
+      <c r="F39" t="s">
         <v>5291</v>
       </c>
-      <c r="G39" s="40" t="s">
-        <v>5029</v>
-      </c>
-      <c r="H39" s="40" t="s">
-        <v>5361</v>
-      </c>
-      <c r="I39" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" s="40" t="s">
-        <v>5349</v>
-      </c>
-      <c r="K39" s="40" t="s">
-        <v>5349</v>
-      </c>
-      <c r="L39" s="40">
+      <c r="G39" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H39" t="s">
+        <v>5359</v>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>5347</v>
+      </c>
+      <c r="K39" t="s">
+        <v>5347</v>
+      </c>
+      <c r="L39">
         <v>293</v>
       </c>
-      <c r="M39" s="40" t="s">
-        <v>5029</v>
-      </c>
-      <c r="N39" s="40" t="s">
-        <v>5029</v>
-      </c>
-      <c r="O39" s="40" t="s">
-        <v>5029</v>
-      </c>
-      <c r="Q39" s="42" t="s">
+      <c r="M39" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N39" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O39" t="s">
+        <v>5029</v>
+      </c>
+      <c r="P39" t="s">
+        <v>5373</v>
+      </c>
+      <c r="Q39" t="s">
         <v>963</v>
       </c>
-      <c r="S39" s="41"/>
-    </row>
-    <row r="40" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="40">
+      <c r="R39" t="s">
+        <v>966</v>
+      </c>
+      <c r="S39" s="7" t="s">
+        <v>5029</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="40" t="s">
+      <c r="B40" t="s">
         <v>3923</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C40" t="s">
         <v>3924</v>
       </c>
-      <c r="D40" s="40">
+      <c r="D40">
         <v>2008</v>
       </c>
-      <c r="E40" s="40" t="s">
+      <c r="E40" t="s">
         <v>5292</v>
       </c>
-      <c r="F40" s="40" t="s">
+      <c r="F40" t="s">
         <v>5293</v>
       </c>
-      <c r="G40" s="40" t="s">
-        <v>5029</v>
-      </c>
-      <c r="H40" s="40" t="s">
-        <v>5359</v>
-      </c>
-      <c r="I40" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" s="40" t="s">
-        <v>5349</v>
-      </c>
-      <c r="K40" s="40" t="s">
-        <v>5349</v>
-      </c>
-      <c r="L40" s="40">
+      <c r="G40" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H40" t="s">
+        <v>5357</v>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>5347</v>
+      </c>
+      <c r="K40" t="s">
+        <v>5347</v>
+      </c>
+      <c r="L40">
         <v>153</v>
       </c>
-      <c r="M40" s="40" t="s">
-        <v>5029</v>
-      </c>
-      <c r="N40" s="40" t="s">
-        <v>5029</v>
-      </c>
-      <c r="O40" s="40" t="s">
-        <v>5029</v>
-      </c>
-      <c r="Q40" s="42" t="s">
+      <c r="M40" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N40" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O40" t="s">
+        <v>5029</v>
+      </c>
+      <c r="P40" t="s">
         <v>963</v>
       </c>
-      <c r="S40" s="41"/>
-    </row>
-    <row r="41" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="40">
+      <c r="Q40" t="s">
+        <v>963</v>
+      </c>
+      <c r="R40" t="s">
+        <v>963</v>
+      </c>
+      <c r="S40" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="40" t="s">
+      <c r="B41" t="s">
         <v>5294</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" t="s">
         <v>5295</v>
       </c>
-      <c r="D41" s="40">
+      <c r="D41">
         <v>2001</v>
       </c>
-      <c r="E41" s="40" t="s">
+      <c r="E41" t="s">
         <v>5296</v>
       </c>
-      <c r="F41" s="40" t="s">
+      <c r="F41" t="s">
         <v>5297</v>
       </c>
-      <c r="G41" s="40" t="s">
-        <v>5029</v>
-      </c>
-      <c r="H41" s="40" t="s">
+      <c r="G41" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H41" t="s">
         <v>42</v>
       </c>
-      <c r="I41" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" s="40" t="s">
-        <v>5349</v>
-      </c>
-      <c r="K41" s="40" t="s">
-        <v>5349</v>
-      </c>
-      <c r="L41" s="40">
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>5347</v>
+      </c>
+      <c r="K41" t="s">
+        <v>5347</v>
+      </c>
+      <c r="L41">
         <v>188</v>
       </c>
-      <c r="M41" s="40" t="s">
-        <v>5029</v>
-      </c>
-      <c r="N41" s="40" t="s">
-        <v>5029</v>
-      </c>
-      <c r="O41" s="40" t="s">
-        <v>5029</v>
-      </c>
-      <c r="Q41" s="42" t="s">
+      <c r="M41" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N41" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O41" t="s">
+        <v>5029</v>
+      </c>
+      <c r="P41" t="s">
         <v>963</v>
       </c>
-      <c r="S41" s="41"/>
-    </row>
-    <row r="42" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="40">
+      <c r="Q41" t="s">
+        <v>963</v>
+      </c>
+      <c r="R41" t="s">
+        <v>963</v>
+      </c>
+      <c r="S41" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="40" t="s">
+      <c r="B42" t="s">
         <v>5298</v>
       </c>
-      <c r="C42" s="40" t="s">
+      <c r="C42" t="s">
         <v>5299</v>
       </c>
-      <c r="D42" s="40">
+      <c r="D42">
         <v>2004</v>
       </c>
-      <c r="E42" s="40" t="s">
+      <c r="E42" t="s">
         <v>5300</v>
       </c>
-      <c r="F42" s="40" t="s">
+      <c r="F42" t="s">
         <v>5301</v>
       </c>
-      <c r="G42" s="40" t="s">
-        <v>5029</v>
-      </c>
-      <c r="H42" s="40" t="s">
-        <v>5354</v>
-      </c>
-      <c r="I42" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" s="40" t="s">
-        <v>5349</v>
-      </c>
-      <c r="K42" s="40" t="s">
-        <v>5349</v>
-      </c>
-      <c r="L42" s="40">
+      <c r="G42" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H42" t="s">
+        <v>5352</v>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>5347</v>
+      </c>
+      <c r="K42" t="s">
+        <v>5347</v>
+      </c>
+      <c r="L42">
         <v>93</v>
       </c>
-      <c r="M42" s="40" t="s">
-        <v>5029</v>
-      </c>
-      <c r="N42" s="40" t="s">
-        <v>5029</v>
-      </c>
-      <c r="O42" s="40" t="s">
-        <v>5029</v>
-      </c>
-      <c r="Q42" s="42" t="s">
+      <c r="M42" t="s">
+        <v>5029</v>
+      </c>
+      <c r="N42" t="s">
+        <v>5029</v>
+      </c>
+      <c r="O42" t="s">
+        <v>5029</v>
+      </c>
+      <c r="P42" t="s">
         <v>963</v>
       </c>
-      <c r="S42" s="41"/>
+      <c r="Q42" t="s">
+        <v>963</v>
+      </c>
+      <c r="R42" t="s">
+        <v>963</v>
+      </c>
+      <c r="S42" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>5302</v>
+        <v>5073</v>
       </c>
       <c r="C43" t="s">
-        <v>5303</v>
+        <v>4128</v>
       </c>
       <c r="D43">
         <v>1995</v>
       </c>
       <c r="E43" t="s">
-        <v>5304</v>
+        <v>5302</v>
       </c>
       <c r="F43" t="s">
-        <v>5305</v>
+        <v>5303</v>
       </c>
       <c r="G43" t="s">
         <v>5029</v>
       </c>
       <c r="H43" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="I43" t="b">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K43" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L43">
         <v>372</v>
@@ -46822,29 +47233,37 @@
       <c r="O43" t="s">
         <v>5029</v>
       </c>
-      <c r="Q43" s="42" t="s">
+      <c r="P43" t="s">
+        <v>5371</v>
+      </c>
+      <c r="Q43" t="s">
         <v>963</v>
       </c>
-      <c r="S43" s="7"/>
+      <c r="R43" t="s">
+        <v>966</v>
+      </c>
+      <c r="S43" s="7" t="s">
+        <v>5029</v>
+      </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>5306</v>
+        <v>5304</v>
       </c>
       <c r="C44" t="s">
-        <v>5307</v>
+        <v>5305</v>
       </c>
       <c r="D44">
         <v>2004</v>
       </c>
       <c r="E44" t="s">
-        <v>5308</v>
+        <v>5306</v>
       </c>
       <c r="F44" t="s">
-        <v>5309</v>
+        <v>5307</v>
       </c>
       <c r="G44" t="s">
         <v>5029</v>
@@ -46856,10 +47275,10 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K44" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L44">
         <v>1830</v>
@@ -46873,29 +47292,37 @@
       <c r="O44" t="s">
         <v>5029</v>
       </c>
-      <c r="Q44" s="42" t="s">
+      <c r="P44" t="s">
         <v>963</v>
       </c>
-      <c r="S44" s="7"/>
+      <c r="Q44" t="s">
+        <v>963</v>
+      </c>
+      <c r="R44" t="s">
+        <v>963</v>
+      </c>
+      <c r="S44" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>5310</v>
+        <v>5308</v>
       </c>
       <c r="C45" t="s">
-        <v>5311</v>
+        <v>5309</v>
       </c>
       <c r="D45">
         <v>2005</v>
       </c>
       <c r="E45" t="s">
-        <v>5312</v>
+        <v>5310</v>
       </c>
       <c r="F45" t="s">
-        <v>5313</v>
+        <v>5311</v>
       </c>
       <c r="G45" t="s">
         <v>5029</v>
@@ -46907,10 +47334,10 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K45" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L45">
         <v>345</v>
@@ -46924,44 +47351,52 @@
       <c r="O45" t="s">
         <v>5029</v>
       </c>
-      <c r="Q45" s="42" t="s">
+      <c r="P45" t="s">
         <v>963</v>
       </c>
-      <c r="S45" s="7"/>
+      <c r="Q45" t="s">
+        <v>963</v>
+      </c>
+      <c r="R45" t="s">
+        <v>963</v>
+      </c>
+      <c r="S45" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>5314</v>
+        <v>5312</v>
       </c>
       <c r="C46" t="s">
-        <v>5315</v>
+        <v>5313</v>
       </c>
       <c r="D46">
         <v>2006</v>
       </c>
       <c r="E46" t="s">
-        <v>5316</v>
+        <v>5314</v>
       </c>
       <c r="F46" t="s">
-        <v>5317</v>
+        <v>5315</v>
       </c>
       <c r="G46" t="s">
         <v>5029</v>
       </c>
       <c r="H46" t="s">
-        <v>5363</v>
+        <v>5361</v>
       </c>
       <c r="I46" t="b">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K46" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L46">
         <v>1005</v>
@@ -46975,29 +47410,37 @@
       <c r="O46" t="s">
         <v>5029</v>
       </c>
-      <c r="Q46" s="42" t="s">
+      <c r="P46" t="s">
+        <v>5363</v>
+      </c>
+      <c r="Q46" t="s">
         <v>963</v>
       </c>
-      <c r="S46" s="7"/>
+      <c r="R46" t="s">
+        <v>966</v>
+      </c>
+      <c r="S46" s="7" t="s">
+        <v>5029</v>
+      </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>5318</v>
+        <v>5316</v>
       </c>
       <c r="C47" t="s">
-        <v>5319</v>
+        <v>5317</v>
       </c>
       <c r="D47">
         <v>2006</v>
       </c>
       <c r="E47" t="s">
-        <v>5320</v>
+        <v>5318</v>
       </c>
       <c r="F47" t="s">
-        <v>5321</v>
+        <v>5319</v>
       </c>
       <c r="G47" t="s">
         <v>5029</v>
@@ -47009,10 +47452,10 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K47" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L47">
         <v>596</v>
@@ -47026,26 +47469,34 @@
       <c r="O47" t="s">
         <v>5029</v>
       </c>
-      <c r="Q47" s="42" t="s">
+      <c r="P47" t="s">
+        <v>5363</v>
+      </c>
+      <c r="Q47" t="s">
         <v>963</v>
       </c>
-      <c r="S47" s="7"/>
+      <c r="R47" t="s">
+        <v>966</v>
+      </c>
+      <c r="S47" s="7" t="s">
+        <v>5029</v>
+      </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>5322</v>
+        <v>5320</v>
       </c>
       <c r="C48" t="s">
-        <v>5323</v>
+        <v>5321</v>
       </c>
       <c r="D48">
         <v>2005</v>
       </c>
       <c r="E48" t="s">
-        <v>5324</v>
+        <v>5322</v>
       </c>
       <c r="F48" t="s">
         <v>5164</v>
@@ -47060,10 +47511,10 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K48" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L48">
         <v>386</v>
@@ -47077,10 +47528,18 @@
       <c r="O48" t="s">
         <v>5029</v>
       </c>
-      <c r="Q48" s="42" t="s">
+      <c r="P48" t="s">
         <v>963</v>
       </c>
-      <c r="S48" s="7"/>
+      <c r="Q48" t="s">
+        <v>963</v>
+      </c>
+      <c r="R48" t="s">
+        <v>963</v>
+      </c>
+      <c r="S48" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
@@ -47096,7 +47555,7 @@
         <v>1982</v>
       </c>
       <c r="E49" t="s">
-        <v>5325</v>
+        <v>5323</v>
       </c>
       <c r="F49" t="s">
         <v>5165</v>
@@ -47105,16 +47564,16 @@
         <v>5029</v>
       </c>
       <c r="H49" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="I49" t="b">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K49" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L49">
         <v>55</v>
@@ -47128,10 +47587,18 @@
       <c r="O49" t="s">
         <v>5029</v>
       </c>
-      <c r="Q49" s="42" t="s">
+      <c r="P49" t="s">
         <v>963</v>
       </c>
-      <c r="S49" s="7"/>
+      <c r="Q49" t="s">
+        <v>963</v>
+      </c>
+      <c r="R49" t="s">
+        <v>963</v>
+      </c>
+      <c r="S49" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
@@ -47147,7 +47614,7 @@
         <v>1985</v>
       </c>
       <c r="E50" t="s">
-        <v>5326</v>
+        <v>5324</v>
       </c>
       <c r="F50" t="s">
         <v>5166</v>
@@ -47162,10 +47629,10 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K50" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L50">
         <v>2143</v>
@@ -47179,17 +47646,25 @@
       <c r="O50" t="s">
         <v>5029</v>
       </c>
-      <c r="Q50" s="42" t="s">
+      <c r="P50" t="s">
+        <v>974</v>
+      </c>
+      <c r="Q50" t="s">
         <v>963</v>
       </c>
-      <c r="S50" s="7"/>
+      <c r="R50" t="s">
+        <v>966</v>
+      </c>
+      <c r="S50" s="7" t="s">
+        <v>5029</v>
+      </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>5327</v>
+        <v>5325</v>
       </c>
       <c r="C51" t="s">
         <v>674</v>
@@ -47198,7 +47673,7 @@
         <v>1979</v>
       </c>
       <c r="E51" t="s">
-        <v>5328</v>
+        <v>5326</v>
       </c>
       <c r="F51" t="s">
         <v>5167</v>
@@ -47213,10 +47688,10 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K51" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L51">
         <v>251</v>
@@ -47230,29 +47705,37 @@
       <c r="O51" t="s">
         <v>5029</v>
       </c>
-      <c r="Q51" s="42" t="s">
+      <c r="P51" t="s">
         <v>963</v>
       </c>
-      <c r="S51" s="7"/>
+      <c r="Q51" t="s">
+        <v>963</v>
+      </c>
+      <c r="R51" t="s">
+        <v>963</v>
+      </c>
+      <c r="S51" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>5329</v>
+        <v>5327</v>
       </c>
       <c r="C52" t="s">
-        <v>5330</v>
+        <v>5328</v>
       </c>
       <c r="D52">
         <v>1997</v>
       </c>
       <c r="E52" t="s">
-        <v>5331</v>
+        <v>5329</v>
       </c>
       <c r="F52" t="s">
-        <v>5332</v>
+        <v>5330</v>
       </c>
       <c r="G52" t="s">
         <v>5029</v>
@@ -47264,10 +47747,10 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K52" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L52">
         <v>9699</v>
@@ -47281,44 +47764,52 @@
       <c r="O52" t="s">
         <v>5029</v>
       </c>
-      <c r="Q52" s="42" t="s">
+      <c r="P52" t="s">
         <v>963</v>
       </c>
-      <c r="S52" s="7"/>
+      <c r="Q52" t="s">
+        <v>963</v>
+      </c>
+      <c r="R52" t="s">
+        <v>963</v>
+      </c>
+      <c r="S52" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>5333</v>
+        <v>5331</v>
       </c>
       <c r="C53" t="s">
-        <v>5334</v>
+        <v>5332</v>
       </c>
       <c r="D53">
         <v>2014</v>
       </c>
       <c r="E53" t="s">
-        <v>5335</v>
+        <v>5333</v>
       </c>
       <c r="F53" t="s">
-        <v>5336</v>
+        <v>5334</v>
       </c>
       <c r="G53" t="s">
         <v>5029</v>
       </c>
       <c r="H53" t="s">
-        <v>5352</v>
+        <v>5350</v>
       </c>
       <c r="I53" t="b">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K53" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L53">
         <v>264</v>
@@ -47332,29 +47823,37 @@
       <c r="O53" t="s">
         <v>5029</v>
       </c>
-      <c r="Q53" s="42" t="s">
+      <c r="P53" t="s">
         <v>963</v>
       </c>
-      <c r="S53" s="7"/>
+      <c r="Q53" t="s">
+        <v>963</v>
+      </c>
+      <c r="R53" t="s">
+        <v>963</v>
+      </c>
+      <c r="S53" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>5337</v>
+        <v>5335</v>
       </c>
       <c r="C54" t="s">
-        <v>5338</v>
+        <v>5336</v>
       </c>
       <c r="D54">
         <v>2001</v>
       </c>
       <c r="E54" t="s">
-        <v>5339</v>
+        <v>5337</v>
       </c>
       <c r="F54" t="s">
-        <v>5340</v>
+        <v>5338</v>
       </c>
       <c r="G54" t="s">
         <v>5029</v>
@@ -47366,10 +47865,10 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K54" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L54">
         <v>261</v>
@@ -47383,29 +47882,37 @@
       <c r="O54" t="s">
         <v>5029</v>
       </c>
-      <c r="Q54" s="42" t="s">
+      <c r="P54" t="s">
         <v>963</v>
       </c>
-      <c r="S54" s="7"/>
+      <c r="Q54" t="s">
+        <v>963</v>
+      </c>
+      <c r="R54" t="s">
+        <v>963</v>
+      </c>
+      <c r="S54" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="C55" t="s">
-        <v>5342</v>
+        <v>5340</v>
       </c>
       <c r="D55">
         <v>1999</v>
       </c>
       <c r="E55" t="s">
-        <v>5343</v>
+        <v>5341</v>
       </c>
       <c r="F55" t="s">
-        <v>5344</v>
+        <v>5342</v>
       </c>
       <c r="G55" t="s">
         <v>5029</v>
@@ -47417,10 +47924,10 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K55" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L55">
         <v>423</v>
@@ -47434,29 +47941,37 @@
       <c r="O55" t="s">
         <v>5029</v>
       </c>
-      <c r="Q55" s="42" t="s">
+      <c r="P55" t="s">
         <v>963</v>
       </c>
-      <c r="S55" s="7"/>
+      <c r="Q55" t="s">
+        <v>963</v>
+      </c>
+      <c r="R55" t="s">
+        <v>963</v>
+      </c>
+      <c r="S55" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>5345</v>
+        <v>5343</v>
       </c>
       <c r="C56" t="s">
-        <v>5346</v>
+        <v>5344</v>
       </c>
       <c r="D56">
         <v>2011</v>
       </c>
       <c r="E56" t="s">
-        <v>5347</v>
+        <v>5345</v>
       </c>
       <c r="F56" t="s">
-        <v>5348</v>
+        <v>5346</v>
       </c>
       <c r="G56" t="s">
         <v>5029</v>
@@ -47468,10 +47983,10 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="K56" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="L56">
         <v>197</v>
@@ -47485,10 +48000,18 @@
       <c r="O56" t="s">
         <v>5029</v>
       </c>
-      <c r="Q56" s="42" t="s">
+      <c r="P56" t="s">
+        <v>966</v>
+      </c>
+      <c r="Q56" t="s">
         <v>963</v>
       </c>
-      <c r="S56" s="7"/>
+      <c r="R56" t="s">
+        <v>966</v>
+      </c>
+      <c r="S56" s="7" t="s">
+        <v>5029</v>
+      </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S57" s="7"/>
@@ -47923,8 +48446,8 @@
     <row r="200" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S200" s="7"/>
     </row>
-    <row r="201" spans="19:19" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="S201" s="37"/>
+    <row r="201" spans="19:19" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S201" s="36"/>
     </row>
     <row r="202" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S202" s="7"/>
@@ -49050,43 +49573,41 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B38 B40:B1048576">
-    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsBlanks" dxfId="33" priority="13">
+    <cfRule type="containsBlanks" dxfId="35" priority="13">
       <formula>LEN(TRIM(F1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:R601">
-    <cfRule type="containsText" dxfId="32" priority="8" operator="containsText" text="PRIMARY STUDY">
+    <cfRule type="containsText" dxfId="34" priority="8" operator="containsText" text="PRIMARY STUDY">
       <formula>NOT(ISERROR(SEARCH("PRIMARY STUDY",P2)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="31" priority="9" operator="notContains" text="YES">
+    <cfRule type="notContainsText" dxfId="33" priority="9" operator="notContains" text="YES">
       <formula>ISERROR(SEARCH("YES",P2))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="10" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="32" priority="10" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",P2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S601">
+    <cfRule type="cellIs" dxfId="31" priority="6" operator="between">
+      <formula>1</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="7" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH("X",S2)))</formula>
+    </cfRule>
     <cfRule type="containsBlanks" dxfId="29" priority="15">
       <formula>LEN(TRIM(S2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S601">
-    <cfRule type="cellIs" dxfId="28" priority="6" operator="between">
-      <formula>1</formula>
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="7" operator="containsText" text="X">
-      <formula>NOT(ISERROR(SEARCH("X",S2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="U1:U2">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -49095,12 +49616,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49165,14 +49686,14 @@
       </c>
       <c r="S1" s="29">
         <f>COUNTIFS($N:$N, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U1" s="28" t="s">
         <v>5039</v>
       </c>
       <c r="V1" s="29">
         <f>COUNTIF($M$2:$M$573, "YES")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W1" s="31"/>
       <c r="X1" s="31"/>
@@ -49225,7 +49746,7 @@
       <c r="O2" t="s">
         <v>966</v>
       </c>
-      <c r="P2" s="35">
+      <c r="P2" s="40">
         <v>1</v>
       </c>
       <c r="S2" t="s">
@@ -49281,7 +49802,7 @@
       <c r="O3" t="s">
         <v>966</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="7">
         <v>1</v>
       </c>
       <c r="X3" t="s">
@@ -49334,7 +49855,7 @@
       <c r="O4" t="s">
         <v>966</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="7">
         <v>1</v>
       </c>
       <c r="Q4" t="s">
@@ -49390,7 +49911,7 @@
       <c r="O5" t="s">
         <v>966</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="7">
         <v>1</v>
       </c>
     </row>
@@ -49440,7 +49961,7 @@
       <c r="O6" t="s">
         <v>966</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="7">
         <v>1</v>
       </c>
       <c r="R6" s="2" t="s">
@@ -49448,7 +49969,7 @@
       </c>
       <c r="S6">
         <f>COUNTIFS($N:$N, "YES", $M:$M, "&lt;&gt;PRIMARY STUDY")</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X6" t="s">
         <v>5076</v>
@@ -49500,7 +50021,7 @@
       <c r="O7" t="s">
         <v>966</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="7">
         <v>1</v>
       </c>
       <c r="R7" s="2" t="s">
@@ -49557,7 +50078,7 @@
       <c r="O8" t="s">
         <v>966</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="7">
         <v>1</v>
       </c>
     </row>
@@ -49604,7 +50125,7 @@
       <c r="O9" t="s">
         <v>966</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="7">
         <v>1</v>
       </c>
     </row>
@@ -49654,7 +50175,7 @@
       <c r="O10" t="s">
         <v>966</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="7">
         <v>1</v>
       </c>
     </row>
@@ -49701,7 +50222,7 @@
       <c r="O11" t="s">
         <v>966</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="7">
         <v>1</v>
       </c>
     </row>
@@ -49751,7 +50272,7 @@
       <c r="O12" t="s">
         <v>966</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="7">
         <v>1</v>
       </c>
     </row>
@@ -49801,7 +50322,7 @@
       <c r="O13" t="s">
         <v>966</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="7" t="s">
         <v>5121</v>
       </c>
     </row>
@@ -49851,7 +50372,7 @@
       <c r="O14" t="s">
         <v>966</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="7">
         <v>1</v>
       </c>
     </row>
@@ -49901,7 +50422,7 @@
       <c r="O15" t="s">
         <v>966</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="7">
         <v>1</v>
       </c>
     </row>
@@ -49951,7 +50472,7 @@
       <c r="O16" t="s">
         <v>966</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="7">
         <v>1</v>
       </c>
       <c r="Q16" t="s">
@@ -50004,7 +50525,7 @@
       <c r="O17" t="s">
         <v>966</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="7">
         <v>1</v>
       </c>
       <c r="Q17" t="s">
@@ -50064,82 +50585,194 @@
         <v>5146</v>
       </c>
     </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>399</v>
+      </c>
+      <c r="C19" t="s">
+        <v>400</v>
+      </c>
+      <c r="D19">
+        <v>1999</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5278</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5279</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H19">
+        <v>177</v>
+      </c>
+      <c r="I19" t="s">
+        <v>5029</v>
+      </c>
+      <c r="J19" t="s">
+        <v>5029</v>
+      </c>
+      <c r="K19" t="s">
+        <v>5029</v>
+      </c>
+      <c r="L19" t="s">
+        <v>399</v>
+      </c>
+      <c r="M19" t="s">
+        <v>963</v>
+      </c>
+      <c r="N19" t="s">
+        <v>963</v>
+      </c>
+      <c r="O19" t="s">
+        <v>966</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>5372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5073</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4128</v>
+      </c>
+      <c r="D20">
+        <v>1995</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5302</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5303</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5029</v>
+      </c>
+      <c r="H20">
+        <v>372</v>
+      </c>
+      <c r="I20" t="s">
+        <v>5029</v>
+      </c>
+      <c r="J20" t="s">
+        <v>5029</v>
+      </c>
+      <c r="K20" t="s">
+        <v>5029</v>
+      </c>
+      <c r="L20" t="s">
+        <v>5073</v>
+      </c>
+      <c r="M20" t="s">
+        <v>5371</v>
+      </c>
+      <c r="N20" t="s">
+        <v>963</v>
+      </c>
+      <c r="O20" t="s">
+        <v>966</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>5029</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>5372</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B2">
-    <cfRule type="duplicateValues" dxfId="26" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="25" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="duplicateValues" dxfId="24" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="containsBlanks" dxfId="24" priority="22">
+    <cfRule type="containsBlanks" dxfId="23" priority="37">
       <formula>LEN(TRIM(F1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="containsBlanks" dxfId="23" priority="11">
+  <conditionalFormatting sqref="F18:F19">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(F18))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H17 H19:H1048576">
-    <cfRule type="containsBlanks" dxfId="22" priority="23">
+  <conditionalFormatting sqref="H1:H17 H20:H1048576">
+    <cfRule type="containsBlanks" dxfId="21" priority="38">
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="duplicateValues" dxfId="21" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:O18">
-    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="PRIMARY STUDY">
+  <conditionalFormatting sqref="L19">
+    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:O20">
+    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="PRIMARY STUDY">
       <formula>NOT(ISERROR(SEARCH("PRIMARY STUDY",M2)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="18" priority="9" operator="notContains" text="YES">
+    <cfRule type="notContainsText" dxfId="16" priority="3" operator="notContains" text="YES">
       <formula>ISERROR(SEARCH("YES",M2))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O18">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="between">
+  <conditionalFormatting sqref="O18:O20">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",O18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O18:P18">
-    <cfRule type="containsBlanks" dxfId="14" priority="4">
+  <conditionalFormatting sqref="O18:P20">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(O18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",P1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1 Q4">
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="32" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="18" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="8" priority="33" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",Q1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R2">
-    <cfRule type="duplicateValues" dxfId="9" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1">
-    <cfRule type="duplicateValues" dxfId="8" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="29"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -50148,7 +50781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L251"/>
   <sheetViews>
@@ -59032,10 +59665,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L1 A1:K251">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$K1=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>$J1=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59046,7 +59679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M293"/>
   <sheetViews>
@@ -66980,10 +67613,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:J253 J257 J259:J1048576">
-    <cfRule type="containsText" dxfId="5" priority="12" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="13" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="2" priority="13" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -67000,10 +67633,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",M17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",M17)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -67012,7 +67645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2E02EF-29CA-4747-863E-88FD6C53DEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A047345-A63F-45C6-88AA-BD32C313A873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Query literature" sheetId="5" r:id="rId1"/>
@@ -17910,9 +17910,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y575"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44631,9 +44631,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC575"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A047345-A63F-45C6-88AA-BD32C313A873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF931D5-9DDF-418B-B7C1-2267838073B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Query literature" sheetId="5" r:id="rId1"/>
@@ -694,7 +694,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10275" uniqueCount="5374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10262" uniqueCount="5375">
   <si>
     <t>Number</t>
   </si>
@@ -16816,6 +16816,9 @@
   </si>
   <si>
     <t>REPLICATION OF CARD(1995)</t>
+  </si>
+  <si>
+    <t>Already identified during twins snowballing</t>
   </si>
 </sst>
 </file>
@@ -17208,7 +17211,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="49">
     <dxf>
       <fill>
         <patternFill>
@@ -17270,20 +17273,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFAACAC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -17910,8 +17899,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y575"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -17988,7 +17977,7 @@
       </c>
       <c r="R1" s="29">
         <f>COUNTIFS($M:$M, "YES", $F:$F, "&lt;&gt;") + Twins!S1</f>
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T1" s="28" t="s">
         <v>5039</v>
@@ -44562,59 +44551,59 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B38 B40:B1048576">
-    <cfRule type="duplicateValues" dxfId="50" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsBlanks" dxfId="49" priority="20">
+    <cfRule type="containsBlanks" dxfId="47" priority="20">
       <formula>LEN(TRIM(F1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:N601">
-    <cfRule type="containsText" dxfId="48" priority="11" operator="containsText" text="PRIMARY STUDY">
+    <cfRule type="containsText" dxfId="46" priority="11" operator="containsText" text="PRIMARY STUDY">
       <formula>NOT(ISERROR(SEARCH("PRIMARY STUDY",L2)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="47" priority="12" operator="notContains" text="YES">
+    <cfRule type="notContainsText" dxfId="45" priority="12" operator="notContains" text="YES">
       <formula>ISERROR(SEARCH("YES",L2))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="13" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="44" priority="13" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O601 P136 P146 P151 P161 P163 P177 P187 P189:P190">
-    <cfRule type="containsBlanks" dxfId="45" priority="22">
+  <conditionalFormatting sqref="O2:O601 P177 P187 P189:P190 P136 P146 P151 P161 P163">
+    <cfRule type="containsBlanks" dxfId="43" priority="22">
       <formula>LEN(TRIM(O2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O601 P177 P187 P189:P190">
-    <cfRule type="cellIs" dxfId="44" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="42" priority="8" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="41" priority="9" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q10 Q16:Q1048576 R11:R15">
-    <cfRule type="duplicateValues" dxfId="42" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6">
-    <cfRule type="cellIs" dxfId="41" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="40" priority="23">
+    <cfRule type="containsBlanks" dxfId="38" priority="23">
       <formula>LEN(TRIM(R6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8">
-    <cfRule type="cellIs" dxfId="39" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="18" operator="notEqual">
+    <cfRule type="cellIs" dxfId="36" priority="18" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="duplicateValues" dxfId="37" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="5"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="K160" r:id="rId1" location="page=11" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -44631,9 +44620,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC575"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46597,7 +46586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -46656,7 +46645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -46715,7 +46704,7 @@
         <v>5029</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -46774,7 +46763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -46833,7 +46822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -46892,7 +46881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -46951,7 +46940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -47010,7 +46999,7 @@
         <v>5029</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -47069,7 +47058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -47128,7 +47117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -47187,7 +47176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -47245,8 +47234,11 @@
       <c r="S43" s="7" t="s">
         <v>5029</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T43" t="s">
+        <v>5374</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -47305,7 +47297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -47364,7 +47356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -47423,7 +47415,7 @@
         <v>5029</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -47482,7 +47474,7 @@
         <v>5029</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -49573,41 +49565,41 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B38 B40:B1048576">
-    <cfRule type="duplicateValues" dxfId="36" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsBlanks" dxfId="35" priority="13">
+    <cfRule type="containsBlanks" dxfId="33" priority="13">
       <formula>LEN(TRIM(F1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:R601">
-    <cfRule type="containsText" dxfId="34" priority="8" operator="containsText" text="PRIMARY STUDY">
+    <cfRule type="containsText" dxfId="32" priority="8" operator="containsText" text="PRIMARY STUDY">
       <formula>NOT(ISERROR(SEARCH("PRIMARY STUDY",P2)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="33" priority="9" operator="notContains" text="YES">
+    <cfRule type="notContainsText" dxfId="31" priority="9" operator="notContains" text="YES">
       <formula>ISERROR(SEARCH("YES",P2))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="10" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="30" priority="10" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",P2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S601">
-    <cfRule type="cellIs" dxfId="31" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="7" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",S2)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="29" priority="15">
+    <cfRule type="containsBlanks" dxfId="27" priority="15">
       <formula>LEN(TRIM(S2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U2">
-    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1">
-    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -49618,10 +49610,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Z20"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49686,13 +49678,13 @@
       </c>
       <c r="S1" s="29">
         <f>COUNTIFS($N:$N, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U1" s="28" t="s">
         <v>5039</v>
       </c>
       <c r="V1" s="29">
-        <f>COUNTIF($M$2:$M$573, "YES")</f>
+        <f>COUNTIF($M$2:$M$572, "YES")</f>
         <v>18</v>
       </c>
       <c r="W1" s="31"/>
@@ -49969,7 +49961,7 @@
       </c>
       <c r="S6">
         <f>COUNTIFS($N:$N, "YES", $M:$M, "&lt;&gt;PRIMARY STUDY")</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X6" t="s">
         <v>5076</v>
@@ -50638,125 +50630,63 @@
         <v>5372</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5073</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4128</v>
-      </c>
-      <c r="D20">
-        <v>1995</v>
-      </c>
-      <c r="E20" t="s">
-        <v>5302</v>
-      </c>
-      <c r="F20" t="s">
-        <v>5303</v>
-      </c>
-      <c r="G20" t="s">
-        <v>5029</v>
-      </c>
-      <c r="H20">
-        <v>372</v>
-      </c>
-      <c r="I20" t="s">
-        <v>5029</v>
-      </c>
-      <c r="J20" t="s">
-        <v>5029</v>
-      </c>
-      <c r="K20" t="s">
-        <v>5029</v>
-      </c>
-      <c r="L20" t="s">
-        <v>5073</v>
-      </c>
-      <c r="M20" t="s">
-        <v>5371</v>
-      </c>
-      <c r="N20" t="s">
-        <v>963</v>
-      </c>
-      <c r="O20" t="s">
-        <v>966</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>5029</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>5372</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B2">
-    <cfRule type="duplicateValues" dxfId="26" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="25" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="24" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
-    <cfRule type="containsBlanks" dxfId="23" priority="37">
+    <cfRule type="containsBlanks" dxfId="21" priority="37">
       <formula>LEN(TRIM(F1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:F19">
-    <cfRule type="containsBlanks" dxfId="22" priority="15">
+    <cfRule type="containsBlanks" dxfId="20" priority="15">
       <formula>LEN(TRIM(F18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H17 H20:H1048576">
-    <cfRule type="containsBlanks" dxfId="21" priority="38">
+    <cfRule type="containsBlanks" dxfId="19" priority="38">
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="duplicateValues" dxfId="20" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="duplicateValues" dxfId="19" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:O20">
-    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="PRIMARY STUDY">
+  <conditionalFormatting sqref="M2:O19">
+    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="PRIMARY STUDY">
       <formula>NOT(ISERROR(SEARCH("PRIMARY STUDY",M2)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="16" priority="3" operator="notContains" text="YES">
+    <cfRule type="notContainsText" dxfId="14" priority="3" operator="notContains" text="YES">
       <formula>ISERROR(SEARCH("YES",M2))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O18:O20">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="between">
+  <conditionalFormatting sqref="O18:O19 P1:P1048576">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="X">
-      <formula>NOT(ISERROR(SEARCH("X",O18)))</formula>
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH("X",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O18:P20">
-    <cfRule type="containsBlanks" dxfId="12" priority="1">
+  <conditionalFormatting sqref="O18:P19">
+    <cfRule type="containsBlanks" dxfId="10" priority="1">
       <formula>LEN(TRIM(O18))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="between">
-      <formula>1</formula>
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="X">
-      <formula>NOT(ISERROR(SEARCH("X",P1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1 Q4">

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF931D5-9DDF-418B-B7C1-2267838073B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716267EF-05B1-4B0E-996C-517D07DA0F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Query literature" sheetId="5" r:id="rId1"/>
@@ -694,7 +694,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10262" uniqueCount="5375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10250" uniqueCount="5369">
   <si>
     <t>Number</t>
   </si>
@@ -16030,24 +16030,6 @@
   </si>
   <si>
     <t>Using siblings to estimate the effect of school quality on wages</t>
-  </si>
-  <si>
-    <t>Belzil, Christian, and Jörgen Hansen. "Unobserved ability and the return to schooling." Econometrica 70, no. 5 (2002): 2075-2091.</t>
-  </si>
-  <si>
-    <t>ezQKpLmXhosJ</t>
-  </si>
-  <si>
-    <t>https://www.econstor.eu/bitstream/10419/21433/1/dp508.pdf</t>
-  </si>
-  <si>
-    <t>Unobserved ability and the return to schooling</t>
-  </si>
-  <si>
-    <t>Belzil &amp; Hansen</t>
-  </si>
-  <si>
-    <t>Belzil &amp; Hansen (2002)</t>
   </si>
   <si>
     <t>Gensowski, Miriam. "Personality, IQ, and lifetime earnings." Labour Economics 51 (2018): 170-183.</t>
@@ -17964,27 +17946,27 @@
         <v>962</v>
       </c>
       <c r="N1" s="24" t="s">
+        <v>5133</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>5131</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>5139</v>
-      </c>
-      <c r="O1" s="25" t="s">
-        <v>5137</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>5145</v>
       </c>
       <c r="Q1" s="28" t="s">
         <v>5038</v>
       </c>
       <c r="R1" s="29">
         <f>COUNTIFS($M:$M, "YES", $F:$F, "&lt;&gt;") + Twins!S1</f>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T1" s="28" t="s">
         <v>5039</v>
       </c>
       <c r="U1" s="29">
         <f>COUNTIF($L$2:$L$575, "&lt;&gt; ") +Twins!V1</f>
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="V1" s="31"/>
       <c r="W1" s="31"/>
@@ -18145,7 +18127,7 @@
         <v>574</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>5143</v>
+        <v>5137</v>
       </c>
       <c r="U4">
         <f>COUNTIFS($M:$M, "YES", $L:$L, "&lt;&gt;PRIMARY STUDY", $P:$P, "&lt;&gt;Twins")</f>
@@ -18206,7 +18188,7 @@
         <v>574</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>5140</v>
+        <v>5134</v>
       </c>
       <c r="U5" s="37">
         <f>COUNTIFS($N:$N, "YES", $F:$F, "&lt;&gt;")</f>
@@ -18314,7 +18296,7 @@
         <v>5029</v>
       </c>
       <c r="P7" t="s">
-        <v>5369</v>
+        <v>5363</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>904</v>
@@ -18515,10 +18497,10 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>5144</v>
+        <v>5138</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>5138</v>
+        <v>5132</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -18571,7 +18553,7 @@
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>5141</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -18624,7 +18606,7 @@
         <v>2</v>
       </c>
       <c r="R13" t="s">
-        <v>5142</v>
+        <v>5136</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -19877,7 +19859,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>5144</v>
+        <v>5138</v>
       </c>
       <c r="R38" t="s">
         <v>904</v>
@@ -20030,7 +20012,7 @@
         <v>2</v>
       </c>
       <c r="P41" t="s">
-        <v>5155</v>
+        <v>5149</v>
       </c>
       <c r="R41" t="s">
         <v>904</v>
@@ -20833,7 +20815,7 @@
         <v>2</v>
       </c>
       <c r="P57" t="s">
-        <v>5147</v>
+        <v>5141</v>
       </c>
       <c r="R57" t="s">
         <v>904</v>
@@ -22486,7 +22468,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>5148</v>
+        <v>5142</v>
       </c>
       <c r="R90" t="s">
         <v>904</v>
@@ -22497,7 +22479,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>5149</v>
+        <v>5143</v>
       </c>
       <c r="C91" t="s">
         <v>4015</v>
@@ -23489,7 +23471,7 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>5150</v>
+        <v>5144</v>
       </c>
       <c r="R110" t="s">
         <v>904</v>
@@ -23942,7 +23924,7 @@
         <v>4</v>
       </c>
       <c r="P119" t="s">
-        <v>5151</v>
+        <v>5145</v>
       </c>
       <c r="R119" t="s">
         <v>904</v>
@@ -25236,7 +25218,7 @@
         <v>1765</v>
       </c>
       <c r="L145" t="s">
-        <v>5152</v>
+        <v>5146</v>
       </c>
       <c r="M145" t="s">
         <v>966</v>
@@ -25256,7 +25238,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>5153</v>
+        <v>5147</v>
       </c>
       <c r="C146" t="s">
         <v>4080</v>
@@ -25268,7 +25250,7 @@
         <v>1766</v>
       </c>
       <c r="F146" t="s">
-        <v>5154</v>
+        <v>5148</v>
       </c>
       <c r="G146" t="s">
         <v>1768</v>
@@ -25459,7 +25441,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>5156</v>
+        <v>5150</v>
       </c>
       <c r="C150" t="s">
         <v>4085</v>
@@ -25468,13 +25450,13 @@
         <v>2012</v>
       </c>
       <c r="E150" t="s">
-        <v>5157</v>
+        <v>5151</v>
       </c>
       <c r="F150" t="s">
-        <v>5158</v>
+        <v>5152</v>
       </c>
       <c r="G150" t="s">
-        <v>5159</v>
+        <v>5153</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -27363,7 +27345,7 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>5144</v>
+        <v>5138</v>
       </c>
       <c r="R187" t="s">
         <v>904</v>
@@ -44620,9 +44602,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC575"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44664,16 +44646,16 @@
         <v>3907</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>5160</v>
+        <v>5154</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>5161</v>
+        <v>5155</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>5162</v>
+        <v>5156</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>5163</v>
+        <v>5157</v>
       </c>
       <c r="L1" s="23" t="s">
         <v>3902</v>
@@ -44694,13 +44676,13 @@
         <v>962</v>
       </c>
       <c r="R1" s="24" t="s">
+        <v>5133</v>
+      </c>
+      <c r="S1" s="25" t="s">
+        <v>5131</v>
+      </c>
+      <c r="T1" s="39" t="s">
         <v>5139</v>
-      </c>
-      <c r="S1" s="25" t="s">
-        <v>5137</v>
-      </c>
-      <c r="T1" s="39" t="s">
-        <v>5145</v>
       </c>
       <c r="U1" s="28" t="s">
         <v>5038</v>
@@ -44726,7 +44708,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>5168</v>
+        <v>5162</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>4157</v>
@@ -44735,10 +44717,10 @@
         <v>2010</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>5169</v>
+        <v>5163</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>5170</v>
+        <v>5164</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>5029</v>
@@ -44750,10 +44732,10 @@
         <v>1</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L2" s="34">
         <v>289</v>
@@ -44792,34 +44774,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5171</v>
+        <v>5165</v>
       </c>
       <c r="C3" t="s">
-        <v>5172</v>
+        <v>5166</v>
       </c>
       <c r="D3">
         <v>2000</v>
       </c>
       <c r="E3" t="s">
-        <v>5173</v>
+        <v>5167</v>
       </c>
       <c r="F3" t="s">
-        <v>5174</v>
+        <v>5168</v>
       </c>
       <c r="G3" t="s">
         <v>5029</v>
       </c>
       <c r="H3" t="s">
-        <v>5348</v>
+        <v>5342</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K3" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L3">
         <v>1486</v>
@@ -44834,7 +44816,7 @@
         <v>5029</v>
       </c>
       <c r="P3" t="s">
-        <v>5364</v>
+        <v>5358</v>
       </c>
       <c r="Q3" t="s">
         <v>963</v>
@@ -44860,10 +44842,10 @@
         <v>1995</v>
       </c>
       <c r="E4" t="s">
-        <v>5175</v>
+        <v>5169</v>
       </c>
       <c r="F4" t="s">
-        <v>5176</v>
+        <v>5170</v>
       </c>
       <c r="G4" t="s">
         <v>5029</v>
@@ -44875,10 +44857,10 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K4" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L4">
         <v>321</v>
@@ -44910,34 +44892,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5177</v>
+        <v>5171</v>
       </c>
       <c r="C5" t="s">
-        <v>5178</v>
+        <v>5172</v>
       </c>
       <c r="D5">
         <v>1991</v>
       </c>
       <c r="E5" t="s">
-        <v>5179</v>
+        <v>5173</v>
       </c>
       <c r="F5" t="s">
-        <v>5180</v>
+        <v>5174</v>
       </c>
       <c r="G5" t="s">
         <v>5029</v>
       </c>
       <c r="H5" t="s">
-        <v>5349</v>
+        <v>5343</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K5" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L5">
         <v>3590</v>
@@ -44969,19 +44951,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5181</v>
+        <v>5175</v>
       </c>
       <c r="C6" t="s">
-        <v>5182</v>
+        <v>5176</v>
       </c>
       <c r="D6">
         <v>2005</v>
       </c>
       <c r="E6" t="s">
-        <v>5183</v>
+        <v>5177</v>
       </c>
       <c r="F6" t="s">
-        <v>5184</v>
+        <v>5178</v>
       </c>
       <c r="G6" t="s">
         <v>5029</v>
@@ -44993,10 +44975,10 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K6" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L6">
         <v>1510</v>
@@ -45023,10 +45005,10 @@
         <v>5029</v>
       </c>
       <c r="T6" t="s">
-        <v>5362</v>
+        <v>5356</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>5143</v>
+        <v>5137</v>
       </c>
       <c r="V6">
         <f>COUNTIF($P:$P, "YES")</f>
@@ -45038,34 +45020,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5185</v>
+        <v>5179</v>
       </c>
       <c r="C7" t="s">
-        <v>5186</v>
+        <v>5180</v>
       </c>
       <c r="D7">
         <v>2002</v>
       </c>
       <c r="E7" t="s">
-        <v>5187</v>
+        <v>5181</v>
       </c>
       <c r="F7" t="s">
-        <v>5188</v>
+        <v>5182</v>
       </c>
       <c r="G7" t="s">
         <v>5029</v>
       </c>
       <c r="H7" t="s">
-        <v>5350</v>
+        <v>5344</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K7" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L7">
         <v>321</v>
@@ -45092,7 +45074,7 @@
         <v>1</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>5140</v>
+        <v>5134</v>
       </c>
       <c r="V7">
         <f>COUNTIFS($R:$R, "YES", $F:$F, "&lt;&gt;")</f>
@@ -45113,10 +45095,10 @@
         <v>1998</v>
       </c>
       <c r="E8" t="s">
-        <v>5189</v>
+        <v>5183</v>
       </c>
       <c r="F8" t="s">
-        <v>5190</v>
+        <v>5184</v>
       </c>
       <c r="G8" t="s">
         <v>5029</v>
@@ -45128,10 +45110,10 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K8" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L8">
         <v>588</v>
@@ -45163,34 +45145,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5191</v>
+        <v>5185</v>
       </c>
       <c r="C9" t="s">
-        <v>5192</v>
+        <v>5186</v>
       </c>
       <c r="D9">
         <v>2014</v>
       </c>
       <c r="E9" t="s">
-        <v>5193</v>
+        <v>5187</v>
       </c>
       <c r="F9" t="s">
-        <v>5194</v>
+        <v>5188</v>
       </c>
       <c r="G9" t="s">
         <v>5029</v>
       </c>
       <c r="H9" t="s">
-        <v>5351</v>
+        <v>5345</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K9" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L9">
         <v>73</v>
@@ -45222,34 +45204,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5195</v>
+        <v>5189</v>
       </c>
       <c r="C10" t="s">
-        <v>5196</v>
+        <v>5190</v>
       </c>
       <c r="D10">
         <v>2018</v>
       </c>
       <c r="E10" t="s">
-        <v>5197</v>
+        <v>5191</v>
       </c>
       <c r="F10" t="s">
-        <v>5198</v>
+        <v>5192</v>
       </c>
       <c r="G10" t="s">
         <v>5029</v>
       </c>
       <c r="H10" t="s">
-        <v>5352</v>
+        <v>5346</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K10" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L10">
         <v>74</v>
@@ -45264,7 +45246,7 @@
         <v>5029</v>
       </c>
       <c r="P10" t="s">
-        <v>5363</v>
+        <v>5357</v>
       </c>
       <c r="Q10" t="s">
         <v>963</v>
@@ -45281,19 +45263,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5199</v>
+        <v>5193</v>
       </c>
       <c r="C11" t="s">
-        <v>5200</v>
+        <v>5194</v>
       </c>
       <c r="D11">
         <v>2014</v>
       </c>
       <c r="E11" t="s">
-        <v>5201</v>
+        <v>5195</v>
       </c>
       <c r="F11" t="s">
-        <v>5202</v>
+        <v>5196</v>
       </c>
       <c r="G11" t="s">
         <v>5029</v>
@@ -45305,10 +45287,10 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K11" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L11">
         <v>17</v>
@@ -45340,7 +45322,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5203</v>
+        <v>5197</v>
       </c>
       <c r="C12" t="s">
         <v>3928</v>
@@ -45349,25 +45331,25 @@
         <v>1995</v>
       </c>
       <c r="E12" t="s">
-        <v>5204</v>
+        <v>5198</v>
       </c>
       <c r="F12" t="s">
-        <v>5205</v>
+        <v>5199</v>
       </c>
       <c r="G12" t="s">
         <v>5029</v>
       </c>
       <c r="H12" t="s">
-        <v>5353</v>
+        <v>5347</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K12" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L12">
         <v>1789</v>
@@ -45399,7 +45381,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5206</v>
+        <v>5200</v>
       </c>
       <c r="C13" t="s">
         <v>3928</v>
@@ -45408,25 +45390,25 @@
         <v>2001</v>
       </c>
       <c r="E13" t="s">
-        <v>5207</v>
+        <v>5201</v>
       </c>
       <c r="F13" t="s">
-        <v>5208</v>
+        <v>5202</v>
       </c>
       <c r="G13" t="s">
         <v>5029</v>
       </c>
       <c r="H13" t="s">
-        <v>5350</v>
+        <v>5344</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K13" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L13">
         <v>2928</v>
@@ -45441,7 +45423,7 @@
         <v>5029</v>
       </c>
       <c r="P13" t="s">
-        <v>5365</v>
+        <v>5359</v>
       </c>
       <c r="Q13" t="s">
         <v>963</v>
@@ -45453,7 +45435,7 @@
         <v>1</v>
       </c>
       <c r="T13" t="s">
-        <v>5366</v>
+        <v>5360</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -45461,7 +45443,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>5209</v>
+        <v>5203</v>
       </c>
       <c r="C14" t="s">
         <v>4356</v>
@@ -45470,25 +45452,25 @@
         <v>2011</v>
       </c>
       <c r="E14" t="s">
-        <v>5210</v>
+        <v>5204</v>
       </c>
       <c r="F14" t="s">
-        <v>5211</v>
+        <v>5205</v>
       </c>
       <c r="G14" t="s">
         <v>5029</v>
       </c>
       <c r="H14" t="s">
-        <v>5354</v>
+        <v>5348</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K14" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L14">
         <v>783</v>
@@ -45520,34 +45502,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>5212</v>
+        <v>5206</v>
       </c>
       <c r="C15" t="s">
-        <v>5213</v>
+        <v>5207</v>
       </c>
       <c r="D15">
         <v>2019</v>
       </c>
       <c r="E15" t="s">
-        <v>5214</v>
+        <v>5208</v>
       </c>
       <c r="F15" t="s">
-        <v>5215</v>
+        <v>5209</v>
       </c>
       <c r="G15" t="s">
         <v>5029</v>
       </c>
       <c r="H15" t="s">
-        <v>5355</v>
+        <v>5349</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K15" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L15">
         <v>141</v>
@@ -45574,7 +45556,7 @@
         <v>5029</v>
       </c>
       <c r="T15" t="s">
-        <v>5367</v>
+        <v>5361</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
@@ -45591,10 +45573,10 @@
         <v>1998</v>
       </c>
       <c r="E16" t="s">
-        <v>5216</v>
+        <v>5210</v>
       </c>
       <c r="F16" t="s">
-        <v>5217</v>
+        <v>5211</v>
       </c>
       <c r="G16" t="s">
         <v>5029</v>
@@ -45606,10 +45588,10 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K16" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L16">
         <v>284</v>
@@ -45641,34 +45623,34 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>5218</v>
+        <v>5212</v>
       </c>
       <c r="C17" t="s">
-        <v>5219</v>
+        <v>5213</v>
       </c>
       <c r="D17">
         <v>2010</v>
       </c>
       <c r="E17" t="s">
-        <v>5220</v>
+        <v>5214</v>
       </c>
       <c r="F17" t="s">
-        <v>5221</v>
+        <v>5215</v>
       </c>
       <c r="G17" t="s">
         <v>5029</v>
       </c>
       <c r="H17" t="s">
-        <v>5356</v>
+        <v>5350</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K17" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L17">
         <v>252</v>
@@ -45700,19 +45682,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>5222</v>
+        <v>5216</v>
       </c>
       <c r="C18" t="s">
-        <v>5223</v>
+        <v>5217</v>
       </c>
       <c r="D18">
         <v>1991</v>
       </c>
       <c r="E18" t="s">
-        <v>5224</v>
+        <v>5218</v>
       </c>
       <c r="F18" t="s">
-        <v>5225</v>
+        <v>5219</v>
       </c>
       <c r="G18" t="s">
         <v>5029</v>
@@ -45724,10 +45706,10 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K18" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L18">
         <v>88</v>
@@ -45768,10 +45750,10 @@
         <v>2001</v>
       </c>
       <c r="E19" t="s">
-        <v>5226</v>
+        <v>5220</v>
       </c>
       <c r="F19" t="s">
-        <v>5227</v>
+        <v>5221</v>
       </c>
       <c r="G19" t="s">
         <v>5029</v>
@@ -45783,10 +45765,10 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K19" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L19">
         <v>2852</v>
@@ -45827,10 +45809,10 @@
         <v>2002</v>
       </c>
       <c r="E20" t="s">
-        <v>5228</v>
+        <v>5222</v>
       </c>
       <c r="F20" t="s">
-        <v>5229</v>
+        <v>5223</v>
       </c>
       <c r="G20" t="s">
         <v>5029</v>
@@ -45842,10 +45824,10 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K20" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L20">
         <v>386</v>
@@ -45877,34 +45859,34 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>5230</v>
+        <v>5224</v>
       </c>
       <c r="C21" t="s">
-        <v>5231</v>
+        <v>5225</v>
       </c>
       <c r="D21">
         <v>2008</v>
       </c>
       <c r="E21" t="s">
-        <v>5232</v>
+        <v>5226</v>
       </c>
       <c r="F21" t="s">
-        <v>5233</v>
+        <v>5227</v>
       </c>
       <c r="G21" t="s">
         <v>5029</v>
       </c>
       <c r="H21" t="s">
-        <v>5357</v>
+        <v>5351</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K21" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L21">
         <v>494</v>
@@ -45936,19 +45918,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>5234</v>
+        <v>5228</v>
       </c>
       <c r="C22" t="s">
-        <v>5235</v>
+        <v>5229</v>
       </c>
       <c r="D22">
         <v>2000</v>
       </c>
       <c r="E22" t="s">
-        <v>5236</v>
+        <v>5230</v>
       </c>
       <c r="F22" t="s">
-        <v>5237</v>
+        <v>5231</v>
       </c>
       <c r="G22" t="s">
         <v>5029</v>
@@ -45960,10 +45942,10 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K22" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L22">
         <v>101</v>
@@ -45995,34 +45977,34 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>5238</v>
+        <v>5232</v>
       </c>
       <c r="C23" t="s">
-        <v>5239</v>
+        <v>5233</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23" t="s">
-        <v>5240</v>
+        <v>5234</v>
       </c>
       <c r="F23" t="s">
-        <v>5241</v>
+        <v>5235</v>
       </c>
       <c r="G23" t="s">
         <v>5029</v>
       </c>
       <c r="H23" t="s">
-        <v>5352</v>
+        <v>5346</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K23" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L23">
         <v>92</v>
@@ -46049,7 +46031,7 @@
         <v>5029</v>
       </c>
       <c r="T23" t="s">
-        <v>5368</v>
+        <v>5362</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -46057,19 +46039,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>5242</v>
+        <v>5236</v>
       </c>
       <c r="C24" t="s">
-        <v>5243</v>
+        <v>5237</v>
       </c>
       <c r="D24">
         <v>2005</v>
       </c>
       <c r="E24" t="s">
-        <v>5244</v>
+        <v>5238</v>
       </c>
       <c r="F24" t="s">
-        <v>5245</v>
+        <v>5239</v>
       </c>
       <c r="G24" t="s">
         <v>5029</v>
@@ -46081,10 +46063,10 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K24" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L24">
         <v>171</v>
@@ -46116,34 +46098,34 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>5246</v>
+        <v>5240</v>
       </c>
       <c r="C25" t="s">
-        <v>5247</v>
+        <v>5241</v>
       </c>
       <c r="D25">
         <v>1995</v>
       </c>
       <c r="E25" t="s">
-        <v>5248</v>
+        <v>5242</v>
       </c>
       <c r="F25" t="s">
-        <v>5249</v>
+        <v>5243</v>
       </c>
       <c r="G25" t="s">
         <v>5029</v>
       </c>
       <c r="H25" t="s">
-        <v>5357</v>
+        <v>5351</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K25" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L25">
         <v>662</v>
@@ -46175,7 +46157,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>5250</v>
+        <v>5244</v>
       </c>
       <c r="C26" t="s">
         <v>3930</v>
@@ -46184,10 +46166,10 @@
         <v>1995</v>
       </c>
       <c r="E26" t="s">
-        <v>5251</v>
+        <v>5245</v>
       </c>
       <c r="F26" t="s">
-        <v>5252</v>
+        <v>5246</v>
       </c>
       <c r="G26" t="s">
         <v>5029</v>
@@ -46199,10 +46181,10 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K26" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L26">
         <v>888</v>
@@ -46234,7 +46216,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>5253</v>
+        <v>5247</v>
       </c>
       <c r="C27" t="s">
         <v>3930</v>
@@ -46243,10 +46225,10 @@
         <v>1999</v>
       </c>
       <c r="E27" t="s">
-        <v>5254</v>
+        <v>5248</v>
       </c>
       <c r="F27" t="s">
-        <v>5255</v>
+        <v>5249</v>
       </c>
       <c r="G27" t="s">
         <v>5029</v>
@@ -46258,10 +46240,10 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K27" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L27">
         <v>100</v>
@@ -46302,25 +46284,25 @@
         <v>2003</v>
       </c>
       <c r="E28" t="s">
-        <v>5256</v>
+        <v>5250</v>
       </c>
       <c r="F28" t="s">
-        <v>5257</v>
+        <v>5251</v>
       </c>
       <c r="G28" t="s">
         <v>5029</v>
       </c>
       <c r="H28" t="s">
-        <v>5352</v>
+        <v>5346</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K28" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L28">
         <v>860</v>
@@ -46352,19 +46334,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>5258</v>
+        <v>5252</v>
       </c>
       <c r="C29" t="s">
-        <v>5259</v>
+        <v>5253</v>
       </c>
       <c r="D29">
         <v>2007</v>
       </c>
       <c r="E29" t="s">
-        <v>5260</v>
+        <v>5254</v>
       </c>
       <c r="F29" t="s">
-        <v>5261</v>
+        <v>5255</v>
       </c>
       <c r="G29" t="s">
         <v>5029</v>
@@ -46376,10 +46358,10 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K29" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L29">
         <v>27</v>
@@ -46411,34 +46393,34 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>5262</v>
+        <v>5256</v>
       </c>
       <c r="C30" t="s">
-        <v>5263</v>
+        <v>5257</v>
       </c>
       <c r="D30">
         <v>2006</v>
       </c>
       <c r="E30" t="s">
-        <v>5264</v>
+        <v>5258</v>
       </c>
       <c r="F30" t="s">
-        <v>5265</v>
+        <v>5259</v>
       </c>
       <c r="G30" t="s">
         <v>5029</v>
       </c>
       <c r="H30" t="s">
-        <v>5358</v>
+        <v>5352</v>
       </c>
       <c r="I30" t="b">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K30" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L30">
         <v>1427</v>
@@ -46465,7 +46447,7 @@
         <v>3</v>
       </c>
       <c r="T30" t="s">
-        <v>5370</v>
+        <v>5364</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -46473,34 +46455,34 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>5266</v>
+        <v>5260</v>
       </c>
       <c r="C31" t="s">
-        <v>5267</v>
+        <v>5261</v>
       </c>
       <c r="D31">
         <v>2011</v>
       </c>
       <c r="E31" t="s">
-        <v>5268</v>
+        <v>5262</v>
       </c>
       <c r="F31" t="s">
-        <v>5269</v>
+        <v>5263</v>
       </c>
       <c r="G31" t="s">
         <v>5029</v>
       </c>
       <c r="H31" t="s">
-        <v>5357</v>
+        <v>5351</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K31" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L31">
         <v>80</v>
@@ -46532,19 +46514,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>5270</v>
+        <v>5264</v>
       </c>
       <c r="C32" t="s">
-        <v>5271</v>
+        <v>5265</v>
       </c>
       <c r="D32">
         <v>1999</v>
       </c>
       <c r="E32" t="s">
-        <v>5272</v>
+        <v>5266</v>
       </c>
       <c r="F32" t="s">
-        <v>5273</v>
+        <v>5267</v>
       </c>
       <c r="G32" t="s">
         <v>5029</v>
@@ -46556,10 +46538,10 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K32" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L32">
         <v>182</v>
@@ -46591,34 +46573,34 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>5274</v>
+        <v>5268</v>
       </c>
       <c r="C33" t="s">
-        <v>5275</v>
+        <v>5269</v>
       </c>
       <c r="D33">
         <v>2004</v>
       </c>
       <c r="E33" t="s">
-        <v>5276</v>
+        <v>5270</v>
       </c>
       <c r="F33" t="s">
-        <v>5277</v>
+        <v>5271</v>
       </c>
       <c r="G33" t="s">
         <v>5029</v>
       </c>
       <c r="H33" t="s">
-        <v>5352</v>
+        <v>5346</v>
       </c>
       <c r="I33" t="b">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K33" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L33">
         <v>389</v>
@@ -46659,10 +46641,10 @@
         <v>1999</v>
       </c>
       <c r="E34" t="s">
-        <v>5278</v>
+        <v>5272</v>
       </c>
       <c r="F34" t="s">
-        <v>5279</v>
+        <v>5273</v>
       </c>
       <c r="G34" t="s">
         <v>5029</v>
@@ -46674,10 +46656,10 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K34" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L34">
         <v>177</v>
@@ -46692,7 +46674,7 @@
         <v>5029</v>
       </c>
       <c r="P34" t="s">
-        <v>5371</v>
+        <v>5365</v>
       </c>
       <c r="Q34" t="s">
         <v>963</v>
@@ -46718,10 +46700,10 @@
         <v>2001</v>
       </c>
       <c r="E35" t="s">
-        <v>5280</v>
+        <v>5274</v>
       </c>
       <c r="F35" t="s">
-        <v>5281</v>
+        <v>5275</v>
       </c>
       <c r="G35" t="s">
         <v>5029</v>
@@ -46733,10 +46715,10 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K35" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L35">
         <v>217</v>
@@ -46768,19 +46750,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>5282</v>
+        <v>5276</v>
       </c>
       <c r="C36" t="s">
-        <v>5283</v>
+        <v>5277</v>
       </c>
       <c r="D36">
         <v>1993</v>
       </c>
       <c r="E36" t="s">
-        <v>5284</v>
+        <v>5278</v>
       </c>
       <c r="F36" t="s">
-        <v>5285</v>
+        <v>5279</v>
       </c>
       <c r="G36" t="s">
         <v>5029</v>
@@ -46792,10 +46774,10 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K36" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L36">
         <v>1442</v>
@@ -46836,10 +46818,10 @@
         <v>2006</v>
       </c>
       <c r="E37" t="s">
-        <v>5286</v>
+        <v>5280</v>
       </c>
       <c r="F37" t="s">
-        <v>5287</v>
+        <v>5281</v>
       </c>
       <c r="G37" t="s">
         <v>5029</v>
@@ -46851,10 +46833,10 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K37" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L37">
         <v>254</v>
@@ -46895,10 +46877,10 @@
         <v>1998</v>
       </c>
       <c r="E38" t="s">
-        <v>5288</v>
+        <v>5282</v>
       </c>
       <c r="F38" t="s">
-        <v>5289</v>
+        <v>5283</v>
       </c>
       <c r="G38" t="s">
         <v>5029</v>
@@ -46910,10 +46892,10 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K38" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L38">
         <v>301</v>
@@ -46954,25 +46936,25 @@
         <v>2001</v>
       </c>
       <c r="E39" t="s">
-        <v>5290</v>
+        <v>5284</v>
       </c>
       <c r="F39" t="s">
-        <v>5291</v>
+        <v>5285</v>
       </c>
       <c r="G39" t="s">
         <v>5029</v>
       </c>
       <c r="H39" t="s">
-        <v>5359</v>
+        <v>5353</v>
       </c>
       <c r="I39" t="b">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K39" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L39">
         <v>293</v>
@@ -46987,7 +46969,7 @@
         <v>5029</v>
       </c>
       <c r="P39" t="s">
-        <v>5373</v>
+        <v>5367</v>
       </c>
       <c r="Q39" t="s">
         <v>963</v>
@@ -47013,25 +46995,25 @@
         <v>2008</v>
       </c>
       <c r="E40" t="s">
-        <v>5292</v>
+        <v>5286</v>
       </c>
       <c r="F40" t="s">
-        <v>5293</v>
+        <v>5287</v>
       </c>
       <c r="G40" t="s">
         <v>5029</v>
       </c>
       <c r="H40" t="s">
-        <v>5357</v>
+        <v>5351</v>
       </c>
       <c r="I40" t="b">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K40" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L40">
         <v>153</v>
@@ -47063,19 +47045,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>5294</v>
+        <v>5288</v>
       </c>
       <c r="C41" t="s">
-        <v>5295</v>
+        <v>5289</v>
       </c>
       <c r="D41">
         <v>2001</v>
       </c>
       <c r="E41" t="s">
-        <v>5296</v>
+        <v>5290</v>
       </c>
       <c r="F41" t="s">
-        <v>5297</v>
+        <v>5291</v>
       </c>
       <c r="G41" t="s">
         <v>5029</v>
@@ -47087,10 +47069,10 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K41" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L41">
         <v>188</v>
@@ -47122,34 +47104,34 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>5298</v>
+        <v>5292</v>
       </c>
       <c r="C42" t="s">
-        <v>5299</v>
+        <v>5293</v>
       </c>
       <c r="D42">
         <v>2004</v>
       </c>
       <c r="E42" t="s">
-        <v>5300</v>
+        <v>5294</v>
       </c>
       <c r="F42" t="s">
-        <v>5301</v>
+        <v>5295</v>
       </c>
       <c r="G42" t="s">
         <v>5029</v>
       </c>
       <c r="H42" t="s">
-        <v>5352</v>
+        <v>5346</v>
       </c>
       <c r="I42" t="b">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K42" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L42">
         <v>93</v>
@@ -47190,25 +47172,25 @@
         <v>1995</v>
       </c>
       <c r="E43" t="s">
-        <v>5302</v>
+        <v>5296</v>
       </c>
       <c r="F43" t="s">
-        <v>5303</v>
+        <v>5297</v>
       </c>
       <c r="G43" t="s">
         <v>5029</v>
       </c>
       <c r="H43" t="s">
-        <v>5360</v>
+        <v>5354</v>
       </c>
       <c r="I43" t="b">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K43" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L43">
         <v>372</v>
@@ -47223,7 +47205,7 @@
         <v>5029</v>
       </c>
       <c r="P43" t="s">
-        <v>5371</v>
+        <v>5365</v>
       </c>
       <c r="Q43" t="s">
         <v>963</v>
@@ -47235,7 +47217,7 @@
         <v>5029</v>
       </c>
       <c r="T43" t="s">
-        <v>5374</v>
+        <v>5368</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -47243,19 +47225,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>5304</v>
+        <v>5298</v>
       </c>
       <c r="C44" t="s">
-        <v>5305</v>
+        <v>5299</v>
       </c>
       <c r="D44">
         <v>2004</v>
       </c>
       <c r="E44" t="s">
-        <v>5306</v>
+        <v>5300</v>
       </c>
       <c r="F44" t="s">
-        <v>5307</v>
+        <v>5301</v>
       </c>
       <c r="G44" t="s">
         <v>5029</v>
@@ -47267,10 +47249,10 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K44" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L44">
         <v>1830</v>
@@ -47302,19 +47284,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>5308</v>
+        <v>5302</v>
       </c>
       <c r="C45" t="s">
-        <v>5309</v>
+        <v>5303</v>
       </c>
       <c r="D45">
         <v>2005</v>
       </c>
       <c r="E45" t="s">
-        <v>5310</v>
+        <v>5304</v>
       </c>
       <c r="F45" t="s">
-        <v>5311</v>
+        <v>5305</v>
       </c>
       <c r="G45" t="s">
         <v>5029</v>
@@ -47326,10 +47308,10 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K45" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L45">
         <v>345</v>
@@ -47361,34 +47343,34 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>5312</v>
+        <v>5306</v>
       </c>
       <c r="C46" t="s">
-        <v>5313</v>
+        <v>5307</v>
       </c>
       <c r="D46">
         <v>2006</v>
       </c>
       <c r="E46" t="s">
-        <v>5314</v>
+        <v>5308</v>
       </c>
       <c r="F46" t="s">
-        <v>5315</v>
+        <v>5309</v>
       </c>
       <c r="G46" t="s">
         <v>5029</v>
       </c>
       <c r="H46" t="s">
-        <v>5361</v>
+        <v>5355</v>
       </c>
       <c r="I46" t="b">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K46" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L46">
         <v>1005</v>
@@ -47403,7 +47385,7 @@
         <v>5029</v>
       </c>
       <c r="P46" t="s">
-        <v>5363</v>
+        <v>5357</v>
       </c>
       <c r="Q46" t="s">
         <v>963</v>
@@ -47420,19 +47402,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>5316</v>
+        <v>5310</v>
       </c>
       <c r="C47" t="s">
-        <v>5317</v>
+        <v>5311</v>
       </c>
       <c r="D47">
         <v>2006</v>
       </c>
       <c r="E47" t="s">
-        <v>5318</v>
+        <v>5312</v>
       </c>
       <c r="F47" t="s">
-        <v>5319</v>
+        <v>5313</v>
       </c>
       <c r="G47" t="s">
         <v>5029</v>
@@ -47444,10 +47426,10 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K47" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L47">
         <v>596</v>
@@ -47462,7 +47444,7 @@
         <v>5029</v>
       </c>
       <c r="P47" t="s">
-        <v>5363</v>
+        <v>5357</v>
       </c>
       <c r="Q47" t="s">
         <v>963</v>
@@ -47479,19 +47461,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>5320</v>
+        <v>5314</v>
       </c>
       <c r="C48" t="s">
-        <v>5321</v>
+        <v>5315</v>
       </c>
       <c r="D48">
         <v>2005</v>
       </c>
       <c r="E48" t="s">
-        <v>5322</v>
+        <v>5316</v>
       </c>
       <c r="F48" t="s">
-        <v>5164</v>
+        <v>5158</v>
       </c>
       <c r="G48" t="s">
         <v>5029</v>
@@ -47503,10 +47485,10 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K48" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L48">
         <v>386</v>
@@ -47547,25 +47529,25 @@
         <v>1982</v>
       </c>
       <c r="E49" t="s">
-        <v>5323</v>
+        <v>5317</v>
       </c>
       <c r="F49" t="s">
-        <v>5165</v>
+        <v>5159</v>
       </c>
       <c r="G49" t="s">
         <v>5029</v>
       </c>
       <c r="H49" t="s">
-        <v>5360</v>
+        <v>5354</v>
       </c>
       <c r="I49" t="b">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K49" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L49">
         <v>55</v>
@@ -47606,10 +47588,10 @@
         <v>1985</v>
       </c>
       <c r="E50" t="s">
-        <v>5324</v>
+        <v>5318</v>
       </c>
       <c r="F50" t="s">
-        <v>5166</v>
+        <v>5160</v>
       </c>
       <c r="G50" t="s">
         <v>5029</v>
@@ -47621,10 +47603,10 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K50" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L50">
         <v>2143</v>
@@ -47656,7 +47638,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>5325</v>
+        <v>5319</v>
       </c>
       <c r="C51" t="s">
         <v>674</v>
@@ -47665,10 +47647,10 @@
         <v>1979</v>
       </c>
       <c r="E51" t="s">
-        <v>5326</v>
+        <v>5320</v>
       </c>
       <c r="F51" t="s">
-        <v>5167</v>
+        <v>5161</v>
       </c>
       <c r="G51" t="s">
         <v>5029</v>
@@ -47680,10 +47662,10 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K51" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L51">
         <v>251</v>
@@ -47715,19 +47697,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="C52" t="s">
-        <v>5328</v>
+        <v>5322</v>
       </c>
       <c r="D52">
         <v>1997</v>
       </c>
       <c r="E52" t="s">
-        <v>5329</v>
+        <v>5323</v>
       </c>
       <c r="F52" t="s">
-        <v>5330</v>
+        <v>5324</v>
       </c>
       <c r="G52" t="s">
         <v>5029</v>
@@ -47739,10 +47721,10 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K52" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L52">
         <v>9699</v>
@@ -47774,34 +47756,34 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>5331</v>
+        <v>5325</v>
       </c>
       <c r="C53" t="s">
-        <v>5332</v>
+        <v>5326</v>
       </c>
       <c r="D53">
         <v>2014</v>
       </c>
       <c r="E53" t="s">
-        <v>5333</v>
+        <v>5327</v>
       </c>
       <c r="F53" t="s">
-        <v>5334</v>
+        <v>5328</v>
       </c>
       <c r="G53" t="s">
         <v>5029</v>
       </c>
       <c r="H53" t="s">
-        <v>5350</v>
+        <v>5344</v>
       </c>
       <c r="I53" t="b">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K53" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L53">
         <v>264</v>
@@ -47833,19 +47815,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>5335</v>
+        <v>5329</v>
       </c>
       <c r="C54" t="s">
-        <v>5336</v>
+        <v>5330</v>
       </c>
       <c r="D54">
         <v>2001</v>
       </c>
       <c r="E54" t="s">
-        <v>5337</v>
+        <v>5331</v>
       </c>
       <c r="F54" t="s">
-        <v>5338</v>
+        <v>5332</v>
       </c>
       <c r="G54" t="s">
         <v>5029</v>
@@ -47857,10 +47839,10 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K54" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L54">
         <v>261</v>
@@ -47892,19 +47874,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>5339</v>
+        <v>5333</v>
       </c>
       <c r="C55" t="s">
-        <v>5340</v>
+        <v>5334</v>
       </c>
       <c r="D55">
         <v>1999</v>
       </c>
       <c r="E55" t="s">
-        <v>5341</v>
+        <v>5335</v>
       </c>
       <c r="F55" t="s">
-        <v>5342</v>
+        <v>5336</v>
       </c>
       <c r="G55" t="s">
         <v>5029</v>
@@ -47916,10 +47898,10 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K55" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L55">
         <v>423</v>
@@ -47951,19 +47933,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>5343</v>
+        <v>5337</v>
       </c>
       <c r="C56" t="s">
-        <v>5344</v>
+        <v>5338</v>
       </c>
       <c r="D56">
         <v>2011</v>
       </c>
       <c r="E56" t="s">
-        <v>5345</v>
+        <v>5339</v>
       </c>
       <c r="F56" t="s">
-        <v>5346</v>
+        <v>5340</v>
       </c>
       <c r="G56" t="s">
         <v>5029</v>
@@ -47975,10 +47957,10 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="K56" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="L56">
         <v>197</v>
@@ -49610,10 +49592,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Z19"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I12:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49665,27 +49647,27 @@
         <v>962</v>
       </c>
       <c r="O1" s="24" t="s">
-        <v>5139</v>
+        <v>5133</v>
       </c>
       <c r="P1" s="25" t="s">
         <v>5026</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>5145</v>
+        <v>5139</v>
       </c>
       <c r="R1" s="28" t="s">
         <v>5038</v>
       </c>
       <c r="S1" s="29">
         <f>COUNTIFS($N:$N, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U1" s="28" t="s">
         <v>5039</v>
       </c>
       <c r="V1" s="29">
-        <f>COUNTIF($M$2:$M$572, "YES")</f>
-        <v>18</v>
+        <f>COUNTIF($M$2:$M$571, "YES")</f>
+        <v>17</v>
       </c>
       <c r="W1" s="31"/>
       <c r="X1" s="31"/>
@@ -49957,11 +49939,11 @@
         <v>1</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>5143</v>
+        <v>5137</v>
       </c>
       <c r="S6">
         <f>COUNTIFS($N:$N, "YES", $M:$M, "&lt;&gt;PRIMARY STUDY")</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X6" t="s">
         <v>5076</v>
@@ -50017,7 +49999,7 @@
         <v>1</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>5140</v>
+        <v>5134</v>
       </c>
       <c r="S7">
         <f>COUNTIFS($O:$O, "YES", $F:$F, "&lt;&gt;")</f>
@@ -50223,16 +50205,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>5116</v>
+      </c>
+      <c r="C12" t="s">
         <v>5117</v>
       </c>
-      <c r="C12" t="s">
-        <v>5116</v>
-      </c>
       <c r="D12">
-        <v>2002</v>
+        <v>2018</v>
       </c>
       <c r="E12" t="s">
-        <v>5115</v>
+        <v>5118</v>
       </c>
       <c r="F12" t="s">
         <v>5112</v>
@@ -50241,7 +50223,7 @@
         <v>5030</v>
       </c>
       <c r="H12">
-        <v>320</v>
+        <v>181</v>
       </c>
       <c r="I12" t="s">
         <v>5113</v>
@@ -50253,7 +50235,7 @@
         <v>5114</v>
       </c>
       <c r="L12" t="s">
-        <v>5117</v>
+        <v>5116</v>
       </c>
       <c r="M12" t="s">
         <v>963</v>
@@ -50264,8 +50246,8 @@
       <c r="O12" t="s">
         <v>966</v>
       </c>
-      <c r="P12" s="7">
-        <v>1</v>
+      <c r="P12" s="7" t="s">
+        <v>5115</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -50279,28 +50261,28 @@
         <v>5123</v>
       </c>
       <c r="D13">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="E13" t="s">
         <v>5124</v>
       </c>
       <c r="F13" t="s">
-        <v>5118</v>
+        <v>5119</v>
       </c>
       <c r="G13" t="s">
         <v>5030</v>
       </c>
       <c r="H13">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>5119</v>
+        <v>5120</v>
       </c>
       <c r="J13" t="s">
-        <v>5120</v>
+        <v>5121</v>
       </c>
       <c r="K13" t="s">
-        <v>5120</v>
+        <v>5121</v>
       </c>
       <c r="L13" t="s">
         <v>5122</v>
@@ -50314,8 +50296,8 @@
       <c r="O13" t="s">
         <v>966</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>5121</v>
+      <c r="P13" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -50323,37 +50305,37 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>5128</v>
+        <v>5129</v>
       </c>
       <c r="C14" t="s">
-        <v>5129</v>
+        <v>5126</v>
       </c>
       <c r="D14">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="E14" t="s">
         <v>5130</v>
       </c>
       <c r="F14" t="s">
-        <v>5125</v>
+        <v>5127</v>
       </c>
       <c r="G14" t="s">
         <v>5030</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I14" t="s">
-        <v>5126</v>
+        <v>5128</v>
       </c>
       <c r="J14" t="s">
-        <v>5127</v>
+        <v>5125</v>
       </c>
       <c r="K14" t="s">
-        <v>5127</v>
+        <v>5125</v>
       </c>
       <c r="L14" t="s">
-        <v>5128</v>
+        <v>5129</v>
       </c>
       <c r="M14" t="s">
         <v>963</v>
@@ -50373,37 +50355,37 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>5135</v>
+        <v>3935</v>
       </c>
       <c r="C15" t="s">
-        <v>5132</v>
+        <v>3936</v>
       </c>
       <c r="D15">
-        <v>2020</v>
+        <v>2005</v>
       </c>
       <c r="E15" t="s">
-        <v>5136</v>
+        <v>1072</v>
       </c>
       <c r="F15" t="s">
-        <v>5133</v>
+        <v>970</v>
       </c>
       <c r="G15" t="s">
-        <v>5030</v>
+        <v>1074</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>5134</v>
+        <v>1073</v>
       </c>
       <c r="J15" t="s">
-        <v>5131</v>
+        <v>1075</v>
       </c>
       <c r="K15" t="s">
-        <v>5131</v>
+        <v>1075</v>
       </c>
       <c r="L15" t="s">
-        <v>5135</v>
+        <v>3935</v>
       </c>
       <c r="M15" t="s">
         <v>963</v>
@@ -50416,6 +50398,9 @@
       </c>
       <c r="P15" s="7">
         <v>1</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>5140</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
@@ -50423,37 +50408,37 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>3935</v>
+        <v>3965</v>
       </c>
       <c r="C16" t="s">
-        <v>3936</v>
+        <v>3966</v>
       </c>
       <c r="D16">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="E16" t="s">
-        <v>1072</v>
+        <v>1211</v>
       </c>
       <c r="F16" t="s">
-        <v>970</v>
+        <v>4598</v>
       </c>
       <c r="G16" t="s">
-        <v>1074</v>
+        <v>1213</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>265</v>
       </c>
       <c r="I16" t="s">
-        <v>1073</v>
+        <v>1212</v>
       </c>
       <c r="J16" t="s">
-        <v>1075</v>
+        <v>1214</v>
       </c>
       <c r="K16" t="s">
-        <v>1075</v>
+        <v>1215</v>
       </c>
       <c r="L16" t="s">
-        <v>3935</v>
+        <v>3965</v>
       </c>
       <c r="M16" t="s">
         <v>963</v>
@@ -50468,7 +50453,7 @@
         <v>1</v>
       </c>
       <c r="Q16" t="s">
-        <v>5146</v>
+        <v>5140</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -50476,37 +50461,37 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>3965</v>
+        <v>4127</v>
       </c>
       <c r="C17" t="s">
-        <v>3966</v>
+        <v>4128</v>
       </c>
       <c r="D17">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E17" t="s">
-        <v>1211</v>
+        <v>1957</v>
       </c>
       <c r="F17" t="s">
-        <v>4598</v>
+        <v>1962</v>
       </c>
       <c r="G17" t="s">
-        <v>1213</v>
+        <v>1959</v>
       </c>
       <c r="H17">
-        <v>265</v>
+        <v>19</v>
       </c>
       <c r="I17" t="s">
-        <v>1212</v>
+        <v>1958</v>
       </c>
       <c r="J17" t="s">
-        <v>1214</v>
+        <v>1960</v>
       </c>
       <c r="K17" t="s">
-        <v>1215</v>
+        <v>1961</v>
       </c>
       <c r="L17" t="s">
-        <v>3965</v>
+        <v>4127</v>
       </c>
       <c r="M17" t="s">
         <v>963</v>
@@ -50521,7 +50506,7 @@
         <v>1</v>
       </c>
       <c r="Q17" t="s">
-        <v>5146</v>
+        <v>5140</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -50529,37 +50514,37 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>4127</v>
+        <v>399</v>
       </c>
       <c r="C18" t="s">
-        <v>4128</v>
+        <v>400</v>
       </c>
       <c r="D18">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="E18" t="s">
-        <v>1957</v>
+        <v>5272</v>
       </c>
       <c r="F18" t="s">
-        <v>1962</v>
+        <v>5273</v>
       </c>
       <c r="G18" t="s">
-        <v>1959</v>
+        <v>5029</v>
       </c>
       <c r="H18">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="I18" t="s">
-        <v>1958</v>
+        <v>5029</v>
       </c>
       <c r="J18" t="s">
-        <v>1960</v>
+        <v>5029</v>
       </c>
       <c r="K18" t="s">
-        <v>1961</v>
+        <v>5029</v>
       </c>
       <c r="L18" t="s">
-        <v>4127</v>
+        <v>399</v>
       </c>
       <c r="M18" t="s">
         <v>963</v>
@@ -50570,74 +50555,21 @@
       <c r="O18" t="s">
         <v>966</v>
       </c>
-      <c r="P18" s="7">
-        <v>1</v>
+      <c r="P18" s="7" t="s">
+        <v>5029</v>
       </c>
       <c r="Q18" t="s">
-        <v>5146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>399</v>
-      </c>
-      <c r="C19" t="s">
-        <v>400</v>
-      </c>
-      <c r="D19">
-        <v>1999</v>
-      </c>
-      <c r="E19" t="s">
-        <v>5278</v>
-      </c>
-      <c r="F19" t="s">
-        <v>5279</v>
-      </c>
-      <c r="G19" t="s">
-        <v>5029</v>
-      </c>
-      <c r="H19">
-        <v>177</v>
-      </c>
-      <c r="I19" t="s">
-        <v>5029</v>
-      </c>
-      <c r="J19" t="s">
-        <v>5029</v>
-      </c>
-      <c r="K19" t="s">
-        <v>5029</v>
-      </c>
-      <c r="L19" t="s">
-        <v>399</v>
-      </c>
-      <c r="M19" t="s">
-        <v>963</v>
-      </c>
-      <c r="N19" t="s">
-        <v>963</v>
-      </c>
-      <c r="O19" t="s">
-        <v>966</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>5029</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>5372</v>
+        <v>5366</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B2">
     <cfRule type="duplicateValues" dxfId="24" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
+  <conditionalFormatting sqref="B17">
     <cfRule type="duplicateValues" dxfId="23" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
+  <conditionalFormatting sqref="B18">
     <cfRule type="duplicateValues" dxfId="22" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
@@ -50645,12 +50577,12 @@
       <formula>LEN(TRIM(F1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18:F19">
+  <conditionalFormatting sqref="F17:F18">
     <cfRule type="containsBlanks" dxfId="20" priority="15">
-      <formula>LEN(TRIM(F18))=0</formula>
+      <formula>LEN(TRIM(F17))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H17 H20:H1048576">
+  <conditionalFormatting sqref="H19:H1048576 H1:H16">
     <cfRule type="containsBlanks" dxfId="19" priority="38">
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
@@ -50658,13 +50590,13 @@
   <conditionalFormatting sqref="L2">
     <cfRule type="duplicateValues" dxfId="18" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L18">
+  <conditionalFormatting sqref="L17">
     <cfRule type="duplicateValues" dxfId="17" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L19">
+  <conditionalFormatting sqref="L18">
     <cfRule type="duplicateValues" dxfId="16" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:O19">
+  <conditionalFormatting sqref="M2:O18">
     <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="PRIMARY STUDY">
       <formula>NOT(ISERROR(SEARCH("PRIMARY STUDY",M2)))</formula>
     </cfRule>
@@ -50675,18 +50607,20 @@
       <formula>NOT(ISERROR(SEARCH("YES",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O18:O19 P1:P1048576">
+  <conditionalFormatting sqref="O17:O18 P1:P1048576">
     <cfRule type="cellIs" dxfId="12" priority="10" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="X">
-      <formula>NOT(ISERROR(SEARCH("X",O1)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O17:P18">
+    <cfRule type="containsBlanks" dxfId="11" priority="1">
+      <formula>LEN(TRIM(O17))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O18:P19">
-    <cfRule type="containsBlanks" dxfId="10" priority="1">
-      <formula>LEN(TRIM(O18))=0</formula>
+  <conditionalFormatting sqref="O17:O18 P1:P1048576">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH("X",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1 Q4">

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716267EF-05B1-4B0E-996C-517D07DA0F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F59C4BC-1D8D-4185-866E-15E3AE35A458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -590,7 +590,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -616,7 +616,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="Q6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -694,7 +694,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10250" uniqueCount="5369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10247" uniqueCount="5367">
   <si>
     <t>Number</t>
   </si>
@@ -15774,9 +15774,6 @@
     <t>https://www.scirp.org/pdf/ME_2016042915390861.pdf</t>
   </si>
   <si>
-    <t>Ability bias</t>
-  </si>
-  <si>
     <t>Is aware of ability bias, but does not control for it</t>
   </si>
   <si>
@@ -16039,9 +16036,6 @@
   </si>
   <si>
     <t>https://www.econstor.eu/bitstream/10419/99046/1/dp8235.pdf</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>Gensowski (2018)</t>
@@ -16917,7 +16911,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -17124,17 +17118,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -17187,7 +17170,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -17946,26 +17929,26 @@
         <v>962</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>5133</v>
+        <v>5131</v>
       </c>
       <c r="O1" s="25" t="s">
-        <v>5131</v>
+        <v>5129</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>5139</v>
+        <v>5137</v>
       </c>
       <c r="Q1" s="28" t="s">
+        <v>5037</v>
+      </c>
+      <c r="R1" s="29">
+        <f>COUNTIFS($M:$M, "YES", $F:$F, "&lt;&gt;") + Twins!R1</f>
+        <v>96</v>
+      </c>
+      <c r="T1" s="28" t="s">
         <v>5038</v>
       </c>
-      <c r="R1" s="29">
-        <f>COUNTIFS($M:$M, "YES", $F:$F, "&lt;&gt;") + Twins!S1</f>
-        <v>96</v>
-      </c>
-      <c r="T1" s="28" t="s">
-        <v>5039</v>
-      </c>
       <c r="U1" s="29">
-        <f>COUNTIF($L$2:$L$575, "&lt;&gt; ") +Twins!V1</f>
+        <f>COUNTIF($L$2:$L$575, "&lt;&gt; ") +Twins!U1</f>
         <v>242</v>
       </c>
       <c r="V1" s="31"/>
@@ -18067,7 +18050,7 @@
         <v>966</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R3" t="s">
         <v>904</v>
@@ -18117,7 +18100,7 @@
         <v>966</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>3900</v>
@@ -18127,7 +18110,7 @@
         <v>574</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>5137</v>
+        <v>5135</v>
       </c>
       <c r="U4">
         <f>COUNTIFS($M:$M, "YES", $L:$L, "&lt;&gt;PRIMARY STUDY", $P:$P, "&lt;&gt;Twins")</f>
@@ -18178,7 +18161,7 @@
         <v>966</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>3908</v>
@@ -18188,7 +18171,7 @@
         <v>574</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>5134</v>
+        <v>5132</v>
       </c>
       <c r="U5" s="37">
         <f>COUNTIFS($N:$N, "YES", $F:$F, "&lt;&gt;")</f>
@@ -18239,7 +18222,7 @@
         <v>966</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>3909</v>
@@ -18293,10 +18276,10 @@
         <v>966</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P7" t="s">
-        <v>5363</v>
+        <v>5361</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>904</v>
@@ -18447,7 +18430,7 @@
         <v>966</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -18497,10 +18480,10 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>5138</v>
+        <v>5136</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>5132</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -18547,13 +18530,13 @@
         <v>966</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="Q12">
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>5135</v>
+        <v>5133</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -18600,13 +18583,13 @@
         <v>966</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="Q13">
         <v>2</v>
       </c>
       <c r="R13" t="s">
-        <v>5136</v>
+        <v>5134</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -18653,13 +18636,13 @@
         <v>966</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="Q14">
         <v>3</v>
       </c>
       <c r="R14" t="s">
-        <v>5027</v>
+        <v>5026</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -18712,7 +18695,7 @@
         <v>4</v>
       </c>
       <c r="R15" t="s">
-        <v>5028</v>
+        <v>5027</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -18809,7 +18792,7 @@
         <v>4</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>5033</v>
+        <v>5032</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -18856,10 +18839,10 @@
         <v>966</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="Q18" t="s">
-        <v>5032</v>
+        <v>5031</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -18906,10 +18889,10 @@
         <v>966</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="Q19" t="s">
-        <v>5032</v>
+        <v>5031</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -18956,7 +18939,7 @@
         <v>966</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R20" t="s">
         <v>904</v>
@@ -19006,7 +18989,7 @@
         <v>966</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>5030</v>
+        <v>5029</v>
       </c>
       <c r="R21" t="s">
         <v>904</v>
@@ -19056,7 +19039,7 @@
         <v>966</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R22" t="s">
         <v>904</v>
@@ -19106,7 +19089,7 @@
         <v>966</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R23" t="s">
         <v>904</v>
@@ -19156,7 +19139,7 @@
         <v>966</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R24" t="s">
         <v>904</v>
@@ -19256,7 +19239,7 @@
         <v>966</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R26" t="s">
         <v>904</v>
@@ -19356,7 +19339,7 @@
         <v>966</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R28" t="s">
         <v>904</v>
@@ -19367,7 +19350,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>5035</v>
+        <v>5034</v>
       </c>
       <c r="C29" t="s">
         <v>4728</v>
@@ -19406,7 +19389,7 @@
         <v>966</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>5030</v>
+        <v>5029</v>
       </c>
       <c r="R29" t="s">
         <v>904</v>
@@ -19456,7 +19439,7 @@
         <v>966</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R30" t="s">
         <v>904</v>
@@ -19556,7 +19539,7 @@
         <v>966</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R32" t="s">
         <v>904</v>
@@ -19606,7 +19589,7 @@
         <v>966</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R33" t="s">
         <v>904</v>
@@ -19706,7 +19689,7 @@
         <v>966</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R35" t="s">
         <v>904</v>
@@ -19859,7 +19842,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>5138</v>
+        <v>5136</v>
       </c>
       <c r="R38" t="s">
         <v>904</v>
@@ -20012,7 +19995,7 @@
         <v>2</v>
       </c>
       <c r="P41" t="s">
-        <v>5149</v>
+        <v>5147</v>
       </c>
       <c r="R41" t="s">
         <v>904</v>
@@ -20062,7 +20045,7 @@
         <v>966</v>
       </c>
       <c r="O42" s="33" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R42" s="27" t="s">
         <v>904</v>
@@ -20212,7 +20195,7 @@
         <v>966</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R45" t="s">
         <v>904</v>
@@ -20312,7 +20295,7 @@
         <v>966</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R47" t="s">
         <v>904</v>
@@ -20362,7 +20345,7 @@
         <v>966</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R48" t="s">
         <v>904</v>
@@ -20512,7 +20495,7 @@
         <v>966</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R51" t="s">
         <v>904</v>
@@ -20562,7 +20545,7 @@
         <v>966</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R52" t="s">
         <v>904</v>
@@ -20662,7 +20645,7 @@
         <v>966</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R54" t="s">
         <v>904</v>
@@ -20762,7 +20745,7 @@
         <v>966</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R56" t="s">
         <v>904</v>
@@ -20815,7 +20798,7 @@
         <v>2</v>
       </c>
       <c r="P57" t="s">
-        <v>5141</v>
+        <v>5139</v>
       </c>
       <c r="R57" t="s">
         <v>904</v>
@@ -20865,7 +20848,7 @@
         <v>966</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R58" t="s">
         <v>904</v>
@@ -20965,7 +20948,7 @@
         <v>966</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R60" t="s">
         <v>904</v>
@@ -21015,7 +20998,7 @@
         <v>966</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R61" t="s">
         <v>904</v>
@@ -21315,7 +21298,7 @@
         <v>966</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R67" t="s">
         <v>904</v>
@@ -21415,7 +21398,7 @@
         <v>966</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R69" t="s">
         <v>904</v>
@@ -21465,7 +21448,7 @@
         <v>966</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R70" t="s">
         <v>904</v>
@@ -21515,7 +21498,7 @@
         <v>966</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R71" t="s">
         <v>904</v>
@@ -21615,7 +21598,7 @@
         <v>966</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R73" t="s">
         <v>904</v>
@@ -21665,7 +21648,7 @@
         <v>966</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R74" t="s">
         <v>904</v>
@@ -21715,7 +21698,7 @@
         <v>966</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R75" t="s">
         <v>904</v>
@@ -21765,7 +21748,7 @@
         <v>966</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R76" t="s">
         <v>904</v>
@@ -21865,7 +21848,7 @@
         <v>966</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R78" t="s">
         <v>904</v>
@@ -21965,7 +21948,7 @@
         <v>966</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R80" t="s">
         <v>904</v>
@@ -22015,7 +21998,7 @@
         <v>966</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R81" t="s">
         <v>904</v>
@@ -22115,7 +22098,7 @@
         <v>966</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R83" t="s">
         <v>904</v>
@@ -22265,7 +22248,7 @@
         <v>966</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R86" t="s">
         <v>904</v>
@@ -22365,7 +22348,7 @@
         <v>966</v>
       </c>
       <c r="O88" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R88" t="s">
         <v>904</v>
@@ -22468,7 +22451,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>5142</v>
+        <v>5140</v>
       </c>
       <c r="R90" t="s">
         <v>904</v>
@@ -22479,7 +22462,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>5143</v>
+        <v>5141</v>
       </c>
       <c r="C91" t="s">
         <v>4015</v>
@@ -22568,7 +22551,7 @@
         <v>966</v>
       </c>
       <c r="O92" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R92" t="s">
         <v>904</v>
@@ -22618,7 +22601,7 @@
         <v>966</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R93" t="s">
         <v>904</v>
@@ -22668,7 +22651,7 @@
         <v>966</v>
       </c>
       <c r="O94" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R94" t="s">
         <v>904</v>
@@ -22718,7 +22701,7 @@
         <v>966</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R95" t="s">
         <v>904</v>
@@ -22768,7 +22751,7 @@
         <v>966</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>5030</v>
+        <v>5029</v>
       </c>
       <c r="R96" t="s">
         <v>904</v>
@@ -22868,7 +22851,7 @@
         <v>966</v>
       </c>
       <c r="O98" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R98" t="s">
         <v>904</v>
@@ -22918,7 +22901,7 @@
         <v>966</v>
       </c>
       <c r="O99" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R99" t="s">
         <v>904</v>
@@ -22968,7 +22951,7 @@
         <v>966</v>
       </c>
       <c r="O100" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R100" t="s">
         <v>904</v>
@@ -23018,7 +23001,7 @@
         <v>966</v>
       </c>
       <c r="O101" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R101" t="s">
         <v>904</v>
@@ -23118,7 +23101,7 @@
         <v>966</v>
       </c>
       <c r="O103" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R103" t="s">
         <v>904</v>
@@ -23218,7 +23201,7 @@
         <v>966</v>
       </c>
       <c r="O105" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R105" t="s">
         <v>904</v>
@@ -23268,7 +23251,7 @@
         <v>966</v>
       </c>
       <c r="O106" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R106" t="s">
         <v>904</v>
@@ -23368,7 +23351,7 @@
         <v>966</v>
       </c>
       <c r="O108" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R108" t="s">
         <v>904</v>
@@ -23418,7 +23401,7 @@
         <v>966</v>
       </c>
       <c r="O109" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R109" t="s">
         <v>904</v>
@@ -23471,7 +23454,7 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>5144</v>
+        <v>5142</v>
       </c>
       <c r="R110" t="s">
         <v>904</v>
@@ -23521,7 +23504,7 @@
         <v>966</v>
       </c>
       <c r="O111" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R111" t="s">
         <v>904</v>
@@ -23571,7 +23554,7 @@
         <v>966</v>
       </c>
       <c r="O112" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R112" t="s">
         <v>904</v>
@@ -23821,7 +23804,7 @@
         <v>966</v>
       </c>
       <c r="O117" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R117" t="s">
         <v>904</v>
@@ -23924,7 +23907,7 @@
         <v>4</v>
       </c>
       <c r="P119" t="s">
-        <v>5145</v>
+        <v>5143</v>
       </c>
       <c r="R119" t="s">
         <v>904</v>
@@ -23974,10 +23957,10 @@
         <v>966</v>
       </c>
       <c r="O120" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P120" t="s">
-        <v>5031</v>
+        <v>5030</v>
       </c>
       <c r="R120" t="s">
         <v>904</v>
@@ -24127,7 +24110,7 @@
         <v>966</v>
       </c>
       <c r="O123" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R123" t="s">
         <v>904</v>
@@ -24227,7 +24210,7 @@
         <v>966</v>
       </c>
       <c r="O125" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R125" t="s">
         <v>904</v>
@@ -24377,7 +24360,7 @@
         <v>966</v>
       </c>
       <c r="O128" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R128" t="s">
         <v>904</v>
@@ -24427,7 +24410,7 @@
         <v>966</v>
       </c>
       <c r="O129" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R129" t="s">
         <v>904</v>
@@ -24477,7 +24460,7 @@
         <v>966</v>
       </c>
       <c r="O130" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R130" t="s">
         <v>904</v>
@@ -24624,7 +24607,7 @@
         <v>966</v>
       </c>
       <c r="O133" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R133" t="s">
         <v>904</v>
@@ -24674,7 +24657,7 @@
         <v>966</v>
       </c>
       <c r="O134" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R134" t="s">
         <v>904</v>
@@ -24777,7 +24760,7 @@
         <v>2</v>
       </c>
       <c r="P136" t="s">
-        <v>5040</v>
+        <v>5039</v>
       </c>
       <c r="R136" t="s">
         <v>904</v>
@@ -24877,7 +24860,7 @@
         <v>966</v>
       </c>
       <c r="O138" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R138" t="s">
         <v>904</v>
@@ -25015,7 +24998,7 @@
         <v>2023</v>
       </c>
       <c r="K141" t="s">
-        <v>5041</v>
+        <v>5040</v>
       </c>
       <c r="L141" t="s">
         <v>963</v>
@@ -25077,7 +25060,7 @@
         <v>966</v>
       </c>
       <c r="O142" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R142" t="s">
         <v>904</v>
@@ -25127,7 +25110,7 @@
         <v>966</v>
       </c>
       <c r="O143" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R143" t="s">
         <v>904</v>
@@ -25177,7 +25160,7 @@
         <v>966</v>
       </c>
       <c r="O144" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R144" t="s">
         <v>904</v>
@@ -25218,7 +25201,7 @@
         <v>1765</v>
       </c>
       <c r="L145" t="s">
-        <v>5146</v>
+        <v>5144</v>
       </c>
       <c r="M145" t="s">
         <v>966</v>
@@ -25238,7 +25221,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>5147</v>
+        <v>5145</v>
       </c>
       <c r="C146" t="s">
         <v>4080</v>
@@ -25250,7 +25233,7 @@
         <v>1766</v>
       </c>
       <c r="F146" t="s">
-        <v>5148</v>
+        <v>5146</v>
       </c>
       <c r="G146" t="s">
         <v>1768</v>
@@ -25280,7 +25263,7 @@
         <v>1</v>
       </c>
       <c r="P146" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="R146" t="s">
         <v>904</v>
@@ -25380,7 +25363,7 @@
         <v>966</v>
       </c>
       <c r="O148" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R148" t="s">
         <v>904</v>
@@ -25430,7 +25413,7 @@
         <v>966</v>
       </c>
       <c r="O149" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R149" t="s">
         <v>904</v>
@@ -25441,7 +25424,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>5150</v>
+        <v>5148</v>
       </c>
       <c r="C150" t="s">
         <v>4085</v>
@@ -25450,13 +25433,13 @@
         <v>2012</v>
       </c>
       <c r="E150" t="s">
+        <v>5149</v>
+      </c>
+      <c r="F150" t="s">
+        <v>5150</v>
+      </c>
+      <c r="G150" t="s">
         <v>5151</v>
-      </c>
-      <c r="F150" t="s">
-        <v>5152</v>
-      </c>
-      <c r="G150" t="s">
-        <v>5153</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -25533,7 +25516,7 @@
         <v>3</v>
       </c>
       <c r="P151" t="s">
-        <v>5043</v>
+        <v>5042</v>
       </c>
       <c r="R151" t="s">
         <v>904</v>
@@ -25583,7 +25566,7 @@
         <v>966</v>
       </c>
       <c r="O152" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R152" t="s">
         <v>904</v>
@@ -25633,7 +25616,7 @@
         <v>966</v>
       </c>
       <c r="O153" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R153" t="s">
         <v>904</v>
@@ -25733,7 +25716,7 @@
         <v>966</v>
       </c>
       <c r="O155" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R155" t="s">
         <v>904</v>
@@ -25783,7 +25766,7 @@
         <v>966</v>
       </c>
       <c r="O156" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R156" t="s">
         <v>904</v>
@@ -25833,7 +25816,7 @@
         <v>966</v>
       </c>
       <c r="O157" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R157" t="s">
         <v>904</v>
@@ -25883,7 +25866,7 @@
         <v>966</v>
       </c>
       <c r="O158" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R158" t="s">
         <v>904</v>
@@ -25933,7 +25916,7 @@
         <v>966</v>
       </c>
       <c r="O159" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R159" t="s">
         <v>904</v>
@@ -25944,7 +25927,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>5034</v>
+        <v>5033</v>
       </c>
       <c r="C160" t="s">
         <v>4728</v>
@@ -25983,7 +25966,7 @@
         <v>966</v>
       </c>
       <c r="O160" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R160" t="s">
         <v>904</v>
@@ -26036,7 +26019,7 @@
         <v>2</v>
       </c>
       <c r="P161" t="s">
-        <v>5044</v>
+        <v>5043</v>
       </c>
       <c r="R161" t="s">
         <v>904</v>
@@ -26086,7 +26069,7 @@
         <v>966</v>
       </c>
       <c r="O162" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R162" t="s">
         <v>904</v>
@@ -26139,7 +26122,7 @@
         <v>3</v>
       </c>
       <c r="P163" t="s">
-        <v>5045</v>
+        <v>5044</v>
       </c>
       <c r="R163" t="s">
         <v>904</v>
@@ -26189,7 +26172,7 @@
         <v>966</v>
       </c>
       <c r="O164" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R164" t="s">
         <v>904</v>
@@ -26239,7 +26222,7 @@
         <v>966</v>
       </c>
       <c r="O165" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R165" t="s">
         <v>904</v>
@@ -26389,7 +26372,7 @@
         <v>966</v>
       </c>
       <c r="O168" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R168" t="s">
         <v>904</v>
@@ -26489,7 +26472,7 @@
         <v>966</v>
       </c>
       <c r="O170" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R170" t="s">
         <v>904</v>
@@ -26539,7 +26522,7 @@
         <v>966</v>
       </c>
       <c r="O171" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R171" t="s">
         <v>904</v>
@@ -26589,7 +26572,7 @@
         <v>966</v>
       </c>
       <c r="O172" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R172" t="s">
         <v>904</v>
@@ -26739,7 +26722,7 @@
         <v>966</v>
       </c>
       <c r="O175" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R175" t="s">
         <v>904</v>
@@ -26789,7 +26772,7 @@
         <v>966</v>
       </c>
       <c r="O176" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R176" t="s">
         <v>904</v>
@@ -26839,10 +26822,10 @@
         <v>966</v>
       </c>
       <c r="O177" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P177" t="s">
-        <v>5046</v>
+        <v>5045</v>
       </c>
       <c r="R177" t="s">
         <v>904</v>
@@ -26892,7 +26875,7 @@
         <v>966</v>
       </c>
       <c r="O178" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R178" t="s">
         <v>904</v>
@@ -26942,7 +26925,7 @@
         <v>966</v>
       </c>
       <c r="O179" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R179" t="s">
         <v>904</v>
@@ -26992,7 +26975,7 @@
         <v>966</v>
       </c>
       <c r="O180" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R180" t="s">
         <v>904</v>
@@ -27042,7 +27025,7 @@
         <v>966</v>
       </c>
       <c r="O181" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R181" t="s">
         <v>904</v>
@@ -27092,7 +27075,7 @@
         <v>966</v>
       </c>
       <c r="O182" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R182" t="s">
         <v>904</v>
@@ -27142,7 +27125,7 @@
         <v>966</v>
       </c>
       <c r="O183" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R183" t="s">
         <v>904</v>
@@ -27192,7 +27175,7 @@
         <v>966</v>
       </c>
       <c r="O184" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R184" t="s">
         <v>904</v>
@@ -27292,7 +27275,7 @@
         <v>966</v>
       </c>
       <c r="O186" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R186" t="s">
         <v>904</v>
@@ -27345,7 +27328,7 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>5138</v>
+        <v>5136</v>
       </c>
       <c r="R187" t="s">
         <v>904</v>
@@ -27395,7 +27378,7 @@
         <v>966</v>
       </c>
       <c r="O188" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R188" t="s">
         <v>904</v>
@@ -27448,7 +27431,7 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>5068</v>
+        <v>5067</v>
       </c>
       <c r="R189" t="s">
         <v>904</v>
@@ -27498,10 +27481,10 @@
         <v>966</v>
       </c>
       <c r="O190" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P190" t="s">
-        <v>5069</v>
+        <v>5068</v>
       </c>
       <c r="R190" t="s">
         <v>904</v>
@@ -27651,7 +27634,7 @@
         <v>966</v>
       </c>
       <c r="O193" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R193" t="s">
         <v>904</v>
@@ -27851,7 +27834,7 @@
         <v>966</v>
       </c>
       <c r="O197" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R197" t="s">
         <v>904</v>
@@ -27901,7 +27884,7 @@
         <v>966</v>
       </c>
       <c r="O198" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R198" t="s">
         <v>904</v>
@@ -27951,7 +27934,7 @@
         <v>966</v>
       </c>
       <c r="O199" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R199" t="s">
         <v>904</v>
@@ -28051,7 +28034,7 @@
         <v>966</v>
       </c>
       <c r="O201" s="36" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R201" s="35" t="s">
         <v>904</v>
@@ -28095,7 +28078,7 @@
         <v>904</v>
       </c>
       <c r="O202" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R202" t="s">
         <v>904</v>
@@ -28139,7 +28122,7 @@
         <v>904</v>
       </c>
       <c r="O203" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R203" t="s">
         <v>904</v>
@@ -28183,7 +28166,7 @@
         <v>904</v>
       </c>
       <c r="O204" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R204" t="s">
         <v>904</v>
@@ -28227,7 +28210,7 @@
         <v>904</v>
       </c>
       <c r="O205" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R205" t="s">
         <v>904</v>
@@ -28271,7 +28254,7 @@
         <v>904</v>
       </c>
       <c r="O206" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R206" t="s">
         <v>904</v>
@@ -28315,7 +28298,7 @@
         <v>904</v>
       </c>
       <c r="O207" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R207" t="s">
         <v>904</v>
@@ -28359,7 +28342,7 @@
         <v>904</v>
       </c>
       <c r="O208" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R208" t="s">
         <v>904</v>
@@ -28403,7 +28386,7 @@
         <v>904</v>
       </c>
       <c r="O209" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R209" t="s">
         <v>904</v>
@@ -28447,7 +28430,7 @@
         <v>904</v>
       </c>
       <c r="O210" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R210" t="s">
         <v>904</v>
@@ -28491,7 +28474,7 @@
         <v>904</v>
       </c>
       <c r="O211" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R211" t="s">
         <v>904</v>
@@ -28535,7 +28518,7 @@
         <v>904</v>
       </c>
       <c r="O212" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R212" t="s">
         <v>904</v>
@@ -28579,7 +28562,7 @@
         <v>904</v>
       </c>
       <c r="O213" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R213" t="s">
         <v>904</v>
@@ -28623,7 +28606,7 @@
         <v>904</v>
       </c>
       <c r="O214" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R214" t="s">
         <v>904</v>
@@ -28667,7 +28650,7 @@
         <v>904</v>
       </c>
       <c r="O215" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R215" t="s">
         <v>904</v>
@@ -28711,7 +28694,7 @@
         <v>904</v>
       </c>
       <c r="O216" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R216" t="s">
         <v>904</v>
@@ -28755,7 +28738,7 @@
         <v>904</v>
       </c>
       <c r="O217" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R217" t="s">
         <v>904</v>
@@ -28799,7 +28782,7 @@
         <v>904</v>
       </c>
       <c r="O218" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R218" t="s">
         <v>904</v>
@@ -28843,7 +28826,7 @@
         <v>904</v>
       </c>
       <c r="O219" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R219" t="s">
         <v>904</v>
@@ -28887,7 +28870,7 @@
         <v>904</v>
       </c>
       <c r="O220" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R220" t="s">
         <v>904</v>
@@ -28931,7 +28914,7 @@
         <v>904</v>
       </c>
       <c r="O221" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R221" t="s">
         <v>904</v>
@@ -28975,7 +28958,7 @@
         <v>904</v>
       </c>
       <c r="O222" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R222" t="s">
         <v>904</v>
@@ -29019,7 +29002,7 @@
         <v>904</v>
       </c>
       <c r="O223" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R223" t="s">
         <v>904</v>
@@ -29063,7 +29046,7 @@
         <v>904</v>
       </c>
       <c r="O224" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R224" t="s">
         <v>904</v>
@@ -29107,7 +29090,7 @@
         <v>904</v>
       </c>
       <c r="O225" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R225" t="s">
         <v>904</v>
@@ -29151,7 +29134,7 @@
         <v>904</v>
       </c>
       <c r="O226" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R226" t="s">
         <v>904</v>
@@ -29195,7 +29178,7 @@
         <v>904</v>
       </c>
       <c r="O227" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R227" t="s">
         <v>904</v>
@@ -29239,7 +29222,7 @@
         <v>904</v>
       </c>
       <c r="O228" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R228" t="s">
         <v>904</v>
@@ -29283,7 +29266,7 @@
         <v>904</v>
       </c>
       <c r="O229" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R229" t="s">
         <v>904</v>
@@ -29327,7 +29310,7 @@
         <v>904</v>
       </c>
       <c r="O230" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R230" t="s">
         <v>904</v>
@@ -29371,7 +29354,7 @@
         <v>904</v>
       </c>
       <c r="O231" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R231" t="s">
         <v>904</v>
@@ -29415,7 +29398,7 @@
         <v>904</v>
       </c>
       <c r="O232" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R232" t="s">
         <v>904</v>
@@ -29459,7 +29442,7 @@
         <v>904</v>
       </c>
       <c r="O233" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R233" t="s">
         <v>904</v>
@@ -29503,7 +29486,7 @@
         <v>904</v>
       </c>
       <c r="O234" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R234" t="s">
         <v>904</v>
@@ -29547,7 +29530,7 @@
         <v>904</v>
       </c>
       <c r="O235" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R235" t="s">
         <v>904</v>
@@ -29591,7 +29574,7 @@
         <v>904</v>
       </c>
       <c r="O236" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R236" t="s">
         <v>904</v>
@@ -29635,7 +29618,7 @@
         <v>904</v>
       </c>
       <c r="O237" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R237" t="s">
         <v>904</v>
@@ -29679,7 +29662,7 @@
         <v>904</v>
       </c>
       <c r="O238" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R238" t="s">
         <v>904</v>
@@ -29723,7 +29706,7 @@
         <v>904</v>
       </c>
       <c r="O239" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R239" t="s">
         <v>904</v>
@@ -29734,7 +29717,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>5070</v>
+        <v>5069</v>
       </c>
       <c r="C240" t="s">
         <v>4786</v>
@@ -29767,7 +29750,7 @@
         <v>966</v>
       </c>
       <c r="O240" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R240" t="s">
         <v>904</v>
@@ -29811,7 +29794,7 @@
         <v>904</v>
       </c>
       <c r="O241" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R241" t="s">
         <v>904</v>
@@ -29855,7 +29838,7 @@
         <v>904</v>
       </c>
       <c r="O242" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R242" t="s">
         <v>904</v>
@@ -29899,7 +29882,7 @@
         <v>904</v>
       </c>
       <c r="O243" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R243" t="s">
         <v>904</v>
@@ -29943,7 +29926,7 @@
         <v>904</v>
       </c>
       <c r="O244" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R244" t="s">
         <v>904</v>
@@ -29987,7 +29970,7 @@
         <v>904</v>
       </c>
       <c r="O245" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R245" t="s">
         <v>904</v>
@@ -30007,10 +29990,10 @@
         <v>2001</v>
       </c>
       <c r="E246" t="s">
+        <v>5035</v>
+      </c>
+      <c r="F246" t="s">
         <v>5036</v>
-      </c>
-      <c r="F246" t="s">
-        <v>5037</v>
       </c>
       <c r="G246" t="s">
         <v>2253</v>
@@ -30031,7 +30014,7 @@
         <v>904</v>
       </c>
       <c r="O246" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R246" t="s">
         <v>904</v>
@@ -30075,7 +30058,7 @@
         <v>904</v>
       </c>
       <c r="O247" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R247" t="s">
         <v>904</v>
@@ -30119,7 +30102,7 @@
         <v>904</v>
       </c>
       <c r="O248" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R248" t="s">
         <v>904</v>
@@ -30163,7 +30146,7 @@
         <v>904</v>
       </c>
       <c r="O249" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R249" t="s">
         <v>904</v>
@@ -30207,7 +30190,7 @@
         <v>904</v>
       </c>
       <c r="O250" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R250" t="s">
         <v>904</v>
@@ -30251,7 +30234,7 @@
         <v>904</v>
       </c>
       <c r="O251" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R251" t="s">
         <v>904</v>
@@ -30295,7 +30278,7 @@
         <v>904</v>
       </c>
       <c r="O252" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R252" t="s">
         <v>904</v>
@@ -30339,7 +30322,7 @@
         <v>904</v>
       </c>
       <c r="O253" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R253" t="s">
         <v>904</v>
@@ -30386,7 +30369,7 @@
         <v>966</v>
       </c>
       <c r="O254" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R254" t="s">
         <v>904</v>
@@ -30427,7 +30410,7 @@
         <v>904</v>
       </c>
       <c r="O255" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R255" t="s">
         <v>904</v>
@@ -30471,7 +30454,7 @@
         <v>904</v>
       </c>
       <c r="O256" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R256" t="s">
         <v>904</v>
@@ -30515,7 +30498,7 @@
         <v>904</v>
       </c>
       <c r="O257" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R257" t="s">
         <v>904</v>
@@ -30559,7 +30542,7 @@
         <v>904</v>
       </c>
       <c r="O258" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R258" t="s">
         <v>904</v>
@@ -30603,7 +30586,7 @@
         <v>904</v>
       </c>
       <c r="O259" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R259" t="s">
         <v>904</v>
@@ -30647,7 +30630,7 @@
         <v>904</v>
       </c>
       <c r="O260" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R260" t="s">
         <v>904</v>
@@ -30691,7 +30674,7 @@
         <v>904</v>
       </c>
       <c r="O261" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R261" t="s">
         <v>904</v>
@@ -30735,7 +30718,7 @@
         <v>904</v>
       </c>
       <c r="O262" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R262" t="s">
         <v>904</v>
@@ -30779,7 +30762,7 @@
         <v>904</v>
       </c>
       <c r="O263" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R263" t="s">
         <v>904</v>
@@ -30823,7 +30806,7 @@
         <v>904</v>
       </c>
       <c r="O264" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R264" t="s">
         <v>904</v>
@@ -30867,7 +30850,7 @@
         <v>904</v>
       </c>
       <c r="O265" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R265" t="s">
         <v>904</v>
@@ -30911,7 +30894,7 @@
         <v>904</v>
       </c>
       <c r="O266" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R266" t="s">
         <v>904</v>
@@ -30955,7 +30938,7 @@
         <v>904</v>
       </c>
       <c r="O267" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R267" t="s">
         <v>904</v>
@@ -30999,7 +30982,7 @@
         <v>904</v>
       </c>
       <c r="O268" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R268" t="s">
         <v>904</v>
@@ -31043,7 +31026,7 @@
         <v>904</v>
       </c>
       <c r="O269" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R269" t="s">
         <v>904</v>
@@ -31087,7 +31070,7 @@
         <v>904</v>
       </c>
       <c r="O270" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R270" t="s">
         <v>904</v>
@@ -31131,7 +31114,7 @@
         <v>904</v>
       </c>
       <c r="O271" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R271" t="s">
         <v>904</v>
@@ -31175,7 +31158,7 @@
         <v>904</v>
       </c>
       <c r="O272" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R272" t="s">
         <v>904</v>
@@ -31219,7 +31202,7 @@
         <v>904</v>
       </c>
       <c r="O273" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R273" t="s">
         <v>904</v>
@@ -31263,7 +31246,7 @@
         <v>904</v>
       </c>
       <c r="O274" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R274" t="s">
         <v>904</v>
@@ -31310,7 +31293,7 @@
         <v>966</v>
       </c>
       <c r="O275" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R275" t="s">
         <v>904</v>
@@ -31354,7 +31337,7 @@
         <v>904</v>
       </c>
       <c r="O276" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R276" t="s">
         <v>904</v>
@@ -31398,7 +31381,7 @@
         <v>904</v>
       </c>
       <c r="O277" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R277" t="s">
         <v>904</v>
@@ -31442,7 +31425,7 @@
         <v>904</v>
       </c>
       <c r="O278" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R278" t="s">
         <v>904</v>
@@ -31489,7 +31472,7 @@
         <v>966</v>
       </c>
       <c r="O279" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R279" t="s">
         <v>904</v>
@@ -31536,7 +31519,7 @@
         <v>966</v>
       </c>
       <c r="O280" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R280" t="s">
         <v>904</v>
@@ -31580,7 +31563,7 @@
         <v>904</v>
       </c>
       <c r="O281" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R281" t="s">
         <v>904</v>
@@ -31624,7 +31607,7 @@
         <v>904</v>
       </c>
       <c r="O282" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R282" t="s">
         <v>904</v>
@@ -31668,7 +31651,7 @@
         <v>904</v>
       </c>
       <c r="O283" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R283" t="s">
         <v>904</v>
@@ -31712,7 +31695,7 @@
         <v>904</v>
       </c>
       <c r="O284" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R284" t="s">
         <v>904</v>
@@ -31756,7 +31739,7 @@
         <v>904</v>
       </c>
       <c r="O285" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R285" t="s">
         <v>904</v>
@@ -31800,7 +31783,7 @@
         <v>904</v>
       </c>
       <c r="O286" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R286" t="s">
         <v>904</v>
@@ -31844,7 +31827,7 @@
         <v>904</v>
       </c>
       <c r="O287" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R287" t="s">
         <v>904</v>
@@ -31888,7 +31871,7 @@
         <v>904</v>
       </c>
       <c r="O288" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R288" t="s">
         <v>904</v>
@@ -31932,7 +31915,7 @@
         <v>904</v>
       </c>
       <c r="O289" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R289" t="s">
         <v>904</v>
@@ -31973,7 +31956,7 @@
         <v>904</v>
       </c>
       <c r="O290" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R290" t="s">
         <v>904</v>
@@ -32017,7 +32000,7 @@
         <v>904</v>
       </c>
       <c r="O291" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R291" t="s">
         <v>904</v>
@@ -32061,7 +32044,7 @@
         <v>904</v>
       </c>
       <c r="O292" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R292" t="s">
         <v>904</v>
@@ -32105,7 +32088,7 @@
         <v>904</v>
       </c>
       <c r="O293" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R293" t="s">
         <v>904</v>
@@ -32149,7 +32132,7 @@
         <v>904</v>
       </c>
       <c r="O294" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R294" t="s">
         <v>904</v>
@@ -32193,7 +32176,7 @@
         <v>904</v>
       </c>
       <c r="O295" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R295" t="s">
         <v>904</v>
@@ -32237,7 +32220,7 @@
         <v>904</v>
       </c>
       <c r="O296" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R296" t="s">
         <v>904</v>
@@ -32281,7 +32264,7 @@
         <v>904</v>
       </c>
       <c r="O297" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R297" t="s">
         <v>904</v>
@@ -32325,7 +32308,7 @@
         <v>904</v>
       </c>
       <c r="O298" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R298" t="s">
         <v>904</v>
@@ -32369,7 +32352,7 @@
         <v>904</v>
       </c>
       <c r="O299" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R299" t="s">
         <v>904</v>
@@ -32413,7 +32396,7 @@
         <v>904</v>
       </c>
       <c r="O300" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R300" t="s">
         <v>904</v>
@@ -32457,7 +32440,7 @@
         <v>904</v>
       </c>
       <c r="O301" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R301" t="s">
         <v>904</v>
@@ -32501,7 +32484,7 @@
         <v>904</v>
       </c>
       <c r="O302" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R302" t="s">
         <v>904</v>
@@ -32545,7 +32528,7 @@
         <v>904</v>
       </c>
       <c r="O303" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R303" t="s">
         <v>904</v>
@@ -32589,7 +32572,7 @@
         <v>904</v>
       </c>
       <c r="O304" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R304" t="s">
         <v>904</v>
@@ -32633,7 +32616,7 @@
         <v>904</v>
       </c>
       <c r="O305" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R305" t="s">
         <v>904</v>
@@ -32677,7 +32660,7 @@
         <v>904</v>
       </c>
       <c r="O306" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R306" t="s">
         <v>904</v>
@@ -32721,7 +32704,7 @@
         <v>904</v>
       </c>
       <c r="O307" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R307" t="s">
         <v>904</v>
@@ -32765,7 +32748,7 @@
         <v>904</v>
       </c>
       <c r="O308" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R308" t="s">
         <v>904</v>
@@ -32809,7 +32792,7 @@
         <v>904</v>
       </c>
       <c r="O309" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R309" t="s">
         <v>904</v>
@@ -32853,7 +32836,7 @@
         <v>904</v>
       </c>
       <c r="O310" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R310" t="s">
         <v>904</v>
@@ -32897,7 +32880,7 @@
         <v>904</v>
       </c>
       <c r="O311" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R311" t="s">
         <v>904</v>
@@ -32941,7 +32924,7 @@
         <v>904</v>
       </c>
       <c r="O312" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R312" t="s">
         <v>904</v>
@@ -32985,7 +32968,7 @@
         <v>904</v>
       </c>
       <c r="O313" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R313" t="s">
         <v>904</v>
@@ -33029,7 +33012,7 @@
         <v>904</v>
       </c>
       <c r="O314" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R314" t="s">
         <v>904</v>
@@ -33073,7 +33056,7 @@
         <v>904</v>
       </c>
       <c r="O315" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R315" t="s">
         <v>904</v>
@@ -33117,7 +33100,7 @@
         <v>904</v>
       </c>
       <c r="O316" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R316" t="s">
         <v>904</v>
@@ -33161,7 +33144,7 @@
         <v>904</v>
       </c>
       <c r="O317" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R317" t="s">
         <v>904</v>
@@ -33205,7 +33188,7 @@
         <v>904</v>
       </c>
       <c r="O318" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R318" t="s">
         <v>904</v>
@@ -33249,7 +33232,7 @@
         <v>904</v>
       </c>
       <c r="O319" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R319" t="s">
         <v>904</v>
@@ -33293,7 +33276,7 @@
         <v>904</v>
       </c>
       <c r="O320" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R320" t="s">
         <v>904</v>
@@ -33337,7 +33320,7 @@
         <v>904</v>
       </c>
       <c r="O321" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R321" t="s">
         <v>904</v>
@@ -33381,7 +33364,7 @@
         <v>904</v>
       </c>
       <c r="O322" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R322" t="s">
         <v>904</v>
@@ -33425,7 +33408,7 @@
         <v>904</v>
       </c>
       <c r="O323" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R323" t="s">
         <v>904</v>
@@ -33469,7 +33452,7 @@
         <v>904</v>
       </c>
       <c r="O324" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R324" t="s">
         <v>904</v>
@@ -33513,7 +33496,7 @@
         <v>904</v>
       </c>
       <c r="O325" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R325" t="s">
         <v>904</v>
@@ -33554,7 +33537,7 @@
         <v>904</v>
       </c>
       <c r="O326" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R326" t="s">
         <v>904</v>
@@ -33598,7 +33581,7 @@
         <v>904</v>
       </c>
       <c r="O327" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R327" t="s">
         <v>904</v>
@@ -33645,7 +33628,7 @@
         <v>966</v>
       </c>
       <c r="O328" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R328" t="s">
         <v>904</v>
@@ -33692,7 +33675,7 @@
         <v>966</v>
       </c>
       <c r="O329" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R329" t="s">
         <v>904</v>
@@ -33736,7 +33719,7 @@
         <v>904</v>
       </c>
       <c r="O330" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R330" t="s">
         <v>904</v>
@@ -33783,7 +33766,7 @@
         <v>966</v>
       </c>
       <c r="O331" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R331" t="s">
         <v>904</v>
@@ -33827,7 +33810,7 @@
         <v>904</v>
       </c>
       <c r="O332" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R332" t="s">
         <v>904</v>
@@ -33871,7 +33854,7 @@
         <v>904</v>
       </c>
       <c r="O333" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R333" t="s">
         <v>904</v>
@@ -33915,7 +33898,7 @@
         <v>904</v>
       </c>
       <c r="O334" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R334" t="s">
         <v>904</v>
@@ -33962,7 +33945,7 @@
         <v>966</v>
       </c>
       <c r="O335" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R335" t="s">
         <v>904</v>
@@ -34006,7 +33989,7 @@
         <v>904</v>
       </c>
       <c r="O336" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R336" t="s">
         <v>904</v>
@@ -34053,7 +34036,7 @@
         <v>966</v>
       </c>
       <c r="O337" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R337" t="s">
         <v>904</v>
@@ -34097,7 +34080,7 @@
         <v>904</v>
       </c>
       <c r="O338" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R338" t="s">
         <v>904</v>
@@ -34141,7 +34124,7 @@
         <v>904</v>
       </c>
       <c r="O339" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R339" t="s">
         <v>904</v>
@@ -34185,7 +34168,7 @@
         <v>904</v>
       </c>
       <c r="O340" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R340" t="s">
         <v>904</v>
@@ -34229,7 +34212,7 @@
         <v>904</v>
       </c>
       <c r="O341" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R341" t="s">
         <v>904</v>
@@ -34276,7 +34259,7 @@
         <v>966</v>
       </c>
       <c r="O342" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R342" t="s">
         <v>904</v>
@@ -34323,7 +34306,7 @@
         <v>966</v>
       </c>
       <c r="O343" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R343" t="s">
         <v>904</v>
@@ -34370,7 +34353,7 @@
         <v>966</v>
       </c>
       <c r="O344" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R344" t="s">
         <v>904</v>
@@ -34414,7 +34397,7 @@
         <v>904</v>
       </c>
       <c r="O345" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R345" t="s">
         <v>904</v>
@@ -34458,7 +34441,7 @@
         <v>904</v>
       </c>
       <c r="O346" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R346" t="s">
         <v>904</v>
@@ -34502,7 +34485,7 @@
         <v>904</v>
       </c>
       <c r="O347" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R347" t="s">
         <v>904</v>
@@ -34546,7 +34529,7 @@
         <v>904</v>
       </c>
       <c r="O348" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R348" t="s">
         <v>904</v>
@@ -34593,7 +34576,7 @@
         <v>966</v>
       </c>
       <c r="O349" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R349" t="s">
         <v>904</v>
@@ -34637,7 +34620,7 @@
         <v>904</v>
       </c>
       <c r="O350" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R350" t="s">
         <v>904</v>
@@ -34681,7 +34664,7 @@
         <v>904</v>
       </c>
       <c r="O351" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R351" t="s">
         <v>904</v>
@@ -34725,7 +34708,7 @@
         <v>904</v>
       </c>
       <c r="O352" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R352" t="s">
         <v>904</v>
@@ -34769,7 +34752,7 @@
         <v>904</v>
       </c>
       <c r="O353" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R353" t="s">
         <v>904</v>
@@ -34813,7 +34796,7 @@
         <v>904</v>
       </c>
       <c r="O354" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R354" t="s">
         <v>904</v>
@@ -34857,7 +34840,7 @@
         <v>904</v>
       </c>
       <c r="O355" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R355" t="s">
         <v>904</v>
@@ -34901,7 +34884,7 @@
         <v>904</v>
       </c>
       <c r="O356" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R356" t="s">
         <v>904</v>
@@ -34945,7 +34928,7 @@
         <v>904</v>
       </c>
       <c r="O357" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R357" t="s">
         <v>904</v>
@@ -34989,7 +34972,7 @@
         <v>904</v>
       </c>
       <c r="O358" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R358" t="s">
         <v>904</v>
@@ -35033,7 +35016,7 @@
         <v>904</v>
       </c>
       <c r="O359" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R359" t="s">
         <v>904</v>
@@ -35077,7 +35060,7 @@
         <v>904</v>
       </c>
       <c r="O360" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R360" t="s">
         <v>904</v>
@@ -35121,7 +35104,7 @@
         <v>904</v>
       </c>
       <c r="O361" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R361" t="s">
         <v>904</v>
@@ -35165,7 +35148,7 @@
         <v>904</v>
       </c>
       <c r="O362" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R362" t="s">
         <v>904</v>
@@ -35209,7 +35192,7 @@
         <v>904</v>
       </c>
       <c r="O363" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R363" t="s">
         <v>904</v>
@@ -35253,7 +35236,7 @@
         <v>904</v>
       </c>
       <c r="O364" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R364" t="s">
         <v>904</v>
@@ -35297,7 +35280,7 @@
         <v>904</v>
       </c>
       <c r="O365" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R365" t="s">
         <v>904</v>
@@ -35341,7 +35324,7 @@
         <v>904</v>
       </c>
       <c r="O366" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R366" t="s">
         <v>904</v>
@@ -35385,7 +35368,7 @@
         <v>904</v>
       </c>
       <c r="O367" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R367" t="s">
         <v>904</v>
@@ -35429,7 +35412,7 @@
         <v>904</v>
       </c>
       <c r="O368" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R368" t="s">
         <v>904</v>
@@ -35470,7 +35453,7 @@
         <v>904</v>
       </c>
       <c r="O369" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R369" t="s">
         <v>904</v>
@@ -35514,7 +35497,7 @@
         <v>904</v>
       </c>
       <c r="O370" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R370" t="s">
         <v>904</v>
@@ -35558,7 +35541,7 @@
         <v>904</v>
       </c>
       <c r="O371" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R371" t="s">
         <v>904</v>
@@ -35602,7 +35585,7 @@
         <v>904</v>
       </c>
       <c r="O372" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R372" t="s">
         <v>904</v>
@@ -35646,7 +35629,7 @@
         <v>904</v>
       </c>
       <c r="O373" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R373" t="s">
         <v>904</v>
@@ -35693,7 +35676,7 @@
         <v>966</v>
       </c>
       <c r="O374" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R374" t="s">
         <v>904</v>
@@ -35737,7 +35720,7 @@
         <v>904</v>
       </c>
       <c r="O375" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R375" t="s">
         <v>904</v>
@@ -35781,7 +35764,7 @@
         <v>904</v>
       </c>
       <c r="O376" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R376" t="s">
         <v>904</v>
@@ -35825,7 +35808,7 @@
         <v>904</v>
       </c>
       <c r="O377" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R377" t="s">
         <v>904</v>
@@ -35869,7 +35852,7 @@
         <v>904</v>
       </c>
       <c r="O378" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R378" t="s">
         <v>904</v>
@@ -35913,7 +35896,7 @@
         <v>904</v>
       </c>
       <c r="O379" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R379" t="s">
         <v>904</v>
@@ -35957,7 +35940,7 @@
         <v>904</v>
       </c>
       <c r="O380" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R380" t="s">
         <v>904</v>
@@ -36001,7 +35984,7 @@
         <v>904</v>
       </c>
       <c r="O381" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R381" t="s">
         <v>904</v>
@@ -36045,7 +36028,7 @@
         <v>904</v>
       </c>
       <c r="O382" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R382" t="s">
         <v>904</v>
@@ -36092,7 +36075,7 @@
         <v>966</v>
       </c>
       <c r="O383" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R383" t="s">
         <v>904</v>
@@ -36136,7 +36119,7 @@
         <v>904</v>
       </c>
       <c r="O384" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R384" t="s">
         <v>904</v>
@@ -36180,7 +36163,7 @@
         <v>904</v>
       </c>
       <c r="O385" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R385" t="s">
         <v>904</v>
@@ -36224,7 +36207,7 @@
         <v>904</v>
       </c>
       <c r="O386" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R386" t="s">
         <v>904</v>
@@ -36268,7 +36251,7 @@
         <v>904</v>
       </c>
       <c r="O387" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R387" t="s">
         <v>904</v>
@@ -36312,7 +36295,7 @@
         <v>904</v>
       </c>
       <c r="O388" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R388" t="s">
         <v>904</v>
@@ -36356,7 +36339,7 @@
         <v>904</v>
       </c>
       <c r="O389" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R389" t="s">
         <v>904</v>
@@ -36397,7 +36380,7 @@
         <v>904</v>
       </c>
       <c r="O390" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R390" t="s">
         <v>904</v>
@@ -36441,7 +36424,7 @@
         <v>904</v>
       </c>
       <c r="O391" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R391" t="s">
         <v>904</v>
@@ -36485,7 +36468,7 @@
         <v>904</v>
       </c>
       <c r="O392" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R392" t="s">
         <v>904</v>
@@ -36529,7 +36512,7 @@
         <v>904</v>
       </c>
       <c r="O393" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R393" t="s">
         <v>904</v>
@@ -36573,7 +36556,7 @@
         <v>904</v>
       </c>
       <c r="O394" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R394" t="s">
         <v>904</v>
@@ -36617,7 +36600,7 @@
         <v>904</v>
       </c>
       <c r="O395" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R395" t="s">
         <v>904</v>
@@ -36661,7 +36644,7 @@
         <v>904</v>
       </c>
       <c r="O396" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R396" t="s">
         <v>904</v>
@@ -36705,7 +36688,7 @@
         <v>904</v>
       </c>
       <c r="O397" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R397" t="s">
         <v>904</v>
@@ -36749,7 +36732,7 @@
         <v>904</v>
       </c>
       <c r="O398" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R398" t="s">
         <v>904</v>
@@ -36796,7 +36779,7 @@
         <v>966</v>
       </c>
       <c r="O399" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R399" t="s">
         <v>904</v>
@@ -36840,7 +36823,7 @@
         <v>904</v>
       </c>
       <c r="O400" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R400" t="s">
         <v>904</v>
@@ -36884,7 +36867,7 @@
         <v>904</v>
       </c>
       <c r="O401" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R401" t="s">
         <v>904</v>
@@ -36928,7 +36911,7 @@
         <v>904</v>
       </c>
       <c r="O402" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R402" t="s">
         <v>904</v>
@@ -36972,7 +36955,7 @@
         <v>904</v>
       </c>
       <c r="O403" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R403" t="s">
         <v>904</v>
@@ -37016,7 +36999,7 @@
         <v>904</v>
       </c>
       <c r="O404" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R404" t="s">
         <v>904</v>
@@ -37060,7 +37043,7 @@
         <v>904</v>
       </c>
       <c r="O405" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R405" t="s">
         <v>904</v>
@@ -37104,7 +37087,7 @@
         <v>904</v>
       </c>
       <c r="O406" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R406" t="s">
         <v>904</v>
@@ -37151,7 +37134,7 @@
         <v>966</v>
       </c>
       <c r="O407" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R407" t="s">
         <v>904</v>
@@ -37195,7 +37178,7 @@
         <v>904</v>
       </c>
       <c r="O408" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R408" t="s">
         <v>904</v>
@@ -37239,7 +37222,7 @@
         <v>904</v>
       </c>
       <c r="O409" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R409" t="s">
         <v>904</v>
@@ -37283,7 +37266,7 @@
         <v>904</v>
       </c>
       <c r="O410" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R410" t="s">
         <v>904</v>
@@ -37327,7 +37310,7 @@
         <v>904</v>
       </c>
       <c r="O411" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R411" t="s">
         <v>904</v>
@@ -37371,7 +37354,7 @@
         <v>904</v>
       </c>
       <c r="O412" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R412" t="s">
         <v>904</v>
@@ -37415,7 +37398,7 @@
         <v>904</v>
       </c>
       <c r="O413" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R413" t="s">
         <v>904</v>
@@ -37459,7 +37442,7 @@
         <v>904</v>
       </c>
       <c r="O414" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R414" t="s">
         <v>904</v>
@@ -37503,7 +37486,7 @@
         <v>904</v>
       </c>
       <c r="O415" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R415" t="s">
         <v>904</v>
@@ -37547,7 +37530,7 @@
         <v>904</v>
       </c>
       <c r="O416" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R416" t="s">
         <v>904</v>
@@ -37591,7 +37574,7 @@
         <v>904</v>
       </c>
       <c r="O417" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R417" t="s">
         <v>904</v>
@@ -37635,7 +37618,7 @@
         <v>904</v>
       </c>
       <c r="O418" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R418" t="s">
         <v>904</v>
@@ -37679,7 +37662,7 @@
         <v>904</v>
       </c>
       <c r="O419" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R419" t="s">
         <v>904</v>
@@ -37723,7 +37706,7 @@
         <v>904</v>
       </c>
       <c r="O420" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R420" t="s">
         <v>904</v>
@@ -37767,7 +37750,7 @@
         <v>904</v>
       </c>
       <c r="O421" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R421" t="s">
         <v>904</v>
@@ -37811,7 +37794,7 @@
         <v>904</v>
       </c>
       <c r="O422" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R422" t="s">
         <v>904</v>
@@ -37855,7 +37838,7 @@
         <v>904</v>
       </c>
       <c r="O423" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R423" t="s">
         <v>904</v>
@@ -37896,7 +37879,7 @@
         <v>904</v>
       </c>
       <c r="O424" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R424" t="s">
         <v>904</v>
@@ -37940,7 +37923,7 @@
         <v>904</v>
       </c>
       <c r="O425" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R425" t="s">
         <v>904</v>
@@ -37984,7 +37967,7 @@
         <v>904</v>
       </c>
       <c r="O426" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R426" t="s">
         <v>904</v>
@@ -38028,7 +38011,7 @@
         <v>904</v>
       </c>
       <c r="O427" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R427" t="s">
         <v>904</v>
@@ -38072,7 +38055,7 @@
         <v>904</v>
       </c>
       <c r="O428" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R428" t="s">
         <v>904</v>
@@ -38116,7 +38099,7 @@
         <v>904</v>
       </c>
       <c r="O429" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R429" t="s">
         <v>904</v>
@@ -38160,7 +38143,7 @@
         <v>904</v>
       </c>
       <c r="O430" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R430" t="s">
         <v>904</v>
@@ -38204,7 +38187,7 @@
         <v>904</v>
       </c>
       <c r="O431" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R431" t="s">
         <v>904</v>
@@ -38248,7 +38231,7 @@
         <v>904</v>
       </c>
       <c r="O432" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R432" t="s">
         <v>904</v>
@@ -38292,7 +38275,7 @@
         <v>904</v>
       </c>
       <c r="O433" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R433" t="s">
         <v>904</v>
@@ -38336,7 +38319,7 @@
         <v>904</v>
       </c>
       <c r="O434" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R434" t="s">
         <v>904</v>
@@ -38380,7 +38363,7 @@
         <v>904</v>
       </c>
       <c r="O435" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R435" t="s">
         <v>904</v>
@@ -38424,7 +38407,7 @@
         <v>904</v>
       </c>
       <c r="O436" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R436" t="s">
         <v>904</v>
@@ -38468,7 +38451,7 @@
         <v>904</v>
       </c>
       <c r="O437" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R437" t="s">
         <v>904</v>
@@ -38512,7 +38495,7 @@
         <v>904</v>
       </c>
       <c r="O438" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R438" t="s">
         <v>904</v>
@@ -38556,7 +38539,7 @@
         <v>904</v>
       </c>
       <c r="O439" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R439" t="s">
         <v>904</v>
@@ -38600,7 +38583,7 @@
         <v>904</v>
       </c>
       <c r="O440" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R440" t="s">
         <v>904</v>
@@ -38644,7 +38627,7 @@
         <v>904</v>
       </c>
       <c r="O441" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R441" t="s">
         <v>904</v>
@@ -38688,7 +38671,7 @@
         <v>904</v>
       </c>
       <c r="O442" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R442" t="s">
         <v>904</v>
@@ -38732,7 +38715,7 @@
         <v>904</v>
       </c>
       <c r="O443" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R443" t="s">
         <v>904</v>
@@ -38776,7 +38759,7 @@
         <v>904</v>
       </c>
       <c r="O444" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R444" t="s">
         <v>904</v>
@@ -38820,7 +38803,7 @@
         <v>904</v>
       </c>
       <c r="O445" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R445" t="s">
         <v>904</v>
@@ -38864,7 +38847,7 @@
         <v>904</v>
       </c>
       <c r="O446" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R446" t="s">
         <v>904</v>
@@ -38908,7 +38891,7 @@
         <v>904</v>
       </c>
       <c r="O447" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R447" t="s">
         <v>904</v>
@@ -38952,7 +38935,7 @@
         <v>904</v>
       </c>
       <c r="O448" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R448" t="s">
         <v>904</v>
@@ -38996,7 +38979,7 @@
         <v>904</v>
       </c>
       <c r="O449" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R449" t="s">
         <v>904</v>
@@ -39040,7 +39023,7 @@
         <v>904</v>
       </c>
       <c r="O450" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R450" t="s">
         <v>904</v>
@@ -39084,7 +39067,7 @@
         <v>904</v>
       </c>
       <c r="O451" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R451" t="s">
         <v>904</v>
@@ -39128,7 +39111,7 @@
         <v>904</v>
       </c>
       <c r="O452" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R452" t="s">
         <v>904</v>
@@ -39169,7 +39152,7 @@
         <v>904</v>
       </c>
       <c r="O453" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R453" t="s">
         <v>904</v>
@@ -39213,7 +39196,7 @@
         <v>904</v>
       </c>
       <c r="O454" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R454" t="s">
         <v>904</v>
@@ -39257,7 +39240,7 @@
         <v>904</v>
       </c>
       <c r="O455" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R455" t="s">
         <v>904</v>
@@ -39301,7 +39284,7 @@
         <v>904</v>
       </c>
       <c r="O456" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R456" t="s">
         <v>904</v>
@@ -39345,7 +39328,7 @@
         <v>904</v>
       </c>
       <c r="O457" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R457" t="s">
         <v>904</v>
@@ -39389,7 +39372,7 @@
         <v>904</v>
       </c>
       <c r="O458" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R458" t="s">
         <v>904</v>
@@ -39433,7 +39416,7 @@
         <v>904</v>
       </c>
       <c r="O459" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R459" t="s">
         <v>904</v>
@@ -39477,7 +39460,7 @@
         <v>904</v>
       </c>
       <c r="O460" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R460" t="s">
         <v>904</v>
@@ -39521,7 +39504,7 @@
         <v>904</v>
       </c>
       <c r="O461" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R461" t="s">
         <v>904</v>
@@ -39565,7 +39548,7 @@
         <v>904</v>
       </c>
       <c r="O462" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R462" t="s">
         <v>904</v>
@@ -39609,7 +39592,7 @@
         <v>904</v>
       </c>
       <c r="O463" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R463" t="s">
         <v>904</v>
@@ -39653,7 +39636,7 @@
         <v>904</v>
       </c>
       <c r="O464" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R464" t="s">
         <v>904</v>
@@ -39697,7 +39680,7 @@
         <v>904</v>
       </c>
       <c r="O465" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R465" t="s">
         <v>904</v>
@@ -39741,7 +39724,7 @@
         <v>904</v>
       </c>
       <c r="O466" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R466" t="s">
         <v>904</v>
@@ -39785,7 +39768,7 @@
         <v>904</v>
       </c>
       <c r="O467" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R467" t="s">
         <v>904</v>
@@ -39829,7 +39812,7 @@
         <v>904</v>
       </c>
       <c r="O468" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R468" t="s">
         <v>904</v>
@@ -39873,7 +39856,7 @@
         <v>904</v>
       </c>
       <c r="O469" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R469" t="s">
         <v>904</v>
@@ -39917,7 +39900,7 @@
         <v>904</v>
       </c>
       <c r="O470" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R470" t="s">
         <v>904</v>
@@ -39961,7 +39944,7 @@
         <v>904</v>
       </c>
       <c r="O471" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R471" t="s">
         <v>904</v>
@@ -40005,7 +39988,7 @@
         <v>904</v>
       </c>
       <c r="O472" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R472" t="s">
         <v>904</v>
@@ -40049,7 +40032,7 @@
         <v>904</v>
       </c>
       <c r="O473" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R473" t="s">
         <v>904</v>
@@ -40093,7 +40076,7 @@
         <v>904</v>
       </c>
       <c r="O474" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R474" t="s">
         <v>904</v>
@@ -40137,7 +40120,7 @@
         <v>904</v>
       </c>
       <c r="O475" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R475" t="s">
         <v>904</v>
@@ -40181,7 +40164,7 @@
         <v>904</v>
       </c>
       <c r="O476" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R476" t="s">
         <v>904</v>
@@ -40225,7 +40208,7 @@
         <v>904</v>
       </c>
       <c r="O477" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R477" t="s">
         <v>904</v>
@@ -40269,7 +40252,7 @@
         <v>904</v>
       </c>
       <c r="O478" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R478" t="s">
         <v>904</v>
@@ -40313,7 +40296,7 @@
         <v>904</v>
       </c>
       <c r="O479" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R479" t="s">
         <v>904</v>
@@ -40357,7 +40340,7 @@
         <v>904</v>
       </c>
       <c r="O480" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R480" t="s">
         <v>904</v>
@@ -40401,7 +40384,7 @@
         <v>904</v>
       </c>
       <c r="O481" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R481" t="s">
         <v>904</v>
@@ -40445,7 +40428,7 @@
         <v>904</v>
       </c>
       <c r="O482" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R482" t="s">
         <v>904</v>
@@ -40489,7 +40472,7 @@
         <v>904</v>
       </c>
       <c r="O483" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R483" t="s">
         <v>904</v>
@@ -40533,7 +40516,7 @@
         <v>904</v>
       </c>
       <c r="O484" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R484" t="s">
         <v>904</v>
@@ -40574,7 +40557,7 @@
         <v>904</v>
       </c>
       <c r="O485" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R485" t="s">
         <v>904</v>
@@ -40618,7 +40601,7 @@
         <v>904</v>
       </c>
       <c r="O486" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R486" t="s">
         <v>904</v>
@@ -40662,7 +40645,7 @@
         <v>904</v>
       </c>
       <c r="O487" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R487" t="s">
         <v>904</v>
@@ -40706,7 +40689,7 @@
         <v>904</v>
       </c>
       <c r="O488" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R488" t="s">
         <v>904</v>
@@ -40750,7 +40733,7 @@
         <v>904</v>
       </c>
       <c r="O489" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R489" t="s">
         <v>904</v>
@@ -40794,7 +40777,7 @@
         <v>904</v>
       </c>
       <c r="O490" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R490" t="s">
         <v>904</v>
@@ -40838,7 +40821,7 @@
         <v>904</v>
       </c>
       <c r="O491" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R491" t="s">
         <v>904</v>
@@ -40882,7 +40865,7 @@
         <v>904</v>
       </c>
       <c r="O492" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R492" t="s">
         <v>904</v>
@@ -40923,7 +40906,7 @@
         <v>904</v>
       </c>
       <c r="O493" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R493" t="s">
         <v>904</v>
@@ -40967,7 +40950,7 @@
         <v>904</v>
       </c>
       <c r="O494" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R494" t="s">
         <v>904</v>
@@ -41011,7 +40994,7 @@
         <v>904</v>
       </c>
       <c r="O495" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R495" t="s">
         <v>904</v>
@@ -41055,7 +41038,7 @@
         <v>904</v>
       </c>
       <c r="O496" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R496" t="s">
         <v>904</v>
@@ -41099,7 +41082,7 @@
         <v>904</v>
       </c>
       <c r="O497" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R497" t="s">
         <v>904</v>
@@ -41143,7 +41126,7 @@
         <v>904</v>
       </c>
       <c r="O498" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R498" t="s">
         <v>904</v>
@@ -41184,7 +41167,7 @@
         <v>904</v>
       </c>
       <c r="O499" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R499" t="s">
         <v>904</v>
@@ -41228,7 +41211,7 @@
         <v>904</v>
       </c>
       <c r="O500" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R500" t="s">
         <v>904</v>
@@ -41269,7 +41252,7 @@
         <v>904</v>
       </c>
       <c r="O501" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R501" t="s">
         <v>904</v>
@@ -41313,7 +41296,7 @@
         <v>904</v>
       </c>
       <c r="O502" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R502" t="s">
         <v>904</v>
@@ -41357,7 +41340,7 @@
         <v>904</v>
       </c>
       <c r="O503" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R503" t="s">
         <v>904</v>
@@ -41401,7 +41384,7 @@
         <v>904</v>
       </c>
       <c r="O504" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R504" t="s">
         <v>904</v>
@@ -41448,7 +41431,7 @@
         <v>966</v>
       </c>
       <c r="O505" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R505" t="s">
         <v>904</v>
@@ -41492,7 +41475,7 @@
         <v>904</v>
       </c>
       <c r="O506" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R506" t="s">
         <v>904</v>
@@ -41536,7 +41519,7 @@
         <v>904</v>
       </c>
       <c r="O507" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R507" t="s">
         <v>904</v>
@@ -41580,7 +41563,7 @@
         <v>904</v>
       </c>
       <c r="O508" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R508" t="s">
         <v>904</v>
@@ -41624,7 +41607,7 @@
         <v>904</v>
       </c>
       <c r="O509" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R509" t="s">
         <v>904</v>
@@ -41671,7 +41654,7 @@
         <v>966</v>
       </c>
       <c r="O510" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R510" t="s">
         <v>904</v>
@@ -41715,7 +41698,7 @@
         <v>904</v>
       </c>
       <c r="O511" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R511" t="s">
         <v>904</v>
@@ -41759,7 +41742,7 @@
         <v>904</v>
       </c>
       <c r="O512" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R512" t="s">
         <v>904</v>
@@ -41803,7 +41786,7 @@
         <v>904</v>
       </c>
       <c r="O513" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R513" t="s">
         <v>904</v>
@@ -41847,7 +41830,7 @@
         <v>904</v>
       </c>
       <c r="O514" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R514" t="s">
         <v>904</v>
@@ -41891,7 +41874,7 @@
         <v>904</v>
       </c>
       <c r="O515" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R515" t="s">
         <v>904</v>
@@ -41935,7 +41918,7 @@
         <v>904</v>
       </c>
       <c r="O516" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R516" t="s">
         <v>904</v>
@@ -41982,7 +41965,7 @@
         <v>966</v>
       </c>
       <c r="O517" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R517" t="s">
         <v>904</v>
@@ -42026,7 +42009,7 @@
         <v>904</v>
       </c>
       <c r="O518" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R518" t="s">
         <v>904</v>
@@ -42070,7 +42053,7 @@
         <v>904</v>
       </c>
       <c r="O519" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R519" t="s">
         <v>904</v>
@@ -42117,7 +42100,7 @@
         <v>966</v>
       </c>
       <c r="O520" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R520" t="s">
         <v>904</v>
@@ -42161,7 +42144,7 @@
         <v>904</v>
       </c>
       <c r="O521" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R521" t="s">
         <v>904</v>
@@ -42205,7 +42188,7 @@
         <v>904</v>
       </c>
       <c r="O522" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R522" t="s">
         <v>904</v>
@@ -42249,7 +42232,7 @@
         <v>904</v>
       </c>
       <c r="O523" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R523" t="s">
         <v>904</v>
@@ -42293,7 +42276,7 @@
         <v>904</v>
       </c>
       <c r="O524" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R524" t="s">
         <v>904</v>
@@ -42334,7 +42317,7 @@
         <v>904</v>
       </c>
       <c r="O525" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R525" t="s">
         <v>904</v>
@@ -42378,7 +42361,7 @@
         <v>904</v>
       </c>
       <c r="O526" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R526" t="s">
         <v>904</v>
@@ -42422,7 +42405,7 @@
         <v>904</v>
       </c>
       <c r="O527" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R527" t="s">
         <v>904</v>
@@ -42466,7 +42449,7 @@
         <v>904</v>
       </c>
       <c r="O528" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R528" t="s">
         <v>904</v>
@@ -42510,7 +42493,7 @@
         <v>904</v>
       </c>
       <c r="O529" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R529" t="s">
         <v>904</v>
@@ -42554,7 +42537,7 @@
         <v>904</v>
       </c>
       <c r="O530" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R530" t="s">
         <v>904</v>
@@ -42595,7 +42578,7 @@
         <v>904</v>
       </c>
       <c r="O531" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R531" t="s">
         <v>904</v>
@@ -42642,7 +42625,7 @@
         <v>966</v>
       </c>
       <c r="O532" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R532" t="s">
         <v>904</v>
@@ -42686,7 +42669,7 @@
         <v>904</v>
       </c>
       <c r="O533" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R533" t="s">
         <v>904</v>
@@ -42730,7 +42713,7 @@
         <v>904</v>
       </c>
       <c r="O534" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R534" t="s">
         <v>904</v>
@@ -42774,7 +42757,7 @@
         <v>904</v>
       </c>
       <c r="O535" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R535" t="s">
         <v>904</v>
@@ -42818,7 +42801,7 @@
         <v>904</v>
       </c>
       <c r="O536" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R536" t="s">
         <v>904</v>
@@ -42862,7 +42845,7 @@
         <v>904</v>
       </c>
       <c r="O537" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R537" t="s">
         <v>904</v>
@@ -42906,7 +42889,7 @@
         <v>904</v>
       </c>
       <c r="O538" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R538" t="s">
         <v>904</v>
@@ -42950,7 +42933,7 @@
         <v>904</v>
       </c>
       <c r="O539" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R539" t="s">
         <v>904</v>
@@ -42994,7 +42977,7 @@
         <v>904</v>
       </c>
       <c r="O540" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R540" t="s">
         <v>904</v>
@@ -43038,7 +43021,7 @@
         <v>904</v>
       </c>
       <c r="O541" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R541" t="s">
         <v>904</v>
@@ -43082,7 +43065,7 @@
         <v>904</v>
       </c>
       <c r="O542" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R542" t="s">
         <v>904</v>
@@ -43126,7 +43109,7 @@
         <v>904</v>
       </c>
       <c r="O543" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R543" t="s">
         <v>904</v>
@@ -43170,7 +43153,7 @@
         <v>904</v>
       </c>
       <c r="O544" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R544" t="s">
         <v>904</v>
@@ -43214,7 +43197,7 @@
         <v>904</v>
       </c>
       <c r="O545" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R545" t="s">
         <v>904</v>
@@ -43258,7 +43241,7 @@
         <v>904</v>
       </c>
       <c r="O546" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R546" t="s">
         <v>904</v>
@@ -43302,7 +43285,7 @@
         <v>904</v>
       </c>
       <c r="O547" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R547" t="s">
         <v>904</v>
@@ -43346,7 +43329,7 @@
         <v>904</v>
       </c>
       <c r="O548" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R548" t="s">
         <v>904</v>
@@ -43390,7 +43373,7 @@
         <v>904</v>
       </c>
       <c r="O549" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R549" t="s">
         <v>904</v>
@@ -43434,7 +43417,7 @@
         <v>904</v>
       </c>
       <c r="O550" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R550" t="s">
         <v>904</v>
@@ -43478,7 +43461,7 @@
         <v>904</v>
       </c>
       <c r="O551" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R551" t="s">
         <v>904</v>
@@ -43522,7 +43505,7 @@
         <v>904</v>
       </c>
       <c r="O552" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R552" t="s">
         <v>904</v>
@@ -43566,7 +43549,7 @@
         <v>904</v>
       </c>
       <c r="O553" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R553" t="s">
         <v>904</v>
@@ -43607,7 +43590,7 @@
         <v>904</v>
       </c>
       <c r="O554" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R554" t="s">
         <v>904</v>
@@ -43648,7 +43631,7 @@
         <v>904</v>
       </c>
       <c r="O555" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R555" t="s">
         <v>904</v>
@@ -43692,7 +43675,7 @@
         <v>904</v>
       </c>
       <c r="O556" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R556" t="s">
         <v>904</v>
@@ -43736,7 +43719,7 @@
         <v>904</v>
       </c>
       <c r="O557" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R557" t="s">
         <v>904</v>
@@ -43780,7 +43763,7 @@
         <v>904</v>
       </c>
       <c r="O558" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R558" t="s">
         <v>904</v>
@@ -43824,7 +43807,7 @@
         <v>904</v>
       </c>
       <c r="O559" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R559" t="s">
         <v>904</v>
@@ -43868,7 +43851,7 @@
         <v>904</v>
       </c>
       <c r="O560" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R560" t="s">
         <v>904</v>
@@ -43912,7 +43895,7 @@
         <v>904</v>
       </c>
       <c r="O561" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R561" t="s">
         <v>904</v>
@@ -43956,7 +43939,7 @@
         <v>904</v>
       </c>
       <c r="O562" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R562" t="s">
         <v>904</v>
@@ -44000,7 +43983,7 @@
         <v>904</v>
       </c>
       <c r="O563" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R563" t="s">
         <v>904</v>
@@ -44044,7 +44027,7 @@
         <v>904</v>
       </c>
       <c r="O564" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R564" t="s">
         <v>904</v>
@@ -44088,7 +44071,7 @@
         <v>904</v>
       </c>
       <c r="O565" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R565" t="s">
         <v>904</v>
@@ -44132,7 +44115,7 @@
         <v>904</v>
       </c>
       <c r="O566" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R566" t="s">
         <v>904</v>
@@ -44176,7 +44159,7 @@
         <v>904</v>
       </c>
       <c r="O567" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R567" t="s">
         <v>904</v>
@@ -44217,7 +44200,7 @@
         <v>904</v>
       </c>
       <c r="O568" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R568" t="s">
         <v>904</v>
@@ -44264,7 +44247,7 @@
         <v>966</v>
       </c>
       <c r="O569" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R569" t="s">
         <v>904</v>
@@ -44308,7 +44291,7 @@
         <v>904</v>
       </c>
       <c r="O570" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R570" t="s">
         <v>904</v>
@@ -44355,7 +44338,7 @@
         <v>966</v>
       </c>
       <c r="O571" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R571" t="s">
         <v>904</v>
@@ -44399,7 +44382,7 @@
         <v>904</v>
       </c>
       <c r="O572" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R572" t="s">
         <v>904</v>
@@ -44443,7 +44426,7 @@
         <v>904</v>
       </c>
       <c r="O573" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R573" t="s">
         <v>904</v>
@@ -44484,7 +44467,7 @@
         <v>904</v>
       </c>
       <c r="O574" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R574" t="s">
         <v>904</v>
@@ -44525,7 +44508,7 @@
         <v>904</v>
       </c>
       <c r="O575" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="R575" t="s">
         <v>904</v>
@@ -44646,16 +44629,16 @@
         <v>3907</v>
       </c>
       <c r="H1" s="23" t="s">
+        <v>5152</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>5153</v>
+      </c>
+      <c r="J1" s="23" t="s">
         <v>5154</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>5155</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>5156</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>5157</v>
       </c>
       <c r="L1" s="23" t="s">
         <v>3902</v>
@@ -44676,23 +44659,23 @@
         <v>962</v>
       </c>
       <c r="R1" s="24" t="s">
-        <v>5133</v>
+        <v>5131</v>
       </c>
       <c r="S1" s="25" t="s">
-        <v>5131</v>
+        <v>5129</v>
       </c>
       <c r="T1" s="39" t="s">
-        <v>5139</v>
+        <v>5137</v>
       </c>
       <c r="U1" s="28" t="s">
-        <v>5038</v>
+        <v>5037</v>
       </c>
       <c r="V1" s="29">
         <f>COUNTIFS($Q:$Q, "YES", $F:$F, "&lt;&gt;")</f>
         <v>54</v>
       </c>
       <c r="X1" s="28" t="s">
-        <v>5039</v>
+        <v>5038</v>
       </c>
       <c r="Y1" s="29">
         <f>COUNTIF($P:$P, "YES")</f>
@@ -44708,7 +44691,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>5162</v>
+        <v>5160</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>4157</v>
@@ -44717,13 +44700,13 @@
         <v>2010</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>5163</v>
+        <v>5161</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>5164</v>
+        <v>5162</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H2" s="34" t="s">
         <v>349</v>
@@ -44732,22 +44715,22 @@
         <v>1</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L2" s="34">
         <v>289</v>
       </c>
       <c r="M2" s="34" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N2" s="34" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O2" s="34" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P2" s="34" t="s">
         <v>963</v>
@@ -44774,49 +44757,49 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5165</v>
+        <v>5163</v>
       </c>
       <c r="C3" t="s">
-        <v>5166</v>
+        <v>5164</v>
       </c>
       <c r="D3">
         <v>2000</v>
       </c>
       <c r="E3" t="s">
-        <v>5167</v>
+        <v>5165</v>
       </c>
       <c r="F3" t="s">
-        <v>5168</v>
+        <v>5166</v>
       </c>
       <c r="G3" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H3" t="s">
-        <v>5342</v>
+        <v>5340</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K3" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L3">
         <v>1486</v>
       </c>
       <c r="M3" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N3" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O3" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P3" t="s">
-        <v>5358</v>
+        <v>5356</v>
       </c>
       <c r="Q3" t="s">
         <v>963</v>
@@ -44825,7 +44808,7 @@
         <v>966</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -44842,13 +44825,13 @@
         <v>1995</v>
       </c>
       <c r="E4" t="s">
-        <v>5169</v>
+        <v>5167</v>
       </c>
       <c r="F4" t="s">
-        <v>5170</v>
+        <v>5168</v>
       </c>
       <c r="G4" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H4" t="s">
         <v>42</v>
@@ -44857,22 +44840,22 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K4" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L4">
         <v>321</v>
       </c>
       <c r="M4" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N4" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O4" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P4" t="s">
         <v>963</v>
@@ -44892,46 +44875,46 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5171</v>
+        <v>5169</v>
       </c>
       <c r="C5" t="s">
-        <v>5172</v>
+        <v>5170</v>
       </c>
       <c r="D5">
         <v>1991</v>
       </c>
       <c r="E5" t="s">
-        <v>5173</v>
+        <v>5171</v>
       </c>
       <c r="F5" t="s">
-        <v>5174</v>
+        <v>5172</v>
       </c>
       <c r="G5" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H5" t="s">
-        <v>5343</v>
+        <v>5341</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K5" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L5">
         <v>3590</v>
       </c>
       <c r="M5" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N5" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O5" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P5" t="s">
         <v>963</v>
@@ -44951,22 +44934,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5175</v>
+        <v>5173</v>
       </c>
       <c r="C6" t="s">
-        <v>5176</v>
+        <v>5174</v>
       </c>
       <c r="D6">
         <v>2005</v>
       </c>
       <c r="E6" t="s">
-        <v>5177</v>
+        <v>5175</v>
       </c>
       <c r="F6" t="s">
-        <v>5178</v>
+        <v>5176</v>
       </c>
       <c r="G6" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H6" t="s">
         <v>91</v>
@@ -44975,22 +44958,22 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K6" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L6">
         <v>1510</v>
       </c>
       <c r="M6" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N6" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O6" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P6" t="s">
         <v>967</v>
@@ -45002,13 +44985,13 @@
         <v>966</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="T6" t="s">
-        <v>5356</v>
+        <v>5354</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>5137</v>
+        <v>5135</v>
       </c>
       <c r="V6">
         <f>COUNTIF($P:$P, "YES")</f>
@@ -45020,46 +45003,46 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5179</v>
+        <v>5177</v>
       </c>
       <c r="C7" t="s">
-        <v>5180</v>
+        <v>5178</v>
       </c>
       <c r="D7">
         <v>2002</v>
       </c>
       <c r="E7" t="s">
-        <v>5181</v>
+        <v>5179</v>
       </c>
       <c r="F7" t="s">
-        <v>5182</v>
+        <v>5180</v>
       </c>
       <c r="G7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H7" t="s">
-        <v>5344</v>
+        <v>5342</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K7" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L7">
         <v>321</v>
       </c>
       <c r="M7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P7" t="s">
         <v>963</v>
@@ -45074,7 +45057,7 @@
         <v>1</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>5134</v>
+        <v>5132</v>
       </c>
       <c r="V7">
         <f>COUNTIFS($R:$R, "YES", $F:$F, "&lt;&gt;")</f>
@@ -45095,13 +45078,13 @@
         <v>1998</v>
       </c>
       <c r="E8" t="s">
-        <v>5183</v>
+        <v>5181</v>
       </c>
       <c r="F8" t="s">
-        <v>5184</v>
+        <v>5182</v>
       </c>
       <c r="G8" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H8" t="s">
         <v>42</v>
@@ -45110,22 +45093,22 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K8" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L8">
         <v>588</v>
       </c>
       <c r="M8" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N8" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O8" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P8" t="s">
         <v>963</v>
@@ -45145,46 +45128,46 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5185</v>
+        <v>5183</v>
       </c>
       <c r="C9" t="s">
-        <v>5186</v>
+        <v>5184</v>
       </c>
       <c r="D9">
         <v>2014</v>
       </c>
       <c r="E9" t="s">
-        <v>5187</v>
+        <v>5185</v>
       </c>
       <c r="F9" t="s">
-        <v>5188</v>
+        <v>5186</v>
       </c>
       <c r="G9" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H9" t="s">
-        <v>5345</v>
+        <v>5343</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K9" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L9">
         <v>73</v>
       </c>
       <c r="M9" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N9" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O9" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P9" t="s">
         <v>963</v>
@@ -45204,49 +45187,49 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5189</v>
+        <v>5187</v>
       </c>
       <c r="C10" t="s">
-        <v>5190</v>
+        <v>5188</v>
       </c>
       <c r="D10">
         <v>2018</v>
       </c>
       <c r="E10" t="s">
-        <v>5191</v>
+        <v>5189</v>
       </c>
       <c r="F10" t="s">
-        <v>5192</v>
+        <v>5190</v>
       </c>
       <c r="G10" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H10" t="s">
-        <v>5346</v>
+        <v>5344</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K10" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L10">
         <v>74</v>
       </c>
       <c r="M10" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N10" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O10" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P10" t="s">
-        <v>5357</v>
+        <v>5355</v>
       </c>
       <c r="Q10" t="s">
         <v>963</v>
@@ -45255,7 +45238,7 @@
         <v>966</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -45263,22 +45246,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5193</v>
+        <v>5191</v>
       </c>
       <c r="C11" t="s">
-        <v>5194</v>
+        <v>5192</v>
       </c>
       <c r="D11">
         <v>2014</v>
       </c>
       <c r="E11" t="s">
-        <v>5195</v>
+        <v>5193</v>
       </c>
       <c r="F11" t="s">
-        <v>5196</v>
+        <v>5194</v>
       </c>
       <c r="G11" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H11" t="s">
         <v>253</v>
@@ -45287,22 +45270,22 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K11" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L11">
         <v>17</v>
       </c>
       <c r="M11" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N11" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O11" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P11" t="s">
         <v>963</v>
@@ -45322,7 +45305,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5197</v>
+        <v>5195</v>
       </c>
       <c r="C12" t="s">
         <v>3928</v>
@@ -45331,37 +45314,37 @@
         <v>1995</v>
       </c>
       <c r="E12" t="s">
-        <v>5198</v>
+        <v>5196</v>
       </c>
       <c r="F12" t="s">
-        <v>5199</v>
+        <v>5197</v>
       </c>
       <c r="G12" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H12" t="s">
-        <v>5347</v>
+        <v>5345</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K12" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L12">
         <v>1789</v>
       </c>
       <c r="M12" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N12" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O12" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P12" t="s">
         <v>963</v>
@@ -45381,7 +45364,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5200</v>
+        <v>5198</v>
       </c>
       <c r="C13" t="s">
         <v>3928</v>
@@ -45390,40 +45373,40 @@
         <v>2001</v>
       </c>
       <c r="E13" t="s">
-        <v>5201</v>
+        <v>5199</v>
       </c>
       <c r="F13" t="s">
-        <v>5202</v>
+        <v>5200</v>
       </c>
       <c r="G13" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H13" t="s">
-        <v>5344</v>
+        <v>5342</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K13" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L13">
         <v>2928</v>
       </c>
       <c r="M13" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N13" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O13" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P13" t="s">
-        <v>5359</v>
+        <v>5357</v>
       </c>
       <c r="Q13" t="s">
         <v>963</v>
@@ -45435,7 +45418,7 @@
         <v>1</v>
       </c>
       <c r="T13" t="s">
-        <v>5360</v>
+        <v>5358</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -45443,7 +45426,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>5203</v>
+        <v>5201</v>
       </c>
       <c r="C14" t="s">
         <v>4356</v>
@@ -45452,37 +45435,37 @@
         <v>2011</v>
       </c>
       <c r="E14" t="s">
-        <v>5204</v>
+        <v>5202</v>
       </c>
       <c r="F14" t="s">
-        <v>5205</v>
+        <v>5203</v>
       </c>
       <c r="G14" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H14" t="s">
-        <v>5348</v>
+        <v>5346</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K14" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L14">
         <v>783</v>
       </c>
       <c r="M14" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N14" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O14" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P14" t="s">
         <v>963</v>
@@ -45502,46 +45485,46 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>5206</v>
+        <v>5204</v>
       </c>
       <c r="C15" t="s">
-        <v>5207</v>
+        <v>5205</v>
       </c>
       <c r="D15">
         <v>2019</v>
       </c>
       <c r="E15" t="s">
-        <v>5208</v>
+        <v>5206</v>
       </c>
       <c r="F15" t="s">
-        <v>5209</v>
+        <v>5207</v>
       </c>
       <c r="G15" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H15" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K15" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L15">
         <v>141</v>
       </c>
       <c r="M15" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N15" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O15" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P15" t="s">
         <v>966</v>
@@ -45553,10 +45536,10 @@
         <v>966</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="T15" t="s">
-        <v>5361</v>
+        <v>5359</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
@@ -45573,13 +45556,13 @@
         <v>1998</v>
       </c>
       <c r="E16" t="s">
-        <v>5210</v>
+        <v>5208</v>
       </c>
       <c r="F16" t="s">
-        <v>5211</v>
+        <v>5209</v>
       </c>
       <c r="G16" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H16" t="s">
         <v>167</v>
@@ -45588,22 +45571,22 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K16" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L16">
         <v>284</v>
       </c>
       <c r="M16" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N16" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O16" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P16" t="s">
         <v>963</v>
@@ -45623,46 +45606,46 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>5212</v>
+        <v>5210</v>
       </c>
       <c r="C17" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="D17">
         <v>2010</v>
       </c>
       <c r="E17" t="s">
-        <v>5214</v>
+        <v>5212</v>
       </c>
       <c r="F17" t="s">
-        <v>5215</v>
+        <v>5213</v>
       </c>
       <c r="G17" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H17" t="s">
-        <v>5350</v>
+        <v>5348</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K17" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L17">
         <v>252</v>
       </c>
       <c r="M17" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N17" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O17" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P17" t="s">
         <v>963</v>
@@ -45682,22 +45665,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>5216</v>
+        <v>5214</v>
       </c>
       <c r="C18" t="s">
-        <v>5217</v>
+        <v>5215</v>
       </c>
       <c r="D18">
         <v>1991</v>
       </c>
       <c r="E18" t="s">
-        <v>5218</v>
+        <v>5216</v>
       </c>
       <c r="F18" t="s">
-        <v>5219</v>
+        <v>5217</v>
       </c>
       <c r="G18" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H18" t="s">
         <v>19</v>
@@ -45706,22 +45689,22 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K18" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L18">
         <v>88</v>
       </c>
       <c r="M18" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N18" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O18" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P18" t="s">
         <v>963</v>
@@ -45750,13 +45733,13 @@
         <v>2001</v>
       </c>
       <c r="E19" t="s">
-        <v>5220</v>
+        <v>5218</v>
       </c>
       <c r="F19" t="s">
-        <v>5221</v>
+        <v>5219</v>
       </c>
       <c r="G19" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H19" t="s">
         <v>42</v>
@@ -45765,22 +45748,22 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K19" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L19">
         <v>2852</v>
       </c>
       <c r="M19" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N19" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O19" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P19" t="s">
         <v>963</v>
@@ -45809,13 +45792,13 @@
         <v>2002</v>
       </c>
       <c r="E20" t="s">
-        <v>5222</v>
+        <v>5220</v>
       </c>
       <c r="F20" t="s">
-        <v>5223</v>
+        <v>5221</v>
       </c>
       <c r="G20" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H20" t="s">
         <v>19</v>
@@ -45824,22 +45807,22 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K20" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L20">
         <v>386</v>
       </c>
       <c r="M20" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N20" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O20" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P20" t="s">
         <v>963</v>
@@ -45859,46 +45842,46 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>5224</v>
+        <v>5222</v>
       </c>
       <c r="C21" t="s">
-        <v>5225</v>
+        <v>5223</v>
       </c>
       <c r="D21">
         <v>2008</v>
       </c>
       <c r="E21" t="s">
-        <v>5226</v>
+        <v>5224</v>
       </c>
       <c r="F21" t="s">
-        <v>5227</v>
+        <v>5225</v>
       </c>
       <c r="G21" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H21" t="s">
-        <v>5351</v>
+        <v>5349</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K21" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L21">
         <v>494</v>
       </c>
       <c r="M21" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N21" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O21" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P21" t="s">
         <v>963</v>
@@ -45918,22 +45901,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>5228</v>
+        <v>5226</v>
       </c>
       <c r="C22" t="s">
-        <v>5229</v>
+        <v>5227</v>
       </c>
       <c r="D22">
         <v>2000</v>
       </c>
       <c r="E22" t="s">
-        <v>5230</v>
+        <v>5228</v>
       </c>
       <c r="F22" t="s">
-        <v>5231</v>
+        <v>5229</v>
       </c>
       <c r="G22" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H22" t="s">
         <v>253</v>
@@ -45942,22 +45925,22 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K22" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L22">
         <v>101</v>
       </c>
       <c r="M22" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N22" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O22" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P22" t="s">
         <v>963</v>
@@ -45977,46 +45960,46 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>5232</v>
+        <v>5230</v>
       </c>
       <c r="C23" t="s">
-        <v>5233</v>
+        <v>5231</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23" t="s">
-        <v>5234</v>
+        <v>5232</v>
       </c>
       <c r="F23" t="s">
-        <v>5235</v>
+        <v>5233</v>
       </c>
       <c r="G23" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H23" t="s">
-        <v>5346</v>
+        <v>5344</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K23" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L23">
         <v>92</v>
       </c>
       <c r="M23" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N23" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O23" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P23" t="s">
         <v>966</v>
@@ -46028,10 +46011,10 @@
         <v>966</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="T23" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -46039,22 +46022,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>5236</v>
+        <v>5234</v>
       </c>
       <c r="C24" t="s">
-        <v>5237</v>
+        <v>5235</v>
       </c>
       <c r="D24">
         <v>2005</v>
       </c>
       <c r="E24" t="s">
-        <v>5238</v>
+        <v>5236</v>
       </c>
       <c r="F24" t="s">
-        <v>5239</v>
+        <v>5237</v>
       </c>
       <c r="G24" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H24" t="s">
         <v>35</v>
@@ -46063,22 +46046,22 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K24" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L24">
         <v>171</v>
       </c>
       <c r="M24" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N24" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O24" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P24" t="s">
         <v>963</v>
@@ -46098,46 +46081,46 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>5240</v>
+        <v>5238</v>
       </c>
       <c r="C25" t="s">
-        <v>5241</v>
+        <v>5239</v>
       </c>
       <c r="D25">
         <v>1995</v>
       </c>
       <c r="E25" t="s">
-        <v>5242</v>
+        <v>5240</v>
       </c>
       <c r="F25" t="s">
-        <v>5243</v>
+        <v>5241</v>
       </c>
       <c r="G25" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H25" t="s">
-        <v>5351</v>
+        <v>5349</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K25" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L25">
         <v>662</v>
       </c>
       <c r="M25" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N25" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O25" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P25" t="s">
         <v>963</v>
@@ -46157,7 +46140,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>5244</v>
+        <v>5242</v>
       </c>
       <c r="C26" t="s">
         <v>3930</v>
@@ -46166,13 +46149,13 @@
         <v>1995</v>
       </c>
       <c r="E26" t="s">
-        <v>5245</v>
+        <v>5243</v>
       </c>
       <c r="F26" t="s">
-        <v>5246</v>
+        <v>5244</v>
       </c>
       <c r="G26" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H26" t="s">
         <v>42</v>
@@ -46181,22 +46164,22 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K26" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L26">
         <v>888</v>
       </c>
       <c r="M26" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N26" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O26" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P26" t="s">
         <v>963</v>
@@ -46216,7 +46199,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>5247</v>
+        <v>5245</v>
       </c>
       <c r="C27" t="s">
         <v>3930</v>
@@ -46225,13 +46208,13 @@
         <v>1999</v>
       </c>
       <c r="E27" t="s">
-        <v>5248</v>
+        <v>5246</v>
       </c>
       <c r="F27" t="s">
-        <v>5249</v>
+        <v>5247</v>
       </c>
       <c r="G27" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H27" t="s">
         <v>349</v>
@@ -46240,22 +46223,22 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K27" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L27">
         <v>100</v>
       </c>
       <c r="M27" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N27" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O27" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P27" t="s">
         <v>963</v>
@@ -46284,37 +46267,37 @@
         <v>2003</v>
       </c>
       <c r="E28" t="s">
-        <v>5250</v>
+        <v>5248</v>
       </c>
       <c r="F28" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
       <c r="G28" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H28" t="s">
-        <v>5346</v>
+        <v>5344</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K28" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L28">
         <v>860</v>
       </c>
       <c r="M28" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N28" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O28" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P28" t="s">
         <v>963</v>
@@ -46334,22 +46317,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>5252</v>
+        <v>5250</v>
       </c>
       <c r="C29" t="s">
-        <v>5253</v>
+        <v>5251</v>
       </c>
       <c r="D29">
         <v>2007</v>
       </c>
       <c r="E29" t="s">
-        <v>5254</v>
+        <v>5252</v>
       </c>
       <c r="F29" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="G29" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H29" t="s">
         <v>353</v>
@@ -46358,22 +46341,22 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K29" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L29">
         <v>27</v>
       </c>
       <c r="M29" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N29" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O29" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P29" t="s">
         <v>966</v>
@@ -46385,7 +46368,7 @@
         <v>966</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -46393,46 +46376,46 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>5256</v>
+        <v>5254</v>
       </c>
       <c r="C30" t="s">
-        <v>5257</v>
+        <v>5255</v>
       </c>
       <c r="D30">
         <v>2006</v>
       </c>
       <c r="E30" t="s">
-        <v>5258</v>
+        <v>5256</v>
       </c>
       <c r="F30" t="s">
-        <v>5259</v>
+        <v>5257</v>
       </c>
       <c r="G30" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H30" t="s">
-        <v>5352</v>
+        <v>5350</v>
       </c>
       <c r="I30" t="b">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K30" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L30">
         <v>1427</v>
       </c>
       <c r="M30" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N30" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O30" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P30" t="s">
         <v>963</v>
@@ -46447,7 +46430,7 @@
         <v>3</v>
       </c>
       <c r="T30" t="s">
-        <v>5364</v>
+        <v>5362</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -46455,46 +46438,46 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>5260</v>
+        <v>5258</v>
       </c>
       <c r="C31" t="s">
-        <v>5261</v>
+        <v>5259</v>
       </c>
       <c r="D31">
         <v>2011</v>
       </c>
       <c r="E31" t="s">
-        <v>5262</v>
+        <v>5260</v>
       </c>
       <c r="F31" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="G31" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H31" t="s">
-        <v>5351</v>
+        <v>5349</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K31" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L31">
         <v>80</v>
       </c>
       <c r="M31" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N31" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O31" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P31" t="s">
         <v>963</v>
@@ -46514,22 +46497,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="C32" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="D32">
         <v>1999</v>
       </c>
       <c r="E32" t="s">
-        <v>5266</v>
+        <v>5264</v>
       </c>
       <c r="F32" t="s">
-        <v>5267</v>
+        <v>5265</v>
       </c>
       <c r="G32" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H32" t="s">
         <v>349</v>
@@ -46538,22 +46521,22 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K32" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L32">
         <v>182</v>
       </c>
       <c r="M32" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N32" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O32" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P32" t="s">
         <v>963</v>
@@ -46573,46 +46556,46 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>5268</v>
+        <v>5266</v>
       </c>
       <c r="C33" t="s">
-        <v>5269</v>
+        <v>5267</v>
       </c>
       <c r="D33">
         <v>2004</v>
       </c>
       <c r="E33" t="s">
-        <v>5270</v>
+        <v>5268</v>
       </c>
       <c r="F33" t="s">
-        <v>5271</v>
+        <v>5269</v>
       </c>
       <c r="G33" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H33" t="s">
-        <v>5346</v>
+        <v>5344</v>
       </c>
       <c r="I33" t="b">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K33" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L33">
         <v>389</v>
       </c>
       <c r="M33" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N33" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O33" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P33" t="s">
         <v>963</v>
@@ -46641,13 +46624,13 @@
         <v>1999</v>
       </c>
       <c r="E34" t="s">
-        <v>5272</v>
+        <v>5270</v>
       </c>
       <c r="F34" t="s">
-        <v>5273</v>
+        <v>5271</v>
       </c>
       <c r="G34" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H34" t="s">
         <v>253</v>
@@ -46656,25 +46639,25 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K34" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L34">
         <v>177</v>
       </c>
       <c r="M34" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N34" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O34" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P34" t="s">
-        <v>5365</v>
+        <v>5363</v>
       </c>
       <c r="Q34" t="s">
         <v>963</v>
@@ -46683,7 +46666,7 @@
         <v>966</v>
       </c>
       <c r="S34" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -46700,13 +46683,13 @@
         <v>2001</v>
       </c>
       <c r="E35" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="F35" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="G35" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H35" t="s">
         <v>431</v>
@@ -46715,22 +46698,22 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K35" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L35">
         <v>217</v>
       </c>
       <c r="M35" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N35" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O35" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P35" t="s">
         <v>963</v>
@@ -46750,22 +46733,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>5276</v>
+        <v>5274</v>
       </c>
       <c r="C36" t="s">
-        <v>5277</v>
+        <v>5275</v>
       </c>
       <c r="D36">
         <v>1993</v>
       </c>
       <c r="E36" t="s">
-        <v>5278</v>
+        <v>5276</v>
       </c>
       <c r="F36" t="s">
-        <v>5279</v>
+        <v>5277</v>
       </c>
       <c r="G36" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H36" t="s">
         <v>99</v>
@@ -46774,22 +46757,22 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K36" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L36">
         <v>1442</v>
       </c>
       <c r="M36" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N36" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O36" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P36" t="s">
         <v>963</v>
@@ -46818,13 +46801,13 @@
         <v>2006</v>
       </c>
       <c r="E37" t="s">
-        <v>5280</v>
+        <v>5278</v>
       </c>
       <c r="F37" t="s">
-        <v>5281</v>
+        <v>5279</v>
       </c>
       <c r="G37" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H37" t="s">
         <v>477</v>
@@ -46833,22 +46816,22 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K37" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L37">
         <v>254</v>
       </c>
       <c r="M37" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N37" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O37" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P37" t="s">
         <v>963</v>
@@ -46877,13 +46860,13 @@
         <v>1998</v>
       </c>
       <c r="E38" t="s">
-        <v>5282</v>
+        <v>5280</v>
       </c>
       <c r="F38" t="s">
-        <v>5283</v>
+        <v>5281</v>
       </c>
       <c r="G38" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H38" t="s">
         <v>19</v>
@@ -46892,22 +46875,22 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K38" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L38">
         <v>301</v>
       </c>
       <c r="M38" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N38" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O38" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P38" t="s">
         <v>963</v>
@@ -46936,40 +46919,40 @@
         <v>2001</v>
       </c>
       <c r="E39" t="s">
-        <v>5284</v>
+        <v>5282</v>
       </c>
       <c r="F39" t="s">
-        <v>5285</v>
+        <v>5283</v>
       </c>
       <c r="G39" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H39" t="s">
-        <v>5353</v>
+        <v>5351</v>
       </c>
       <c r="I39" t="b">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K39" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L39">
         <v>293</v>
       </c>
       <c r="M39" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N39" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O39" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P39" t="s">
-        <v>5367</v>
+        <v>5365</v>
       </c>
       <c r="Q39" t="s">
         <v>963</v>
@@ -46978,7 +46961,7 @@
         <v>966</v>
       </c>
       <c r="S39" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -46995,37 +46978,37 @@
         <v>2008</v>
       </c>
       <c r="E40" t="s">
-        <v>5286</v>
+        <v>5284</v>
       </c>
       <c r="F40" t="s">
-        <v>5287</v>
+        <v>5285</v>
       </c>
       <c r="G40" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H40" t="s">
-        <v>5351</v>
+        <v>5349</v>
       </c>
       <c r="I40" t="b">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K40" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L40">
         <v>153</v>
       </c>
       <c r="M40" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N40" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O40" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P40" t="s">
         <v>963</v>
@@ -47045,22 +47028,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>5288</v>
+        <v>5286</v>
       </c>
       <c r="C41" t="s">
-        <v>5289</v>
+        <v>5287</v>
       </c>
       <c r="D41">
         <v>2001</v>
       </c>
       <c r="E41" t="s">
-        <v>5290</v>
+        <v>5288</v>
       </c>
       <c r="F41" t="s">
-        <v>5291</v>
+        <v>5289</v>
       </c>
       <c r="G41" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H41" t="s">
         <v>42</v>
@@ -47069,22 +47052,22 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K41" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L41">
         <v>188</v>
       </c>
       <c r="M41" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N41" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O41" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P41" t="s">
         <v>963</v>
@@ -47104,46 +47087,46 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>5292</v>
+        <v>5290</v>
       </c>
       <c r="C42" t="s">
-        <v>5293</v>
+        <v>5291</v>
       </c>
       <c r="D42">
         <v>2004</v>
       </c>
       <c r="E42" t="s">
-        <v>5294</v>
+        <v>5292</v>
       </c>
       <c r="F42" t="s">
-        <v>5295</v>
+        <v>5293</v>
       </c>
       <c r="G42" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H42" t="s">
-        <v>5346</v>
+        <v>5344</v>
       </c>
       <c r="I42" t="b">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K42" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L42">
         <v>93</v>
       </c>
       <c r="M42" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N42" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O42" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P42" t="s">
         <v>963</v>
@@ -47163,7 +47146,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>5073</v>
+        <v>5072</v>
       </c>
       <c r="C43" t="s">
         <v>4128</v>
@@ -47172,40 +47155,40 @@
         <v>1995</v>
       </c>
       <c r="E43" t="s">
-        <v>5296</v>
+        <v>5294</v>
       </c>
       <c r="F43" t="s">
-        <v>5297</v>
+        <v>5295</v>
       </c>
       <c r="G43" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H43" t="s">
-        <v>5354</v>
+        <v>5352</v>
       </c>
       <c r="I43" t="b">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K43" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L43">
         <v>372</v>
       </c>
       <c r="M43" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N43" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O43" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P43" t="s">
-        <v>5365</v>
+        <v>5363</v>
       </c>
       <c r="Q43" t="s">
         <v>963</v>
@@ -47214,10 +47197,10 @@
         <v>966</v>
       </c>
       <c r="S43" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="T43" t="s">
-        <v>5368</v>
+        <v>5366</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -47225,22 +47208,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>5298</v>
+        <v>5296</v>
       </c>
       <c r="C44" t="s">
-        <v>5299</v>
+        <v>5297</v>
       </c>
       <c r="D44">
         <v>2004</v>
       </c>
       <c r="E44" t="s">
-        <v>5300</v>
+        <v>5298</v>
       </c>
       <c r="F44" t="s">
-        <v>5301</v>
+        <v>5299</v>
       </c>
       <c r="G44" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H44" t="s">
         <v>42</v>
@@ -47249,22 +47232,22 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K44" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L44">
         <v>1830</v>
       </c>
       <c r="M44" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N44" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O44" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P44" t="s">
         <v>963</v>
@@ -47284,22 +47267,22 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>5302</v>
+        <v>5300</v>
       </c>
       <c r="C45" t="s">
-        <v>5303</v>
+        <v>5301</v>
       </c>
       <c r="D45">
         <v>2005</v>
       </c>
       <c r="E45" t="s">
-        <v>5304</v>
+        <v>5302</v>
       </c>
       <c r="F45" t="s">
-        <v>5305</v>
+        <v>5303</v>
       </c>
       <c r="G45" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H45" t="s">
         <v>349</v>
@@ -47308,22 +47291,22 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K45" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L45">
         <v>345</v>
       </c>
       <c r="M45" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N45" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O45" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P45" t="s">
         <v>963</v>
@@ -47343,49 +47326,49 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>5306</v>
+        <v>5304</v>
       </c>
       <c r="C46" t="s">
-        <v>5307</v>
+        <v>5305</v>
       </c>
       <c r="D46">
         <v>2006</v>
       </c>
       <c r="E46" t="s">
-        <v>5308</v>
+        <v>5306</v>
       </c>
       <c r="F46" t="s">
-        <v>5309</v>
+        <v>5307</v>
       </c>
       <c r="G46" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H46" t="s">
-        <v>5355</v>
+        <v>5353</v>
       </c>
       <c r="I46" t="b">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K46" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L46">
         <v>1005</v>
       </c>
       <c r="M46" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N46" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O46" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P46" t="s">
-        <v>5357</v>
+        <v>5355</v>
       </c>
       <c r="Q46" t="s">
         <v>963</v>
@@ -47394,7 +47377,7 @@
         <v>966</v>
       </c>
       <c r="S46" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -47402,22 +47385,22 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>5310</v>
+        <v>5308</v>
       </c>
       <c r="C47" t="s">
-        <v>5311</v>
+        <v>5309</v>
       </c>
       <c r="D47">
         <v>2006</v>
       </c>
       <c r="E47" t="s">
-        <v>5312</v>
+        <v>5310</v>
       </c>
       <c r="F47" t="s">
-        <v>5313</v>
+        <v>5311</v>
       </c>
       <c r="G47" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H47" t="s">
         <v>608</v>
@@ -47426,25 +47409,25 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K47" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L47">
         <v>596</v>
       </c>
       <c r="M47" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N47" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O47" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P47" t="s">
-        <v>5357</v>
+        <v>5355</v>
       </c>
       <c r="Q47" t="s">
         <v>963</v>
@@ -47453,7 +47436,7 @@
         <v>966</v>
       </c>
       <c r="S47" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
@@ -47461,22 +47444,22 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>5314</v>
+        <v>5312</v>
       </c>
       <c r="C48" t="s">
-        <v>5315</v>
+        <v>5313</v>
       </c>
       <c r="D48">
         <v>2005</v>
       </c>
       <c r="E48" t="s">
-        <v>5316</v>
+        <v>5314</v>
       </c>
       <c r="F48" t="s">
-        <v>5158</v>
+        <v>5156</v>
       </c>
       <c r="G48" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H48" t="s">
         <v>42</v>
@@ -47485,22 +47468,22 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K48" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L48">
         <v>386</v>
       </c>
       <c r="M48" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N48" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O48" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P48" t="s">
         <v>963</v>
@@ -47529,37 +47512,37 @@
         <v>1982</v>
       </c>
       <c r="E49" t="s">
-        <v>5317</v>
+        <v>5315</v>
       </c>
       <c r="F49" t="s">
-        <v>5159</v>
+        <v>5157</v>
       </c>
       <c r="G49" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H49" t="s">
-        <v>5354</v>
+        <v>5352</v>
       </c>
       <c r="I49" t="b">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K49" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L49">
         <v>55</v>
       </c>
       <c r="M49" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N49" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O49" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P49" t="s">
         <v>963</v>
@@ -47588,13 +47571,13 @@
         <v>1985</v>
       </c>
       <c r="E50" t="s">
-        <v>5318</v>
+        <v>5316</v>
       </c>
       <c r="F50" t="s">
-        <v>5160</v>
+        <v>5158</v>
       </c>
       <c r="G50" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H50" t="s">
         <v>349</v>
@@ -47603,22 +47586,22 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K50" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L50">
         <v>2143</v>
       </c>
       <c r="M50" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N50" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O50" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P50" t="s">
         <v>974</v>
@@ -47630,7 +47613,7 @@
         <v>966</v>
       </c>
       <c r="S50" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
@@ -47638,7 +47621,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>5319</v>
+        <v>5317</v>
       </c>
       <c r="C51" t="s">
         <v>674</v>
@@ -47647,13 +47630,13 @@
         <v>1979</v>
       </c>
       <c r="E51" t="s">
-        <v>5320</v>
+        <v>5318</v>
       </c>
       <c r="F51" t="s">
-        <v>5161</v>
+        <v>5159</v>
       </c>
       <c r="G51" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H51" t="s">
         <v>680</v>
@@ -47662,22 +47645,22 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K51" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L51">
         <v>251</v>
       </c>
       <c r="M51" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N51" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O51" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P51" t="s">
         <v>963</v>
@@ -47697,22 +47680,22 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>5321</v>
+        <v>5319</v>
       </c>
       <c r="C52" t="s">
-        <v>5322</v>
+        <v>5320</v>
       </c>
       <c r="D52">
         <v>1997</v>
       </c>
       <c r="E52" t="s">
-        <v>5323</v>
+        <v>5321</v>
       </c>
       <c r="F52" t="s">
-        <v>5324</v>
+        <v>5322</v>
       </c>
       <c r="G52" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H52" t="s">
         <v>691</v>
@@ -47721,22 +47704,22 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K52" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L52">
         <v>9699</v>
       </c>
       <c r="M52" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N52" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O52" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P52" t="s">
         <v>963</v>
@@ -47756,46 +47739,46 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>5325</v>
+        <v>5323</v>
       </c>
       <c r="C53" t="s">
-        <v>5326</v>
+        <v>5324</v>
       </c>
       <c r="D53">
         <v>2014</v>
       </c>
       <c r="E53" t="s">
-        <v>5327</v>
+        <v>5325</v>
       </c>
       <c r="F53" t="s">
-        <v>5328</v>
+        <v>5326</v>
       </c>
       <c r="G53" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H53" t="s">
-        <v>5344</v>
+        <v>5342</v>
       </c>
       <c r="I53" t="b">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K53" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L53">
         <v>264</v>
       </c>
       <c r="M53" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N53" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O53" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P53" t="s">
         <v>963</v>
@@ -47815,22 +47798,22 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>5329</v>
+        <v>5327</v>
       </c>
       <c r="C54" t="s">
-        <v>5330</v>
+        <v>5328</v>
       </c>
       <c r="D54">
         <v>2001</v>
       </c>
       <c r="E54" t="s">
-        <v>5331</v>
+        <v>5329</v>
       </c>
       <c r="F54" t="s">
-        <v>5332</v>
+        <v>5330</v>
       </c>
       <c r="G54" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H54" t="s">
         <v>42</v>
@@ -47839,22 +47822,22 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K54" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L54">
         <v>261</v>
       </c>
       <c r="M54" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N54" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O54" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P54" t="s">
         <v>963</v>
@@ -47874,22 +47857,22 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>5333</v>
+        <v>5331</v>
       </c>
       <c r="C55" t="s">
-        <v>5334</v>
+        <v>5332</v>
       </c>
       <c r="D55">
         <v>1999</v>
       </c>
       <c r="E55" t="s">
-        <v>5335</v>
+        <v>5333</v>
       </c>
       <c r="F55" t="s">
-        <v>5336</v>
+        <v>5334</v>
       </c>
       <c r="G55" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H55" t="s">
         <v>691</v>
@@ -47898,22 +47881,22 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K55" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L55">
         <v>423</v>
       </c>
       <c r="M55" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N55" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O55" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P55" t="s">
         <v>963</v>
@@ -47933,22 +47916,22 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>5337</v>
+        <v>5335</v>
       </c>
       <c r="C56" t="s">
-        <v>5338</v>
+        <v>5336</v>
       </c>
       <c r="D56">
         <v>2011</v>
       </c>
       <c r="E56" t="s">
-        <v>5339</v>
+        <v>5337</v>
       </c>
       <c r="F56" t="s">
-        <v>5340</v>
+        <v>5338</v>
       </c>
       <c r="G56" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H56" t="s">
         <v>680</v>
@@ -47957,22 +47940,22 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="K56" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="L56">
         <v>197</v>
       </c>
       <c r="M56" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="N56" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="O56" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="P56" t="s">
         <v>966</v>
@@ -47984,7 +47967,7 @@
         <v>966</v>
       </c>
       <c r="S56" s="7" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
@@ -49592,10 +49575,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I12:I13"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49603,7 +49586,7 @@
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -49646,70 +49629,67 @@
       <c r="N1" s="24" t="s">
         <v>962</v>
       </c>
-      <c r="O1" s="24" t="s">
-        <v>5133</v>
-      </c>
-      <c r="P1" s="25" t="s">
-        <v>5026</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>5139</v>
-      </c>
-      <c r="R1" s="28" t="s">
-        <v>5038</v>
-      </c>
-      <c r="S1" s="29">
+      <c r="O1" s="23" t="s">
+        <v>5131</v>
+      </c>
+      <c r="P1" s="40" t="s">
+        <v>5137</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>5037</v>
+      </c>
+      <c r="R1" s="29">
         <f>COUNTIFS($N:$N, "YES", $F:$F, "&lt;&gt;")</f>
         <v>17</v>
       </c>
-      <c r="U1" s="28" t="s">
-        <v>5039</v>
-      </c>
-      <c r="V1" s="29">
+      <c r="T1" s="28" t="s">
+        <v>5038</v>
+      </c>
+      <c r="U1" s="29">
         <f>COUNTIF($M$2:$M$571, "YES")</f>
         <v>17</v>
       </c>
+      <c r="V1" s="31"/>
       <c r="W1" s="31"/>
       <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="30"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y1" s="30"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5052</v>
+        <v>5051</v>
       </c>
       <c r="C2" t="s">
-        <v>5051</v>
+        <v>5050</v>
       </c>
       <c r="D2">
         <v>1998</v>
       </c>
       <c r="E2" t="s">
-        <v>5059</v>
+        <v>5058</v>
       </c>
       <c r="F2" t="s">
-        <v>5050</v>
+        <v>5049</v>
       </c>
       <c r="G2" t="s">
-        <v>5030</v>
+        <v>5029</v>
       </c>
       <c r="H2">
         <v>908</v>
       </c>
       <c r="I2" t="s">
-        <v>5054</v>
+        <v>5053</v>
       </c>
       <c r="J2" t="s">
-        <v>5053</v>
+        <v>5052</v>
       </c>
       <c r="K2" t="s">
-        <v>5053</v>
+        <v>5052</v>
       </c>
       <c r="L2" t="s">
-        <v>5052</v>
+        <v>5051</v>
       </c>
       <c r="M2" t="s">
         <v>963</v>
@@ -49717,55 +49697,52 @@
       <c r="N2" t="s">
         <v>963</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="7" t="s">
         <v>966</v>
       </c>
-      <c r="P2" s="40">
-        <v>1</v>
-      </c>
-      <c r="S2" t="s">
-        <v>904</v>
-      </c>
-      <c r="X2" t="s">
-        <v>5047</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>904</v>
+      </c>
+      <c r="W2" t="s">
+        <v>5046</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5061</v>
+        <v>5060</v>
       </c>
       <c r="C3" t="s">
-        <v>5060</v>
+        <v>5059</v>
       </c>
       <c r="D3">
         <v>1994</v>
       </c>
       <c r="E3" t="s">
-        <v>5058</v>
+        <v>5057</v>
       </c>
       <c r="F3" t="s">
-        <v>5055</v>
+        <v>5054</v>
       </c>
       <c r="G3" t="s">
-        <v>5030</v>
+        <v>5029</v>
       </c>
       <c r="H3">
         <v>1812</v>
       </c>
       <c r="I3" t="s">
+        <v>5055</v>
+      </c>
+      <c r="J3" t="s">
         <v>5056</v>
       </c>
-      <c r="J3" t="s">
-        <v>5057</v>
-      </c>
       <c r="K3" t="s">
-        <v>5057</v>
+        <v>5056</v>
       </c>
       <c r="L3" t="s">
-        <v>5061</v>
+        <v>5060</v>
       </c>
       <c r="M3" t="s">
         <v>963</v>
@@ -49773,17 +49750,14 @@
       <c r="N3" t="s">
         <v>963</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="7" t="s">
         <v>966</v>
       </c>
-      <c r="P3" s="7">
-        <v>1</v>
-      </c>
-      <c r="X3" t="s">
-        <v>5048</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W3" t="s">
+        <v>5047</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -49797,25 +49771,25 @@
         <v>1999</v>
       </c>
       <c r="E4" t="s">
-        <v>5066</v>
+        <v>5065</v>
       </c>
       <c r="F4" t="s">
-        <v>5062</v>
+        <v>5061</v>
       </c>
       <c r="G4" t="s">
-        <v>5030</v>
+        <v>5029</v>
       </c>
       <c r="H4">
         <v>188</v>
       </c>
       <c r="I4" t="s">
+        <v>5062</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5064</v>
+      </c>
+      <c r="K4" t="s">
         <v>5063</v>
-      </c>
-      <c r="J4" t="s">
-        <v>5065</v>
-      </c>
-      <c r="K4" t="s">
-        <v>5064</v>
       </c>
       <c r="L4" t="s">
         <v>727</v>
@@ -49826,55 +49800,52 @@
       <c r="N4" t="s">
         <v>963</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="7" t="s">
         <v>966</v>
       </c>
-      <c r="P4" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>5067</v>
-      </c>
-      <c r="X4" t="s">
-        <v>5049</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>5066</v>
+      </c>
+      <c r="W4" t="s">
+        <v>5048</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5071</v>
+        <v>5070</v>
       </c>
       <c r="C5" t="s">
-        <v>5079</v>
+        <v>5078</v>
       </c>
       <c r="D5">
         <v>2003</v>
       </c>
       <c r="E5" t="s">
+        <v>5082</v>
+      </c>
+      <c r="F5" t="s">
         <v>5083</v>
       </c>
-      <c r="F5" t="s">
-        <v>5084</v>
-      </c>
       <c r="G5" t="s">
-        <v>5030</v>
+        <v>5029</v>
       </c>
       <c r="H5">
         <v>158</v>
       </c>
       <c r="I5" t="s">
+        <v>5076</v>
+      </c>
+      <c r="J5" t="s">
         <v>5077</v>
       </c>
-      <c r="J5" t="s">
-        <v>5078</v>
-      </c>
       <c r="K5" t="s">
-        <v>5078</v>
+        <v>5077</v>
       </c>
       <c r="L5" t="s">
-        <v>5071</v>
+        <v>5070</v>
       </c>
       <c r="M5" t="s">
         <v>963</v>
@@ -49882,49 +49853,46 @@
       <c r="N5" t="s">
         <v>963</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="7" t="s">
         <v>966</v>
       </c>
-      <c r="P5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5072</v>
+        <v>5071</v>
       </c>
       <c r="C6" t="s">
-        <v>5080</v>
+        <v>5079</v>
       </c>
       <c r="D6">
         <v>2012</v>
       </c>
       <c r="E6" t="s">
-        <v>5086</v>
+        <v>5085</v>
       </c>
       <c r="F6" t="s">
-        <v>5085</v>
+        <v>5084</v>
       </c>
       <c r="G6" t="s">
-        <v>5030</v>
+        <v>5029</v>
       </c>
       <c r="H6">
         <v>176</v>
       </c>
       <c r="I6" t="s">
+        <v>5086</v>
+      </c>
+      <c r="J6" t="s">
         <v>5087</v>
       </c>
-      <c r="J6" t="s">
-        <v>5088</v>
-      </c>
       <c r="K6" t="s">
-        <v>5088</v>
+        <v>5087</v>
       </c>
       <c r="L6" t="s">
-        <v>5072</v>
+        <v>5071</v>
       </c>
       <c r="M6" t="s">
         <v>963</v>
@@ -49932,29 +49900,26 @@
       <c r="N6" t="s">
         <v>963</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="7" t="s">
         <v>966</v>
       </c>
-      <c r="P6" s="7">
-        <v>1</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>5137</v>
-      </c>
-      <c r="S6">
+      <c r="Q6" s="2" t="s">
+        <v>5135</v>
+      </c>
+      <c r="R6">
         <f>COUNTIFS($N:$N, "YES", $M:$M, "&lt;&gt;PRIMARY STUDY")</f>
         <v>17</v>
       </c>
-      <c r="X6" t="s">
-        <v>5076</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W6" t="s">
+        <v>5075</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5073</v>
+        <v>5072</v>
       </c>
       <c r="C7" t="s">
         <v>4128</v>
@@ -49963,28 +49928,28 @@
         <v>1995</v>
       </c>
       <c r="E7" t="s">
+        <v>5088</v>
+      </c>
+      <c r="F7" t="s">
         <v>5089</v>
       </c>
-      <c r="F7" t="s">
-        <v>5090</v>
-      </c>
       <c r="G7" t="s">
-        <v>5030</v>
+        <v>5029</v>
       </c>
       <c r="H7">
         <v>372</v>
       </c>
       <c r="I7" t="s">
+        <v>5090</v>
+      </c>
+      <c r="J7" t="s">
         <v>5091</v>
       </c>
-      <c r="J7" t="s">
-        <v>5092</v>
-      </c>
       <c r="K7" t="s">
-        <v>5092</v>
+        <v>5091</v>
       </c>
       <c r="L7" t="s">
-        <v>5073</v>
+        <v>5072</v>
       </c>
       <c r="M7" t="s">
         <v>963</v>
@@ -49992,56 +49957,53 @@
       <c r="N7" t="s">
         <v>963</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="7" t="s">
         <v>966</v>
       </c>
-      <c r="P7" s="7">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>5134</v>
-      </c>
-      <c r="S7">
+      <c r="Q7" s="2" t="s">
+        <v>5132</v>
+      </c>
+      <c r="R7">
         <f>COUNTIFS($O:$O, "YES", $F:$F, "&lt;&gt;")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5093</v>
+        <v>5092</v>
       </c>
       <c r="C8" t="s">
-        <v>5081</v>
+        <v>5080</v>
       </c>
       <c r="D8">
         <v>1976</v>
       </c>
       <c r="E8" t="s">
+        <v>5093</v>
+      </c>
+      <c r="F8" t="s">
         <v>5094</v>
       </c>
-      <c r="F8" t="s">
-        <v>5095</v>
-      </c>
       <c r="G8" t="s">
-        <v>5030</v>
+        <v>5029</v>
       </c>
       <c r="H8">
         <v>382</v>
       </c>
       <c r="I8" t="s">
+        <v>5095</v>
+      </c>
+      <c r="J8" t="s">
         <v>5096</v>
       </c>
-      <c r="J8" t="s">
-        <v>5097</v>
-      </c>
       <c r="K8" t="s">
-        <v>5097</v>
+        <v>5096</v>
       </c>
       <c r="L8" t="s">
-        <v>5093</v>
+        <v>5092</v>
       </c>
       <c r="M8" t="s">
         <v>963</v>
@@ -50049,19 +50011,16 @@
       <c r="N8" t="s">
         <v>963</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="7" t="s">
         <v>966</v>
       </c>
-      <c r="P8" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5074</v>
+        <v>5073</v>
       </c>
       <c r="C9" t="s">
         <v>4077</v>
@@ -50070,25 +50029,25 @@
         <v>1994</v>
       </c>
       <c r="E9" t="s">
-        <v>5101</v>
+        <v>5100</v>
       </c>
       <c r="F9" t="s">
-        <v>5100</v>
+        <v>5099</v>
       </c>
       <c r="G9" t="s">
-        <v>5030</v>
+        <v>5029</v>
       </c>
       <c r="H9">
         <v>616</v>
       </c>
       <c r="I9" t="s">
+        <v>5097</v>
+      </c>
+      <c r="J9" t="s">
         <v>5098</v>
       </c>
-      <c r="J9" t="s">
-        <v>5099</v>
-      </c>
       <c r="L9" t="s">
-        <v>5074</v>
+        <v>5073</v>
       </c>
       <c r="M9" t="s">
         <v>963</v>
@@ -50096,49 +50055,46 @@
       <c r="N9" t="s">
         <v>963</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="7" t="s">
         <v>966</v>
       </c>
-      <c r="P9" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5075</v>
+        <v>5074</v>
       </c>
       <c r="C10" t="s">
-        <v>5082</v>
+        <v>5081</v>
       </c>
       <c r="D10">
         <v>1999</v>
       </c>
       <c r="E10" t="s">
+        <v>5103</v>
+      </c>
+      <c r="F10" t="s">
         <v>5104</v>
       </c>
-      <c r="F10" t="s">
-        <v>5105</v>
-      </c>
       <c r="G10" t="s">
-        <v>5030</v>
+        <v>5029</v>
       </c>
       <c r="H10">
         <v>196</v>
       </c>
       <c r="I10" t="s">
+        <v>5101</v>
+      </c>
+      <c r="J10" t="s">
         <v>5102</v>
       </c>
-      <c r="J10" t="s">
-        <v>5103</v>
-      </c>
       <c r="K10" t="s">
-        <v>5103</v>
+        <v>5102</v>
       </c>
       <c r="L10" t="s">
-        <v>5075</v>
+        <v>5074</v>
       </c>
       <c r="M10" t="s">
         <v>963</v>
@@ -50146,46 +50102,43 @@
       <c r="N10" t="s">
         <v>963</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="7" t="s">
         <v>966</v>
       </c>
-      <c r="P10" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>5108</v>
+      </c>
+      <c r="C11" t="s">
         <v>5109</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5110</v>
       </c>
       <c r="D11">
         <v>1996</v>
       </c>
       <c r="E11" t="s">
-        <v>5111</v>
+        <v>5110</v>
       </c>
       <c r="F11" t="s">
-        <v>5106</v>
+        <v>5105</v>
       </c>
       <c r="G11" t="s">
-        <v>5030</v>
+        <v>5029</v>
       </c>
       <c r="H11">
         <v>218</v>
       </c>
       <c r="I11" t="s">
+        <v>5106</v>
+      </c>
+      <c r="J11" t="s">
         <v>5107</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>5108</v>
-      </c>
-      <c r="L11" t="s">
-        <v>5109</v>
       </c>
       <c r="M11" t="s">
         <v>963</v>
@@ -50193,49 +50146,46 @@
       <c r="N11" t="s">
         <v>963</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="7" t="s">
         <v>966</v>
       </c>
-      <c r="P11" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5116</v>
+        <v>5114</v>
       </c>
       <c r="C12" t="s">
-        <v>5117</v>
+        <v>5115</v>
       </c>
       <c r="D12">
         <v>2018</v>
       </c>
       <c r="E12" t="s">
-        <v>5118</v>
+        <v>5116</v>
       </c>
       <c r="F12" t="s">
-        <v>5112</v>
+        <v>5111</v>
       </c>
       <c r="G12" t="s">
-        <v>5030</v>
+        <v>5029</v>
       </c>
       <c r="H12">
         <v>181</v>
       </c>
       <c r="I12" t="s">
+        <v>5112</v>
+      </c>
+      <c r="J12" t="s">
         <v>5113</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
+        <v>5113</v>
+      </c>
+      <c r="L12" t="s">
         <v>5114</v>
-      </c>
-      <c r="K12" t="s">
-        <v>5114</v>
-      </c>
-      <c r="L12" t="s">
-        <v>5116</v>
       </c>
       <c r="M12" t="s">
         <v>963</v>
@@ -50243,49 +50193,46 @@
       <c r="N12" t="s">
         <v>963</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="7" t="s">
         <v>966</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>5115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5122</v>
+        <v>5120</v>
       </c>
       <c r="C13" t="s">
-        <v>5123</v>
+        <v>5121</v>
       </c>
       <c r="D13">
         <v>2012</v>
       </c>
       <c r="E13" t="s">
-        <v>5124</v>
+        <v>5122</v>
       </c>
       <c r="F13" t="s">
-        <v>5119</v>
+        <v>5117</v>
       </c>
       <c r="G13" t="s">
-        <v>5030</v>
+        <v>5029</v>
       </c>
       <c r="H13">
         <v>18</v>
       </c>
       <c r="I13" t="s">
+        <v>5118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>5119</v>
+      </c>
+      <c r="K13" t="s">
+        <v>5119</v>
+      </c>
+      <c r="L13" t="s">
         <v>5120</v>
-      </c>
-      <c r="J13" t="s">
-        <v>5121</v>
-      </c>
-      <c r="K13" t="s">
-        <v>5121</v>
-      </c>
-      <c r="L13" t="s">
-        <v>5122</v>
       </c>
       <c r="M13" t="s">
         <v>963</v>
@@ -50293,49 +50240,46 @@
       <c r="N13" t="s">
         <v>963</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="7" t="s">
         <v>966</v>
       </c>
-      <c r="P13" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>5129</v>
+        <v>5127</v>
       </c>
       <c r="C14" t="s">
-        <v>5126</v>
+        <v>5124</v>
       </c>
       <c r="D14">
         <v>2020</v>
       </c>
       <c r="E14" t="s">
-        <v>5130</v>
+        <v>5128</v>
       </c>
       <c r="F14" t="s">
-        <v>5127</v>
+        <v>5125</v>
       </c>
       <c r="G14" t="s">
-        <v>5030</v>
+        <v>5029</v>
       </c>
       <c r="H14">
         <v>11</v>
       </c>
       <c r="I14" t="s">
-        <v>5128</v>
+        <v>5126</v>
       </c>
       <c r="J14" t="s">
-        <v>5125</v>
+        <v>5123</v>
       </c>
       <c r="K14" t="s">
-        <v>5125</v>
+        <v>5123</v>
       </c>
       <c r="L14" t="s">
-        <v>5129</v>
+        <v>5127</v>
       </c>
       <c r="M14" t="s">
         <v>963</v>
@@ -50343,14 +50287,11 @@
       <c r="N14" t="s">
         <v>963</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="7" t="s">
         <v>966</v>
       </c>
-      <c r="P14" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -50393,17 +50334,14 @@
       <c r="N15" t="s">
         <v>963</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="7" t="s">
         <v>966</v>
       </c>
-      <c r="P15" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>5140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="P15" t="s">
+        <v>5138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -50446,17 +50384,14 @@
       <c r="N16" t="s">
         <v>963</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="7" t="s">
         <v>966</v>
       </c>
-      <c r="P16" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>5140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>5138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -50499,17 +50434,14 @@
       <c r="N17" t="s">
         <v>963</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" s="7" t="s">
         <v>966</v>
       </c>
-      <c r="P17" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>5140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>5138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -50523,25 +50455,25 @@
         <v>1999</v>
       </c>
       <c r="E18" t="s">
-        <v>5272</v>
+        <v>5270</v>
       </c>
       <c r="F18" t="s">
-        <v>5273</v>
+        <v>5271</v>
       </c>
       <c r="G18" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="H18">
         <v>177</v>
       </c>
       <c r="I18" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="J18" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="K18" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="L18" t="s">
         <v>399</v>
@@ -50552,14 +50484,11 @@
       <c r="N18" t="s">
         <v>963</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="7" t="s">
         <v>966</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>5029</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>5366</v>
+      <c r="P18" t="s">
+        <v>5364</v>
       </c>
     </row>
   </sheetData>
@@ -50582,7 +50511,7 @@
       <formula>LEN(TRIM(F17))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19:H1048576 H1:H16">
+  <conditionalFormatting sqref="H1:H16 H19:H1048576">
     <cfRule type="containsBlanks" dxfId="19" priority="38">
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
@@ -50607,35 +50536,35 @@
       <formula>NOT(ISERROR(SEARCH("YES",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O17:O18 P1:P1048576">
+  <conditionalFormatting sqref="O17:O18">
     <cfRule type="cellIs" dxfId="12" priority="10" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O17:P18">
+  <conditionalFormatting sqref="O17:O18">
     <cfRule type="containsBlanks" dxfId="11" priority="1">
       <formula>LEN(TRIM(O17))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O17:O18 P1:P1048576">
+  <conditionalFormatting sqref="O17:O18">
     <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="X">
-      <formula>NOT(ISERROR(SEARCH("X",O1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("X",O17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1 Q4">
+  <conditionalFormatting sqref="P1 P4">
     <cfRule type="cellIs" dxfId="9" priority="32" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="8" priority="33" operator="containsText" text="X">
-      <formula>NOT(ISERROR(SEARCH("X",Q1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("X",P1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R2">
+  <conditionalFormatting sqref="Q1:Q2">
     <cfRule type="duplicateValues" dxfId="7" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1">
+  <conditionalFormatting sqref="T1">
     <cfRule type="duplicateValues" dxfId="6" priority="29"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F59C4BC-1D8D-4185-866E-15E3AE35A458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C5C6E9-86CC-421E-B7CC-DE69CE96C238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49578,7 +49578,7 @@
   <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C5C6E9-86CC-421E-B7CC-DE69CE96C238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5790807-DFDD-4C9F-AECC-2EE0BADB10E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Query literature" sheetId="5" r:id="rId1"/>
@@ -694,7 +694,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10247" uniqueCount="5367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10224" uniqueCount="5355">
   <si>
     <t>Number</t>
   </si>
@@ -15936,9 +15936,6 @@
     <t>Li et al.</t>
   </si>
   <si>
-    <t>Taubman</t>
-  </si>
-  <si>
     <t>Behrman and Rosenzweig</t>
   </si>
   <si>
@@ -15972,21 +15969,6 @@
     <t>https://www.researchgate.net/profile/Charles-Mulvey/publication/4901303_What_Do_Twins_Studies_Reveal_About_the_Economic_Returns_to_Education_A_Comparison_of_Australian_and_US_Findings/links/5dcbc167458515143506df81/What-Do-Twins-Studies-Reveal-About-the-Economic-Returns-to-Education-A-Comparison-of-Australian-and-US-Findings.pdf</t>
   </si>
   <si>
-    <t>Taubman (1976)</t>
-  </si>
-  <si>
-    <t>The determinants of earnings: Genetics, family, and other environments: A study of white male twins</t>
-  </si>
-  <si>
-    <t>Taubman, Paul. "The determinants of earnings: Genetics, family, and other environments: A study of white male twins." The American Economic Review 66, no. 5 (1976): 858-870.</t>
-  </si>
-  <si>
-    <t>SS9rzvcuvZkJ</t>
-  </si>
-  <si>
-    <t>https://www.jstor.org/stable/pdf/1827497.pdf?refreqid=excelsior%3A65985ad5ad118aff33e2e8897703eed9&amp;ab_segments=&amp;origin=&amp;acceptTC=1</t>
-  </si>
-  <si>
     <t>zjHqohf8afwJ</t>
   </si>
   <si>
@@ -16009,24 +15991,6 @@
   </si>
   <si>
     <t>Behrman, Jere R., and Mark R. Rosenzweig. "“Ability” biases in schooling returns and twins: a test and new estimates." Economics of education review 18, no. 2 (1999): 159-167.</t>
-  </si>
-  <si>
-    <t>Altonji, Joseph G., and Thomas A. Dunn. "Using siblings to estimate the effect of school quality on wages." The Review of Economics and Statistics (1996): 665-671.</t>
-  </si>
-  <si>
-    <t>coRGeUocOSoJ</t>
-  </si>
-  <si>
-    <t>https://www.jstor.org/stable/2109953</t>
-  </si>
-  <si>
-    <t>Altonji &amp; Dunn (1996)</t>
-  </si>
-  <si>
-    <t>Altonji &amp; Dunn</t>
-  </si>
-  <si>
-    <t>Using siblings to estimate the effect of school quality on wages</t>
   </si>
   <si>
     <t>Gensowski, Miriam. "Personality, IQ, and lifetime earnings." Labour Economics 51 (2018): 170-183.</t>
@@ -16801,7 +16765,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -16874,6 +16838,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -17123,7 +17093,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -17170,13 +17140,54 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="49">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAACAC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAACAC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBA8CDC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAACAC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -17263,41 +17274,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFAACAC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFAACAC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBA8CDC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <color theme="4" tint="-0.24994659260841701"/>
@@ -17327,13 +17303,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFAACAC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -17929,27 +17898,27 @@
         <v>962</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>5131</v>
+        <v>5119</v>
       </c>
       <c r="O1" s="25" t="s">
-        <v>5129</v>
+        <v>5117</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>5137</v>
+        <v>5125</v>
       </c>
       <c r="Q1" s="28" t="s">
         <v>5037</v>
       </c>
       <c r="R1" s="29">
         <f>COUNTIFS($M:$M, "YES", $F:$F, "&lt;&gt;") + Twins!R1</f>
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="T1" s="28" t="s">
         <v>5038</v>
       </c>
       <c r="U1" s="29">
         <f>COUNTIF($L$2:$L$575, "&lt;&gt; ") +Twins!U1</f>
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="V1" s="31"/>
       <c r="W1" s="31"/>
@@ -18110,7 +18079,7 @@
         <v>574</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>5135</v>
+        <v>5123</v>
       </c>
       <c r="U4">
         <f>COUNTIFS($M:$M, "YES", $L:$L, "&lt;&gt;PRIMARY STUDY", $P:$P, "&lt;&gt;Twins")</f>
@@ -18171,7 +18140,7 @@
         <v>574</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>5132</v>
+        <v>5120</v>
       </c>
       <c r="U5" s="37">
         <f>COUNTIFS($N:$N, "YES", $F:$F, "&lt;&gt;")</f>
@@ -18279,7 +18248,7 @@
         <v>5028</v>
       </c>
       <c r="P7" t="s">
-        <v>5361</v>
+        <v>5349</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>904</v>
@@ -18480,10 +18449,10 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>5136</v>
+        <v>5124</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>5130</v>
+        <v>5118</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -18536,7 +18505,7 @@
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>5133</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -18589,7 +18558,7 @@
         <v>2</v>
       </c>
       <c r="R13" t="s">
-        <v>5134</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -19842,7 +19811,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>5136</v>
+        <v>5124</v>
       </c>
       <c r="R38" t="s">
         <v>904</v>
@@ -19995,7 +19964,7 @@
         <v>2</v>
       </c>
       <c r="P41" t="s">
-        <v>5147</v>
+        <v>5135</v>
       </c>
       <c r="R41" t="s">
         <v>904</v>
@@ -20798,7 +20767,7 @@
         <v>2</v>
       </c>
       <c r="P57" t="s">
-        <v>5139</v>
+        <v>5127</v>
       </c>
       <c r="R57" t="s">
         <v>904</v>
@@ -22451,7 +22420,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>5140</v>
+        <v>5128</v>
       </c>
       <c r="R90" t="s">
         <v>904</v>
@@ -22462,7 +22431,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>5141</v>
+        <v>5129</v>
       </c>
       <c r="C91" t="s">
         <v>4015</v>
@@ -23454,7 +23423,7 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>5142</v>
+        <v>5130</v>
       </c>
       <c r="R110" t="s">
         <v>904</v>
@@ -23907,7 +23876,7 @@
         <v>4</v>
       </c>
       <c r="P119" t="s">
-        <v>5143</v>
+        <v>5131</v>
       </c>
       <c r="R119" t="s">
         <v>904</v>
@@ -25201,7 +25170,7 @@
         <v>1765</v>
       </c>
       <c r="L145" t="s">
-        <v>5144</v>
+        <v>5132</v>
       </c>
       <c r="M145" t="s">
         <v>966</v>
@@ -25221,7 +25190,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>5145</v>
+        <v>5133</v>
       </c>
       <c r="C146" t="s">
         <v>4080</v>
@@ -25233,7 +25202,7 @@
         <v>1766</v>
       </c>
       <c r="F146" t="s">
-        <v>5146</v>
+        <v>5134</v>
       </c>
       <c r="G146" t="s">
         <v>1768</v>
@@ -25424,7 +25393,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>5148</v>
+        <v>5136</v>
       </c>
       <c r="C150" t="s">
         <v>4085</v>
@@ -25433,13 +25402,13 @@
         <v>2012</v>
       </c>
       <c r="E150" t="s">
-        <v>5149</v>
+        <v>5137</v>
       </c>
       <c r="F150" t="s">
-        <v>5150</v>
+        <v>5138</v>
       </c>
       <c r="G150" t="s">
-        <v>5151</v>
+        <v>5139</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -27328,7 +27297,7 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>5136</v>
+        <v>5124</v>
       </c>
       <c r="R187" t="s">
         <v>904</v>
@@ -44629,16 +44598,16 @@
         <v>3907</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>5152</v>
+        <v>5140</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>5153</v>
+        <v>5141</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>5154</v>
+        <v>5142</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>5155</v>
+        <v>5143</v>
       </c>
       <c r="L1" s="23" t="s">
         <v>3902</v>
@@ -44659,13 +44628,13 @@
         <v>962</v>
       </c>
       <c r="R1" s="24" t="s">
-        <v>5131</v>
+        <v>5119</v>
       </c>
       <c r="S1" s="25" t="s">
-        <v>5129</v>
+        <v>5117</v>
       </c>
       <c r="T1" s="39" t="s">
-        <v>5137</v>
+        <v>5125</v>
       </c>
       <c r="U1" s="28" t="s">
         <v>5037</v>
@@ -44691,7 +44660,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>5160</v>
+        <v>5148</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>4157</v>
@@ -44700,10 +44669,10 @@
         <v>2010</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>5161</v>
+        <v>5149</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>5162</v>
+        <v>5150</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>5028</v>
@@ -44715,10 +44684,10 @@
         <v>1</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L2" s="34">
         <v>289</v>
@@ -44757,34 +44726,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5163</v>
+        <v>5151</v>
       </c>
       <c r="C3" t="s">
-        <v>5164</v>
+        <v>5152</v>
       </c>
       <c r="D3">
         <v>2000</v>
       </c>
       <c r="E3" t="s">
-        <v>5165</v>
+        <v>5153</v>
       </c>
       <c r="F3" t="s">
-        <v>5166</v>
+        <v>5154</v>
       </c>
       <c r="G3" t="s">
         <v>5028</v>
       </c>
       <c r="H3" t="s">
-        <v>5340</v>
+        <v>5328</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K3" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L3">
         <v>1486</v>
@@ -44799,7 +44768,7 @@
         <v>5028</v>
       </c>
       <c r="P3" t="s">
-        <v>5356</v>
+        <v>5344</v>
       </c>
       <c r="Q3" t="s">
         <v>963</v>
@@ -44825,10 +44794,10 @@
         <v>1995</v>
       </c>
       <c r="E4" t="s">
-        <v>5167</v>
+        <v>5155</v>
       </c>
       <c r="F4" t="s">
-        <v>5168</v>
+        <v>5156</v>
       </c>
       <c r="G4" t="s">
         <v>5028</v>
@@ -44840,10 +44809,10 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K4" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L4">
         <v>321</v>
@@ -44875,34 +44844,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5169</v>
+        <v>5157</v>
       </c>
       <c r="C5" t="s">
-        <v>5170</v>
+        <v>5158</v>
       </c>
       <c r="D5">
         <v>1991</v>
       </c>
       <c r="E5" t="s">
-        <v>5171</v>
+        <v>5159</v>
       </c>
       <c r="F5" t="s">
-        <v>5172</v>
+        <v>5160</v>
       </c>
       <c r="G5" t="s">
         <v>5028</v>
       </c>
       <c r="H5" t="s">
-        <v>5341</v>
+        <v>5329</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K5" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L5">
         <v>3590</v>
@@ -44934,19 +44903,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5173</v>
+        <v>5161</v>
       </c>
       <c r="C6" t="s">
-        <v>5174</v>
+        <v>5162</v>
       </c>
       <c r="D6">
         <v>2005</v>
       </c>
       <c r="E6" t="s">
-        <v>5175</v>
+        <v>5163</v>
       </c>
       <c r="F6" t="s">
-        <v>5176</v>
+        <v>5164</v>
       </c>
       <c r="G6" t="s">
         <v>5028</v>
@@ -44958,10 +44927,10 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K6" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L6">
         <v>1510</v>
@@ -44988,10 +44957,10 @@
         <v>5028</v>
       </c>
       <c r="T6" t="s">
-        <v>5354</v>
+        <v>5342</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>5135</v>
+        <v>5123</v>
       </c>
       <c r="V6">
         <f>COUNTIF($P:$P, "YES")</f>
@@ -45003,34 +44972,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5177</v>
+        <v>5165</v>
       </c>
       <c r="C7" t="s">
-        <v>5178</v>
+        <v>5166</v>
       </c>
       <c r="D7">
         <v>2002</v>
       </c>
       <c r="E7" t="s">
-        <v>5179</v>
+        <v>5167</v>
       </c>
       <c r="F7" t="s">
-        <v>5180</v>
+        <v>5168</v>
       </c>
       <c r="G7" t="s">
         <v>5028</v>
       </c>
       <c r="H7" t="s">
-        <v>5342</v>
+        <v>5330</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K7" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L7">
         <v>321</v>
@@ -45057,7 +45026,7 @@
         <v>1</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>5132</v>
+        <v>5120</v>
       </c>
       <c r="V7">
         <f>COUNTIFS($R:$R, "YES", $F:$F, "&lt;&gt;")</f>
@@ -45078,10 +45047,10 @@
         <v>1998</v>
       </c>
       <c r="E8" t="s">
-        <v>5181</v>
+        <v>5169</v>
       </c>
       <c r="F8" t="s">
-        <v>5182</v>
+        <v>5170</v>
       </c>
       <c r="G8" t="s">
         <v>5028</v>
@@ -45093,10 +45062,10 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K8" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L8">
         <v>588</v>
@@ -45128,34 +45097,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5183</v>
+        <v>5171</v>
       </c>
       <c r="C9" t="s">
-        <v>5184</v>
+        <v>5172</v>
       </c>
       <c r="D9">
         <v>2014</v>
       </c>
       <c r="E9" t="s">
-        <v>5185</v>
+        <v>5173</v>
       </c>
       <c r="F9" t="s">
-        <v>5186</v>
+        <v>5174</v>
       </c>
       <c r="G9" t="s">
         <v>5028</v>
       </c>
       <c r="H9" t="s">
-        <v>5343</v>
+        <v>5331</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K9" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L9">
         <v>73</v>
@@ -45187,34 +45156,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5187</v>
+        <v>5175</v>
       </c>
       <c r="C10" t="s">
-        <v>5188</v>
+        <v>5176</v>
       </c>
       <c r="D10">
         <v>2018</v>
       </c>
       <c r="E10" t="s">
-        <v>5189</v>
+        <v>5177</v>
       </c>
       <c r="F10" t="s">
-        <v>5190</v>
+        <v>5178</v>
       </c>
       <c r="G10" t="s">
         <v>5028</v>
       </c>
       <c r="H10" t="s">
-        <v>5344</v>
+        <v>5332</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K10" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L10">
         <v>74</v>
@@ -45229,7 +45198,7 @@
         <v>5028</v>
       </c>
       <c r="P10" t="s">
-        <v>5355</v>
+        <v>5343</v>
       </c>
       <c r="Q10" t="s">
         <v>963</v>
@@ -45246,19 +45215,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5191</v>
+        <v>5179</v>
       </c>
       <c r="C11" t="s">
-        <v>5192</v>
+        <v>5180</v>
       </c>
       <c r="D11">
         <v>2014</v>
       </c>
       <c r="E11" t="s">
-        <v>5193</v>
+        <v>5181</v>
       </c>
       <c r="F11" t="s">
-        <v>5194</v>
+        <v>5182</v>
       </c>
       <c r="G11" t="s">
         <v>5028</v>
@@ -45270,10 +45239,10 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K11" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L11">
         <v>17</v>
@@ -45305,7 +45274,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5195</v>
+        <v>5183</v>
       </c>
       <c r="C12" t="s">
         <v>3928</v>
@@ -45314,25 +45283,25 @@
         <v>1995</v>
       </c>
       <c r="E12" t="s">
-        <v>5196</v>
+        <v>5184</v>
       </c>
       <c r="F12" t="s">
-        <v>5197</v>
+        <v>5185</v>
       </c>
       <c r="G12" t="s">
         <v>5028</v>
       </c>
       <c r="H12" t="s">
-        <v>5345</v>
+        <v>5333</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K12" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L12">
         <v>1789</v>
@@ -45364,7 +45333,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5198</v>
+        <v>5186</v>
       </c>
       <c r="C13" t="s">
         <v>3928</v>
@@ -45373,25 +45342,25 @@
         <v>2001</v>
       </c>
       <c r="E13" t="s">
-        <v>5199</v>
+        <v>5187</v>
       </c>
       <c r="F13" t="s">
-        <v>5200</v>
+        <v>5188</v>
       </c>
       <c r="G13" t="s">
         <v>5028</v>
       </c>
       <c r="H13" t="s">
-        <v>5342</v>
+        <v>5330</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K13" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L13">
         <v>2928</v>
@@ -45406,7 +45375,7 @@
         <v>5028</v>
       </c>
       <c r="P13" t="s">
-        <v>5357</v>
+        <v>5345</v>
       </c>
       <c r="Q13" t="s">
         <v>963</v>
@@ -45418,7 +45387,7 @@
         <v>1</v>
       </c>
       <c r="T13" t="s">
-        <v>5358</v>
+        <v>5346</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -45426,7 +45395,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>5201</v>
+        <v>5189</v>
       </c>
       <c r="C14" t="s">
         <v>4356</v>
@@ -45435,25 +45404,25 @@
         <v>2011</v>
       </c>
       <c r="E14" t="s">
-        <v>5202</v>
+        <v>5190</v>
       </c>
       <c r="F14" t="s">
-        <v>5203</v>
+        <v>5191</v>
       </c>
       <c r="G14" t="s">
         <v>5028</v>
       </c>
       <c r="H14" t="s">
-        <v>5346</v>
+        <v>5334</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K14" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L14">
         <v>783</v>
@@ -45485,34 +45454,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>5204</v>
+        <v>5192</v>
       </c>
       <c r="C15" t="s">
-        <v>5205</v>
+        <v>5193</v>
       </c>
       <c r="D15">
         <v>2019</v>
       </c>
       <c r="E15" t="s">
-        <v>5206</v>
+        <v>5194</v>
       </c>
       <c r="F15" t="s">
-        <v>5207</v>
+        <v>5195</v>
       </c>
       <c r="G15" t="s">
         <v>5028</v>
       </c>
       <c r="H15" t="s">
-        <v>5347</v>
+        <v>5335</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K15" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L15">
         <v>141</v>
@@ -45539,7 +45508,7 @@
         <v>5028</v>
       </c>
       <c r="T15" t="s">
-        <v>5359</v>
+        <v>5347</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
@@ -45556,10 +45525,10 @@
         <v>1998</v>
       </c>
       <c r="E16" t="s">
-        <v>5208</v>
+        <v>5196</v>
       </c>
       <c r="F16" t="s">
-        <v>5209</v>
+        <v>5197</v>
       </c>
       <c r="G16" t="s">
         <v>5028</v>
@@ -45571,10 +45540,10 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K16" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L16">
         <v>284</v>
@@ -45606,34 +45575,34 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>5210</v>
+        <v>5198</v>
       </c>
       <c r="C17" t="s">
-        <v>5211</v>
+        <v>5199</v>
       </c>
       <c r="D17">
         <v>2010</v>
       </c>
       <c r="E17" t="s">
-        <v>5212</v>
+        <v>5200</v>
       </c>
       <c r="F17" t="s">
-        <v>5213</v>
+        <v>5201</v>
       </c>
       <c r="G17" t="s">
         <v>5028</v>
       </c>
       <c r="H17" t="s">
-        <v>5348</v>
+        <v>5336</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K17" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L17">
         <v>252</v>
@@ -45665,19 +45634,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>5214</v>
+        <v>5202</v>
       </c>
       <c r="C18" t="s">
-        <v>5215</v>
+        <v>5203</v>
       </c>
       <c r="D18">
         <v>1991</v>
       </c>
       <c r="E18" t="s">
-        <v>5216</v>
+        <v>5204</v>
       </c>
       <c r="F18" t="s">
-        <v>5217</v>
+        <v>5205</v>
       </c>
       <c r="G18" t="s">
         <v>5028</v>
@@ -45689,10 +45658,10 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K18" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L18">
         <v>88</v>
@@ -45733,10 +45702,10 @@
         <v>2001</v>
       </c>
       <c r="E19" t="s">
-        <v>5218</v>
+        <v>5206</v>
       </c>
       <c r="F19" t="s">
-        <v>5219</v>
+        <v>5207</v>
       </c>
       <c r="G19" t="s">
         <v>5028</v>
@@ -45748,10 +45717,10 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K19" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L19">
         <v>2852</v>
@@ -45792,10 +45761,10 @@
         <v>2002</v>
       </c>
       <c r="E20" t="s">
-        <v>5220</v>
+        <v>5208</v>
       </c>
       <c r="F20" t="s">
-        <v>5221</v>
+        <v>5209</v>
       </c>
       <c r="G20" t="s">
         <v>5028</v>
@@ -45807,10 +45776,10 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K20" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L20">
         <v>386</v>
@@ -45842,34 +45811,34 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>5222</v>
+        <v>5210</v>
       </c>
       <c r="C21" t="s">
-        <v>5223</v>
+        <v>5211</v>
       </c>
       <c r="D21">
         <v>2008</v>
       </c>
       <c r="E21" t="s">
-        <v>5224</v>
+        <v>5212</v>
       </c>
       <c r="F21" t="s">
-        <v>5225</v>
+        <v>5213</v>
       </c>
       <c r="G21" t="s">
         <v>5028</v>
       </c>
       <c r="H21" t="s">
-        <v>5349</v>
+        <v>5337</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K21" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L21">
         <v>494</v>
@@ -45901,19 +45870,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>5226</v>
+        <v>5214</v>
       </c>
       <c r="C22" t="s">
-        <v>5227</v>
+        <v>5215</v>
       </c>
       <c r="D22">
         <v>2000</v>
       </c>
       <c r="E22" t="s">
-        <v>5228</v>
+        <v>5216</v>
       </c>
       <c r="F22" t="s">
-        <v>5229</v>
+        <v>5217</v>
       </c>
       <c r="G22" t="s">
         <v>5028</v>
@@ -45925,10 +45894,10 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K22" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L22">
         <v>101</v>
@@ -45960,34 +45929,34 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>5230</v>
+        <v>5218</v>
       </c>
       <c r="C23" t="s">
-        <v>5231</v>
+        <v>5219</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23" t="s">
-        <v>5232</v>
+        <v>5220</v>
       </c>
       <c r="F23" t="s">
-        <v>5233</v>
+        <v>5221</v>
       </c>
       <c r="G23" t="s">
         <v>5028</v>
       </c>
       <c r="H23" t="s">
-        <v>5344</v>
+        <v>5332</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K23" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L23">
         <v>92</v>
@@ -46014,7 +45983,7 @@
         <v>5028</v>
       </c>
       <c r="T23" t="s">
-        <v>5360</v>
+        <v>5348</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -46022,19 +45991,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>5234</v>
+        <v>5222</v>
       </c>
       <c r="C24" t="s">
-        <v>5235</v>
+        <v>5223</v>
       </c>
       <c r="D24">
         <v>2005</v>
       </c>
       <c r="E24" t="s">
-        <v>5236</v>
+        <v>5224</v>
       </c>
       <c r="F24" t="s">
-        <v>5237</v>
+        <v>5225</v>
       </c>
       <c r="G24" t="s">
         <v>5028</v>
@@ -46046,10 +46015,10 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K24" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L24">
         <v>171</v>
@@ -46081,34 +46050,34 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>5238</v>
+        <v>5226</v>
       </c>
       <c r="C25" t="s">
-        <v>5239</v>
+        <v>5227</v>
       </c>
       <c r="D25">
         <v>1995</v>
       </c>
       <c r="E25" t="s">
-        <v>5240</v>
+        <v>5228</v>
       </c>
       <c r="F25" t="s">
-        <v>5241</v>
+        <v>5229</v>
       </c>
       <c r="G25" t="s">
         <v>5028</v>
       </c>
       <c r="H25" t="s">
-        <v>5349</v>
+        <v>5337</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K25" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L25">
         <v>662</v>
@@ -46140,7 +46109,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>5242</v>
+        <v>5230</v>
       </c>
       <c r="C26" t="s">
         <v>3930</v>
@@ -46149,10 +46118,10 @@
         <v>1995</v>
       </c>
       <c r="E26" t="s">
-        <v>5243</v>
+        <v>5231</v>
       </c>
       <c r="F26" t="s">
-        <v>5244</v>
+        <v>5232</v>
       </c>
       <c r="G26" t="s">
         <v>5028</v>
@@ -46164,10 +46133,10 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K26" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L26">
         <v>888</v>
@@ -46199,7 +46168,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>5245</v>
+        <v>5233</v>
       </c>
       <c r="C27" t="s">
         <v>3930</v>
@@ -46208,10 +46177,10 @@
         <v>1999</v>
       </c>
       <c r="E27" t="s">
-        <v>5246</v>
+        <v>5234</v>
       </c>
       <c r="F27" t="s">
-        <v>5247</v>
+        <v>5235</v>
       </c>
       <c r="G27" t="s">
         <v>5028</v>
@@ -46223,10 +46192,10 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K27" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L27">
         <v>100</v>
@@ -46267,25 +46236,25 @@
         <v>2003</v>
       </c>
       <c r="E28" t="s">
-        <v>5248</v>
+        <v>5236</v>
       </c>
       <c r="F28" t="s">
-        <v>5249</v>
+        <v>5237</v>
       </c>
       <c r="G28" t="s">
         <v>5028</v>
       </c>
       <c r="H28" t="s">
-        <v>5344</v>
+        <v>5332</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K28" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L28">
         <v>860</v>
@@ -46317,19 +46286,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>5250</v>
+        <v>5238</v>
       </c>
       <c r="C29" t="s">
-        <v>5251</v>
+        <v>5239</v>
       </c>
       <c r="D29">
         <v>2007</v>
       </c>
       <c r="E29" t="s">
-        <v>5252</v>
+        <v>5240</v>
       </c>
       <c r="F29" t="s">
-        <v>5253</v>
+        <v>5241</v>
       </c>
       <c r="G29" t="s">
         <v>5028</v>
@@ -46341,10 +46310,10 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K29" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L29">
         <v>27</v>
@@ -46376,34 +46345,34 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>5254</v>
+        <v>5242</v>
       </c>
       <c r="C30" t="s">
-        <v>5255</v>
+        <v>5243</v>
       </c>
       <c r="D30">
         <v>2006</v>
       </c>
       <c r="E30" t="s">
-        <v>5256</v>
+        <v>5244</v>
       </c>
       <c r="F30" t="s">
-        <v>5257</v>
+        <v>5245</v>
       </c>
       <c r="G30" t="s">
         <v>5028</v>
       </c>
       <c r="H30" t="s">
-        <v>5350</v>
+        <v>5338</v>
       </c>
       <c r="I30" t="b">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K30" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L30">
         <v>1427</v>
@@ -46430,7 +46399,7 @@
         <v>3</v>
       </c>
       <c r="T30" t="s">
-        <v>5362</v>
+        <v>5350</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -46438,34 +46407,34 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>5258</v>
+        <v>5246</v>
       </c>
       <c r="C31" t="s">
-        <v>5259</v>
+        <v>5247</v>
       </c>
       <c r="D31">
         <v>2011</v>
       </c>
       <c r="E31" t="s">
-        <v>5260</v>
+        <v>5248</v>
       </c>
       <c r="F31" t="s">
-        <v>5261</v>
+        <v>5249</v>
       </c>
       <c r="G31" t="s">
         <v>5028</v>
       </c>
       <c r="H31" t="s">
-        <v>5349</v>
+        <v>5337</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K31" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L31">
         <v>80</v>
@@ -46497,19 +46466,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>5262</v>
+        <v>5250</v>
       </c>
       <c r="C32" t="s">
-        <v>5263</v>
+        <v>5251</v>
       </c>
       <c r="D32">
         <v>1999</v>
       </c>
       <c r="E32" t="s">
-        <v>5264</v>
+        <v>5252</v>
       </c>
       <c r="F32" t="s">
-        <v>5265</v>
+        <v>5253</v>
       </c>
       <c r="G32" t="s">
         <v>5028</v>
@@ -46521,10 +46490,10 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K32" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L32">
         <v>182</v>
@@ -46556,34 +46525,34 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>5266</v>
+        <v>5254</v>
       </c>
       <c r="C33" t="s">
-        <v>5267</v>
+        <v>5255</v>
       </c>
       <c r="D33">
         <v>2004</v>
       </c>
       <c r="E33" t="s">
-        <v>5268</v>
+        <v>5256</v>
       </c>
       <c r="F33" t="s">
-        <v>5269</v>
+        <v>5257</v>
       </c>
       <c r="G33" t="s">
         <v>5028</v>
       </c>
       <c r="H33" t="s">
-        <v>5344</v>
+        <v>5332</v>
       </c>
       <c r="I33" t="b">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K33" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L33">
         <v>389</v>
@@ -46624,10 +46593,10 @@
         <v>1999</v>
       </c>
       <c r="E34" t="s">
-        <v>5270</v>
+        <v>5258</v>
       </c>
       <c r="F34" t="s">
-        <v>5271</v>
+        <v>5259</v>
       </c>
       <c r="G34" t="s">
         <v>5028</v>
@@ -46639,10 +46608,10 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K34" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L34">
         <v>177</v>
@@ -46657,7 +46626,7 @@
         <v>5028</v>
       </c>
       <c r="P34" t="s">
-        <v>5363</v>
+        <v>5351</v>
       </c>
       <c r="Q34" t="s">
         <v>963</v>
@@ -46683,10 +46652,10 @@
         <v>2001</v>
       </c>
       <c r="E35" t="s">
-        <v>5272</v>
+        <v>5260</v>
       </c>
       <c r="F35" t="s">
-        <v>5273</v>
+        <v>5261</v>
       </c>
       <c r="G35" t="s">
         <v>5028</v>
@@ -46698,10 +46667,10 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K35" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L35">
         <v>217</v>
@@ -46733,19 +46702,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>5274</v>
+        <v>5262</v>
       </c>
       <c r="C36" t="s">
-        <v>5275</v>
+        <v>5263</v>
       </c>
       <c r="D36">
         <v>1993</v>
       </c>
       <c r="E36" t="s">
-        <v>5276</v>
+        <v>5264</v>
       </c>
       <c r="F36" t="s">
-        <v>5277</v>
+        <v>5265</v>
       </c>
       <c r="G36" t="s">
         <v>5028</v>
@@ -46757,10 +46726,10 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K36" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L36">
         <v>1442</v>
@@ -46801,10 +46770,10 @@
         <v>2006</v>
       </c>
       <c r="E37" t="s">
-        <v>5278</v>
+        <v>5266</v>
       </c>
       <c r="F37" t="s">
-        <v>5279</v>
+        <v>5267</v>
       </c>
       <c r="G37" t="s">
         <v>5028</v>
@@ -46816,10 +46785,10 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K37" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L37">
         <v>254</v>
@@ -46860,10 +46829,10 @@
         <v>1998</v>
       </c>
       <c r="E38" t="s">
-        <v>5280</v>
+        <v>5268</v>
       </c>
       <c r="F38" t="s">
-        <v>5281</v>
+        <v>5269</v>
       </c>
       <c r="G38" t="s">
         <v>5028</v>
@@ -46875,10 +46844,10 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K38" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L38">
         <v>301</v>
@@ -46919,25 +46888,25 @@
         <v>2001</v>
       </c>
       <c r="E39" t="s">
-        <v>5282</v>
+        <v>5270</v>
       </c>
       <c r="F39" t="s">
-        <v>5283</v>
+        <v>5271</v>
       </c>
       <c r="G39" t="s">
         <v>5028</v>
       </c>
       <c r="H39" t="s">
-        <v>5351</v>
+        <v>5339</v>
       </c>
       <c r="I39" t="b">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K39" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L39">
         <v>293</v>
@@ -46952,7 +46921,7 @@
         <v>5028</v>
       </c>
       <c r="P39" t="s">
-        <v>5365</v>
+        <v>5353</v>
       </c>
       <c r="Q39" t="s">
         <v>963</v>
@@ -46978,25 +46947,25 @@
         <v>2008</v>
       </c>
       <c r="E40" t="s">
-        <v>5284</v>
+        <v>5272</v>
       </c>
       <c r="F40" t="s">
-        <v>5285</v>
+        <v>5273</v>
       </c>
       <c r="G40" t="s">
         <v>5028</v>
       </c>
       <c r="H40" t="s">
-        <v>5349</v>
+        <v>5337</v>
       </c>
       <c r="I40" t="b">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K40" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L40">
         <v>153</v>
@@ -47028,19 +46997,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>5286</v>
+        <v>5274</v>
       </c>
       <c r="C41" t="s">
-        <v>5287</v>
+        <v>5275</v>
       </c>
       <c r="D41">
         <v>2001</v>
       </c>
       <c r="E41" t="s">
-        <v>5288</v>
+        <v>5276</v>
       </c>
       <c r="F41" t="s">
-        <v>5289</v>
+        <v>5277</v>
       </c>
       <c r="G41" t="s">
         <v>5028</v>
@@ -47052,10 +47021,10 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K41" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L41">
         <v>188</v>
@@ -47087,34 +47056,34 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>5290</v>
+        <v>5278</v>
       </c>
       <c r="C42" t="s">
-        <v>5291</v>
+        <v>5279</v>
       </c>
       <c r="D42">
         <v>2004</v>
       </c>
       <c r="E42" t="s">
-        <v>5292</v>
+        <v>5280</v>
       </c>
       <c r="F42" t="s">
-        <v>5293</v>
+        <v>5281</v>
       </c>
       <c r="G42" t="s">
         <v>5028</v>
       </c>
       <c r="H42" t="s">
-        <v>5344</v>
+        <v>5332</v>
       </c>
       <c r="I42" t="b">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K42" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L42">
         <v>93</v>
@@ -47155,25 +47124,25 @@
         <v>1995</v>
       </c>
       <c r="E43" t="s">
-        <v>5294</v>
+        <v>5282</v>
       </c>
       <c r="F43" t="s">
-        <v>5295</v>
+        <v>5283</v>
       </c>
       <c r="G43" t="s">
         <v>5028</v>
       </c>
       <c r="H43" t="s">
-        <v>5352</v>
+        <v>5340</v>
       </c>
       <c r="I43" t="b">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K43" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L43">
         <v>372</v>
@@ -47188,7 +47157,7 @@
         <v>5028</v>
       </c>
       <c r="P43" t="s">
-        <v>5363</v>
+        <v>5351</v>
       </c>
       <c r="Q43" t="s">
         <v>963</v>
@@ -47200,7 +47169,7 @@
         <v>5028</v>
       </c>
       <c r="T43" t="s">
-        <v>5366</v>
+        <v>5354</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -47208,19 +47177,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>5296</v>
+        <v>5284</v>
       </c>
       <c r="C44" t="s">
-        <v>5297</v>
+        <v>5285</v>
       </c>
       <c r="D44">
         <v>2004</v>
       </c>
       <c r="E44" t="s">
-        <v>5298</v>
+        <v>5286</v>
       </c>
       <c r="F44" t="s">
-        <v>5299</v>
+        <v>5287</v>
       </c>
       <c r="G44" t="s">
         <v>5028</v>
@@ -47232,10 +47201,10 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K44" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L44">
         <v>1830</v>
@@ -47267,19 +47236,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>5300</v>
+        <v>5288</v>
       </c>
       <c r="C45" t="s">
-        <v>5301</v>
+        <v>5289</v>
       </c>
       <c r="D45">
         <v>2005</v>
       </c>
       <c r="E45" t="s">
-        <v>5302</v>
+        <v>5290</v>
       </c>
       <c r="F45" t="s">
-        <v>5303</v>
+        <v>5291</v>
       </c>
       <c r="G45" t="s">
         <v>5028</v>
@@ -47291,10 +47260,10 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K45" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L45">
         <v>345</v>
@@ -47326,34 +47295,34 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>5304</v>
+        <v>5292</v>
       </c>
       <c r="C46" t="s">
-        <v>5305</v>
+        <v>5293</v>
       </c>
       <c r="D46">
         <v>2006</v>
       </c>
       <c r="E46" t="s">
-        <v>5306</v>
+        <v>5294</v>
       </c>
       <c r="F46" t="s">
-        <v>5307</v>
+        <v>5295</v>
       </c>
       <c r="G46" t="s">
         <v>5028</v>
       </c>
       <c r="H46" t="s">
-        <v>5353</v>
+        <v>5341</v>
       </c>
       <c r="I46" t="b">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K46" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L46">
         <v>1005</v>
@@ -47368,7 +47337,7 @@
         <v>5028</v>
       </c>
       <c r="P46" t="s">
-        <v>5355</v>
+        <v>5343</v>
       </c>
       <c r="Q46" t="s">
         <v>963</v>
@@ -47385,19 +47354,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>5308</v>
+        <v>5296</v>
       </c>
       <c r="C47" t="s">
-        <v>5309</v>
+        <v>5297</v>
       </c>
       <c r="D47">
         <v>2006</v>
       </c>
       <c r="E47" t="s">
-        <v>5310</v>
+        <v>5298</v>
       </c>
       <c r="F47" t="s">
-        <v>5311</v>
+        <v>5299</v>
       </c>
       <c r="G47" t="s">
         <v>5028</v>
@@ -47409,10 +47378,10 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K47" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L47">
         <v>596</v>
@@ -47427,7 +47396,7 @@
         <v>5028</v>
       </c>
       <c r="P47" t="s">
-        <v>5355</v>
+        <v>5343</v>
       </c>
       <c r="Q47" t="s">
         <v>963</v>
@@ -47444,19 +47413,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>5312</v>
+        <v>5300</v>
       </c>
       <c r="C48" t="s">
-        <v>5313</v>
+        <v>5301</v>
       </c>
       <c r="D48">
         <v>2005</v>
       </c>
       <c r="E48" t="s">
-        <v>5314</v>
+        <v>5302</v>
       </c>
       <c r="F48" t="s">
-        <v>5156</v>
+        <v>5144</v>
       </c>
       <c r="G48" t="s">
         <v>5028</v>
@@ -47468,10 +47437,10 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K48" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L48">
         <v>386</v>
@@ -47512,25 +47481,25 @@
         <v>1982</v>
       </c>
       <c r="E49" t="s">
-        <v>5315</v>
+        <v>5303</v>
       </c>
       <c r="F49" t="s">
-        <v>5157</v>
+        <v>5145</v>
       </c>
       <c r="G49" t="s">
         <v>5028</v>
       </c>
       <c r="H49" t="s">
-        <v>5352</v>
+        <v>5340</v>
       </c>
       <c r="I49" t="b">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K49" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L49">
         <v>55</v>
@@ -47571,10 +47540,10 @@
         <v>1985</v>
       </c>
       <c r="E50" t="s">
-        <v>5316</v>
+        <v>5304</v>
       </c>
       <c r="F50" t="s">
-        <v>5158</v>
+        <v>5146</v>
       </c>
       <c r="G50" t="s">
         <v>5028</v>
@@ -47586,10 +47555,10 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K50" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L50">
         <v>2143</v>
@@ -47621,7 +47590,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>5317</v>
+        <v>5305</v>
       </c>
       <c r="C51" t="s">
         <v>674</v>
@@ -47630,10 +47599,10 @@
         <v>1979</v>
       </c>
       <c r="E51" t="s">
-        <v>5318</v>
+        <v>5306</v>
       </c>
       <c r="F51" t="s">
-        <v>5159</v>
+        <v>5147</v>
       </c>
       <c r="G51" t="s">
         <v>5028</v>
@@ -47645,10 +47614,10 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K51" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L51">
         <v>251</v>
@@ -47680,19 +47649,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>5319</v>
+        <v>5307</v>
       </c>
       <c r="C52" t="s">
-        <v>5320</v>
+        <v>5308</v>
       </c>
       <c r="D52">
         <v>1997</v>
       </c>
       <c r="E52" t="s">
-        <v>5321</v>
+        <v>5309</v>
       </c>
       <c r="F52" t="s">
-        <v>5322</v>
+        <v>5310</v>
       </c>
       <c r="G52" t="s">
         <v>5028</v>
@@ -47704,10 +47673,10 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K52" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L52">
         <v>9699</v>
@@ -47739,34 +47708,34 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>5323</v>
+        <v>5311</v>
       </c>
       <c r="C53" t="s">
-        <v>5324</v>
+        <v>5312</v>
       </c>
       <c r="D53">
         <v>2014</v>
       </c>
       <c r="E53" t="s">
-        <v>5325</v>
+        <v>5313</v>
       </c>
       <c r="F53" t="s">
-        <v>5326</v>
+        <v>5314</v>
       </c>
       <c r="G53" t="s">
         <v>5028</v>
       </c>
       <c r="H53" t="s">
-        <v>5342</v>
+        <v>5330</v>
       </c>
       <c r="I53" t="b">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K53" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L53">
         <v>264</v>
@@ -47798,19 +47767,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>5327</v>
+        <v>5315</v>
       </c>
       <c r="C54" t="s">
-        <v>5328</v>
+        <v>5316</v>
       </c>
       <c r="D54">
         <v>2001</v>
       </c>
       <c r="E54" t="s">
-        <v>5329</v>
+        <v>5317</v>
       </c>
       <c r="F54" t="s">
-        <v>5330</v>
+        <v>5318</v>
       </c>
       <c r="G54" t="s">
         <v>5028</v>
@@ -47822,10 +47791,10 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K54" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L54">
         <v>261</v>
@@ -47857,19 +47826,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>5331</v>
+        <v>5319</v>
       </c>
       <c r="C55" t="s">
-        <v>5332</v>
+        <v>5320</v>
       </c>
       <c r="D55">
         <v>1999</v>
       </c>
       <c r="E55" t="s">
-        <v>5333</v>
+        <v>5321</v>
       </c>
       <c r="F55" t="s">
-        <v>5334</v>
+        <v>5322</v>
       </c>
       <c r="G55" t="s">
         <v>5028</v>
@@ -47881,10 +47850,10 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K55" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L55">
         <v>423</v>
@@ -47916,19 +47885,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>5335</v>
+        <v>5323</v>
       </c>
       <c r="C56" t="s">
-        <v>5336</v>
+        <v>5324</v>
       </c>
       <c r="D56">
         <v>2011</v>
       </c>
       <c r="E56" t="s">
-        <v>5337</v>
+        <v>5325</v>
       </c>
       <c r="F56" t="s">
-        <v>5338</v>
+        <v>5326</v>
       </c>
       <c r="G56" t="s">
         <v>5028</v>
@@ -47940,10 +47909,10 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="K56" t="s">
-        <v>5339</v>
+        <v>5327</v>
       </c>
       <c r="L56">
         <v>197</v>
@@ -49575,10 +49544,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49630,24 +49599,24 @@
         <v>962</v>
       </c>
       <c r="O1" s="23" t="s">
-        <v>5131</v>
-      </c>
-      <c r="P1" s="40" t="s">
-        <v>5137</v>
+        <v>5119</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>5125</v>
       </c>
       <c r="Q1" s="28" t="s">
         <v>5037</v>
       </c>
       <c r="R1" s="29">
         <f>COUNTIFS($N:$N, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T1" s="28" t="s">
         <v>5038</v>
       </c>
       <c r="U1" s="29">
-        <f>COUNTIF($M$2:$M$571, "YES")</f>
-        <v>17</v>
+        <f>COUNTIF($M$2:$M$569, "YES")</f>
+        <v>15</v>
       </c>
       <c r="V1" s="31"/>
       <c r="W1" s="31"/>
@@ -49824,10 +49793,10 @@
         <v>2003</v>
       </c>
       <c r="E5" t="s">
+        <v>5081</v>
+      </c>
+      <c r="F5" t="s">
         <v>5082</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5083</v>
       </c>
       <c r="G5" t="s">
         <v>5029</v>
@@ -49871,10 +49840,10 @@
         <v>2012</v>
       </c>
       <c r="E6" t="s">
-        <v>5085</v>
+        <v>5084</v>
       </c>
       <c r="F6" t="s">
-        <v>5084</v>
+        <v>5083</v>
       </c>
       <c r="G6" t="s">
         <v>5029</v>
@@ -49883,13 +49852,13 @@
         <v>176</v>
       </c>
       <c r="I6" t="s">
+        <v>5085</v>
+      </c>
+      <c r="J6" t="s">
         <v>5086</v>
       </c>
-      <c r="J6" t="s">
-        <v>5087</v>
-      </c>
       <c r="K6" t="s">
-        <v>5087</v>
+        <v>5086</v>
       </c>
       <c r="L6" t="s">
         <v>5071</v>
@@ -49904,11 +49873,11 @@
         <v>966</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>5135</v>
+        <v>5123</v>
       </c>
       <c r="R6">
         <f>COUNTIFS($N:$N, "YES", $M:$M, "&lt;&gt;PRIMARY STUDY")</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W6" t="s">
         <v>5075</v>
@@ -49928,10 +49897,10 @@
         <v>1995</v>
       </c>
       <c r="E7" t="s">
+        <v>5087</v>
+      </c>
+      <c r="F7" t="s">
         <v>5088</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5089</v>
       </c>
       <c r="G7" t="s">
         <v>5029</v>
@@ -49940,13 +49909,13 @@
         <v>372</v>
       </c>
       <c r="I7" t="s">
+        <v>5089</v>
+      </c>
+      <c r="J7" t="s">
         <v>5090</v>
       </c>
-      <c r="J7" t="s">
-        <v>5091</v>
-      </c>
       <c r="K7" t="s">
-        <v>5091</v>
+        <v>5090</v>
       </c>
       <c r="L7" t="s">
         <v>5072</v>
@@ -49961,7 +49930,7 @@
         <v>966</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>5132</v>
+        <v>5120</v>
       </c>
       <c r="R7">
         <f>COUNTIFS($O:$O, "YES", $F:$F, "&lt;&gt;")</f>
@@ -49973,37 +49942,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5092</v>
+        <v>5073</v>
       </c>
       <c r="C8" t="s">
-        <v>5080</v>
+        <v>4077</v>
       </c>
       <c r="D8">
-        <v>1976</v>
+        <v>1994</v>
       </c>
       <c r="E8" t="s">
+        <v>5094</v>
+      </c>
+      <c r="F8" t="s">
         <v>5093</v>
-      </c>
-      <c r="F8" t="s">
-        <v>5094</v>
       </c>
       <c r="G8" t="s">
         <v>5029</v>
       </c>
       <c r="H8">
-        <v>382</v>
+        <v>616</v>
       </c>
       <c r="I8" t="s">
-        <v>5095</v>
+        <v>5091</v>
       </c>
       <c r="J8" t="s">
-        <v>5096</v>
-      </c>
-      <c r="K8" t="s">
-        <v>5096</v>
+        <v>5092</v>
       </c>
       <c r="L8" t="s">
-        <v>5092</v>
+        <v>5073</v>
       </c>
       <c r="M8" t="s">
         <v>963</v>
@@ -50020,34 +49986,37 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5073</v>
+        <v>5074</v>
       </c>
       <c r="C9" t="s">
-        <v>4077</v>
+        <v>5080</v>
       </c>
       <c r="D9">
-        <v>1994</v>
+        <v>1999</v>
       </c>
       <c r="E9" t="s">
-        <v>5100</v>
+        <v>5097</v>
       </c>
       <c r="F9" t="s">
-        <v>5099</v>
+        <v>5098</v>
       </c>
       <c r="G9" t="s">
         <v>5029</v>
       </c>
       <c r="H9">
-        <v>616</v>
+        <v>196</v>
       </c>
       <c r="I9" t="s">
-        <v>5097</v>
+        <v>5095</v>
       </c>
       <c r="J9" t="s">
-        <v>5098</v>
+        <v>5096</v>
+      </c>
+      <c r="K9" t="s">
+        <v>5096</v>
       </c>
       <c r="L9" t="s">
-        <v>5073</v>
+        <v>5074</v>
       </c>
       <c r="M9" t="s">
         <v>963</v>
@@ -50064,37 +50033,37 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5074</v>
+        <v>5102</v>
       </c>
       <c r="C10" t="s">
-        <v>5081</v>
+        <v>5103</v>
       </c>
       <c r="D10">
-        <v>1999</v>
+        <v>2018</v>
       </c>
       <c r="E10" t="s">
-        <v>5103</v>
+        <v>5104</v>
       </c>
       <c r="F10" t="s">
-        <v>5104</v>
+        <v>5099</v>
       </c>
       <c r="G10" t="s">
         <v>5029</v>
       </c>
       <c r="H10">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="I10" t="s">
+        <v>5100</v>
+      </c>
+      <c r="J10" t="s">
         <v>5101</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
+        <v>5101</v>
+      </c>
+      <c r="L10" t="s">
         <v>5102</v>
-      </c>
-      <c r="K10" t="s">
-        <v>5102</v>
-      </c>
-      <c r="L10" t="s">
-        <v>5074</v>
       </c>
       <c r="M10" t="s">
         <v>963</v>
@@ -50117,7 +50086,7 @@
         <v>5109</v>
       </c>
       <c r="D11">
-        <v>1996</v>
+        <v>2012</v>
       </c>
       <c r="E11" t="s">
         <v>5110</v>
@@ -50129,12 +50098,15 @@
         <v>5029</v>
       </c>
       <c r="H11">
-        <v>218</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s">
         <v>5106</v>
       </c>
       <c r="J11" t="s">
+        <v>5107</v>
+      </c>
+      <c r="K11" t="s">
         <v>5107</v>
       </c>
       <c r="L11" t="s">
@@ -50155,37 +50127,37 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5114</v>
+        <v>5115</v>
       </c>
       <c r="C12" t="s">
-        <v>5115</v>
+        <v>5112</v>
       </c>
       <c r="D12">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="E12" t="s">
         <v>5116</v>
       </c>
       <c r="F12" t="s">
-        <v>5111</v>
+        <v>5113</v>
       </c>
       <c r="G12" t="s">
         <v>5029</v>
       </c>
       <c r="H12">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>5112</v>
+        <v>5114</v>
       </c>
       <c r="J12" t="s">
-        <v>5113</v>
+        <v>5111</v>
       </c>
       <c r="K12" t="s">
-        <v>5113</v>
+        <v>5111</v>
       </c>
       <c r="L12" t="s">
-        <v>5114</v>
+        <v>5115</v>
       </c>
       <c r="M12" t="s">
         <v>963</v>
@@ -50202,37 +50174,37 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5120</v>
+        <v>3935</v>
       </c>
       <c r="C13" t="s">
-        <v>5121</v>
+        <v>3936</v>
       </c>
       <c r="D13">
-        <v>2012</v>
+        <v>2005</v>
       </c>
       <c r="E13" t="s">
-        <v>5122</v>
+        <v>1072</v>
       </c>
       <c r="F13" t="s">
-        <v>5117</v>
+        <v>970</v>
       </c>
       <c r="G13" t="s">
-        <v>5029</v>
+        <v>1074</v>
       </c>
       <c r="H13">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>5118</v>
+        <v>1073</v>
       </c>
       <c r="J13" t="s">
-        <v>5119</v>
+        <v>1075</v>
       </c>
       <c r="K13" t="s">
-        <v>5119</v>
+        <v>1075</v>
       </c>
       <c r="L13" t="s">
-        <v>5120</v>
+        <v>3935</v>
       </c>
       <c r="M13" t="s">
         <v>963</v>
@@ -50242,6 +50214,9 @@
       </c>
       <c r="O13" s="7" t="s">
         <v>966</v>
+      </c>
+      <c r="P13" t="s">
+        <v>5126</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -50249,37 +50224,37 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>5127</v>
+        <v>3965</v>
       </c>
       <c r="C14" t="s">
-        <v>5124</v>
+        <v>3966</v>
       </c>
       <c r="D14">
-        <v>2020</v>
+        <v>2003</v>
       </c>
       <c r="E14" t="s">
-        <v>5128</v>
+        <v>1211</v>
       </c>
       <c r="F14" t="s">
-        <v>5125</v>
+        <v>4598</v>
       </c>
       <c r="G14" t="s">
-        <v>5029</v>
+        <v>1213</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>265</v>
       </c>
       <c r="I14" t="s">
-        <v>5126</v>
+        <v>1212</v>
       </c>
       <c r="J14" t="s">
-        <v>5123</v>
+        <v>1214</v>
       </c>
       <c r="K14" t="s">
-        <v>5123</v>
+        <v>1215</v>
       </c>
       <c r="L14" t="s">
-        <v>5127</v>
+        <v>3965</v>
       </c>
       <c r="M14" t="s">
         <v>963</v>
@@ -50289,6 +50264,9 @@
       </c>
       <c r="O14" s="7" t="s">
         <v>966</v>
+      </c>
+      <c r="P14" t="s">
+        <v>5126</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -50296,37 +50274,37 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>3935</v>
+        <v>4127</v>
       </c>
       <c r="C15" t="s">
-        <v>3936</v>
+        <v>4128</v>
       </c>
       <c r="D15">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E15" t="s">
-        <v>1072</v>
+        <v>1957</v>
       </c>
       <c r="F15" t="s">
-        <v>970</v>
+        <v>1962</v>
       </c>
       <c r="G15" t="s">
-        <v>1074</v>
+        <v>1959</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I15" t="s">
-        <v>1073</v>
+        <v>1958</v>
       </c>
       <c r="J15" t="s">
-        <v>1075</v>
+        <v>1960</v>
       </c>
       <c r="K15" t="s">
-        <v>1075</v>
+        <v>1961</v>
       </c>
       <c r="L15" t="s">
-        <v>3935</v>
+        <v>4127</v>
       </c>
       <c r="M15" t="s">
         <v>963</v>
@@ -50338,7 +50316,7 @@
         <v>966</v>
       </c>
       <c r="P15" t="s">
-        <v>5138</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -50346,37 +50324,37 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>3965</v>
+        <v>399</v>
       </c>
       <c r="C16" t="s">
-        <v>3966</v>
+        <v>400</v>
       </c>
       <c r="D16">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="E16" t="s">
-        <v>1211</v>
+        <v>5258</v>
       </c>
       <c r="F16" t="s">
-        <v>4598</v>
+        <v>5259</v>
       </c>
       <c r="G16" t="s">
-        <v>1213</v>
+        <v>5028</v>
       </c>
       <c r="H16">
-        <v>265</v>
+        <v>177</v>
       </c>
       <c r="I16" t="s">
-        <v>1212</v>
+        <v>5028</v>
       </c>
       <c r="J16" t="s">
-        <v>1214</v>
+        <v>5028</v>
       </c>
       <c r="K16" t="s">
-        <v>1215</v>
+        <v>5028</v>
       </c>
       <c r="L16" t="s">
-        <v>3965</v>
+        <v>399</v>
       </c>
       <c r="M16" t="s">
         <v>963</v>
@@ -50388,117 +50366,18 @@
         <v>966</v>
       </c>
       <c r="P16" t="s">
-        <v>5138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4127</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4128</v>
-      </c>
-      <c r="D17">
-        <v>2004</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1957</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1962</v>
-      </c>
-      <c r="G17" t="s">
-        <v>1959</v>
-      </c>
-      <c r="H17">
-        <v>19</v>
-      </c>
-      <c r="I17" t="s">
-        <v>1958</v>
-      </c>
-      <c r="J17" t="s">
-        <v>1960</v>
-      </c>
-      <c r="K17" t="s">
-        <v>1961</v>
-      </c>
-      <c r="L17" t="s">
-        <v>4127</v>
-      </c>
-      <c r="M17" t="s">
-        <v>963</v>
-      </c>
-      <c r="N17" t="s">
-        <v>963</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>966</v>
-      </c>
-      <c r="P17" t="s">
-        <v>5138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>399</v>
-      </c>
-      <c r="C18" t="s">
-        <v>400</v>
-      </c>
-      <c r="D18">
-        <v>1999</v>
-      </c>
-      <c r="E18" t="s">
-        <v>5270</v>
-      </c>
-      <c r="F18" t="s">
-        <v>5271</v>
-      </c>
-      <c r="G18" t="s">
-        <v>5028</v>
-      </c>
-      <c r="H18">
-        <v>177</v>
-      </c>
-      <c r="I18" t="s">
-        <v>5028</v>
-      </c>
-      <c r="J18" t="s">
-        <v>5028</v>
-      </c>
-      <c r="K18" t="s">
-        <v>5028</v>
-      </c>
-      <c r="L18" t="s">
-        <v>399</v>
-      </c>
-      <c r="M18" t="s">
-        <v>963</v>
-      </c>
-      <c r="N18" t="s">
-        <v>963</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>966</v>
-      </c>
-      <c r="P18" t="s">
-        <v>5364</v>
+        <v>5352</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="B1:B2">
     <cfRule type="duplicateValues" dxfId="24" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
+  <conditionalFormatting sqref="B15">
     <cfRule type="duplicateValues" dxfId="23" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
+  <conditionalFormatting sqref="B16">
     <cfRule type="duplicateValues" dxfId="22" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
@@ -50506,66 +50385,62 @@
       <formula>LEN(TRIM(F1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:F18">
+  <conditionalFormatting sqref="F15:F16">
     <cfRule type="containsBlanks" dxfId="20" priority="15">
-      <formula>LEN(TRIM(F17))=0</formula>
+      <formula>LEN(TRIM(F15))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H16 H19:H1048576">
-    <cfRule type="containsBlanks" dxfId="19" priority="38">
+  <conditionalFormatting sqref="H17:H1048576 H1:H14">
+    <cfRule type="containsBlanks" dxfId="5" priority="38">
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="duplicateValues" dxfId="18" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
-    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
+  <conditionalFormatting sqref="L15">
+    <cfRule type="duplicateValues" dxfId="18" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L18">
-    <cfRule type="duplicateValues" dxfId="16" priority="5"/>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="duplicateValues" dxfId="17" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:O18">
-    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="PRIMARY STUDY">
+  <conditionalFormatting sqref="M2:O16">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="PRIMARY STUDY">
       <formula>NOT(ISERROR(SEARCH("PRIMARY STUDY",M2)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="14" priority="3" operator="notContains" text="YES">
+    <cfRule type="notContainsText" dxfId="3" priority="3" operator="notContains" text="YES">
       <formula>ISERROR(SEARCH("YES",M2))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O17:O18">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="between">
+  <conditionalFormatting sqref="O15:O16">
+    <cfRule type="containsBlanks" dxfId="16" priority="1">
+      <formula>LEN(TRIM(O15))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O17:O18">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
-      <formula>LEN(TRIM(O17))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O17:O18">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="X">
-      <formula>NOT(ISERROR(SEARCH("X",O17)))</formula>
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH("X",O15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1 P4">
-    <cfRule type="cellIs" dxfId="9" priority="32" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="32" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="33" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="0" priority="33" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",P1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q2">
-    <cfRule type="duplicateValues" dxfId="7" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="duplicateValues" dxfId="6" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="29"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -59458,10 +59333,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L1 A1:K251">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>$K1=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="9">
+    <cfRule type="expression" dxfId="10" priority="9">
       <formula>$J1=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -67406,10 +67281,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:J253 J257 J259:J1048576">
-    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="13" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -67426,10 +67301,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",M17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",M17)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5790807-DFDD-4C9F-AECC-2EE0BADB10E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A10534B-7646-4323-870B-F2A3E6131FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Query literature" sheetId="5" r:id="rId1"/>
@@ -694,7 +694,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10224" uniqueCount="5355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10199" uniqueCount="5349">
   <si>
     <t>Number</t>
   </si>
@@ -15991,24 +15991,6 @@
   </si>
   <si>
     <t>Behrman, Jere R., and Mark R. Rosenzweig. "“Ability” biases in schooling returns and twins: a test and new estimates." Economics of education review 18, no. 2 (1999): 159-167.</t>
-  </si>
-  <si>
-    <t>Gensowski, Miriam. "Personality, IQ, and lifetime earnings." Labour Economics 51 (2018): 170-183.</t>
-  </si>
-  <si>
-    <t>1AmpL352mVcJ</t>
-  </si>
-  <si>
-    <t>https://www.econstor.eu/bitstream/10419/99046/1/dp8235.pdf</t>
-  </si>
-  <si>
-    <t>Gensowski (2018)</t>
-  </si>
-  <si>
-    <t>Gensowski</t>
-  </si>
-  <si>
-    <t>Personality, IQ, and lifetime earnings</t>
   </si>
   <si>
     <t>Nakamuro, Makiko, and Tomohiko Inui. "Estimating the Returns to Education Using a Sample of Twins–The case of Japan." In RIETI Discussion Paper Series 12-E-076. 2012.</t>
@@ -17149,48 +17131,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFAACAC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFAACAC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBA8CDC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFAACAC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -17274,6 +17214,41 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAACAC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAACAC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBA8CDC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <color theme="4" tint="-0.24994659260841701"/>
@@ -17303,6 +17278,13 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAACAC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -17898,27 +17880,27 @@
         <v>962</v>
       </c>
       <c r="N1" s="24" t="s">
+        <v>5113</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>5111</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>5119</v>
-      </c>
-      <c r="O1" s="25" t="s">
-        <v>5117</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>5125</v>
       </c>
       <c r="Q1" s="28" t="s">
         <v>5037</v>
       </c>
       <c r="R1" s="29">
         <f>COUNTIFS($M:$M, "YES", $F:$F, "&lt;&gt;") + Twins!R1</f>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T1" s="28" t="s">
         <v>5038</v>
       </c>
       <c r="U1" s="29">
         <f>COUNTIF($L$2:$L$575, "&lt;&gt; ") +Twins!U1</f>
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="V1" s="31"/>
       <c r="W1" s="31"/>
@@ -18079,7 +18061,7 @@
         <v>574</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>5123</v>
+        <v>5117</v>
       </c>
       <c r="U4">
         <f>COUNTIFS($M:$M, "YES", $L:$L, "&lt;&gt;PRIMARY STUDY", $P:$P, "&lt;&gt;Twins")</f>
@@ -18140,7 +18122,7 @@
         <v>574</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>5120</v>
+        <v>5114</v>
       </c>
       <c r="U5" s="37">
         <f>COUNTIFS($N:$N, "YES", $F:$F, "&lt;&gt;")</f>
@@ -18248,7 +18230,7 @@
         <v>5028</v>
       </c>
       <c r="P7" t="s">
-        <v>5349</v>
+        <v>5343</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>904</v>
@@ -18449,10 +18431,10 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>5124</v>
+        <v>5118</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>5118</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -18505,7 +18487,7 @@
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>5121</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -18558,7 +18540,7 @@
         <v>2</v>
       </c>
       <c r="R13" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -19811,7 +19793,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>5124</v>
+        <v>5118</v>
       </c>
       <c r="R38" t="s">
         <v>904</v>
@@ -19964,7 +19946,7 @@
         <v>2</v>
       </c>
       <c r="P41" t="s">
-        <v>5135</v>
+        <v>5129</v>
       </c>
       <c r="R41" t="s">
         <v>904</v>
@@ -20767,7 +20749,7 @@
         <v>2</v>
       </c>
       <c r="P57" t="s">
-        <v>5127</v>
+        <v>5121</v>
       </c>
       <c r="R57" t="s">
         <v>904</v>
@@ -22420,7 +22402,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>5128</v>
+        <v>5122</v>
       </c>
       <c r="R90" t="s">
         <v>904</v>
@@ -22431,7 +22413,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>5129</v>
+        <v>5123</v>
       </c>
       <c r="C91" t="s">
         <v>4015</v>
@@ -23423,7 +23405,7 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>5130</v>
+        <v>5124</v>
       </c>
       <c r="R110" t="s">
         <v>904</v>
@@ -23876,7 +23858,7 @@
         <v>4</v>
       </c>
       <c r="P119" t="s">
-        <v>5131</v>
+        <v>5125</v>
       </c>
       <c r="R119" t="s">
         <v>904</v>
@@ -25170,7 +25152,7 @@
         <v>1765</v>
       </c>
       <c r="L145" t="s">
-        <v>5132</v>
+        <v>5126</v>
       </c>
       <c r="M145" t="s">
         <v>966</v>
@@ -25190,7 +25172,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>5133</v>
+        <v>5127</v>
       </c>
       <c r="C146" t="s">
         <v>4080</v>
@@ -25202,7 +25184,7 @@
         <v>1766</v>
       </c>
       <c r="F146" t="s">
-        <v>5134</v>
+        <v>5128</v>
       </c>
       <c r="G146" t="s">
         <v>1768</v>
@@ -25393,7 +25375,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>5136</v>
+        <v>5130</v>
       </c>
       <c r="C150" t="s">
         <v>4085</v>
@@ -25402,13 +25384,13 @@
         <v>2012</v>
       </c>
       <c r="E150" t="s">
-        <v>5137</v>
+        <v>5131</v>
       </c>
       <c r="F150" t="s">
-        <v>5138</v>
+        <v>5132</v>
       </c>
       <c r="G150" t="s">
-        <v>5139</v>
+        <v>5133</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -27297,7 +27279,7 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>5124</v>
+        <v>5118</v>
       </c>
       <c r="R187" t="s">
         <v>904</v>
@@ -44598,16 +44580,16 @@
         <v>3907</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>5140</v>
+        <v>5134</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>5141</v>
+        <v>5135</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>5142</v>
+        <v>5136</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>5143</v>
+        <v>5137</v>
       </c>
       <c r="L1" s="23" t="s">
         <v>3902</v>
@@ -44628,13 +44610,13 @@
         <v>962</v>
       </c>
       <c r="R1" s="24" t="s">
+        <v>5113</v>
+      </c>
+      <c r="S1" s="25" t="s">
+        <v>5111</v>
+      </c>
+      <c r="T1" s="39" t="s">
         <v>5119</v>
-      </c>
-      <c r="S1" s="25" t="s">
-        <v>5117</v>
-      </c>
-      <c r="T1" s="39" t="s">
-        <v>5125</v>
       </c>
       <c r="U1" s="28" t="s">
         <v>5037</v>
@@ -44660,7 +44642,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>5148</v>
+        <v>5142</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>4157</v>
@@ -44669,10 +44651,10 @@
         <v>2010</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>5149</v>
+        <v>5143</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>5150</v>
+        <v>5144</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>5028</v>
@@ -44684,10 +44666,10 @@
         <v>1</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L2" s="34">
         <v>289</v>
@@ -44726,34 +44708,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5151</v>
+        <v>5145</v>
       </c>
       <c r="C3" t="s">
-        <v>5152</v>
+        <v>5146</v>
       </c>
       <c r="D3">
         <v>2000</v>
       </c>
       <c r="E3" t="s">
-        <v>5153</v>
+        <v>5147</v>
       </c>
       <c r="F3" t="s">
-        <v>5154</v>
+        <v>5148</v>
       </c>
       <c r="G3" t="s">
         <v>5028</v>
       </c>
       <c r="H3" t="s">
-        <v>5328</v>
+        <v>5322</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K3" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L3">
         <v>1486</v>
@@ -44768,7 +44750,7 @@
         <v>5028</v>
       </c>
       <c r="P3" t="s">
-        <v>5344</v>
+        <v>5338</v>
       </c>
       <c r="Q3" t="s">
         <v>963</v>
@@ -44794,10 +44776,10 @@
         <v>1995</v>
       </c>
       <c r="E4" t="s">
-        <v>5155</v>
+        <v>5149</v>
       </c>
       <c r="F4" t="s">
-        <v>5156</v>
+        <v>5150</v>
       </c>
       <c r="G4" t="s">
         <v>5028</v>
@@ -44809,10 +44791,10 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K4" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L4">
         <v>321</v>
@@ -44844,34 +44826,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5157</v>
+        <v>5151</v>
       </c>
       <c r="C5" t="s">
-        <v>5158</v>
+        <v>5152</v>
       </c>
       <c r="D5">
         <v>1991</v>
       </c>
       <c r="E5" t="s">
-        <v>5159</v>
+        <v>5153</v>
       </c>
       <c r="F5" t="s">
-        <v>5160</v>
+        <v>5154</v>
       </c>
       <c r="G5" t="s">
         <v>5028</v>
       </c>
       <c r="H5" t="s">
-        <v>5329</v>
+        <v>5323</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K5" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L5">
         <v>3590</v>
@@ -44903,19 +44885,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5161</v>
+        <v>5155</v>
       </c>
       <c r="C6" t="s">
-        <v>5162</v>
+        <v>5156</v>
       </c>
       <c r="D6">
         <v>2005</v>
       </c>
       <c r="E6" t="s">
-        <v>5163</v>
+        <v>5157</v>
       </c>
       <c r="F6" t="s">
-        <v>5164</v>
+        <v>5158</v>
       </c>
       <c r="G6" t="s">
         <v>5028</v>
@@ -44927,10 +44909,10 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K6" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L6">
         <v>1510</v>
@@ -44957,10 +44939,10 @@
         <v>5028</v>
       </c>
       <c r="T6" t="s">
-        <v>5342</v>
+        <v>5336</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>5123</v>
+        <v>5117</v>
       </c>
       <c r="V6">
         <f>COUNTIF($P:$P, "YES")</f>
@@ -44972,34 +44954,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5165</v>
+        <v>5159</v>
       </c>
       <c r="C7" t="s">
-        <v>5166</v>
+        <v>5160</v>
       </c>
       <c r="D7">
         <v>2002</v>
       </c>
       <c r="E7" t="s">
-        <v>5167</v>
+        <v>5161</v>
       </c>
       <c r="F7" t="s">
-        <v>5168</v>
+        <v>5162</v>
       </c>
       <c r="G7" t="s">
         <v>5028</v>
       </c>
       <c r="H7" t="s">
-        <v>5330</v>
+        <v>5324</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K7" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L7">
         <v>321</v>
@@ -45026,7 +45008,7 @@
         <v>1</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>5120</v>
+        <v>5114</v>
       </c>
       <c r="V7">
         <f>COUNTIFS($R:$R, "YES", $F:$F, "&lt;&gt;")</f>
@@ -45047,10 +45029,10 @@
         <v>1998</v>
       </c>
       <c r="E8" t="s">
-        <v>5169</v>
+        <v>5163</v>
       </c>
       <c r="F8" t="s">
-        <v>5170</v>
+        <v>5164</v>
       </c>
       <c r="G8" t="s">
         <v>5028</v>
@@ -45062,10 +45044,10 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K8" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L8">
         <v>588</v>
@@ -45097,34 +45079,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5171</v>
+        <v>5165</v>
       </c>
       <c r="C9" t="s">
-        <v>5172</v>
+        <v>5166</v>
       </c>
       <c r="D9">
         <v>2014</v>
       </c>
       <c r="E9" t="s">
-        <v>5173</v>
+        <v>5167</v>
       </c>
       <c r="F9" t="s">
-        <v>5174</v>
+        <v>5168</v>
       </c>
       <c r="G9" t="s">
         <v>5028</v>
       </c>
       <c r="H9" t="s">
-        <v>5331</v>
+        <v>5325</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K9" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L9">
         <v>73</v>
@@ -45156,34 +45138,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5175</v>
+        <v>5169</v>
       </c>
       <c r="C10" t="s">
-        <v>5176</v>
+        <v>5170</v>
       </c>
       <c r="D10">
         <v>2018</v>
       </c>
       <c r="E10" t="s">
-        <v>5177</v>
+        <v>5171</v>
       </c>
       <c r="F10" t="s">
-        <v>5178</v>
+        <v>5172</v>
       </c>
       <c r="G10" t="s">
         <v>5028</v>
       </c>
       <c r="H10" t="s">
-        <v>5332</v>
+        <v>5326</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K10" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L10">
         <v>74</v>
@@ -45198,7 +45180,7 @@
         <v>5028</v>
       </c>
       <c r="P10" t="s">
-        <v>5343</v>
+        <v>5337</v>
       </c>
       <c r="Q10" t="s">
         <v>963</v>
@@ -45215,19 +45197,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5179</v>
+        <v>5173</v>
       </c>
       <c r="C11" t="s">
-        <v>5180</v>
+        <v>5174</v>
       </c>
       <c r="D11">
         <v>2014</v>
       </c>
       <c r="E11" t="s">
-        <v>5181</v>
+        <v>5175</v>
       </c>
       <c r="F11" t="s">
-        <v>5182</v>
+        <v>5176</v>
       </c>
       <c r="G11" t="s">
         <v>5028</v>
@@ -45239,10 +45221,10 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K11" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L11">
         <v>17</v>
@@ -45274,7 +45256,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5183</v>
+        <v>5177</v>
       </c>
       <c r="C12" t="s">
         <v>3928</v>
@@ -45283,25 +45265,25 @@
         <v>1995</v>
       </c>
       <c r="E12" t="s">
-        <v>5184</v>
+        <v>5178</v>
       </c>
       <c r="F12" t="s">
-        <v>5185</v>
+        <v>5179</v>
       </c>
       <c r="G12" t="s">
         <v>5028</v>
       </c>
       <c r="H12" t="s">
-        <v>5333</v>
+        <v>5327</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K12" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L12">
         <v>1789</v>
@@ -45333,7 +45315,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5186</v>
+        <v>5180</v>
       </c>
       <c r="C13" t="s">
         <v>3928</v>
@@ -45342,25 +45324,25 @@
         <v>2001</v>
       </c>
       <c r="E13" t="s">
-        <v>5187</v>
+        <v>5181</v>
       </c>
       <c r="F13" t="s">
-        <v>5188</v>
+        <v>5182</v>
       </c>
       <c r="G13" t="s">
         <v>5028</v>
       </c>
       <c r="H13" t="s">
-        <v>5330</v>
+        <v>5324</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K13" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L13">
         <v>2928</v>
@@ -45375,7 +45357,7 @@
         <v>5028</v>
       </c>
       <c r="P13" t="s">
-        <v>5345</v>
+        <v>5339</v>
       </c>
       <c r="Q13" t="s">
         <v>963</v>
@@ -45387,7 +45369,7 @@
         <v>1</v>
       </c>
       <c r="T13" t="s">
-        <v>5346</v>
+        <v>5340</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -45395,7 +45377,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>5189</v>
+        <v>5183</v>
       </c>
       <c r="C14" t="s">
         <v>4356</v>
@@ -45404,25 +45386,25 @@
         <v>2011</v>
       </c>
       <c r="E14" t="s">
-        <v>5190</v>
+        <v>5184</v>
       </c>
       <c r="F14" t="s">
-        <v>5191</v>
+        <v>5185</v>
       </c>
       <c r="G14" t="s">
         <v>5028</v>
       </c>
       <c r="H14" t="s">
-        <v>5334</v>
+        <v>5328</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K14" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L14">
         <v>783</v>
@@ -45454,34 +45436,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>5192</v>
+        <v>5186</v>
       </c>
       <c r="C15" t="s">
-        <v>5193</v>
+        <v>5187</v>
       </c>
       <c r="D15">
         <v>2019</v>
       </c>
       <c r="E15" t="s">
-        <v>5194</v>
+        <v>5188</v>
       </c>
       <c r="F15" t="s">
-        <v>5195</v>
+        <v>5189</v>
       </c>
       <c r="G15" t="s">
         <v>5028</v>
       </c>
       <c r="H15" t="s">
-        <v>5335</v>
+        <v>5329</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K15" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L15">
         <v>141</v>
@@ -45508,7 +45490,7 @@
         <v>5028</v>
       </c>
       <c r="T15" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
@@ -45525,10 +45507,10 @@
         <v>1998</v>
       </c>
       <c r="E16" t="s">
-        <v>5196</v>
+        <v>5190</v>
       </c>
       <c r="F16" t="s">
-        <v>5197</v>
+        <v>5191</v>
       </c>
       <c r="G16" t="s">
         <v>5028</v>
@@ -45540,10 +45522,10 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K16" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L16">
         <v>284</v>
@@ -45575,34 +45557,34 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>5198</v>
+        <v>5192</v>
       </c>
       <c r="C17" t="s">
-        <v>5199</v>
+        <v>5193</v>
       </c>
       <c r="D17">
         <v>2010</v>
       </c>
       <c r="E17" t="s">
-        <v>5200</v>
+        <v>5194</v>
       </c>
       <c r="F17" t="s">
-        <v>5201</v>
+        <v>5195</v>
       </c>
       <c r="G17" t="s">
         <v>5028</v>
       </c>
       <c r="H17" t="s">
-        <v>5336</v>
+        <v>5330</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K17" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L17">
         <v>252</v>
@@ -45634,19 +45616,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>5202</v>
+        <v>5196</v>
       </c>
       <c r="C18" t="s">
-        <v>5203</v>
+        <v>5197</v>
       </c>
       <c r="D18">
         <v>1991</v>
       </c>
       <c r="E18" t="s">
-        <v>5204</v>
+        <v>5198</v>
       </c>
       <c r="F18" t="s">
-        <v>5205</v>
+        <v>5199</v>
       </c>
       <c r="G18" t="s">
         <v>5028</v>
@@ -45658,10 +45640,10 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K18" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L18">
         <v>88</v>
@@ -45702,10 +45684,10 @@
         <v>2001</v>
       </c>
       <c r="E19" t="s">
-        <v>5206</v>
+        <v>5200</v>
       </c>
       <c r="F19" t="s">
-        <v>5207</v>
+        <v>5201</v>
       </c>
       <c r="G19" t="s">
         <v>5028</v>
@@ -45717,10 +45699,10 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K19" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L19">
         <v>2852</v>
@@ -45761,10 +45743,10 @@
         <v>2002</v>
       </c>
       <c r="E20" t="s">
-        <v>5208</v>
+        <v>5202</v>
       </c>
       <c r="F20" t="s">
-        <v>5209</v>
+        <v>5203</v>
       </c>
       <c r="G20" t="s">
         <v>5028</v>
@@ -45776,10 +45758,10 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K20" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L20">
         <v>386</v>
@@ -45811,34 +45793,34 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>5210</v>
+        <v>5204</v>
       </c>
       <c r="C21" t="s">
-        <v>5211</v>
+        <v>5205</v>
       </c>
       <c r="D21">
         <v>2008</v>
       </c>
       <c r="E21" t="s">
-        <v>5212</v>
+        <v>5206</v>
       </c>
       <c r="F21" t="s">
-        <v>5213</v>
+        <v>5207</v>
       </c>
       <c r="G21" t="s">
         <v>5028</v>
       </c>
       <c r="H21" t="s">
-        <v>5337</v>
+        <v>5331</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K21" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L21">
         <v>494</v>
@@ -45870,19 +45852,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>5214</v>
+        <v>5208</v>
       </c>
       <c r="C22" t="s">
-        <v>5215</v>
+        <v>5209</v>
       </c>
       <c r="D22">
         <v>2000</v>
       </c>
       <c r="E22" t="s">
-        <v>5216</v>
+        <v>5210</v>
       </c>
       <c r="F22" t="s">
-        <v>5217</v>
+        <v>5211</v>
       </c>
       <c r="G22" t="s">
         <v>5028</v>
@@ -45894,10 +45876,10 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K22" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L22">
         <v>101</v>
@@ -45929,34 +45911,34 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>5218</v>
+        <v>5212</v>
       </c>
       <c r="C23" t="s">
-        <v>5219</v>
+        <v>5213</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23" t="s">
-        <v>5220</v>
+        <v>5214</v>
       </c>
       <c r="F23" t="s">
-        <v>5221</v>
+        <v>5215</v>
       </c>
       <c r="G23" t="s">
         <v>5028</v>
       </c>
       <c r="H23" t="s">
-        <v>5332</v>
+        <v>5326</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K23" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L23">
         <v>92</v>
@@ -45983,7 +45965,7 @@
         <v>5028</v>
       </c>
       <c r="T23" t="s">
-        <v>5348</v>
+        <v>5342</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -45991,19 +45973,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>5222</v>
+        <v>5216</v>
       </c>
       <c r="C24" t="s">
-        <v>5223</v>
+        <v>5217</v>
       </c>
       <c r="D24">
         <v>2005</v>
       </c>
       <c r="E24" t="s">
-        <v>5224</v>
+        <v>5218</v>
       </c>
       <c r="F24" t="s">
-        <v>5225</v>
+        <v>5219</v>
       </c>
       <c r="G24" t="s">
         <v>5028</v>
@@ -46015,10 +45997,10 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K24" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L24">
         <v>171</v>
@@ -46050,34 +46032,34 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>5226</v>
+        <v>5220</v>
       </c>
       <c r="C25" t="s">
-        <v>5227</v>
+        <v>5221</v>
       </c>
       <c r="D25">
         <v>1995</v>
       </c>
       <c r="E25" t="s">
-        <v>5228</v>
+        <v>5222</v>
       </c>
       <c r="F25" t="s">
-        <v>5229</v>
+        <v>5223</v>
       </c>
       <c r="G25" t="s">
         <v>5028</v>
       </c>
       <c r="H25" t="s">
-        <v>5337</v>
+        <v>5331</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K25" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L25">
         <v>662</v>
@@ -46109,7 +46091,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>5230</v>
+        <v>5224</v>
       </c>
       <c r="C26" t="s">
         <v>3930</v>
@@ -46118,10 +46100,10 @@
         <v>1995</v>
       </c>
       <c r="E26" t="s">
-        <v>5231</v>
+        <v>5225</v>
       </c>
       <c r="F26" t="s">
-        <v>5232</v>
+        <v>5226</v>
       </c>
       <c r="G26" t="s">
         <v>5028</v>
@@ -46133,10 +46115,10 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K26" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L26">
         <v>888</v>
@@ -46168,7 +46150,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>5233</v>
+        <v>5227</v>
       </c>
       <c r="C27" t="s">
         <v>3930</v>
@@ -46177,10 +46159,10 @@
         <v>1999</v>
       </c>
       <c r="E27" t="s">
-        <v>5234</v>
+        <v>5228</v>
       </c>
       <c r="F27" t="s">
-        <v>5235</v>
+        <v>5229</v>
       </c>
       <c r="G27" t="s">
         <v>5028</v>
@@ -46192,10 +46174,10 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K27" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L27">
         <v>100</v>
@@ -46236,25 +46218,25 @@
         <v>2003</v>
       </c>
       <c r="E28" t="s">
-        <v>5236</v>
+        <v>5230</v>
       </c>
       <c r="F28" t="s">
-        <v>5237</v>
+        <v>5231</v>
       </c>
       <c r="G28" t="s">
         <v>5028</v>
       </c>
       <c r="H28" t="s">
-        <v>5332</v>
+        <v>5326</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K28" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L28">
         <v>860</v>
@@ -46286,19 +46268,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>5238</v>
+        <v>5232</v>
       </c>
       <c r="C29" t="s">
-        <v>5239</v>
+        <v>5233</v>
       </c>
       <c r="D29">
         <v>2007</v>
       </c>
       <c r="E29" t="s">
-        <v>5240</v>
+        <v>5234</v>
       </c>
       <c r="F29" t="s">
-        <v>5241</v>
+        <v>5235</v>
       </c>
       <c r="G29" t="s">
         <v>5028</v>
@@ -46310,10 +46292,10 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K29" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L29">
         <v>27</v>
@@ -46345,34 +46327,34 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>5242</v>
+        <v>5236</v>
       </c>
       <c r="C30" t="s">
-        <v>5243</v>
+        <v>5237</v>
       </c>
       <c r="D30">
         <v>2006</v>
       </c>
       <c r="E30" t="s">
-        <v>5244</v>
+        <v>5238</v>
       </c>
       <c r="F30" t="s">
-        <v>5245</v>
+        <v>5239</v>
       </c>
       <c r="G30" t="s">
         <v>5028</v>
       </c>
       <c r="H30" t="s">
-        <v>5338</v>
+        <v>5332</v>
       </c>
       <c r="I30" t="b">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K30" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L30">
         <v>1427</v>
@@ -46399,7 +46381,7 @@
         <v>3</v>
       </c>
       <c r="T30" t="s">
-        <v>5350</v>
+        <v>5344</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -46407,34 +46389,34 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>5246</v>
+        <v>5240</v>
       </c>
       <c r="C31" t="s">
-        <v>5247</v>
+        <v>5241</v>
       </c>
       <c r="D31">
         <v>2011</v>
       </c>
       <c r="E31" t="s">
-        <v>5248</v>
+        <v>5242</v>
       </c>
       <c r="F31" t="s">
-        <v>5249</v>
+        <v>5243</v>
       </c>
       <c r="G31" t="s">
         <v>5028</v>
       </c>
       <c r="H31" t="s">
-        <v>5337</v>
+        <v>5331</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K31" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L31">
         <v>80</v>
@@ -46466,19 +46448,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>5250</v>
+        <v>5244</v>
       </c>
       <c r="C32" t="s">
-        <v>5251</v>
+        <v>5245</v>
       </c>
       <c r="D32">
         <v>1999</v>
       </c>
       <c r="E32" t="s">
-        <v>5252</v>
+        <v>5246</v>
       </c>
       <c r="F32" t="s">
-        <v>5253</v>
+        <v>5247</v>
       </c>
       <c r="G32" t="s">
         <v>5028</v>
@@ -46490,10 +46472,10 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K32" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L32">
         <v>182</v>
@@ -46525,34 +46507,34 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>5254</v>
+        <v>5248</v>
       </c>
       <c r="C33" t="s">
-        <v>5255</v>
+        <v>5249</v>
       </c>
       <c r="D33">
         <v>2004</v>
       </c>
       <c r="E33" t="s">
-        <v>5256</v>
+        <v>5250</v>
       </c>
       <c r="F33" t="s">
-        <v>5257</v>
+        <v>5251</v>
       </c>
       <c r="G33" t="s">
         <v>5028</v>
       </c>
       <c r="H33" t="s">
-        <v>5332</v>
+        <v>5326</v>
       </c>
       <c r="I33" t="b">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K33" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L33">
         <v>389</v>
@@ -46593,10 +46575,10 @@
         <v>1999</v>
       </c>
       <c r="E34" t="s">
-        <v>5258</v>
+        <v>5252</v>
       </c>
       <c r="F34" t="s">
-        <v>5259</v>
+        <v>5253</v>
       </c>
       <c r="G34" t="s">
         <v>5028</v>
@@ -46608,10 +46590,10 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K34" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L34">
         <v>177</v>
@@ -46626,7 +46608,7 @@
         <v>5028</v>
       </c>
       <c r="P34" t="s">
-        <v>5351</v>
+        <v>5345</v>
       </c>
       <c r="Q34" t="s">
         <v>963</v>
@@ -46652,10 +46634,10 @@
         <v>2001</v>
       </c>
       <c r="E35" t="s">
-        <v>5260</v>
+        <v>5254</v>
       </c>
       <c r="F35" t="s">
-        <v>5261</v>
+        <v>5255</v>
       </c>
       <c r="G35" t="s">
         <v>5028</v>
@@ -46667,10 +46649,10 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K35" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L35">
         <v>217</v>
@@ -46702,19 +46684,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>5262</v>
+        <v>5256</v>
       </c>
       <c r="C36" t="s">
-        <v>5263</v>
+        <v>5257</v>
       </c>
       <c r="D36">
         <v>1993</v>
       </c>
       <c r="E36" t="s">
-        <v>5264</v>
+        <v>5258</v>
       </c>
       <c r="F36" t="s">
-        <v>5265</v>
+        <v>5259</v>
       </c>
       <c r="G36" t="s">
         <v>5028</v>
@@ -46726,10 +46708,10 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K36" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L36">
         <v>1442</v>
@@ -46770,10 +46752,10 @@
         <v>2006</v>
       </c>
       <c r="E37" t="s">
-        <v>5266</v>
+        <v>5260</v>
       </c>
       <c r="F37" t="s">
-        <v>5267</v>
+        <v>5261</v>
       </c>
       <c r="G37" t="s">
         <v>5028</v>
@@ -46785,10 +46767,10 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K37" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L37">
         <v>254</v>
@@ -46829,10 +46811,10 @@
         <v>1998</v>
       </c>
       <c r="E38" t="s">
-        <v>5268</v>
+        <v>5262</v>
       </c>
       <c r="F38" t="s">
-        <v>5269</v>
+        <v>5263</v>
       </c>
       <c r="G38" t="s">
         <v>5028</v>
@@ -46844,10 +46826,10 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K38" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L38">
         <v>301</v>
@@ -46888,25 +46870,25 @@
         <v>2001</v>
       </c>
       <c r="E39" t="s">
-        <v>5270</v>
+        <v>5264</v>
       </c>
       <c r="F39" t="s">
-        <v>5271</v>
+        <v>5265</v>
       </c>
       <c r="G39" t="s">
         <v>5028</v>
       </c>
       <c r="H39" t="s">
-        <v>5339</v>
+        <v>5333</v>
       </c>
       <c r="I39" t="b">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K39" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L39">
         <v>293</v>
@@ -46921,7 +46903,7 @@
         <v>5028</v>
       </c>
       <c r="P39" t="s">
-        <v>5353</v>
+        <v>5347</v>
       </c>
       <c r="Q39" t="s">
         <v>963</v>
@@ -46947,25 +46929,25 @@
         <v>2008</v>
       </c>
       <c r="E40" t="s">
-        <v>5272</v>
+        <v>5266</v>
       </c>
       <c r="F40" t="s">
-        <v>5273</v>
+        <v>5267</v>
       </c>
       <c r="G40" t="s">
         <v>5028</v>
       </c>
       <c r="H40" t="s">
-        <v>5337</v>
+        <v>5331</v>
       </c>
       <c r="I40" t="b">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K40" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L40">
         <v>153</v>
@@ -46997,19 +46979,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>5274</v>
+        <v>5268</v>
       </c>
       <c r="C41" t="s">
-        <v>5275</v>
+        <v>5269</v>
       </c>
       <c r="D41">
         <v>2001</v>
       </c>
       <c r="E41" t="s">
-        <v>5276</v>
+        <v>5270</v>
       </c>
       <c r="F41" t="s">
-        <v>5277</v>
+        <v>5271</v>
       </c>
       <c r="G41" t="s">
         <v>5028</v>
@@ -47021,10 +47003,10 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K41" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L41">
         <v>188</v>
@@ -47056,34 +47038,34 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>5278</v>
+        <v>5272</v>
       </c>
       <c r="C42" t="s">
-        <v>5279</v>
+        <v>5273</v>
       </c>
       <c r="D42">
         <v>2004</v>
       </c>
       <c r="E42" t="s">
-        <v>5280</v>
+        <v>5274</v>
       </c>
       <c r="F42" t="s">
-        <v>5281</v>
+        <v>5275</v>
       </c>
       <c r="G42" t="s">
         <v>5028</v>
       </c>
       <c r="H42" t="s">
-        <v>5332</v>
+        <v>5326</v>
       </c>
       <c r="I42" t="b">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K42" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L42">
         <v>93</v>
@@ -47124,25 +47106,25 @@
         <v>1995</v>
       </c>
       <c r="E43" t="s">
-        <v>5282</v>
+        <v>5276</v>
       </c>
       <c r="F43" t="s">
-        <v>5283</v>
+        <v>5277</v>
       </c>
       <c r="G43" t="s">
         <v>5028</v>
       </c>
       <c r="H43" t="s">
-        <v>5340</v>
+        <v>5334</v>
       </c>
       <c r="I43" t="b">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K43" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L43">
         <v>372</v>
@@ -47157,7 +47139,7 @@
         <v>5028</v>
       </c>
       <c r="P43" t="s">
-        <v>5351</v>
+        <v>5345</v>
       </c>
       <c r="Q43" t="s">
         <v>963</v>
@@ -47169,7 +47151,7 @@
         <v>5028</v>
       </c>
       <c r="T43" t="s">
-        <v>5354</v>
+        <v>5348</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -47177,19 +47159,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>5284</v>
+        <v>5278</v>
       </c>
       <c r="C44" t="s">
-        <v>5285</v>
+        <v>5279</v>
       </c>
       <c r="D44">
         <v>2004</v>
       </c>
       <c r="E44" t="s">
-        <v>5286</v>
+        <v>5280</v>
       </c>
       <c r="F44" t="s">
-        <v>5287</v>
+        <v>5281</v>
       </c>
       <c r="G44" t="s">
         <v>5028</v>
@@ -47201,10 +47183,10 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K44" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L44">
         <v>1830</v>
@@ -47236,19 +47218,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>5288</v>
+        <v>5282</v>
       </c>
       <c r="C45" t="s">
-        <v>5289</v>
+        <v>5283</v>
       </c>
       <c r="D45">
         <v>2005</v>
       </c>
       <c r="E45" t="s">
-        <v>5290</v>
+        <v>5284</v>
       </c>
       <c r="F45" t="s">
-        <v>5291</v>
+        <v>5285</v>
       </c>
       <c r="G45" t="s">
         <v>5028</v>
@@ -47260,10 +47242,10 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K45" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L45">
         <v>345</v>
@@ -47295,34 +47277,34 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>5292</v>
+        <v>5286</v>
       </c>
       <c r="C46" t="s">
-        <v>5293</v>
+        <v>5287</v>
       </c>
       <c r="D46">
         <v>2006</v>
       </c>
       <c r="E46" t="s">
-        <v>5294</v>
+        <v>5288</v>
       </c>
       <c r="F46" t="s">
-        <v>5295</v>
+        <v>5289</v>
       </c>
       <c r="G46" t="s">
         <v>5028</v>
       </c>
       <c r="H46" t="s">
-        <v>5341</v>
+        <v>5335</v>
       </c>
       <c r="I46" t="b">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K46" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L46">
         <v>1005</v>
@@ -47337,7 +47319,7 @@
         <v>5028</v>
       </c>
       <c r="P46" t="s">
-        <v>5343</v>
+        <v>5337</v>
       </c>
       <c r="Q46" t="s">
         <v>963</v>
@@ -47354,19 +47336,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>5296</v>
+        <v>5290</v>
       </c>
       <c r="C47" t="s">
-        <v>5297</v>
+        <v>5291</v>
       </c>
       <c r="D47">
         <v>2006</v>
       </c>
       <c r="E47" t="s">
-        <v>5298</v>
+        <v>5292</v>
       </c>
       <c r="F47" t="s">
-        <v>5299</v>
+        <v>5293</v>
       </c>
       <c r="G47" t="s">
         <v>5028</v>
@@ -47378,10 +47360,10 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K47" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L47">
         <v>596</v>
@@ -47396,7 +47378,7 @@
         <v>5028</v>
       </c>
       <c r="P47" t="s">
-        <v>5343</v>
+        <v>5337</v>
       </c>
       <c r="Q47" t="s">
         <v>963</v>
@@ -47413,19 +47395,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>5300</v>
+        <v>5294</v>
       </c>
       <c r="C48" t="s">
-        <v>5301</v>
+        <v>5295</v>
       </c>
       <c r="D48">
         <v>2005</v>
       </c>
       <c r="E48" t="s">
-        <v>5302</v>
+        <v>5296</v>
       </c>
       <c r="F48" t="s">
-        <v>5144</v>
+        <v>5138</v>
       </c>
       <c r="G48" t="s">
         <v>5028</v>
@@ -47437,10 +47419,10 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K48" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L48">
         <v>386</v>
@@ -47481,25 +47463,25 @@
         <v>1982</v>
       </c>
       <c r="E49" t="s">
-        <v>5303</v>
+        <v>5297</v>
       </c>
       <c r="F49" t="s">
-        <v>5145</v>
+        <v>5139</v>
       </c>
       <c r="G49" t="s">
         <v>5028</v>
       </c>
       <c r="H49" t="s">
-        <v>5340</v>
+        <v>5334</v>
       </c>
       <c r="I49" t="b">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K49" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L49">
         <v>55</v>
@@ -47540,10 +47522,10 @@
         <v>1985</v>
       </c>
       <c r="E50" t="s">
-        <v>5304</v>
+        <v>5298</v>
       </c>
       <c r="F50" t="s">
-        <v>5146</v>
+        <v>5140</v>
       </c>
       <c r="G50" t="s">
         <v>5028</v>
@@ -47555,10 +47537,10 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K50" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L50">
         <v>2143</v>
@@ -47590,7 +47572,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>5305</v>
+        <v>5299</v>
       </c>
       <c r="C51" t="s">
         <v>674</v>
@@ -47599,10 +47581,10 @@
         <v>1979</v>
       </c>
       <c r="E51" t="s">
-        <v>5306</v>
+        <v>5300</v>
       </c>
       <c r="F51" t="s">
-        <v>5147</v>
+        <v>5141</v>
       </c>
       <c r="G51" t="s">
         <v>5028</v>
@@ -47614,10 +47596,10 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K51" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L51">
         <v>251</v>
@@ -47649,19 +47631,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>5307</v>
+        <v>5301</v>
       </c>
       <c r="C52" t="s">
-        <v>5308</v>
+        <v>5302</v>
       </c>
       <c r="D52">
         <v>1997</v>
       </c>
       <c r="E52" t="s">
-        <v>5309</v>
+        <v>5303</v>
       </c>
       <c r="F52" t="s">
-        <v>5310</v>
+        <v>5304</v>
       </c>
       <c r="G52" t="s">
         <v>5028</v>
@@ -47673,10 +47655,10 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K52" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L52">
         <v>9699</v>
@@ -47708,34 +47690,34 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>5311</v>
+        <v>5305</v>
       </c>
       <c r="C53" t="s">
-        <v>5312</v>
+        <v>5306</v>
       </c>
       <c r="D53">
         <v>2014</v>
       </c>
       <c r="E53" t="s">
-        <v>5313</v>
+        <v>5307</v>
       </c>
       <c r="F53" t="s">
-        <v>5314</v>
+        <v>5308</v>
       </c>
       <c r="G53" t="s">
         <v>5028</v>
       </c>
       <c r="H53" t="s">
-        <v>5330</v>
+        <v>5324</v>
       </c>
       <c r="I53" t="b">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K53" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L53">
         <v>264</v>
@@ -47767,19 +47749,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>5315</v>
+        <v>5309</v>
       </c>
       <c r="C54" t="s">
-        <v>5316</v>
+        <v>5310</v>
       </c>
       <c r="D54">
         <v>2001</v>
       </c>
       <c r="E54" t="s">
-        <v>5317</v>
+        <v>5311</v>
       </c>
       <c r="F54" t="s">
-        <v>5318</v>
+        <v>5312</v>
       </c>
       <c r="G54" t="s">
         <v>5028</v>
@@ -47791,10 +47773,10 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K54" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L54">
         <v>261</v>
@@ -47826,19 +47808,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>5319</v>
+        <v>5313</v>
       </c>
       <c r="C55" t="s">
-        <v>5320</v>
+        <v>5314</v>
       </c>
       <c r="D55">
         <v>1999</v>
       </c>
       <c r="E55" t="s">
-        <v>5321</v>
+        <v>5315</v>
       </c>
       <c r="F55" t="s">
-        <v>5322</v>
+        <v>5316</v>
       </c>
       <c r="G55" t="s">
         <v>5028</v>
@@ -47850,10 +47832,10 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K55" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L55">
         <v>423</v>
@@ -47885,19 +47867,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>5323</v>
+        <v>5317</v>
       </c>
       <c r="C56" t="s">
-        <v>5324</v>
+        <v>5318</v>
       </c>
       <c r="D56">
         <v>2011</v>
       </c>
       <c r="E56" t="s">
-        <v>5325</v>
+        <v>5319</v>
       </c>
       <c r="F56" t="s">
-        <v>5326</v>
+        <v>5320</v>
       </c>
       <c r="G56" t="s">
         <v>5028</v>
@@ -47909,10 +47891,10 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="K56" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="L56">
         <v>197</v>
@@ -49544,10 +49526,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49599,24 +49581,24 @@
         <v>962</v>
       </c>
       <c r="O1" s="23" t="s">
+        <v>5113</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>5119</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>5125</v>
       </c>
       <c r="Q1" s="28" t="s">
         <v>5037</v>
       </c>
       <c r="R1" s="29">
         <f>COUNTIFS($N:$N, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="T1" s="28" t="s">
         <v>5038</v>
       </c>
       <c r="U1" s="29">
-        <f>COUNTIF($M$2:$M$569, "YES")</f>
-        <v>15</v>
+        <f>COUNTIF($M$2:$M$567, "YES")</f>
+        <v>13</v>
       </c>
       <c r="V1" s="31"/>
       <c r="W1" s="31"/>
@@ -49873,11 +49855,11 @@
         <v>966</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>5123</v>
+        <v>5117</v>
       </c>
       <c r="R6">
         <f>COUNTIFS($N:$N, "YES", $M:$M, "&lt;&gt;PRIMARY STUDY")</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W6" t="s">
         <v>5075</v>
@@ -49930,7 +49912,7 @@
         <v>966</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>5120</v>
+        <v>5114</v>
       </c>
       <c r="R7">
         <f>COUNTIFS($O:$O, "YES", $F:$F, "&lt;&gt;")</f>
@@ -50039,7 +50021,7 @@
         <v>5103</v>
       </c>
       <c r="D10">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="E10" t="s">
         <v>5104</v>
@@ -50051,7 +50033,7 @@
         <v>5029</v>
       </c>
       <c r="H10">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
         <v>5100</v>
@@ -50080,37 +50062,37 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5108</v>
+        <v>5109</v>
       </c>
       <c r="C11" t="s">
-        <v>5109</v>
+        <v>5106</v>
       </c>
       <c r="D11">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="E11" t="s">
         <v>5110</v>
       </c>
       <c r="F11" t="s">
-        <v>5105</v>
+        <v>5107</v>
       </c>
       <c r="G11" t="s">
         <v>5029</v>
       </c>
       <c r="H11">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>5106</v>
+        <v>5108</v>
       </c>
       <c r="J11" t="s">
-        <v>5107</v>
+        <v>5105</v>
       </c>
       <c r="K11" t="s">
-        <v>5107</v>
+        <v>5105</v>
       </c>
       <c r="L11" t="s">
-        <v>5108</v>
+        <v>5109</v>
       </c>
       <c r="M11" t="s">
         <v>963</v>
@@ -50127,37 +50109,37 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5115</v>
+        <v>3935</v>
       </c>
       <c r="C12" t="s">
-        <v>5112</v>
+        <v>3936</v>
       </c>
       <c r="D12">
-        <v>2020</v>
+        <v>2005</v>
       </c>
       <c r="E12" t="s">
-        <v>5116</v>
+        <v>1072</v>
       </c>
       <c r="F12" t="s">
-        <v>5113</v>
+        <v>970</v>
       </c>
       <c r="G12" t="s">
-        <v>5029</v>
+        <v>1074</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>5114</v>
+        <v>1073</v>
       </c>
       <c r="J12" t="s">
-        <v>5111</v>
+        <v>1075</v>
       </c>
       <c r="K12" t="s">
-        <v>5111</v>
+        <v>1075</v>
       </c>
       <c r="L12" t="s">
-        <v>5115</v>
+        <v>3935</v>
       </c>
       <c r="M12" t="s">
         <v>963</v>
@@ -50167,6 +50149,9 @@
       </c>
       <c r="O12" s="7" t="s">
         <v>966</v>
+      </c>
+      <c r="P12" t="s">
+        <v>5120</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -50174,37 +50159,37 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>3935</v>
+        <v>4127</v>
       </c>
       <c r="C13" t="s">
-        <v>3936</v>
+        <v>4128</v>
       </c>
       <c r="D13">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E13" t="s">
-        <v>1072</v>
+        <v>1957</v>
       </c>
       <c r="F13" t="s">
-        <v>970</v>
+        <v>1962</v>
       </c>
       <c r="G13" t="s">
-        <v>1074</v>
+        <v>1959</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>1073</v>
+        <v>1958</v>
       </c>
       <c r="J13" t="s">
-        <v>1075</v>
+        <v>1960</v>
       </c>
       <c r="K13" t="s">
-        <v>1075</v>
+        <v>1961</v>
       </c>
       <c r="L13" t="s">
-        <v>3935</v>
+        <v>4127</v>
       </c>
       <c r="M13" t="s">
         <v>963</v>
@@ -50216,7 +50201,7 @@
         <v>966</v>
       </c>
       <c r="P13" t="s">
-        <v>5126</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -50224,37 +50209,37 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>3965</v>
+        <v>399</v>
       </c>
       <c r="C14" t="s">
-        <v>3966</v>
+        <v>400</v>
       </c>
       <c r="D14">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="E14" t="s">
-        <v>1211</v>
+        <v>5252</v>
       </c>
       <c r="F14" t="s">
-        <v>4598</v>
+        <v>5253</v>
       </c>
       <c r="G14" t="s">
-        <v>1213</v>
+        <v>5028</v>
       </c>
       <c r="H14">
-        <v>265</v>
+        <v>177</v>
       </c>
       <c r="I14" t="s">
-        <v>1212</v>
+        <v>5028</v>
       </c>
       <c r="J14" t="s">
-        <v>1214</v>
+        <v>5028</v>
       </c>
       <c r="K14" t="s">
-        <v>1215</v>
+        <v>5028</v>
       </c>
       <c r="L14" t="s">
-        <v>3965</v>
+        <v>399</v>
       </c>
       <c r="M14" t="s">
         <v>963</v>
@@ -50266,107 +50251,7 @@
         <v>966</v>
       </c>
       <c r="P14" t="s">
-        <v>5126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4127</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4128</v>
-      </c>
-      <c r="D15">
-        <v>2004</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1957</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1962</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1959</v>
-      </c>
-      <c r="H15">
-        <v>19</v>
-      </c>
-      <c r="I15" t="s">
-        <v>1958</v>
-      </c>
-      <c r="J15" t="s">
-        <v>1960</v>
-      </c>
-      <c r="K15" t="s">
-        <v>1961</v>
-      </c>
-      <c r="L15" t="s">
-        <v>4127</v>
-      </c>
-      <c r="M15" t="s">
-        <v>963</v>
-      </c>
-      <c r="N15" t="s">
-        <v>963</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>966</v>
-      </c>
-      <c r="P15" t="s">
-        <v>5126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>399</v>
-      </c>
-      <c r="C16" t="s">
-        <v>400</v>
-      </c>
-      <c r="D16">
-        <v>1999</v>
-      </c>
-      <c r="E16" t="s">
-        <v>5258</v>
-      </c>
-      <c r="F16" t="s">
-        <v>5259</v>
-      </c>
-      <c r="G16" t="s">
-        <v>5028</v>
-      </c>
-      <c r="H16">
-        <v>177</v>
-      </c>
-      <c r="I16" t="s">
-        <v>5028</v>
-      </c>
-      <c r="J16" t="s">
-        <v>5028</v>
-      </c>
-      <c r="K16" t="s">
-        <v>5028</v>
-      </c>
-      <c r="L16" t="s">
-        <v>399</v>
-      </c>
-      <c r="M16" t="s">
-        <v>963</v>
-      </c>
-      <c r="N16" t="s">
-        <v>963</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>966</v>
-      </c>
-      <c r="P16" t="s">
-        <v>5352</v>
+        <v>5346</v>
       </c>
     </row>
   </sheetData>
@@ -50374,10 +50259,10 @@
   <conditionalFormatting sqref="B1:B2">
     <cfRule type="duplicateValues" dxfId="24" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
+  <conditionalFormatting sqref="B13">
     <cfRule type="duplicateValues" dxfId="23" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
+  <conditionalFormatting sqref="B14">
     <cfRule type="duplicateValues" dxfId="22" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2">
@@ -50385,62 +50270,62 @@
       <formula>LEN(TRIM(F1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15:F16">
+  <conditionalFormatting sqref="F13:F14">
     <cfRule type="containsBlanks" dxfId="20" priority="15">
-      <formula>LEN(TRIM(F15))=0</formula>
+      <formula>LEN(TRIM(F13))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17:H1048576 H1:H14">
-    <cfRule type="containsBlanks" dxfId="5" priority="38">
+  <conditionalFormatting sqref="H1:H12 H15:H1048576">
+    <cfRule type="containsBlanks" dxfId="19" priority="38">
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="duplicateValues" dxfId="19" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L15">
-    <cfRule type="duplicateValues" dxfId="18" priority="16"/>
+  <conditionalFormatting sqref="L13">
+    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
-    <cfRule type="duplicateValues" dxfId="17" priority="5"/>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="duplicateValues" dxfId="16" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:O16">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="PRIMARY STUDY">
+  <conditionalFormatting sqref="M2:O14">
+    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="PRIMARY STUDY">
       <formula>NOT(ISERROR(SEARCH("PRIMARY STUDY",M2)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="3" priority="3" operator="notContains" text="YES">
+    <cfRule type="notContainsText" dxfId="14" priority="3" operator="notContains" text="YES">
       <formula>ISERROR(SEARCH("YES",M2))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O15:O16">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
-      <formula>LEN(TRIM(O15))=0</formula>
+  <conditionalFormatting sqref="O13:O14">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
+      <formula>LEN(TRIM(O13))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="X">
-      <formula>NOT(ISERROR(SEARCH("X",O15)))</formula>
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH("X",O13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1 P4">
-    <cfRule type="cellIs" dxfId="1" priority="32" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="32" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="33" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="8" priority="33" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",P1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q2">
-    <cfRule type="duplicateValues" dxfId="13" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="duplicateValues" dxfId="12" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="29"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -59333,10 +59218,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L1 A1:K251">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$K1=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>$J1=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -67281,10 +67166,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:J253 J257 J259:J1048576">
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="2" priority="13" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -67301,10 +67186,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",M17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",M17)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A10534B-7646-4323-870B-F2A3E6131FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFE65CD-E19A-4410-A372-5CAA4820C354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -694,7 +694,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10199" uniqueCount="5349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10210" uniqueCount="5354">
   <si>
     <t>Number</t>
   </si>
@@ -15894,9 +15894,6 @@
     <t>Further estimates of the economic return to schooling from a new sample of twins</t>
   </si>
   <si>
-    <t>Check whether indeed 1</t>
-  </si>
-  <si>
     <t>Dude, 354 pages, how can you even write that. Look for 2013 or 2015 by the same author - more concise publications with the same approach.</t>
   </si>
   <si>
@@ -16741,6 +16738,24 @@
   </si>
   <si>
     <t>Already identified during twins snowballing</t>
+  </si>
+  <si>
+    <t>Blanchflower &amp; Elias (1999)</t>
+  </si>
+  <si>
+    <t>Blanchflower &amp; Elias</t>
+  </si>
+  <si>
+    <t>Blanchflower, David, and Peter Elias. "Ability, schooling and earnings: Are twins different?." Unpublished manuscript, Warwick University (1999).</t>
+  </si>
+  <si>
+    <t>Ability, schooling and earnings: Are twins different?</t>
+  </si>
+  <si>
+    <t>http://perso.univ-lemans.fr/~mtensao/article/Twins.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0927537198000141</t>
   </si>
 </sst>
 </file>
@@ -17075,7 +17090,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -17122,6 +17137,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -17880,27 +17896,27 @@
         <v>962</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>5113</v>
+        <v>5112</v>
       </c>
       <c r="O1" s="25" t="s">
-        <v>5111</v>
+        <v>5110</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>5119</v>
+        <v>5118</v>
       </c>
       <c r="Q1" s="28" t="s">
         <v>5037</v>
       </c>
       <c r="R1" s="29">
         <f>COUNTIFS($M:$M, "YES", $F:$F, "&lt;&gt;") + Twins!R1</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T1" s="28" t="s">
         <v>5038</v>
       </c>
       <c r="U1" s="29">
         <f>COUNTIF($L$2:$L$575, "&lt;&gt; ") +Twins!U1</f>
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="V1" s="31"/>
       <c r="W1" s="31"/>
@@ -18061,7 +18077,7 @@
         <v>574</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>5117</v>
+        <v>5116</v>
       </c>
       <c r="U4">
         <f>COUNTIFS($M:$M, "YES", $L:$L, "&lt;&gt;PRIMARY STUDY", $P:$P, "&lt;&gt;Twins")</f>
@@ -18122,7 +18138,7 @@
         <v>574</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>5114</v>
+        <v>5113</v>
       </c>
       <c r="U5" s="37">
         <f>COUNTIFS($N:$N, "YES", $F:$F, "&lt;&gt;")</f>
@@ -18230,7 +18246,7 @@
         <v>5028</v>
       </c>
       <c r="P7" t="s">
-        <v>5343</v>
+        <v>5342</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>904</v>
@@ -18431,10 +18447,10 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>5118</v>
+        <v>5117</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>5112</v>
+        <v>5111</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -18487,7 +18503,7 @@
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>5115</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -18540,7 +18556,7 @@
         <v>2</v>
       </c>
       <c r="R13" t="s">
-        <v>5116</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -19793,7 +19809,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>5118</v>
+        <v>5117</v>
       </c>
       <c r="R38" t="s">
         <v>904</v>
@@ -19946,7 +19962,7 @@
         <v>2</v>
       </c>
       <c r="P41" t="s">
-        <v>5129</v>
+        <v>5128</v>
       </c>
       <c r="R41" t="s">
         <v>904</v>
@@ -20749,7 +20765,7 @@
         <v>2</v>
       </c>
       <c r="P57" t="s">
-        <v>5121</v>
+        <v>5120</v>
       </c>
       <c r="R57" t="s">
         <v>904</v>
@@ -22402,7 +22418,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>5122</v>
+        <v>5121</v>
       </c>
       <c r="R90" t="s">
         <v>904</v>
@@ -22413,7 +22429,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>5123</v>
+        <v>5122</v>
       </c>
       <c r="C91" t="s">
         <v>4015</v>
@@ -23405,7 +23421,7 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>5124</v>
+        <v>5123</v>
       </c>
       <c r="R110" t="s">
         <v>904</v>
@@ -23858,7 +23874,7 @@
         <v>4</v>
       </c>
       <c r="P119" t="s">
-        <v>5125</v>
+        <v>5124</v>
       </c>
       <c r="R119" t="s">
         <v>904</v>
@@ -25152,7 +25168,7 @@
         <v>1765</v>
       </c>
       <c r="L145" t="s">
-        <v>5126</v>
+        <v>5125</v>
       </c>
       <c r="M145" t="s">
         <v>966</v>
@@ -25172,7 +25188,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>5127</v>
+        <v>5126</v>
       </c>
       <c r="C146" t="s">
         <v>4080</v>
@@ -25184,7 +25200,7 @@
         <v>1766</v>
       </c>
       <c r="F146" t="s">
-        <v>5128</v>
+        <v>5127</v>
       </c>
       <c r="G146" t="s">
         <v>1768</v>
@@ -25375,7 +25391,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>5130</v>
+        <v>5129</v>
       </c>
       <c r="C150" t="s">
         <v>4085</v>
@@ -25384,13 +25400,13 @@
         <v>2012</v>
       </c>
       <c r="E150" t="s">
+        <v>5130</v>
+      </c>
+      <c r="F150" t="s">
         <v>5131</v>
       </c>
-      <c r="F150" t="s">
+      <c r="G150" t="s">
         <v>5132</v>
-      </c>
-      <c r="G150" t="s">
-        <v>5133</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -27279,7 +27295,7 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>5118</v>
+        <v>5117</v>
       </c>
       <c r="R187" t="s">
         <v>904</v>
@@ -27382,7 +27398,7 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>5067</v>
+        <v>5066</v>
       </c>
       <c r="R189" t="s">
         <v>904</v>
@@ -27435,7 +27451,7 @@
         <v>5028</v>
       </c>
       <c r="P190" t="s">
-        <v>5068</v>
+        <v>5067</v>
       </c>
       <c r="R190" t="s">
         <v>904</v>
@@ -29668,7 +29684,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>5069</v>
+        <v>5068</v>
       </c>
       <c r="C240" t="s">
         <v>4786</v>
@@ -44580,16 +44596,16 @@
         <v>3907</v>
       </c>
       <c r="H1" s="23" t="s">
+        <v>5133</v>
+      </c>
+      <c r="I1" s="23" t="s">
         <v>5134</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>5135</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>5136</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>5137</v>
       </c>
       <c r="L1" s="23" t="s">
         <v>3902</v>
@@ -44610,13 +44626,13 @@
         <v>962</v>
       </c>
       <c r="R1" s="24" t="s">
-        <v>5113</v>
+        <v>5112</v>
       </c>
       <c r="S1" s="25" t="s">
-        <v>5111</v>
+        <v>5110</v>
       </c>
       <c r="T1" s="39" t="s">
-        <v>5119</v>
+        <v>5118</v>
       </c>
       <c r="U1" s="28" t="s">
         <v>5037</v>
@@ -44642,7 +44658,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>5142</v>
+        <v>5141</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>4157</v>
@@ -44651,10 +44667,10 @@
         <v>2010</v>
       </c>
       <c r="E2" s="34" t="s">
+        <v>5142</v>
+      </c>
+      <c r="F2" s="34" t="s">
         <v>5143</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>5144</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>5028</v>
@@ -44666,10 +44682,10 @@
         <v>1</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L2" s="34">
         <v>289</v>
@@ -44708,34 +44724,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>5144</v>
+      </c>
+      <c r="C3" t="s">
         <v>5145</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5146</v>
       </c>
       <c r="D3">
         <v>2000</v>
       </c>
       <c r="E3" t="s">
+        <v>5146</v>
+      </c>
+      <c r="F3" t="s">
         <v>5147</v>
       </c>
-      <c r="F3" t="s">
-        <v>5148</v>
-      </c>
       <c r="G3" t="s">
         <v>5028</v>
       </c>
       <c r="H3" t="s">
-        <v>5322</v>
+        <v>5321</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K3" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L3">
         <v>1486</v>
@@ -44750,7 +44766,7 @@
         <v>5028</v>
       </c>
       <c r="P3" t="s">
-        <v>5338</v>
+        <v>5337</v>
       </c>
       <c r="Q3" t="s">
         <v>963</v>
@@ -44776,10 +44792,10 @@
         <v>1995</v>
       </c>
       <c r="E4" t="s">
+        <v>5148</v>
+      </c>
+      <c r="F4" t="s">
         <v>5149</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5150</v>
       </c>
       <c r="G4" t="s">
         <v>5028</v>
@@ -44791,10 +44807,10 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K4" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L4">
         <v>321</v>
@@ -44826,34 +44842,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>5150</v>
+      </c>
+      <c r="C5" t="s">
         <v>5151</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5152</v>
       </c>
       <c r="D5">
         <v>1991</v>
       </c>
       <c r="E5" t="s">
+        <v>5152</v>
+      </c>
+      <c r="F5" t="s">
         <v>5153</v>
       </c>
-      <c r="F5" t="s">
-        <v>5154</v>
-      </c>
       <c r="G5" t="s">
         <v>5028</v>
       </c>
       <c r="H5" t="s">
-        <v>5323</v>
+        <v>5322</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K5" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L5">
         <v>3590</v>
@@ -44885,19 +44901,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>5154</v>
+      </c>
+      <c r="C6" t="s">
         <v>5155</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5156</v>
       </c>
       <c r="D6">
         <v>2005</v>
       </c>
       <c r="E6" t="s">
+        <v>5156</v>
+      </c>
+      <c r="F6" t="s">
         <v>5157</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5158</v>
       </c>
       <c r="G6" t="s">
         <v>5028</v>
@@ -44909,10 +44925,10 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K6" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L6">
         <v>1510</v>
@@ -44939,10 +44955,10 @@
         <v>5028</v>
       </c>
       <c r="T6" t="s">
-        <v>5336</v>
+        <v>5335</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>5117</v>
+        <v>5116</v>
       </c>
       <c r="V6">
         <f>COUNTIF($P:$P, "YES")</f>
@@ -44954,34 +44970,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>5158</v>
+      </c>
+      <c r="C7" t="s">
         <v>5159</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5160</v>
       </c>
       <c r="D7">
         <v>2002</v>
       </c>
       <c r="E7" t="s">
+        <v>5160</v>
+      </c>
+      <c r="F7" t="s">
         <v>5161</v>
       </c>
-      <c r="F7" t="s">
-        <v>5162</v>
-      </c>
       <c r="G7" t="s">
         <v>5028</v>
       </c>
       <c r="H7" t="s">
-        <v>5324</v>
+        <v>5323</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K7" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L7">
         <v>321</v>
@@ -45008,7 +45024,7 @@
         <v>1</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>5114</v>
+        <v>5113</v>
       </c>
       <c r="V7">
         <f>COUNTIFS($R:$R, "YES", $F:$F, "&lt;&gt;")</f>
@@ -45029,10 +45045,10 @@
         <v>1998</v>
       </c>
       <c r="E8" t="s">
+        <v>5162</v>
+      </c>
+      <c r="F8" t="s">
         <v>5163</v>
-      </c>
-      <c r="F8" t="s">
-        <v>5164</v>
       </c>
       <c r="G8" t="s">
         <v>5028</v>
@@ -45044,10 +45060,10 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K8" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L8">
         <v>588</v>
@@ -45079,34 +45095,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>5164</v>
+      </c>
+      <c r="C9" t="s">
         <v>5165</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5166</v>
       </c>
       <c r="D9">
         <v>2014</v>
       </c>
       <c r="E9" t="s">
+        <v>5166</v>
+      </c>
+      <c r="F9" t="s">
         <v>5167</v>
       </c>
-      <c r="F9" t="s">
-        <v>5168</v>
-      </c>
       <c r="G9" t="s">
         <v>5028</v>
       </c>
       <c r="H9" t="s">
-        <v>5325</v>
+        <v>5324</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K9" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L9">
         <v>73</v>
@@ -45138,34 +45154,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>5168</v>
+      </c>
+      <c r="C10" t="s">
         <v>5169</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5170</v>
       </c>
       <c r="D10">
         <v>2018</v>
       </c>
       <c r="E10" t="s">
+        <v>5170</v>
+      </c>
+      <c r="F10" t="s">
         <v>5171</v>
       </c>
-      <c r="F10" t="s">
-        <v>5172</v>
-      </c>
       <c r="G10" t="s">
         <v>5028</v>
       </c>
       <c r="H10" t="s">
-        <v>5326</v>
+        <v>5325</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K10" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L10">
         <v>74</v>
@@ -45180,7 +45196,7 @@
         <v>5028</v>
       </c>
       <c r="P10" t="s">
-        <v>5337</v>
+        <v>5336</v>
       </c>
       <c r="Q10" t="s">
         <v>963</v>
@@ -45197,19 +45213,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>5172</v>
+      </c>
+      <c r="C11" t="s">
         <v>5173</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5174</v>
       </c>
       <c r="D11">
         <v>2014</v>
       </c>
       <c r="E11" t="s">
+        <v>5174</v>
+      </c>
+      <c r="F11" t="s">
         <v>5175</v>
-      </c>
-      <c r="F11" t="s">
-        <v>5176</v>
       </c>
       <c r="G11" t="s">
         <v>5028</v>
@@ -45221,10 +45237,10 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K11" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L11">
         <v>17</v>
@@ -45256,7 +45272,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5177</v>
+        <v>5176</v>
       </c>
       <c r="C12" t="s">
         <v>3928</v>
@@ -45265,25 +45281,25 @@
         <v>1995</v>
       </c>
       <c r="E12" t="s">
+        <v>5177</v>
+      </c>
+      <c r="F12" t="s">
         <v>5178</v>
       </c>
-      <c r="F12" t="s">
-        <v>5179</v>
-      </c>
       <c r="G12" t="s">
         <v>5028</v>
       </c>
       <c r="H12" t="s">
-        <v>5327</v>
+        <v>5326</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K12" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L12">
         <v>1789</v>
@@ -45315,7 +45331,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5180</v>
+        <v>5179</v>
       </c>
       <c r="C13" t="s">
         <v>3928</v>
@@ -45324,25 +45340,25 @@
         <v>2001</v>
       </c>
       <c r="E13" t="s">
+        <v>5180</v>
+      </c>
+      <c r="F13" t="s">
         <v>5181</v>
       </c>
-      <c r="F13" t="s">
-        <v>5182</v>
-      </c>
       <c r="G13" t="s">
         <v>5028</v>
       </c>
       <c r="H13" t="s">
-        <v>5324</v>
+        <v>5323</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K13" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L13">
         <v>2928</v>
@@ -45357,7 +45373,7 @@
         <v>5028</v>
       </c>
       <c r="P13" t="s">
-        <v>5339</v>
+        <v>5338</v>
       </c>
       <c r="Q13" t="s">
         <v>963</v>
@@ -45369,7 +45385,7 @@
         <v>1</v>
       </c>
       <c r="T13" t="s">
-        <v>5340</v>
+        <v>5339</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -45377,7 +45393,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>5183</v>
+        <v>5182</v>
       </c>
       <c r="C14" t="s">
         <v>4356</v>
@@ -45386,25 +45402,25 @@
         <v>2011</v>
       </c>
       <c r="E14" t="s">
+        <v>5183</v>
+      </c>
+      <c r="F14" t="s">
         <v>5184</v>
       </c>
-      <c r="F14" t="s">
-        <v>5185</v>
-      </c>
       <c r="G14" t="s">
         <v>5028</v>
       </c>
       <c r="H14" t="s">
-        <v>5328</v>
+        <v>5327</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K14" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L14">
         <v>783</v>
@@ -45436,34 +45452,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>5185</v>
+      </c>
+      <c r="C15" t="s">
         <v>5186</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5187</v>
       </c>
       <c r="D15">
         <v>2019</v>
       </c>
       <c r="E15" t="s">
+        <v>5187</v>
+      </c>
+      <c r="F15" t="s">
         <v>5188</v>
       </c>
-      <c r="F15" t="s">
-        <v>5189</v>
-      </c>
       <c r="G15" t="s">
         <v>5028</v>
       </c>
       <c r="H15" t="s">
-        <v>5329</v>
+        <v>5328</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K15" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L15">
         <v>141</v>
@@ -45490,7 +45506,7 @@
         <v>5028</v>
       </c>
       <c r="T15" t="s">
-        <v>5341</v>
+        <v>5340</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
@@ -45507,10 +45523,10 @@
         <v>1998</v>
       </c>
       <c r="E16" t="s">
+        <v>5189</v>
+      </c>
+      <c r="F16" t="s">
         <v>5190</v>
-      </c>
-      <c r="F16" t="s">
-        <v>5191</v>
       </c>
       <c r="G16" t="s">
         <v>5028</v>
@@ -45522,10 +45538,10 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K16" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L16">
         <v>284</v>
@@ -45557,34 +45573,34 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>5191</v>
+      </c>
+      <c r="C17" t="s">
         <v>5192</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5193</v>
       </c>
       <c r="D17">
         <v>2010</v>
       </c>
       <c r="E17" t="s">
+        <v>5193</v>
+      </c>
+      <c r="F17" t="s">
         <v>5194</v>
       </c>
-      <c r="F17" t="s">
-        <v>5195</v>
-      </c>
       <c r="G17" t="s">
         <v>5028</v>
       </c>
       <c r="H17" t="s">
-        <v>5330</v>
+        <v>5329</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K17" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L17">
         <v>252</v>
@@ -45616,19 +45632,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>5195</v>
+      </c>
+      <c r="C18" t="s">
         <v>5196</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5197</v>
       </c>
       <c r="D18">
         <v>1991</v>
       </c>
       <c r="E18" t="s">
+        <v>5197</v>
+      </c>
+      <c r="F18" t="s">
         <v>5198</v>
-      </c>
-      <c r="F18" t="s">
-        <v>5199</v>
       </c>
       <c r="G18" t="s">
         <v>5028</v>
@@ -45640,10 +45656,10 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K18" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L18">
         <v>88</v>
@@ -45684,10 +45700,10 @@
         <v>2001</v>
       </c>
       <c r="E19" t="s">
+        <v>5199</v>
+      </c>
+      <c r="F19" t="s">
         <v>5200</v>
-      </c>
-      <c r="F19" t="s">
-        <v>5201</v>
       </c>
       <c r="G19" t="s">
         <v>5028</v>
@@ -45699,10 +45715,10 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K19" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L19">
         <v>2852</v>
@@ -45743,10 +45759,10 @@
         <v>2002</v>
       </c>
       <c r="E20" t="s">
+        <v>5201</v>
+      </c>
+      <c r="F20" t="s">
         <v>5202</v>
-      </c>
-      <c r="F20" t="s">
-        <v>5203</v>
       </c>
       <c r="G20" t="s">
         <v>5028</v>
@@ -45758,10 +45774,10 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K20" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L20">
         <v>386</v>
@@ -45793,34 +45809,34 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>5203</v>
+      </c>
+      <c r="C21" t="s">
         <v>5204</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5205</v>
       </c>
       <c r="D21">
         <v>2008</v>
       </c>
       <c r="E21" t="s">
+        <v>5205</v>
+      </c>
+      <c r="F21" t="s">
         <v>5206</v>
       </c>
-      <c r="F21" t="s">
-        <v>5207</v>
-      </c>
       <c r="G21" t="s">
         <v>5028</v>
       </c>
       <c r="H21" t="s">
-        <v>5331</v>
+        <v>5330</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K21" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L21">
         <v>494</v>
@@ -45852,19 +45868,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>5207</v>
+      </c>
+      <c r="C22" t="s">
         <v>5208</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5209</v>
       </c>
       <c r="D22">
         <v>2000</v>
       </c>
       <c r="E22" t="s">
+        <v>5209</v>
+      </c>
+      <c r="F22" t="s">
         <v>5210</v>
-      </c>
-      <c r="F22" t="s">
-        <v>5211</v>
       </c>
       <c r="G22" t="s">
         <v>5028</v>
@@ -45876,10 +45892,10 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K22" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L22">
         <v>101</v>
@@ -45911,34 +45927,34 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>5211</v>
+      </c>
+      <c r="C23" t="s">
         <v>5212</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5213</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23" t="s">
+        <v>5213</v>
+      </c>
+      <c r="F23" t="s">
         <v>5214</v>
       </c>
-      <c r="F23" t="s">
-        <v>5215</v>
-      </c>
       <c r="G23" t="s">
         <v>5028</v>
       </c>
       <c r="H23" t="s">
-        <v>5326</v>
+        <v>5325</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K23" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L23">
         <v>92</v>
@@ -45965,7 +45981,7 @@
         <v>5028</v>
       </c>
       <c r="T23" t="s">
-        <v>5342</v>
+        <v>5341</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -45973,19 +45989,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>5215</v>
+      </c>
+      <c r="C24" t="s">
         <v>5216</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5217</v>
       </c>
       <c r="D24">
         <v>2005</v>
       </c>
       <c r="E24" t="s">
+        <v>5217</v>
+      </c>
+      <c r="F24" t="s">
         <v>5218</v>
-      </c>
-      <c r="F24" t="s">
-        <v>5219</v>
       </c>
       <c r="G24" t="s">
         <v>5028</v>
@@ -45997,10 +46013,10 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K24" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L24">
         <v>171</v>
@@ -46032,34 +46048,34 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>5219</v>
+      </c>
+      <c r="C25" t="s">
         <v>5220</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5221</v>
       </c>
       <c r="D25">
         <v>1995</v>
       </c>
       <c r="E25" t="s">
+        <v>5221</v>
+      </c>
+      <c r="F25" t="s">
         <v>5222</v>
       </c>
-      <c r="F25" t="s">
-        <v>5223</v>
-      </c>
       <c r="G25" t="s">
         <v>5028</v>
       </c>
       <c r="H25" t="s">
-        <v>5331</v>
+        <v>5330</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K25" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L25">
         <v>662</v>
@@ -46091,7 +46107,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>5224</v>
+        <v>5223</v>
       </c>
       <c r="C26" t="s">
         <v>3930</v>
@@ -46100,10 +46116,10 @@
         <v>1995</v>
       </c>
       <c r="E26" t="s">
+        <v>5224</v>
+      </c>
+      <c r="F26" t="s">
         <v>5225</v>
-      </c>
-      <c r="F26" t="s">
-        <v>5226</v>
       </c>
       <c r="G26" t="s">
         <v>5028</v>
@@ -46115,10 +46131,10 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K26" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L26">
         <v>888</v>
@@ -46150,7 +46166,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>5227</v>
+        <v>5226</v>
       </c>
       <c r="C27" t="s">
         <v>3930</v>
@@ -46159,10 +46175,10 @@
         <v>1999</v>
       </c>
       <c r="E27" t="s">
+        <v>5227</v>
+      </c>
+      <c r="F27" t="s">
         <v>5228</v>
-      </c>
-      <c r="F27" t="s">
-        <v>5229</v>
       </c>
       <c r="G27" t="s">
         <v>5028</v>
@@ -46174,10 +46190,10 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K27" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L27">
         <v>100</v>
@@ -46218,25 +46234,25 @@
         <v>2003</v>
       </c>
       <c r="E28" t="s">
+        <v>5229</v>
+      </c>
+      <c r="F28" t="s">
         <v>5230</v>
       </c>
-      <c r="F28" t="s">
-        <v>5231</v>
-      </c>
       <c r="G28" t="s">
         <v>5028</v>
       </c>
       <c r="H28" t="s">
-        <v>5326</v>
+        <v>5325</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K28" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L28">
         <v>860</v>
@@ -46268,19 +46284,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>5231</v>
+      </c>
+      <c r="C29" t="s">
         <v>5232</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5233</v>
       </c>
       <c r="D29">
         <v>2007</v>
       </c>
       <c r="E29" t="s">
+        <v>5233</v>
+      </c>
+      <c r="F29" t="s">
         <v>5234</v>
-      </c>
-      <c r="F29" t="s">
-        <v>5235</v>
       </c>
       <c r="G29" t="s">
         <v>5028</v>
@@ -46292,10 +46308,10 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K29" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L29">
         <v>27</v>
@@ -46327,34 +46343,34 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>5235</v>
+      </c>
+      <c r="C30" t="s">
         <v>5236</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5237</v>
       </c>
       <c r="D30">
         <v>2006</v>
       </c>
       <c r="E30" t="s">
+        <v>5237</v>
+      </c>
+      <c r="F30" t="s">
         <v>5238</v>
       </c>
-      <c r="F30" t="s">
-        <v>5239</v>
-      </c>
       <c r="G30" t="s">
         <v>5028</v>
       </c>
       <c r="H30" t="s">
-        <v>5332</v>
+        <v>5331</v>
       </c>
       <c r="I30" t="b">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K30" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L30">
         <v>1427</v>
@@ -46381,7 +46397,7 @@
         <v>3</v>
       </c>
       <c r="T30" t="s">
-        <v>5344</v>
+        <v>5343</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -46389,34 +46405,34 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>5239</v>
+      </c>
+      <c r="C31" t="s">
         <v>5240</v>
-      </c>
-      <c r="C31" t="s">
-        <v>5241</v>
       </c>
       <c r="D31">
         <v>2011</v>
       </c>
       <c r="E31" t="s">
+        <v>5241</v>
+      </c>
+      <c r="F31" t="s">
         <v>5242</v>
       </c>
-      <c r="F31" t="s">
-        <v>5243</v>
-      </c>
       <c r="G31" t="s">
         <v>5028</v>
       </c>
       <c r="H31" t="s">
-        <v>5331</v>
+        <v>5330</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K31" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L31">
         <v>80</v>
@@ -46448,19 +46464,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>5243</v>
+      </c>
+      <c r="C32" t="s">
         <v>5244</v>
-      </c>
-      <c r="C32" t="s">
-        <v>5245</v>
       </c>
       <c r="D32">
         <v>1999</v>
       </c>
       <c r="E32" t="s">
+        <v>5245</v>
+      </c>
+      <c r="F32" t="s">
         <v>5246</v>
-      </c>
-      <c r="F32" t="s">
-        <v>5247</v>
       </c>
       <c r="G32" t="s">
         <v>5028</v>
@@ -46472,10 +46488,10 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K32" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L32">
         <v>182</v>
@@ -46507,34 +46523,34 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>5247</v>
+      </c>
+      <c r="C33" t="s">
         <v>5248</v>
-      </c>
-      <c r="C33" t="s">
-        <v>5249</v>
       </c>
       <c r="D33">
         <v>2004</v>
       </c>
       <c r="E33" t="s">
+        <v>5249</v>
+      </c>
+      <c r="F33" t="s">
         <v>5250</v>
       </c>
-      <c r="F33" t="s">
-        <v>5251</v>
-      </c>
       <c r="G33" t="s">
         <v>5028</v>
       </c>
       <c r="H33" t="s">
-        <v>5326</v>
+        <v>5325</v>
       </c>
       <c r="I33" t="b">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K33" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L33">
         <v>389</v>
@@ -46575,10 +46591,10 @@
         <v>1999</v>
       </c>
       <c r="E34" t="s">
+        <v>5251</v>
+      </c>
+      <c r="F34" t="s">
         <v>5252</v>
-      </c>
-      <c r="F34" t="s">
-        <v>5253</v>
       </c>
       <c r="G34" t="s">
         <v>5028</v>
@@ -46590,10 +46606,10 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K34" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L34">
         <v>177</v>
@@ -46608,7 +46624,7 @@
         <v>5028</v>
       </c>
       <c r="P34" t="s">
-        <v>5345</v>
+        <v>5344</v>
       </c>
       <c r="Q34" t="s">
         <v>963</v>
@@ -46634,10 +46650,10 @@
         <v>2001</v>
       </c>
       <c r="E35" t="s">
+        <v>5253</v>
+      </c>
+      <c r="F35" t="s">
         <v>5254</v>
-      </c>
-      <c r="F35" t="s">
-        <v>5255</v>
       </c>
       <c r="G35" t="s">
         <v>5028</v>
@@ -46649,10 +46665,10 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K35" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L35">
         <v>217</v>
@@ -46684,19 +46700,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>5255</v>
+      </c>
+      <c r="C36" t="s">
         <v>5256</v>
-      </c>
-      <c r="C36" t="s">
-        <v>5257</v>
       </c>
       <c r="D36">
         <v>1993</v>
       </c>
       <c r="E36" t="s">
+        <v>5257</v>
+      </c>
+      <c r="F36" t="s">
         <v>5258</v>
-      </c>
-      <c r="F36" t="s">
-        <v>5259</v>
       </c>
       <c r="G36" t="s">
         <v>5028</v>
@@ -46708,10 +46724,10 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K36" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L36">
         <v>1442</v>
@@ -46752,10 +46768,10 @@
         <v>2006</v>
       </c>
       <c r="E37" t="s">
+        <v>5259</v>
+      </c>
+      <c r="F37" t="s">
         <v>5260</v>
-      </c>
-      <c r="F37" t="s">
-        <v>5261</v>
       </c>
       <c r="G37" t="s">
         <v>5028</v>
@@ -46767,10 +46783,10 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K37" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L37">
         <v>254</v>
@@ -46811,10 +46827,10 @@
         <v>1998</v>
       </c>
       <c r="E38" t="s">
+        <v>5261</v>
+      </c>
+      <c r="F38" t="s">
         <v>5262</v>
-      </c>
-      <c r="F38" t="s">
-        <v>5263</v>
       </c>
       <c r="G38" t="s">
         <v>5028</v>
@@ -46826,10 +46842,10 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K38" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L38">
         <v>301</v>
@@ -46870,25 +46886,25 @@
         <v>2001</v>
       </c>
       <c r="E39" t="s">
+        <v>5263</v>
+      </c>
+      <c r="F39" t="s">
         <v>5264</v>
       </c>
-      <c r="F39" t="s">
-        <v>5265</v>
-      </c>
       <c r="G39" t="s">
         <v>5028</v>
       </c>
       <c r="H39" t="s">
-        <v>5333</v>
+        <v>5332</v>
       </c>
       <c r="I39" t="b">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K39" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L39">
         <v>293</v>
@@ -46903,7 +46919,7 @@
         <v>5028</v>
       </c>
       <c r="P39" t="s">
-        <v>5347</v>
+        <v>5346</v>
       </c>
       <c r="Q39" t="s">
         <v>963</v>
@@ -46929,25 +46945,25 @@
         <v>2008</v>
       </c>
       <c r="E40" t="s">
+        <v>5265</v>
+      </c>
+      <c r="F40" t="s">
         <v>5266</v>
       </c>
-      <c r="F40" t="s">
-        <v>5267</v>
-      </c>
       <c r="G40" t="s">
         <v>5028</v>
       </c>
       <c r="H40" t="s">
-        <v>5331</v>
+        <v>5330</v>
       </c>
       <c r="I40" t="b">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K40" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L40">
         <v>153</v>
@@ -46979,19 +46995,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>5267</v>
+      </c>
+      <c r="C41" t="s">
         <v>5268</v>
-      </c>
-      <c r="C41" t="s">
-        <v>5269</v>
       </c>
       <c r="D41">
         <v>2001</v>
       </c>
       <c r="E41" t="s">
+        <v>5269</v>
+      </c>
+      <c r="F41" t="s">
         <v>5270</v>
-      </c>
-      <c r="F41" t="s">
-        <v>5271</v>
       </c>
       <c r="G41" t="s">
         <v>5028</v>
@@ -47003,10 +47019,10 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K41" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L41">
         <v>188</v>
@@ -47038,34 +47054,34 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>5271</v>
+      </c>
+      <c r="C42" t="s">
         <v>5272</v>
-      </c>
-      <c r="C42" t="s">
-        <v>5273</v>
       </c>
       <c r="D42">
         <v>2004</v>
       </c>
       <c r="E42" t="s">
+        <v>5273</v>
+      </c>
+      <c r="F42" t="s">
         <v>5274</v>
       </c>
-      <c r="F42" t="s">
-        <v>5275</v>
-      </c>
       <c r="G42" t="s">
         <v>5028</v>
       </c>
       <c r="H42" t="s">
-        <v>5326</v>
+        <v>5325</v>
       </c>
       <c r="I42" t="b">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K42" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L42">
         <v>93</v>
@@ -47097,7 +47113,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>5072</v>
+        <v>5071</v>
       </c>
       <c r="C43" t="s">
         <v>4128</v>
@@ -47106,25 +47122,25 @@
         <v>1995</v>
       </c>
       <c r="E43" t="s">
+        <v>5275</v>
+      </c>
+      <c r="F43" t="s">
         <v>5276</v>
       </c>
-      <c r="F43" t="s">
-        <v>5277</v>
-      </c>
       <c r="G43" t="s">
         <v>5028</v>
       </c>
       <c r="H43" t="s">
-        <v>5334</v>
+        <v>5333</v>
       </c>
       <c r="I43" t="b">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K43" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L43">
         <v>372</v>
@@ -47139,7 +47155,7 @@
         <v>5028</v>
       </c>
       <c r="P43" t="s">
-        <v>5345</v>
+        <v>5344</v>
       </c>
       <c r="Q43" t="s">
         <v>963</v>
@@ -47151,7 +47167,7 @@
         <v>5028</v>
       </c>
       <c r="T43" t="s">
-        <v>5348</v>
+        <v>5347</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -47159,19 +47175,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>5277</v>
+      </c>
+      <c r="C44" t="s">
         <v>5278</v>
-      </c>
-      <c r="C44" t="s">
-        <v>5279</v>
       </c>
       <c r="D44">
         <v>2004</v>
       </c>
       <c r="E44" t="s">
+        <v>5279</v>
+      </c>
+      <c r="F44" t="s">
         <v>5280</v>
-      </c>
-      <c r="F44" t="s">
-        <v>5281</v>
       </c>
       <c r="G44" t="s">
         <v>5028</v>
@@ -47183,10 +47199,10 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K44" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L44">
         <v>1830</v>
@@ -47218,19 +47234,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>5281</v>
+      </c>
+      <c r="C45" t="s">
         <v>5282</v>
-      </c>
-      <c r="C45" t="s">
-        <v>5283</v>
       </c>
       <c r="D45">
         <v>2005</v>
       </c>
       <c r="E45" t="s">
+        <v>5283</v>
+      </c>
+      <c r="F45" t="s">
         <v>5284</v>
-      </c>
-      <c r="F45" t="s">
-        <v>5285</v>
       </c>
       <c r="G45" t="s">
         <v>5028</v>
@@ -47242,10 +47258,10 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K45" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L45">
         <v>345</v>
@@ -47277,34 +47293,34 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>5285</v>
+      </c>
+      <c r="C46" t="s">
         <v>5286</v>
-      </c>
-      <c r="C46" t="s">
-        <v>5287</v>
       </c>
       <c r="D46">
         <v>2006</v>
       </c>
       <c r="E46" t="s">
+        <v>5287</v>
+      </c>
+      <c r="F46" t="s">
         <v>5288</v>
       </c>
-      <c r="F46" t="s">
-        <v>5289</v>
-      </c>
       <c r="G46" t="s">
         <v>5028</v>
       </c>
       <c r="H46" t="s">
-        <v>5335</v>
+        <v>5334</v>
       </c>
       <c r="I46" t="b">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K46" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L46">
         <v>1005</v>
@@ -47319,7 +47335,7 @@
         <v>5028</v>
       </c>
       <c r="P46" t="s">
-        <v>5337</v>
+        <v>5336</v>
       </c>
       <c r="Q46" t="s">
         <v>963</v>
@@ -47336,19 +47352,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>5289</v>
+      </c>
+      <c r="C47" t="s">
         <v>5290</v>
-      </c>
-      <c r="C47" t="s">
-        <v>5291</v>
       </c>
       <c r="D47">
         <v>2006</v>
       </c>
       <c r="E47" t="s">
+        <v>5291</v>
+      </c>
+      <c r="F47" t="s">
         <v>5292</v>
-      </c>
-      <c r="F47" t="s">
-        <v>5293</v>
       </c>
       <c r="G47" t="s">
         <v>5028</v>
@@ -47360,10 +47376,10 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K47" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L47">
         <v>596</v>
@@ -47378,7 +47394,7 @@
         <v>5028</v>
       </c>
       <c r="P47" t="s">
-        <v>5337</v>
+        <v>5336</v>
       </c>
       <c r="Q47" t="s">
         <v>963</v>
@@ -47395,19 +47411,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>5293</v>
+      </c>
+      <c r="C48" t="s">
         <v>5294</v>
-      </c>
-      <c r="C48" t="s">
-        <v>5295</v>
       </c>
       <c r="D48">
         <v>2005</v>
       </c>
       <c r="E48" t="s">
-        <v>5296</v>
+        <v>5295</v>
       </c>
       <c r="F48" t="s">
-        <v>5138</v>
+        <v>5137</v>
       </c>
       <c r="G48" t="s">
         <v>5028</v>
@@ -47419,10 +47435,10 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K48" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L48">
         <v>386</v>
@@ -47463,25 +47479,25 @@
         <v>1982</v>
       </c>
       <c r="E49" t="s">
-        <v>5297</v>
+        <v>5296</v>
       </c>
       <c r="F49" t="s">
-        <v>5139</v>
+        <v>5138</v>
       </c>
       <c r="G49" t="s">
         <v>5028</v>
       </c>
       <c r="H49" t="s">
-        <v>5334</v>
+        <v>5333</v>
       </c>
       <c r="I49" t="b">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K49" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L49">
         <v>55</v>
@@ -47522,10 +47538,10 @@
         <v>1985</v>
       </c>
       <c r="E50" t="s">
-        <v>5298</v>
+        <v>5297</v>
       </c>
       <c r="F50" t="s">
-        <v>5140</v>
+        <v>5139</v>
       </c>
       <c r="G50" t="s">
         <v>5028</v>
@@ -47537,10 +47553,10 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K50" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L50">
         <v>2143</v>
@@ -47572,7 +47588,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>5299</v>
+        <v>5298</v>
       </c>
       <c r="C51" t="s">
         <v>674</v>
@@ -47581,10 +47597,10 @@
         <v>1979</v>
       </c>
       <c r="E51" t="s">
-        <v>5300</v>
+        <v>5299</v>
       </c>
       <c r="F51" t="s">
-        <v>5141</v>
+        <v>5140</v>
       </c>
       <c r="G51" t="s">
         <v>5028</v>
@@ -47596,10 +47612,10 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K51" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L51">
         <v>251</v>
@@ -47631,19 +47647,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>5300</v>
+      </c>
+      <c r="C52" t="s">
         <v>5301</v>
-      </c>
-      <c r="C52" t="s">
-        <v>5302</v>
       </c>
       <c r="D52">
         <v>1997</v>
       </c>
       <c r="E52" t="s">
+        <v>5302</v>
+      </c>
+      <c r="F52" t="s">
         <v>5303</v>
-      </c>
-      <c r="F52" t="s">
-        <v>5304</v>
       </c>
       <c r="G52" t="s">
         <v>5028</v>
@@ -47655,10 +47671,10 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K52" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L52">
         <v>9699</v>
@@ -47690,34 +47706,34 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>5304</v>
+      </c>
+      <c r="C53" t="s">
         <v>5305</v>
-      </c>
-      <c r="C53" t="s">
-        <v>5306</v>
       </c>
       <c r="D53">
         <v>2014</v>
       </c>
       <c r="E53" t="s">
+        <v>5306</v>
+      </c>
+      <c r="F53" t="s">
         <v>5307</v>
       </c>
-      <c r="F53" t="s">
-        <v>5308</v>
-      </c>
       <c r="G53" t="s">
         <v>5028</v>
       </c>
       <c r="H53" t="s">
-        <v>5324</v>
+        <v>5323</v>
       </c>
       <c r="I53" t="b">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K53" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L53">
         <v>264</v>
@@ -47749,19 +47765,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>5308</v>
+      </c>
+      <c r="C54" t="s">
         <v>5309</v>
-      </c>
-      <c r="C54" t="s">
-        <v>5310</v>
       </c>
       <c r="D54">
         <v>2001</v>
       </c>
       <c r="E54" t="s">
+        <v>5310</v>
+      </c>
+      <c r="F54" t="s">
         <v>5311</v>
-      </c>
-      <c r="F54" t="s">
-        <v>5312</v>
       </c>
       <c r="G54" t="s">
         <v>5028</v>
@@ -47773,10 +47789,10 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K54" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L54">
         <v>261</v>
@@ -47808,19 +47824,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>5312</v>
+      </c>
+      <c r="C55" t="s">
         <v>5313</v>
-      </c>
-      <c r="C55" t="s">
-        <v>5314</v>
       </c>
       <c r="D55">
         <v>1999</v>
       </c>
       <c r="E55" t="s">
+        <v>5314</v>
+      </c>
+      <c r="F55" t="s">
         <v>5315</v>
-      </c>
-      <c r="F55" t="s">
-        <v>5316</v>
       </c>
       <c r="G55" t="s">
         <v>5028</v>
@@ -47832,10 +47848,10 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K55" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L55">
         <v>423</v>
@@ -47867,19 +47883,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>5316</v>
+      </c>
+      <c r="C56" t="s">
         <v>5317</v>
-      </c>
-      <c r="C56" t="s">
-        <v>5318</v>
       </c>
       <c r="D56">
         <v>2011</v>
       </c>
       <c r="E56" t="s">
+        <v>5318</v>
+      </c>
+      <c r="F56" t="s">
         <v>5319</v>
-      </c>
-      <c r="F56" t="s">
-        <v>5320</v>
       </c>
       <c r="G56" t="s">
         <v>5028</v>
@@ -47891,10 +47907,10 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="K56" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="L56">
         <v>197</v>
@@ -49526,10 +49542,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49581,24 +49597,24 @@
         <v>962</v>
       </c>
       <c r="O1" s="23" t="s">
-        <v>5113</v>
+        <v>5112</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>5119</v>
+        <v>5118</v>
       </c>
       <c r="Q1" s="28" t="s">
         <v>5037</v>
       </c>
       <c r="R1" s="29">
         <f>COUNTIFS($N:$N, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T1" s="28" t="s">
         <v>5038</v>
       </c>
       <c r="U1" s="29">
         <f>COUNTIF($M$2:$M$567, "YES")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V1" s="31"/>
       <c r="W1" s="31"/>
@@ -49649,7 +49665,7 @@
         <v>963</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="R2" t="s">
         <v>904</v>
@@ -49702,7 +49718,7 @@
         <v>963</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="W3" t="s">
         <v>5047</v>
@@ -49752,10 +49768,7 @@
         <v>963</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>966</v>
-      </c>
-      <c r="P4" t="s">
-        <v>5066</v>
+        <v>963</v>
       </c>
       <c r="W4" t="s">
         <v>5048</v>
@@ -49766,19 +49779,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5070</v>
+        <v>5069</v>
       </c>
       <c r="C5" t="s">
-        <v>5078</v>
+        <v>5077</v>
       </c>
       <c r="D5">
         <v>2003</v>
       </c>
       <c r="E5" t="s">
+        <v>5080</v>
+      </c>
+      <c r="F5" t="s">
         <v>5081</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5082</v>
       </c>
       <c r="G5" t="s">
         <v>5029</v>
@@ -49787,16 +49800,16 @@
         <v>158</v>
       </c>
       <c r="I5" t="s">
+        <v>5075</v>
+      </c>
+      <c r="J5" t="s">
         <v>5076</v>
       </c>
-      <c r="J5" t="s">
-        <v>5077</v>
-      </c>
       <c r="K5" t="s">
-        <v>5077</v>
+        <v>5076</v>
       </c>
       <c r="L5" t="s">
-        <v>5070</v>
+        <v>5069</v>
       </c>
       <c r="M5" t="s">
         <v>963</v>
@@ -49805,7 +49818,7 @@
         <v>963</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -49813,19 +49826,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5071</v>
+        <v>5070</v>
       </c>
       <c r="C6" t="s">
-        <v>5079</v>
+        <v>5078</v>
       </c>
       <c r="D6">
         <v>2012</v>
       </c>
       <c r="E6" t="s">
-        <v>5084</v>
+        <v>5083</v>
       </c>
       <c r="F6" t="s">
-        <v>5083</v>
+        <v>5082</v>
       </c>
       <c r="G6" t="s">
         <v>5029</v>
@@ -49834,16 +49847,16 @@
         <v>176</v>
       </c>
       <c r="I6" t="s">
+        <v>5084</v>
+      </c>
+      <c r="J6" t="s">
         <v>5085</v>
       </c>
-      <c r="J6" t="s">
-        <v>5086</v>
-      </c>
       <c r="K6" t="s">
-        <v>5086</v>
+        <v>5085</v>
       </c>
       <c r="L6" t="s">
-        <v>5071</v>
+        <v>5070</v>
       </c>
       <c r="M6" t="s">
         <v>963</v>
@@ -49852,17 +49865,17 @@
         <v>963</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>5117</v>
+        <v>5116</v>
       </c>
       <c r="R6">
         <f>COUNTIFS($N:$N, "YES", $M:$M, "&lt;&gt;PRIMARY STUDY")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W6" t="s">
-        <v>5075</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -49870,7 +49883,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5072</v>
+        <v>5071</v>
       </c>
       <c r="C7" t="s">
         <v>4128</v>
@@ -49879,10 +49892,10 @@
         <v>1995</v>
       </c>
       <c r="E7" t="s">
+        <v>5086</v>
+      </c>
+      <c r="F7" t="s">
         <v>5087</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5088</v>
       </c>
       <c r="G7" t="s">
         <v>5029</v>
@@ -49891,16 +49904,16 @@
         <v>372</v>
       </c>
       <c r="I7" t="s">
+        <v>5088</v>
+      </c>
+      <c r="J7" t="s">
         <v>5089</v>
       </c>
-      <c r="J7" t="s">
-        <v>5090</v>
-      </c>
       <c r="K7" t="s">
-        <v>5090</v>
+        <v>5089</v>
       </c>
       <c r="L7" t="s">
-        <v>5072</v>
+        <v>5071</v>
       </c>
       <c r="M7" t="s">
         <v>963</v>
@@ -49909,14 +49922,14 @@
         <v>963</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>5114</v>
+        <v>5113</v>
       </c>
       <c r="R7">
         <f>COUNTIFS($O:$O, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -49924,7 +49937,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5073</v>
+        <v>5072</v>
       </c>
       <c r="C8" t="s">
         <v>4077</v>
@@ -49933,10 +49946,10 @@
         <v>1994</v>
       </c>
       <c r="E8" t="s">
-        <v>5094</v>
+        <v>5093</v>
       </c>
       <c r="F8" t="s">
-        <v>5093</v>
+        <v>5092</v>
       </c>
       <c r="G8" t="s">
         <v>5029</v>
@@ -49945,13 +49958,13 @@
         <v>616</v>
       </c>
       <c r="I8" t="s">
+        <v>5090</v>
+      </c>
+      <c r="J8" t="s">
         <v>5091</v>
       </c>
-      <c r="J8" t="s">
-        <v>5092</v>
-      </c>
       <c r="L8" t="s">
-        <v>5073</v>
+        <v>5072</v>
       </c>
       <c r="M8" t="s">
         <v>963</v>
@@ -49960,7 +49973,7 @@
         <v>963</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -49968,19 +49981,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5074</v>
+        <v>5073</v>
       </c>
       <c r="C9" t="s">
-        <v>5080</v>
+        <v>5079</v>
       </c>
       <c r="D9">
         <v>1999</v>
       </c>
       <c r="E9" t="s">
+        <v>5096</v>
+      </c>
+      <c r="F9" t="s">
         <v>5097</v>
-      </c>
-      <c r="F9" t="s">
-        <v>5098</v>
       </c>
       <c r="G9" t="s">
         <v>5029</v>
@@ -49989,16 +50002,16 @@
         <v>196</v>
       </c>
       <c r="I9" t="s">
+        <v>5094</v>
+      </c>
+      <c r="J9" t="s">
         <v>5095</v>
       </c>
-      <c r="J9" t="s">
-        <v>5096</v>
-      </c>
       <c r="K9" t="s">
-        <v>5096</v>
+        <v>5095</v>
       </c>
       <c r="L9" t="s">
-        <v>5074</v>
+        <v>5073</v>
       </c>
       <c r="M9" t="s">
         <v>963</v>
@@ -50007,7 +50020,7 @@
         <v>963</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -50015,19 +50028,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>5101</v>
+      </c>
+      <c r="C10" t="s">
         <v>5102</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5103</v>
       </c>
       <c r="D10">
         <v>2012</v>
       </c>
       <c r="E10" t="s">
-        <v>5104</v>
+        <v>5103</v>
       </c>
       <c r="F10" t="s">
-        <v>5099</v>
+        <v>5098</v>
       </c>
       <c r="G10" t="s">
         <v>5029</v>
@@ -50036,16 +50049,16 @@
         <v>18</v>
       </c>
       <c r="I10" t="s">
+        <v>5099</v>
+      </c>
+      <c r="J10" t="s">
         <v>5100</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
+        <v>5100</v>
+      </c>
+      <c r="L10" t="s">
         <v>5101</v>
-      </c>
-      <c r="K10" t="s">
-        <v>5101</v>
-      </c>
-      <c r="L10" t="s">
-        <v>5102</v>
       </c>
       <c r="M10" t="s">
         <v>963</v>
@@ -50054,7 +50067,7 @@
         <v>963</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -50062,19 +50075,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5109</v>
+        <v>5108</v>
       </c>
       <c r="C11" t="s">
-        <v>5106</v>
+        <v>5105</v>
       </c>
       <c r="D11">
         <v>2020</v>
       </c>
       <c r="E11" t="s">
-        <v>5110</v>
+        <v>5109</v>
       </c>
       <c r="F11" t="s">
-        <v>5107</v>
+        <v>5106</v>
       </c>
       <c r="G11" t="s">
         <v>5029</v>
@@ -50083,16 +50096,16 @@
         <v>11</v>
       </c>
       <c r="I11" t="s">
+        <v>5107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>5104</v>
+      </c>
+      <c r="K11" t="s">
+        <v>5104</v>
+      </c>
+      <c r="L11" t="s">
         <v>5108</v>
-      </c>
-      <c r="J11" t="s">
-        <v>5105</v>
-      </c>
-      <c r="K11" t="s">
-        <v>5105</v>
-      </c>
-      <c r="L11" t="s">
-        <v>5109</v>
       </c>
       <c r="M11" t="s">
         <v>963</v>
@@ -50101,7 +50114,7 @@
         <v>963</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -50148,10 +50161,10 @@
         <v>963</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="P12" t="s">
-        <v>5120</v>
+        <v>5119</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -50198,10 +50211,10 @@
         <v>963</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="P13" t="s">
-        <v>5120</v>
+        <v>5119</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -50218,10 +50231,10 @@
         <v>1999</v>
       </c>
       <c r="E14" t="s">
+        <v>5251</v>
+      </c>
+      <c r="F14" t="s">
         <v>5252</v>
-      </c>
-      <c r="F14" t="s">
-        <v>5253</v>
       </c>
       <c r="G14" t="s">
         <v>5028</v>
@@ -50233,7 +50246,7 @@
         <v>5028</v>
       </c>
       <c r="J14" t="s">
-        <v>5028</v>
+        <v>5353</v>
       </c>
       <c r="K14" t="s">
         <v>5028</v>
@@ -50248,10 +50261,57 @@
         <v>963</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="P14" t="s">
+        <v>5345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5348</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5349</v>
+      </c>
+      <c r="D15">
+        <v>1999</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5351</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5350</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5028</v>
+      </c>
+      <c r="H15">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s">
+        <v>5028</v>
+      </c>
+      <c r="J15" t="s">
+        <v>5352</v>
+      </c>
+      <c r="K15" t="s">
+        <v>5352</v>
+      </c>
+      <c r="L15" t="s">
+        <v>5348</v>
+      </c>
+      <c r="M15" t="s">
+        <v>963</v>
+      </c>
+      <c r="N15" t="s">
+        <v>963</v>
+      </c>
+      <c r="O15" s="40" t="s">
         <v>966</v>
-      </c>
-      <c r="P14" t="s">
-        <v>5346</v>
       </c>
     </row>
   </sheetData>
@@ -50289,7 +50349,7 @@
   <conditionalFormatting sqref="L14">
     <cfRule type="duplicateValues" dxfId="16" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:O14">
+  <conditionalFormatting sqref="M2:O15">
     <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="PRIMARY STUDY">
       <formula>NOT(ISERROR(SEARCH("PRIMARY STUDY",M2)))</formula>
     </cfRule>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFE65CD-E19A-4410-A372-5CAA4820C354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBEDF9D-1FC4-4ED0-9EA8-B3FAAF4AC43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,7 +511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -537,7 +537,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -564,7 +564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -590,7 +590,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -616,7 +616,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="P6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -694,7 +694,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10210" uniqueCount="5354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10228" uniqueCount="5367">
   <si>
     <t>Number</t>
   </si>
@@ -16756,6 +16756,45 @@
   </si>
   <si>
     <t>https://www.sciencedirect.com/science/article/pii/S0927537198000141</t>
+  </si>
+  <si>
+    <t>Bingley, Paul, Kaare Christensen, and Ian Walker. "Twin-based estimates of the returns to education: Evidence from the population of Danish twins." unpublished paper (2005).</t>
+  </si>
+  <si>
+    <t>Bingley et al. (2005)</t>
+  </si>
+  <si>
+    <t>Twin-based estimates of the returns to education: Evidence from the population of Danish twins</t>
+  </si>
+  <si>
+    <t>http://www.warwick.ac.uk/fac/soc/economics/staff/academic/walker/current_research/twins2_130905.pdf</t>
+  </si>
+  <si>
+    <t>Bingley, Paul, Kaare Christensen, and Ian Walker. "The returns to observed and unobserved skills over time: Evidence from a panel of the population of danish twins." Danish National Institute for Social Research (2009).</t>
+  </si>
+  <si>
+    <t>Bingley et al.</t>
+  </si>
+  <si>
+    <t>Bingley et al. (2009)</t>
+  </si>
+  <si>
+    <t>The returns to observed and unobserved skills over time: Evidence from a panel of the population of danish twins</t>
+  </si>
+  <si>
+    <t>https://citeseerx.ist.psu.edu/document?repid=rep1&amp;type=pdf&amp;doi=433cabc29ff5522c0c57c251f78124d6f4cb7ec6</t>
+  </si>
+  <si>
+    <t>Isacsson, Gunnar. "Estimating the economic return to educational levels using data on twins." Journal of Applied Econometrics 19, no. 1 (2004): 99-119.</t>
+  </si>
+  <si>
+    <t>Isacsson (2004)</t>
+  </si>
+  <si>
+    <t>Estimating the economic return to educational levels using data on twins</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/abs/10.1002/jae.724</t>
   </si>
 </sst>
 </file>
@@ -17090,7 +17129,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -17137,7 +17176,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -17832,8 +17870,8 @@
   <dimension ref="A1:Y575"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17908,15 +17946,15 @@
         <v>5037</v>
       </c>
       <c r="R1" s="29">
-        <f>COUNTIFS($M:$M, "YES", $F:$F, "&lt;&gt;") + Twins!R1</f>
-        <v>93</v>
+        <f>COUNTIFS($M:$M, "YES", $F:$F, "&lt;&gt;") + Twins!Q1</f>
+        <v>96</v>
       </c>
       <c r="T1" s="28" t="s">
         <v>5038</v>
       </c>
       <c r="U1" s="29">
-        <f>COUNTIF($L$2:$L$575, "&lt;&gt; ") +Twins!U1</f>
-        <v>239</v>
+        <f>COUNTIF($L$2:$L$575, "&lt;&gt; ") +Twins!T1</f>
+        <v>242</v>
       </c>
       <c r="V1" s="31"/>
       <c r="W1" s="31"/>
@@ -44554,7 +44592,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49542,10 +49580,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49553,7 +49591,7 @@
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -49573,55 +49611,52 @@
         <v>3903</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>3907</v>
+        <v>3902</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>3902</v>
+        <v>3906</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>3906</v>
+        <v>3904</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>3904</v>
-      </c>
-      <c r="K1" s="23" t="s">
         <v>3905</v>
       </c>
+      <c r="K1" s="24" t="s">
+        <v>7</v>
+      </c>
       <c r="L1" s="24" t="s">
-        <v>7</v>
+        <v>965</v>
       </c>
       <c r="M1" s="24" t="s">
-        <v>965</v>
-      </c>
-      <c r="N1" s="24" t="s">
         <v>962</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="N1" s="23" t="s">
         <v>5112</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>5118</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="P1" s="28" t="s">
         <v>5037</v>
       </c>
-      <c r="R1" s="29">
-        <f>COUNTIFS($N:$N, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>14</v>
-      </c>
-      <c r="T1" s="28" t="s">
+      <c r="Q1" s="29">
+        <f>COUNTIFS($M:$M, "YES", $F:$F, "&lt;&gt;")</f>
+        <v>17</v>
+      </c>
+      <c r="S1" s="28" t="s">
         <v>5038</v>
       </c>
-      <c r="U1" s="29">
-        <f>COUNTIF($M$2:$M$567, "YES")</f>
-        <v>14</v>
-      </c>
+      <c r="T1" s="29">
+        <f>COUNTIF($L$2:$L$567, "YES")</f>
+        <v>17</v>
+      </c>
+      <c r="U1" s="31"/>
       <c r="V1" s="31"/>
       <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="30"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X1" s="30"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -49640,41 +49675,38 @@
       <c r="F2" t="s">
         <v>5049</v>
       </c>
-      <c r="G2" t="s">
-        <v>5029</v>
-      </c>
-      <c r="H2">
+      <c r="G2">
         <v>908</v>
       </c>
+      <c r="H2" t="s">
+        <v>5053</v>
+      </c>
       <c r="I2" t="s">
-        <v>5053</v>
+        <v>5052</v>
       </c>
       <c r="J2" t="s">
         <v>5052</v>
       </c>
       <c r="K2" t="s">
-        <v>5052</v>
+        <v>5051</v>
       </c>
       <c r="L2" t="s">
-        <v>5051</v>
+        <v>963</v>
       </c>
       <c r="M2" t="s">
         <v>963</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="7" t="s">
         <v>963</v>
       </c>
-      <c r="O2" s="7" t="s">
-        <v>963</v>
-      </c>
-      <c r="R2" t="s">
-        <v>904</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="Q2" t="s">
+        <v>904</v>
+      </c>
+      <c r="V2" t="s">
         <v>5046</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -49693,38 +49725,35 @@
       <c r="F3" t="s">
         <v>5054</v>
       </c>
-      <c r="G3" t="s">
-        <v>5029</v>
-      </c>
-      <c r="H3">
+      <c r="G3">
         <v>1812</v>
       </c>
+      <c r="H3" t="s">
+        <v>5055</v>
+      </c>
       <c r="I3" t="s">
-        <v>5055</v>
+        <v>5056</v>
       </c>
       <c r="J3" t="s">
         <v>5056</v>
       </c>
       <c r="K3" t="s">
-        <v>5056</v>
+        <v>5060</v>
       </c>
       <c r="L3" t="s">
-        <v>5060</v>
+        <v>963</v>
       </c>
       <c r="M3" t="s">
         <v>963</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="7" t="s">
         <v>963</v>
       </c>
-      <c r="O3" s="7" t="s">
-        <v>963</v>
-      </c>
-      <c r="W3" t="s">
+      <c r="V3" t="s">
         <v>5047</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -49743,38 +49772,35 @@
       <c r="F4" t="s">
         <v>5061</v>
       </c>
-      <c r="G4" t="s">
-        <v>5029</v>
-      </c>
-      <c r="H4">
+      <c r="G4">
         <v>188</v>
       </c>
+      <c r="H4" t="s">
+        <v>5062</v>
+      </c>
       <c r="I4" t="s">
-        <v>5062</v>
+        <v>5064</v>
       </c>
       <c r="J4" t="s">
-        <v>5064</v>
+        <v>5063</v>
       </c>
       <c r="K4" t="s">
-        <v>5063</v>
+        <v>727</v>
       </c>
       <c r="L4" t="s">
-        <v>727</v>
+        <v>963</v>
       </c>
       <c r="M4" t="s">
         <v>963</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="7" t="s">
         <v>963</v>
       </c>
-      <c r="O4" s="7" t="s">
-        <v>963</v>
-      </c>
-      <c r="W4" t="s">
+      <c r="V4" t="s">
         <v>5048</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -49793,35 +49819,32 @@
       <c r="F5" t="s">
         <v>5081</v>
       </c>
-      <c r="G5" t="s">
-        <v>5029</v>
-      </c>
-      <c r="H5">
+      <c r="G5">
         <v>158</v>
       </c>
+      <c r="H5" t="s">
+        <v>5075</v>
+      </c>
       <c r="I5" t="s">
-        <v>5075</v>
+        <v>5076</v>
       </c>
       <c r="J5" t="s">
         <v>5076</v>
       </c>
       <c r="K5" t="s">
-        <v>5076</v>
+        <v>5069</v>
       </c>
       <c r="L5" t="s">
-        <v>5069</v>
+        <v>963</v>
       </c>
       <c r="M5" t="s">
         <v>963</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="7" t="s">
         <v>963</v>
       </c>
-      <c r="O5" s="7" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -49840,45 +49863,42 @@
       <c r="F6" t="s">
         <v>5082</v>
       </c>
-      <c r="G6" t="s">
-        <v>5029</v>
-      </c>
-      <c r="H6">
+      <c r="G6">
         <v>176</v>
       </c>
+      <c r="H6" t="s">
+        <v>5084</v>
+      </c>
       <c r="I6" t="s">
-        <v>5084</v>
+        <v>5085</v>
       </c>
       <c r="J6" t="s">
         <v>5085</v>
       </c>
       <c r="K6" t="s">
-        <v>5085</v>
+        <v>5070</v>
       </c>
       <c r="L6" t="s">
-        <v>5070</v>
+        <v>963</v>
       </c>
       <c r="M6" t="s">
         <v>963</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="7" t="s">
         <v>963</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>963</v>
-      </c>
-      <c r="Q6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>5116</v>
       </c>
-      <c r="R6">
-        <f>COUNTIFS($N:$N, "YES", $M:$M, "&lt;&gt;PRIMARY STUDY")</f>
-        <v>14</v>
-      </c>
-      <c r="W6" t="s">
+      <c r="Q6">
+        <f>COUNTIFS($M:$M, "YES", $L:$L, "&lt;&gt;PRIMARY STUDY")</f>
+        <v>17</v>
+      </c>
+      <c r="V6" t="s">
         <v>5074</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -49897,42 +49917,39 @@
       <c r="F7" t="s">
         <v>5087</v>
       </c>
-      <c r="G7" t="s">
-        <v>5029</v>
-      </c>
-      <c r="H7">
+      <c r="G7">
         <v>372</v>
       </c>
+      <c r="H7" t="s">
+        <v>5088</v>
+      </c>
       <c r="I7" t="s">
-        <v>5088</v>
+        <v>5089</v>
       </c>
       <c r="J7" t="s">
         <v>5089</v>
       </c>
       <c r="K7" t="s">
-        <v>5089</v>
+        <v>5071</v>
       </c>
       <c r="L7" t="s">
-        <v>5071</v>
+        <v>963</v>
       </c>
       <c r="M7" t="s">
         <v>963</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="7" t="s">
         <v>963</v>
       </c>
-      <c r="O7" s="7" t="s">
-        <v>963</v>
-      </c>
-      <c r="Q7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>5113</v>
       </c>
-      <c r="R7">
-        <f>COUNTIFS($O:$O, "YES", $F:$F, "&lt;&gt;")</f>
+      <c r="Q7">
+        <f>COUNTIFS($N:$N, "YES", $F:$F, "&lt;&gt;")</f>
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -49951,32 +49968,29 @@
       <c r="F8" t="s">
         <v>5092</v>
       </c>
-      <c r="G8" t="s">
-        <v>5029</v>
-      </c>
-      <c r="H8">
+      <c r="G8">
         <v>616</v>
       </c>
+      <c r="H8" t="s">
+        <v>5090</v>
+      </c>
       <c r="I8" t="s">
-        <v>5090</v>
-      </c>
-      <c r="J8" t="s">
         <v>5091</v>
       </c>
+      <c r="K8" t="s">
+        <v>5072</v>
+      </c>
       <c r="L8" t="s">
-        <v>5072</v>
+        <v>963</v>
       </c>
       <c r="M8" t="s">
         <v>963</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="7" t="s">
         <v>963</v>
       </c>
-      <c r="O8" s="7" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -49995,35 +50009,32 @@
       <c r="F9" t="s">
         <v>5097</v>
       </c>
-      <c r="G9" t="s">
-        <v>5029</v>
-      </c>
-      <c r="H9">
+      <c r="G9">
         <v>196</v>
       </c>
+      <c r="H9" t="s">
+        <v>5094</v>
+      </c>
       <c r="I9" t="s">
-        <v>5094</v>
+        <v>5095</v>
       </c>
       <c r="J9" t="s">
         <v>5095</v>
       </c>
       <c r="K9" t="s">
-        <v>5095</v>
+        <v>5073</v>
       </c>
       <c r="L9" t="s">
-        <v>5073</v>
+        <v>963</v>
       </c>
       <c r="M9" t="s">
         <v>963</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="7" t="s">
         <v>963</v>
       </c>
-      <c r="O9" s="7" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -50042,35 +50053,32 @@
       <c r="F10" t="s">
         <v>5098</v>
       </c>
-      <c r="G10" t="s">
-        <v>5029</v>
-      </c>
-      <c r="H10">
+      <c r="G10">
         <v>18</v>
       </c>
+      <c r="H10" t="s">
+        <v>5099</v>
+      </c>
       <c r="I10" t="s">
-        <v>5099</v>
+        <v>5100</v>
       </c>
       <c r="J10" t="s">
         <v>5100</v>
       </c>
       <c r="K10" t="s">
-        <v>5100</v>
+        <v>5101</v>
       </c>
       <c r="L10" t="s">
-        <v>5101</v>
+        <v>963</v>
       </c>
       <c r="M10" t="s">
         <v>963</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="7" t="s">
         <v>963</v>
       </c>
-      <c r="O10" s="7" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -50089,35 +50097,32 @@
       <c r="F11" t="s">
         <v>5106</v>
       </c>
-      <c r="G11" t="s">
-        <v>5029</v>
-      </c>
-      <c r="H11">
+      <c r="G11">
         <v>11</v>
       </c>
+      <c r="H11" t="s">
+        <v>5107</v>
+      </c>
       <c r="I11" t="s">
-        <v>5107</v>
+        <v>5104</v>
       </c>
       <c r="J11" t="s">
         <v>5104</v>
       </c>
       <c r="K11" t="s">
-        <v>5104</v>
+        <v>5108</v>
       </c>
       <c r="L11" t="s">
-        <v>5108</v>
+        <v>963</v>
       </c>
       <c r="M11" t="s">
         <v>963</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="7" t="s">
         <v>963</v>
       </c>
-      <c r="O11" s="7" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -50136,38 +50141,35 @@
       <c r="F12" t="s">
         <v>970</v>
       </c>
-      <c r="G12" t="s">
-        <v>1074</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1073</v>
       </c>
       <c r="I12" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="J12" t="s">
         <v>1075</v>
       </c>
       <c r="K12" t="s">
-        <v>1075</v>
+        <v>3935</v>
       </c>
       <c r="L12" t="s">
-        <v>3935</v>
+        <v>963</v>
       </c>
       <c r="M12" t="s">
         <v>963</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="7" t="s">
         <v>963</v>
       </c>
-      <c r="O12" s="7" t="s">
-        <v>963</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="O12" t="s">
         <v>5119</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -50186,38 +50188,35 @@
       <c r="F13" t="s">
         <v>1962</v>
       </c>
-      <c r="G13" t="s">
-        <v>1959</v>
-      </c>
-      <c r="H13">
+      <c r="G13">
         <v>19</v>
       </c>
+      <c r="H13" t="s">
+        <v>1958</v>
+      </c>
       <c r="I13" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="J13" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="K13" t="s">
-        <v>1961</v>
+        <v>4127</v>
       </c>
       <c r="L13" t="s">
-        <v>4127</v>
+        <v>963</v>
       </c>
       <c r="M13" t="s">
         <v>963</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="7" t="s">
         <v>963</v>
       </c>
-      <c r="O13" s="7" t="s">
-        <v>963</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="O13" t="s">
         <v>5119</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -50236,38 +50235,35 @@
       <c r="F14" t="s">
         <v>5252</v>
       </c>
-      <c r="G14" t="s">
-        <v>5028</v>
-      </c>
-      <c r="H14">
+      <c r="G14">
         <v>177</v>
       </c>
+      <c r="H14" t="s">
+        <v>5028</v>
+      </c>
       <c r="I14" t="s">
-        <v>5028</v>
+        <v>5353</v>
       </c>
       <c r="J14" t="s">
-        <v>5353</v>
+        <v>5028</v>
       </c>
       <c r="K14" t="s">
-        <v>5028</v>
+        <v>399</v>
       </c>
       <c r="L14" t="s">
-        <v>399</v>
+        <v>963</v>
       </c>
       <c r="M14" t="s">
         <v>963</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="7" t="s">
         <v>963</v>
       </c>
-      <c r="O14" s="7" t="s">
-        <v>963</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="O14" t="s">
         <v>5345</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -50286,31 +50282,160 @@
       <c r="F15" t="s">
         <v>5350</v>
       </c>
-      <c r="G15" t="s">
-        <v>5028</v>
-      </c>
-      <c r="H15">
+      <c r="G15">
         <v>17</v>
       </c>
+      <c r="H15" t="s">
+        <v>5028</v>
+      </c>
       <c r="I15" t="s">
-        <v>5028</v>
+        <v>5352</v>
       </c>
       <c r="J15" t="s">
         <v>5352</v>
       </c>
       <c r="K15" t="s">
-        <v>5352</v>
+        <v>5348</v>
       </c>
       <c r="L15" t="s">
-        <v>5348</v>
+        <v>963</v>
       </c>
       <c r="M15" t="s">
         <v>963</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="7" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5355</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5359</v>
+      </c>
+      <c r="D16">
+        <v>2005</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5356</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5354</v>
+      </c>
+      <c r="G16">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
+        <v>5028</v>
+      </c>
+      <c r="I16" t="s">
+        <v>5357</v>
+      </c>
+      <c r="J16" t="s">
+        <v>5357</v>
+      </c>
+      <c r="K16" t="s">
+        <v>5355</v>
+      </c>
+      <c r="L16" t="s">
         <v>963</v>
       </c>
-      <c r="O15" s="40" t="s">
+      <c r="M16" t="s">
+        <v>963</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5360</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5359</v>
+      </c>
+      <c r="D17">
+        <v>2009</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5361</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5358</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="H17" t="s">
+        <v>5028</v>
+      </c>
+      <c r="I17" t="s">
+        <v>5362</v>
+      </c>
+      <c r="J17" t="s">
+        <v>5357</v>
+      </c>
+      <c r="K17" t="s">
+        <v>5360</v>
+      </c>
+      <c r="L17" t="s">
+        <v>963</v>
+      </c>
+      <c r="M17" t="s">
+        <v>963</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5364</v>
+      </c>
+      <c r="C18" t="s">
+        <v>400</v>
+      </c>
+      <c r="D18">
+        <v>2004</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5365</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5363</v>
+      </c>
+      <c r="G18">
+        <v>85</v>
+      </c>
+      <c r="H18" t="s">
+        <v>5028</v>
+      </c>
+      <c r="I18" t="s">
+        <v>5366</v>
+      </c>
+      <c r="J18" t="s">
+        <v>5366</v>
+      </c>
+      <c r="K18" t="s">
+        <v>5364</v>
+      </c>
+      <c r="L18" t="s">
+        <v>963</v>
+      </c>
+      <c r="M18" t="s">
+        <v>963</v>
+      </c>
+      <c r="N18" s="7" t="s">
         <v>966</v>
       </c>
     </row>
@@ -50335,56 +50460,56 @@
       <formula>LEN(TRIM(F13))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H12 H15:H1048576">
+  <conditionalFormatting sqref="G1:G12 G15:G1048576 H16:H18">
     <cfRule type="containsBlanks" dxfId="19" priority="38">
-      <formula>LEN(TRIM(H1))=0</formula>
+      <formula>LEN(TRIM(G1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2">
+  <conditionalFormatting sqref="K2">
     <cfRule type="duplicateValues" dxfId="18" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
+  <conditionalFormatting sqref="K13">
     <cfRule type="duplicateValues" dxfId="17" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
+  <conditionalFormatting sqref="K14">
     <cfRule type="duplicateValues" dxfId="16" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:O15">
+  <conditionalFormatting sqref="L2:N18">
     <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="PRIMARY STUDY">
-      <formula>NOT(ISERROR(SEARCH("PRIMARY STUDY",M2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PRIMARY STUDY",L2)))</formula>
     </cfRule>
     <cfRule type="notContainsText" dxfId="14" priority="3" operator="notContains" text="YES">
-      <formula>ISERROR(SEARCH("YES",M2))</formula>
+      <formula>ISERROR(SEARCH("YES",L2))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",M2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("YES",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O13:O14">
+  <conditionalFormatting sqref="N13:N14">
     <cfRule type="containsBlanks" dxfId="12" priority="1">
-      <formula>LEN(TRIM(O13))=0</formula>
+      <formula>LEN(TRIM(N13))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="11" priority="10" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="X">
-      <formula>NOT(ISERROR(SEARCH("X",O13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("X",N13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1 P4">
+  <conditionalFormatting sqref="O1 O4">
     <cfRule type="cellIs" dxfId="9" priority="32" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="8" priority="33" operator="containsText" text="X">
-      <formula>NOT(ISERROR(SEARCH("X",P1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("X",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q2">
+  <conditionalFormatting sqref="P1:P2">
     <cfRule type="duplicateValues" dxfId="7" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1">
+  <conditionalFormatting sqref="S1">
     <cfRule type="duplicateValues" dxfId="6" priority="29"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBEDF9D-1FC4-4ED0-9EA8-B3FAAF4AC43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C65A8C-66B5-4771-9241-59B1B934700C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -694,7 +694,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10228" uniqueCount="5367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10217" uniqueCount="5364">
   <si>
     <t>Number</t>
   </si>
@@ -16756,15 +16756,6 @@
   </si>
   <si>
     <t>https://www.sciencedirect.com/science/article/pii/S0927537198000141</t>
-  </si>
-  <si>
-    <t>Bingley, Paul, Kaare Christensen, and Ian Walker. "Twin-based estimates of the returns to education: Evidence from the population of Danish twins." unpublished paper (2005).</t>
-  </si>
-  <si>
-    <t>Bingley et al. (2005)</t>
-  </si>
-  <si>
-    <t>Twin-based estimates of the returns to education: Evidence from the population of Danish twins</t>
   </si>
   <si>
     <t>http://www.warwick.ac.uk/fac/soc/economics/staff/academic/walker/current_research/twins2_130905.pdf</t>
@@ -17947,14 +17938,14 @@
       </c>
       <c r="R1" s="29">
         <f>COUNTIFS($M:$M, "YES", $F:$F, "&lt;&gt;") + Twins!Q1</f>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T1" s="28" t="s">
         <v>5038</v>
       </c>
       <c r="U1" s="29">
         <f>COUNTIF($L$2:$L$575, "&lt;&gt; ") +Twins!T1</f>
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V1" s="31"/>
       <c r="W1" s="31"/>
@@ -49580,10 +49571,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:X18"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49642,14 +49633,14 @@
       </c>
       <c r="Q1" s="29">
         <f>COUNTIFS($M:$M, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S1" s="28" t="s">
         <v>5038</v>
       </c>
       <c r="T1" s="29">
-        <f>COUNTIF($L$2:$L$567, "YES")</f>
-        <v>17</v>
+        <f>COUNTIF($L$2:$L$566, "YES")</f>
+        <v>16</v>
       </c>
       <c r="U1" s="31"/>
       <c r="V1" s="31"/>
@@ -49892,7 +49883,7 @@
       </c>
       <c r="Q6">
         <f>COUNTIFS($M:$M, "YES", $L:$L, "&lt;&gt;PRIMARY STUDY")</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V6" t="s">
         <v>5074</v>
@@ -49946,7 +49937,7 @@
       </c>
       <c r="Q7">
         <f>COUNTIFS($N:$N, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -50304,7 +50295,7 @@
         <v>963</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -50312,34 +50303,34 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>5357</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5356</v>
+      </c>
+      <c r="D16">
+        <v>2009</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5358</v>
+      </c>
+      <c r="F16" t="s">
         <v>5355</v>
       </c>
-      <c r="C16" t="s">
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16" t="s">
+        <v>5028</v>
+      </c>
+      <c r="I16" t="s">
         <v>5359</v>
       </c>
-      <c r="D16">
-        <v>2005</v>
-      </c>
-      <c r="E16" t="s">
-        <v>5356</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="J16" t="s">
         <v>5354</v>
       </c>
-      <c r="G16">
-        <v>19</v>
-      </c>
-      <c r="H16" t="s">
-        <v>5028</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>5357</v>
-      </c>
-      <c r="J16" t="s">
-        <v>5357</v>
-      </c>
-      <c r="K16" t="s">
-        <v>5355</v>
       </c>
       <c r="L16" t="s">
         <v>963</v>
@@ -50348,7 +50339,7 @@
         <v>963</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -50356,34 +50347,34 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>5361</v>
+      </c>
+      <c r="C17" t="s">
+        <v>400</v>
+      </c>
+      <c r="D17">
+        <v>2004</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5362</v>
+      </c>
+      <c r="F17" t="s">
         <v>5360</v>
       </c>
-      <c r="C17" t="s">
-        <v>5359</v>
-      </c>
-      <c r="D17">
-        <v>2009</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="G17">
+        <v>85</v>
+      </c>
+      <c r="H17" t="s">
+        <v>5028</v>
+      </c>
+      <c r="I17" t="s">
+        <v>5363</v>
+      </c>
+      <c r="J17" t="s">
+        <v>5363</v>
+      </c>
+      <c r="K17" t="s">
         <v>5361</v>
-      </c>
-      <c r="F17" t="s">
-        <v>5358</v>
-      </c>
-      <c r="G17">
-        <v>8</v>
-      </c>
-      <c r="H17" t="s">
-        <v>5028</v>
-      </c>
-      <c r="I17" t="s">
-        <v>5362</v>
-      </c>
-      <c r="J17" t="s">
-        <v>5357</v>
-      </c>
-      <c r="K17" t="s">
-        <v>5360</v>
       </c>
       <c r="L17" t="s">
         <v>963</v>
@@ -50392,50 +50383,6 @@
         <v>963</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5364</v>
-      </c>
-      <c r="C18" t="s">
-        <v>400</v>
-      </c>
-      <c r="D18">
-        <v>2004</v>
-      </c>
-      <c r="E18" t="s">
-        <v>5365</v>
-      </c>
-      <c r="F18" t="s">
-        <v>5363</v>
-      </c>
-      <c r="G18">
-        <v>85</v>
-      </c>
-      <c r="H18" t="s">
-        <v>5028</v>
-      </c>
-      <c r="I18" t="s">
-        <v>5366</v>
-      </c>
-      <c r="J18" t="s">
-        <v>5366</v>
-      </c>
-      <c r="K18" t="s">
-        <v>5364</v>
-      </c>
-      <c r="L18" t="s">
-        <v>963</v>
-      </c>
-      <c r="M18" t="s">
-        <v>963</v>
-      </c>
-      <c r="N18" s="7" t="s">
         <v>966</v>
       </c>
     </row>
@@ -50460,7 +50407,7 @@
       <formula>LEN(TRIM(F13))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G12 G15:G1048576 H16:H18">
+  <conditionalFormatting sqref="G1:G12 G15:G1048576 H16:H17">
     <cfRule type="containsBlanks" dxfId="19" priority="38">
       <formula>LEN(TRIM(G1))=0</formula>
     </cfRule>
@@ -50474,7 +50421,7 @@
   <conditionalFormatting sqref="K14">
     <cfRule type="duplicateValues" dxfId="16" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:N18">
+  <conditionalFormatting sqref="L2:N17">
     <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="PRIMARY STUDY">
       <formula>NOT(ISERROR(SEARCH("PRIMARY STUDY",L2)))</formula>
     </cfRule>
@@ -50485,7 +50432,7 @@
       <formula>NOT(ISERROR(SEARCH("YES",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N13:N14">
+  <conditionalFormatting sqref="N13:N16">
     <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(N13))=0</formula>
     </cfRule>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C65A8C-66B5-4771-9241-59B1B934700C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0768EEC-B02F-4659-B62D-94FE0182A6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49574,7 +49574,7 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49937,7 +49937,7 @@
       </c>
       <c r="Q7">
         <f>COUNTIFS($N:$N, "YES", $F:$F, "&lt;&gt;")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -50383,7 +50383,7 @@
         <v>963</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
   </sheetData>
@@ -50432,7 +50432,7 @@
       <formula>NOT(ISERROR(SEARCH("YES",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N13:N16">
+  <conditionalFormatting sqref="N13:N17">
     <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(N13))=0</formula>
     </cfRule>

--- a/Literature/Literature.xlsx
+++ b/Literature/Literature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0768EEC-B02F-4659-B62D-94FE0182A6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBD65D0-271D-492E-BFAA-46BC06C8D015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Query literature" sheetId="5" r:id="rId1"/>
@@ -694,7 +694,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10217" uniqueCount="5364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10218" uniqueCount="5365">
   <si>
     <t>Number</t>
   </si>
@@ -16786,6 +16786,9 @@
   </si>
   <si>
     <t>https://onlinelibrary.wiley.com/doi/abs/10.1002/jae.724</t>
+  </si>
+  <si>
+    <t>Relevant:</t>
   </si>
 </sst>
 </file>
@@ -17860,9 +17863,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y575"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18279,6 +18282,13 @@
       </c>
       <c r="Q7" s="2" t="s">
         <v>904</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>5364</v>
+      </c>
+      <c r="U7">
+        <f>COUNTIF(L:L,"YES") + COUNTIF(L:L,"INSUFFICIENT DATA")</f>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -49573,7 +49583,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
